--- a/Project/code/intermediate/models/0001_ViT_strong_0/results_0.0000_max_val/individual_clip_results.xlsx
+++ b/Project/code/intermediate/models/0001_ViT_strong_0/results_0.0000_max_val/individual_clip_results.xlsx
@@ -605,11 +605,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.6555054783821106, 0.5450159311294556, 0.5874021649360657, 0.5658191442489624, 0.5221934914588928, 0.5578516125679016, 0.5561860799789429, 0.4734630286693573, 0.4200296700000763, 0.6245653033256531, 0.583325207233429, 0.45865729451179504, 0.7449979186058044, 0.7901094555854797, 0.5866258144378662, 0.6260955333709717, 0.568335771560669, 0.5915662050247192, 0.7399061918258667, 0.5960332155227661, 0.9222294092178345, 0.9269627928733826, 0.9134965538978577, 0.82007896900177, 0.8894335627555847, 0.8892167806625366, 0.9193216562271118, 0.8711912035942078, 0.8524733781814575, 0.7771925330162048, 0.6456918716430664, 0.6781853437423706, 0.585956335067749, 0.495166152715683, 0.6497902870178223, 0.6342555284500122, 0.6161932349205017, 0.4129881262779236, 0.37592339515686035, 0.4986562728881836, 0.4546562433242798, 0.44770756363868713, 0.4723156690597534, 0.3590526282787323, 0.5207913517951965, 0.6513769626617432, 0.5674333572387695, 0.4926270842552185, 0.4772472083568573, 0.42600294947624207, 0.3549184203147888, 0.7757652401924133, 0.6919500827789307, 0.6473807692527771, 0.5687424540519714, 0.7440189123153687, 0.5574216842651367, 0.4377833604812622, 0.6230661273002625, 0.45402437448501587, 0.6219315528869629, 0.5339723229408264, 0.5145730972290039, 0.5297443270683289, 0.5991194248199463, 0.38493072986602783, 0.5836758017539978, 0.48291081190109253, 0.5571085810661316, 0.6219697594642639, 0.5277098417282104, 0.4078119397163391, 0.47178030014038086, 0.6466938257217407, 0.6333594918251038, 0.4749067425727844, 0.6876102089881897, 0.6720424890518188, 0.5805065631866455, 0.4390983283519745, 0.6550205945968628, 0.5384919047355652, 0.5561482906341553, 0.5312197804450989, 0.6330832839012146, 0.5598574280738831, 0.5917035341262817, 0.6119875907897949, 0.5518314838409424, 0.5796356797218323, 0.5684141516685486, 0.5542395114898682, 0.5592799186706543, 0.4216505289077759, 0.4064117670059204, 0.6366934180259705, 0.46339917182922363, 0.5158300995826721, 0.5955557823181152, 0.5809524655342102, 0.6927410960197449, 0.6926661729812622]</t>
+          <t>[0.656571626663208, 0.5133033990859985, 0.6177754402160645, 0.5699690580368042, 0.5054323673248291, 0.5981538891792297, 0.615434467792511, 0.4690692126750946, 0.3390185534954071, 0.6130765080451965, 0.6946050524711609, 0.41204777359962463, 0.8269128799438477, 0.8659452199935913, 0.6600277423858643, 0.568213164806366, 0.5447216033935547, 0.5999978184700012, 0.8354220986366272, 0.6950728893280029, 0.9694002270698547, 0.9806560277938843, 0.9701089859008789, 0.900871753692627, 0.9569886922836304, 0.9489971399307251, 0.9667026996612549, 0.9418123960494995, 0.9199046492576599, 0.8177215456962585, 0.7127141356468201, 0.7305744290351868, 0.6292312741279602, 0.5666914582252502, 0.708196222782135, 0.6901968717575073, 0.6552377343177795, 0.38076716661453247, 0.404214084148407, 0.5612740516662598, 0.45477208495140076, 0.43372607231140137, 0.45025375485420227, 0.31925663352012634, 0.528595507144928, 0.6764885783195496, 0.5335568785667419, 0.44252118468284607, 0.4537052810192108, 0.4878198802471161, 0.2772337794303894, 0.8255143761634827, 0.8360036015510559, 0.6833657026290894, 0.5447141528129578, 0.7738454341888428, 0.5466310977935791, 0.3591461181640625, 0.5628820657730103, 0.4861046373844147, 0.6532572507858276, 0.5682445764541626, 0.598960280418396, 0.5790523290634155, 0.6448789238929749, 0.34959301352500916, 0.7109844088554382, 0.5478475689888, 0.6523862481117249, 0.6749122738838196, 0.5447644591331482, 0.3940589129924774, 0.46178245544433594, 0.7046262621879578, 0.7180713415145874, 0.51119464635849, 0.80623859167099, 0.7769657373428345, 0.649908185005188, 0.42318272590637207, 0.7555385231971741, 0.6414626836776733, 0.5609515905380249, 0.5517939925193787, 0.6485141515731812, 0.6431161761283875, 0.5947335958480835, 0.6634166836738586, 0.5771676301956177, 0.5875831246376038, 0.5882779955863953, 0.5600722432136536, 0.5787649154663086, 0.39505961537361145, 0.3899565041065216, 0.7060385346412659, 0.41084563732147217, 0.4158918261528015, 0.699127197265625, 0.6820099949836731, 0.7481886148452759, 0.7475436329841614]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9269627928733826</v>
+        <v>0.9806560277938843</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3.841882099979557</v>
+        <v>3.229161600000225</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03766551078411331</v>
+        <v>0.03165844705882574</v>
       </c>
     </row>
     <row r="3">
@@ -645,11 +645,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.9911914467811584, 0.9833356142044067, 0.9910764694213867, 0.9938867688179016, 0.981952965259552, 0.945335328578949, 0.914706826210022, 0.9151452779769897, 0.9749250411987305, 0.975374162197113, 0.9787704348564148, 0.9907171130180359, 0.9732421636581421, 0.9775001406669617, 0.9875378608703613, 0.9786359667778015, 0.9762402772903442, 0.9559997320175171, 0.9134645462036133, 0.8789411187171936, 0.9513172507286072, 0.9534817934036255, 0.9466933608055115, 0.914751410484314, 0.9439963102340698, 0.9562598466873169, 0.9506365656852722, 0.9496228098869324, 0.8969123959541321, 0.8488190770149231, 0.8281714916229248, 0.812990128993988, 0.9689707159996033, 0.9602747559547424, 0.9542871713638306, 0.8378667831420898, 0.911986231803894, 0.9562583565711975, 0.9233981966972351, 0.9165084958076477, 0.938123881816864, 0.9369791150093079, 0.9559177160263062, 0.9145624041557312, 0.9063822031021118, 0.9630004167556763, 0.9534962177276611, 0.9100170135498047, 0.9556898474693298, 0.9425710439682007, 0.9616274237632751, 0.9616215825080872, 0.9611112475395203, 0.9528284072875977, 0.972694993019104, 0.9738844037055969, 0.9833498001098633, 0.9874140024185181, 0.992466390132904, 0.9928807020187378, 0.9889677166938782, 0.9879639148712158, 0.9781789183616638, 0.9847211241722107, 0.9823489785194397, 0.9808024168014526, 0.9783117175102234, 0.9796540141105652, 0.9743298888206482, 0.9752854704856873, 0.9755361676216125, 0.950988233089447, 0.9162484407424927, 0.9471715688705444, 0.930255115032196, 0.9522900581359863, 0.9604589343070984, 0.889550507068634, 0.9504541754722595, 0.8155606985092163, 0.889373779296875, 0.8534197807312012, 0.890768826007843, 0.8854655027389526, 0.8281868696212769, 0.9220074415206909, 0.9125073552131653, 0.8314539790153503, 0.8743990063667297, 0.9237139821052551, 0.9530850052833557, 0.9198093414306641, 0.9748914837837219, 0.8908500075340271, 0.9230729341506958, 0.9604989886283875, 0.9601531028747559, 0.983036458492279, 0.9784824252128601, 0.9798970818519592, 0.9885473251342773, 0.9885369539260864]</t>
+          <t>[0.9935903549194336, 0.9799355268478394, 0.9919999837875366, 0.995752215385437, 0.9835109710693359, 0.9543399214744568, 0.9226667284965515, 0.9355792999267578, 0.9729615449905396, 0.9758689999580383, 0.9735310077667236, 0.9933618307113647, 0.9721361994743347, 0.9818832874298096, 0.9894630312919617, 0.9782375693321228, 0.9729712605476379, 0.9522537589073181, 0.9122491478919983, 0.8652241826057434, 0.9530864953994751, 0.9608682990074158, 0.9623275399208069, 0.9369427561759949, 0.9394340515136719, 0.9575102925300598, 0.9577845931053162, 0.9462628364562988, 0.8952723741531372, 0.8877378702163696, 0.8307812809944153, 0.8333677649497986, 0.9689024090766907, 0.9460775852203369, 0.9535209536552429, 0.8420776128768921, 0.8973626494407654, 0.9555593729019165, 0.9045261144638062, 0.8767684102058411, 0.904329776763916, 0.9217148423194885, 0.9310488700866699, 0.9022312760353088, 0.8767036199569702, 0.968151330947876, 0.9665749073028564, 0.9459642171859741, 0.9626589417457581, 0.9561188220977783, 0.9700049757957458, 0.9705858826637268, 0.9707973003387451, 0.9677996635437012, 0.9780949950218201, 0.9795078635215759, 0.9851542115211487, 0.9916690587997437, 0.9950830936431885, 0.996117115020752, 0.992281973361969, 0.9920647740364075, 0.983317494392395, 0.9848698377609253, 0.9830511212348938, 0.98415607213974, 0.9849284291267395, 0.9847027659416199, 0.9825965166091919, 0.9819526076316833, 0.9777528643608093, 0.9569318294525146, 0.9296103715896606, 0.9496734738349915, 0.9167591333389282, 0.9570806622505188, 0.9522320032119751, 0.9053357839584351, 0.9524547457695007, 0.8245394825935364, 0.8720906972885132, 0.8018779754638672, 0.8842326402664185, 0.8854860663414001, 0.7142333388328552, 0.8847947716712952, 0.9121592044830322, 0.8177434206008911, 0.831489086151123, 0.9164528250694275, 0.9472587704658508, 0.9152578115463257, 0.9720214009284973, 0.9053577780723572, 0.9144387245178223, 0.9550071358680725, 0.9554654359817505, 0.9826516509056091, 0.9805020689964294, 0.9854962229728699, 0.9908498525619507, 0.9908291101455688]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9938867688179016</v>
+        <v>0.996117115020752</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.5953488999803085</v>
+        <v>0.5822344000043813</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005836753921375573</v>
+        <v>0.005708180392199817</v>
       </c>
     </row>
     <row r="4">
@@ -685,11 +685,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.2165532261133194, 0.3695715665817261, 0.47922104597091675, 0.5158674716949463, 0.4585605263710022, 0.3662509024143219, 0.5955266952514648, 0.4140072166919708, 0.4220116138458252, 0.25731906294822693, 0.28557729721069336, 0.3230136036872864, 0.2873375713825226, 0.19317494332790375, 0.38202470541000366, 0.2855609655380249, 0.4000388979911804, 0.4827234148979187, 0.40840116143226624, 0.39545851945877075, 0.4404231011867523, 0.32611083984375, 0.2575436234474182, 0.3550418019294739, 0.6106107234954834, 0.3910011351108551, 0.4284800887107849, 0.561811089515686, 0.3470996618270874, 0.3821922242641449, 0.2443253993988037, 0.4073845148086548, 0.2676082253456116, 0.49183738231658936, 0.4554784595966339, 0.5894636511802673, 0.3311675786972046, 0.40176475048065186, 0.5371702313423157, 0.45793503522872925, 0.2636769711971283, 0.3023713529109955, 0.5323880910873413, 0.6604981422424316, 0.47255799174308777, 0.4680475890636444, 0.4595583379268646, 0.4536932706832886, 0.5352881550788879, 0.49484285712242126, 0.5036267042160034, 0.4853171706199646, 0.3945979177951813, 0.3802071511745453, 0.402100533246994, 0.5933678150177002, 0.37415581941604614, 0.507717490196228, 0.42746490240097046, 0.3736541271209717, 0.38261866569519043, 0.5138048529624939, 0.5124409794807434, 0.43266087770462036, 0.3797916769981384, 0.4348713159561157, 0.3857075273990631, 0.441013902425766, 0.3105028569698334, 0.306805282831192, 0.30463796854019165, 0.366580992937088, 0.3651910424232483, 0.5307425856590271, 0.638236403465271, 0.48349905014038086, 0.41700518131256104, 0.4974338710308075, 0.4426112174987793, 0.4080037474632263, 0.4833565056324005, 0.5528949499130249, 0.518365204334259, 0.43467259407043457, 0.49629342555999756, 0.5252589583396912, 0.5392897725105286, 0.5576089024543762, 0.4350002706050873, 0.3634413480758667, 0.3621513247489929, 0.39511731266975403, 0.38723990321159363, 0.33846065402030945, 0.3038223087787628, 0.30776339769363403, 0.3531298041343689, 0.35551917552948, 0.3035787045955658, 0.3796621859073639, 0.40912917256355286, 0.5686662197113037, 0.569413959980011]</t>
+          <t>[0.23951834440231323, 0.4349845051765442, 0.5102075934410095, 0.5653878450393677, 0.4821441173553467, 0.3693181276321411, 0.6424152255058289, 0.39970171451568604, 0.44930243492126465, 0.22814752161502838, 0.22430235147476196, 0.31710144877433777, 0.199434295296669, 0.1392810046672821, 0.30893978476524353, 0.2783556282520294, 0.2633025348186493, 0.4422398805618286, 0.3606222867965698, 0.3142479360103607, 0.3752292990684509, 0.2690911293029785, 0.21947459876537323, 0.38756251335144043, 0.6710657477378845, 0.367973655462265, 0.4670611023902893, 0.5736858248710632, 0.3504975438117981, 0.38123276829719543, 0.19373011589050293, 0.3908393681049347, 0.2401123046875, 0.5652848482131958, 0.4607281982898712, 0.6332383155822754, 0.27183622121810913, 0.352258563041687, 0.5091261863708496, 0.44287028908729553, 0.17599698901176453, 0.21901705861091614, 0.5042047500610352, 0.6971903443336487, 0.40473848581314087, 0.4252384305000305, 0.4147646427154541, 0.3476773798465729, 0.4725069999694824, 0.47512516379356384, 0.46711310744285583, 0.45283243060112, 0.44780805706977844, 0.38395050168037415, 0.37763094902038574, 0.70576411485672, 0.36918383836746216, 0.5851883888244629, 0.4385869801044464, 0.37026548385620117, 0.39050057530403137, 0.5744799375534058, 0.606723427772522, 0.43611374497413635, 0.37886834144592285, 0.3820568919181824, 0.39543190598487854, 0.427676796913147, 0.2698046863079071, 0.2811255156993866, 0.25722000002861023, 0.3661799728870392, 0.2896665036678314, 0.4975013732910156, 0.7067567110061646, 0.5281184315681458, 0.35992756485939026, 0.6003860831260681, 0.45840558409690857, 0.34199878573417664, 0.44848373532295227, 0.5549746155738831, 0.513023853302002, 0.4125017821788788, 0.5303182601928711, 0.5024241209030151, 0.5563039183616638, 0.5800626277923584, 0.42573055624961853, 0.32718348503112793, 0.3087347149848938, 0.3428010642528534, 0.3285979628562927, 0.24497845768928528, 0.2124844342470169, 0.23351645469665527, 0.2603292167186737, 0.2885824143886566, 0.23516684770584106, 0.3752155303955078, 0.444443017244339, 0.5546169877052307, 0.5553573966026306]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6604981422424316</v>
+        <v>0.7067567110061646</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.5841054999909829</v>
+        <v>0.5915978999983054</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005670927184378475</v>
+        <v>0.005743668932022382</v>
       </c>
     </row>
     <row r="5">
@@ -725,11 +725,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.8962222337722778, 0.8741300106048584, 0.877651035785675, 0.8226420283317566, 0.8489637970924377, 0.8239415884017944, 0.8291053175926208, 0.7920992374420166, 0.7823408842086792, 0.6553758978843689, 0.8272765278816223, 0.7748619914054871, 0.8239513039588928, 0.8221870064735413, 0.874904215335846, 0.7890968918800354, 0.7799715399742126, 0.8159272074699402, 0.84535151720047, 0.9074130654335022, 0.8853294253349304, 0.8862756490707397, 0.8300545811653137, 0.7644655108451843, 0.5295655131340027, 0.6642455458641052, 0.687725305557251, 0.7745205760002136, 0.7943282127380371, 0.8240600824356079, 0.6920817494392395, 0.6808508634567261, 0.7474752068519592, 0.7528846263885498, 0.8204213976860046, 0.8442984819412231, 0.8657559156417847, 0.760298490524292, 0.8471386432647705, 0.813445508480072, 0.7966007590293884, 0.7918527722358704, 0.7695004940032959, 0.8229865431785583, 0.7746260166168213, 0.6994337439537048, 0.7045912146568298, 0.6267463564872742, 0.7172593474388123, 0.7273143529891968, 0.7798673510551453, 0.8118314146995544, 0.8522865176200867, 0.7325055599212646, 0.7994853258132935, 0.8021422624588013, 0.8122205138206482, 0.9205594658851624, 0.9099509716033936, 0.8665532469749451, 0.8071402907371521, 0.7551178932189941, 0.48158878087997437, 0.7003718018531799, 0.7014875411987305, 0.8384976387023926, 0.8558263778686523, 0.8522182703018188, 0.7333083748817444, 0.8528473377227783, 0.8167662620544434, 0.7721856832504272, 0.7234000563621521, 0.6355057954788208, 0.7176231145858765, 0.8440648913383484, 0.8327420353889465, 0.8767049908638, 0.8648198246955872, 0.8130989074707031, 0.8525339365005493, 0.8135680556297302, 0.8510420322418213, 0.8413633704185486, 0.8278601169586182, 0.8252907395362854, 0.7208507657051086, 0.7782124280929565, 0.7772873640060425, 0.8083624839782715, 0.7582828998565674, 0.7670409083366394, 0.7618016004562378, 0.7363724708557129, 0.7402052283287048, 0.777898371219635, 0.7762936353683472, 0.8535341024398804, 0.8346694111824036, 0.8534180521965027, 0.819866955280304, 0.8204182386398315]</t>
+          <t>[0.9108542799949646, 0.8383331298828125, 0.8696534037590027, 0.7926430702209473, 0.8313184380531311, 0.8132033944129944, 0.8042876124382019, 0.7348883152008057, 0.7525500059127808, 0.5950257778167725, 0.8040132522583008, 0.7242854833602905, 0.7623304724693298, 0.7946147322654724, 0.8585972189903259, 0.6627737879753113, 0.728072464466095, 0.8013046979904175, 0.847343921661377, 0.8635281920433044, 0.8627148866653442, 0.8804159760475159, 0.7644546627998352, 0.6874176263809204, 0.33022329211235046, 0.515601634979248, 0.5908686518669128, 0.7414531111717224, 0.728621780872345, 0.8020374774932861, 0.6008960008621216, 0.4853260815143585, 0.6594662666320801, 0.650850236415863, 0.7576707601547241, 0.8570792078971863, 0.8509014248847961, 0.6595079898834229, 0.8390588164329529, 0.7783097624778748, 0.735897421836853, 0.7263450026512146, 0.6743478178977966, 0.7531383037567139, 0.7188785076141357, 0.627245306968689, 0.60701984167099, 0.4926559329032898, 0.6342537999153137, 0.6449612975120544, 0.7263393402099609, 0.7503207325935364, 0.773685872554779, 0.5927483439445496, 0.7199789881706238, 0.7440447807312012, 0.7549059987068176, 0.9202268123626709, 0.8890088796615601, 0.8246831893920898, 0.698237955570221, 0.6673865914344788, 0.34180623292922974, 0.556216299533844, 0.5970906019210815, 0.7986326217651367, 0.8222922682762146, 0.8123530745506287, 0.6429835557937622, 0.7690016031265259, 0.7158042788505554, 0.6609224677085876, 0.6256652474403381, 0.5120921730995178, 0.7022302150726318, 0.8091853857040405, 0.7470632791519165, 0.8276811242103577, 0.8171223998069763, 0.783566415309906, 0.8033007383346558, 0.7050860524177551, 0.8281756639480591, 0.8109390139579773, 0.7736549973487854, 0.7738850712776184, 0.6308436393737793, 0.6626238822937012, 0.6988363862037659, 0.7665303349494934, 0.7010284662246704, 0.6969885230064392, 0.6802587509155273, 0.6458960175514221, 0.6799357533454895, 0.6861088275909424, 0.7443610429763794, 0.7868653535842896, 0.7443570494651794, 0.8017082214355469, 0.7737661600112915, 0.7740105390548706]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9205594658851624</v>
+        <v>0.9202268123626709</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.6612368000205606</v>
+        <v>0.690291699997033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006482713725691771</v>
+        <v>0.006767565686245421</v>
       </c>
     </row>
     <row r="6">
@@ -765,11 +765,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.25883328914642334, 0.36796778440475464, 0.2764216363430023, 0.3096437454223633, 0.47692033648490906, 0.31835100054740906, 0.09598042070865631, 0.272228866815567, 0.15406163036823273, 0.2861820161342621, 0.38672786951065063, 0.5235652327537537, 0.49343177676200867, 0.4987271726131439, 0.3698495030403137, 0.29905685782432556, 0.39610522985458374, 0.33214694261550903, 0.3887260854244232, 0.38975703716278076, 0.3914574682712555, 0.28103727102279663, 0.3956589102745056, 0.4578472077846527, 0.4560718238353729, 0.3563615083694458, 0.24455657601356506, 0.3566795289516449, 0.30404138565063477, 0.32073867321014404, 0.3032366633415222, 0.3684341013431549, 0.32506024837493896, 0.32045844197273254, 0.3300303518772125, 0.31386399269104004, 0.27743735909461975, 0.2724904417991638, 0.3602502644062042, 0.28692635893821716, 0.26557281613349915, 0.20727874338626862, 0.2937367856502533, 0.3072189390659332, 0.3067587614059448, 0.3113360106945038, 0.537245512008667, 0.3075346350669861, 0.4463254511356354, 0.3361760675907135, 0.38350796699523926, 0.38831666111946106, 0.3516334891319275, 0.41710200905799866, 0.5912961959838867, 0.4715055525302887, 0.3637758791446686, 0.22509123384952545, 0.39864644408226013, 0.403329998254776, 0.414211243391037, 0.4261765778064728, 0.6235969066619873, 0.4723723530769348, 0.568292498588562, 0.6344878077507019, 0.5488563776016235, 0.4814545214176178, 0.31438004970550537, 0.41435953974723816, 0.28081607818603516, 0.5428224205970764, 0.37281420826911926, 0.5713638663291931, 0.42769044637680054, 0.3898271918296814, 0.4453074634075165, 0.46074625849723816, 0.24223564565181732, 0.2612818777561188, 0.31823334097862244, 0.3176729083061218, 0.4215790927410126, 0.27874070405960083, 0.44236764311790466, 0.587233304977417, 0.4497245252132416, 0.6515149474143982, 0.5384181141853333, 0.5636529326438904, 0.40090054273605347, 0.4742092788219452, 0.5025334358215332, 0.3641030192375183, 0.5553671717643738, 0.482102632522583, 0.5693248510360718, 0.5812777280807495, 0.4135499894618988, 0.6212950944900513, 0.49661895632743835, 0.4248582124710083, 0.42773202061653137]</t>
+          <t>[0.23120003938674927, 0.36149871349334717, 0.2267281711101532, 0.35961925983428955, 0.6611419916152954, 0.3167771100997925, 0.1109197735786438, 0.4493953287601471, 0.13706454634666443, 0.28469452261924744, 0.35740581154823303, 0.654043436050415, 0.5182389616966248, 0.586615264415741, 0.330450177192688, 0.3298198878765106, 0.378541499376297, 0.2369793802499771, 0.36927083134651184, 0.35034823417663574, 0.4275870621204376, 0.30159586668014526, 0.4193514883518219, 0.4816730320453644, 0.5932687520980835, 0.48701581358909607, 0.30482426285743713, 0.32253512740135193, 0.2541428804397583, 0.24589881300926208, 0.2832499146461487, 0.38830381631851196, 0.3329593241214752, 0.3183475136756897, 0.29783350229263306, 0.3021274507045746, 0.24974499642848969, 0.23135560750961304, 0.343199759721756, 0.20509038865566254, 0.24982789158821106, 0.16736122965812683, 0.22913414239883423, 0.31014764308929443, 0.318658709526062, 0.34547343850135803, 0.5730553269386292, 0.25182175636291504, 0.3716076910495758, 0.30343732237815857, 0.4523230791091919, 0.384781152009964, 0.39322906732559204, 0.53587806224823, 0.6395705938339233, 0.5593489408493042, 0.39237040281295776, 0.21181172132492065, 0.4286579489707947, 0.38719838857650757, 0.3965475261211395, 0.5559844374656677, 0.7038307189941406, 0.5005092024803162, 0.5883746147155762, 0.7124465703964233, 0.5905783772468567, 0.5364448428153992, 0.2889886498451233, 0.5095037221908569, 0.3524880111217499, 0.6565897464752197, 0.38338470458984375, 0.6838226318359375, 0.4100307524204254, 0.42626330256462097, 0.42172157764434814, 0.5046446323394775, 0.27781206369400024, 0.26033779978752136, 0.35098975896835327, 0.28974995017051697, 0.3648011386394501, 0.26994389295578003, 0.508001446723938, 0.6477418541908264, 0.4477176070213318, 0.78240567445755, 0.6454749703407288, 0.6678422093391418, 0.4395652711391449, 0.5530992746353149, 0.6199472546577454, 0.3417123556137085, 0.6565379500389099, 0.45515942573547363, 0.5915852189064026, 0.5982928276062012, 0.43422549962997437, 0.8214879035949707, 0.5737524032592773, 0.37099072337150574, 0.3740197420120239]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6515149474143982</v>
+        <v>0.8214879035949707</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.5769422000157647</v>
+        <v>0.5914759000006597</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005601380582677327</v>
+        <v>0.005742484466025823</v>
       </c>
     </row>
     <row r="7">
@@ -805,11 +805,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.6682368516921997, 0.7229698896408081, 0.7308447360992432, 0.5120305418968201, 0.6874250769615173, 0.7285135984420776, 0.6523729562759399, 0.7918857336044312, 0.7254140377044678, 0.6326110363006592, 0.5866606831550598, 0.722996175289154, 0.7620556354522705, 0.7081858515739441, 0.4808304011821747, 0.7743803262710571, 0.6525872349739075, 0.7986305356025696, 0.7434104681015015, 0.551750898361206, 0.5766553282737732, 0.6820161938667297, 0.6367713212966919, 0.47409290075302124, 0.5915789604187012, 0.8647478818893433, 0.8029243350028992, 0.7179418206214905, 0.5264084935188293, 0.6435433030128479, 0.7800922393798828, 0.6260352730751038, 0.5246644616127014, 0.5748810768127441, 0.5021485090255737, 0.7016168236732483, 0.5475882887840271, 0.32048821449279785, 0.381223201751709, 0.6403708457946777, 0.5675757527351379, 0.5389124155044556, 0.7046735882759094, 0.7694016695022583, 0.7838473320007324, 0.7837141156196594, 0.7280317544937134, 0.8573262095451355, 0.7523613572120667, 0.7789192199707031, 0.6031601428985596, 0.5733988285064697, 0.7385929822921753, 0.898215115070343, 0.7077568769454956, 0.48944491147994995, 0.5473900437355042, 0.4288855791091919, 0.5680728554725647, 0.5724887251853943, 0.5944455862045288, 0.5855448246002197, 0.5275743007659912, 0.589942455291748, 0.6241031885147095, 0.3815208375453949, 0.484768271446228, 0.3396042287349701, 0.5018994212150574, 0.24598067998886108, 0.22231991589069366, 0.3681049644947052, 0.43917620182037354, 0.44987696409225464, 0.5508257746696472, 0.5047528147697449, 0.6316823959350586, 0.6935368776321411, 0.7965277433395386, 0.7113370299339294, 0.559677243232727, 0.7311829328536987, 0.5398229956626892, 0.4695024788379669, 0.41326233744621277, 0.3407667577266693, 0.46179378032684326, 0.3395620882511139, 0.4611959755420685, 0.47597792744636536, 0.43810155987739563, 0.26712554693222046, 0.4698738753795624, 0.34177646040916443, 0.3453832268714905, 0.34131860733032227, 0.3544826805591583, 0.23784370720386505, 0.35318756103515625, 0.3187333643436432, 0.3394344747066498, 0.41270214319229126, 0.41068127751350403]</t>
+          <t>[0.7238266468048096, 0.8051059246063232, 0.8436041474342346, 0.6016435027122498, 0.8005120158195496, 0.8243476748466492, 0.811612069606781, 0.8710547089576721, 0.8420516848564148, 0.7527393102645874, 0.6559839248657227, 0.7877203226089478, 0.8155015707015991, 0.7417941689491272, 0.5047894716262817, 0.8303793668746948, 0.6984655857086182, 0.8541120886802673, 0.7887784838676453, 0.584638774394989, 0.6275362372398376, 0.7701471447944641, 0.707736611366272, 0.5616960525512695, 0.6937723159790039, 0.9150046706199646, 0.8680108785629272, 0.7828142642974854, 0.6441259384155273, 0.7472151517868042, 0.8439477682113647, 0.7000850439071655, 0.5863252282142639, 0.7136576175689697, 0.6523363590240479, 0.8074905872344971, 0.6394241452217102, 0.3643394708633423, 0.3810496926307678, 0.6533222794532776, 0.6995908617973328, 0.5432514548301697, 0.7985073328018188, 0.8438633680343628, 0.8415906429290771, 0.8739890456199646, 0.7661895751953125, 0.8888100385665894, 0.8091886639595032, 0.8568790555000305, 0.6574295163154602, 0.5599609613418579, 0.8173221349716187, 0.9216864109039307, 0.7694791555404663, 0.47826993465423584, 0.5958921313285828, 0.47864478826522827, 0.6201359629631042, 0.552025318145752, 0.6879305839538574, 0.666532576084137, 0.6134108304977417, 0.6490505933761597, 0.7725717425346375, 0.45529428124427795, 0.6332395672798157, 0.3107897937297821, 0.4868775010108948, 0.2559393346309662, 0.15407218039035797, 0.34888672828674316, 0.39882344007492065, 0.35414189100265503, 0.5684877038002014, 0.4852393567562103, 0.6050849556922913, 0.7148064970970154, 0.8558040261268616, 0.7762452363967896, 0.5381451845169067, 0.6760772466659546, 0.4199971854686737, 0.49400952458381653, 0.43537238240242004, 0.30164647102355957, 0.3668724596500397, 0.2773823142051697, 0.33569514751434326, 0.3210199475288391, 0.3823390007019043, 0.15789824724197388, 0.4253060519695282, 0.3009193539619446, 0.29957130551338196, 0.26809167861938477, 0.22825950384140015, 0.11994776129722595, 0.19247761368751526, 0.20405113697052002, 0.2522488236427307, 0.2569460868835449, 0.25574567914009094]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.898215115070343</v>
+        <v>0.9216864109039307</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5789841999940109</v>
+        <v>0.5886832999967737</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005621205825184571</v>
+        <v>0.005715371844628871</v>
       </c>
     </row>
     <row r="8">
@@ -845,11 +845,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.7072812914848328, 0.6436272859573364, 0.7541864514350891, 0.6632807850837708, 0.7392154335975647, 0.5809565782546997, 0.6460179686546326, 0.7868816256523132, 0.7387545108795166, 0.7272074222564697, 0.4490326941013336, 0.6583036184310913, 0.6706753373146057, 0.44266998767852783, 0.6071203351020813, 0.4995531439781189, 0.4766310751438141, 0.48297902941703796, 0.6001100540161133, 0.7577468752861023, 0.7393434643745422, 0.3378256559371948, 0.31000590324401855, 0.4744729697704315, 0.46196863055229187, 0.4230131506919861, 0.3221040368080139, 0.3947805166244507, 0.32224807143211365, 0.3234579563140869, 0.4116247296333313, 0.4623669683933258, 0.6233388185501099, 0.49240705370903015, 0.6315146684646606, 0.5622672438621521, 0.6021125316619873, 0.6308615803718567, 0.6975839138031006, 0.5649899840354919, 0.7060840725898743, 0.649197518825531, 0.5536620020866394, 0.6092568635940552, 0.4849270284175873, 0.5955507755279541, 0.5681658983230591, 0.5611997246742249, 0.5727351903915405, 0.43750977516174316, 0.4168931841850281, 0.3609110414981842, 0.44308894872665405, 0.5547319054603577, 0.6689756512641907, 0.5081966519355774, 0.6144762635231018, 0.7509205937385559, 0.6552566289901733, 0.7129254341125488, 0.8365260362625122, 0.7579425573348999, 0.6504234671592712, 0.6611199975013733, 0.7390448451042175, 0.5787118673324585, 0.5621585249900818, 0.5155820250511169, 0.6229761242866516, 0.5443267226219177, 0.6504240036010742, 0.402483731508255, 0.5683143734931946, 0.7205559611320496, 0.5913154482841492, 0.6378393173217773, 0.605800211429596, 0.6100892424583435, 0.6340922713279724, 0.5445704460144043, 0.7197712063789368, 0.6734845638275146, 0.7330641746520996, 0.6107817888259888, 0.48415544629096985, 0.6154177784919739, 0.5498821139335632, 0.6247272491455078, 0.49528640508651733, 0.5683597326278687, 0.47600072622299194, 0.215469092130661, 0.4223986268043518, 0.4939558804035187, 0.40286824107170105, 0.1941961646080017, 0.3775252103805542, 0.30257222056388855, 0.2731829285621643, 0.19177371263504028, 0.2938641607761383, 0.2937656044960022]</t>
+          <t>[0.6885961890220642, 0.5369155406951904, 0.6980935335159302, 0.5833540558815002, 0.7278620600700378, 0.4455650746822357, 0.5571079254150391, 0.753355085849762, 0.7347516417503357, 0.60715252161026, 0.3075730800628662, 0.6241635084152222, 0.6057192087173462, 0.3727882504463196, 0.5747511386871338, 0.4328230321407318, 0.433438777923584, 0.36763229966163635, 0.5170687437057495, 0.812071681022644, 0.7913469076156616, 0.31554099917411804, 0.24742890894412994, 0.46939000487327576, 0.3854983448982239, 0.328551709651947, 0.2785559594631195, 0.33817338943481445, 0.25929561257362366, 0.25398921966552734, 0.384670227766037, 0.4069449305534363, 0.5849949717521667, 0.4662611186504364, 0.5785671472549438, 0.4780009984970093, 0.483132004737854, 0.5294495224952698, 0.6774578094482422, 0.4791177213191986, 0.6862406134605408, 0.6281698942184448, 0.3238089978694916, 0.4569624364376068, 0.2385564148426056, 0.4040016829967499, 0.33294475078582764, 0.2626114785671234, 0.3171622157096863, 0.21442459523677826, 0.2230500876903534, 0.20698364078998566, 0.33564862608909607, 0.4613341689109802, 0.6071927547454834, 0.43567603826522827, 0.48616471886634827, 0.6912412643432617, 0.5769253969192505, 0.685326337814331, 0.8358277678489685, 0.6986043453216553, 0.5126693844795227, 0.5049724578857422, 0.7194772958755493, 0.5237731337547302, 0.5257852673530579, 0.38794615864753723, 0.5225866436958313, 0.3915257453918457, 0.5832155346870422, 0.3099755644798279, 0.4920204281806946, 0.6382633447647095, 0.5061259865760803, 0.5058539509773254, 0.5892374515533447, 0.5487489700317383, 0.6191097497940063, 0.4227900207042694, 0.6960527896881104, 0.6693858504295349, 0.7182198166847229, 0.5671775937080383, 0.38151121139526367, 0.5668193697929382, 0.4096539318561554, 0.47823652625083923, 0.3667704463005066, 0.45797380805015564, 0.37441161274909973, 0.1268152892589569, 0.35433247685432434, 0.32934239506721497, 0.23197396099567413, 0.09446803480386734, 0.2264600545167923, 0.1421014815568924, 0.12887655198574066, 0.08987287431955338, 0.16495025157928467, 0.16634950041770935]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8365260362625122</v>
+        <v>0.8358277678489685</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.5723823999869637</v>
+        <v>0.5895484000066062</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005611592156734939</v>
+        <v>0.005779886274574571</v>
       </c>
     </row>
     <row r="9">
@@ -885,11 +885,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.7259718775749207, 0.5714078545570374, 0.7459207773208618, 0.6680228114128113, 0.6556330323219299, 0.5968102216720581, 0.8315472602844238, 0.7865131497383118, 0.6838205456733704, 0.5945557951927185, 0.7250158786773682, 0.6598125100135803, 0.8803616762161255, 0.6367542147636414, 0.6804910898208618, 0.6238300800323486, 0.3636936545372009, 0.25409868359565735, 0.2869240939617157, 0.3537042438983917, 0.31190288066864014, 0.2845146656036377, 0.28071561455726624, 0.2596074938774109, 0.7278420329093933, 0.38027486205101013, 0.44767773151397705, 0.7369123101234436, 0.4225166440010071, 0.5324360728263855, 0.43308982253074646, 0.5184440612792969, 0.5948436856269836, 0.43450552225112915, 0.6593078374862671, 0.768534779548645, 0.7055240869522095, 0.5839962363243103, 0.5687258839607239, 0.7240506410598755, 0.5289747714996338, 0.7246397733688354, 0.50677889585495, 0.554216206073761, 0.3113560676574707, 0.7597006559371948, 0.8609350919723511, 0.620657205581665, 0.7678006291389465, 0.6876702308654785, 0.3418608009815216, 0.6378742456436157, 0.42988815903663635, 0.6464769244194031, 0.6018033623695374, 0.6851704120635986, 0.8188591003417969, 0.718509316444397, 0.6852951645851135, 0.5299046039581299, 0.5875476002693176, 0.457957923412323, 0.5476931929588318, 0.16321030259132385, 0.42439359426498413, 0.4404321312904358, 0.3590754568576813, 0.3794994056224823, 0.5411249399185181, 0.7664468884468079, 0.565214216709137, 0.4914419651031494, 0.38566872477531433, 0.578031063079834, 0.7550953030586243, 0.763368546962738, 0.7659176588058472, 0.5696398615837097, 0.7137576341629028, 0.7089296579360962, 0.4835910201072693, 0.8674584031105042, 0.8387446999549866, 0.5599405169487, 0.9153528809547424, 0.7105311155319214, 0.5776217579841614, 0.7078443765640259, 0.7078466415405273, 0.7042490839958191, 0.5690142512321472, 0.7208548188209534, 0.3441942632198334, 0.6238885521888733, 0.34371981024742126, 0.5528889298439026, 0.6614499688148499, 0.5945091843605042, 0.6344808340072632, 0.7869462966918945, 0.4718559980392456, 0.3064804971218109, 0.302791029214859]</t>
+          <t>[0.7054041028022766, 0.48988357186317444, 0.7151894569396973, 0.6285859942436218, 0.701973021030426, 0.5544633269309998, 0.8671463131904602, 0.7977080941200256, 0.6848816871643066, 0.7393477559089661, 0.7541437149047852, 0.7365505695343018, 0.9404773116111755, 0.7775885462760925, 0.8523325324058533, 0.7495136857032776, 0.4137634038925171, 0.24721075594425201, 0.2900138795375824, 0.29098382592201233, 0.30696913599967957, 0.2253938466310501, 0.270215779542923, 0.22325929999351501, 0.7999720573425293, 0.3095609247684479, 0.3965977132320404, 0.8410930633544922, 0.3453681170940399, 0.44162610173225403, 0.3045971989631653, 0.42425867915153503, 0.4349454343318939, 0.3793369233608246, 0.6382620334625244, 0.7462307214736938, 0.6208882331848145, 0.5536521673202515, 0.49664536118507385, 0.6820226907730103, 0.43039318919181824, 0.7027468085289001, 0.4498366117477417, 0.5293101668357849, 0.31894105672836304, 0.7998226284980774, 0.8541914224624634, 0.5397387146949768, 0.7294658422470093, 0.7342696785926819, 0.3012974262237549, 0.6473018527030945, 0.305492103099823, 0.5705729722976685, 0.5206658840179443, 0.6685319542884827, 0.8551837205886841, 0.7187806963920593, 0.6508548855781555, 0.4648175835609436, 0.6097283363342285, 0.454900324344635, 0.6226027011871338, 0.09885507822036743, 0.44625237584114075, 0.48335322737693787, 0.47070547938346863, 0.33320152759552, 0.5170339941978455, 0.8502282500267029, 0.5958909392356873, 0.4276217818260193, 0.39277276396751404, 0.6164879202842712, 0.7920745611190796, 0.817116379737854, 0.7723791599273682, 0.44208428263664246, 0.7636021375656128, 0.8186661005020142, 0.4045093357563019, 0.9001590013504028, 0.8479679822921753, 0.5945711135864258, 0.9459226727485657, 0.7301804423332214, 0.6012908816337585, 0.6691379547119141, 0.6991921067237854, 0.6801907420158386, 0.5469003319740295, 0.7831827998161316, 0.40575218200683594, 0.6554647088050842, 0.30340641736984253, 0.49415427446365356, 0.5641608238220215, 0.6074364185333252, 0.6455352306365967, 0.8308874368667603, 0.41488131880760193, 0.313077449798584, 0.3099738657474518]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9153528809547424</v>
+        <v>0.9459226727485657</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.5818834000092465</v>
+        <v>0.5996185000112746</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005649353398148024</v>
+        <v>0.005821538835060918</v>
       </c>
     </row>
     <row r="10">
@@ -925,11 +925,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.21595653891563416, 0.2202620506286621, 0.20997509360313416, 0.17490319907665253, 0.3379860818386078, 0.1559576392173767, 0.1256285160779953, 0.23924562335014343, 0.3078758120536804, 0.22963780164718628, 0.1937280148267746, 0.23394425213336945, 0.35332250595092773, 0.3367341160774231, 0.2954064607620239, 0.20676307380199432, 0.2045930027961731, 0.27898353338241577, 0.21299323439598083, 0.1762453019618988, 0.23001644015312195, 0.24236951768398285, 0.2881171703338623, 0.2464313805103302, 0.24100853502750397, 0.18671590089797974, 0.24306613206863403, 0.11208688467741013, 0.1484828144311905, 0.1835140734910965, 0.2772328853607178, 0.3370215892791748, 0.331663578748703, 0.2874123752117157, 0.22910676896572113, 0.1584605872631073, 0.1031697541475296, 0.12134053558111191, 0.13360479474067688, 0.17883600294589996, 0.11955656111240387, 0.08964144438505173, 0.1744343638420105, 0.12906937301158905, 0.11765133589506149, 0.08745144307613373, 0.12220972776412964, 0.11842943727970123, 0.24111591279506683, 0.19673170149326324, 0.1621580719947815, 0.09091433137655258, 0.10894890874624252, 0.1172221377491951, 0.13191160559654236, 0.13463611900806427, 0.13144820928573608, 0.160686194896698, 0.15029944479465485, 0.11719267070293427, 0.1370265632867813, 0.17506316304206848, 0.19527694582939148, 0.49886852502822876, 0.6517338156700134, 0.5345226526260376, 0.8533459305763245, 0.776845395565033, 0.772926390171051, 0.7803097367286682, 0.6223854422569275, 0.6363872289657593, 0.3169098198413849, 0.31119081377983093, 0.2826014459133148, 0.1496637910604477, 0.2098492532968521, 0.13068965077400208, 0.123619943857193, 0.11969710141420364, 0.13584551215171814, 0.11847436428070068, 0.11034034192562103, 0.16899757087230682, 0.24998468160629272, 0.22492407262325287, 0.22149242460727692, 0.2306070327758789, 0.16782544553279877, 0.39541515707969666, 0.24027247726917267, 0.38700157403945923, 0.6565725803375244, 0.758774995803833, 0.5001986026763916, 0.6379638910293579, 0.2707127630710602, 0.5356044769287109, 0.499860018491745, 0.44840314984321594, 0.543562114238739, 0.4355601966381073, 0.7199662923812866, 0.7184872031211853, 0.27082911133766174, 0.1658269613981247, 0.16792654991149902, 0.23316101729869843, 0.17988820374011993, 0.15685716271400452, 0.23306116461753845, 0.2756856381893158, 0.2689816355705261, 0.23655536770820618, 0.2152681201696396, 0.21440082788467407, 0.22227568924427032, 0.22042106091976166]</t>
+          <t>[0.20584090054035187, 0.2800498902797699, 0.23207250237464905, 0.2132338434457779, 0.44139471650123596, 0.17169764637947083, 0.16115273535251617, 0.3755638897418976, 0.4104345440864563, 0.2684578001499176, 0.2664905786514282, 0.34569796919822693, 0.45237842202186584, 0.5008389949798584, 0.4548974931240082, 0.3246985077857971, 0.3054923117160797, 0.34782886505126953, 0.2163149118423462, 0.26051968336105347, 0.33275753259658813, 0.3475953936576843, 0.3724380135536194, 0.29168105125427246, 0.3250192403793335, 0.24242502450942993, 0.2736147940158844, 0.12865272164344788, 0.142275869846344, 0.16677892208099365, 0.2588154077529907, 0.3876275420188904, 0.46624743938446045, 0.29774487018585205, 0.22053934633731842, 0.18459688127040863, 0.11394664645195007, 0.14158231019973755, 0.14080870151519775, 0.20889125764369965, 0.1240878701210022, 0.09958767145872116, 0.21912717819213867, 0.1402413547039032, 0.17339837551116943, 0.10381501913070679, 0.14338210225105286, 0.18015854060649872, 0.306159108877182, 0.2983377277851105, 0.27110764384269714, 0.10234767943620682, 0.1641322374343872, 0.1978207230567932, 0.22606787085533142, 0.19969278573989868, 0.16860853135585785, 0.20710796117782593, 0.1526133269071579, 0.17254070937633514, 0.18746986985206604, 0.2680777311325073, 0.30644240975379944, 0.5962014198303223, 0.7112622857093811, 0.6095682978630066, 0.8889397382736206, 0.8320080637931824, 0.7406371831893921, 0.855363130569458, 0.7593411803245544, 0.7111371755599976, 0.37990111112594604, 0.3935888111591339, 0.37229683995246887, 0.15709668397903442, 0.2287668138742447, 0.1544468104839325, 0.13915415108203888, 0.14995479583740234, 0.15160557627677917, 0.15698489546775818, 0.13852056860923767, 0.21295398473739624, 0.37580016255378723, 0.3213232755661011, 0.27345985174179077, 0.32062169909477234, 0.2149566411972046, 0.5184137225151062, 0.3283429741859436, 0.5519452691078186, 0.8456758260726929, 0.923306405544281, 0.6515613198280334, 0.7690584659576416, 0.38664814829826355, 0.7337186932563782, 0.6281449794769287, 0.5619495511054993, 0.6751447916030884, 0.5917627215385437, 0.8421460390090942, 0.8439677953720093, 0.5194393992424011, 0.22255456447601318, 0.2502405345439911, 0.2837933897972107, 0.23348596692085266, 0.18473058938980103, 0.3022591173648834, 0.3906520903110504, 0.39307671785354614, 0.3316915035247803, 0.27558523416519165, 0.28958073258399963, 0.25601524114608765, 0.25435778498649597]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8533459305763245</v>
+        <v>0.923306405544281</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.6447483999945689</v>
+        <v>0.6477359999989858</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005463969491479397</v>
+        <v>0.005489288135584625</v>
       </c>
     </row>
     <row r="11">
@@ -965,11 +965,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.4905683696269989, 0.8014322519302368, 0.7418920397758484, 0.6351662874221802, 0.5932786464691162, 0.345104455947876, 0.3725131154060364, 0.6057685017585754, 0.6186636686325073, 0.5968424677848816, 0.49001699686050415, 0.7992285490036011, 0.6564192175865173, 0.6863250732421875, 0.8060289025306702, 0.780153751373291, 0.5914000868797302, 0.7567782998085022, 0.7561278343200684, 0.8620169758796692, 0.877022385597229, 0.6961730122566223, 0.7917377352714539, 0.8283514976501465, 0.615566074848175, 0.655251681804657, 0.4036775529384613, 0.40322145819664, 0.7032065391540527, 0.4737555980682373, 0.5921691060066223, 0.6987171173095703, 0.44606655836105347, 0.3111230731010437, 0.2994716465473175, 0.3099529445171356, 0.48416733741760254, 0.4382575750350952, 0.6116315126419067, 0.29569706320762634, 0.4807884395122528, 0.4037672281265259, 0.5460580587387085, 0.8110560178756714, 0.774878978729248, 0.7645585536956787, 0.7569663524627686, 0.7357116937637329, 0.5581613183021545, 0.5190407037734985, 0.7711679935455322, 0.7294381260871887, 0.6756669282913208, 0.5574604272842407, 0.699006974697113, 0.5820508599281311, 0.5664861798286438, 0.5113333463668823, 0.548582911491394, 0.7601231336593628, 0.5397505760192871, 0.7832283973693848, 0.7918901443481445, 0.7291384935379028, 0.8231983184814453, 0.7063704133033752, 0.6617170572280884, 0.5121238827705383, 0.7031775116920471, 0.8131983876228333, 0.6541743874549866, 0.4240769147872925, 0.7629627585411072, 0.6320772767066956, 0.810451865196228, 0.8353907465934753, 0.44504106044769287, 0.5519782900810242, 0.6376345753669739, 0.6920354962348938, 0.5954745411872864, 0.5990397930145264, 0.392002135515213, 0.3215343654155731, 0.32271429896354675, 0.2696521282196045, 0.3633439540863037, 0.32656052708625793, 0.4867440164089203, 0.21466535329818726, 0.15089726448059082, 0.4980566203594208, 0.630222499370575, 0.6842937469482422, 0.8023304343223572, 0.6234719157218933, 0.43781137466430664, 0.6623944640159607, 0.8690979480743408, 0.8635287880897522, 0.727070689201355, 0.7646952867507935, 0.8703233599662781, 0.7722252607345581, 0.7858254313468933, 0.5618099570274353, 0.6812694072723389, 0.5200524926185608, 0.6345983147621155, 0.48785823583602905, 0.6957092881202698, 0.581497073173523, 0.5437224507331848, 0.3090210556983948, 0.5390385985374451, 0.4431191682815552, 0.1892874836921692, 0.1872483491897583]</t>
+          <t>[0.49309971928596497, 0.8323136568069458, 0.7302242517471313, 0.5386812686920166, 0.44770029187202454, 0.31618455052375793, 0.3717745244503021, 0.6503432393074036, 0.6604088544845581, 0.6350358128547668, 0.5052868127822876, 0.8643621802330017, 0.7296227216720581, 0.6927975416183472, 0.8251136541366577, 0.7486534118652344, 0.5896241068840027, 0.7077974081039429, 0.7913063168525696, 0.8691907525062561, 0.9054512977600098, 0.7388021349906921, 0.7669232487678528, 0.8721097111701965, 0.5662150979042053, 0.5439448952674866, 0.30050694942474365, 0.3116062581539154, 0.6520888805389404, 0.43530434370040894, 0.4672167897224426, 0.6728101968765259, 0.4251587688922882, 0.22670292854309082, 0.17612788081169128, 0.20164519548416138, 0.39290961623191833, 0.3905193507671356, 0.5752707123756409, 0.3238569498062134, 0.3489372730255127, 0.2767101526260376, 0.46620339155197144, 0.7829501628875732, 0.7498779296875, 0.7699750065803528, 0.7182739973068237, 0.7154018878936768, 0.6262249946594238, 0.5125607848167419, 0.7501238584518433, 0.7062808871269226, 0.6342081427574158, 0.4028548002243042, 0.6073727607727051, 0.48450595140457153, 0.44853270053863525, 0.4766141474246979, 0.53099524974823, 0.6915615200996399, 0.5197950601577759, 0.8325477838516235, 0.8055839538574219, 0.6601482629776001, 0.8236581087112427, 0.6544113159179688, 0.4875631034374237, 0.27036184072494507, 0.46488815546035767, 0.7170422673225403, 0.5824881792068481, 0.4541747272014618, 0.7787176966667175, 0.5509684681892395, 0.804485559463501, 0.8409198522567749, 0.2743520736694336, 0.4520878493785858, 0.652886688709259, 0.6986284852027893, 0.5924271941184998, 0.4857131838798523, 0.24214504659175873, 0.21578049659729004, 0.19412125647068024, 0.16573961079120636, 0.27432745695114136, 0.3505193591117859, 0.42457202076911926, 0.15607671439647675, 0.12742948532104492, 0.44179263710975647, 0.6531464457511902, 0.7340162396430969, 0.8177154064178467, 0.6292797923088074, 0.46586287021636963, 0.6991932988166809, 0.8705286979675293, 0.8335630297660828, 0.7755994200706482, 0.7318037152290344, 0.8963254690170288, 0.7486252784729004, 0.7523057460784912, 0.42389437556266785, 0.6513683795928955, 0.36743876338005066, 0.6326307654380798, 0.38574615120887756, 0.6612839698791504, 0.610320508480072, 0.467821329832077, 0.2032736986875534, 0.38644939661026, 0.3332718014717102, 0.1186050996184349, 0.11743342876434326]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.877022385597229</v>
+        <v>0.9054512977600098</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.6382007999927737</v>
+        <v>0.6576209000049857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005408481355870963</v>
+        <v>0.005573058474618523</v>
       </c>
     </row>
     <row r="12">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.6334913969039917, 0.48631423711776733, 0.46471139788627625, 0.532742440700531, 0.23120802640914917, 0.4401775002479553, 0.7420927286148071, 0.4388318657875061, 0.7417831420898438, 0.5175508260726929, 0.5680949091911316, 0.8967589735984802, 0.6112045049667358, 0.7351199984550476, 0.8123794794082642, 0.9241135120391846, 0.9411618709564209, 0.8111522197723389, 0.9389137029647827, 0.9359944462776184, 0.9218238592147827, 0.7928481101989746, 0.7527802586555481, 0.8231844305992126, 0.7618603110313416, 0.6829288005828857, 0.7621824741363525, 0.7991078495979309, 0.9023162722587585, 0.940049409866333, 0.9670266509056091, 0.26036185026168823, 0.4650416076183319, 0.39568719267845154, 0.41300535202026367, 0.545991837978363, 0.6141742467880249, 0.6417315006256104, 0.4765385091304779, 0.34906449913978577, 0.48070716857910156, 0.4678478538990021, 0.4143642783164978, 0.5580841898918152, 0.29136383533477783, 0.36456722021102905, 0.2231823354959488, 0.32845449447631836, 0.34321364760398865, 0.41755372285842896, 0.46081265807151794, 0.4219267964363098, 0.22261452674865723, 0.3222338855266571, 0.3948027789592743, 0.49922215938568115, 0.7433671951293945, 0.8327284455299377, 0.9407169222831726, 0.8549839854240417, 0.7856714725494385, 0.7539038062095642, 0.8389279246330261, 0.7743808627128601, 0.5336763858795166, 0.7821057438850403, 0.8503768444061279, 0.6439250707626343, 0.6900897026062012, 0.7385104298591614, 0.848251461982727, 0.8551517724990845, 0.9472468495368958, 0.9061824679374695, 0.8561615943908691, 0.6249524354934692, 0.537031888961792, 0.4741181433200836, 0.6521812677383423, 0.4582655727863312, 0.34335190057754517, 0.35886943340301514, 0.3930209279060364, 0.25173261761665344, 0.26491060853004456, 0.658149242401123, 0.5127236247062683, 0.5878238081932068, 0.5332203507423401, 0.6726301908493042, 0.38318002223968506, 0.2944924831390381, 0.542417049407959, 0.5624664425849915, 0.7322640419006348, 0.5458720326423645, 0.47350430488586426, 0.47727105021476746, 0.6343826055526733, 0.4408741593360901, 0.39193642139434814, 0.8562943339347839, 0.6646242141723633, 0.5271220803260803, 0.8412980437278748, 0.36471322178840637, 0.39063695073127747, 0.7452744245529175, 0.7957404255867004, 0.760107159614563, 0.8510438203811646, 0.8108077645301819, 0.7710636854171753, 0.7208555936813354, 0.6928216218948364, 0.7011712789535522, 0.6912175416946411, 0.6867830157279968]</t>
+          <t>[0.6810095906257629, 0.5829569101333618, 0.6194232106208801, 0.6534038782119751, 0.33660566806793213, 0.5508582592010498, 0.8363890051841736, 0.5606220364570618, 0.8696148991584778, 0.6762757301330566, 0.7713900208473206, 0.9558092355728149, 0.7940676808357239, 0.8498452305793762, 0.8993542194366455, 0.9556416273117065, 0.9599457383155823, 0.9084852933883667, 0.9713584780693054, 0.9635515809059143, 0.9590877294540405, 0.8587987422943115, 0.8283200263977051, 0.885852038860321, 0.8660604953765869, 0.8442800641059875, 0.8810151815414429, 0.9197715520858765, 0.9708489775657654, 0.9764137864112854, 0.9886341094970703, 0.3364725410938263, 0.5834981203079224, 0.5529254078865051, 0.546190083026886, 0.7032719254493713, 0.7263469696044922, 0.7911652326583862, 0.5781056880950928, 0.4659261107444763, 0.6009796857833862, 0.5909497141838074, 0.5150978565216064, 0.6471388339996338, 0.34473875164985657, 0.45763227343559265, 0.27750954031944275, 0.5147216320037842, 0.5364046692848206, 0.5311610698699951, 0.5656232237815857, 0.545759379863739, 0.3351088762283325, 0.49535951018333435, 0.5392977595329285, 0.668022096157074, 0.8746506571769714, 0.9087167382240295, 0.9716719388961792, 0.9184261560440063, 0.8864397406578064, 0.881507158279419, 0.9243314266204834, 0.8945525288581848, 0.7511324882507324, 0.9052466154098511, 0.9412745833396912, 0.8024979829788208, 0.8127022981643677, 0.8651694059371948, 0.9254054427146912, 0.9231563210487366, 0.9720221161842346, 0.956203818321228, 0.9374942779541016, 0.7154480218887329, 0.5980103015899658, 0.5620031356811523, 0.7539600729942322, 0.5429278612136841, 0.47789692878723145, 0.37447962164878845, 0.38976359367370605, 0.3546178638935089, 0.3227079510688782, 0.6825920939445496, 0.6550873517990112, 0.7116110920906067, 0.5798271298408508, 0.8180995583534241, 0.43674588203430176, 0.3793812692165375, 0.5687776207923889, 0.5808917880058289, 0.784975528717041, 0.6105533242225647, 0.5309138894081116, 0.5706738233566284, 0.7002630829811096, 0.4341849684715271, 0.38960880041122437, 0.8868883848190308, 0.8201396465301514, 0.6482114195823669, 0.8485368490219116, 0.4540066123008728, 0.43937498331069946, 0.6660998463630676, 0.8450474143028259, 0.7879136800765991, 0.8250797390937805, 0.8051108121871948, 0.7465581297874451, 0.7089031338691711, 0.7482843399047852, 0.7443483471870422, 0.8375957012176514, 0.8340119123458862]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9670266509056091</v>
+        <v>0.9886341094970703</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.6461916000116616</v>
+        <v>0.658911899998202</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005476200000098828</v>
+        <v>0.005583999152527135</v>
       </c>
     </row>
     <row r="13">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.12784065306186676, 0.20490846037864685, 0.23845717310905457, 0.3211784064769745, 0.3089793920516968, 0.29145506024360657, 0.4860217273235321, 0.4772263765335083, 0.34971582889556885, 0.27165237069129944, 0.2740344703197479, 0.3321667015552521, 0.31840911507606506, 0.45615383982658386, 0.33613836765289307, 0.4100557863712311, 0.6805101037025452, 0.5076016187667847, 0.8142528533935547, 0.5677127838134766, 0.29359692335128784, 0.5324529409408569, 0.8430646657943726, 0.8628321886062622, 0.9029639363288879, 0.8175328969955444, 0.6446405053138733, 0.5577410459518433, 0.7891201376914978, 0.8397948741912842, 0.5558089017868042, 0.8575750589370728, 0.6359831094741821, 0.7243034839630127, 0.7822684049606323, 0.6961995959281921, 0.5067257881164551, 0.21090993285179138, 0.225338876247406, 0.28392598032951355, 0.7125097513198853, 0.8040978312492371, 0.507394015789032, 0.8677889704704285, 0.9219392538070679, 0.8122767806053162, 0.4399721026420593, 0.7088001370429993, 0.8219180107116699, 0.5480439066886902, 0.5686476826667786, 0.48871946334838867, 0.4741513729095459, 0.8758010268211365, 0.7402603626251221, 0.5985859632492065, 0.36244094371795654, 0.6049321889877319, 0.5636132955551147, 0.6864190101623535, 0.7519752979278564, 0.7990492582321167, 0.7861917614936829, 0.40296950936317444, 0.6472883224487305, 0.272132933139801, 0.47065743803977966, 0.6039914488792419, 0.7334913611412048, 0.6278942823410034, 0.8216364979743958, 0.8766454458236694, 0.8171343207359314, 0.5902937650680542, 0.9541438221931458, 0.5843530893325806, 0.6770204305648804, 0.49992677569389343, 0.7560738325119019, 0.8662652969360352, 0.8415316343307495, 0.7908411622047424, 0.7804172039031982, 0.6785135269165039, 0.8185262084007263, 0.4999244511127472, 0.34554576873779297, 0.8119461536407471, 0.7173892855644226, 0.7035484910011292, 0.5425798296928406, 0.7557893395423889, 0.5789559483528137, 0.6038128137588501, 0.7325879335403442, 0.8447504043579102, 0.5668780207633972, 0.7792418003082275, 0.7740313410758972, 0.7063939571380615, 0.8361284732818604, 0.5892060399055481, 0.8186970949172974, 0.5041139721870422, 0.7062937617301941, 0.7551476359367371, 0.8961195945739746, 0.7223272919654846, 0.6154265403747559, 0.7579940557479858, 0.8350186944007874, 0.5716592669487, 0.469407320022583, 0.3995327949523926, 0.6754110455513, 0.7119467258453369, 0.7211959362030029, 0.7211950421333313]</t>
+          <t>[0.05004505068063736, 0.09185702353715897, 0.0913737341761589, 0.1414254754781723, 0.15606507658958435, 0.1641818732023239, 0.28516992926597595, 0.33222004771232605, 0.19931519031524658, 0.12616120278835297, 0.11039505898952484, 0.1808173507452011, 0.11926054209470749, 0.2859724164009094, 0.14294347167015076, 0.1998661309480667, 0.4247817099094391, 0.2721359133720398, 0.5340815782546997, 0.2724491357803345, 0.13068823516368866, 0.30268415808677673, 0.6297951936721802, 0.6353725790977478, 0.8137347102165222, 0.684741199016571, 0.3610256612300873, 0.35476598143577576, 0.7056480646133423, 0.7137978076934814, 0.2515747547149658, 0.766035258769989, 0.32414406538009644, 0.5790584087371826, 0.58660489320755, 0.5692867040634155, 0.40322157740592957, 0.14735367894172668, 0.12541542947292328, 0.23453693091869354, 0.6112193465232849, 0.6455386281013489, 0.3406507670879364, 0.8152827620506287, 0.8790696263313293, 0.6684489846229553, 0.28128060698509216, 0.5442690253257751, 0.7068212032318115, 0.3718971610069275, 0.38210687041282654, 0.38744375109672546, 0.3126159906387329, 0.8670005798339844, 0.6266602873802185, 0.4036508798599243, 0.21421818435192108, 0.4474072754383087, 0.3287506103515625, 0.5446721911430359, 0.6906901597976685, 0.7776291370391846, 0.598046600818634, 0.3039972484111786, 0.5050346255302429, 0.16502976417541504, 0.3893917202949524, 0.4741065502166748, 0.5886460542678833, 0.4773750901222229, 0.7334826588630676, 0.8189752101898193, 0.7378538846969604, 0.41335242986679077, 0.9121967554092407, 0.48148518800735474, 0.5280197858810425, 0.351841539144516, 0.6522216200828552, 0.7247583866119385, 0.7001534104347229, 0.7506922483444214, 0.642876923084259, 0.4857010543346405, 0.7109622359275818, 0.4573881924152374, 0.1959153115749359, 0.8072313666343689, 0.6309264898300171, 0.6224526762962341, 0.46407467126846313, 0.6715573072433472, 0.41614577174186707, 0.43163904547691345, 0.7288938760757446, 0.8036254644393921, 0.3443855941295624, 0.6642693877220154, 0.6186309456825256, 0.5755972266197205, 0.7771373391151428, 0.56013023853302, 0.7031585574150085, 0.3121596872806549, 0.6306667923927307, 0.683107316493988, 0.8244331479072571, 0.5170146822929382, 0.36372628808021545, 0.6416025161743164, 0.7400669455528259, 0.5281498432159424, 0.35671043395996094, 0.3381551504135132, 0.6611263751983643, 0.5670498609542847, 0.6856803297996521, 0.6830230355262756]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9541438221931458</v>
+        <v>0.9121967554092407</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.6351992999843787</v>
+        <v>0.6430624999920838</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005383044915121853</v>
+        <v>0.005449682203322744</v>
       </c>
     </row>
     <row r="14">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.9215641617774963, 0.9430450201034546, 0.9206641912460327, 0.8888344764709473, 0.8972146511077881, 0.9228896498680115, 0.9043940305709839, 0.8036544919013977, 0.9005744457244873, 0.8939197063446045, 0.9011090397834778, 0.9318179488182068, 0.8932926058769226, 0.9262001514434814, 0.9156595468521118, 0.844976544380188, 0.6807348132133484, 0.9060536623001099, 0.9150027632713318, 0.943676233291626, 0.9050157070159912, 0.8606229424476624, 0.8484506011009216, 0.8524678945541382, 0.789283812046051, 0.7898815870285034, 0.8779913187026978, 0.862878143787384, 0.8397841453552246, 0.8134118914604187, 0.6948108077049255, 0.7438194155693054, 0.48195680975914, 0.5010047554969788, 0.4862070381641388, 0.9231499433517456, 0.8713461756706238, 0.8944101929664612, 0.8943614959716797, 0.8065935373306274, 0.8254131078720093, 0.8549246788024902, 0.7338575124740601, 0.7125311493873596, 0.8561404347419739, 0.9068735837936401, 0.9291592836380005, 0.9384462833404541, 0.9087221622467041, 0.8778461217880249, 0.8917696475982666, 0.8951156735420227, 0.923679530620575, 0.824803352355957, 0.8316972255706787, 0.9247180223464966, 0.9727952480316162, 0.9667384624481201, 0.9590086936950684, 0.9154404997825623, 0.8783706426620483, 0.8698209524154663, 0.9146706461906433, 0.9108849167823792, 0.8701319694519043, 0.9362474679946899, 0.9243899583816528, 0.8938232660293579, 0.861716628074646, 0.7988634705543518, 0.7892282605171204, 0.9070122241973877, 0.9570441842079163, 0.9497928023338318, 0.9328278303146362, 0.8683215379714966, 0.8402887582778931, 0.7225705981254578, 0.6326044201850891, 0.7493410110473633, 0.7583507895469666, 0.590347409248352, 0.7128707766532898, 0.8619632124900818, 0.722491979598999, 0.8694251179695129, 0.7547993063926697, 0.7891525626182556, 0.8342700600624084, 0.9310235381126404, 0.9085105657577515, 0.9077433347702026, 0.9071838855743408, 0.848751962184906, 0.7277756333351135, 0.7060768604278564, 0.7783871293067932, 0.7058383822441101, 0.8203163743019104, 0.9025909304618835, 0.8259281516075134, 0.8757103681564331, 0.8728206157684326, 0.8264095187187195, 0.8820053935050964, 0.8966013193130493, 0.8500239849090576, 0.91679447889328, 0.9147195219993591, 0.9317395091056824, 0.9225532412528992, 0.8565717935562134, 0.8814164400100708, 0.9560297131538391, 0.9216074347496033, 0.8986788392066956, 0.9675923585891724, 0.9416783452033997, 0.9353567957878113, 0.9506228566169739, 0.954054057598114, 0.9249791502952576, 0.9354067444801331, 0.9526558518409729, 0.9623050093650818, 0.9436355829238892, 0.885645866394043, 0.8370502591133118, 0.8222261071205139, 0.8537065982818604, 0.7772790789604187, 0.7614781856536865, 0.6156759262084961, 0.586340069770813, 0.6675784587860107, 0.6453868746757507, 0.7418359518051147, 0.7693505883216858, 0.5585169792175293, 0.5821976065635681, 0.718894362449646, 0.6980911493301392, 0.7023481130599976, 0.5290701985359192, 0.47143593430519104, 0.5318593382835388, 0.5014463067054749, 0.5622504353523254, 0.648070216178894, 0.4379793703556061, 0.4002583920955658, 0.39480748772621155, 0.6087605953216553, 0.5511093735694885, 0.6644555926322937, 0.7827234864234924, 0.7830036878585815]</t>
+          <t>[0.9773700833320618, 0.9837858080863953, 0.9725631475448608, 0.9578431248664856, 0.9612427949905396, 0.9637274146080017, 0.9473516941070557, 0.8845824003219604, 0.96491938829422, 0.9641011953353882, 0.9712970852851868, 0.9806457161903381, 0.9640471339225769, 0.9763205647468567, 0.9694860577583313, 0.9278309941291809, 0.8214690089225769, 0.9715400338172913, 0.9739257097244263, 0.9810489416122437, 0.9584863185882568, 0.9445120096206665, 0.9269890785217285, 0.9377308487892151, 0.9140061140060425, 0.9206396341323853, 0.9447979927062988, 0.9439408779144287, 0.9267377853393555, 0.9136027097702026, 0.8060588240623474, 0.8615099191665649, 0.6525232791900635, 0.6889715194702148, 0.6884472966194153, 0.9745731353759766, 0.9515924453735352, 0.9604321122169495, 0.9578834772109985, 0.8967769145965576, 0.9081013202667236, 0.9454725980758667, 0.8559350967407227, 0.8584235906600952, 0.9480182528495789, 0.9635000228881836, 0.9773508310317993, 0.9800592064857483, 0.9618849158287048, 0.9444646239280701, 0.9568313956260681, 0.9641920924186707, 0.9747048020362854, 0.9082502126693726, 0.9068487882614136, 0.9682689905166626, 0.9913073182106018, 0.9900549650192261, 0.9852214455604553, 0.9709879755973816, 0.9515606164932251, 0.9550464153289795, 0.9708182215690613, 0.9684093594551086, 0.942116916179657, 0.9803004264831543, 0.9730716943740845, 0.964441180229187, 0.9105518460273743, 0.8620098829269409, 0.8574725985527039, 0.9650977849960327, 0.9894673228263855, 0.9860692024230957, 0.9780694246292114, 0.9504634737968445, 0.9369423389434814, 0.8628262281417847, 0.7898859977722168, 0.8613738417625427, 0.8644115328788757, 0.78024822473526, 0.8742974996566772, 0.9250369668006897, 0.8330713510513306, 0.9511364698410034, 0.8881682753562927, 0.928803563117981, 0.9432287812232971, 0.9793962240219116, 0.9686827063560486, 0.9669501781463623, 0.96580570936203, 0.9380798935890198, 0.8685138821601868, 0.8340733647346497, 0.8953790068626404, 0.8493761420249939, 0.9098520278930664, 0.962531566619873, 0.9270192384719849, 0.9400006532669067, 0.9325755834579468, 0.9067520499229431, 0.9456248879432678, 0.9568975567817688, 0.9339208602905273, 0.970784604549408, 0.9766070246696472, 0.9826602339744568, 0.987220048904419, 0.9754648804664612, 0.9800255298614502, 0.9928134083747864, 0.9858815670013428, 0.9775631427764893, 0.9915046095848083, 0.9848500490188599, 0.982871413230896, 0.9867598414421082, 0.9885132908821106, 0.9824244379997253, 0.9807286858558655, 0.9805503487586975, 0.9802481532096863, 0.9751467108726501, 0.9351852536201477, 0.9092187881469727, 0.8771684765815735, 0.8920503854751587, 0.8092929720878601, 0.820443868637085, 0.663873553276062, 0.6625515222549438, 0.8265718221664429, 0.8038126230239868, 0.8659406900405884, 0.8566475510597229, 0.6875162124633789, 0.6833360195159912, 0.8216689229011536, 0.8198235034942627, 0.8022297024726868, 0.5966054797172546, 0.5411404967308044, 0.6440392732620239, 0.6725478768348694, 0.7164680361747742, 0.8242815732955933, 0.6138285398483276, 0.5869520902633667, 0.5446723699569702, 0.6857340335845947, 0.6300063729286194, 0.8204706311225891, 0.91230708360672, 0.9123761653900146]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9727952480316162</v>
+        <v>0.9928134083747864</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.8856719000032172</v>
+        <v>0.924817000006442</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005641222293014122</v>
+        <v>0.00589055414016842</v>
       </c>
     </row>
     <row r="15">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.12873777747154236, 0.12287313491106033, 0.07372013479471207, 0.06582602858543396, 0.1512761116027832, 0.1450781673192978, 0.17901314795017242, 0.09238755702972412, 0.08098243921995163, 0.14463113248348236, 0.10240889340639114, 0.06821940094232559, 0.07476401329040527, 0.07852029800415039, 0.062314555048942566, 0.10139196366071701, 0.15935981273651123, 0.19821283221244812, 0.1831580400466919, 0.18106579780578613, 0.13449415564537048, 0.16149522364139557, 0.19895504415035248, 0.26821616291999817, 0.31101542711257935, 0.1749621331691742, 0.16216371953487396, 0.12890946865081787, 0.10543308407068253, 0.04617175832390785, 0.07659730315208435, 0.08272264897823334, 0.08653305470943451, 0.0945940837264061, 0.11573892831802368, 0.1021711602807045, 0.24895092844963074, 0.2532062828540802, 0.19068926572799683, 0.185237854719162, 0.31396740674972534, 0.3546963930130005, 0.2702227234840393, 0.32731765508651733, 0.21434804797172546, 0.22999443113803864, 0.3986278176307678, 0.22184379398822784, 0.23157407343387604, 0.1770055890083313, 0.17354214191436768, 0.21155722439289093, 0.36538952589035034, 0.49761977791786194, 0.6032149195671082, 0.4609214663505554, 0.41189005970954895, 0.28101974725723267, 0.46891239285469055, 0.38189107179641724, 0.30433252453804016, 0.181130051612854, 0.1646636575460434, 0.27623867988586426, 0.15111246705055237, 0.12059932202100754, 0.12000685930252075, 0.2820664644241333, 0.22834651172161102, 0.16032013297080994, 0.16965535283088684, 0.13056552410125732, 0.20154331624507904, 0.19407086074352264, 0.1912241280078888, 0.18300385773181915, 0.2052147537469864, 0.24070049822330475, 0.3170320987701416, 0.16390512883663177, 0.11455098539590836, 0.07768989354372025, 0.03889865800738335, 0.03097277693450451, 0.05311383306980133, 0.11818447709083557, 0.1407914012670517, 0.13869424164295197, 0.2937034070491791, 0.2722168564796448, 0.35677242279052734, 0.41172268986701965, 0.2822391390800476, 0.21947786211967468, 0.18601614236831665, 0.1300036460161209, 0.16609787940979004, 0.2413385659456253, 0.28798386454582214, 0.31662607192993164, 0.26202237606048584, 0.15020190179347992, 0.19198893010616302, 0.13646218180656433, 0.15916875004768372, 0.15244339406490326, 0.11143417656421661, 0.08146236091852188, 0.0854320377111435, 0.06565562635660172, 0.09052670747041702, 0.11305540055036545, 0.12472276389598846, 0.183087557554245, 0.17113015055656433, 0.19228610396385193, 0.1127825677394867, 0.06108574941754341, 0.04955838993191719, 0.050648391246795654, 0.05189696326851845, 0.14209730923175812, 0.11535470932722092, 0.11230495572090149, 0.2010601907968521, 0.24342989921569824, 0.1792728453874588, 0.14610904455184937, 0.14836011826992035, 0.23720818758010864, 0.27508968114852905, 0.4462812542915344, 0.3427537977695465, 0.08841922879219055, 0.10178935527801514, 0.11290101706981659, 0.10892652720212936, 0.10853951424360275, 0.17263613641262054, 0.2110697478055954, 0.17249591648578644, 0.13528908789157867, 0.09958307445049286, 0.07320129871368408, 0.05760062858462334, 0.06519297510385513, 0.0577324777841568, 0.10311883687973022, 0.06008508801460266, 0.07749403268098831, 0.08789104223251343, 0.3461802005767822, 0.24727700650691986, 0.19694910943508148, 0.11927932500839233, 0.07430914044380188, 0.10773277282714844, 0.10581137239933014]</t>
+          <t>[0.09687470644712448, 0.10693005472421646, 0.05288136377930641, 0.05216560140252113, 0.11611466109752655, 0.10403545200824738, 0.12404812127351761, 0.05509599670767784, 0.046913180500268936, 0.10729694366455078, 0.08545597642660141, 0.054392870515584946, 0.06273863464593887, 0.05651499703526497, 0.04474111646413803, 0.07927780598402023, 0.1311430037021637, 0.1903134286403656, 0.14653804898262024, 0.1554660201072693, 0.106909841299057, 0.13191917538642883, 0.15428608655929565, 0.22445696592330933, 0.2606949508190155, 0.16559307277202606, 0.15261022746562958, 0.11271585524082184, 0.09927146881818771, 0.03305106610059738, 0.04781901463866234, 0.04779762029647827, 0.06299243122339249, 0.06979325413703918, 0.0889398381114006, 0.07502645999193192, 0.19067597389221191, 0.22432465851306915, 0.2088669091463089, 0.23020021617412567, 0.34075233340263367, 0.3561369478702545, 0.3163861930370331, 0.386173278093338, 0.23254530131816864, 0.24198517203330994, 0.42770135402679443, 0.2536981701850891, 0.26131540536880493, 0.19188030064105988, 0.19158606231212616, 0.26969558000564575, 0.4509824216365814, 0.6546709537506104, 0.8174601793289185, 0.704889714717865, 0.7032097578048706, 0.46144089102745056, 0.5878791213035583, 0.44337955117225647, 0.38228195905685425, 0.19647537171840668, 0.17462950944900513, 0.2863685190677643, 0.1552228331565857, 0.1268758326768875, 0.11706772446632385, 0.2768617570400238, 0.22408391535282135, 0.14177970588207245, 0.11000936478376389, 0.08418281376361847, 0.1390983909368515, 0.12217774987220764, 0.13460859656333923, 0.1401338428258896, 0.15863798558712006, 0.18062998354434967, 0.26576992869377136, 0.11102867126464844, 0.07223974168300629, 0.051154736429452896, 0.03222319856286049, 0.023738835006952286, 0.0400916188955307, 0.07899820804595947, 0.08947931975126266, 0.08002258092164993, 0.25444889068603516, 0.2594844400882721, 0.30414408445358276, 0.28811562061309814, 0.20346085727214813, 0.1761937439441681, 0.17309823632240295, 0.10570061951875687, 0.10208440572023392, 0.22228136658668518, 0.2572052478790283, 0.2655954360961914, 0.15473976731300354, 0.09415648877620697, 0.14109259843826294, 0.07899745553731918, 0.09495005011558533, 0.08514945954084396, 0.06375163793563843, 0.042744748294353485, 0.0485130250453949, 0.037465374916791916, 0.061210453510284424, 0.08814731985330582, 0.0803188607096672, 0.14666303992271423, 0.15869155526161194, 0.20107440650463104, 0.09131867438554764, 0.0436021164059639, 0.03281468152999878, 0.03384564071893692, 0.036813441663980484, 0.11118979007005692, 0.10016430914402008, 0.08387353271245956, 0.14030064642429352, 0.18358519673347473, 0.14102043211460114, 0.11835023015737534, 0.12604963779449463, 0.25167223811149597, 0.2916003167629242, 0.38786670565605164, 0.22871725261211395, 0.0561552494764328, 0.06894515454769135, 0.07694961875677109, 0.08059126883745193, 0.09647397696971893, 0.1497255116701126, 0.1822514832019806, 0.11678396165370941, 0.10573940724134445, 0.06476499885320663, 0.054872412234544754, 0.0367170125246048, 0.05872663855552673, 0.06004374101758003, 0.10736045986413956, 0.060629550367593765, 0.06177935749292374, 0.061186283826828, 0.3418414890766144, 0.2289675921201706, 0.20675481855869293, 0.13218694925308228, 0.07573167979717255, 0.13711844384670258, 0.13553909957408905]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6032149195671082</v>
+        <v>0.8174601793289185</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.8971256000222638</v>
+        <v>0.9123561000014888</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005678010126723189</v>
+        <v>0.005774405696211954</v>
       </c>
     </row>
     <row r="16">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.7310830354690552, 0.6963637471199036, 0.7065897583961487, 0.6682689785957336, 0.7316614985466003, 0.5478185415267944, 0.5681234002113342, 0.7583280801773071, 0.751848042011261, 0.6539555191993713, 0.8055813312530518, 0.6971068978309631, 0.5239772200584412, 0.4967931807041168, 0.4029725193977356, 0.3955188989639282, 0.47840067744255066, 0.3873937427997589, 0.33329546451568604, 0.18410682678222656, 0.24951741099357605, 0.20030218362808228, 0.3778725862503052, 0.3462154269218445, 0.3359992504119873, 0.310520201921463, 0.2883857488632202, 0.31806573271751404, 0.3076868951320648, 0.324575275182724, 0.3213872015476227, 0.44165241718292236, 0.5158524513244629, 0.5061206221580505, 0.31088966131210327, 0.43958574533462524, 0.2877093553543091, 0.17943447828292847, 0.17071399092674255, 0.20822864770889282, 0.29768553376197815, 0.3119923174381256, 0.257568359375, 0.4169037640094757, 0.4534764587879181, 0.4261191189289093, 0.336753785610199, 0.24738363921642303, 0.20825818181037903, 0.3529936969280243, 0.2579525411128998, 0.24276168644428253, 0.20000234246253967, 0.25948914885520935, 0.3090987205505371, 0.2890828549861908, 0.2913365066051483, 0.2953447997570038, 0.24078752100467682, 0.2700355350971222, 0.250273197889328, 0.2829371392726898, 0.3679327368736267, 0.38653573393821716, 0.35806575417518616, 0.3070043623447418, 0.2474294900894165, 0.3853033781051636, 0.4149491786956787, 0.3927903473377228, 0.49987930059432983, 0.4393625557422638, 0.2869800925254822, 0.2879300117492676, 0.2915884256362915, 0.3581177294254303, 0.26890459656715393, 0.37045466899871826, 0.4138021767139435, 0.15540547668933868, 0.24211528897285461, 0.13345730304718018, 0.08497732132673264, 0.1611730456352234, 0.2002115249633789, 0.13907784223556519, 0.11733870953321457, 0.11180997639894485, 0.1353423297405243, 0.18783050775527954, 0.1558723747730255, 0.16630102694034576, 0.2031688094139099, 0.21658138930797577, 0.15871773660182953, 0.1303471028804779, 0.17099513113498688, 0.1381400227546692, 0.16151593625545502, 0.1499992161989212, 0.13843785226345062, 0.12703685462474823, 0.1277221441268921, 0.10337027162313461, 0.13186651468276978, 0.12799501419067383, 0.18991884589195251, 0.24100850522518158, 0.20577029883861542, 0.22163304686546326, 0.2683177590370178, 0.3256026804447174, 0.12989766895771027, 0.17949232459068298, 0.1375855654478073, 0.4113176465034485, 0.3130907416343689, 0.24935321509838104, 0.21827268600463867, 0.19749553501605988, 0.16469506919384003, 0.321200430393219, 0.19752267003059387, 0.23448428511619568, 0.2120402455329895, 0.2142116129398346, 0.1738811582326889, 0.15900948643684387, 0.12081584334373474, 0.12227065861225128, 0.11274441331624985, 0.14425671100616455, 0.21748167276382446, 0.1911040097475052, 0.18823425471782684, 0.17099834978580475, 0.24199876189231873, 0.2356547862291336, 0.21418528258800507, 0.3709588348865509, 0.35536980628967285, 0.4304298460483551, 0.48890864849090576, 0.46941840648651123, 0.4341464936733246, 0.37189942598342896, 0.39404475688934326, 0.2841232120990753, 0.5006166696548462, 0.4780789315700531, 0.5277280211448669, 0.28941914439201355, 0.23312029242515564, 0.2358427494764328, 0.198707714676857, 0.29759034514427185, 0.29751062393188477]</t>
+          <t>[0.7817778587341309, 0.6679100394248962, 0.6781570315361023, 0.6243098378181458, 0.6800504922866821, 0.45134237408638, 0.4721769392490387, 0.7532361149787903, 0.7652707695960999, 0.6639580726623535, 0.8684213161468506, 0.7309983372688293, 0.42593666911125183, 0.3508732318878174, 0.3286392092704773, 0.2572105824947357, 0.3334636390209198, 0.2371813803911209, 0.21502898633480072, 0.09147461503744125, 0.16532187163829803, 0.11464770883321762, 0.2811311185359955, 0.23922717571258545, 0.23602314293384552, 0.15694420039653778, 0.12194843590259552, 0.12233307212591171, 0.14569056034088135, 0.15592309832572937, 0.16831107437610626, 0.3048059344291687, 0.4229930341243744, 0.38204479217529297, 0.20877127349376678, 0.35587722063064575, 0.19641625881195068, 0.10466296970844269, 0.10090719163417816, 0.12755580246448517, 0.20907966792583466, 0.20313584804534912, 0.15218251943588257, 0.3694576025009155, 0.3883201777935028, 0.29385602474212646, 0.20400665700435638, 0.1238776445388794, 0.08673416078090668, 0.1993594467639923, 0.11608604341745377, 0.1351458877325058, 0.10712230205535889, 0.15360873937606812, 0.16908049583435059, 0.1310695856809616, 0.13114596903324127, 0.13382837176322937, 0.10595691949129105, 0.10852102935314178, 0.10718382149934769, 0.13480132818222046, 0.18495610356330872, 0.19734084606170654, 0.2173156440258026, 0.18489426374435425, 0.1335568130016327, 0.19388607144355774, 0.21399830281734467, 0.17960499227046967, 0.3227158188819885, 0.2285003364086151, 0.10160346329212189, 0.11050699651241302, 0.13363878428936005, 0.20124606788158417, 0.1718003898859024, 0.2818731963634491, 0.329334020614624, 0.06945537775754929, 0.12687303125858307, 0.049523431807756424, 0.025424277409911156, 0.08034829795360565, 0.13246162235736847, 0.055537208914756775, 0.044443197548389435, 0.03799807280302048, 0.04548321291804314, 0.08468069136142731, 0.06261585652828217, 0.06535308063030243, 0.09577273577451706, 0.09453495591878891, 0.04787694290280342, 0.0364316962659359, 0.0664508193731308, 0.051237888634204865, 0.06908683478832245, 0.059810228645801544, 0.0637698695063591, 0.051569920033216476, 0.057126376777887344, 0.032425686717033386, 0.05379192903637886, 0.05506696179509163, 0.07502523064613342, 0.0998154804110527, 0.0703703984618187, 0.08668358623981476, 0.12661117315292358, 0.16640642285346985, 0.0724884495139122, 0.10325444489717484, 0.07270367443561554, 0.32658424973487854, 0.17291143536567688, 0.11941254884004593, 0.09169820696115494, 0.06128665432333946, 0.04687292501330376, 0.16903460025787354, 0.10056380927562714, 0.11310264468193054, 0.10393423587083817, 0.09243398904800415, 0.05652569606900215, 0.040287621319293976, 0.03387214243412018, 0.031015904620289803, 0.03734436258673668, 0.05012107267975807, 0.08647186309099197, 0.08160801976919174, 0.08391515910625458, 0.065822534263134, 0.11554749310016632, 0.13211753964424133, 0.12004489451646805, 0.21033325791358948, 0.17126372456550598, 0.25466352701187134, 0.28230780363082886, 0.3193064332008362, 0.30191099643707275, 0.2458406537771225, 0.28514501452445984, 0.18355806171894073, 0.31385084986686707, 0.27067700028419495, 0.3442145586013794, 0.16553284227848053, 0.12261220067739487, 0.13394586741924286, 0.10900720953941345, 0.19519074261188507, 0.1951197385787964]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8055813312530518</v>
+        <v>0.8684213161468506</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.8877797000168357</v>
+        <v>0.9509547999914503</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005654647770807871</v>
+        <v>0.006057036942620702</v>
       </c>
     </row>
     <row r="17">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[0.2857910096645355, 0.587955892086029, 0.517119288444519, 0.5872364640235901, 0.6453016400337219, 0.37501195073127747, 0.2796771824359894, 0.19066327810287476, 0.24235007166862488, 0.2950776219367981, 0.3539782464504242, 0.3738233149051666, 0.292467325925827, 0.2891802489757538, 0.23345939815044403, 0.1859704703092575, 0.16589903831481934, 0.21450725197792053, 0.24463476240634918, 0.38760027289390564, 0.29898780584335327, 0.34019017219543457, 0.3040120601654053, 0.3650994598865509, 0.2827531695365906, 0.21389219164848328, 0.3203974664211273, 0.4060215353965759, 0.5186554193496704, 0.47875499725341797, 0.5224848389625549, 0.5179359912872314, 0.44252777099609375, 0.41946807503700256, 0.43162015080451965, 0.7014815211296082, 0.6976828575134277, 0.6907427906990051, 0.5999361872673035, 0.6909175515174866, 0.5912206172943115, 0.41652485728263855, 0.28992393612861633, 0.2908939719200134, 0.4404934048652649, 0.4121599495410919, 0.4867827594280243, 0.6451704502105713, 0.6288619041442871, 0.5570230484008789, 0.32687705755233765, 0.4677433669567108, 0.48508673906326294, 0.3167952299118042, 0.2758841812610626, 0.3316331207752228, 0.5448058247566223, 0.6075224280357361, 0.6170161366462708, 0.5308818817138672, 0.5818472504615784, 0.692682147026062, 0.5457890629768372, 0.39455142617225647, 0.5813966989517212, 0.7997552752494812, 0.8410583138465881, 0.8157722353935242, 0.7795277237892151, 0.8712567687034607, 0.885985791683197, 0.6403189897537231, 0.566932201385498, 0.6190084218978882, 0.7705643177032471, 0.7044883370399475, 0.8108324408531189, 0.8829264044761658, 0.7978596687316895, 0.8266133069992065, 0.8108468651771545, 0.8160479068756104, 0.7533100247383118, 0.7651165723800659, 0.7615660429000854, 0.8182380199432373, 0.8368680477142334, 0.82281494140625, 0.7988808155059814, 0.6891081929206848, 0.7296749949455261, 0.615534782409668, 0.60660320520401, 0.5502397418022156, 0.5174058079719543, 0.5951533913612366, 0.4887043535709381, 0.45724716782569885, 0.35717448592185974, 0.36205291748046875, 0.3470556437969208, 0.5843551754951477, 0.5854594111442566, 0.5529555082321167, 0.5613197088241577, 0.43923887610435486, 0.4762113392353058, 0.42528021335601807, 0.3114343583583832, 0.4927990138530731, 0.461539089679718, 0.33083784580230713, 0.20463263988494873, 0.24869273602962494, 0.17365162074565887, 0.24717189371585846, 0.6740227341651917, 0.6722043752670288, 0.4934232234954834, 0.4727453291416168, 0.2847917973995209, 0.24379166960716248, 0.2652944326400757, 0.29587772488594055, 0.48411235213279724, 0.6327401995658875, 0.5574817657470703, 0.7360870242118835, 0.670330286026001, 0.5512475371360779, 0.5269225239753723, 0.5368025898933411, 0.5804847478866577, 0.5597735643386841, 0.4751569926738739, 0.3900274336338043, 0.46585914492607117, 0.5383578538894653, 0.6643773913383484, 0.5410974025726318, 0.3448258638381958, 0.38988664746284485, 0.43780961632728577, 0.5749238133430481, 0.7189754247665405, 0.6219961047172546, 0.7918225526809692, 0.8475029468536377, 0.8083997964859009, 0.5424891710281372, 0.6514875888824463, 0.6984356045722961, 0.885614812374115, 0.8307430148124695, 0.8518423438072205, 0.8297953605651855, 0.829951286315918]</t>
+          <t>[0.11199788749217987, 0.37957194447517395, 0.36392447352409363, 0.5114820599555969, 0.6300593018531799, 0.2201293408870697, 0.13381652534008026, 0.07634425908327103, 0.10137511789798737, 0.14631691575050354, 0.20561285316944122, 0.21051709353923798, 0.1569482386112213, 0.15102943778038025, 0.1046140044927597, 0.08136793226003647, 0.07006197422742844, 0.11510103195905685, 0.1700453907251358, 0.3760005235671997, 0.2599923610687256, 0.2614889442920685, 0.22242598235607147, 0.27480047941207886, 0.20616747438907623, 0.11755118519067764, 0.18432657420635223, 0.2649846076965332, 0.43844762444496155, 0.32353177666664124, 0.42371609807014465, 0.3902212977409363, 0.3411206007003784, 0.33957064151763916, 0.3493272066116333, 0.6112772822380066, 0.5913045406341553, 0.5781773924827576, 0.4975891411304474, 0.5547847747802734, 0.427036851644516, 0.27489450573921204, 0.15554602444171906, 0.17244018614292145, 0.23489436507225037, 0.24747492372989655, 0.29848650097846985, 0.60765141248703, 0.5359582901000977, 0.36288022994995117, 0.15432380139827728, 0.2187112420797348, 0.397696852684021, 0.22804567217826843, 0.20436015725135803, 0.190245121717453, 0.542046308517456, 0.5605490207672119, 0.5970878005027771, 0.3857651948928833, 0.4325989782810211, 0.5529398918151855, 0.46221911907196045, 0.2799533009529114, 0.47754359245300293, 0.7237690091133118, 0.8106392025947571, 0.773025631904602, 0.7546983361244202, 0.8644735217094421, 0.8978090286254883, 0.6424943208694458, 0.5501845479011536, 0.5141827464103699, 0.7111695408821106, 0.6120213270187378, 0.7543683052062988, 0.8927146792411804, 0.7813823223114014, 0.8321844339370728, 0.7847520112991333, 0.7743507027626038, 0.6703835129737854, 0.6878662109375, 0.7438194155693054, 0.8019437789916992, 0.7969470620155334, 0.778870165348053, 0.7442023158073425, 0.6387718319892883, 0.6394283175468445, 0.4768090546131134, 0.51975417137146, 0.45179688930511475, 0.40101030468940735, 0.46978557109832764, 0.400558739900589, 0.3443557024002075, 0.18604469299316406, 0.20878231525421143, 0.18395349383354187, 0.39686304330825806, 0.42926403880119324, 0.3879546523094177, 0.4606412351131439, 0.33679136633872986, 0.39036956429481506, 0.30427658557891846, 0.225593701004982, 0.4442550837993622, 0.35755401849746704, 0.20247882604599, 0.1171826645731926, 0.1734156757593155, 0.10472729802131653, 0.16831858456134796, 0.6011629700660706, 0.5772607922554016, 0.35859414935112, 0.26995930075645447, 0.15076477825641632, 0.15309859812259674, 0.13673008978366852, 0.18338005244731903, 0.4154528081417084, 0.5803201794624329, 0.5067945122718811, 0.7459470629692078, 0.6648396849632263, 0.5427480936050415, 0.5110232830047607, 0.5753623247146606, 0.5756774544715881, 0.5030043721199036, 0.33944109082221985, 0.28777217864990234, 0.4203784763813019, 0.4578624963760376, 0.5580620765686035, 0.30693572759628296, 0.16915565729141235, 0.22374536097049713, 0.2401321530342102, 0.5483893156051636, 0.6821053624153137, 0.5764248967170715, 0.7812268733978271, 0.8549318313598633, 0.8144391179084778, 0.43056344985961914, 0.6171087026596069, 0.6481559872627258, 0.9113848209381104, 0.864230751991272, 0.8969338536262512, 0.8304903507232666, 0.8303035497665405]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.885985791683197</v>
+        <v>0.9113848209381104</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.8879385000036564</v>
+        <v>0.89744340001198</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005655659235692079</v>
+        <v>0.005716200000076306</v>
       </c>
     </row>
     <row r="18">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.4333800971508026, 0.6940558552742004, 0.6581323742866516, 0.7986880540847778, 0.7929931282997131, 0.7348220348358154, 0.6339281797409058, 0.6283213496208191, 0.3767995238304138, 0.46023133397102356, 0.32633888721466064, 0.586208701133728, 0.6114751696586609, 0.6233713626861572, 0.7284436225891113, 0.5454175472259521, 0.561472475528717, 0.3447289764881134, 0.28098657727241516, 0.38919973373413086, 0.5823432803153992, 0.5659653544425964, 0.6022407412528992, 0.5071092844009399, 0.5284586548805237, 0.49450093507766724, 0.46112343668937683, 0.4319453835487366, 0.47024664282798767, 0.4470268189907074, 0.33481261134147644, 0.2881099283695221, 0.4939069151878357, 0.4160301685333252, 0.44222933053970337, 0.5820990204811096, 0.7457242012023926, 0.7351477742195129, 0.667367160320282, 0.6965888142585754, 0.6813544034957886, 0.5654693245887756, 0.4092386066913605, 0.39953652024269104, 0.5954210758209229, 0.6557740569114685, 0.5062304139137268, 0.7477502226829529, 0.6275445818901062, 0.5742838382720947, 0.8032056093215942, 0.7340216636657715, 0.7712588906288147, 0.7687256336212158, 0.6831130981445312, 0.9414596557617188, 0.9159796237945557, 0.8625876307487488, 0.8163984417915344, 0.7830148935317993, 0.727353572845459, 0.6416334509849548, 0.7681349515914917, 0.6570833921432495, 0.6421317458152771, 0.501567542552948, 0.39336735010147095, 0.37481963634490967, 0.49587035179138184, 0.4264923930168152, 0.33810633420944214, 0.5437564253807068, 0.6785921454429626, 0.6777001619338989, 0.8771973848342896, 0.857525110244751, 0.8217921853065491, 0.8769487142562866, 0.8285319805145264, 0.7906410098075867, 0.7890958189964294, 0.8561422824859619, 0.8389973640441895, 0.42472806572914124, 0.40541478991508484, 0.39544984698295593, 0.5499858856201172, 0.6030371785163879, 0.6829553246498108, 0.5717003345489502, 0.5007853507995605, 0.32978829741477966, 0.4766504764556885, 0.5622027516365051, 0.5382192730903625, 0.9022256135940552, 0.8564621210098267, 0.813787579536438, 0.8432990908622742, 0.7448593378067017, 0.5800625085830688, 0.2970922589302063, 0.4499581456184387, 0.4711754620075226, 0.596717894077301, 0.6138619780540466, 0.5986961126327515, 0.7639924883842468, 0.7770259380340576, 0.6954747438430786, 0.5754446983337402, 0.6611008048057556, 0.6470953226089478, 0.4613206088542938, 0.4751354157924652, 0.5311143398284912, 0.6966909170150757, 0.7052661776542664, 0.6575645804405212, 0.41873472929000854, 0.48183852434158325, 0.5560217499732971, 0.4773898124694824, 0.34499356150627136, 0.3264913260936737, 0.38188016414642334, 0.4516697824001312, 0.6263538002967834, 0.7426139712333679, 0.730965793132782, 0.6625007390975952, 0.6865765452384949, 0.5525633692741394, 0.4502267837524414, 0.5387758016586304, 0.5576599836349487, 0.5378013849258423, 0.7826674580574036, 0.7075930237770081, 0.8194430470466614, 0.6543067693710327, 0.4920620322227478, 0.54036945104599, 0.7282651662826538, 0.718959629535675, 0.7578237056732178, 0.8276665806770325, 0.7334246635437012, 0.6690024137496948, 0.7415594458580017, 0.625609278678894, 0.49054646492004395, 0.6417854428291321, 0.6184448599815369, 0.5370160937309265, 0.844071090221405, 0.7854743599891663, 0.7855600714683533]</t>
+          <t>[0.4059953987598419, 0.6978479027748108, 0.6263786554336548, 0.7883234620094299, 0.8101078867912292, 0.800548791885376, 0.7212908864021301, 0.6739692687988281, 0.4017401337623596, 0.48781996965408325, 0.3087576627731323, 0.5546087026596069, 0.6436227560043335, 0.6875161528587341, 0.8020160794258118, 0.6062692999839783, 0.6187758445739746, 0.32428669929504395, 0.24490034580230713, 0.38185641169548035, 0.667689323425293, 0.6626624464988708, 0.6889302134513855, 0.5209476947784424, 0.5440382957458496, 0.5129205584526062, 0.43698617815971375, 0.3899245262145996, 0.46486136317253113, 0.4873705804347992, 0.31178852915763855, 0.3201899826526642, 0.5210915207862854, 0.49479833245277405, 0.549680769443512, 0.6852190494537354, 0.817162036895752, 0.8109224438667297, 0.6709492206573486, 0.7339012026786804, 0.7156670689582825, 0.595772922039032, 0.4785556495189667, 0.42969807982444763, 0.584683895111084, 0.6866541504859924, 0.4822808504104614, 0.7747963070869446, 0.6681619882583618, 0.6290777921676636, 0.8533427119255066, 0.798086941242218, 0.8407753109931946, 0.8472626805305481, 0.7899045944213867, 0.9706898927688599, 0.949850857257843, 0.9409483075141907, 0.9036591053009033, 0.8186790347099304, 0.7655916810035706, 0.74077308177948, 0.7709342241287231, 0.6926741600036621, 0.7123798727989197, 0.5480195879936218, 0.4145444333553314, 0.4017501175403595, 0.4727669954299927, 0.3893599808216095, 0.3189944624900818, 0.5264939665794373, 0.728594183921814, 0.7203930020332336, 0.9329843521118164, 0.8972309827804565, 0.8796996474266052, 0.9173418879508972, 0.8740507960319519, 0.8224884271621704, 0.815268337726593, 0.8970927000045776, 0.8921627998352051, 0.4115302860736847, 0.39568161964416504, 0.3361353278160095, 0.4259463846683502, 0.5413414239883423, 0.5942912101745605, 0.48679229617118835, 0.37478378415107727, 0.20668214559555054, 0.39551711082458496, 0.5486843585968018, 0.5715643763542175, 0.934698224067688, 0.8888773918151855, 0.8554739356040955, 0.8950534462928772, 0.7946656346321106, 0.5011459589004517, 0.2154725193977356, 0.4122178256511688, 0.44599536061286926, 0.6297728419303894, 0.6461315155029297, 0.6285603642463684, 0.8306060433387756, 0.8487322330474854, 0.7852106690406799, 0.5896655321121216, 0.7120625972747803, 0.7186448574066162, 0.4923243820667267, 0.5142548084259033, 0.5529546737670898, 0.7310736179351807, 0.7280803322792053, 0.7005267143249512, 0.5141519904136658, 0.5873438119888306, 0.6527515649795532, 0.5363103151321411, 0.38094624876976013, 0.36109286546707153, 0.36668848991394043, 0.4404321014881134, 0.6214365363121033, 0.7661429643630981, 0.8022999167442322, 0.7468433976173401, 0.7247575521469116, 0.6128426194190979, 0.4910121560096741, 0.5577567219734192, 0.5756728649139404, 0.5179197192192078, 0.8273745775222778, 0.7763521671295166, 0.851444661617279, 0.6974181532859802, 0.5479637384414673, 0.6479811072349548, 0.8434543609619141, 0.8473293781280518, 0.864626944065094, 0.8448308110237122, 0.7395347952842712, 0.6269879341125488, 0.781947910785675, 0.7087993025779724, 0.5286432504653931, 0.6476582288742065, 0.6604965925216675, 0.5792734026908875, 0.8420185446739197, 0.7851100564002991, 0.7845902442932129]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9414596557617188</v>
+        <v>0.9706898927688599</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.889625400013756</v>
+        <v>0.902656999998726</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005630540506416177</v>
+        <v>0.005713018987333709</v>
       </c>
     </row>
     <row r="19">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.11513371020555496, 0.2802625596523285, 0.2763703167438507, 0.47571122646331787, 0.3113895654678345, 0.23023122549057007, 0.23345299065113068, 0.18316824734210968, 0.20522068440914154, 0.2170003354549408, 0.4786621630191803, 0.39384227991104126, 0.3847220540046692, 0.33454182744026184, 0.28394606709480286, 0.19862598180770874, 0.2832978069782257, 0.2924710810184479, 0.3243645429611206, 0.4657030701637268, 0.4416813254356384, 0.5045015215873718, 0.4125133752822876, 0.35556504130363464, 0.4409499764442444, 0.16458652913570404, 0.252456396818161, 0.15241342782974243, 0.12308714538812637, 0.11450503766536713, 0.16642716526985168, 0.18204572796821594, 0.17929799854755402, 0.169770747423172, 0.20780208706855774, 0.24357068538665771, 0.26813384890556335, 0.25689229369163513, 0.12928569316864014, 0.10056804120540619, 0.19941461086273193, 0.3579246997833252, 0.5763064622879028, 0.33295750617980957, 0.2751823961734772, 0.26301518082618713, 0.4574251174926758, 0.4297192096710205, 0.3371894359588623, 0.36588191986083984, 0.3244907557964325, 0.21190783381462097, 0.24884380400180817, 0.175575390458107, 0.1413385421037674, 0.2204909473657608, 0.1321980357170105, 0.122364841401577, 0.11615628004074097, 0.11308318376541138, 0.14010800421237946, 0.2624850571155548, 0.2929602861404419, 0.25201350450515747, 0.2240666002035141, 0.3502161204814911, 0.545211672782898, 0.3172259032726288, 0.24795830249786377, 0.2682730555534363, 0.21066071093082428, 0.21030716598033905, 0.20617038011550903, 0.1848655790090561, 0.22576777637004852, 0.18777814507484436, 0.2988234758377075, 0.2389831840991974, 0.20406997203826904, 0.15269765257835388, 0.15044143795967102, 0.14053641259670258, 0.14875853061676025, 0.11694732308387756, 0.18997180461883545, 0.3671720027923584, 0.4112420082092285, 0.3828049898147583, 0.27153921127319336, 0.3015744388103485, 0.26439547538757324, 0.29757142066955566, 0.3200460970401764, 0.4290282428264618, 0.22873832285404205, 0.16784965991973877, 0.21207250654697418, 0.32334837317466736, 0.5025380253791809, 0.5409780740737915, 0.1994704157114029, 0.20694567263126373, 0.1973218470811844, 0.26782214641571045, 0.22002531588077545, 0.24318066239356995, 0.1935378611087799, 0.1342921108007431, 0.15179386734962463, 0.14595553278923035, 0.17708592116832733, 0.15684689581394196, 0.2515520453453064, 0.15239864587783813, 0.19285784661769867, 0.1961076855659485, 0.2774130403995514, 0.4084569811820984, 0.34169113636016846, 0.28572484850883484, 0.3679463565349579, 0.2972809374332428, 0.20118823647499084, 0.27725252509117126, 0.2943357229232788, 0.20721253752708435, 0.18321117758750916, 0.3869900405406952, 0.43826043605804443, 0.5127419233322144, 0.23776283860206604, 0.15326780080795288, 0.16994044184684753, 0.20567914843559265, 0.2890666723251343, 0.2224365472793579, 0.12012612819671631, 0.09101918339729309, 0.1306762546300888, 0.1434972733259201, 0.18408329784870148, 0.2837843894958496, 0.33911609649658203, 0.32598164677619934, 0.34939441084861755, 0.25457635521888733, 0.21767675876617432, 0.2364499419927597, 0.2601112127304077, 0.19546319544315338, 0.18317748606204987, 0.26058557629585266, 0.29920336604118347, 0.19061018526554108, 0.3046609163284302, 0.30573171377182007, 0.3084013760089874]</t>
+          <t>[0.09353258460760117, 0.30461952090263367, 0.3078324496746063, 0.513192892074585, 0.3017726242542267, 0.19860079884529114, 0.21153569221496582, 0.2018289715051651, 0.21710658073425293, 0.22892776131629944, 0.581369161605835, 0.5103147625923157, 0.4685137867927551, 0.37412479519844055, 0.34119290113449097, 0.18410611152648926, 0.26509779691696167, 0.30659371614456177, 0.3320516347885132, 0.4390396177768707, 0.3801218867301941, 0.495125949382782, 0.45505326986312866, 0.3740676939487457, 0.47341230511665344, 0.11349097639322281, 0.20598873496055603, 0.10693442821502686, 0.08307033032178879, 0.060899969190359116, 0.08268439769744873, 0.12719833850860596, 0.15327391028404236, 0.14610575139522552, 0.17686013877391815, 0.24784190952777863, 0.2714575231075287, 0.16801021993160248, 0.065609410405159, 0.04739942401647568, 0.14340384304523468, 0.32897821068763733, 0.6232212781906128, 0.29192307591438293, 0.21397645771503448, 0.1711617410182953, 0.3628362715244293, 0.3494694232940674, 0.25958529114723206, 0.25002601742744446, 0.25448277592658997, 0.15547366440296173, 0.20351466536521912, 0.15724070370197296, 0.10882694274187088, 0.1682480126619339, 0.10275182873010635, 0.09872493892908096, 0.06432588398456573, 0.06622663140296936, 0.0793309360742569, 0.167683407664299, 0.18803875148296356, 0.16267873346805573, 0.17775346338748932, 0.32929882407188416, 0.576367974281311, 0.22084270417690277, 0.17223545908927917, 0.20268866419792175, 0.1571573168039322, 0.13093668222427368, 0.12277203053236008, 0.11044757813215256, 0.14067451655864716, 0.10073194652795792, 0.222184419631958, 0.21439801156520844, 0.14187800884246826, 0.085101418197155, 0.09404624998569489, 0.09552575647830963, 0.11152409017086029, 0.0886014923453331, 0.13733169436454773, 0.30028456449508667, 0.382648229598999, 0.3222403824329376, 0.1528269499540329, 0.2066502869129181, 0.21015430986881256, 0.18036967515945435, 0.2289864420890808, 0.3644988536834717, 0.13748224079608917, 0.10847434401512146, 0.16698071360588074, 0.2817644774913788, 0.43039488792419434, 0.39998024702072144, 0.10331564396619797, 0.12149645388126373, 0.1569633185863495, 0.25516578555107117, 0.18687663972377777, 0.23419924080371857, 0.13846653699874878, 0.10100685805082321, 0.11508509516716003, 0.10331413149833679, 0.16287796199321747, 0.13228753209114075, 0.2375582605600357, 0.12291229516267776, 0.18486224114894867, 0.2424856424331665, 0.3477838337421417, 0.523902952671051, 0.35908371210098267, 0.27049192786216736, 0.3908100724220276, 0.2854754626750946, 0.17962507903575897, 0.2866881787776947, 0.43355363607406616, 0.2863830327987671, 0.19976599514484406, 0.4435010850429535, 0.49795588850975037, 0.5961059331893921, 0.22167997062206268, 0.10472436249256134, 0.1316375881433487, 0.19741672277450562, 0.2927680015563965, 0.17844060063362122, 0.06260991841554642, 0.04166031256318092, 0.05929684638977051, 0.0875740796327591, 0.13401761651039124, 0.27757999300956726, 0.3123462200164795, 0.26411622762680054, 0.24190351366996765, 0.16070733964443207, 0.12276824563741684, 0.13161730766296387, 0.14214445650577545, 0.09771895408630371, 0.08780612051486969, 0.12515583634376526, 0.17280447483062744, 0.10238855332136154, 0.14354422688484192, 0.17270392179489136, 0.1742444783449173]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5763064622879028</v>
+        <v>0.6232212781906128</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.8935180999978911</v>
+        <v>0.8967105000047013</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005691198089158542</v>
+        <v>0.005711531847163703</v>
       </c>
     </row>
     <row r="20">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.37762928009033203, 0.2599579393863678, 0.4850095808506012, 0.5129251480102539, 0.3935714066028595, 0.22226792573928833, 0.303172767162323, 0.3424972593784332, 0.3647066652774811, 0.4150397479534149, 0.389660507440567, 0.3774506449699402, 0.35575374960899353, 0.39718085527420044, 0.47366082668304443, 0.3760775625705719, 0.33385124802589417, 0.313522607088089, 0.35902199149131775, 0.27592146396636963, 0.34873074293136597, 0.534432053565979, 0.551980197429657, 0.44238001108169556, 0.4176596701145172, 0.36926591396331787, 0.44913798570632935, 0.24879832565784454, 0.25030073523521423, 0.3918581008911133, 0.5198954939842224, 0.5162338018417358, 0.5050671696662903, 0.4240906834602356, 0.3725144863128662, 0.32574212551116943, 0.3295876979827881, 0.40024325251579285, 0.41174718737602234, 0.3759823143482208, 0.4629773497581482, 0.4096522629261017, 0.3714408278465271, 0.3105655610561371, 0.35107550024986267, 0.30111950635910034, 0.33638882637023926, 0.37406691908836365, 0.4524075984954834, 0.44397661089897156, 0.442105770111084, 0.35858651995658875, 0.30289125442504883, 0.2767336964607239, 0.30239617824554443, 0.3040052652359009, 0.3379945755004883, 0.4488408863544464, 0.460191935300827, 0.5416787266731262, 0.6104666590690613, 0.6262462139129639, 0.49831926822662354, 0.38056814670562744, 0.42677178978919983, 0.43767738342285156, 0.6967067122459412, 0.6932093501091003, 0.5811111330986023, 0.574422299861908, 0.5509686470031738, 0.4866744875907898, 0.4336805045604706, 0.504224956035614, 0.49224337935447693, 0.6321319937705994, 0.6648455858230591, 0.5540469884872437, 0.5331555604934692, 0.5362281203269958, 0.5819534063339233, 0.4616701006889343, 0.39866992831230164, 0.4864245355129242, 0.3959496021270752, 0.40088313817977905, 0.4608141779899597, 0.538857638835907, 0.54543137550354, 0.5792363882064819, 0.5166254639625549, 0.6407900452613831, 0.7055390477180481, 0.5118932723999023, 0.4851154386997223, 0.3366539776325226, 0.49506568908691406, 0.4244944155216217, 0.6093754172325134, 0.6931596994400024, 0.7085959315299988, 0.6834151744842529, 0.5610591173171997, 0.34492287039756775, 0.26812082529067993, 0.2518034279346466, 0.26565301418304443, 0.3489888310432434, 0.45521286129951477, 0.38107720017433167, 0.3519773781299591, 0.23135755956172943, 0.25558149814605713, 0.17228929698467255, 0.2830214202404022, 0.21416573226451874, 0.2276240587234497, 0.4489840269088745, 0.5234366059303284, 0.5754446387290955, 0.3495141863822937, 0.3844567537307739, 0.3340454399585724, 0.5460016131401062, 0.5815773606300354, 0.5847606062889099, 0.5151025056838989, 0.4477826654911041, 0.36091348528862, 0.4451778829097748, 0.6134644150733948, 0.559480607509613, 0.570958137512207, 0.6167264580726624, 0.647843599319458, 0.7397647500038147, 0.7383114695549011, 0.7364935874938965, 0.5965622067451477, 0.5846253633499146, 0.5979720950126648, 0.7064876556396484, 0.6620312929153442, 0.6607677340507507, 0.45150503516197205, 0.4151114225387573, 0.3727997839450836, 0.514321506023407, 0.48673346638679504, 0.6026929020881653, 0.6313399076461792, 0.5676841735839844, 0.46288299560546875, 0.3717423975467682, 0.2998798191547394, 0.2816087305545807, 0.27947142720222473]</t>
+          <t>[0.3268742859363556, 0.24463769793510437, 0.4741058647632599, 0.4267399311065674, 0.2981066405773163, 0.16499711573123932, 0.2585161626338959, 0.3018784821033478, 0.3118865191936493, 0.33469852805137634, 0.29480382800102234, 0.3108504116535187, 0.3211643099784851, 0.3214208781719208, 0.4157937169075012, 0.30404388904571533, 0.28675228357315063, 0.27136585116386414, 0.2809748947620392, 0.18642018735408783, 0.25106939673423767, 0.4818877875804901, 0.5001631379127502, 0.3658055067062378, 0.3630974292755127, 0.35413119196891785, 0.4040062427520752, 0.18427570164203644, 0.18957263231277466, 0.30306288599967957, 0.45732590556144714, 0.44673097133636475, 0.4364791512489319, 0.3601545989513397, 0.3102162778377533, 0.25786322355270386, 0.23460014164447784, 0.3023121654987335, 0.3400164544582367, 0.30144527554512024, 0.38860493898391724, 0.34186074137687683, 0.32134729623794556, 0.26782944798469543, 0.32294321060180664, 0.24990332126617432, 0.2919917702674866, 0.32994675636291504, 0.3651476502418518, 0.35109949111938477, 0.35170915722846985, 0.26387181878089905, 0.2257247269153595, 0.2138526886701584, 0.26731279492378235, 0.30381345748901367, 0.34790152311325073, 0.4037187695503235, 0.42795005440711975, 0.49399372935295105, 0.5803734660148621, 0.5890946984291077, 0.46993064880371094, 0.34760767221450806, 0.36479440331459045, 0.36130741238594055, 0.7166986465454102, 0.7375370860099792, 0.5666775107383728, 0.46385645866394043, 0.43737003207206726, 0.39051729440689087, 0.38832056522369385, 0.49549680948257446, 0.4541425406932831, 0.6430581212043762, 0.6562706828117371, 0.5209060907363892, 0.5507164001464844, 0.5662556886672974, 0.6336238980293274, 0.5267883539199829, 0.4668186902999878, 0.5752843618392944, 0.38485878705978394, 0.3671128749847412, 0.4503696858882904, 0.5904284715652466, 0.5935049653053284, 0.62163245677948, 0.5860925316810608, 0.6989771127700806, 0.7605636119842529, 0.4746713638305664, 0.46922528743743896, 0.2907301187515259, 0.4379158318042755, 0.39569830894470215, 0.6483797430992126, 0.7502101063728333, 0.7516895532608032, 0.7499215602874756, 0.6257912516593933, 0.3495026230812073, 0.23460684716701508, 0.20424549281597137, 0.26041701436042786, 0.376018762588501, 0.48074567317962646, 0.3804837167263031, 0.357773095369339, 0.22693102061748505, 0.2254805713891983, 0.14144952595233917, 0.2691534459590912, 0.2118336707353592, 0.23328940570354462, 0.4402172565460205, 0.5289427042007446, 0.5447713136672974, 0.2949126958847046, 0.3802904784679413, 0.3225628733634949, 0.5911559462547302, 0.6581081748008728, 0.7007107734680176, 0.5402527451515198, 0.4995940923690796, 0.3756965696811676, 0.5170754194259644, 0.6557341814041138, 0.5528801083564758, 0.5691763162612915, 0.6298620104789734, 0.6611371636390686, 0.763965904712677, 0.7391956448554993, 0.7553791403770447, 0.5317421555519104, 0.5558522343635559, 0.5818088054656982, 0.6935181617736816, 0.7015869617462158, 0.6970688104629517, 0.5581141114234924, 0.4695834219455719, 0.40467461943626404, 0.498276025056839, 0.4756912589073181, 0.6366820335388184, 0.6716037392616272, 0.6245402097702026, 0.4926547706127167, 0.29725518822669983, 0.2399674504995346, 0.24413654208183289, 0.24168965220451355]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7397647500038147</v>
+        <v>0.763965904712677</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.8959587999852374</v>
+        <v>0.8991582000016933</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005706743948950556</v>
+        <v>0.005727122293004416</v>
       </c>
     </row>
     <row r="21">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.11412426829338074, 0.1388716846704483, 0.17815947532653809, 0.17026454210281372, 0.1895778328180313, 0.27281659841537476, 0.19277788698673248, 0.10626871883869171, 0.10768870264291763, 0.12730878591537476, 0.11699742078781128, 0.07608697563409805, 0.05353322625160217, 0.0795179083943367, 0.10821085423231125, 0.092110775411129, 0.09419086575508118, 0.09425458312034607, 0.09836646169424057, 0.11327775567770004, 0.11476802825927734, 0.1322299689054489, 0.11719824373722076, 0.08872624486684799, 0.10949113965034485, 0.1228557601571083, 0.06023917347192764, 0.04459867253899574, 0.046356476843357086, 0.0465925931930542, 0.03692842274904251, 0.04545345529913902, 0.0524354912340641, 0.04568099603056908, 0.035425569862127304, 0.06397905200719833, 0.07675061374902725, 0.08650064468383789, 0.1612003594636917, 0.12979884445667267, 0.14917153120040894, 0.13828718662261963, 0.08136886358261108, 0.0701499655842781, 0.07632385194301605, 0.0857621282339096, 0.09957041591405869, 0.31464800238609314, 0.2650373876094818, 0.12977808713912964, 0.14053204655647278, 0.08440656960010529, 0.087456613779068, 0.07671160995960236, 0.06523269414901733, 0.09995042532682419, 0.16439756751060486, 0.13026084005832672, 0.10315687954425812, 0.18569763004779816, 0.14007550477981567, 0.22970111668109894, 0.2496194988489151, 0.27152392268180847, 0.13561774790287018, 0.10006991773843765, 0.06868433952331543, 0.10193111002445221, 0.1112380102276802, 0.10503039509057999, 0.09406685829162598, 0.1504339575767517, 0.1705615073442459, 0.19126182794570923, 0.35346347093582153, 0.3936634361743927, 0.557669997215271, 0.24338947236537933, 0.1670532375574112, 0.16287650167942047, 0.28272488713264465, 0.283937931060791, 0.20994524657726288, 0.23532162606716156, 0.21806304156780243, 0.24896538257598877, 0.19816811382770538, 0.22356078028678894, 0.2974855601787567, 0.22567053139209747, 0.1991429477930069, 0.1940612941980362, 0.17067869007587433, 0.1436421424150467, 0.19718462228775024, 0.14731089770793915, 0.1834382861852646, 0.1821221262216568, 0.1348576843738556, 0.12555639445781708, 0.10290738940238953, 0.061931852251291275, 0.07670286297798157, 0.1067366823554039, 0.10871738195419312, 0.07817590236663818, 0.0690167248249054, 0.05721745640039444, 0.051770538091659546, 0.12006889283657074, 0.104572594165802, 0.08812841027975082, 0.08783344179391861, 0.06786283105611801, 0.0594777911901474, 0.04917012155056, 0.13322827219963074, 0.07535113394260406, 0.09547921270132065, 0.09252549707889557, 0.0789354220032692, 0.07581755518913269, 0.05530445650219917, 0.0872538834810257, 0.12283936142921448, 0.1559298187494278, 0.13514749705791473, 0.18399940431118011, 0.0926075130701065, 0.07711900025606155, 0.06323490291833878, 0.08865272253751755, 0.11790423095226288, 0.1391548067331314, 0.1265401840209961, 0.09709712117910385, 0.10041631013154984, 0.12316775321960449, 0.19460298120975494, 0.2180986851453781, 0.15901584923267365, 0.10108005255460739, 0.11837773770093918, 0.16535452008247375, 0.1162189319729805, 0.11818265169858932, 0.09562867134809494, 0.06363528221845627, 0.09290167689323425, 0.1351640224456787, 0.13678382337093353, 0.13801424205303192, 0.10251490026712418, 0.10677830129861832, 0.11961280554533005, 0.18879391252994537, 0.1896202564239502]</t>
+          <t>[0.053398497402668, 0.06428137421607971, 0.09550626575946808, 0.0939306765794754, 0.09621252864599228, 0.17556942999362946, 0.11587930470705032, 0.053627144545316696, 0.05882208049297333, 0.09265667200088501, 0.0796300396323204, 0.0341629721224308, 0.019819358363747597, 0.030475009232759476, 0.06635206937789917, 0.053019024431705475, 0.054113779217004776, 0.040275938808918, 0.037445317953825, 0.051243215799331665, 0.04404300078749657, 0.06932992488145828, 0.05773407220840454, 0.04295537620782852, 0.05541876330971718, 0.06588110327720642, 0.024870658293366432, 0.017850853502750397, 0.01889071799814701, 0.015512623824179173, 0.011512250639498234, 0.014145436696708202, 0.02199195884168148, 0.018978968262672424, 0.014849867671728134, 0.023469148203730583, 0.02747986651957035, 0.029502082616090775, 0.05509468540549278, 0.043377555906772614, 0.06464102119207382, 0.060888033360242844, 0.03240874037146568, 0.030086487531661987, 0.03356741741299629, 0.034124571830034256, 0.04445691034197807, 0.24002455174922943, 0.1584606170654297, 0.06539914757013321, 0.07484608143568039, 0.03799108788371086, 0.04190754145383835, 0.03353099152445793, 0.02656780183315277, 0.0437605045735836, 0.08745207637548447, 0.07298532128334045, 0.053985290229320526, 0.09346906840801239, 0.07655072212219238, 0.1677219271659851, 0.22235411405563354, 0.27062535285949707, 0.1174786239862442, 0.0610198937356472, 0.03715960308909416, 0.05802202597260475, 0.05642304569482803, 0.05064607784152031, 0.051381174474954605, 0.09730363637208939, 0.1213192492723465, 0.15389196574687958, 0.3431282341480255, 0.37768128514289856, 0.5551590323448181, 0.16075916588306427, 0.09766307473182678, 0.09143023192882538, 0.20638126134872437, 0.20001451671123505, 0.13795188069343567, 0.16294461488723755, 0.15901412069797516, 0.17485444247722626, 0.12324722111225128, 0.12904635071754456, 0.2267540842294693, 0.12740780413150787, 0.12603341042995453, 0.11413157731294632, 0.08398105204105377, 0.062414586544036865, 0.0969177633523941, 0.07822132110595703, 0.11564704775810242, 0.11510509997606277, 0.07875097543001175, 0.06690718233585358, 0.05346563085913658, 0.02605133131146431, 0.032626740634441376, 0.05068996921181679, 0.0542924702167511, 0.03612547367811203, 0.03205160051584244, 0.02208981104195118, 0.016986805945634842, 0.0469384528696537, 0.04248660057783127, 0.03768328204751015, 0.03083346225321293, 0.025821411982178688, 0.02237635664641857, 0.01856182888150215, 0.06170940399169922, 0.03250186890363693, 0.049495525658130646, 0.04927903041243553, 0.03874329850077629, 0.0324024073779583, 0.020038651302456856, 0.04150144010782242, 0.06347938627004623, 0.08070829510688782, 0.06804585456848145, 0.08703388273715973, 0.03866679221391678, 0.030512912198901176, 0.023074449971318245, 0.03580033406615257, 0.06322335451841354, 0.07515475898981094, 0.06527506560087204, 0.045983076095581055, 0.049629244953393936, 0.07450485974550247, 0.1333901733160019, 0.1296076774597168, 0.07186520099639893, 0.0402509979903698, 0.047810204327106476, 0.08639506995677948, 0.05818881466984749, 0.0597061812877655, 0.043413035571575165, 0.022514289245009422, 0.033549726009368896, 0.07779251039028168, 0.08737622946500778, 0.08370671421289444, 0.0565672442317009, 0.06714655458927155, 0.07024845480918884, 0.13669724762439728, 0.13754577934741974]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.557669997215271</v>
+        <v>0.5551590323448181</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.9090040999872144</v>
+        <v>0.8934494999994058</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005789835031765697</v>
+        <v>0.00569076114649303</v>
       </c>
     </row>
     <row r="22">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0.8612956404685974, 0.7652392983436584, 0.7789933085441589, 0.8058459162712097, 0.9045922756195068, 0.7916690111160278, 0.8833380937576294, 0.9054076075553894, 0.8664370775222778, 0.8798267841339111, 0.8642349243164062, 0.8516526222229004, 0.9074804782867432, 0.9659451842308044, 0.9560258984565735, 0.943794846534729, 0.9258196353912354, 0.9091712832450867, 0.9066627621650696, 0.9071466326713562, 0.9058398604393005, 0.9360034465789795, 0.970722496509552, 0.9272872805595398, 0.9510522484779358, 0.9377533793449402, 0.8699201941490173, 0.8434098958969116, 0.9385842680931091, 0.9492114782333374, 0.9755561351776123, 0.9598771333694458, 0.9452093243598938, 0.9405843615531921, 0.9323527812957764, 0.9363720417022705, 0.9695385098457336, 0.9654194712638855, 0.8951997756958008, 0.9112963676452637, 0.9524701237678528, 0.9149200320243835, 0.8971142768859863, 0.9042479395866394, 0.8739906549453735, 0.9191360473632812, 0.9601259827613831, 0.93910813331604, 0.9101666212081909, 0.8019536137580872, 0.8306462168693542, 0.8643701672554016, 0.8723183870315552, 0.855056881904602, 0.873997688293457, 0.9329965114593506, 0.9365088939666748, 0.9305980205535889, 0.9650450944900513, 0.9509453773498535, 0.9577211737632751, 0.9560523629188538, 0.9619130492210388, 0.9711606502532959, 0.9714424014091492, 0.9437649846076965, 0.9339158535003662, 0.8824442028999329, 0.8472347855567932, 0.8919869065284729, 0.9439011216163635, 0.9439869523048401, 0.9386643767356873, 0.9356999397277832, 0.9324327707290649, 0.8987749218940735, 0.9379605650901794, 0.9533360600471497, 0.9622725248336792, 0.8926681876182556, 0.8038080334663391, 0.8682470321655273, 0.9063409566879272, 0.8055669665336609, 0.7459514141082764, 0.8376709818840027, 0.9025984406471252, 0.9588736295700073, 0.9677957892417908, 0.941882312297821, 0.9557844996452332, 0.9651655554771423, 0.9208383560180664, 0.8898099660873413, 0.9357650876045227, 0.8826716542243958, 0.9146196842193604, 0.920744776725769, 0.8273113965988159, 0.8480536937713623, 0.8865123391151428, 0.8940257430076599, 0.8877386450767517, 0.9119799733161926, 0.8930829763412476, 0.8981565833091736, 0.8051071166992188, 0.758586585521698, 0.7922032475471497, 0.88262939453125, 0.8071344494819641, 0.8616909384727478, 0.8591024279594421, 0.766802191734314, 0.8298591375350952, 0.751946747303009, 0.8232939839363098, 0.8550516366958618, 0.814152717590332, 0.6729247570037842, 0.7517241835594177, 0.8866735100746155, 0.9269590973854065, 0.9457376599311829, 0.9103448987007141, 0.8773735761642456, 0.9126607179641724, 0.9425238370895386, 0.9445117115974426, 0.9208555221557617, 0.9307980537414551, 0.860273003578186, 0.8403131365776062, 0.9028918147087097, 0.9231312274932861, 0.9353832006454468, 0.8637526035308838, 0.8587012887001038, 0.9249075651168823, 0.783154308795929, 0.6203493475914001, 0.7075462937355042, 0.899635910987854, 0.9072679877281189, 0.9013006687164307, 0.8025607466697693, 0.6471904516220093, 0.6527148485183716, 0.572651743888855, 0.6280344724655151, 0.7365267276763916, 0.771228551864624, 0.744745135307312, 0.7456784248352051, 0.6819115281105042, 0.7469772100448608, 0.7477403283119202]</t>
+          <t>[0.9078381657600403, 0.8611706495285034, 0.8777867555618286, 0.903441309928894, 0.9609759449958801, 0.9012885689735413, 0.9537310004234314, 0.9587000012397766, 0.9267134070396423, 0.9403297901153564, 0.9454782009124756, 0.9464613199234009, 0.9568571448326111, 0.987468957901001, 0.9855372309684753, 0.9813485741615295, 0.9735825061798096, 0.9606088399887085, 0.9656221866607666, 0.9571397304534912, 0.9483210444450378, 0.9703538417816162, 0.9884029030799866, 0.9599959850311279, 0.9759436845779419, 0.9714797139167786, 0.9350964426994324, 0.929412305355072, 0.9761103987693787, 0.9789760708808899, 0.9921889305114746, 0.9852858185768127, 0.981592059135437, 0.9780008792877197, 0.9707702398300171, 0.9740412831306458, 0.9885536432266235, 0.9915235042572021, 0.9601935744285583, 0.9657788276672363, 0.9765738248825073, 0.9521578550338745, 0.9536118507385254, 0.9699764847755432, 0.9522029161453247, 0.9759869575500488, 0.9888131022453308, 0.9733461737632751, 0.9578869938850403, 0.908805787563324, 0.9196196794509888, 0.9391290545463562, 0.939666748046875, 0.9281993508338928, 0.9400278329849243, 0.9783341884613037, 0.9766179323196411, 0.9740718007087708, 0.9859532117843628, 0.9831803441047668, 0.9851387143135071, 0.9839264750480652, 0.9859615564346313, 0.9889783263206482, 0.9865458011627197, 0.9753842353820801, 0.9714165925979614, 0.9376525282859802, 0.9009434580802917, 0.9392366409301758, 0.9819591641426086, 0.9858513474464417, 0.9815795421600342, 0.9728659987449646, 0.9737499952316284, 0.957112193107605, 0.9764819741249084, 0.9819991588592529, 0.9859069585800171, 0.9513182044029236, 0.892437219619751, 0.9366189241409302, 0.9434094429016113, 0.8705065250396729, 0.8192093372344971, 0.921734631061554, 0.9628198146820068, 0.9874302744865417, 0.988089382648468, 0.9755313992500305, 0.9826521873474121, 0.9875200986862183, 0.9647989869117737, 0.9590520858764648, 0.9830522537231445, 0.9680224657058716, 0.9756313562393188, 0.970191240310669, 0.921524167060852, 0.9338778257369995, 0.9647409915924072, 0.9708943963050842, 0.9669936299324036, 0.9677650928497314, 0.9525154232978821, 0.9571962952613831, 0.9298813939094543, 0.9202911853790283, 0.9455210566520691, 0.9647205471992493, 0.9406868815422058, 0.9597430229187012, 0.9648316502571106, 0.908203125, 0.9398739337921143, 0.9019585847854614, 0.9557167887687683, 0.9653344750404358, 0.944530725479126, 0.8923994302749634, 0.9113208055496216, 0.971290647983551, 0.9829192161560059, 0.98799067735672, 0.9593101739883423, 0.9450657963752747, 0.9680261611938477, 0.9850125312805176, 0.9844992756843567, 0.9784882068634033, 0.9773681163787842, 0.9491474628448486, 0.9459653496742249, 0.9597629904747009, 0.971441388130188, 0.982394278049469, 0.9587650895118713, 0.9590083360671997, 0.9795798063278198, 0.9330558776855469, 0.8461205363273621, 0.9001486897468567, 0.9709789156913757, 0.9742894768714905, 0.9746847748756409, 0.9423201084136963, 0.8697750568389893, 0.8472296595573425, 0.7726983428001404, 0.8318704962730408, 0.8970999121665955, 0.8972357511520386, 0.8774473071098328, 0.8963404297828674, 0.8695594668388367, 0.9123799204826355, 0.912723183631897]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9755561351776123</v>
+        <v>0.9921889305114746</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.8891811000066809</v>
+        <v>0.8967723000096157</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005663573885392873</v>
+        <v>0.005711925477768253</v>
       </c>
     </row>
     <row r="23">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.4130710959434509, 0.3764837086200714, 0.5591275095939636, 0.5044602155685425, 0.5498714447021484, 0.3019539713859558, 0.19016094505786896, 0.318544864654541, 0.3009750247001648, 0.27788352966308594, 0.36781707406044006, 0.4694618880748749, 0.5332506895065308, 0.3884403705596924, 0.32229843735694885, 0.21535725891590118, 0.21803449094295502, 0.16549180448055267, 0.11678340286016464, 0.14713098108768463, 0.27624738216400146, 0.3685416281223297, 0.3828393518924713, 0.2745092809200287, 0.22913695871829987, 0.28582218289375305, 0.31185388565063477, 0.33786046504974365, 0.36175745725631714, 0.33681198954582214, 0.35787102580070496, 0.23729196190834045, 0.1477242112159729, 0.19754773378372192, 0.2521817684173584, 0.5052313804626465, 0.5320287942886353, 0.4638700485229492, 0.45115986466407776, 0.5218538045883179, 0.5064769387245178, 0.5696498155593872, 0.6017873287200928, 0.5885568857192993, 0.6815750598907471, 0.656504213809967, 0.7469915747642517, 0.6833651661872864, 0.58409583568573, 0.49107179045677185, 0.4718966782093048, 0.30626457929611206, 0.24474893510341644, 0.21282647550106049, 0.16681961715221405, 0.18687258660793304, 0.48888278007507324, 0.5535969734191895, 0.38746023178100586, 0.4369870126247406, 0.49245625734329224, 0.4943470358848572, 0.3668888509273529, 0.24524538218975067, 0.29232484102249146, 0.5197001099586487, 0.5631900429725647, 0.47634434700012207, 0.262766569852829, 0.33176401257514954, 0.3893970847129822, 0.5160094499588013, 0.6117140054702759, 0.5320932269096375, 0.4855726361274719, 0.41715946793556213, 0.23052214086055756, 0.2817927300930023, 0.35304591059684753, 0.36087796092033386, 0.3339749276638031, 0.31383323669433594, 0.2956724762916565, 0.4181356132030487, 0.4562753736972809, 0.37670665979385376, 0.3960258364677429, 0.4137687683105469, 0.46618443727493286, 0.6061907410621643, 0.5528509616851807, 0.41842275857925415, 0.27370092272758484, 0.18636161088943481, 0.22063738107681274, 0.3018260896205902, 0.35661667585372925, 0.3934119939804077, 0.480294793844223, 0.4135681986808777, 0.4255436956882477, 0.7474054098129272, 0.7455915212631226, 0.5475258231163025, 0.5737527012825012, 0.5267094969749451, 0.47882339358329773, 0.5302191376686096, 0.47383350133895874, 0.40340209007263184, 0.5561962723731995, 0.6422541737556458, 0.6828426122665405, 0.7621656060218811, 0.7248377203941345, 0.6750181913375854, 0.6437784433364868, 0.5985968112945557, 0.6111879348754883, 0.4998869001865387, 0.5833277702331543, 0.6777511239051819, 0.6067277193069458, 0.5570352673530579, 0.5211732983589172, 0.4885333478450775, 0.4950937330722809, 0.5904579758644104, 0.6458558440208435, 0.6077239513397217, 0.4360259473323822, 0.4345964193344116, 0.23319444060325623, 0.2562149465084076, 0.17632338404655457, 0.23765897750854492, 0.24231675267219543, 0.46822309494018555, 0.6172779202461243, 0.565037727355957, 0.5863931179046631, 0.5369375944137573, 0.48265454173088074, 0.7590739727020264, 0.75874924659729, 0.7511740326881409, 0.5507127642631531, 0.5118058919906616, 0.4930151402950287, 0.5143694877624512, 0.5977674722671509, 0.5711491703987122, 0.6154293417930603, 0.5894442796707153, 0.6061830520629883, 0.7684555053710938, 0.7682235836982727]</t>
+          <t>[0.5009898543357849, 0.5041752457618713, 0.6582865118980408, 0.6213645339012146, 0.6459840536117554, 0.4010155200958252, 0.22385986149311066, 0.4375, 0.4012497365474701, 0.350691556930542, 0.42968666553497314, 0.6307355761528015, 0.654586672782898, 0.5171070694923401, 0.43188393115997314, 0.2931101322174072, 0.29363542795181274, 0.19224588572978973, 0.12640313804149628, 0.1624458283185959, 0.33462947607040405, 0.3929647207260132, 0.49093884229660034, 0.2789304852485657, 0.23927238583564758, 0.3543091118335724, 0.4357871413230896, 0.4477561116218567, 0.4490868151187897, 0.4329102337360382, 0.45045357942581177, 0.3056149482727051, 0.18914619088172913, 0.24791055917739868, 0.3258291780948639, 0.5744310617446899, 0.6184070110321045, 0.5818530321121216, 0.5965328216552734, 0.685327410697937, 0.6456531286239624, 0.707857608795166, 0.7359814643859863, 0.6908093094825745, 0.7570046782493591, 0.7385312914848328, 0.810380756855011, 0.7583434581756592, 0.653706431388855, 0.5307189226150513, 0.5687474608421326, 0.3865772485733032, 0.33161628246307373, 0.24591732025146484, 0.18085451424121857, 0.2096545547246933, 0.6477247476577759, 0.7214042544364929, 0.49873143434524536, 0.6136860847473145, 0.7073023915290833, 0.7360312342643738, 0.47574153542518616, 0.2758156359195709, 0.3467683792114258, 0.6708024740219116, 0.7526496052742004, 0.6584689021110535, 0.3566771149635315, 0.4791290760040283, 0.5303484201431274, 0.6693910360336304, 0.7596810460090637, 0.7037670016288757, 0.6483049988746643, 0.5996454358100891, 0.3245982825756073, 0.3362828195095062, 0.4463481307029724, 0.4899265766143799, 0.44074735045433044, 0.39459845423698425, 0.39334145188331604, 0.518410325050354, 0.5847108960151672, 0.49965909123420715, 0.5153582096099854, 0.5254831910133362, 0.5328115224838257, 0.7171568870544434, 0.6381821036338806, 0.4871889352798462, 0.3815133571624756, 0.2668134570121765, 0.309268981218338, 0.4427259564399719, 0.5503554940223694, 0.6160757541656494, 0.6052361726760864, 0.5141345262527466, 0.4762480854988098, 0.8545679450035095, 0.8611273169517517, 0.6952479481697083, 0.6823968887329102, 0.6229424476623535, 0.5562363862991333, 0.6725690364837646, 0.6058754920959473, 0.5267152786254883, 0.6669837832450867, 0.7273611426353455, 0.7796880602836609, 0.8561925292015076, 0.8380641341209412, 0.8034607172012329, 0.779723048210144, 0.7443516850471497, 0.7644933462142944, 0.6328095197677612, 0.719463050365448, 0.8042611479759216, 0.7743734121322632, 0.7121232748031616, 0.6562320590019226, 0.5496571063995361, 0.5609415769577026, 0.7116205096244812, 0.7507205605506897, 0.7420452833175659, 0.6128139495849609, 0.4983382225036621, 0.2462688684463501, 0.24424217641353607, 0.1739768385887146, 0.24706891179084778, 0.2585250735282898, 0.4995829164981842, 0.6395808458328247, 0.6248173117637634, 0.615330159664154, 0.6144041419029236, 0.5918769240379333, 0.8438741564750671, 0.8721994757652283, 0.8506483435630798, 0.659045934677124, 0.6414436101913452, 0.628638505935669, 0.5632758140563965, 0.6501131057739258, 0.6494600176811218, 0.7382038235664368, 0.7491737604141235, 0.7275925874710083, 0.8593138456344604, 0.8592941164970398]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7684555053710938</v>
+        <v>0.8721994757652283</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.9737580000073649</v>
+        <v>0.9973347000050126</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006202280254823981</v>
+        <v>0.006352450318503264</v>
       </c>
     </row>
     <row r="24">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.37059134244918823, 0.36149123311042786, 0.23044054210186005, 0.198293536901474, 0.301220178604126, 0.6039486527442932, 0.710054874420166, 0.7834905982017517, 0.6248512268066406, 0.535367488861084, 0.4359930157661438, 0.39562681317329407, 0.3967020809650421, 0.39223673939704895, 0.48184821009635925, 0.2623658776283264, 0.36836695671081543, 0.5748172402381897, 0.5181097388267517, 0.6146899461746216, 0.7584261298179626, 0.6454888582229614, 0.4904787242412567, 0.43245112895965576, 0.28706204891204834, 0.191414013504982, 0.19541773200035095, 0.14911779761314392, 0.09528199583292007, 0.38110876083374023, 0.6819604635238647, 0.7340375781059265, 0.24220460653305054, 0.26419395208358765, 0.45836976170539856, 0.7379323244094849, 0.440536767244339, 0.39208152890205383, 0.17396986484527588, 0.20959419012069702, 0.3691660761833191, 0.535101056098938, 0.43902984261512756, 0.4011787176132202, 0.4931642413139343, 0.3820681869983673, 0.2586853802204132, 0.285412073135376, 0.40693342685699463, 0.27673646807670593, 0.12414930015802383, 0.11928264051675797, 0.18767166137695312, 0.35396915674209595, 0.34253770112991333, 0.49860358238220215, 0.5394408702850342, 0.2566058933734894, 0.4552185833454132, 0.2326849400997162, 0.14398613572120667, 0.08168521523475647, 0.24563060700893402, 0.22678937017917633, 0.3619038164615631, 0.4130498170852661, 0.24618831276893616, 0.18094588816165924, 0.3411976993083954, 0.396464079618454, 0.5553890466690063, 0.6489738821983337, 0.4328406751155853, 0.36109787225723267, 0.26421356201171875, 0.219289630651474, 0.16338320076465607, 0.3636111915111542, 0.4612846076488495, 0.46904537081718445, 0.3943807780742645, 0.375167578458786, 0.4150981605052948, 0.4081862270832062, 0.29903456568717957, 0.4007194936275482, 0.6611387133598328, 0.4653500020503998, 0.36129429936408997, 0.4626433551311493, 0.2556734085083008, 0.2718217670917511, 0.3609704375267029, 0.5599822998046875, 0.5394866466522217, 0.44312334060668945, 0.5467135310173035, 0.5925899147987366, 0.596138060092926, 0.2513604164123535, 0.3048745095729828, 0.6808891296386719, 0.8488224744796753, 0.8942646980285645, 0.6147798895835876, 0.48987600207328796, 0.4079169034957886, 0.66279137134552, 0.5453445315361023, 0.49811673164367676, 0.3006352186203003, 0.14163494110107422, 0.16516122221946716, 0.06820561736822128, 0.0991288423538208, 0.08817215263843536, 0.3413240313529968, 0.5137384533882141, 0.3884972631931305, 0.5164210200309753, 0.5564296245574951, 0.48966994881629944, 0.4150456488132477, 0.484034925699234, 0.44175902009010315, 0.46442699432373047, 0.4610016942024231, 0.4512692987918854, 0.5404377579689026, 0.5592836141586304, 0.3817381262779236, 0.5172311663627625, 0.48785850405693054, 0.3374415636062622, 0.38487347960472107, 0.4242088794708252, 0.6489344239234924, 0.4950791001319885, 0.3482189476490021, 0.332701712846756, 0.5473806262016296, 0.3609575033187866, 0.39797231554985046, 0.30657851696014404, 0.2425222396850586, 0.25280481576919556, 0.29217246174812317, 0.3941754698753357, 0.4087022542953491, 0.3883529305458069, 0.37000760436058044, 0.3812074065208435, 0.6345977783203125, 0.49533388018608093, 0.7184518575668335, 0.7517995834350586, 0.7503435015678406]</t>
+          <t>[0.5771028995513916, 0.6014119386672974, 0.4345889687538147, 0.4129773676395416, 0.5763282775878906, 0.801898717880249, 0.8451680541038513, 0.9022840857505798, 0.7978538274765015, 0.7018480896949768, 0.5761215686798096, 0.49027666449546814, 0.4906865656375885, 0.4780750274658203, 0.6664061546325684, 0.46807432174682617, 0.5911977887153625, 0.7836277484893799, 0.7028031349182129, 0.8031840920448303, 0.8912222385406494, 0.8222712874412537, 0.746319591999054, 0.673564076423645, 0.4935230612754822, 0.3416522741317749, 0.37267035245895386, 0.2764376699924469, 0.15975604951381683, 0.6367179751396179, 0.8814604878425598, 0.9153984785079956, 0.4102648198604584, 0.4849313199520111, 0.7499369978904724, 0.9185080528259277, 0.6908978223800659, 0.6754658222198486, 0.3892916142940521, 0.41265782713890076, 0.6396435499191284, 0.8101195693016052, 0.6996424198150635, 0.6541229486465454, 0.6911304593086243, 0.5478344559669495, 0.3821968734264374, 0.4541817605495453, 0.6728397607803345, 0.5389516353607178, 0.20878781378269196, 0.20523017644882202, 0.35594049096107483, 0.5933763384819031, 0.5141044855117798, 0.688057541847229, 0.8493127822875977, 0.5259034037590027, 0.7017392516136169, 0.40113645792007446, 0.27485382556915283, 0.14967575669288635, 0.3442988693714142, 0.37762755155563354, 0.4993160665035248, 0.6636967062950134, 0.4700821042060852, 0.35876256227493286, 0.5858486294746399, 0.6272194385528564, 0.72161865234375, 0.8111249208450317, 0.6609103679656982, 0.5947626829147339, 0.42813625931739807, 0.416644811630249, 0.28763049840927124, 0.601173460483551, 0.694068431854248, 0.7017584443092346, 0.6584620475769043, 0.6088492274284363, 0.664217472076416, 0.6744540929794312, 0.5636369585990906, 0.695530116558075, 0.8627961277961731, 0.8044198751449585, 0.6950345039367676, 0.6971724629402161, 0.4115945100784302, 0.43123528361320496, 0.5614230632781982, 0.7681710720062256, 0.7557289004325867, 0.6961420178413391, 0.7642764449119568, 0.7903706431388855, 0.8064040541648865, 0.46233052015304565, 0.48298385739326477, 0.8555888533592224, 0.936108410358429, 0.961030900478363, 0.8079502582550049, 0.7182178497314453, 0.6814323663711548, 0.8415703773498535, 0.7963851094245911, 0.7491766810417175, 0.5304006338119507, 0.33729732036590576, 0.37678462266921997, 0.1524711400270462, 0.2301337867975235, 0.17863009870052338, 0.5384579300880432, 0.7407413721084595, 0.5827105641365051, 0.7134218215942383, 0.7403083443641663, 0.7397394180297852, 0.6112279891967773, 0.6669046878814697, 0.6702796220779419, 0.6069054007530212, 0.6060945391654968, 0.6062936186790466, 0.7559001445770264, 0.7902365326881409, 0.636302649974823, 0.6841082572937012, 0.6733757853507996, 0.5948092341423035, 0.6490352749824524, 0.6435140371322632, 0.8199642300605774, 0.7160062789916992, 0.5891487002372742, 0.5358864665031433, 0.7178822755813599, 0.5235816240310669, 0.5624570250511169, 0.5048375725746155, 0.4548647701740265, 0.4661425054073334, 0.4011015295982361, 0.5584319233894348, 0.5711276531219482, 0.5243175625801086, 0.5240429639816284, 0.5058482885360718, 0.8246311545372009, 0.7337206602096558, 0.8692477941513062, 0.8966858983039856, 0.8962545394897461]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.8942646980285645</v>
+        <v>0.961030900478363</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.8799663000099827</v>
+        <v>0.8878824999992503</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005604880891783329</v>
+        <v>0.005655302547765926</v>
       </c>
     </row>
     <row r="25">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.45979195833206177, 0.6934825778007507, 0.6964807510375977, 0.7296474575996399, 0.7448350191116333, 0.8950341939926147, 0.837576150894165, 0.7816823720932007, 0.8239680528640747, 0.7256744503974915, 0.6337937712669373, 0.5532664656639099, 0.4887250065803528, 0.5929139852523804, 0.49697145819664, 0.6083762645721436, 0.5818561911582947, 0.6024336218833923, 0.5192412734031677, 0.55538409948349, 0.7967745065689087, 0.8141430616378784, 0.6627338528633118, 0.8968790769577026, 0.6252228021621704, 0.4972522258758545, 0.7090868353843689, 0.7216104865074158, 0.6626829504966736, 0.4101438522338867, 0.3374679386615753, 0.2942000925540924, 0.6974572539329529, 0.543944239616394, 0.43234285712242126, 0.21573927998542786, 0.19763679802417755, 0.24446338415145874, 0.15540671348571777, 0.17694340646266937, 0.08776543289422989, 0.08759354054927826, 0.08231361210346222, 0.06678557395935059, 0.16294114291667938, 0.17238456010818481, 0.25450071692466736, 0.08251435309648514, 0.12818896770477295, 0.10207587480545044, 0.09483472257852554, 0.11778610199689865, 0.12388052046298981, 0.16333143413066864, 0.1091635674238205, 0.10984551906585693, 0.21344797313213348, 0.30336934328079224, 0.42646610736846924, 0.39320409297943115, 0.35823848843574524, 0.3323817253112793, 0.35858577489852905, 0.33751171827316284, 0.4401208758354187, 0.387545108795166, 0.4178810715675354, 0.5023428797721863, 0.14713916182518005, 0.10077220946550369, 0.0983351543545723, 0.21604348719120026, 0.17266029119491577, 0.19932396709918976, 0.2648923993110657, 0.29493334889411926, 0.4393331706523895, 0.58051997423172, 0.3034178912639618, 0.2390398383140564, 0.1456417441368103, 0.08342892676591873, 0.1428985446691513, 0.45186084508895874, 0.28026852011680603, 0.3279091417789459, 0.35529863834381104, 0.2837199866771698, 0.21236222982406616, 0.18764972686767578, 0.22153526544570923, 0.2577046751976013, 0.1768852025270462, 0.11752297729253769, 0.107811339199543, 0.1329471319913864, 0.09764701873064041, 0.10612738877534866, 0.0813484936952591, 0.07884491235017776, 0.08617167919874191, 0.14341217279434204, 0.1634702980518341, 0.17423003911972046, 0.10261102020740509, 0.11811346560716629, 0.20234696567058563, 0.19934432208538055, 0.1758996546268463, 0.11225132644176483, 0.10024163126945496, 0.0663282573223114, 0.054058998823165894, 0.15197549760341644, 0.10081486403942108, 0.05376455560326576, 0.08336656540632248, 0.10334612429141998, 0.10650129616260529, 0.1879005879163742, 0.13687603175640106, 0.14163346588611603, 0.10204251855611801, 0.09613442420959473, 0.12539160251617432, 0.21254053711891174, 0.17707034945487976, 0.11110241711139679, 0.1608559638261795, 0.09894892573356628, 0.1288101077079773, 0.109486885368824, 0.177027627825737, 0.21240048110485077, 0.4224414527416229, 0.24631938338279724, 0.3112524747848511, 0.3503103256225586, 0.35656973719596863, 0.2848310172557831, 0.18986022472381592, 0.3474326431751251, 0.4074641466140747, 0.4281021058559418, 0.4450756311416626, 0.3430711030960083, 0.17285020649433136, 0.14468011260032654, 0.17569345235824585, 0.19367697834968567, 0.13843853771686554, 0.13237866759300232, 0.10787893086671829, 0.08446929603815079, 0.08047562837600708, 0.10740313678979874, 0.10869873315095901]</t>
+          <t>[0.8113885521888733, 0.9175330400466919, 0.9221981763839722, 0.9419877529144287, 0.9511672854423523, 0.9765955209732056, 0.9539273381233215, 0.9323059320449829, 0.9353592991828918, 0.8879036903381348, 0.8575059175491333, 0.7773029804229736, 0.7901864051818848, 0.8279511332511902, 0.766190767288208, 0.8517248034477234, 0.8292165398597717, 0.8819338083267212, 0.8451955318450928, 0.8735249638557434, 0.960189163684845, 0.9660050272941589, 0.9432192444801331, 0.9796677827835083, 0.9153624773025513, 0.864528238773346, 0.9410526156425476, 0.9336833357810974, 0.9234951734542847, 0.8109071850776672, 0.6601542830467224, 0.5954026579856873, 0.9165197014808655, 0.876072347164154, 0.8099607229232788, 0.444131463766098, 0.4172291159629822, 0.570124089717865, 0.42201611399650574, 0.4841204881668091, 0.22891958057880402, 0.2798483371734619, 0.22937320172786713, 0.18109536170959473, 0.5431616306304932, 0.5656779408454895, 0.5947040915489197, 0.21468093991279602, 0.3151845633983612, 0.27352192997932434, 0.2455161064863205, 0.3211204409599304, 0.3275536596775055, 0.4610862731933594, 0.26295116543769836, 0.293241024017334, 0.6025339365005493, 0.7271826863288879, 0.8255335688591003, 0.7667520642280579, 0.712324857711792, 0.705822765827179, 0.7350010275840759, 0.6515855193138123, 0.7392610311508179, 0.7367680072784424, 0.7784371376037598, 0.8078818917274475, 0.2604624927043915, 0.20215320587158203, 0.25775569677352905, 0.564418613910675, 0.47364550828933716, 0.5300217866897583, 0.6387798190116882, 0.7048954367637634, 0.8239480257034302, 0.8878623843193054, 0.6918014287948608, 0.6268869638442993, 0.34812358021736145, 0.20952875912189484, 0.40808549523353577, 0.8743378520011902, 0.7244832515716553, 0.7853169441223145, 0.702981173992157, 0.6222772002220154, 0.48847803473472595, 0.48660820722579956, 0.6049348711967468, 0.5749102830886841, 0.4763937294483185, 0.29904279112815857, 0.2505679428577423, 0.3241358995437622, 0.19980397820472717, 0.22639164328575134, 0.17268630862236023, 0.16739997267723083, 0.21817933022975922, 0.36636435985565186, 0.4297241270542145, 0.42121899127960205, 0.25712284445762634, 0.34435781836509705, 0.5568033456802368, 0.5470249652862549, 0.4674736559391022, 0.28077855706214905, 0.25728926062583923, 0.17914138734340668, 0.15669244527816772, 0.45844635367393494, 0.3464505672454834, 0.12380513548851013, 0.21923889219760895, 0.27513450384140015, 0.2792354226112366, 0.5742312669754028, 0.3811323642730713, 0.4288322925567627, 0.28347861766815186, 0.2382604330778122, 0.35769638419151306, 0.517929196357727, 0.4740443825721741, 0.2658205032348633, 0.42987024784088135, 0.25945860147476196, 0.3576950132846832, 0.24943852424621582, 0.4375690817832947, 0.5399764776229858, 0.8836390376091003, 0.73778235912323, 0.8032602071762085, 0.7898187637329102, 0.770739734172821, 0.7075474262237549, 0.6062919497489929, 0.774329662322998, 0.8558023571968079, 0.8730964064598083, 0.896591305732727, 0.8239808678627014, 0.511345624923706, 0.47089430689811707, 0.48599085211753845, 0.5633007884025574, 0.368906706571579, 0.32200032472610474, 0.3319629728794098, 0.24177151918411255, 0.2421448528766632, 0.3370230495929718, 0.34070882201194763]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8968790769577026</v>
+        <v>0.9796677827835083</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.908341999980621</v>
+        <v>0.8915370000031544</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005785617834271471</v>
+        <v>0.005678579617854487</v>
       </c>
     </row>
     <row r="26">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.4041292667388916, 0.43902504444122314, 0.29363369941711426, 0.17377497255802155, 0.1775103211402893, 0.17623025178909302, 0.28118985891342163, 0.3784487843513489, 0.2552089989185333, 0.27149465680122375, 0.15396654605865479, 0.25702235102653503, 0.11889432370662689, 0.11770126223564148, 0.13184966146945953, 0.2137306034564972, 0.18193532526493073, 0.3149915635585785, 0.4064534604549408, 0.4633132517337799, 0.2860933542251587, 0.3688797652721405, 0.15402920544147491, 0.08105345070362091, 0.24266040325164795, 0.3324095606803894, 0.5007818937301636, 0.1691804826259613, 0.39120277762413025, 0.42660483717918396, 0.5826642513275146, 0.1929151713848114, 0.5159658789634705, 0.272508442401886, 0.3817439079284668, 0.3124859035015106, 0.3554435968399048, 0.15720205008983612, 0.17250795662403107, 0.32711246609687805, 0.12858739495277405, 0.1366489827632904, 0.16959351301193237, 0.2096031755208969, 0.5025396347045898, 0.1670575737953186, 0.25608184933662415, 0.4421873688697815, 0.20504744350910187, 0.23961631953716278, 0.26503896713256836, 0.13187292218208313, 0.2191387116909027, 0.3881107568740845, 0.1196427270770073, 0.25584033131599426, 0.18689318001270294, 0.1926753669977188, 0.11454498767852783, 0.08591604977846146, 0.0814693421125412, 0.10082662850618362, 0.15655267238616943, 0.19591563940048218, 0.2111387997865677, 0.12545658648014069, 0.20482470095157623, 0.3012714982032776, 0.1851753294467926, 0.17961260676383972, 0.2807539403438568, 0.17266014218330383, 0.07402078062295914, 0.08949770778417587, 0.1520908772945404, 0.15484470129013062, 0.14952319860458374, 0.25265175104141235, 0.3451978862285614, 0.21363481879234314, 0.3377189040184021, 0.4058932363986969, 0.34759727120399475, 0.32324954867362976, 0.14827695488929749, 0.34811699390411377, 0.17175713181495667, 0.2176373451948166, 0.11299344897270203, 0.17978118360042572, 0.20897510647773743, 0.22266840934753418, 0.18373429775238037, 0.3702705204486847, 0.46365970373153687, 0.2717558741569519, 0.138889342546463, 0.13781405985355377, 0.137396439909935, 0.1557374745607376, 0.14986853301525116, 0.19830408692359924, 0.12772057950496674, 0.10920017957687378, 0.12101062387228012, 0.0887392908334732, 0.0719250813126564, 0.08450079709291458, 0.16677717864513397, 0.15400178730487823, 0.08513186126947403, 0.20706996321678162, 0.19010138511657715, 0.21080967783927917, 0.2750854194164276, 0.17687220871448517, 0.10608550906181335, 0.10607084631919861]</t>
+          <t>[0.6061466932296753, 0.6331106424331665, 0.4937572479248047, 0.3678393065929413, 0.3608356714248657, 0.4089263677597046, 0.5305212736129761, 0.6095762252807617, 0.38181033730506897, 0.47813528776168823, 0.2672494947910309, 0.364574670791626, 0.21859121322631836, 0.17654934525489807, 0.2237699180841446, 0.3737208843231201, 0.31726744771003723, 0.4948408901691437, 0.5663186311721802, 0.6514429450035095, 0.5755727291107178, 0.6814099550247192, 0.2781410217285156, 0.12512969970703125, 0.5051541328430176, 0.4760327935218811, 0.7431895136833191, 0.26669591665267944, 0.6130713224411011, 0.636272132396698, 0.8615208864212036, 0.33016449213027954, 0.7378479242324829, 0.41968631744384766, 0.48243412375450134, 0.47147685289382935, 0.5601311922073364, 0.29056692123413086, 0.25024014711380005, 0.48073944449424744, 0.20403829216957092, 0.19330239295959473, 0.2902029752731323, 0.33353590965270996, 0.772250771522522, 0.2666114270687103, 0.4729287624359131, 0.6842198967933655, 0.4112858176231384, 0.4744422137737274, 0.4488149881362915, 0.17884932458400726, 0.33983153104782104, 0.5507827997207642, 0.19331538677215576, 0.4086775779724121, 0.29763364791870117, 0.300863653421402, 0.1472402811050415, 0.09088138490915298, 0.08609174937009811, 0.1445847451686859, 0.2088814079761505, 0.26837196946144104, 0.32166069746017456, 0.2014608234167099, 0.3454737365245819, 0.3987199366092682, 0.2945345640182495, 0.2502959072589874, 0.41848716139793396, 0.22301547229290009, 0.09618816524744034, 0.1132655218243599, 0.27080821990966797, 0.23161116242408752, 0.27009910345077515, 0.45670822262763977, 0.6064750552177429, 0.3964335024356842, 0.560670793056488, 0.6137649416923523, 0.4833305776119232, 0.40399718284606934, 0.16593262553215027, 0.5687910914421082, 0.30998265743255615, 0.33371326327323914, 0.16841579973697662, 0.34410354495048523, 0.36462777853012085, 0.44329991936683655, 0.34709101915359497, 0.6496357917785645, 0.7118499875068665, 0.48402485251426697, 0.27705106139183044, 0.22848644852638245, 0.2015192210674286, 0.21532107889652252, 0.2353428602218628, 0.334481805562973, 0.22986163198947906, 0.20335178077220917, 0.2224230021238327, 0.1647392064332962, 0.13270686566829681, 0.11875377595424652, 0.3054142892360687, 0.27685874700546265, 0.16066813468933105, 0.4279015064239502, 0.3891977071762085, 0.3497014045715332, 0.4185912013053894, 0.3151529133319855, 0.21864239871501923, 0.21843592822551727]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5826642513275146</v>
+        <v>0.8615208864212036</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.6936829000187572</v>
+        <v>0.6995752999937395</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005878668644226756</v>
+        <v>0.00592860423723508</v>
       </c>
     </row>
     <row r="27">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.16622179746627808, 0.18292860686779022, 0.22071921825408936, 0.23499293625354767, 0.18956977128982544, 0.11560303717851639, 0.14915071427822113, 0.22000309824943542, 0.6119316816329956, 0.6533890962600708, 0.5093120336532593, 0.18399880826473236, 0.1676245629787445, 0.18383681774139404, 0.14577986299991608, 0.16964875161647797, 0.32412058115005493, 0.2790122330188751, 0.1930706948041916, 0.1940900981426239, 0.24416159093379974, 0.2019820362329483, 0.24448572099208832, 0.28954651951789856, 0.2549097537994385, 0.31781280040740967, 0.17405228316783905, 0.31031227111816406, 0.23584535717964172, 0.25301527976989746, 0.27848225831985474, 0.2396692931652069, 0.2025877833366394, 0.13944321870803833, 0.16960658133029938, 0.2246265709400177, 0.11704938858747482, 0.08635964244604111, 0.20343409478664398, 0.1899798959493637, 0.11576887220144272, 0.0962166115641594, 0.13120180368423462, 0.1843186765909195, 0.16148720681667328, 0.19699637591838837, 0.43318501114845276, 0.37785935401916504, 0.3201398253440857, 0.09552371501922607, 0.15679793059825897, 0.20962809026241302, 0.09008289128541946, 0.1060853973031044, 0.23833635449409485, 0.24142788350582123, 0.1469520926475525, 0.09887726604938507, 0.10162008553743362, 0.13230545818805695, 0.2006334513425827, 0.2516339123249054, 0.2374383956193924, 0.1782199889421463, 0.26546138525009155, 0.39345598220825195, 0.30066537857055664, 0.30631035566329956, 0.16092881560325623, 0.17482292652130127, 0.10066431015729904, 0.11045053601264954, 0.08086664229631424, 0.25048547983169556, 0.14846962690353394, 0.28463661670684814, 0.2838877737522125, 0.446260541677475, 0.18261879682540894, 0.2083718478679657, 0.16869570314884186, 0.22760885953903198, 0.2157420814037323, 0.19887715578079224, 0.30685296654701233, 0.42290395498275757, 0.3571033477783203, 0.30257418751716614, 0.25436124205589294, 0.2670470178127289, 0.23977316915988922, 0.10053004324436188, 0.06919807195663452, 0.12382874637842178, 0.2627497911453247, 0.1723627746105194, 0.16716036200523376, 0.2558273673057556, 0.18018676340579987, 0.14476746320724487, 0.08621621131896973, 0.15298819541931152, 0.26504233479499817, 0.13631203770637512, 0.08365795016288757, 0.15878890454769135, 0.2542334496974945, 0.13361288607120514, 0.17511799931526184, 0.19756194949150085, 0.17468565702438354, 0.1665593534708023, 0.1433735191822052, 0.07882271707057953, 0.07985229790210724, 0.05622680112719536, 0.10933970659971237, 0.11514110118150711]</t>
+          <t>[0.27363166213035583, 0.2936895489692688, 0.34458768367767334, 0.4436958134174347, 0.28526976704597473, 0.1783275604248047, 0.22053413093090057, 0.3927600383758545, 0.9322778582572937, 0.9131001234054565, 0.8279673457145691, 0.2663787603378296, 0.19515134394168854, 0.3066681921482086, 0.1873626410961151, 0.26873278617858887, 0.6207371950149536, 0.4933115243911743, 0.37438052892684937, 0.4668278396129608, 0.5073496103286743, 0.36908742785453796, 0.39180392026901245, 0.5213913321495056, 0.42316028475761414, 0.5600261092185974, 0.2889457046985626, 0.5467912554740906, 0.3814684748649597, 0.4273255169391632, 0.44133588671684265, 0.44426625967025757, 0.2917211651802063, 0.24368448555469513, 0.23910556733608246, 0.45962145924568176, 0.19861343502998352, 0.1511620730161667, 0.3489595055580139, 0.3282746970653534, 0.2489910125732422, 0.13951720297336578, 0.2208009660243988, 0.38029950857162476, 0.25067079067230225, 0.34520912170410156, 0.7016124129295349, 0.5600659847259521, 0.5001052618026733, 0.14682821929454803, 0.3353370428085327, 0.31419438123703003, 0.0919540524482727, 0.14430326223373413, 0.3752734363079071, 0.3130780756473541, 0.14919868111610413, 0.10434714704751968, 0.14746065437793732, 0.19734440743923187, 0.23071688413619995, 0.3977123200893402, 0.35553914308547974, 0.30149540305137634, 0.36902210116386414, 0.6515994668006897, 0.5519416332244873, 0.5730903744697571, 0.2567104399204254, 0.2819783389568329, 0.16287431120872498, 0.1614905297756195, 0.12340691685676575, 0.5194742679595947, 0.25598910450935364, 0.49060872197151184, 0.45607760548591614, 0.6055734157562256, 0.3058440089225769, 0.28318798542022705, 0.3129388391971588, 0.46213284134864807, 0.38707056641578674, 0.2750370502471924, 0.5584603548049927, 0.7029704451560974, 0.6132326722145081, 0.5416781902313232, 0.44666725397109985, 0.4160749316215515, 0.3831389844417572, 0.12431692332029343, 0.08195056021213531, 0.2588491141796112, 0.6032732725143433, 0.6003006100654602, 0.2787696123123169, 0.42306187748908997, 0.18730604648590088, 0.14044195413589478, 0.06265322864055634, 0.1793108433485031, 0.3990003764629364, 0.1746813952922821, 0.13813816010951996, 0.3159412443637848, 0.40292224287986755, 0.19629037380218506, 0.2242540419101715, 0.2733305096626282, 0.24309541285037994, 0.19347167015075684, 0.19333401322364807, 0.08973733335733414, 0.08485286682844162, 0.04995182529091835, 0.16518068313598633, 0.1822216659784317]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6533890962600708</v>
+        <v>0.9322778582572937</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.6789699000073597</v>
+        <v>0.6645084000047063</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005753982203452201</v>
+        <v>0.005631427118683952</v>
       </c>
     </row>
     <row r="28">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.17184369266033173, 0.21815411746501923, 0.25961872935295105, 0.22119975090026855, 0.2080603390932083, 0.18647001683712006, 0.17175152897834778, 0.1711169332265854, 0.20391426980495453, 0.14117753505706787, 0.1604277491569519, 0.2602601945400238, 0.2116169035434723, 0.14471788704395294, 0.2273997962474823, 0.18563582003116608, 0.19498899579048157, 0.14916975796222687, 0.16963374614715576, 0.14113649725914001, 0.12312588095664978, 0.2225446254014969, 0.17005176842212677, 0.1417938619852066, 0.19925902783870697, 0.1481761932373047, 0.15808811783790588, 0.13076350092887878, 0.11424676328897476, 0.15313348174095154, 0.12120191007852554, 0.12662789225578308, 0.10804521292448044, 0.11515236645936966, 0.12517298758029938, 0.13444490730762482, 0.17292895913124084, 0.21386031806468964, 0.2410389482975006, 0.24177400767803192, 0.16249825060367584, 0.1617749035358429, 0.18898405134677887, 0.1530785709619522, 0.14239078760147095, 0.15851974487304688, 0.16520562767982483, 0.23204246163368225, 0.21021893620491028, 0.16814689338207245, 0.14354225993156433, 0.13682183623313904, 0.154408797621727, 0.27875933051109314, 0.2393762469291687, 0.29756858944892883, 0.18979749083518982, 0.14594535529613495, 0.23801973462104797, 0.17991261184215546, 0.13908173143863678, 0.12852419912815094, 0.1521710753440857, 0.15681466460227966, 0.11946149915456772, 0.0887170061469078, 0.1098140999674797, 0.10216543823480606, 0.16016478836536407, 0.16476604342460632, 0.21435275673866272, 0.22132115066051483, 0.17677873373031616, 0.18138311803340912, 0.2268390655517578, 0.1473293900489807, 0.17031505703926086, 0.116970956325531, 0.21994593739509583, 0.19583864510059357, 0.33058416843414307, 0.42358720302581787, 0.31316202878952026, 0.30167168378829956, 0.21816936135292053, 0.19372376799583435, 0.2657248377799988, 0.1661984771490097, 0.26219674944877625, 0.2380957156419754, 0.18428193032741547, 0.1640729010105133, 0.17181383073329926, 0.21549469232559204, 0.2401031255722046, 0.233598992228508, 0.27366742491722107, 0.23021385073661804, 0.1881105601787567, 0.15967299044132233, 0.16895772516727448, 0.11058643460273743, 0.0924254059791565, 0.16429390013217926, 0.17873384058475494, 0.25243079662323, 0.3485146462917328, 0.303041011095047, 0.33699125051498413, 0.26033836603164673, 0.21315281093120575, 0.16955812275409698, 0.169273242354393, 0.16142651438713074, 0.23083826899528503, 0.22188524901866913, 0.21504324674606323, 0.21504423022270203]</t>
+          <t>[0.07467453926801682, 0.11040212213993073, 0.10877255350351334, 0.13106712698936462, 0.1146382987499237, 0.09497424960136414, 0.08055083453655243, 0.07026265561580658, 0.10180357098579407, 0.05915628746151924, 0.06852114945650101, 0.14230409264564514, 0.11073732376098633, 0.06279374659061432, 0.12941385805606842, 0.11493618786334991, 0.1246277466416359, 0.09951230883598328, 0.11236653476953506, 0.08664972335100174, 0.0677371397614479, 0.13277599215507507, 0.10884550958871841, 0.071199432015419, 0.09594594687223434, 0.06579068303108215, 0.08840736001729965, 0.06809310615062714, 0.06442734599113464, 0.08350372314453125, 0.062066882848739624, 0.06062120944261551, 0.04662901908159256, 0.04921843111515045, 0.05550249293446541, 0.05627143383026123, 0.08706492930650711, 0.11036136001348495, 0.14486026763916016, 0.14677642285823822, 0.08107908070087433, 0.07330700010061264, 0.09928209334611893, 0.08181237429380417, 0.06672535836696625, 0.07580646127462387, 0.06800947338342667, 0.12702877819538116, 0.0923929288983345, 0.0757981613278389, 0.05719728767871857, 0.06306956708431244, 0.07097472250461578, 0.18629001080989838, 0.1501087099313736, 0.1615878790616989, 0.1192009449005127, 0.0708613246679306, 0.1996515393257141, 0.1130010187625885, 0.0680040642619133, 0.06399724632501602, 0.06811647862195969, 0.08358766883611679, 0.058122824877500534, 0.041693128645420074, 0.04671381041407585, 0.049745988100767136, 0.08697617799043655, 0.07389967888593674, 0.11063812673091888, 0.11869335919618607, 0.08740492165088654, 0.0955536738038063, 0.14145883917808533, 0.07172239571809769, 0.09424188733100891, 0.061610620468854904, 0.1264922171831131, 0.11494187265634537, 0.20505261421203613, 0.2615860104560852, 0.14740295708179474, 0.179757222533226, 0.11168335378170013, 0.11057490110397339, 0.14166617393493652, 0.0781792551279068, 0.14751774072647095, 0.11457288265228271, 0.102683886885643, 0.07341142743825912, 0.081444151699543, 0.11852679401636124, 0.12947681546211243, 0.12184036523103714, 0.16362719237804413, 0.12490145862102509, 0.08331030607223511, 0.07812753319740295, 0.09487775713205338, 0.04307123273611069, 0.041422002017498016, 0.09884914755821228, 0.09105031192302704, 0.14667768776416779, 0.20422691106796265, 0.19562457501888275, 0.23341017961502075, 0.17772963643074036, 0.1445908397436142, 0.11123678088188171, 0.09035129100084305, 0.07546986639499664, 0.1217724084854126, 0.11881333589553833, 0.11489307135343552, 0.11482474207878113]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.4235872030258179</v>
+        <v>0.2615860104560852</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.6710967000108212</v>
+        <v>0.6748025999986567</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005687260169583231</v>
+        <v>0.005718666101683531</v>
       </c>
     </row>
     <row r="29">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.21300439536571503, 0.24804769456386566, 0.1441722959280014, 0.1459464430809021, 0.09489143639802933, 0.09942806512117386, 0.10842884331941605, 0.09124577045440674, 0.1459638476371765, 0.14608584344387054, 0.20183737576007843, 0.1312934011220932, 0.1248008981347084, 0.11042884737253189, 0.24100624024868011, 0.10396444797515869, 0.2285512238740921, 0.35180363059043884, 0.4724557101726532, 0.3841000497341156, 0.14202633500099182, 0.40586045384407043, 0.2645251154899597, 0.2981279194355011, 0.16804209351539612, 0.26441386342048645, 0.5253645777702332, 0.3108532130718231, 0.2639046609401703, 0.4781714081764221, 0.5878075361251831, 0.37676069140434265, 0.40276381373405457, 0.21722771227359772, 0.3359273076057434, 0.25279033184051514, 0.44046199321746826, 0.4657736122608185, 0.42849746346473694, 0.6587657928466797, 0.5430811047554016, 0.278925359249115, 0.3256545066833496, 0.24501356482505798, 0.4225395619869232, 0.4051840603351593, 0.30737635493278503, 0.5936862826347351, 0.3290471136569977, 0.26152467727661133, 0.5376348495483398, 0.2744462788105011, 0.3391275405883789, 0.2508252263069153, 0.23108774423599243, 0.44146445393562317, 0.7400118708610535, 0.7406738996505737, 0.9491578936576843, 0.3002750873565674, 0.29617053270339966, 0.4315718114376068, 0.9494651556015015, 0.9527470469474792, 0.8966833353042603, 0.3741814196109772, 0.10398145765066147, 0.1626325100660324, 0.18094466626644135, 0.25575608015060425, 0.18043789267539978, 0.13400483131408691, 0.1351565718650818, 0.22565171122550964, 0.20215827226638794, 0.26313039660453796, 0.27202901244163513, 0.21532469987869263, 0.18387889862060547, 0.14923173189163208, 0.1072244867682457, 0.22767968475818634, 0.1978534311056137, 0.24597446620464325, 0.3093187212944031, 0.2010248899459839, 0.2901855409145355, 0.19745221734046936, 0.23407548666000366, 0.29261699318885803, 0.21950067579746246, 0.40203914046287537, 0.21724708378314972, 0.20377376675605774, 0.23899084329605103, 0.1657712161540985, 0.42437103390693665, 0.5564116835594177, 0.5680890679359436, 0.4450870156288147, 0.29862546920776367, 0.27087923884391785, 0.30424970388412476, 0.2337256669998169, 0.1317402720451355, 0.376803994178772, 0.43134206533432007, 0.3630218803882599, 0.5319125056266785, 0.5019609332084656, 0.4330016076564789, 0.39166152477264404, 0.4070882499217987, 0.42779937386512756, 0.4565497636795044, 0.45223474502563477, 0.5591697692871094, 0.5589442849159241]</t>
+          <t>[0.11624791473150253, 0.12623293697834015, 0.07186806201934814, 0.06827056407928467, 0.03712565451860428, 0.047801703214645386, 0.05933348461985588, 0.03704409301280975, 0.05673830211162567, 0.06904718279838562, 0.12049942463636398, 0.06146620959043503, 0.044793009757995605, 0.036292701959609985, 0.11810450255870819, 0.03914593532681465, 0.12018751353025436, 0.17886994779109955, 0.2699127495288849, 0.2749321162700653, 0.05275311693549156, 0.2980637550354004, 0.14078935980796814, 0.21654778718948364, 0.07898950576782227, 0.17456133663654327, 0.48797479271888733, 0.2566974461078644, 0.14950037002563477, 0.4342060089111328, 0.5024956464767456, 0.29780131578445435, 0.29291868209838867, 0.11514010280370712, 0.289768785238266, 0.11678611487150192, 0.40938547253608704, 0.32353609800338745, 0.2924381196498871, 0.7159748673439026, 0.5540667176246643, 0.2458355575799942, 0.2690836489200592, 0.15539032220840454, 0.32816800475120544, 0.23594170808792114, 0.17484472692012787, 0.5342238545417786, 0.16999249160289764, 0.14140039682388306, 0.4272797703742981, 0.15041425824165344, 0.23302169144153595, 0.13938698172569275, 0.16103561222553253, 0.3235275447368622, 0.7678672075271606, 0.7946006059646606, 0.975337564945221, 0.16754232347011566, 0.21789193153381348, 0.3962149918079376, 0.9775761365890503, 0.979482889175415, 0.9470945596694946, 0.2904343008995056, 0.042508672922849655, 0.058634690940380096, 0.058579351752996445, 0.11430512368679047, 0.07870037853717804, 0.0514097660779953, 0.0538221150636673, 0.12492469698190689, 0.14278528094291687, 0.19460777938365936, 0.19087019562721252, 0.12094902992248535, 0.07663870602846146, 0.0807880386710167, 0.044389739632606506, 0.11576547473669052, 0.10235525667667389, 0.18684780597686768, 0.22907571494579315, 0.14427629113197327, 0.23138964176177979, 0.14883962273597717, 0.18771038949489594, 0.21185673773288727, 0.14926084876060486, 0.3311631977558136, 0.13805577158927917, 0.11594531685113907, 0.1877613365650177, 0.07249005883932114, 0.22264252603054047, 0.44603231549263, 0.49035874009132385, 0.36561644077301025, 0.14906583726406097, 0.15056060254573822, 0.1801537722349167, 0.12562857568264008, 0.04093464836478233, 0.19342964887619019, 0.2300495058298111, 0.2405424565076828, 0.4498138427734375, 0.4097585082054138, 0.3551926612854004, 0.2825203537940979, 0.3238036334514618, 0.3294798731803894, 0.2685738503932953, 0.3011723458766937, 0.5183554887771606, 0.5179700255393982]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9527470469474792</v>
+        <v>0.979482889175415</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.6824197999958415</v>
+        <v>0.674632099995506</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005783218644032554</v>
+        <v>0.005717221186402593</v>
       </c>
     </row>
     <row r="30">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.46200940012931824, 0.22895997762680054, 0.3735749125480652, 0.35113587975502014, 0.5566964149475098, 0.4580771327018738, 0.6526519656181335, 0.46894392371177673, 0.5941779017448425, 0.32074210047721863, 0.2895883023738861, 0.42273688316345215, 0.3866330683231354, 0.22570781409740448, 0.4894581735134125, 0.24878518283367157, 0.3745509684085846, 0.3323458135128021, 0.20205290615558624, 0.2955721616744995, 0.46427592635154724, 0.37807497382164, 0.38536185026168823, 0.48874232172966003, 0.47516047954559326, 0.46227845549583435, 0.4671221673488617, 0.26489174365997314, 0.5058952569961548, 0.4266343116760254, 0.5370838642120361, 0.36821073293685913, 0.5009462833404541, 0.6516047120094299, 0.6124690175056458, 0.7288875579833984, 0.5556049942970276, 0.4999973177909851, 0.5298953056335449, 0.4418644905090332, 0.5570934414863586, 0.7624244689941406, 0.7467664480209351, 0.9318283796310425, 0.7512195706367493, 0.5470216870307922, 0.4269413948059082, 0.47396910190582275, 0.5200155377388, 0.5036170482635498, 0.7463997006416321, 0.7732780575752258, 0.6661043763160706, 0.6424849033355713, 0.7241010665893555, 0.7179415225982666, 0.46904584765434265, 0.7949989438056946, 0.9110891222953796, 0.7210278511047363, 0.6012251973152161, 0.6778955459594727, 0.44281142950057983, 0.6298640966415405, 0.7825479507446289, 0.6737764477729797, 0.7856656312942505, 0.7950413823127747, 0.6689308285713196, 0.6399778127670288, 0.6858609318733215, 0.7369676232337952, 0.7707408666610718, 0.8178908824920654, 0.7674325704574585, 0.7041095495223999, 0.5718787312507629, 0.7656093835830688, 0.6396917700767517, 0.6434596180915833, 0.7023407816886902, 0.47471538186073303, 0.45002007484436035, 0.4715454578399658, 0.4926493763923645, 0.3333505094051361, 0.2899989187717438, 0.4931861460208893, 0.5135194063186646, 0.28604766726493835, 0.3110971450805664, 0.46397534012794495, 0.26800650358200073, 0.23226939141750336, 0.2968491017818451, 0.6370686888694763, 0.5268223285675049, 0.6257242560386658, 0.5726542472839355, 0.6286450624465942, 0.5712145566940308, 0.19929289817810059, 0.2826824486255646, 0.28023776412010193, 0.3013320565223694, 0.19534096121788025, 0.38508763909339905, 0.31863290071487427, 0.49900582432746887, 0.3824732005596161, 0.46116358041763306, 0.4485335946083069, 0.3269623816013336, 0.40665745735168457, 0.5057852268218994, 0.2693486213684082, 0.34585246443748474, 0.3509981036186218]</t>
+          <t>[0.39822542667388916, 0.15254494547843933, 0.30028724670410156, 0.31756070256233215, 0.5171811580657959, 0.3598208725452423, 0.581548273563385, 0.40832990407943726, 0.5180145502090454, 0.2577610909938812, 0.21666115522384644, 0.2971441149711609, 0.24959345161914825, 0.1224823147058487, 0.3982243537902832, 0.141607865691185, 0.2764214873313904, 0.19333091378211975, 0.09188593178987503, 0.1440058797597885, 0.28244537115097046, 0.2413405030965805, 0.29896074533462524, 0.3867079019546509, 0.3824242949485779, 0.4278694689273834, 0.4394153356552124, 0.16002675890922546, 0.36420512199401855, 0.34729787707328796, 0.5208505988121033, 0.4261626899242401, 0.5273515582084656, 0.673490583896637, 0.555465817451477, 0.6557375192642212, 0.5759337544441223, 0.4325484037399292, 0.4775705933570862, 0.4433584213256836, 0.5726953744888306, 0.8174114227294922, 0.820813000202179, 0.9569117426872253, 0.8089993596076965, 0.573861837387085, 0.40429770946502686, 0.4191049039363861, 0.47092023491859436, 0.559292197227478, 0.7843239307403564, 0.8257087469100952, 0.6951617002487183, 0.6939345598220825, 0.5752125382423401, 0.7147442102432251, 0.5206649303436279, 0.8745216131210327, 0.9604753255844116, 0.7368568181991577, 0.6667150855064392, 0.7077661156654358, 0.5194178819656372, 0.7446396350860596, 0.83176189661026, 0.6792029142379761, 0.813141405582428, 0.8189047574996948, 0.6912641525268555, 0.6492382884025574, 0.6844781041145325, 0.7062586545944214, 0.7286937236785889, 0.7896498441696167, 0.6979895830154419, 0.620527446269989, 0.49049752950668335, 0.735085129737854, 0.5841605067253113, 0.6603986620903015, 0.7119088172912598, 0.2891538739204407, 0.2573952078819275, 0.34999319911003113, 0.42556673288345337, 0.3078545928001404, 0.2997173070907593, 0.570438027381897, 0.6359091997146606, 0.22932834923267365, 0.27620232105255127, 0.34114980697631836, 0.1821296215057373, 0.14458632469177246, 0.2260538786649704, 0.6199101805686951, 0.5021618604660034, 0.649043083190918, 0.47538653016090393, 0.5306265354156494, 0.38439974188804626, 0.10326531529426575, 0.2516200840473175, 0.25802719593048096, 0.18718178570270538, 0.09042774140834808, 0.288743793964386, 0.2031002938747406, 0.40190389752388, 0.2743231952190399, 0.32151344418525696, 0.4276737570762634, 0.2884902358055115, 0.4643566608428955, 0.6091107130050659, 0.20829927921295166, 0.3606504201889038, 0.36775684356689453]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9318283796310425</v>
+        <v>0.9604753255844116</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.7345953000185546</v>
+        <v>0.6678987999912351</v>
       </c>
       <c r="J30" t="n">
-        <v>0.006225383898462326</v>
+        <v>0.00566015932195962</v>
       </c>
     </row>
     <row r="31">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.32683390378952026, 0.3297693729400635, 0.2952175438404083, 0.4325025677680969, 0.4673458933830261, 0.4243423640727997, 0.44062361121177673, 0.23838423192501068, 0.100669264793396, 0.2793240547180176, 0.12691538035869598, 0.3098612129688263, 0.10996351391077042, 0.192084401845932, 0.45391952991485596, 0.26211094856262207, 0.3089487850666046, 0.35057517886161804, 0.36178353428840637, 0.35393857955932617, 0.4170061945915222, 0.3085208833217621, 0.37163951992988586, 0.5588042140007019, 0.5578101277351379, 0.3215078115463257, 0.17446695268154144, 0.23542869091033936, 0.2671339511871338, 0.20825539529323578, 0.15700985491275787, 0.5710210204124451, 0.73305344581604, 0.3379264175891876, 0.35169968008995056, 0.24489440023899078, 0.2054443657398224, 0.15913943946361542, 0.2426624447107315, 0.29507091641426086, 0.2708546221256256, 0.265199214220047, 0.14531417191028595, 0.18211616575717926, 0.17484742403030396, 0.25484514236450195, 0.393454372882843, 0.41284868121147156, 0.611901581287384, 0.5307695865631104, 0.389210045337677, 0.3282982409000397, 0.3888177275657654, 0.4452711045742035, 0.29613545536994934, 0.34133273363113403, 0.2946741580963135, 0.24935857951641083, 0.15083429217338562, 0.24584679305553436, 0.23229257762432098, 0.2832287847995758, 0.2404114305973053, 0.28784996271133423, 0.2537302076816559, 0.2930130064487457, 0.2317560762166977, 0.48971086740493774, 0.20398421585559845, 0.24464276432991028, 0.24510367214679718, 0.32675686478614807, 0.2048991173505783, 0.11595451086759567, 0.2010689228773117, 0.2501700222492218, 0.1527654528617859, 0.18783295154571533, 0.2844087481498718, 0.4189099371433258, 0.28887370228767395, 0.26656559109687805, 0.38524743914604187, 0.2474183887243271, 0.28656017780303955, 0.34529736638069153, 0.18875287473201752, 0.45158636569976807, 0.16704589128494263, 0.2354007512331009, 0.21610018610954285, 0.1629563570022583, 0.1747780591249466, 0.12744349241256714, 0.32792288064956665, 0.3112550973892212, 0.4520139694213867, 0.44108226895332336, 0.5416038632392883, 0.42410799860954285, 0.33957335352897644, 0.5789839625358582, 0.5820267200469971, 0.4490875005722046, 0.3501409590244293, 0.25825220346450806, 0.2795949876308441, 0.24025925993919373, 0.24206198751926422, 0.25813043117523193, 0.3189862370491028, 0.36056384444236755, 0.561728835105896, 0.6403377652168274, 0.5701231360435486, 0.5013761520385742, 0.33666327595710754, 0.33604294061660767]</t>
+          <t>[0.44785377383232117, 0.5124163627624512, 0.46273404359817505, 0.5820782780647278, 0.6125418543815613, 0.609188973903656, 0.5606665015220642, 0.2452218383550644, 0.10284168273210526, 0.313532292842865, 0.17388533055782318, 0.3986952304840088, 0.10471955686807632, 0.23631377518177032, 0.6745738387107849, 0.42957425117492676, 0.40444865822792053, 0.4483126997947693, 0.33753353357315063, 0.47374311089515686, 0.5077683925628662, 0.3700735867023468, 0.4466748535633087, 0.7170265913009644, 0.5891506671905518, 0.31959813833236694, 0.1043122336268425, 0.17835170030593872, 0.1861323118209839, 0.14787380397319794, 0.13268689811229706, 0.6890127658843994, 0.8592580556869507, 0.3868944048881531, 0.30487844347953796, 0.27636322379112244, 0.16271370649337769, 0.1590486615896225, 0.2413008213043213, 0.3393068015575409, 0.2244647592306137, 0.24722836911678314, 0.11765117943286896, 0.1575040966272354, 0.14979593455791473, 0.24235130846500397, 0.36375901103019714, 0.4407394528388977, 0.743566632270813, 0.6795276403427124, 0.39962732791900635, 0.30712783336639404, 0.3502211272716522, 0.48885399103164673, 0.34706762433052063, 0.3468550443649292, 0.2563951015472412, 0.26349785923957825, 0.12873032689094543, 0.28192654252052307, 0.3096703588962555, 0.33773672580718994, 0.3220013380050659, 0.23736359179019928, 0.2925336956977844, 0.3053516447544098, 0.22816911339759827, 0.631301760673523, 0.3201237618923187, 0.39515605568885803, 0.281366765499115, 0.4602923095226288, 0.3040807247161865, 0.13371925055980682, 0.2418675720691681, 0.34287336468696594, 0.14580805599689484, 0.2398671954870224, 0.4433451294898987, 0.5201923251152039, 0.3033621311187744, 0.3395453691482544, 0.42475414276123047, 0.19531595706939697, 0.30866146087646484, 0.3704594671726227, 0.1598564237356186, 0.381899356842041, 0.12007196247577667, 0.17779463529586792, 0.14998449385166168, 0.09547027945518494, 0.1376098394393921, 0.0949438065290451, 0.3834215998649597, 0.3111678957939148, 0.4898969233036041, 0.5309954285621643, 0.6091961860656738, 0.40079355239868164, 0.29533734917640686, 0.5161564946174622, 0.4968254566192627, 0.4066196084022522, 0.2376217544078827, 0.20982736349105835, 0.2350487858057022, 0.2633369565010071, 0.30664876103401184, 0.3145654797554016, 0.2865736186504364, 0.31943321228027344, 0.5940693020820618, 0.7252324223518372, 0.6365861892700195, 0.5085362195968628, 0.2869414985179901, 0.2852795422077179]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.73305344581604</v>
+        <v>0.8592580556869507</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.6669287999975495</v>
+        <v>0.6685586999956286</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005651938983030081</v>
+        <v>0.005665751694878208</v>
       </c>
     </row>
     <row r="32">
@@ -1805,11 +1805,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0.5927547216415405, 0.7302578091621399, 0.8368670344352722, 0.7217903137207031, 0.5620946884155273, 0.7097562551498413, 0.6434950828552246, 0.6955015063285828, 0.5873313546180725, 0.9183868765830994, 0.8317148685455322, 0.7839545011520386, 0.8059706687927246, 0.8801326751708984, 0.7034730315208435, 0.5695832371711731, 0.5115014314651489, 0.4230320453643799, 0.5493998527526855, 0.37509796023368835, 0.31259065866470337, 0.3396320641040802, 0.3831596076488495, 0.5137330293655396, 0.44355684518814087, 0.37178221344947815, 0.42502227425575256, 0.7781932950019836, 0.9262999892234802, 0.7462165951728821, 0.5538975596427917, 0.5252620577812195, 0.34671759605407715, 0.3553195893764496, 0.40067487955093384, 0.31689369678497314, 0.4296795427799225, 0.4213009774684906, 0.6081038117408752, 0.49308809638023376, 0.4070022702217102, 0.4424014091491699, 0.48864126205444336, 0.42319145798683167, 0.6671130061149597, 0.6365812420845032, 0.5468182563781738, 0.6632788181304932, 0.5139576196670532, 0.5911519527435303, 0.3138185143470764, 0.43330755829811096, 0.3687460422515869, 0.30518463253974915, 0.4794665575027466, 0.34830257296562195, 0.35341548919677734, 0.33431190252304077, 0.3161565959453583, 0.46053463220596313, 0.25830766558647156, 0.4305727183818817, 0.5005161762237549, 0.6216893196105957, 0.6515459418296814, 0.4656883180141449, 0.35983946919441223, 0.5608076453208923, 0.41821280121803284, 0.2709190547466278, 0.335270494222641, 0.4124735891819, 0.5578336119651794, 0.8957039713859558, 0.8695392608642578, 0.7201624512672424, 0.6456093788146973, 0.8093425631523132, 0.7553536295890808, 0.8244162797927856, 0.7826655507087708, 0.3787493407726288, 0.38935038447380066, 0.6738165616989136, 0.5641470551490784, 0.3482280671596527, 0.4994891881942749, 0.5222836136817932, 0.7677467465400696, 0.6848726868629456, 0.6464518904685974, 0.4977610409259796, 0.5938308835029602, 0.5827906131744385, 0.676494300365448, 0.8807485103607178, 0.610388994216919, 0.7866539359092712, 0.6757229566574097, 0.6724429726600647, 0.9034556150436401, 0.8952964544296265, 0.8090044856071472, 0.16604039072990417, 0.16481080651283264, 0.19421571493148804, 0.4351639449596405, 0.6076453924179077, 0.3143269419670105, 0.26725873351097107, 0.5422996282577515, 0.5167326331138611, 0.5032376646995544, 0.4565548002719879, 0.7435092329978943, 0.8042773604393005, 0.5769632458686829, 0.5773391723632812]</t>
+          <t>[0.6522423028945923, 0.8284491896629333, 0.8851906061172485, 0.8784388899803162, 0.663423478603363, 0.8166348338127136, 0.7986773252487183, 0.8321929574012756, 0.7455071806907654, 0.9777306318283081, 0.8913798332214355, 0.8689699769020081, 0.8941509127616882, 0.9286373853683472, 0.8628364205360413, 0.7166101932525635, 0.6885474324226379, 0.5871917009353638, 0.6621134877204895, 0.4814686179161072, 0.3572234809398651, 0.5003213882446289, 0.4508934020996094, 0.5992957949638367, 0.5369802117347717, 0.524975597858429, 0.5378175973892212, 0.8315091133117676, 0.9514128565788269, 0.8449128866195679, 0.6056466698646545, 0.6608720421791077, 0.46194303035736084, 0.42309609055519104, 0.5165667533874512, 0.45847153663635254, 0.6261764764785767, 0.5107517242431641, 0.6930680274963379, 0.4789080321788788, 0.43181923031806946, 0.4515075981616974, 0.5719838738441467, 0.561305046081543, 0.755759596824646, 0.7398812770843506, 0.6638445854187012, 0.7725624442100525, 0.5424752235412598, 0.6560132503509521, 0.37508949637413025, 0.45770326256752014, 0.37963539361953735, 0.29047393798828125, 0.4718571603298187, 0.2812671959400177, 0.33316969871520996, 0.30508166551589966, 0.2794029712677002, 0.4623201787471771, 0.201475590467453, 0.4611286222934723, 0.5599359273910522, 0.7363998889923096, 0.7501373291015625, 0.4892253875732422, 0.33910736441612244, 0.6194408535957336, 0.3829849362373352, 0.2213028520345688, 0.30411630868911743, 0.41387927532196045, 0.5435236096382141, 0.946929395198822, 0.9161443710327148, 0.8183026909828186, 0.7425271272659302, 0.8660603761672974, 0.8052687644958496, 0.8743674755096436, 0.8889822363853455, 0.44703972339630127, 0.5925180912017822, 0.82850581407547, 0.7362363338470459, 0.4812051057815552, 0.7386547923088074, 0.7168034315109253, 0.9194788932800293, 0.8606076836585999, 0.773184061050415, 0.5894255638122559, 0.7751883864402771, 0.7123496532440186, 0.8720583915710449, 0.9687293171882629, 0.8383018374443054, 0.9180424213409424, 0.844538688659668, 0.8049566149711609, 0.968472421169281, 0.9518907070159912, 0.9233224391937256, 0.1655900627374649, 0.17644953727722168, 0.2239253669977188, 0.5789968967437744, 0.7320576310157776, 0.3934415280818939, 0.3057723939418793, 0.7077583074569702, 0.7522099018096924, 0.7193015217781067, 0.5375849008560181, 0.8630381226539612, 0.906401515007019, 0.7012123465538025, 0.7017120122909546]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9262999892234802</v>
+        <v>0.9777306318283081</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.6639065000053961</v>
+        <v>0.6713250000029802</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00562632627123217</v>
+        <v>0.005689194915279494</v>
       </c>
     </row>
     <row r="33">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.9630045294761658, 0.988269567489624, 0.9922985434532166, 0.9931915402412415, 0.9946821331977844, 0.9902389049530029, 0.9932929277420044, 0.991219699382782, 0.973487377166748, 0.9891882538795471, 0.9968605041503906, 0.9964853525161743, 0.9969833493232727, 0.9959391355514526, 0.9952770471572876, 0.9953078627586365, 0.9940024018287659, 0.9971109628677368, 0.9964816570281982, 0.9980022311210632, 0.9958529472351074, 0.994708776473999, 0.9948098659515381, 0.9940120577812195, 0.9854761958122253, 0.9940668344497681, 0.9931986927986145, 0.9931018352508545, 0.9943562150001526, 0.9862152934074402, 0.9817355275154114, 0.9878041744232178, 0.9732246994972229, 0.9635067582130432, 0.9205325841903687, 0.9689509868621826, 0.9752354025840759, 0.9589206576347351, 0.9313144087791443, 0.9783554077148438, 0.9819297194480896, 0.9918648600578308, 0.9950506091117859, 0.9959520101547241, 0.9682865142822266, 0.9839475154876709, 0.9907432198524475, 0.9905390739440918, 0.9918636083602905, 0.9937991499900818, 0.9942983984947205, 0.9935197234153748, 0.9871281385421753, 0.9122374653816223, 0.9729645252227783, 0.9732966423034668, 0.9842315912246704, 0.9893024563789368, 0.9896101951599121, 0.9905914664268494, 0.9230605363845825, 0.9939287900924683, 0.9919169545173645, 0.9937185049057007, 0.994568943977356, 0.9954034090042114, 0.9970152378082275, 0.9940593242645264, 0.9924145340919495, 0.9928905963897705, 0.9924219250679016, 0.9926894307136536, 0.9898338317871094, 0.9942745566368103, 0.9949776530265808, 0.993320882320404, 0.9960971474647522, 0.9935414791107178, 0.9957318902015686, 0.9969725608825684, 0.9955841898918152, 0.9928883910179138, 0.9957286715507507, 0.9820615649223328, 0.9807699918746948, 0.9897268414497375, 0.9862735867500305, 0.9937000274658203, 0.9899606704711914, 0.977935791015625, 0.9829309582710266, 0.9869495034217834, 0.989479124546051, 0.9889212846755981, 0.9922357201576233, 0.9843599200248718, 0.975892186164856, 0.9906613230705261, 0.9924513697624207, 0.9948540329933167, 0.9927935600280762, 0.9945573806762695, 0.9911929965019226, 0.9953842759132385, 0.9507713317871094, 0.9275573492050171, 0.807239830493927, 0.9725536704063416, 0.9865944385528564, 0.8923411965370178, 0.8683356046676636, 0.9522137641906738, 0.9835008382797241, 0.9965596795082092, 0.9969016313552856, 0.9960864782333374, 0.9960773587226868, 0.9960793852806091]</t>
+          <t>[0.9857137203216553, 0.9946346282958984, 0.9962326884269714, 0.997401237487793, 0.9974237680435181, 0.9965732097625732, 0.9978263974189758, 0.9963201284408569, 0.9851770401000977, 0.9957481026649475, 0.9986490607261658, 0.9984325766563416, 0.9987781643867493, 0.998641312122345, 0.9985427856445312, 0.9984952211380005, 0.9980927109718323, 0.9989805817604065, 0.9985933899879456, 0.9992319345474243, 0.9985742568969727, 0.9980208873748779, 0.9975433349609375, 0.9963758587837219, 0.9924532771110535, 0.9971268773078918, 0.9974609613418579, 0.9974537491798401, 0.9971931576728821, 0.9947346448898315, 0.9936434030532837, 0.9949373006820679, 0.9862313866615295, 0.9775905609130859, 0.9515373706817627, 0.9855024814605713, 0.9887242913246155, 0.9758431315422058, 0.9528827667236328, 0.9883660078048706, 0.9881227612495422, 0.9950289130210876, 0.9973590970039368, 0.997766375541687, 0.9755656719207764, 0.9927524328231812, 0.9936680197715759, 0.9952143430709839, 0.9949480295181274, 0.9962142109870911, 0.9972564578056335, 0.9963012933731079, 0.9922171831130981, 0.9410746693611145, 0.9857372045516968, 0.9856524467468262, 0.9910933375358582, 0.9952071309089661, 0.9954434633255005, 0.9940809607505798, 0.9593741297721863, 0.9953363537788391, 0.9949936270713806, 0.9970276951789856, 0.997346043586731, 0.997795820236206, 0.998559296131134, 0.9978758096694946, 0.996379554271698, 0.9963992834091187, 0.9968339800834656, 0.9968152642250061, 0.9951528310775757, 0.9974780678749084, 0.9968401193618774, 0.9937633872032166, 0.9977986216545105, 0.9978164434432983, 0.9987528324127197, 0.9989808201789856, 0.9983298182487488, 0.9978582262992859, 0.998306393623352, 0.9924988150596619, 0.9920144081115723, 0.9968398809432983, 0.9954849481582642, 0.9976550340652466, 0.996736466884613, 0.9916563034057617, 0.9896966218948364, 0.9954541921615601, 0.996773898601532, 0.99472975730896, 0.9971074461936951, 0.9948278069496155, 0.9923181533813477, 0.9965775609016418, 0.997430145740509, 0.9983574748039246, 0.9977263808250427, 0.9983155727386475, 0.9967036843299866, 0.9977553486824036, 0.9643418192863464, 0.9546257853507996, 0.8574737906455994, 0.9800997376441956, 0.9925433397293091, 0.9335052371025085, 0.884120523929596, 0.9629295468330383, 0.989916980266571, 0.9975761771202087, 0.9981878399848938, 0.9976429343223572, 0.99793940782547, 0.9979408383369446]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9980022311210632</v>
+        <v>0.9992319345474243</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.6681607000064105</v>
+        <v>0.678108299995074</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005662378813613648</v>
+        <v>0.005746680508432831</v>
       </c>
     </row>
     <row r="34">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.09757348150014877, 0.09738419950008392, 0.19980300962924957, 0.07919012755155563, 0.055612653493881226, 0.1265685260295868, 0.09005492925643921, 0.11770369112491608, 0.11385265737771988, 0.06430161744356155, 0.09377343207597733, 0.10387501865625381, 0.06895940005779266, 0.09448794275522232, 0.169638991355896, 0.15639187395572662, 0.08857321739196777, 0.07966800034046173, 0.09322935342788696, 0.14276255667209625, 0.19758069515228271, 0.31095409393310547, 0.36374321579933167, 0.28632956743240356, 0.19980382919311523, 0.28657856583595276, 0.2722022533416748, 0.2106827199459076, 0.26432088017463684, 0.22222115099430084, 0.17792858183383942, 0.24976836144924164, 0.2140355110168457, 0.2756025791168213, 0.11217940598726273, 0.21322107315063477, 0.1848490834236145, 0.1302267163991928, 0.2265622317790985, 0.2704958915710449, 0.16276922821998596, 0.15267089009284973, 0.20320755243301392, 0.1940615028142929, 0.37477362155914307, 0.406117707490921, 0.3557167947292328, 0.3336833715438843, 0.27384302020072937, 0.21693703532218933, 0.23206397891044617, 0.3543749153614044, 0.25233811140060425, 0.267333060503006, 0.18426215648651123, 0.593351423740387, 0.41520294547080994, 0.40418124198913574, 0.4219348132610321, 0.3432900011539459, 0.36246106028556824, 0.6145049929618835, 0.5814165472984314, 0.7223645448684692, 0.6075053811073303, 0.48023197054862976, 0.4647677540779114, 0.6435583233833313, 0.6844384670257568, 0.636303186416626, 0.586109459400177, 0.5112837553024292, 0.5773734450340271, 0.6379237771034241, 0.6228509545326233, 0.49717673659324646, 0.319583922624588, 0.5001978278160095, 0.5370076298713684, 0.379395455121994, 0.6020243763923645, 0.39150142669677734, 0.28025418519973755, 0.34837421774864197, 0.27052927017211914, 0.3721252679824829, 0.5077922344207764, 0.352730929851532, 0.4023844301700592, 0.4801548421382904, 0.6207544207572937, 0.42884835600852966, 0.8243544101715088, 0.6052310466766357, 0.5491949319839478, 0.28393009305000305, 0.31515392661094666, 0.5240402817726135, 0.3481259346008301, 0.5195592045783997, 0.39314720034599304, 0.2619548439979553, 0.251919150352478, 0.3656868636608124, 0.2902282774448395, 0.2967433035373688, 0.25902479887008667, 0.15879487991333008, 0.23193587362766266, 0.30024343729019165, 0.2747899889945984, 0.302732914686203, 0.440723180770874, 0.5264826416969299, 0.3874596357345581, 0.32824084162712097, 0.2885405719280243, 0.2904660403728485]</t>
+          <t>[0.08204246312379837, 0.11036285758018494, 0.24564872682094574, 0.057006869465112686, 0.035087309777736664, 0.08123081177473068, 0.0618925467133522, 0.08129364252090454, 0.08781694620847702, 0.033246494829654694, 0.06593753397464752, 0.06444454193115234, 0.04735042527318001, 0.0661865696310997, 0.11950882524251938, 0.09851031005382538, 0.04864269867539406, 0.051018763333559036, 0.06520893424749374, 0.11002136766910553, 0.16636380553245544, 0.2388847917318344, 0.28253835439682007, 0.18075188994407654, 0.10314364731311798, 0.1785796582698822, 0.15584777295589447, 0.12449716776609421, 0.18888431787490845, 0.1433730572462082, 0.11985795944929123, 0.1801929473876953, 0.1256142258644104, 0.2646450102329254, 0.08530263602733612, 0.18315240740776062, 0.1707807183265686, 0.10038405656814575, 0.15983572602272034, 0.2557573616504669, 0.16614173352718353, 0.1103561669588089, 0.13516399264335632, 0.1418686807155609, 0.34649887681007385, 0.43296048045158386, 0.2718154191970825, 0.2595502436161041, 0.17884688079357147, 0.14481179416179657, 0.1827230602502823, 0.3528019189834595, 0.2512049376964569, 0.30871397256851196, 0.20485755801200867, 0.7696261405944824, 0.5244015455245972, 0.5133830904960632, 0.4152003824710846, 0.33570370078086853, 0.2386844903230667, 0.7126603126525879, 0.5884258151054382, 0.7284809350967407, 0.5980550050735474, 0.3853214979171753, 0.40665194392204285, 0.708000659942627, 0.7276050448417664, 0.6374979615211487, 0.6126855611801147, 0.553459644317627, 0.4944833815097809, 0.6339210867881775, 0.6550882458686829, 0.5458760857582092, 0.3011217713356018, 0.45611920952796936, 0.3480481803417206, 0.18306827545166016, 0.4765494465827942, 0.22766874730587006, 0.12852995097637177, 0.24871131777763367, 0.16027748584747314, 0.2729180157184601, 0.40863847732543945, 0.23473210632801056, 0.29680630564689636, 0.36425650119781494, 0.5525676608085632, 0.329074889421463, 0.8222750425338745, 0.582443356513977, 0.48712241649627686, 0.1540347933769226, 0.19126266241073608, 0.4249083399772644, 0.22385184466838837, 0.41394349932670593, 0.24186371266841888, 0.11873821914196014, 0.14164675772190094, 0.19136261940002441, 0.13825048506259918, 0.14074760675430298, 0.15900535881519318, 0.09129247069358826, 0.13692986965179443, 0.22939921915531158, 0.20945020020008087, 0.2275017499923706, 0.3534160256385803, 0.38997626304626465, 0.23112565279006958, 0.17590898275375366, 0.16133834421634674, 0.16239134967327118]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8243544101715088</v>
+        <v>0.8222750425338745</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.6691498000000138</v>
+        <v>0.6799648000014713</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005670761016949269</v>
+        <v>0.005762413559334502</v>
       </c>
     </row>
     <row r="35">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.225926011800766, 0.25664022564888, 0.21740730106830597, 0.17674702405929565, 0.20460942387580872, 0.2780129611492157, 0.20561566948890686, 0.32583382725715637, 0.3130866587162018, 0.41959917545318604, 0.49441665410995483, 0.48645246028900146, 0.40269216895103455, 0.42248108983039856, 0.25626203417778015, 0.3734201192855835, 0.3837199807167053, 0.5710633993148804, 0.41738781332969666, 0.3707348108291626, 0.3692396879196167, 0.47923216223716736, 0.68562251329422, 0.6712269186973572, 0.614916980266571, 0.579340934753418, 0.6191205978393555, 0.5281177759170532, 0.5759690403938293, 0.19004623591899872, 0.19879713654518127, 0.15619885921478271, 0.30258679389953613, 0.2645072042942047, 0.36689022183418274, 0.23139256238937378, 0.23857374489307404, 0.19986367225646973, 0.33133241534233093, 0.30970609188079834, 0.29664474725723267, 0.3684137463569641, 0.3100874722003937, 0.41254791617393494, 0.30350619554519653, 0.37339669466018677, 0.503377377986908, 0.5113813877105713, 0.520003616809845, 0.47308018803596497, 0.590353786945343, 0.4056088328361511, 0.8191713094711304, 0.863561749458313, 0.8823034167289734, 0.8638581037521362, 0.858221709728241, 0.5780491232872009, 0.6656045913696289, 0.5378568768501282, 0.5793640613555908, 0.5169137120246887, 0.5318242311477661, 0.33745723962783813, 0.4856361150741577, 0.5424283146858215, 0.6518676280975342, 0.7526234984397888, 0.7000933885574341, 0.6080005764961243, 0.4911941587924957, 0.43181112408638, 0.37397074699401855, 0.46285590529441833, 0.634118914604187, 0.6745133996009827, 0.5877599120140076, 0.8464142084121704, 0.737195611000061, 0.8032708168029785, 0.5294056534767151, 0.7697063088417053, 0.8474293351173401, 0.7929015159606934, 0.680634081363678, 0.609907865524292, 0.6479947566986084, 0.46932047605514526, 0.644302248954773, 0.41996726393699646, 0.6180841326713562, 0.7135425806045532, 0.5750318169593811, 0.8415737748146057, 0.8313773274421692, 0.573655366897583, 0.2662413716316223, 0.3864503800868988, 0.38991236686706543, 0.5538983941078186, 0.6378098130226135, 0.4767611622810364, 0.7296444773674011, 0.7667605876922607, 0.7288596630096436, 0.6430288553237915, 0.5399162173271179, 0.3449346423149109, 0.6389873623847961, 0.9048405289649963, 0.9186090230941772, 0.956055760383606, 0.9551224112510681, 0.8350825309753418, 0.8429276943206787, 0.8571866154670715, 0.8827086687088013, 0.8224093317985535, 0.8551045656204224, 0.8020415306091309, 0.6202133893966675, 0.6478241086006165, 0.4417400360107422, 0.3978153467178345, 0.4078218340873718, 0.44409239292144775, 0.3684154748916626, 0.5313700437545776, 0.6519896388053894, 0.6888353228569031, 0.41189268231391907, 0.542676568031311, 0.629489541053772, 0.4640047252178192, 0.4343204200267792, 0.678989052772522, 0.7441872358322144, 0.6015591621398926, 0.39653611183166504, 0.3930661678314209]</t>
+          <t>[0.31321752071380615, 0.34905806183815, 0.3207240104675293, 0.2644241154193878, 0.27845707535743713, 0.41013815999031067, 0.2831346094608307, 0.38965046405792236, 0.2735452950000763, 0.4188295006752014, 0.4914582669734955, 0.5231522917747498, 0.5811400413513184, 0.510890007019043, 0.2832041084766388, 0.39587143063545227, 0.45614340901374817, 0.6691443920135498, 0.4419567286968231, 0.35249093174934387, 0.3945213258266449, 0.6244164705276489, 0.8105107545852661, 0.8028829097747803, 0.7418704032897949, 0.6522147059440613, 0.6612585186958313, 0.5591277480125427, 0.6014630198478699, 0.20166760683059692, 0.2104194313287735, 0.17284172773361206, 0.3627816438674927, 0.2673986256122589, 0.38217413425445557, 0.27754831314086914, 0.2640225887298584, 0.21307450532913208, 0.391742080450058, 0.38922828435897827, 0.37165525555610657, 0.46079304814338684, 0.32662245631217957, 0.3811474144458771, 0.2961583733558655, 0.4169332981109619, 0.46280157566070557, 0.5744293928146362, 0.5842422246932983, 0.5373930335044861, 0.6685292720794678, 0.43947696685791016, 0.7886154055595398, 0.8605799674987793, 0.9152448177337646, 0.8911276459693909, 0.9109143018722534, 0.6407824158668518, 0.6309360861778259, 0.546307384967804, 0.6365682482719421, 0.44864004850387573, 0.5800392031669617, 0.3443434536457062, 0.5744530558586121, 0.5476152896881104, 0.713822603225708, 0.7917373180389404, 0.7737799286842346, 0.5524576306343079, 0.5298059582710266, 0.5430054068565369, 0.44841304421424866, 0.5147656202316284, 0.7024264931678772, 0.7633878588676453, 0.6361739635467529, 0.8742106556892395, 0.8769867420196533, 0.8503609299659729, 0.6160677671432495, 0.8206701278686523, 0.8854158520698547, 0.8327791690826416, 0.7419589161872864, 0.6577211022377014, 0.6825461387634277, 0.5228506326675415, 0.7572895884513855, 0.4773462414741516, 0.7217382788658142, 0.7396527528762817, 0.6401010751724243, 0.8872805833816528, 0.9023906588554382, 0.6699883341789246, 0.2160262018442154, 0.4516751766204834, 0.4306800365447998, 0.6186585426330566, 0.739723265171051, 0.5745494365692139, 0.8270774483680725, 0.8430656790733337, 0.8221310377120972, 0.7029029726982117, 0.5604299306869507, 0.2726269066333771, 0.7069101929664612, 0.9553382396697998, 0.95808345079422, 0.979349672794342, 0.9761625528335571, 0.8700476288795471, 0.8699012994766235, 0.907558798789978, 0.9129343628883362, 0.890659511089325, 0.9434247016906738, 0.9110062122344971, 0.798069417476654, 0.8528228998184204, 0.6187875270843506, 0.5035542845726013, 0.45841559767723083, 0.5148869752883911, 0.37742865085601807, 0.6751999258995056, 0.7072176337242126, 0.7589945793151855, 0.40792420506477356, 0.5640690922737122, 0.7289625406265259, 0.5770443677902222, 0.4673186242580414, 0.7413285374641418, 0.8057260513305664, 0.6807193756103516, 0.4859812259674072, 0.4818604588508606]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.956055760383606</v>
+        <v>0.979349672794342</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.8025415999873076</v>
+        <v>0.8322693000081927</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00573243999990934</v>
+        <v>0.005944780714344233</v>
       </c>
     </row>
     <row r="36">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.14320464432239532, 0.1384119838476181, 0.23257550597190857, 0.3150947690010071, 0.19249381124973297, 0.32713979482650757, 0.37421464920043945, 0.47117266058921814, 0.47329968214035034, 0.3046867847442627, 0.2608531713485718, 0.3100094795227051, 0.30491432547569275, 0.37685510516166687, 0.2976740896701813, 0.3120673596858978, 0.19923615455627441, 0.2409099042415619, 0.18735013902187347, 0.19943618774414062, 0.2199239581823349, 0.18673314154148102, 0.22428745031356812, 0.19658398628234863, 0.357741117477417, 0.44358327984809875, 0.3435245454311371, 0.3298473358154297, 0.3105991780757904, 0.38269373774528503, 0.30455559492111206, 0.15032246708869934, 0.175808846950531, 0.22062936425209045, 0.4139139950275421, 0.4503438174724579, 0.49882400035858154, 0.5844690799713135, 0.5127085447311401, 0.4864443838596344, 0.3477257192134857, 0.47163844108581543, 0.5535774827003479, 0.5050775408744812, 0.49830955266952515, 0.5056359171867371, 0.7214299440383911, 0.6765301823616028, 0.5685943365097046, 0.47456949949264526, 0.5520113110542297, 0.5115206241607666, 0.6964741945266724, 0.49104562401771545, 0.4195123314857483, 0.46564146876335144, 0.4490624666213989, 0.3223312795162201, 0.3693787753582001, 0.2766561210155487, 0.3942805528640747, 0.5416408181190491, 0.6051629781723022, 0.38886022567749023, 0.6886443495750427, 0.287345826625824, 0.19343343377113342, 0.289883017539978, 0.28231123089790344, 0.33115723729133606, 0.3148481547832489, 0.3459390699863434, 0.2682635188102722, 0.22904404997825623, 0.3410576283931732, 0.34584155678749084, 0.26886701583862305, 0.18620920181274414, 0.11742577701807022, 0.08796557039022446, 0.10502707958221436, 0.07027192413806915, 0.1132872924208641, 0.11783111095428467, 0.14608946442604065, 0.16653642058372498, 0.21683382987976074, 0.15980711579322815, 0.23986698687076569, 0.21430934965610504, 0.18451344966888428, 0.27994996309280396, 0.256708025932312, 0.2801940143108368, 0.26600897312164307, 0.20991484820842743, 0.20643994212150574, 0.19257785379886627, 0.18360982835292816, 0.13449785113334656, 0.1261565387248993, 0.11117015033960342, 0.18299688398838043, 0.08397852629423141, 0.15163536369800568, 0.1929120421409607, 0.16107136011123657, 0.2779744267463684, 0.3134954571723938, 0.24121840298175812, 0.2169009894132614, 0.21830439567565918, 0.2506563067436218, 0.2943052351474762, 0.288293719291687, 0.20873400568962097, 0.22485841810703278, 0.18492230772972107, 0.26024582982063293, 0.1582506150007248, 0.14647461473941803, 0.11425400525331497, 0.11106155067682266, 0.06325700134038925, 0.09850256145000458, 0.11879321187734604, 0.13288673758506775, 0.13890039920806885, 0.23427781462669373, 0.2375333309173584, 0.186778724193573, 0.3163808584213257, 0.24425120651721954, 0.18372219800949097, 0.20512129366397858, 0.2836732566356659, 0.1537902057170868, 0.1936124712228775, 0.13676157593727112, 0.13683626055717468]</t>
+          <t>[0.15690091252326965, 0.16834115982055664, 0.29192420840263367, 0.4212265610694885, 0.20908673107624054, 0.36848506331443787, 0.44036924839019775, 0.5507315397262573, 0.5092713832855225, 0.3425607979297638, 0.24324247241020203, 0.3509734570980072, 0.3663008213043213, 0.39018720388412476, 0.2534456253051758, 0.29897281527519226, 0.16799011826515198, 0.2109946608543396, 0.1710362583398819, 0.20737652480602264, 0.2625890076160431, 0.18904456496238708, 0.17855718731880188, 0.17924223840236664, 0.4067903459072113, 0.4803655445575714, 0.3419643044471741, 0.3370358943939209, 0.3557374179363251, 0.4693738520145416, 0.40832433104515076, 0.1392822116613388, 0.1679038256406784, 0.21217399835586548, 0.4348689615726471, 0.49652963876724243, 0.5625112652778625, 0.6141692996025085, 0.6341161131858826, 0.5167473554611206, 0.43178674578666687, 0.5851858854293823, 0.6613588333129883, 0.6289551854133606, 0.6388985514640808, 0.6327505111694336, 0.8462887406349182, 0.7924737930297852, 0.6724874973297119, 0.6135649085044861, 0.6566349267959595, 0.5719714164733887, 0.7732986807823181, 0.5191120505332947, 0.4697244167327881, 0.5386975407600403, 0.48709097504615784, 0.36073148250579834, 0.40595802664756775, 0.2693755328655243, 0.39587703347206116, 0.5832963585853577, 0.6635915040969849, 0.3837551176548004, 0.7631213068962097, 0.2810218930244446, 0.16282044351100922, 0.23817886412143707, 0.27709901332855225, 0.35908427834510803, 0.3584669530391693, 0.3424220085144043, 0.2609708607196808, 0.2857266664505005, 0.462247759103775, 0.43432140350341797, 0.3233219385147095, 0.23282413184642792, 0.13414698839187622, 0.09069909900426865, 0.11467386782169342, 0.07374216616153717, 0.10710117220878601, 0.11899159103631973, 0.14117711782455444, 0.1789400279521942, 0.2249743491411209, 0.13850755989551544, 0.2135300487279892, 0.2061798870563507, 0.19050176441669464, 0.3256603479385376, 0.3054114580154419, 0.3538440763950348, 0.35121577978134155, 0.288811057806015, 0.267393559217453, 0.20879259705543518, 0.20177724957466125, 0.12736506760120392, 0.12718330323696136, 0.11454451829195023, 0.17754529416561127, 0.06923419237136841, 0.11616451293230057, 0.17581316828727722, 0.15510161221027374, 0.27675989270210266, 0.3389606773853302, 0.22365984320640564, 0.2458469271659851, 0.218499556183815, 0.33267518877983093, 0.340482622385025, 0.33059507608413696, 0.23832553625106812, 0.24382974207401276, 0.189014732837677, 0.23074959218502045, 0.17233315110206604, 0.15956228971481323, 0.11616106331348419, 0.10837920010089874, 0.05552181974053383, 0.09940437227487564, 0.1258392333984375, 0.12254378944635391, 0.12105166167020798, 0.2926200032234192, 0.2796458899974823, 0.25181952118873596, 0.37366655468940735, 0.25237029790878296, 0.15250161290168762, 0.20355454087257385, 0.31985557079315186, 0.15259914100170135, 0.21718238294124603, 0.13691334426403046, 0.13693974912166595]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.7214299440383911</v>
+        <v>0.8462887406349182</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.8171618999913335</v>
+        <v>0.8026910000044154</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00583687071422381</v>
+        <v>0.005733507142888681</v>
       </c>
     </row>
     <row r="37">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.12113554775714874, 0.04746135696768761, 0.06137320399284363, 0.09471186995506287, 0.08567395061254501, 0.03622647374868393, 0.057731639593839645, 0.08428768068552017, 0.07021676748991013, 0.13896016776561737, 0.08646755665540695, 0.07471176236867905, 0.13686861097812653, 0.06862911581993103, 0.09564252197742462, 0.10542681813240051, 0.19042733311653137, 0.6633092164993286, 0.3510204553604126, 0.04340783506631851, 0.12094221264123917, 0.08246231079101562, 0.19304676353931427, 0.08255641907453537, 0.053289491683244705, 0.026247616857290268, 0.05708359181880951, 0.10924028605222702, 0.0894862711429596, 0.12367287278175354, 0.155290886759758, 0.08724892884492874, 0.0858808308839798, 0.09147253632545471, 0.19372189044952393, 0.04959926754236221, 0.09491125494241714, 0.06041129305958748, 0.05920178070664406, 0.10635045170783997, 0.0630650594830513, 0.10370101034641266, 0.08718744665384293, 0.09809695929288864, 0.09264075011014938, 0.029000235721468925, 0.03804609552025795, 0.03971964120864868, 0.03566791117191315, 0.02885187603533268, 0.07748180627822876, 0.13394314050674438, 0.09812889993190765, 0.043599583208560944, 0.042024966329336166, 0.08599485456943512, 0.13780589401721954, 0.21651937067508698, 0.08049457520246506, 0.0387687012553215, 0.06789040565490723, 0.05900650843977928, 0.048570990562438965, 0.06854651868343353, 0.10414590686559677, 0.03716080263257027, 0.034062374383211136, 0.03897479921579361, 0.08157818764448166, 0.040496617555618286, 0.14734795689582825, 0.3600185215473175, 0.11966364830732346, 0.17506293952465057, 0.11115341633558273, 0.2872593104839325, 0.30313408374786377, 0.10553640872240067, 0.08074972778558731, 0.4400870203971863, 0.24226579070091248, 0.11624637246131897, 0.08927479386329651, 0.061570391058921814, 0.10605504363775253, 0.09783506393432617, 0.08093683421611786, 0.0652984082698822, 0.07998032867908478, 0.12034717202186584, 0.10651282221078873, 0.0755419209599495, 0.0500650629401207, 0.1397222876548767, 0.11251659691333771, 0.11071948707103729, 0.07155928015708923, 0.03734496235847473, 0.04938485473394394, 0.09609250724315643, 0.06832318753004074, 0.09516917914152145, 0.07978610694408417, 0.1065259650349617, 0.12410462647676468, 0.08662233501672745, 0.12929631769657135, 0.14971110224723816, 0.1311071664094925, 0.18221677839756012, 0.07542045414447784, 0.1169622465968132, 0.09567149728536606, 0.12303914874792099, 0.14750929176807404, 0.1322275698184967, 0.16205686330795288, 0.18936848640441895, 0.09094148129224777, 0.03863033652305603, 0.07710804045200348, 0.19515761733055115, 0.08689045906066895, 0.06864086538553238, 0.10033664107322693, 0.02817475236952305, 0.05133015662431717, 0.12015973776578903, 0.026920240372419357, 0.07130423933267593, 0.05248776078224182, 0.06584490835666656, 0.17923405766487122, 0.15202142298221588, 0.1053561121225357, 0.1260797083377838, 0.21050815284252167, 0.20726126432418823, 0.2070242166519165]</t>
+          <t>[0.11643841862678528, 0.03305792063474655, 0.07806432992219925, 0.10889256000518799, 0.06348592787981033, 0.028305521234869957, 0.05579192191362381, 0.12499824911355972, 0.08486423641443253, 0.2030641883611679, 0.10829265415668488, 0.10787296295166016, 0.27976423501968384, 0.10103282332420349, 0.13508228957653046, 0.11811870336532593, 0.32634708285331726, 0.798825204372406, 0.4853067994117737, 0.03049512580037117, 0.1411299854516983, 0.09060661494731903, 0.3010999858379364, 0.10967346280813217, 0.07850565016269684, 0.034236833453178406, 0.07911834865808487, 0.17809858918190002, 0.11762639135122299, 0.16746056079864502, 0.1760314702987671, 0.08370985835790634, 0.0686628669500351, 0.07896069437265396, 0.278677761554718, 0.05253332480788231, 0.11200247704982758, 0.06570031493902206, 0.05726461485028267, 0.11691730469465256, 0.04337857663631439, 0.08468969911336899, 0.07561200112104416, 0.08568671345710754, 0.08268112689256668, 0.019725153222680092, 0.028388801962137222, 0.028783120214939117, 0.026954900473356247, 0.021279411390423775, 0.07515014708042145, 0.10925556719303131, 0.09164729714393616, 0.03025876358151436, 0.024820350110530853, 0.04921169579029083, 0.07902633398771286, 0.11656254529953003, 0.03978025168180466, 0.02043069712817669, 0.050777506083250046, 0.0388743095099926, 0.02874802239239216, 0.043679527938365936, 0.07757174968719482, 0.018182771280407906, 0.015026882290840149, 0.024016330018639565, 0.10152705013751984, 0.026882389560341835, 0.09744822233915329, 0.3481132686138153, 0.059125546365976334, 0.14058786630630493, 0.08261505514383316, 0.43090319633483887, 0.35810360312461853, 0.09394553303718567, 0.03890552744269371, 0.41681918501853943, 0.337586373090744, 0.11075740307569504, 0.09779737889766693, 0.07418204843997955, 0.11001096665859222, 0.08249013125896454, 0.07661878317594528, 0.05787990242242813, 0.0713774785399437, 0.12507060170173645, 0.13784368336200714, 0.08576814830303192, 0.04390381649136543, 0.18210190534591675, 0.09673470258712769, 0.12050823867321014, 0.08515174686908722, 0.03671913594007492, 0.03983089700341225, 0.08469536900520325, 0.05482299625873566, 0.11518839001655579, 0.08420984447002411, 0.10778867453336716, 0.11558903008699417, 0.08952189236879349, 0.1273500770330429, 0.14473718404769897, 0.11061510443687439, 0.18860122561454773, 0.0737924724817276, 0.0838429406285286, 0.06964783370494843, 0.10227327048778534, 0.06971883773803711, 0.10345222055912018, 0.12498603761196136, 0.12584495544433594, 0.06540220975875854, 0.026164207607507706, 0.09434650093317032, 0.22387810051441193, 0.08058758825063705, 0.05016760155558586, 0.09651713818311691, 0.01568075828254223, 0.021600786596536636, 0.08000845462083817, 0.010197347030043602, 0.03814443573355675, 0.03224518895149231, 0.042010609060525894, 0.16226908564567566, 0.11385780572891235, 0.10066764801740646, 0.13008108735084534, 0.2873912453651428, 0.3087368309497833, 0.3078857660293579]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6633092164993286</v>
+        <v>0.798825204372406</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.806931800005259</v>
+        <v>0.7895684999966761</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005805264748239274</v>
+        <v>0.005680348920839396</v>
       </c>
     </row>
     <row r="38">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.30561238527297974, 0.25169429183006287, 0.5448563694953918, 0.664996862411499, 0.5173484683036804, 0.1421465426683426, 0.20895646512508392, 0.25960156321525574, 0.08183083683252335, 0.20569071173667908, 0.13175104558467865, 0.16221418976783752, 0.09502696990966797, 0.07895360141992569, 0.06294921785593033, 0.058745477348566055, 0.04187730327248573, 0.08072376996278763, 0.15183064341545105, 0.0632675290107727, 0.03084787353873253, 0.07309088855981827, 0.08992289751768112, 0.15458256006240845, 0.08484946191310883, 0.06483680754899979, 0.3019297420978546, 0.1528574824333191, 0.14933118224143982, 0.12038151174783707, 0.08277009427547455, 0.09920613467693329, 0.19860216975212097, 0.08702530711889267, 0.0764622911810875, 0.14448946714401245, 0.18229418992996216, 0.18692615628242493, 0.10680130869150162, 0.11180972307920456, 0.18479031324386597, 0.15968304872512817, 0.13539156317710876, 0.2269841730594635, 0.13595348596572876, 0.06584569811820984, 0.08850856870412827, 0.09591366350650787, 0.10095781832933426, 0.10656539350748062, 0.48218581080436707, 0.13185007870197296, 0.12953099608421326, 0.1135365441441536, 0.1001039445400238, 0.0892120897769928, 0.05718718096613884, 0.08358171582221985, 0.09721851348876953, 0.14998848736286163, 0.10966581851243973, 0.07893490046262741, 0.10878469049930573, 0.19917909801006317, 0.15695272386074066, 0.05039701983332634, 0.06089501455426216, 0.10683635622262955, 0.164938822388649, 0.4049283266067505, 0.2026611566543579, 0.20722021162509918, 0.18224109709262848, 0.3027780055999756, 0.3378989100456238, 0.16557589173316956, 0.4127466678619385, 0.28125011920928955, 0.1579066514968872, 0.15227842330932617, 0.1465746909379959, 0.13681058585643768, 0.11156455427408218, 0.4118790924549103, 0.3449816405773163, 0.1413590908050537, 0.09723662585020065, 0.11393017321825027, 0.13652829825878143, 0.051279760897159576, 0.1173025518655777, 0.1157415360212326, 0.19244734942913055, 0.051628440618515015, 0.07574039697647095, 0.05480955168604851, 0.0581403411924839, 0.08002720028162003, 0.04614996165037155, 0.07534722983837128, 0.045988377183675766, 0.1897163987159729, 0.14838595688343048, 0.05152636766433716, 0.06725269556045532, 0.16440872848033905, 0.1564648300409317, 0.0787193551659584, 0.038592878729104996, 0.06329068541526794, 0.036367904394865036, 0.10119664669036865, 0.06316974759101868, 0.06713413447141647, 0.16760535538196564, 0.07018609344959259, 0.08165019005537033, 0.04909906163811684, 0.19832220673561096, 0.17605958878993988, 0.26580414175987244, 0.42989304661750793, 0.2719987630844116, 0.2649138271808624, 0.25444722175598145, 0.21326151490211487, 0.22997944056987762, 0.1678413599729538, 0.11631973087787628, 0.14630122482776642, 0.09533654898405075, 0.09128328412771225, 0.09715336561203003, 0.11942270398139954, 0.06933986395597458, 0.09284637868404388, 0.14385344088077545, 0.14467458426952362, 0.14521178603172302]</t>
+          <t>[0.677726149559021, 0.43157026171684265, 0.6702448129653931, 0.764992356300354, 0.7011065483093262, 0.21087899804115295, 0.315827876329422, 0.323056697845459, 0.08451998233795166, 0.1874120980501175, 0.11986008286476135, 0.11239481717348099, 0.04810253530740738, 0.04577943682670593, 0.04135676845908165, 0.035858068615198135, 0.025273052975535393, 0.060150034725666046, 0.12257905304431915, 0.05470975115895271, 0.014640958048403263, 0.045861873775720596, 0.06794778257608414, 0.1257171928882599, 0.05886424705386162, 0.046853259205818176, 0.4011724889278412, 0.1000550240278244, 0.0905952975153923, 0.11009007692337036, 0.09157142043113708, 0.09334587305784225, 0.18508198857307434, 0.07182436436414719, 0.07017265260219574, 0.1618901938199997, 0.2788372337818146, 0.29216015338897705, 0.1269761025905609, 0.14754873514175415, 0.3006189465522766, 0.20978489518165588, 0.11972930282354355, 0.22879354655742645, 0.11480756849050522, 0.051592063158750534, 0.08609407395124435, 0.09129667282104492, 0.07043467462062836, 0.11175251007080078, 0.7383527159690857, 0.18333987891674042, 0.141610249876976, 0.08526811003684998, 0.0947212353348732, 0.11452019214630127, 0.049688007682561874, 0.06739424169063568, 0.06903305649757385, 0.20148859918117523, 0.0952632874250412, 0.061966635286808014, 0.07670898735523224, 0.2201470583677292, 0.20964273810386658, 0.036228373646736145, 0.03823581710457802, 0.11294464766979218, 0.2995947003364563, 0.6726392507553101, 0.365872323513031, 0.32755425572395325, 0.23204870522022247, 0.44693857431411743, 0.37518468499183655, 0.15121877193450928, 0.5174526572227478, 0.33538225293159485, 0.17149300873279572, 0.18889480829238892, 0.22226449847221375, 0.18091444671154022, 0.09123338013887405, 0.6553508639335632, 0.5061885118484497, 0.18508918583393097, 0.07581356167793274, 0.10947386175394058, 0.11300625652074814, 0.03555331379175186, 0.08610212057828903, 0.08732648193836212, 0.22151419520378113, 0.03753135725855827, 0.13564276695251465, 0.0282808318734169, 0.03845562785863876, 0.0766000747680664, 0.024873532354831696, 0.04357493296265602, 0.022461548447608948, 0.23617124557495117, 0.15554583072662354, 0.037188366055488586, 0.10020051151514053, 0.16143223643302917, 0.1813354790210724, 0.055488139390945435, 0.02323836460709572, 0.053463973104953766, 0.024013366550207138, 0.06435605883598328, 0.042341962456703186, 0.06720315665006638, 0.22642864286899567, 0.05999814718961716, 0.0971694216132164, 0.043635208159685135, 0.297960489988327, 0.15650899708271027, 0.39704611897468567, 0.6499039530754089, 0.43076372146606445, 0.3986927568912506, 0.3990703821182251, 0.38970670104026794, 0.4306226968765259, 0.2146153599023819, 0.12532348930835724, 0.13529744744300842, 0.07842467725276947, 0.07983380556106567, 0.11320998519659042, 0.1200014129281044, 0.05033168941736221, 0.08909127116203308, 0.14214415848255157, 0.11331067234277725, 0.11374584585428238]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.664996862411499</v>
+        <v>0.764992356300354</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.7890813999983948</v>
+        <v>0.7830641000036849</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005676844604304999</v>
+        <v>0.005633554676285502</v>
       </c>
     </row>
     <row r="39">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.10401265323162079, 0.17924150824546814, 0.13497212529182434, 0.14906129240989685, 0.13644061982631683, 0.14200524985790253, 0.14647850394248962, 0.06182441487908363, 0.040281619876623154, 0.08341922610998154, 0.05358484387397766, 0.1629372239112854, 0.11765202134847641, 0.08724332600831985, 0.03741760551929474, 0.014619646593928337, 0.02811299078166485, 0.04696858674287796, 0.09616291522979736, 0.037074532359838486, 0.03942819684743881, 0.09427512437105179, 0.07362110167741776, 0.06917361915111542, 0.04428546503186226, 0.03891298174858093, 0.034537721425294876, 0.08215059340000153, 0.08029014617204666, 0.052779871970415115, 0.06691702455282211, 0.06808459758758545, 0.0867689773440361, 0.0546952523291111, 0.08196327835321426, 0.07645253092050552, 0.10262808948755264, 0.04730957746505737, 0.12099066376686096, 0.12191641330718994, 0.20371970534324646, 0.038847874850034714, 0.07796044647693634, 0.08876831084489822, 0.22219820320606232, 0.16230787336826324, 0.08299580216407776, 0.051700375974178314, 0.02311915159225464, 0.022447412833571434, 0.023249000310897827, 0.020138373598456383, 0.026816194877028465, 0.022196875885128975, 0.03399726375937462, 0.06286046653985977, 0.04588647931814194, 0.03987954184412956, 0.04888555407524109, 0.03661876171827316, 0.026303473860025406, 0.02786966972053051, 0.045390237122774124, 0.036688514053821564, 0.03973057121038437, 0.029810957610607147, 0.044109124690294266, 0.0779130682349205, 0.12230364233255386, 0.1234421655535698, 0.08329501748085022, 0.12543484568595886, 0.09947102516889572, 0.05089712142944336, 0.05856671556830406, 0.06359480321407318, 0.09150773286819458, 0.11465226858854294, 0.16057153046131134, 0.1688329577445984, 0.17447924613952637, 0.25645068287849426, 0.24989396333694458, 0.2611147463321686, 0.4724893271923065, 0.26158034801483154, 0.2897430658340454, 0.17765484750270844, 0.36659151315689087, 0.1644142121076584, 0.13827373087406158, 0.12915314733982086, 0.1852750927209854, 0.1006360724568367, 0.1175614446401596, 0.16066525876522064, 0.15144680440425873, 0.262604683637619, 0.36556336283683777, 0.14775028824806213, 0.16396033763885498, 0.15293286740779877, 0.09763164818286896, 0.1382569521665573, 0.17555440962314606, 0.1037401631474495, 0.13222679495811462, 0.16174523532390594, 0.27661824226379395, 0.146951362490654, 0.22427847981452942, 0.2654147446155548, 0.10903044790029526, 0.14728675782680511, 0.11989255994558334, 0.15088610351085663, 0.06569108366966248, 0.0790453627705574, 0.1018955186009407, 0.0916367620229721, 0.06367910653352737, 0.05474252998828888, 0.05251464992761612, 0.1394098550081253, 0.21490871906280518, 0.08087734878063202, 0.06878859549760818, 0.07642751932144165, 0.07471024245023727, 0.05418294295668602, 0.06316421926021576, 0.12542854249477386, 0.14509165287017822, 0.1066310703754425, 0.16821296513080597, 0.10448689013719559, 0.10236842930316925, 0.11716458946466446, 0.3855029046535492, 0.38548776507377625]</t>
+          <t>[0.14895261824131012, 0.21798601746559143, 0.13321083784103394, 0.2457868754863739, 0.20964224636554718, 0.24727565050125122, 0.29371511936187744, 0.13552147150039673, 0.08412151038646698, 0.20162270963191986, 0.08663557469844818, 0.35772019624710083, 0.16030895709991455, 0.1665390580892563, 0.04247409105300903, 0.0108884172514081, 0.03061932884156704, 0.06911599636077881, 0.14866800606250763, 0.04950602352619171, 0.04563044384121895, 0.13647881150245667, 0.16293030977249146, 0.11917469650506973, 0.06150902807712555, 0.05394812673330307, 0.0429067462682724, 0.08943696320056915, 0.1296592354774475, 0.06529386341571808, 0.09999383985996246, 0.08780384808778763, 0.11045119166374207, 0.07492220401763916, 0.13708308339118958, 0.10630182921886444, 0.2747901678085327, 0.09629522264003754, 0.2868213355541229, 0.1820666342973709, 0.2781257927417755, 0.03789703547954559, 0.0701613649725914, 0.1466459184885025, 0.49933549761772156, 0.29602527618408203, 0.15489493310451508, 0.09861859679222107, 0.0316661037504673, 0.025044014677405357, 0.027013594284653664, 0.027226056903600693, 0.047043897211551666, 0.02994193136692047, 0.03768470138311386, 0.09222956746816635, 0.09075441211462021, 0.0477171391248703, 0.053940750658512115, 0.03982097655534744, 0.031230013817548752, 0.03367381915450096, 0.07896315306425095, 0.06894713640213013, 0.07865312695503235, 0.0583006925880909, 0.08040176331996918, 0.17576630413532257, 0.2095581293106079, 0.21093931794166565, 0.12825313210487366, 0.15680988132953644, 0.15946510434150696, 0.06683332473039627, 0.07289305329322815, 0.09489516168832779, 0.16994278132915497, 0.22168302536010742, 0.2766464054584503, 0.372286856174469, 0.3337550461292267, 0.41974401473999023, 0.3584049344062805, 0.39131057262420654, 0.6733905673027039, 0.4314635694026947, 0.455879807472229, 0.25421565771102905, 0.5384582877159119, 0.271697461605072, 0.21795640885829926, 0.25543883442878723, 0.3212997019290924, 0.14432238042354584, 0.18427415192127228, 0.3157873749732971, 0.20722812414169312, 0.41659876704216003, 0.527542233467102, 0.18594683706760406, 0.18577775359153748, 0.1931876540184021, 0.10371054708957672, 0.2023775577545166, 0.25200435519218445, 0.15888282656669617, 0.2093581259250641, 0.3054467737674713, 0.47807776927948, 0.23763340711593628, 0.3591366708278656, 0.49442189931869507, 0.19032759964466095, 0.2502461373806, 0.2171584814786911, 0.259684294462204, 0.08936233073472977, 0.0780521109700203, 0.10538720339536667, 0.07506341487169266, 0.07960385829210281, 0.07105138897895813, 0.05982218682765961, 0.1516137421131134, 0.2918391525745392, 0.13744774460792542, 0.11206251382827759, 0.13995684683322906, 0.1323346197605133, 0.09024979919195175, 0.09527245163917542, 0.19929936528205872, 0.20678295195102692, 0.13086330890655518, 0.1903255730867386, 0.12646880745887756, 0.14092393219470978, 0.14594736695289612, 0.45381486415863037, 0.453916072845459]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.4724893271923065</v>
+        <v>0.6733905673027039</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.8021680000238121</v>
+        <v>0.7928284999943571</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005729771428741514</v>
+        <v>0.005663060714245408</v>
       </c>
     </row>
     <row r="40">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.3055575489997864, 0.3149644136428833, 0.15880796313285828, 0.08718717843294144, 0.2144821733236313, 0.16223189234733582, 0.10231758654117584, 0.2176424264907837, 0.1381988227367401, 0.17319072782993317, 0.189120814204216, 0.26865440607070923, 0.21412324905395508, 0.27996543049812317, 0.20431344211101532, 0.1423940509557724, 0.17549996078014374, 0.18616636097431183, 0.15263186395168304, 0.047234516590833664, 0.27044475078582764, 0.1392415463924408, 0.09256789833307266, 0.21536840498447418, 0.1451633721590042, 0.2061752825975418, 0.15442515909671783, 0.07210444658994675, 0.04809454455971718, 0.0524938702583313, 0.0645897388458252, 0.06344421207904816, 0.10908062756061554, 0.08919394761323929, 0.18664422631263733, 0.1853850781917572, 0.15633969008922577, 0.28005608916282654, 0.15199868381023407, 0.0627177506685257, 0.06797826290130615, 0.14147190749645233, 0.15026605129241943, 0.15127944946289062, 0.1025753766298294, 0.09671615809202194, 0.10157332569360733, 0.09039035439491272, 0.07421640306711197, 0.09691665321588516, 0.10765239596366882, 0.07060548663139343, 0.07516692578792572, 0.1648530662059784, 0.2498478889465332, 0.28440138697624207, 0.22754134237766266, 0.14543494582176208, 0.2241641730070114, 0.356367826461792, 0.37534579634666443, 0.19390958547592163, 0.15985102951526642, 0.07017754763364792, 0.12818868458271027, 0.14330680668354034, 0.11589725315570831, 0.10047105699777603, 0.05896831676363945, 0.14625437557697296, 0.11485251039266586, 0.07654792815446854, 0.061654068529605865, 0.07217974215745926, 0.056435368955135345, 0.0709344744682312, 0.12421027570962906, 0.1484660804271698, 0.13620240986347198, 0.1625421792268753, 0.18308769166469574, 0.11523085087537766, 0.20511466264724731, 0.19828081130981445, 0.16543009877204895, 0.10312463343143463, 0.1458595246076584, 0.13749724626541138, 0.05786409601569176, 0.11839527636766434, 0.11457888782024384, 0.08291106671094894, 0.0776413232088089, 0.05594721436500549, 0.09899987280368805, 0.06742965430021286, 0.07216203957796097, 0.14761076867580414, 0.12274385243654251, 0.2218155562877655, 0.2939402163028717, 0.40387287735939026, 0.14638639986515045, 0.13746684789657593, 0.22586144506931305, 0.15049616992473602, 0.09309109300374985, 0.1466442197561264, 0.18009059131145477, 0.18295744061470032, 0.16319629549980164, 0.16930373013019562, 0.15837131440639496, 0.10318391770124435, 0.3808658719062805, 0.2536275386810303, 0.21162931621074677, 0.1610119342803955, 0.2268478125333786, 0.14685893058776855, 0.09608104079961777, 0.08703745156526566, 0.05315811559557915, 0.07252144813537598, 0.13556411862373352, 0.09049379825592041, 0.07842126488685608, 0.07941823452711105, 0.22186000645160675, 0.13237541913986206, 0.12772928178310394, 0.08846130222082138, 0.2198266237974167, 0.1371031552553177, 0.3231699764728546, 0.23964014649391174, 0.21465769410133362, 0.1125379353761673, 0.115145742893219]</t>
+          <t>[0.49521708488464355, 0.4330376088619232, 0.2455638200044632, 0.09920728206634521, 0.2787267565727234, 0.1844230592250824, 0.10355011373758316, 0.2771622836589813, 0.19372473657131195, 0.1417488306760788, 0.15888382494449615, 0.2143758088350296, 0.16667328774929047, 0.22146454453468323, 0.14606793224811554, 0.10877380520105362, 0.18034738302230835, 0.1580190509557724, 0.15392817556858063, 0.0369805246591568, 0.2727614939212799, 0.12652601301670074, 0.08455237746238708, 0.20924757421016693, 0.2155875712633133, 0.3130296468734741, 0.18336234986782074, 0.06999870389699936, 0.03899765387177467, 0.0406399741768837, 0.0693017914891243, 0.07603821158409119, 0.13931399583816528, 0.09764543175697327, 0.13674138486385345, 0.16339781880378723, 0.13090786337852478, 0.3759634792804718, 0.175465926527977, 0.05817119777202606, 0.061630185693502426, 0.14821073412895203, 0.1524166762828827, 0.1720840036869049, 0.10233138501644135, 0.10633767396211624, 0.08668140321969986, 0.0812588781118393, 0.06461974233388901, 0.11506343632936478, 0.15864568948745728, 0.09510357677936554, 0.10200831294059753, 0.19154447317123413, 0.2968313694000244, 0.31756284832954407, 0.2966628968715668, 0.1617724746465683, 0.2777644693851471, 0.4169365465641022, 0.5396524667739868, 0.29138830304145813, 0.16463854908943176, 0.06932882219552994, 0.13121812045574188, 0.13788002729415894, 0.08536133170127869, 0.08922135084867477, 0.057696372270584106, 0.2122584730386734, 0.11808434128761292, 0.06387317180633545, 0.04401106759905815, 0.047797687351703644, 0.04853007569909096, 0.061049576848745346, 0.16361278295516968, 0.1769160032272339, 0.19101615250110626, 0.27295583486557007, 0.2358165830373764, 0.14155322313308716, 0.2737566828727722, 0.212214395403862, 0.21844130754470825, 0.10451899468898773, 0.14025796949863434, 0.18267294764518738, 0.0576278418302536, 0.13116540014743805, 0.10084112733602524, 0.05443445220589638, 0.05692296847701073, 0.03720667585730553, 0.08415976166725159, 0.04483344405889511, 0.03710929676890373, 0.08925677835941315, 0.10260489583015442, 0.16018708050251007, 0.2963612675666809, 0.43169811367988586, 0.07956069707870483, 0.08040963858366013, 0.16443219780921936, 0.13882984220981598, 0.08681294322013855, 0.2225704938173294, 0.2540053427219391, 0.2907123863697052, 0.19530221819877625, 0.29578736424446106, 0.2572707235813141, 0.11762908846139908, 0.4763585925102234, 0.3583405017852783, 0.25405463576316833, 0.24079066514968872, 0.3314460813999176, 0.1879163235425949, 0.11478845030069351, 0.10182223469018936, 0.05368271842598915, 0.05761968344449997, 0.11845294386148453, 0.062451038509607315, 0.0589325837790966, 0.07094337791204453, 0.27730560302734375, 0.13109058141708374, 0.1703396737575531, 0.07797285914421082, 0.28186798095703125, 0.13907448947429657, 0.3644995391368866, 0.26616084575653076, 0.20793618261814117, 0.09885028749704361, 0.10148635506629944]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.4038728773593903</v>
+        <v>0.5396524667739868</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.7909581999992952</v>
+        <v>0.7934846999996807</v>
       </c>
       <c r="J40" t="n">
-        <v>0.005690346762584857</v>
+        <v>0.005708523021580437</v>
       </c>
     </row>
     <row r="41">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.03296458721160889, 0.043767910450696945, 0.04665768891572952, 0.07333299517631531, 0.06292937695980072, 0.06875476986169815, 0.06813015043735504, 0.0733385682106018, 0.0525193065404892, 0.06119643151760101, 0.06579776108264923, 0.05263189971446991, 0.03384537994861603, 0.025569966062903404, 0.02460627444088459, 0.03956359252333641, 0.04550187662243843, 0.06058347970247269, 0.08688928931951523, 0.05932806059718132, 0.058568183332681656, 0.05509224161505699, 0.08611820638179779, 0.07833356410264969, 0.08785416185855865, 0.1116626113653183, 0.104684017598629, 0.08768422901630402, 0.0715283676981926, 0.06816702336072922, 0.0459272675216198, 0.04485354200005531, 0.04311739280819893, 0.03673730045557022, 0.04425780847668648, 0.05617035552859306, 0.057035692036151886, 0.06620398908853531, 0.07309041172266006, 0.09118686616420746, 0.0970277488231659, 0.1183711588382721, 0.10356418788433075, 0.07620998471975327, 0.06381364911794662, 0.08780980855226517, 0.10673271119594574, 0.10213387757539749, 0.07735691964626312, 0.0735526829957962, 0.04478049650788307, 0.09898190200328827, 0.12263669818639755, 0.07051300257444382, 0.0879659652709961, 0.06076613813638687, 0.04475780576467514, 0.05868259444832802, 0.06020687147974968, 0.051095012575387955, 0.07014533132314682, 0.0824207291007042, 0.07220345735549927, 0.04451939836144447, 0.04163695126771927, 0.04742133989930153, 0.048095472157001495, 0.0641075000166893, 0.08434812724590302, 0.08608537912368774, 0.08697137236595154, 0.0849430188536644, 0.08471931517124176, 0.05127571523189545, 0.06242673099040985, 0.07261599600315094, 0.06828261911869049, 0.050169579684734344, 0.08013560622930527, 0.08350203931331635, 0.07613147795200348, 0.058223310858011246, 0.05522383749485016, 0.04854371026158333, 0.06065772473812103, 0.032640762627124786, 0.05098932236433029, 0.046778999269008636, 0.08974984288215637, 0.1367037445306778, 0.10750369727611542, 0.10357427597045898, 0.09599651396274567, 0.08168280124664307, 0.07760700583457947, 0.12860974669456482, 0.20493219792842865, 0.299956738948822, 0.10583419352769852, 0.18741920590400696, 0.315464049577713, 0.41439470648765564, 0.3118860721588135, 0.15288540720939636, 0.05488962680101395, 0.05116388201713562, 0.1282745748758316, 0.08929430693387985, 0.03998103365302086, 0.0356915108859539, 0.044632136821746826, 0.06760501116514206, 0.12760426104068756, 0.2034190595149994, 0.5002795457839966, 0.571638286113739, 0.2643764913082123, 0.16891586780548096, 0.09580408036708832, 0.2830643653869629, 0.45657819509506226, 0.46816402673721313, 0.4300612211227417, 0.3011891841888428, 0.18728920817375183, 0.19087809324264526, 0.4018018841743469, 0.35516223311424255, 0.2932839095592499, 0.29601210355758667, 0.21208208799362183, 0.3577226400375366, 0.4470171332359314, 0.36936983466148376, 0.3082897961139679, 0.4272027611732483, 0.29932910203933716, 0.22536703944206238, 0.1212838739156723, 0.13427680730819702, 0.16005663573741913, 0.35831961035728455, 0.2840532958507538, 0.3112122416496277, 0.26686662435531616, 0.25292837619781494, 0.23052078485488892, 0.2144155502319336, 0.2577839493751526, 0.39733389019966125, 0.4354703426361084, 0.2880145013332367, 0.29312679171562195, 0.3327651619911194, 0.3226681351661682, 0.2850683629512787, 0.28547245264053345]</t>
+          <t>[0.006646820809692144, 0.008857488632202148, 0.009529993869364262, 0.01543401274830103, 0.01498864870518446, 0.01749366708099842, 0.018041087314486504, 0.021440012380480766, 0.014568799175322056, 0.0196818970143795, 0.017468556761741638, 0.01527221780270338, 0.010391226969659328, 0.007222113199532032, 0.005583655089139938, 0.007740008179098368, 0.008700775913894176, 0.013665303587913513, 0.026713311672210693, 0.017330285161733627, 0.01368708349764347, 0.012690817005932331, 0.021949032321572304, 0.018736960366368294, 0.020474469289183617, 0.027193833142518997, 0.02538597211241722, 0.020204491913318634, 0.02016153559088707, 0.020208340138196945, 0.013982612639665604, 0.011840175837278366, 0.010762568563222885, 0.009512200951576233, 0.012730305083096027, 0.01539059728384018, 0.014176738448441029, 0.017161887139081955, 0.0216129869222641, 0.02680659480392933, 0.02314176596701145, 0.02761787734925747, 0.025097407400608063, 0.01992214471101761, 0.016524210572242737, 0.026108717545866966, 0.02576717734336853, 0.02519124187529087, 0.02076055109500885, 0.021568527445197105, 0.009330499917268753, 0.029966894537210464, 0.035158704966306686, 0.01578325591981411, 0.019031794741749763, 0.010870416648685932, 0.00827800389379263, 0.012684193439781666, 0.015050403773784637, 0.011443771421909332, 0.012662469409406185, 0.01641008071601391, 0.012053058482706547, 0.009009245783090591, 0.008569711819291115, 0.010961840860545635, 0.010929196141660213, 0.018297990784049034, 0.019950002431869507, 0.02215549722313881, 0.021645115688443184, 0.023752471432089806, 0.0209170151501894, 0.01283686701208353, 0.01531222090125084, 0.01518076378852129, 0.015368444845080376, 0.009503209963440895, 0.014872665517032146, 0.017071837559342384, 0.016481950879096985, 0.014201115816831589, 0.013123592361807823, 0.011869875714182854, 0.014849288389086723, 0.007213919423520565, 0.01005648821592331, 0.00955885834991932, 0.02624407410621643, 0.038057658821344376, 0.024533919990062714, 0.021303292363882065, 0.020635588094592094, 0.020133178681135178, 0.018338553607463837, 0.044037796556949615, 0.10200519114732742, 0.2024385780096054, 0.0448022224009037, 0.19659452140331268, 0.45176607370376587, 0.48204612731933594, 0.338792622089386, 0.05381374806165695, 0.017416207119822502, 0.021482331678271294, 0.05749103054404259, 0.04329948127269745, 0.01387949287891388, 0.010061987675726414, 0.014615059830248356, 0.021423697471618652, 0.03540103882551193, 0.07216180115938187, 0.31585463881492615, 0.5209299921989441, 0.17856816947460175, 0.14145353436470032, 0.06005163863301277, 0.2754112482070923, 0.48929479718208313, 0.4925583302974701, 0.4820748567581177, 0.31349435448646545, 0.16685545444488525, 0.1376207321882248, 0.49478214979171753, 0.40902701020240784, 0.22570326924324036, 0.25712546706199646, 0.19783422350883484, 0.36669179797172546, 0.5158274173736572, 0.4016357362270355, 0.2977779507637024, 0.4739514887332916, 0.26738104224205017, 0.14479030668735504, 0.05061468482017517, 0.06515980511903763, 0.08051352947950363, 0.3111432194709778, 0.24133335053920746, 0.25039973855018616, 0.2206953912973404, 0.17023831605911255, 0.16555337607860565, 0.20036718249320984, 0.16805130243301392, 0.3755674958229065, 0.47429999709129333, 0.24029779434204102, 0.2096988409757614, 0.239168182015419, 0.2090296894311905, 0.2456309050321579, 0.2461027204990387]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.571638286113739</v>
+        <v>0.5209299921989441</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.9612139999808278</v>
+        <v>1.025216299996828</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00612238216548298</v>
+        <v>0.006530040127368329</v>
       </c>
     </row>
     <row r="42">
@@ -2205,11 +2205,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[0.11295498162508011, 0.12083719670772552, 0.10435269773006439, 0.1507738083600998, 0.1237136647105217, 0.09709206968545914, 0.14697644114494324, 0.1433616280555725, 0.1398375928401947, 0.1433202177286148, 0.1746712028980255, 0.1759853959083557, 0.11078783869743347, 0.12761074304580688, 0.12712401151657104, 0.10402073711156845, 0.08650191128253937, 0.14295966923236847, 0.10858284682035446, 0.1290818154811859, 0.13836771249771118, 0.12906751036643982, 0.2066129446029663, 0.15860462188720703, 0.12056858837604523, 0.12712231278419495, 0.1228756532073021, 0.12331095337867737, 0.09889587759971619, 0.1369890421628952, 0.12002064287662506, 0.13200898468494415, 0.11104279011487961, 0.07183679193258286, 0.06581892818212509, 0.06154278293251991, 0.05938725546002388, 0.05518995225429535, 0.049134477972984314, 0.06346223503351212, 0.05637665465474129, 0.045124076306819916, 0.0425727479159832, 0.04371272027492523, 0.061699703335762024, 0.05406437814235687, 0.07935000211000443, 0.06913169473409653, 0.07617945969104767, 0.08058706670999527, 0.057598311454057693, 0.05456480383872986, 0.07185791432857513, 0.07230473309755325, 0.08905280381441116, 0.08201650530099869, 0.10528876632452011, 0.11396287381649017, 0.1395350992679596, 0.12425769120454788, 0.14401407539844513, 0.175148606300354, 0.172016903758049, 0.14412575960159302, 0.17321191728115082, 0.14140388369560242, 0.1167302131652832, 0.12405819445848465, 0.1019752249121666, 0.08048167079687119, 0.06542763859033585, 0.1068163588643074, 0.09849098324775696, 0.09792058914899826, 0.18394580483436584, 0.1020432636141777, 0.09266459941864014, 0.1494101732969284, 0.17797988653182983, 0.1045072004199028, 0.0965832769870758, 0.1550840139389038, 0.16825470328330994, 0.1359964907169342, 0.12242364138364792, 0.10931634902954102, 0.13667599856853485, 0.11537166684865952, 0.1082528680562973, 0.08219022303819656, 0.09006664901971817, 0.08458774536848068, 0.07523678988218307, 0.053772587329149246, 0.08636372536420822, 0.07826539874076843, 0.11493372172117233, 0.10802468657493591, 0.17845164239406586, 0.14717428386211395, 0.11041301488876343, 0.11747889965772629, 0.14466847479343414, 0.11305322498083115, 0.1517924666404724, 0.1231076791882515, 0.1263791173696518, 0.10007365047931671, 0.08574913442134857, 0.0746915265917778, 0.09308630228042603, 0.11585519462823868, 0.08439800888299942, 0.12325913459062576, 0.11792279779911041, 0.08935145288705826, 0.08650418370962143, 0.12852516770362854, 0.12793870270252228, 0.12787237763404846, 0.1031775176525116, 0.10311166197061539, 0.09102596342563629, 0.09212835878133774, 0.08064981549978256, 0.11593408137559891, 0.16879379749298096, 0.18244649469852448, 0.1761607527732849, 0.17538589239120483, 0.1447739154100418, 0.13736285269260406, 0.13850726187229156, 0.17152848839759827, 0.11924970895051956, 0.11885598301887512, 0.1147330105304718, 0.0857769325375557, 0.08249202370643616, 0.12902645766735077, 0.09647918492555618, 0.07236421853303909, 0.09874579310417175, 0.07898055016994476, 0.08913391083478928, 0.0771842896938324, 0.09158442169427872, 0.08933272212743759, 0.08453349769115448, 0.07202811539173126, 0.06381169706583023, 0.08668554574251175, 0.10932662338018417, 0.15971840918064117, 0.21025601029396057, 0.2490379959344864, 0.2974894046783447, 0.29721778631210327]</t>
+          <t>[0.030284766107797623, 0.03372374549508095, 0.03378276526927948, 0.06379101425409317, 0.0517047643661499, 0.03531040623784065, 0.06650778651237488, 0.05218249186873436, 0.039287369698286057, 0.03600361570715904, 0.04403171315789223, 0.05183462053537369, 0.020009655505418777, 0.02817518822848797, 0.027655668556690216, 0.021599221974611282, 0.01865518093109131, 0.03908027708530426, 0.022330626845359802, 0.02907504513859749, 0.03629061579704285, 0.03334120288491249, 0.05510098114609718, 0.041464511305093765, 0.032011453062295914, 0.042060162872076035, 0.02895001880824566, 0.03139577805995941, 0.020442644134163857, 0.03045087493956089, 0.024409206584095955, 0.040531206876039505, 0.03395790606737137, 0.018422264605760574, 0.014959953725337982, 0.012859249487519264, 0.012980309315025806, 0.01057938951998949, 0.0093818549066782, 0.01173786073923111, 0.011114212684333324, 0.00860804133117199, 0.008685488253831863, 0.008843901567161083, 0.012335183098912239, 0.010020674206316471, 0.016755707561969757, 0.01821727491915226, 0.02005603536963463, 0.024320481345057487, 0.01521308347582817, 0.013650530017912388, 0.020943621173501015, 0.01824360154569149, 0.025662556290626526, 0.022974928840994835, 0.02807590924203396, 0.028452491387724876, 0.04129151999950409, 0.03428349643945694, 0.03585033118724823, 0.06731095165014267, 0.06916454434394836, 0.05315074697136879, 0.07885630428791046, 0.058302104473114014, 0.04023153707385063, 0.04695844277739525, 0.03022748790681362, 0.022346440702676773, 0.014073490165174007, 0.03214599937200546, 0.029570402577519417, 0.032694172114133835, 0.08739233016967773, 0.03145335242152214, 0.02417554333806038, 0.04906878247857094, 0.05462874472141266, 0.024197155609726906, 0.022210080176591873, 0.055368807166814804, 0.065218485891819, 0.03734726831316948, 0.02732366882264614, 0.023044344037771225, 0.036115195602178574, 0.024115364998579025, 0.023723484948277473, 0.017800303176045418, 0.020516086369752884, 0.017227236181497574, 0.016228467226028442, 0.012527337297797203, 0.026415295898914337, 0.016753066331148148, 0.03499728441238403, 0.02957114204764366, 0.05559266731142998, 0.03705080971121788, 0.02040128782391548, 0.026941992342472076, 0.03954583778977394, 0.027413781732320786, 0.0428830124437809, 0.03442548215389252, 0.0381057970225811, 0.033676039427518845, 0.026002559810876846, 0.020151570439338684, 0.020476067438721657, 0.024122321978211403, 0.01495087705552578, 0.03158818185329437, 0.030842524021863937, 0.023755742236971855, 0.01843482069671154, 0.03639021888375282, 0.03302270546555519, 0.030869362875819206, 0.02368769608438015, 0.024092962965369225, 0.022591738030314445, 0.02209036983549595, 0.019352823495864868, 0.028085729107260704, 0.045409899204969406, 0.05215909704566002, 0.0549660287797451, 0.06443065404891968, 0.04705800861120224, 0.042050354182720184, 0.05182519927620888, 0.0498800128698349, 0.030924752354621887, 0.024596774950623512, 0.036652930080890656, 0.0200660303235054, 0.015420909970998764, 0.029958821833133698, 0.018327273428440094, 0.015116941183805466, 0.025611143559217453, 0.01787988655269146, 0.019913962110877037, 0.016223710030317307, 0.024483857676386833, 0.020390145480632782, 0.0188592541962862, 0.013473814353346825, 0.012444795109331608, 0.019687367603182793, 0.03314685821533203, 0.057435665279626846, 0.08706951886415482, 0.10395125299692154, 0.10005541145801544, 0.09986497461795807]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2974894046783447</v>
+        <v>0.1039512529969215</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.8780972000095062</v>
+        <v>0.9030268999922555</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005557577215250039</v>
+        <v>0.005715360126533262</v>
       </c>
     </row>
     <row r="43">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[0.4941521883010864, 0.36570897698402405, 0.4119231104850769, 0.2509467303752899, 0.23513764142990112, 0.42793941497802734, 0.38954901695251465, 0.40348291397094727, 0.4099663496017456, 0.6132543087005615, 0.65227872133255, 0.49833905696868896, 0.5628719925880432, 0.4111723303794861, 0.28858646750450134, 0.21942850947380066, 0.28273749351501465, 0.4170421361923218, 0.3655071258544922, 0.33777064085006714, 0.37113380432128906, 0.25634148716926575, 0.2946544289588928, 0.3198927938938141, 0.3843044936656952, 0.6637343764305115, 0.6556363701820374, 0.6485334038734436, 0.38767769932746887, 0.2486075907945633, 0.17662319540977478, 0.17308619618415833, 0.15943606197834015, 0.31799110770225525, 0.3943541646003723, 0.4903583228588104, 0.3208169937133789, 0.4475690722465515, 0.5268570780754089, 0.49749723076820374, 0.43775877356529236, 0.4408749043941498, 0.31729885935783386, 0.26704078912734985, 0.3243297338485718, 0.3262852430343628, 0.2678363621234894, 0.3887642025947571, 0.34941336512565613, 0.32800930738449097, 0.2640398442745209, 0.3297230303287506, 0.34566980600357056, 0.39609354734420776, 0.43193548917770386, 0.6552382707595825, 0.39068618416786194, 0.24841797351837158, 0.21403078734874725, 0.2704876959323883, 0.30388885736465454, 0.3214806020259857, 0.3465716540813446, 0.2698838412761688, 0.23950786888599396, 0.28279149532318115, 0.2860977053642273, 0.21941246092319489, 0.173531174659729, 0.2024710327386856, 0.23430438339710236, 0.3324767053127289, 0.4970511496067047, 0.43710482120513916, 0.4042876958847046, 0.5669832825660706, 0.6349122524261475, 0.9057236909866333, 0.9095005393028259, 0.7666252255439758, 0.5801073312759399, 0.4395686984062195, 0.44096529483795166, 0.4340580701828003, 0.5163913369178772, 0.4121151268482208, 0.657899796962738, 0.557043194770813, 0.6214507222175598, 0.5058614611625671, 0.21891473233699799, 0.3122495114803314, 0.37485218048095703, 0.47671183943748474, 0.4936559796333313, 0.36525535583496094, 0.4388542175292969, 0.37518924474716187, 0.4193585216999054, 0.3704521358013153, 0.577917754650116, 0.6131188273429871, 0.48565873503685, 0.2474154382944107, 0.24125003814697266, 0.2283046841621399, 0.25778570771217346, 0.30508145689964294, 0.6382330060005188, 0.5497645139694214, 0.4736182689666748, 0.5456556677818298, 0.5426451563835144, 0.431148886680603, 0.6300971508026123, 0.47184035181999207, 0.43391233682632446, 0.45660892128944397, 0.4406120777130127, 0.4376824200153351, 0.3598305583000183, 0.27751854062080383, 0.4220954477787018, 0.4072088599205017, 0.3184358775615692, 0.4506773352622986, 0.41697001457214355, 0.6797432899475098, 0.5561938285827637, 0.49260082840919495, 0.6202054023742676, 0.41660070419311523, 0.42949628829956055, 0.5534665584564209, 0.5851097702980042, 0.4406970143318176, 0.3302973806858063, 0.2721257209777832, 0.22255444526672363, 0.25692304968833923, 0.2488889992237091, 0.23344679176807404, 0.2708643078804016, 0.331418514251709, 0.24737493693828583, 0.24872663617134094, 0.31386059522628784, 0.2716975808143616, 0.2188265174627304, 0.3350546658039093, 0.3309330940246582, 0.3068782389163971, 0.22774024307727814, 0.32326820492744446, 0.2594338357448578, 0.24546071887016296, 0.3283677399158478, 0.32654494047164917]</t>
+          <t>[0.6014520525932312, 0.4108949303627014, 0.49367693066596985, 0.31773367524147034, 0.24277445673942566, 0.48153582215309143, 0.49841058254241943, 0.5505222678184509, 0.6361757516860962, 0.7944036722183228, 0.7897754907608032, 0.6448086500167847, 0.6498285531997681, 0.4264492988586426, 0.27686068415641785, 0.19889166951179504, 0.3082563281059265, 0.4629763066768646, 0.44593265652656555, 0.41418808698654175, 0.40551671385765076, 0.2397603541612625, 0.26472947001457214, 0.37170106172561646, 0.4516478478908539, 0.7888848781585693, 0.7591968774795532, 0.7648012638092041, 0.4217296242713928, 0.21700771152973175, 0.15479157865047455, 0.18473419547080994, 0.22286510467529297, 0.5250747799873352, 0.6061928272247314, 0.6190706491470337, 0.36449742317199707, 0.6017910838127136, 0.7820222973823547, 0.7075585722923279, 0.6110468506813049, 0.5126773118972778, 0.28170961141586304, 0.16060924530029297, 0.2760041654109955, 0.28680354356765747, 0.2536236643791199, 0.4086249768733978, 0.3309957683086395, 0.26085707545280457, 0.16133487224578857, 0.2068512886762619, 0.2209671139717102, 0.2990286648273468, 0.3716210722923279, 0.7363090515136719, 0.4138825833797455, 0.21415148675441742, 0.17995472252368927, 0.3017805516719818, 0.2923200726509094, 0.3503168523311615, 0.3610919415950775, 0.21811743080615997, 0.21943040192127228, 0.26712295413017273, 0.2634291350841522, 0.2318091243505478, 0.19192706048488617, 0.23262576758861542, 0.2724810540676117, 0.4044654965400696, 0.5623478293418884, 0.49934202432632446, 0.4795580208301544, 0.7034916281700134, 0.796790599822998, 0.9512900710105896, 0.95753413438797, 0.8638026714324951, 0.7167767286300659, 0.45339909195899963, 0.4182680547237396, 0.5732654333114624, 0.6365234851837158, 0.48460325598716736, 0.723267674446106, 0.5349814295768738, 0.5996582508087158, 0.4810761511325836, 0.16173860430717468, 0.30086106061935425, 0.3645023703575134, 0.5313990116119385, 0.5532867908477783, 0.46010488271713257, 0.4553682804107666, 0.4865017235279083, 0.5260191559791565, 0.3807249963283539, 0.6430558562278748, 0.6127930283546448, 0.41015106439590454, 0.14028619229793549, 0.17571093142032623, 0.14597070217132568, 0.17378902435302734, 0.2828119397163391, 0.7243346571922302, 0.6282491087913513, 0.5603238344192505, 0.627324640750885, 0.593097984790802, 0.45420071482658386, 0.7377539873123169, 0.5788291692733765, 0.5211261510848999, 0.48030465841293335, 0.5115775465965271, 0.52773517370224, 0.38851428031921387, 0.30909618735313416, 0.5975374579429626, 0.4443439245223999, 0.34175872802734375, 0.49591904878616333, 0.40897470712661743, 0.7277407646179199, 0.646031379699707, 0.5415377616882324, 0.6170593500137329, 0.4756689667701721, 0.5128280520439148, 0.6446359753608704, 0.6512125730514526, 0.5004945993423462, 0.28538843989372253, 0.2320142537355423, 0.15999729931354523, 0.18053677678108215, 0.173922598361969, 0.15263889729976654, 0.20752790570259094, 0.287503182888031, 0.1812182366847992, 0.16755951941013336, 0.29768994450569153, 0.3309587240219116, 0.24834860861301422, 0.44714662432670593, 0.44837522506713867, 0.3459755480289459, 0.19478511810302734, 0.3562418818473816, 0.30617254972457886, 0.30071479082107544, 0.3130817413330078, 0.3104746639728546]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9095005393028259</v>
+        <v>0.95753413438797</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.900084799999604</v>
+        <v>0.9735172999935457</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005696739240503823</v>
+        <v>0.006161501898693328</v>
       </c>
     </row>
     <row r="44">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.10418305546045303, 0.07664544135332108, 0.08012598752975464, 0.06387969851493835, 0.056814491748809814, 0.08553807437419891, 0.0867769867181778, 0.07334655523300171, 0.056662943214178085, 0.06964300572872162, 0.04780834540724754, 0.044664833694696426, 0.03979729115962982, 0.03965495526790619, 0.042043957859277725, 0.04426603019237518, 0.04095354303717613, 0.045838359743356705, 0.05680176988244057, 0.05541623383760452, 0.040813934057950974, 0.050203170627355576, 0.08473223447799683, 0.0737905278801918, 0.0892430767416954, 0.07352552562952042, 0.07736045867204666, 0.0656939297914505, 0.13867464661598206, 0.3927035629749298, 0.32818248867988586, 0.2778153121471405, 0.3465408384799957, 0.1653052717447281, 0.15006262063980103, 0.24045728147029877, 0.21142292022705078, 0.2540988326072693, 0.15964896976947784, 0.2802928686141968, 0.15270264446735382, 0.20595405995845795, 0.21560519933700562, 0.13451415300369263, 0.15037019550800323, 0.10145591199398041, 0.05764695256948471, 0.057861603796482086, 0.08030874282121658, 0.12141060829162598, 0.2242499589920044, 0.2035452127456665, 0.2623388469219208, 0.3001008629798889, 0.14755213260650635, 0.19673940539360046, 0.14021036028862, 0.1143014058470726, 0.1473388969898224, 0.17558149993419647, 0.07382358610630035, 0.07697924226522446, 0.06898786872625351, 0.0741250291466713, 0.07857786864042282, 0.052706215530633926, 0.042975395917892456, 0.03915173560380936, 0.050581496208906174, 0.19594262540340424, 0.33134621381759644, 0.14260746538639069, 0.056282881647348404, 0.06505421549081802, 0.11846215277910233, 0.12098558247089386, 0.07639706879854202, 0.12419956177473068, 0.15377117693424225, 0.10914988070726395, 0.08212026953697205, 0.13420900702476501, 0.11206811666488647, 0.08549223840236664, 0.0530770868062973, 0.06630399823188782, 0.07252907752990723, 0.09260772168636322, 0.08629854023456573, 0.07949550449848175, 0.14498232305049896, 0.07419832050800323, 0.06650514155626297, 0.05155621096491814, 0.08939339220523834, 0.06630440801382065, 0.09480074793100357, 0.44275811314582825, 0.13711193203926086, 0.31987464427948, 0.21156755089759827, 0.4631496071815491, 0.218764990568161, 0.3668062388896942, 0.28658056259155273, 0.26033660769462585, 0.14481420814990997, 0.08275585621595383, 0.08057886362075806, 0.15944822132587433, 0.15879042446613312, 0.12046719342470169, 0.11072105169296265, 0.11429210007190704, 0.12176480144262314, 0.1204235702753067, 0.0918688103556633, 0.13595746457576752, 0.23242317140102386, 0.1591240018606186, 0.15549328923225403, 0.1413039267063141, 0.17105095088481903, 0.21216286718845367, 0.20737697184085846, 0.29013463854789734, 0.17019988596439362, 0.1710294485092163, 0.12875333428382874, 0.1388251930475235, 0.15696758031845093, 0.09088877588510513, 0.10333399474620819, 0.08703967183828354, 0.06922730803489685, 0.06246497482061386, 0.044849004596471786, 0.04820896312594414, 0.05336457118391991, 0.06821402907371521, 0.05971191078424454, 0.06110922619700432, 0.05158644914627075, 0.05415303632616997, 0.04777507483959198, 0.04994192719459534, 0.037279367446899414, 0.034852035343647, 0.033149704337120056, 0.03158854693174362, 0.04753576219081879, 0.062399882823228836, 0.042650528252124786, 0.04858417063951492, 0.04513174667954445, 0.042545631527900696, 0.06619130074977875, 0.06623393297195435]</t>
+          <t>[0.0830690860748291, 0.0541285015642643, 0.046792756766080856, 0.03606761619448662, 0.03136464208364487, 0.06490374356508255, 0.06253918260335922, 0.05653570964932442, 0.03436857834458351, 0.041423194110393524, 0.025465810671448708, 0.02483021281659603, 0.021438153460621834, 0.021875258535146713, 0.02592111937701702, 0.026106975972652435, 0.024719448760151863, 0.027489252388477325, 0.038846101611852646, 0.03100636787712574, 0.021419214084744453, 0.03154793009161949, 0.07097695767879486, 0.06011146306991577, 0.1110270693898201, 0.0797494575381279, 0.06885369122028351, 0.056181833148002625, 0.17264311015605927, 0.6787269711494446, 0.6134936809539795, 0.5088239908218384, 0.7581430077552795, 0.3286179304122925, 0.3197353780269623, 0.4863561987876892, 0.3344023823738098, 0.40407946705818176, 0.18067210912704468, 0.40715867280960083, 0.1825840175151825, 0.2938457429409027, 0.2790195941925049, 0.15087445080280304, 0.1716470867395401, 0.10371116548776627, 0.03618917241692543, 0.03348664566874504, 0.04741480201482773, 0.1060597375035286, 0.29372841119766235, 0.28033310174942017, 0.353875070810318, 0.30889469385147095, 0.13194817304611206, 0.18959911167621613, 0.11399295926094055, 0.10697981715202332, 0.15834951400756836, 0.20078347623348236, 0.05639388784766197, 0.07350362837314606, 0.054686348885297775, 0.06646621227264404, 0.09895738959312439, 0.028768980875611305, 0.02140054479241371, 0.019451308995485306, 0.040477603673934937, 0.3628840744495392, 0.6326043009757996, 0.2560117542743683, 0.048266079276800156, 0.04999280720949173, 0.14996421337127686, 0.13731005787849426, 0.0496211014688015, 0.1094181165099144, 0.28154465556144714, 0.13213758170604706, 0.09334816038608551, 0.2250548005104065, 0.11253616213798523, 0.07490705698728561, 0.0403498150408268, 0.05039506033062935, 0.043811578303575516, 0.08415362983942032, 0.062036704272031784, 0.07751595228910446, 0.27571865916252136, 0.08253900706768036, 0.06110850349068642, 0.03270723670721054, 0.08982759714126587, 0.052895065397024155, 0.10791147500276566, 0.8511883616447449, 0.2566445767879486, 0.522753894329071, 0.2607496678829193, 0.6560764312744141, 0.42174285650253296, 0.5402191281318665, 0.514786958694458, 0.48477619886398315, 0.2211587280035019, 0.11456064879894257, 0.09612135589122772, 0.3261084258556366, 0.3265434503555298, 0.1686808168888092, 0.1155780777335167, 0.11822302639484406, 0.11595965176820755, 0.10295388102531433, 0.05382593721151352, 0.0969066396355629, 0.21470637619495392, 0.16160748898983002, 0.15227168798446655, 0.1909765899181366, 0.25739720463752747, 0.28961920738220215, 0.2380322813987732, 0.3589814007282257, 0.20936810970306396, 0.19467045366764069, 0.10660221427679062, 0.14491665363311768, 0.23649728298187256, 0.09269637614488602, 0.11072591692209244, 0.07205945253372192, 0.04725290462374687, 0.041193366050720215, 0.02623387984931469, 0.02938251942396164, 0.04983782023191452, 0.0656612291932106, 0.04939921945333481, 0.04004637524485588, 0.02999684028327465, 0.03559918329119682, 0.027297528460621834, 0.03411998227238655, 0.027860982343554497, 0.023896001279354095, 0.022269180044531822, 0.016051597893238068, 0.026718230918049812, 0.032943855971097946, 0.02115117572247982, 0.030088702216744423, 0.027087127789855003, 0.01958693563938141, 0.0430130772292614, 0.04303843155503273]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.4631496071815491</v>
+        <v>0.8511883616447449</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.8810471000033431</v>
+        <v>0.9141168999922229</v>
       </c>
       <c r="J44" t="n">
-        <v>0.00557624746837559</v>
+        <v>0.005785549999950778</v>
       </c>
     </row>
     <row r="45">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.0287517998367548, 0.0382864736020565, 0.0401667058467865, 0.0603666789829731, 0.05983136594295502, 0.05914423242211342, 0.0732564926147461, 0.03998354822397232, 0.04684244468808174, 0.06054958328604698, 0.062116000801324844, 0.05926305055618286, 0.046643950045108795, 0.05575231462717056, 0.06650391966104507, 0.056521620601415634, 0.034317560493946075, 0.03638510778546333, 0.06028991565108299, 0.057177700102329254, 0.035350922495126724, 0.0490073561668396, 0.0709841251373291, 0.06831148266792297, 0.09555944800376892, 0.10123560577630997, 0.10752333700656891, 0.09377215802669525, 0.12847179174423218, 0.1284475177526474, 0.16471222043037415, 0.0954849123954773, 0.08312555402517319, 0.09379574656486511, 0.08775174617767334, 0.05138908699154854, 0.03402470424771309, 0.03396701440215111, 0.027364592999219894, 0.03790343180298805, 0.044536564499139786, 0.049318887293338776, 0.04546963423490524, 0.08526292443275452, 0.08911383152008057, 0.06685292720794678, 0.06431778520345688, 0.04538474231958389, 0.028972111642360687, 0.033308763056993484, 0.03984745591878891, 0.047385990619659424, 0.040527988225221634, 0.0467827282845974, 0.030275223776698112, 0.03872121497988701, 0.05002718046307564, 0.037698592990636826, 0.030378933995962143, 0.03515391796827316, 0.047259293496608734, 0.04385119676589966, 0.040184732526540756, 0.03299761563539505, 0.04749930649995804, 0.03988655284047127, 0.0710565447807312, 0.08336803317070007, 0.05218008533120155, 0.07978925853967667, 0.05927783623337746, 0.15931105613708496, 0.4139048457145691, 0.19706688821315765, 0.12696722149848938, 0.11488392949104309, 0.1147029846906662, 0.05775688588619232, 0.11319779604673386, 0.10483235120773315, 0.076400987803936, 0.11294743418693542, 0.1137874573469162, 0.08796457201242447, 0.08504536002874374, 0.08848182111978531, 0.1019982397556305, 0.0839344784617424, 0.06196754425764084, 0.07968107610940933, 0.1383163183927536, 0.20946241915225983, 0.20633596181869507, 0.39336496591567993, 0.38466426730155945, 0.2614330053329468, 0.28864794969558716, 0.19621342420578003, 0.07975003123283386, 0.18449781835079193, 0.11638250946998596, 0.22634565830230713, 0.17643357813358307, 0.10382362455129623, 0.05886071175336838, 0.2414601743221283, 0.32345280051231384, 0.18184930086135864, 0.08187925815582275, 0.05366801470518112, 0.058680981397628784, 0.042161975055933, 0.045104123651981354, 0.052162159234285355, 0.10467182099819183, 0.2616153955459595, 0.1682930588722229, 0.06482330709695816, 0.07775400578975677, 0.05792586877942085, 0.0589863583445549, 0.08665335178375244, 0.0641799122095108, 0.05124134570360184, 0.08579622954130173, 0.08131374418735504, 0.13200810551643372, 0.15524514019489288, 0.09113878011703491, 0.05299101397395134, 0.04917324334383011, 0.06445376574993134, 0.09516999870538712, 0.0761777013540268, 0.07567289471626282, 0.04852142184972763, 0.04437021166086197, 0.05263661593198776, 0.0556076243519783, 0.0462777242064476, 0.0542210228741169, 0.05169181898236275, 0.054851431399583817, 0.0429186187684536, 0.07659199088811874, 0.12522351741790771, 0.21175876259803772, 0.12515988945960999, 0.2672784924507141, 0.14382079243659973, 0.15197664499282837, 0.1581953465938568, 0.1212315633893013, 0.06430607289075851, 0.04529876634478569, 0.0325070284307003, 0.03260767087340355]</t>
+          <t>[0.013105597347021103, 0.0221555233001709, 0.020813871175050735, 0.03814735263586044, 0.033147554844617844, 0.03662366047501564, 0.04432298615574837, 0.019954029470682144, 0.023642294108867645, 0.028154468163847923, 0.0297425277531147, 0.03562478721141815, 0.02235443703830242, 0.03035416081547737, 0.03318998962640762, 0.02484995312988758, 0.017417455092072487, 0.01589399017393589, 0.027620770037174225, 0.02658269926905632, 0.013979463838040829, 0.02310291677713394, 0.035241033881902695, 0.03258316218852997, 0.04297788813710213, 0.0442008301615715, 0.04327551648020744, 0.03193341940641403, 0.05642496049404144, 0.05557827651500702, 0.1252693086862564, 0.054274994879961014, 0.046733200550079346, 0.06302076578140259, 0.05843973904848099, 0.030645258724689484, 0.016680940985679626, 0.019761525094509125, 0.012671362608671188, 0.015159035101532936, 0.017861364409327507, 0.01892184279859066, 0.020188473165035248, 0.030949493870139122, 0.03340068459510803, 0.027072876691818237, 0.024728579446673393, 0.013965707272291183, 0.008185021579265594, 0.008948782458901405, 0.012143750675022602, 0.01929413340985775, 0.013106312602758408, 0.014375989325344563, 0.010294105857610703, 0.011617493815720081, 0.014312832616269588, 0.010069874115288258, 0.0071988641284406185, 0.009749896824359894, 0.011880574747920036, 0.010046563111245632, 0.010502581484615803, 0.007869082503020763, 0.01520611997693777, 0.012342249043285847, 0.025389840826392174, 0.03172216936945915, 0.016444867476820946, 0.02912219800055027, 0.02249523065984249, 0.1326463669538498, 0.4834862947463989, 0.19635966420173645, 0.07568398118019104, 0.07993583381175995, 0.04416156932711601, 0.0164976567029953, 0.04413311555981636, 0.03871583938598633, 0.04612007737159729, 0.06947306543588638, 0.08848731219768524, 0.057273246347904205, 0.0592079795897007, 0.062286101281642914, 0.08514992147684097, 0.059321191161870956, 0.027342475950717926, 0.0375739187002182, 0.08499064296483994, 0.1411210298538208, 0.13272853195667267, 0.3233456015586853, 0.3239048421382904, 0.1448635309934616, 0.1484672874212265, 0.10308162868022919, 0.031090671196579933, 0.08702480047941208, 0.0709938108921051, 0.23528841137886047, 0.1200246661901474, 0.08101484924554825, 0.03677389770746231, 0.17311176657676697, 0.2662271559238434, 0.13483551144599915, 0.05375932902097702, 0.03553697466850281, 0.03534203767776489, 0.019503001123666763, 0.022576233372092247, 0.023159435018897057, 0.07020281255245209, 0.34228068590164185, 0.10957934707403183, 0.01869131624698639, 0.027131397277116776, 0.027432652190327644, 0.028028063476085663, 0.04142575338482857, 0.023969240486621857, 0.018469205126166344, 0.020685499534010887, 0.018800243735313416, 0.03851170092821121, 0.04253216087818146, 0.01896393671631813, 0.01178757008165121, 0.014535075053572655, 0.01871640421450138, 0.02860557660460472, 0.024531686678528786, 0.03310522064566612, 0.01768331043422222, 0.015476333908736706, 0.01929210126399994, 0.0190899558365345, 0.01341703999787569, 0.014439395628869534, 0.013931525871157646, 0.014515206217765808, 0.011652609333395958, 0.03324519470334053, 0.06339772045612335, 0.11684826016426086, 0.0558069609105587, 0.17720730602741241, 0.06986672431230545, 0.057440437376499176, 0.07142402231693268, 0.03995303064584732, 0.01816226728260517, 0.014380781911313534, 0.012240786105394363, 0.01225116103887558]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4139048457145691</v>
+        <v>0.4834862947463989</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.8729765000171028</v>
+        <v>0.8927745999972103</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0055603598727204</v>
+        <v>0.005686462420364397</v>
       </c>
     </row>
     <row r="46">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[0.38343217968940735, 0.2987044155597687, 0.2842516005039215, 0.1889256238937378, 0.18850891292095184, 0.20064660906791687, 0.3115870952606201, 0.5239935517311096, 0.6454370617866516, 0.5354242920875549, 0.417726069688797, 0.6153998970985413, 0.6144639849662781, 0.5017795562744141, 0.46876466274261475, 0.36665990948677063, 0.246958389878273, 0.26587626338005066, 0.179400235414505, 0.12292513251304626, 0.2248232215642929, 0.17527097463607788, 0.32324740290641785, 0.3421645164489746, 0.2985813319683075, 0.4739000201225281, 0.6407231688499451, 0.345142662525177, 0.20652079582214355, 0.1893816590309143, 0.2916962206363678, 0.38762083649635315, 0.4436990022659302, 0.2569189667701721, 0.27770400047302246, 0.40521547198295593, 0.315428763628006, 0.3038439154624939, 0.3690992295742035, 0.38385841250419617, 0.18220555782318115, 0.4230498969554901, 0.5734676718711853, 0.37409886717796326, 0.4431294798851013, 0.4262535274028778, 0.16715814173221588, 0.12401850521564484, 0.30967485904693604, 0.43009719252586365, 0.2060624659061432, 0.2804746627807617, 0.1490751951932907, 0.17178666591644287, 0.11717648059129715, 0.23891493678092957, 0.26278820633888245, 0.23349784314632416, 0.23700731992721558, 0.3027248680591583, 0.1277066171169281, 0.28215932846069336, 0.3958877921104431, 0.42782366275787354, 0.5405876040458679, 0.6290146112442017, 0.7322357892990112, 0.754303514957428, 0.685485303401947, 0.8394351601600647, 0.6315790414810181, 0.6518006920814514, 0.6351268291473389, 0.41936758160591125, 0.35275399684906006, 0.27684471011161804, 0.5997990369796753, 0.7100965976715088, 0.6031873226165771, 0.6584246754646301, 0.7709869742393494, 0.5320026874542236, 0.7801563739776611, 0.7158986330032349, 0.6026292443275452, 0.5424013137817383, 0.6309251189231873, 0.6854132413864136, 0.6077725887298584, 0.49574676156044006, 0.589858889579773, 0.5284922122955322, 0.7916454672813416, 0.7685743570327759, 0.898638129234314, 0.8397008180618286, 0.8012917637825012, 0.8180553913116455, 0.7938178777694702, 0.4708350598812103, 0.5770823955535889, 0.7988783717155457, 0.6679731011390686, 0.5943063497543335, 0.7862834334373474, 0.8531425595283508, 0.4118507504463196, 0.48644500970840454, 0.15720407664775848, 0.0982547476887703, 0.13606178760528564, 0.24231302738189697, 0.2772127091884613, 0.3887780010700226, 0.27333346009254456, 0.3473198711872101, 0.2475648820400238, 0.26874804496765137, 0.2893894910812378, 0.24089406430721283, 0.2081882804632187, 0.26450157165527344, 0.22219793498516083, 0.2431134730577469, 0.32505282759666443, 0.4396384060382843, 0.39144575595855713, 0.5672265291213989, 0.3783688247203827, 0.2274283617734909, 0.2295827567577362, 0.20946592092514038, 0.1713045835494995, 0.23410077393054962, 0.2507314085960388, 0.2619999349117279, 0.1844612956047058, 0.13315895199775696, 0.10528676956892014, 0.09116434305906296, 0.13161605596542358, 0.15847043693065643, 0.1957072615623474, 0.5244494676589966, 0.3555379807949066, 0.41577476263046265, 0.5224905610084534, 0.4165619909763336, 0.26864928007125854, 0.12807607650756836, 0.23744578659534454, 0.2890446186065674, 0.32058772444725037, 0.24642398953437805, 0.35067319869995117, 0.36385220289230347, 0.7260971665382385, 0.7257757186889648]</t>
+          <t>[0.4140452742576599, 0.2928861975669861, 0.2724716365337372, 0.0956185981631279, 0.09410343319177628, 0.10411041975021362, 0.2862606942653656, 0.6068606376647949, 0.7046481966972351, 0.4856160581111908, 0.35334816575050354, 0.6394376158714294, 0.6318350434303284, 0.4823264181613922, 0.35980522632598877, 0.24271655082702637, 0.13421961665153503, 0.13020126521587372, 0.0683368444442749, 0.03620148077607155, 0.10563064366579056, 0.06786677986383438, 0.4070071280002594, 0.43879881501197815, 0.3029766082763672, 0.5071805119514465, 0.8193447589874268, 0.33415600657463074, 0.10738467425107956, 0.09501179307699203, 0.21421962976455688, 0.40312469005584717, 0.4454165995121002, 0.19980475306510925, 0.17274154722690582, 0.33087849617004395, 0.21566765010356903, 0.2347976714372635, 0.32977381348609924, 0.3754727840423584, 0.10381297767162323, 0.46139299869537354, 0.6819720268249512, 0.5319591760635376, 0.615771472454071, 0.40206754207611084, 0.09590531140565872, 0.055834729224443436, 0.23898960649967194, 0.37513962388038635, 0.15467393398284912, 0.28039348125457764, 0.09770165383815765, 0.10543153434991837, 0.06322091072797775, 0.23201453685760498, 0.26055631041526794, 0.2777239680290222, 0.23264966905117035, 0.2929597496986389, 0.09689401835203171, 0.2577313482761383, 0.5104799270629883, 0.5046867728233337, 0.5816262364387512, 0.6902565360069275, 0.8104999661445618, 0.7729515433311462, 0.6614357829093933, 0.90553879737854, 0.6566921472549438, 0.6335206031799316, 0.5221032500267029, 0.24920199811458588, 0.24843931198120117, 0.17355957627296448, 0.6239677667617798, 0.7691341638565063, 0.716839075088501, 0.7027016878128052, 0.7875023484230042, 0.4999520182609558, 0.8407860398292542, 0.7221807241439819, 0.5921999216079712, 0.6003023982048035, 0.6830485463142395, 0.7690451741218567, 0.7355269193649292, 0.5419787168502808, 0.5942997932434082, 0.4559181332588196, 0.8493133187294006, 0.8194176554679871, 0.9463741183280945, 0.9061741232872009, 0.8777311444282532, 0.869381844997406, 0.7803804278373718, 0.3112647533416748, 0.4194720387458801, 0.851564347743988, 0.7175700664520264, 0.6108134984970093, 0.8591820001602173, 0.9062957167625427, 0.4340614378452301, 0.45120489597320557, 0.05819234997034073, 0.021992361173033714, 0.04221729934215546, 0.10518446564674377, 0.18099121749401093, 0.2849216163158417, 0.22216655313968658, 0.33298206329345703, 0.21261827647686005, 0.21693328022956848, 0.27368563413619995, 0.12800711393356323, 0.10972636193037033, 0.15882086753845215, 0.1906031370162964, 0.14679524302482605, 0.19724206626415253, 0.33374691009521484, 0.33058732748031616, 0.6321574449539185, 0.3425889313220978, 0.128803089261055, 0.1510622799396515, 0.14317657053470612, 0.09546271711587906, 0.19230493903160095, 0.21620912849903107, 0.2866360545158386, 0.14138445258140564, 0.05762182176113129, 0.03527108579874039, 0.031371962279081345, 0.04638845473527908, 0.06884289532899857, 0.10053524374961853, 0.615882396697998, 0.422748327255249, 0.458146333694458, 0.5422117710113525, 0.4190477728843689, 0.13255861401557922, 0.048337288200855255, 0.1867348998785019, 0.2079947292804718, 0.2610005736351013, 0.1773497313261032, 0.3393949270248413, 0.3320837616920471, 0.7759509682655334, 0.7755814790725708]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.898638129234314</v>
+        <v>0.9463741183280945</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.9020460000028834</v>
+        <v>0.9347021000139648</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005709151898752427</v>
+        <v>0.005915836076037752</v>
       </c>
     </row>
     <row r="47">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.09949348866939545, 0.1604638248682022, 0.1946670264005661, 0.12367723137140274, 0.14808322489261627, 0.1966586858034134, 0.31646692752838135, 0.12639813125133514, 0.06712330132722855, 0.08301763236522675, 0.3263939619064331, 0.17395588755607605, 0.17446884512901306, 0.21153758466243744, 0.19317175447940826, 0.1305253505706787, 0.1539943814277649, 0.13228338956832886, 0.14029166102409363, 0.14315810799598694, 0.10791376978158951, 0.13357070088386536, 0.12212342023849487, 0.43712180852890015, 0.8478934168815613, 0.6616732478141785, 0.17327828705310822, 0.23277319967746735, 0.21521303057670593, 0.14511580765247345, 0.14520633220672607, 0.2407146394252777, 0.24711036682128906, 0.16649246215820312, 0.09866233170032501, 0.09891241043806076, 0.08596470206975937, 0.08513840287923813, 0.10949746519327164, 0.1383669376373291, 0.0914391353726387, 0.07947071641683578, 0.07875820994377136, 0.07008077949285507, 0.055613551288843155, 0.04397460073232651, 0.07382804900407791, 0.09078046679496765, 0.09680730849504471, 0.1973327398300171, 0.11346306651830673, 0.09552742540836334, 0.0630011186003685, 0.07031995803117752, 0.08394446969032288, 0.08494788408279419, 0.15717492997646332, 0.17409805953502655, 0.22338813543319702, 0.40161171555519104, 0.23014476895332336, 0.14068703353405, 0.10574059933423996, 0.16489377617835999, 0.08521870523691177, 0.07303335517644882, 0.06837860494852066, 0.0985477939248085, 0.0755062997341156, 0.09072460234165192, 0.11922648549079895, 0.07052486389875412, 0.05642194673418999, 0.12232876569032669, 0.08497965335845947, 0.053284090012311935, 0.06373990327119827, 0.059803955256938934, 0.08429252356290817, 0.10226640105247498, 0.06033235788345337, 0.05751444771885872, 0.06044549494981766, 0.08345790952444077, 0.0862860232591629, 0.1246451810002327, 0.11624268442392349, 0.0930279940366745, 0.05378464609384537, 0.04732999578118324, 0.03727634251117706, 0.043911222368478775, 0.0541011281311512, 0.08288802951574326, 0.09646259248256683, 0.09556875377893448, 0.10898838192224503, 0.11871655285358429, 0.06197917461395264, 0.06680727750062943, 0.0750718042254448, 0.044524773955345154, 0.06020689383149147, 0.05163067206740379, 0.05913069471716881, 0.06268947571516037, 0.07619517296552658, 0.08293349295854568, 0.0660468339920044, 0.06253363937139511, 0.07244143635034561, 0.05804166570305824, 0.04048750549554825, 0.03673912584781647, 0.05267895385622978, 0.04721016064286232, 0.04092511162161827, 0.05418272316455841, 0.06966030597686768, 0.0649445652961731, 0.060440052300691605, 0.06915091723203659, 0.09928855299949646, 0.10922332853078842, 0.14173249900341034, 0.10923237353563309, 0.08954454213380814, 0.10434453189373016, 0.15026384592056274, 0.11838574707508087, 0.10387542098760605, 0.08152300119400024, 0.05864405632019043, 0.035661112517118454, 0.06728925555944443, 0.05706083029508591, 0.07904937863349915, 0.05854311212897301, 0.06233624368906021, 0.057690512388944626, 0.044522300362586975, 0.035379212349653244, 0.03406855836510658, 0.0394354946911335, 0.0661207064986229, 0.05322280898690224, 0.03899987041950226, 0.0410698726773262, 0.05169321224093437, 0.08683812618255615, 0.07613012939691544, 0.07445865124464035, 0.08399044722318649, 0.07744130492210388, 0.1888144314289093, 0.05568336695432663, 0.053711678832769394, 0.0537860170006752]</t>
+          <t>[0.05026593431830406, 0.08777456730604172, 0.12390211224555969, 0.06755859404802322, 0.08980713784694672, 0.1560717672109604, 0.22216208279132843, 0.07261362671852112, 0.029214242473244667, 0.04622809216380119, 0.2843179702758789, 0.13374219834804535, 0.0950355976819992, 0.10201337933540344, 0.12106813490390778, 0.06853188574314117, 0.08933434635400772, 0.0637187510728836, 0.05448334291577339, 0.07559714466333389, 0.05464862659573555, 0.06852559000253677, 0.064056396484375, 0.3714819550514221, 0.8210505843162537, 0.5795276165008545, 0.12027207016944885, 0.13633085787296295, 0.08906149119138718, 0.04975565895438194, 0.06059577316045761, 0.1587061733007431, 0.17096488177776337, 0.07775990664958954, 0.04320291057229042, 0.0517488494515419, 0.04387490451335907, 0.04539407417178154, 0.05617447569966316, 0.09300797432661057, 0.06256034970283508, 0.055248379707336426, 0.055991191416978836, 0.03769411891698837, 0.026422012597322464, 0.020914830267429352, 0.04678844287991524, 0.054770879447460175, 0.053406424820423126, 0.17561540007591248, 0.09081510454416275, 0.05603427812457085, 0.024963265284895897, 0.024237940087914467, 0.03242716193199158, 0.03636422008275986, 0.07990877330303192, 0.123074010014534, 0.15962398052215576, 0.3901152014732361, 0.14207544922828674, 0.07190690189599991, 0.04546704888343811, 0.07547272741794586, 0.02622992917895317, 0.02426045574247837, 0.024461830034852028, 0.034060586243867874, 0.0274918582290411, 0.03373992443084717, 0.04311313107609749, 0.021368566900491714, 0.018093032762408257, 0.043297626078128815, 0.03249434381723404, 0.016143621876835823, 0.0238195788115263, 0.022161059081554413, 0.03007545694708824, 0.03904510661959648, 0.020375844091176987, 0.017997950315475464, 0.01859930530190468, 0.03971513733267784, 0.03911571577191353, 0.0655895546078682, 0.055127788335084915, 0.04530571773648262, 0.024701688438653946, 0.01925813779234886, 0.01648866944015026, 0.0213988795876503, 0.024222077801823616, 0.035456571727991104, 0.045833613723516464, 0.04063747823238373, 0.04403437674045563, 0.05540256202220917, 0.0289316326379776, 0.029737142845988274, 0.034566447138786316, 0.017318563535809517, 0.023885324597358704, 0.023826513439416885, 0.02628515474498272, 0.02588658593595028, 0.028486063703894615, 0.03370314836502075, 0.02743016928434372, 0.026750249788165092, 0.033983297646045685, 0.023780621588230133, 0.015594360418617725, 0.015539255924522877, 0.021535441279411316, 0.022951528429985046, 0.01648552343249321, 0.022107677534222603, 0.027883226051926613, 0.027859380468726158, 0.029337286949157715, 0.027914827689528465, 0.037830911576747894, 0.0453592911362648, 0.06805253773927689, 0.0640641301870346, 0.05157897248864174, 0.05926027521491051, 0.07936275750398636, 0.05671744421124458, 0.06564659625291824, 0.04754626750946045, 0.03687722235918045, 0.017772896215319633, 0.034949176013469696, 0.0253483634442091, 0.0368778221309185, 0.023950830101966858, 0.028404589742422104, 0.02320953644812107, 0.016825702041387558, 0.013065999373793602, 0.013695428147912025, 0.014884869568049908, 0.03510179743170738, 0.02851378358900547, 0.019564898684620857, 0.015674520283937454, 0.020295079797506332, 0.034375596791505814, 0.035987041890621185, 0.03457902744412422, 0.04819592833518982, 0.04175633192062378, 0.16565129160881042, 0.02877679653465748, 0.026427973061800003, 0.026492692530155182]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.8478934168815613</v>
+        <v>0.8210505843162537</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0.8921871000202373</v>
+        <v>0.9086349999997765</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005646753797596439</v>
+        <v>0.005750854430378332</v>
       </c>
     </row>
     <row r="48">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[0.250544011592865, 0.31670162081718445, 0.37308645248413086, 0.48172250390052795, 0.45119979977607727, 0.47470444440841675, 0.6025199294090271, 0.45817455649375916, 0.7047392129898071, 0.4407847821712494, 0.19967646896839142, 0.17878742516040802, 0.24195240437984467, 0.3533436357975006, 0.20511840283870697, 0.4012148976325989, 0.28215622901916504, 0.28617268800735474, 0.38811442255973816, 0.33359649777412415, 0.30519306659698486, 0.27134719491004944, 0.32515379786491394, 0.3272779881954193, 0.3634369969367981, 0.35584309697151184, 0.30002009868621826, 0.38841143250465393, 0.3057587742805481, 0.24833723902702332, 0.1831863820552826, 0.18582427501678467, 0.21868614852428436, 0.18857945501804352, 0.17444367706775665, 0.21445626020431519, 0.19750909507274628, 0.22076955437660217, 0.23708809912204742, 0.19889704883098602, 0.19199174642562866, 0.2201637178659439, 0.2852802574634552, 0.3786264657974243, 0.4594169855117798, 0.3838995695114136, 0.21368010342121124, 0.1590605229139328, 0.14827105402946472, 0.16945812106132507, 0.21905644237995148, 0.18472447991371155, 0.16463686525821686, 0.21812686324119568, 0.2065092772245407, 0.2282412350177765, 0.24611152708530426, 0.2519034147262573, 0.25392022728919983, 0.30679428577423096, 0.28122350573539734, 0.23849187791347504, 0.1432204693555832, 0.1942499428987503, 0.2229069173336029, 0.20333826541900635, 0.23430269956588745, 0.2746574878692627, 0.33606234192848206, 0.2696278691291809, 0.2739682197570801, 0.27266907691955566, 0.3650122284889221, 0.30840012431144714, 0.4182337522506714, 0.3233489394187927, 0.2836705446243286, 0.345493346452713, 0.44577518105506897, 0.5098059773445129, 0.48202937841415405, 0.34816688299179077, 0.32022541761398315, 0.34110280871391296, 0.26409000158309937, 0.2208728790283203, 0.37799808382987976, 0.438027560710907, 0.3836655914783478, 0.35363444685935974, 0.3429505228996277, 0.2839181125164032, 0.3754550814628601, 0.3570284843444824, 0.28163766860961914, 0.3728595972061157, 0.23904353380203247, 0.3103920817375183, 0.37268510460853577, 0.3696315884590149, 0.39251551032066345, 0.3177354037761688, 0.26395711302757263, 0.2112208902835846, 0.22064319252967834, 0.19944296777248383, 0.17717844247817993, 0.21548713743686676, 0.25560665130615234, 0.4241895377635956, 0.40977704524993896, 0.4991082549095154, 0.38787928223609924, 0.25496339797973633, 0.2564387321472168, 0.2986934781074524, 0.173880472779274, 0.1514141708612442, 0.15728698670864105, 0.15344341099262238, 0.14700797200202942, 0.15827755630016327, 0.18371060490608215, 0.17865949869155884, 0.15713010728359222, 0.1212037056684494, 0.16065388917922974, 0.16815806925296783, 0.1914139837026596, 0.16677549481391907, 0.12362327426671982, 0.1458941102027893, 0.20024050772190094, 0.44032421708106995, 0.4739413261413574, 0.34975889325141907, 0.358589768409729, 0.2723158895969391, 0.22850297391414642, 0.30251380801200867, 0.2550774812698364, 0.24558891355991364, 0.22572165727615356, 0.19802317023277283, 0.2382560521364212, 0.1895320564508438, 0.14265219867229462, 0.14444802701473236, 0.14287877082824707, 0.1629970371723175, 0.21760965883731842, 0.23925985395908356, 0.1210583969950676, 0.10373415052890778, 0.10340545326471329, 0.110320083796978, 0.14255601167678833, 0.14292919635772705]</t>
+          <t>[0.2570171058177948, 0.23164166510105133, 0.3007984161376953, 0.5004249215126038, 0.4012618660926819, 0.5627477169036865, 0.7648935914039612, 0.6820735931396484, 0.8783015608787537, 0.5427924990653992, 0.1601962000131607, 0.16664060950279236, 0.2825443744659424, 0.44136446714401245, 0.20086254179477692, 0.6275532841682434, 0.46927356719970703, 0.4411129951477051, 0.6033945083618164, 0.5337507128715515, 0.4171092212200165, 0.3622817397117615, 0.5154556632041931, 0.3874237835407257, 0.4744502604007721, 0.45580539107322693, 0.4217548668384552, 0.5789892077445984, 0.42200154066085815, 0.31520554423332214, 0.18212741613388062, 0.17322304844856262, 0.24049162864685059, 0.17105107009410858, 0.1763262301683426, 0.22861303389072418, 0.2230626791715622, 0.21500679850578308, 0.19479747116565704, 0.14247986674308777, 0.13397035002708435, 0.2068037986755371, 0.3106207251548767, 0.42459240555763245, 0.5318817496299744, 0.44614627957344055, 0.16677606105804443, 0.09702173620462418, 0.08824863284826279, 0.097564697265625, 0.17166943848133087, 0.16836223006248474, 0.16807474195957184, 0.24670876562595367, 0.2632729411125183, 0.27465206384658813, 0.2794940173625946, 0.2507551610469818, 0.27116501331329346, 0.3570243716239929, 0.3448754847049713, 0.3177783489227295, 0.13670258224010468, 0.1885468065738678, 0.21173785626888275, 0.1971762776374817, 0.25406184792518616, 0.25459641218185425, 0.29371678829193115, 0.18338756263256073, 0.25701284408569336, 0.2451949417591095, 0.4025110900402069, 0.29593077301979065, 0.5257812738418579, 0.40430402755737305, 0.3453962206840515, 0.43974751234054565, 0.6274349093437195, 0.7651557922363281, 0.7118987441062927, 0.5891416072845459, 0.5128315091133118, 0.4396723806858063, 0.3500886857509613, 0.29836082458496094, 0.5541318655014038, 0.6397628784179688, 0.5731831192970276, 0.5238850712776184, 0.523776650428772, 0.3826436400413513, 0.5573877692222595, 0.5255253314971924, 0.3457261323928833, 0.5272296071052551, 0.23760594427585602, 0.5021820068359375, 0.6269169449806213, 0.6270273923873901, 0.6748204827308655, 0.5153028964996338, 0.4322717487812042, 0.2837730646133423, 0.2348257601261139, 0.18975819647312164, 0.18611031770706177, 0.29125121235847473, 0.40567028522491455, 0.6505979299545288, 0.5995699763298035, 0.7005708813667297, 0.6201062798500061, 0.2763698995113373, 0.30547672510147095, 0.33369800448417664, 0.14888864755630493, 0.0957913026213646, 0.10421863943338394, 0.08917981386184692, 0.09221149235963821, 0.1027381420135498, 0.14264315366744995, 0.11011619120836258, 0.0951637476682663, 0.07668451219797134, 0.11402176320552826, 0.11266646534204483, 0.12424307316541672, 0.12190347909927368, 0.08001356571912766, 0.10466662794351578, 0.17897598445415497, 0.5653797388076782, 0.609452486038208, 0.4546702206134796, 0.4357198178768158, 0.2511005699634552, 0.18402712047100067, 0.30290907621383667, 0.2524991035461426, 0.24696364998817444, 0.22843889892101288, 0.1531059443950653, 0.20677897334098816, 0.14276359975337982, 0.09180794656276703, 0.10628645867109299, 0.09013209491968155, 0.09823791682720184, 0.2142554223537445, 0.3483053743839264, 0.10523752123117447, 0.08191730082035065, 0.04007851704955101, 0.03391358628869057, 0.05896143242716789, 0.0592690072953701]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.7047392129898071</v>
+        <v>0.8783015608787537</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.90767029998824</v>
+        <v>0.8984434000012698</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005744748734102785</v>
+        <v>0.005686350632919429</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.23904526233673096, 0.1541147083044052, 0.1186266839504242, 0.10428904742002487, 0.07361365109682083, 0.06508687883615494, 0.1307324469089508, 0.16507060825824738, 0.14283010363578796, 0.19039081037044525, 0.6102882027626038, 0.7977588176727295, 0.8284422159194946, 0.7377728819847107, 0.6249986290931702, 0.5951864719390869, 0.7446858882904053, 0.6194670796394348, 0.7270517349243164, 0.7381125688552856, 0.6093969345092773, 0.556398868560791, 0.4146380126476288, 0.609952449798584, 0.36248254776000977, 0.5332480072975159, 0.4474628269672394, 0.5490915179252625, 0.6491401195526123, 0.5484509468078613, 0.6201264262199402, 0.7548449039459229, 0.7823730111122131, 0.7110443115234375, 0.7237765789031982, 0.905965268611908, 0.6989777684211731, 0.4175991117954254, 0.2988996207714081, 0.2679179012775421, 0.4674175977706909, 0.4232107996940613, 0.6647964715957642, 0.7455943822860718, 0.44847068190574646, 0.24605099856853485, 0.4241171181201935, 0.4115767776966095, 0.2470996230840683, 0.11873406916856766, 0.287016898393631, 0.5107096433639526, 0.5045697689056396, 0.44989681243896484, 0.42012083530426025, 0.6266815662384033, 0.6505805850028992, 0.1305711716413498, 0.1422012895345688, 0.18282750248908997, 0.1601329892873764, 0.29206961393356323, 0.4835801422595978, 0.5304180383682251, 0.5967682003974915, 0.40154916048049927, 0.6214657425880432, 0.40908700227737427, 0.5661906599998474, 0.4895787239074707, 0.38759517669677734, 0.32002946734428406, 0.2546283006668091, 0.250538170337677, 0.17992740869522095, 0.5697291493415833, 0.7275023460388184, 0.8098533153533936, 0.6988046169281006, 0.5255767703056335, 0.41703709959983826, 0.2704220414161682, 0.5043932795524597, 0.32775500416755676, 0.3833602964878082, 0.3732251524925232, 0.3340609669685364, 0.23592475056648254, 0.6727697849273682, 0.8457263112068176, 0.8911833167076111, 0.5177520513534546, 0.5823317170143127, 0.5548222064971924, 0.3170749843120575, 0.1812451332807541, 0.25510087609291077, 0.1713203489780426, 0.20822373032569885, 0.159092977643013, 0.20538964867591858, 0.36306190490722656, 0.2967625856399536, 0.28040578961372375, 0.32550522685050964, 0.29512712359428406, 0.4975992739200592, 0.5944099426269531, 0.5850308537483215, 0.31032881140708923, 0.15543562173843384, 0.37817543745040894, 0.4987317621707916, 0.4328019618988037, 0.577782392501831, 0.8785271048545837, 0.503149688243866, 0.5528627038002014, 0.6875509023666382, 0.7467329502105713, 0.5351677536964417, 0.46859055757522583, 0.3366619348526001, 0.4392576515674591, 0.7889949083328247, 0.6206507682800293, 0.3472144603729248, 0.4367779493331909, 0.3634048402309418, 0.558129608631134, 0.22675536572933197, 0.3217189311981201, 0.4944184124469757, 0.6688215732574463, 0.8218390941619873, 0.8587151765823364, 0.5110720992088318, 0.521192193031311, 0.5731242895126343, 0.6311286687850952, 0.5847411751747131, 0.45857155323028564, 0.5086227655410767, 0.4192608892917633, 0.49425533413887024, 0.42154932022094727, 0.21567000448703766, 0.15871430933475494, 0.19138842821121216, 0.2739610970020294, 0.5919327735900879, 0.40776732563972473, 0.5183906555175781, 0.5621322393417358, 0.4326033592224121, 0.3645877242088318, 0.5313667058944702, 0.5305341482162476]</t>
+          <t>[0.13750985264778137, 0.091128408908844, 0.08106277883052826, 0.06763404607772827, 0.04625118523836136, 0.04220506176352501, 0.07253806293010712, 0.11830566823482513, 0.1457653045654297, 0.2898147702217102, 0.8319480419158936, 0.9153803586959839, 0.93886798620224, 0.8875253200531006, 0.7098133563995361, 0.7620623707771301, 0.8912500143051147, 0.8043442964553833, 0.8619199395179749, 0.87912517786026, 0.7408012747764587, 0.7127394676208496, 0.6322225332260132, 0.7853875160217285, 0.4665355086326599, 0.6581832766532898, 0.6751372218132019, 0.7849335074424744, 0.76459801197052, 0.7373232841491699, 0.7756935954093933, 0.841758131980896, 0.9003598093986511, 0.8423312306404114, 0.8044337034225464, 0.9485447406768799, 0.8321336507797241, 0.4192450940608978, 0.32569214701652527, 0.29898154735565186, 0.509692907333374, 0.46177271008491516, 0.7733002305030823, 0.8289636969566345, 0.48976409435272217, 0.23493951559066772, 0.3925632834434509, 0.3323465585708618, 0.19822093844413757, 0.07424458116292953, 0.2900450825691223, 0.5945199728012085, 0.6286774277687073, 0.5680577158927917, 0.5782008767127991, 0.6663249731063843, 0.7554705739021301, 0.09277819842100143, 0.09000878781080246, 0.1360774040222168, 0.11490623652935028, 0.3201654851436615, 0.6873849630355835, 0.6807513236999512, 0.7265528440475464, 0.3828416168689728, 0.6934135556221008, 0.3729933798313141, 0.636920690536499, 0.4987373948097229, 0.4189845323562622, 0.38748884201049805, 0.24467597901821136, 0.2440982609987259, 0.18421463668346405, 0.7073273658752441, 0.8517635464668274, 0.9090851545333862, 0.8333955407142639, 0.5684165954589844, 0.39008456468582153, 0.18306145071983337, 0.5331503748893738, 0.2705017924308777, 0.30582311749458313, 0.3207502067089081, 0.3770236372947693, 0.22566109895706177, 0.8188021779060364, 0.9436734914779663, 0.9487611055374146, 0.6101962327957153, 0.6877148747444153, 0.7718868851661682, 0.3647952973842621, 0.1286005973815918, 0.22522921860218048, 0.10311999171972275, 0.17486150562763214, 0.12727883458137512, 0.14976313710212708, 0.3331019878387451, 0.2897612452507019, 0.28683143854141235, 0.4413292407989502, 0.324098140001297, 0.558234691619873, 0.7365946769714355, 0.71391761302948, 0.415865957736969, 0.10666588693857193, 0.46790921688079834, 0.6309584975242615, 0.5337091088294983, 0.7569980025291443, 0.9552158117294312, 0.7369292378425598, 0.7440519332885742, 0.8667260408401489, 0.8819032311439514, 0.6719576716423035, 0.6124529838562012, 0.4319707155227661, 0.5964705348014832, 0.8962831497192383, 0.7927659153938293, 0.5182473659515381, 0.662142813205719, 0.5603602528572083, 0.7489641308784485, 0.37006232142448425, 0.5377435088157654, 0.7146550416946411, 0.8371700644493103, 0.9510833024978638, 0.9621150493621826, 0.6886417269706726, 0.7004032731056213, 0.7705051302909851, 0.8123291730880737, 0.7271474003791809, 0.5260810852050781, 0.49152594804763794, 0.4515276253223419, 0.520612895488739, 0.45345693826675415, 0.21389028429985046, 0.13462893664836884, 0.1702127307653427, 0.22181543707847595, 0.5913901329040527, 0.44343331456184387, 0.4248020648956299, 0.5782486200332642, 0.47605928778648376, 0.414185494184494, 0.5661312341690063, 0.5656396746635437]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.905965268611908</v>
+        <v>0.9621150493621826</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.8856799999775831</v>
+        <v>0.8960362000070745</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005605569620111286</v>
+        <v>0.005671115189918193</v>
       </c>
     </row>
     <row r="50">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[0.23214903473854065, 0.20633138716220856, 0.3486008644104004, 0.22602660953998566, 0.3727528154850006, 0.279477596282959, 0.23329448699951172, 0.4571197032928467, 0.35003039240837097, 0.4593721032142639, 0.3837762773036957, 0.3984305262565613, 0.4712595045566559, 0.46090272068977356, 0.4578341245651245, 0.27951446175575256, 0.12108015269041061, 0.12187141180038452, 0.35333016514778137, 0.5233402848243713, 0.4969117343425751, 0.3691798746585846, 0.27443432807922363, 0.2988535463809967, 0.285807341337204, 0.43979325890541077, 0.14857891201972961, 0.14647872745990753, 0.20785199105739594, 0.2927420437335968, 0.2680217921733856, 0.35345935821533203, 0.40635913610458374, 0.33454540371894836, 0.47268497943878174, 0.29144635796546936, 0.5102419257164001, 0.2954360246658325, 0.467136025428772, 0.591771125793457, 0.38158881664276123, 0.18392802774906158, 0.19269831478595734, 0.15302115678787231, 0.1756603866815567, 0.13711461424827576, 0.08517283946275711, 0.1307866871356964, 0.1576615273952484, 0.19830186665058136, 0.13522526621818542, 0.12085641175508499, 0.09632379561662674, 0.12509237229824066, 0.15694937109947205, 0.1944165825843811, 0.18286369740962982, 0.13038043677806854, 0.11227432638406754, 0.07056888192892075, 0.1597883254289627, 0.1871652454137802, 0.21157068014144897, 0.14498117566108704, 0.1641109436750412, 0.2508501410484314, 0.21332523226737976, 0.2888273298740387, 0.15083396434783936, 0.1405927836894989, 0.11720187216997147, 0.2157941609621048, 0.24412523210048676, 0.1748865693807602, 0.2452961802482605, 0.24984078109264374, 0.19302791357040405, 0.11972799897193909, 0.23742806911468506, 0.24820983409881592, 0.2932928800582886, 0.19836990535259247, 0.20805202424526215, 0.16643457114696503, 0.16575421392917633, 0.18790119886398315, 0.10928205400705338, 0.09362509846687317, 0.057797376066446304, 0.09367436170578003, 0.1048380509018898, 0.1011660099029541, 0.13266010582447052, 0.1558743119239807, 0.19235138595104218, 0.21124021708965302, 0.15535646677017212, 0.15118245780467987, 0.16213946044445038, 0.16310110688209534, 0.18454651534557343, 0.3110593855381012, 0.2596708834171295, 0.205636128783226, 0.4626569449901581, 0.46081432700157166, 0.41298606991767883, 0.29975757002830505, 0.13727432489395142, 0.13428844511508942, 0.1366811990737915, 0.13352283835411072, 0.20972228050231934, 0.22120711207389832, 0.23239579796791077, 0.42163732647895813, 0.2520368993282318, 0.19166535139083862, 0.14305797219276428, 0.2059120237827301, 0.2710910439491272, 0.35804468393325806, 0.31376609206199646, 0.14995302259922028, 0.09623006731271744, 0.0838506743311882, 0.07229936867952347, 0.06253077834844589, 0.041414231061935425, 0.06975729018449783, 0.07314703613519669, 0.10809486359357834, 0.14155957102775574, 0.158513143658638, 0.21236780285835266, 0.23206254839897156, 0.37267643213272095, 0.3554869294166565, 0.16961614787578583, 0.13775010406970978, 0.1353839635848999, 0.25310465693473816, 0.3030053675174713, 0.1839149445295334, 0.09541391581296921, 0.1933220624923706, 0.26938992738723755, 0.20625025033950806, 0.2747200131416321, 0.26261037588119507, 0.12929226458072662, 0.12384743243455887, 0.08875162899494171, 0.091803640127182, 0.11132142692804337, 0.13485755026340485, 0.1796225756406784, 0.1796049028635025]</t>
+          <t>[0.07908302545547485, 0.07529551535844803, 0.20979388058185577, 0.060568541288375854, 0.22825318574905396, 0.1673169881105423, 0.10431378334760666, 0.27042457461357117, 0.20054619014263153, 0.34434691071510315, 0.29085448384284973, 0.2882789075374603, 0.447265625, 0.4906030595302582, 0.43084678053855896, 0.13721969723701477, 0.04089983180165291, 0.045832160860300064, 0.21404345333576202, 0.5100841522216797, 0.4026027023792267, 0.3805282711982727, 0.29825037717819214, 0.28448641300201416, 0.2974637448787689, 0.49957022070884705, 0.13006837666034698, 0.13610823452472687, 0.16478051245212555, 0.2581283748149872, 0.24232763051986694, 0.3377017378807068, 0.4044658839702606, 0.2739015519618988, 0.45612427592277527, 0.22328788042068481, 0.4336250424385071, 0.21714970469474792, 0.44561129808425903, 0.6494883298873901, 0.38570165634155273, 0.16367948055267334, 0.20585674047470093, 0.14147639274597168, 0.1474711149930954, 0.11746399104595184, 0.054803088307380676, 0.0844808965921402, 0.09068117290735245, 0.11131498217582703, 0.07343742251396179, 0.05584736168384552, 0.041709791868925095, 0.06521932035684586, 0.09699097275733948, 0.13864755630493164, 0.12244163453578949, 0.0888366550207138, 0.07666824758052826, 0.04771324619650841, 0.11704330891370773, 0.15825439989566803, 0.16855277121067047, 0.10153546929359436, 0.14501559734344482, 0.2515275776386261, 0.16486038267612457, 0.26723411679267883, 0.08811451494693756, 0.08300048857927322, 0.05455223470926285, 0.15059439837932587, 0.17504332959651947, 0.10938815027475357, 0.19166764616966248, 0.20800445973873138, 0.13504865765571594, 0.06811240315437317, 0.1704118549823761, 0.20742252469062805, 0.2868131995201111, 0.16790688037872314, 0.15419824421405792, 0.11297786235809326, 0.1220376044511795, 0.13099366426467896, 0.05707591027021408, 0.043080564588308334, 0.01750897616147995, 0.03573499619960785, 0.03290073946118355, 0.04068255051970482, 0.05480867251753807, 0.06661958992481232, 0.09950186312198639, 0.11240991950035095, 0.06782788783311844, 0.07711741328239441, 0.0915781781077385, 0.09800144284963608, 0.10802717506885529, 0.23780247569084167, 0.1715279221534729, 0.1303199827671051, 0.4498671591281891, 0.3574804663658142, 0.31756851077079773, 0.1851510852575302, 0.07443919032812119, 0.09450390934944153, 0.10323245823383331, 0.0814957544207573, 0.13862185180187225, 0.1963638961315155, 0.18684452772140503, 0.43174707889556885, 0.18540742993354797, 0.12039857357740402, 0.08682268857955933, 0.1447475552558899, 0.22722235321998596, 0.44695815443992615, 0.3618934452533722, 0.10469415783882141, 0.039081960916519165, 0.02528516575694084, 0.024152064695954323, 0.02048546075820923, 0.011596455238759518, 0.02245577983558178, 0.028262939304113388, 0.05853619799017906, 0.07094931602478027, 0.0726613849401474, 0.1077425479888916, 0.1294744908809662, 0.30393707752227783, 0.3318651020526886, 0.08269497752189636, 0.06072058156132698, 0.06700844317674637, 0.21579740941524506, 0.31083905696868896, 0.1322864294052124, 0.058171723037958145, 0.1499273031949997, 0.2193857729434967, 0.12127983570098877, 0.2052900344133377, 0.24360579252243042, 0.10656408965587616, 0.09741973876953125, 0.04735548049211502, 0.04744286462664604, 0.06213156878948212, 0.12594330310821533, 0.162638321518898, 0.16262297332286835]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.591771125793457</v>
+        <v>0.6494883298873901</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.8805450999934692</v>
+        <v>0.8831349999964004</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005573070253123222</v>
+        <v>0.005589462025293673</v>
       </c>
     </row>
     <row r="51">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.10187769681215286, 0.12362242490053177, 0.09374676644802094, 0.07873530685901642, 0.12499333918094635, 0.11446069180965424, 0.09119881689548492, 0.11172034591436386, 0.3686799705028534, 0.16986915469169617, 0.07784655690193176, 0.12235552817583084, 0.08766957372426987, 0.0787590891122818, 0.108775794506073, 0.11187846213579178, 0.1278846710920334, 0.3092130124568939, 0.2939754128456116, 0.29327893257141113, 0.4051567018032074, 0.17163939774036407, 0.12101014703512192, 0.0685969814658165, 0.04924720525741577, 0.050533682107925415, 0.08108371496200562, 0.20932553708553314, 0.28912225365638733, 0.21521466970443726, 0.13893663883209229, 0.23903201520442963, 0.2992998957633972, 0.15027134120464325, 0.24718491733074188, 0.16336750984191895, 0.24996450543403625, 0.22891780734062195, 0.2184835970401764, 0.44668543338775635, 0.19642382860183716, 0.1969720423221588, 0.24697212874889374, 0.14500387012958527, 0.2859417796134949, 0.27390629053115845, 0.1739933043718338, 0.4198775887489319, 0.3771402835845947, 0.3351612389087677, 0.34578391909599304, 0.2568883001804352, 0.2249707132577896, 0.10094702243804932, 0.15917620062828064, 0.08154863119125366, 0.07996825873851776, 0.0916266068816185, 0.0616297572851181, 0.08017908781766891, 0.08412812650203705, 0.07712844014167786, 0.19229979813098907, 0.19456274807453156, 0.2657926082611084, 0.29698002338409424, 0.4701753854751587, 0.45921260118484497, 0.5276423692703247, 0.4882391691207886, 0.4724634885787964, 0.6986347436904907, 0.5589823722839355, 0.3679887056350708, 0.5613318085670471, 0.27709662914276123, 0.44948652386665344, 0.32263249158859253, 0.6002740859985352, 0.4717954695224762, 0.5627618432044983, 0.576612651348114, 0.5328453779220581, 0.21646174788475037, 0.34703999757766724, 0.45419424772262573, 0.6349921226501465, 0.5280977487564087, 0.2618044316768646, 0.3699611723423004, 0.278291791677475, 0.3001262843608856, 0.6389122605323792, 0.3880347013473511, 0.44195911288261414, 0.4339810013771057, 0.28108927607536316, 0.38027223944664, 0.5053878426551819, 0.3991298973560333, 0.28932705521583557, 0.17940594255924225, 0.12094707787036896, 0.12946656346321106, 0.17521777749061584, 0.2692726254463196, 0.3079777657985687, 0.1595008671283722, 0.338716596364975, 0.5084695816040039, 0.44840243458747864, 0.36336472630500793, 0.3962259292602539, 0.3641713261604309, 0.15086710453033447, 0.18573737144470215, 0.4166209101676941, 0.5576961040496826, 0.4896013140678406, 0.5571798086166382, 0.42843395471572876, 0.28636401891708374, 0.5426874160766602, 0.4403262436389923, 0.4961633086204529, 0.43714189529418945, 0.6686679720878601, 0.6020990610122681, 0.5144041180610657, 0.4301045835018158, 0.24511171877384186, 0.3346615135669708, 0.13943815231323242, 0.288549542427063, 0.44851329922676086, 0.36136773228645325, 0.39242875576019287, 0.5612854361534119, 0.39481350779533386, 0.32202067971229553, 0.48616471886634827, 0.2969306707382202, 0.2298942357301712, 0.17769668996334076, 0.2734566330909729, 0.24776095151901245, 0.3736247718334198, 0.3987032175064087, 0.5824005603790283, 0.48011305928230286, 0.37625792622566223, 0.4562917947769165, 0.2957366406917572, 0.14691682159900665, 0.08284180611371994, 0.1247645691037178, 0.14840833842754364, 0.14820384979248047]</t>
+          <t>[0.06900086253881454, 0.09088696539402008, 0.06061174347996712, 0.049689967185258865, 0.07631795853376389, 0.07335691899061203, 0.0583811029791832, 0.07864170521497726, 0.32196176052093506, 0.1471414864063263, 0.05097339302301407, 0.08936074376106262, 0.058362480252981186, 0.04419270530343056, 0.06836210936307907, 0.06734341382980347, 0.12778432667255402, 0.372257798910141, 0.32599297165870667, 0.27058205008506775, 0.29194411635398865, 0.08980050683021545, 0.05233412981033325, 0.02567998319864273, 0.01705043949186802, 0.01973290927708149, 0.03760609030723572, 0.24848900735378265, 0.3422672748565674, 0.16762802004814148, 0.11369030922651291, 0.24107518792152405, 0.31111204624176025, 0.12770231068134308, 0.25205641984939575, 0.11787442117929459, 0.24085073173046112, 0.2293851375579834, 0.17833223938941956, 0.4810087978839874, 0.17428278923034668, 0.18700900673866272, 0.21038459241390228, 0.095882847905159, 0.241410493850708, 0.21335668861865997, 0.09485046565532684, 0.3904968202114105, 0.36590486764907837, 0.3334959149360657, 0.34674057364463806, 0.25459712743759155, 0.164735347032547, 0.06276022642850876, 0.11455059796571732, 0.0492841899394989, 0.03888144716620445, 0.05099646747112274, 0.03250771760940552, 0.05199483409523964, 0.04801182448863983, 0.041388142853975296, 0.23825019598007202, 0.19445101916790009, 0.3166382610797882, 0.3438645005226135, 0.5224478840827942, 0.46235933899879456, 0.587322473526001, 0.5135051608085632, 0.517724335193634, 0.8166782855987549, 0.6824967265129089, 0.4606166481971741, 0.7423942685127258, 0.3078102469444275, 0.46522974967956543, 0.391947478055954, 0.6803042888641357, 0.5866154432296753, 0.6792806386947632, 0.7453310489654541, 0.6621659398078918, 0.18064752221107483, 0.3282056450843811, 0.5136368870735168, 0.8308849930763245, 0.635036051273346, 0.27164775133132935, 0.4603947401046753, 0.2704352140426636, 0.2887319326400757, 0.7208794951438904, 0.40170520544052124, 0.5026854872703552, 0.402116984128952, 0.18479178845882416, 0.27021509408950806, 0.4146230220794678, 0.31938135623931885, 0.22106929123401642, 0.11281495541334152, 0.07186426222324371, 0.07539396733045578, 0.129595085978508, 0.19138482213020325, 0.16940321028232574, 0.0852106437087059, 0.39634740352630615, 0.4401964247226715, 0.3873586654663086, 0.24449674785137177, 0.3913743793964386, 0.3550705313682556, 0.10857804864645004, 0.18297381699085236, 0.48561832308769226, 0.6983190774917603, 0.5301995277404785, 0.6525775790214539, 0.4607689082622528, 0.29049941897392273, 0.6341935992240906, 0.46787089109420776, 0.5593785643577576, 0.514782190322876, 0.7808484435081482, 0.6471187472343445, 0.6245807409286499, 0.42011597752571106, 0.1764535754919052, 0.20676282048225403, 0.06511608511209488, 0.2593866288661957, 0.4567362666130066, 0.4081076383590698, 0.40331006050109863, 0.5815477967262268, 0.3114495873451233, 0.2113383561372757, 0.3801363408565521, 0.20465561747550964, 0.10656197369098663, 0.10455729812383652, 0.2423422932624817, 0.25953367352485657, 0.46775010228157043, 0.5761232376098633, 0.6580339670181274, 0.491337388753891, 0.4009922742843628, 0.5326421856880188, 0.312940776348114, 0.1308373659849167, 0.04701180011034012, 0.07132016122341156, 0.08459968864917755, 0.08450031280517578]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.6986347436904907</v>
+        <v>0.8308849930763245</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.8794688000052702</v>
+        <v>0.8850629999942612</v>
       </c>
       <c r="J51" t="n">
-        <v>0.005566258227881457</v>
+        <v>0.005601664556925704</v>
       </c>
     </row>
     <row r="52">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[0.11949494481086731, 0.1417255997657776, 0.16782313585281372, 0.1834094226360321, 0.48708295822143555, 0.5161513090133667, 0.41011959314346313, 0.674558162689209, 0.3617890179157257, 0.40024980902671814, 0.5653960108757019, 0.5790624022483826, 0.2895857095718384, 0.22032949328422546, 0.18411403894424438, 0.18816109001636505, 0.1785167157649994, 0.11855189502239227, 0.0843982994556427, 0.13425540924072266, 0.2215902954339981, 0.27508121728897095, 0.2317764312028885, 0.25125813484191895, 0.19248782098293304, 0.21527917683124542, 0.5127391815185547, 0.6333271861076355, 0.312693327665329, 0.22163735330104828, 0.1752813756465912, 0.21909353137016296, 0.25725868344306946, 0.2824070155620575, 0.31833913922309875, 0.5316802859306335, 0.28466808795928955, 0.5663666129112244, 0.4785325229167938, 0.3972174823284149, 0.25991976261138916, 0.2356705218553543, 0.2524319589138031, 0.2770078778266907, 0.4749969244003296, 0.33088821172714233, 0.40216299891471863, 0.26074299216270447, 0.3843313455581665, 0.4297603368759155, 0.4247792065143585, 0.23477104306221008, 0.1311917006969452, 0.10031048953533173, 0.13417968153953552, 0.09416153281927109, 0.16035892069339752, 0.1614658534526825, 0.08907433599233627, 0.11395879834890366, 0.14494995772838593, 0.13411206007003784, 0.2745390832424164, 0.3051601052284241, 0.1580035537481308, 0.26011693477630615, 0.2389063984155655, 0.15912805497646332, 0.29680943489074707, 0.25281524658203125, 0.3137708306312561, 0.22049516439437866, 0.16895504295825958, 0.13211552798748016, 0.16283182799816132, 0.1663677990436554, 0.23137877881526947, 0.2441796511411667, 0.3245193660259247, 0.23355703055858612, 0.25951671600341797, 0.17661438882350922, 0.10866846889257431, 0.1609611064195633, 0.22019320726394653, 0.3743135929107666, 0.23041385412216187, 0.16346506774425507, 0.22838982939720154, 0.3080179691314697, 0.4345196783542633, 0.3176994025707245, 0.3716007471084595, 0.3668184280395508, 0.2141743153333664, 0.24732689559459686, 0.20171116292476654, 0.21497060358524323, 0.18282566964626312, 0.36239463090896606, 0.2687346041202545, 0.14461570978164673, 0.2554982602596283, 0.2628406882286072, 0.13083188235759735, 0.18286098539829254, 0.18817266821861267, 0.19536273181438446, 0.23702113330364227, 0.16081471741199493, 0.24258483946323395, 0.26741430163383484, 0.36442071199417114, 0.25641068816185, 0.13116861879825592, 0.15642525255680084, 0.16445423662662506, 0.3344981074333191, 0.09490229934453964, 0.1094130277633667, 0.15778779983520508, 0.23248238861560822, 0.2783059775829315, 0.4192153513431549, 0.24729639291763306, 0.21778666973114014, 0.21596063673496246, 0.14755398035049438, 0.16304193437099457, 0.13030041754245758, 0.15383045375347137, 0.1706094890832901, 0.10751213133335114, 0.1109403446316719, 0.059303898364305496, 0.08483368158340454, 0.1782689392566681, 0.3037263751029968, 0.22277088463306427, 0.20840369164943695, 0.16185691952705383, 0.123142771422863, 0.1094198152422905, 0.08512590825557709, 0.15118730068206787, 0.12471932172775269, 0.11035153269767761, 0.1135396882891655, 0.17451077699661255, 0.13580390810966492, 0.1106812059879303, 0.14638353884220123, 0.23144540190696716, 0.14760982990264893, 0.11568149924278259, 0.1214105635881424, 0.11546246707439423, 0.11435035616159439]</t>
+          <t>[0.05457734689116478, 0.04736107587814331, 0.060150425881147385, 0.07123573869466782, 0.297251433134079, 0.43891721963882446, 0.2739245593547821, 0.7167218327522278, 0.24847376346588135, 0.3854661285877228, 0.5603184103965759, 0.5762156248092651, 0.21111686527729034, 0.15497662127017975, 0.10624664276838303, 0.12620459496974945, 0.09320993721485138, 0.059448644518852234, 0.039649806916713715, 0.0609818734228611, 0.09896091371774673, 0.14175228774547577, 0.1151478961110115, 0.1250489205121994, 0.07018451392650604, 0.10989328473806381, 0.447907418012619, 0.6808109879493713, 0.14575354754924774, 0.09885968267917633, 0.04558880627155304, 0.12113308906555176, 0.21959288418293, 0.17237091064453125, 0.2531207203865051, 0.41123998165130615, 0.14435137808322906, 0.5178142786026001, 0.34611427783966064, 0.2604357898235321, 0.15095889568328857, 0.1587238907814026, 0.13605092465877533, 0.17856700718402863, 0.34049567580223083, 0.15401619672775269, 0.22722867131233215, 0.12872926890850067, 0.2562858760356903, 0.2748965322971344, 0.21707649528980255, 0.08609572798013687, 0.057522278279066086, 0.0554204061627388, 0.06596710532903671, 0.04001465067267418, 0.08690394461154938, 0.09370481967926025, 0.04546040669083595, 0.09056499600410461, 0.09844642877578735, 0.053403399884700775, 0.21198523044586182, 0.19857044517993927, 0.09819751232862473, 0.19067473709583282, 0.12397555261850357, 0.04698316007852554, 0.15856678783893585, 0.10793717950582504, 0.21775148808956146, 0.10666020959615707, 0.07447993010282516, 0.056244686245918274, 0.08734354376792908, 0.09521660953760147, 0.1894679069519043, 0.17978715896606445, 0.34077590703964233, 0.2229565978050232, 0.22632034122943878, 0.11752684414386749, 0.05655938386917114, 0.10601305961608887, 0.10199908912181854, 0.3220614194869995, 0.0939970389008522, 0.0649656429886818, 0.16656288504600525, 0.2025492936372757, 0.28710025548934937, 0.1550077199935913, 0.24732162058353424, 0.28219932317733765, 0.09782711416482925, 0.118472620844841, 0.08336518704891205, 0.08555467426776886, 0.08776236325502396, 0.488506019115448, 0.23816609382629395, 0.14313329756259918, 0.29160207509994507, 0.2960875928401947, 0.08648674190044403, 0.18853110074996948, 0.17272235453128815, 0.13202998042106628, 0.17254112660884857, 0.05968647822737694, 0.10632366687059402, 0.14935234189033508, 0.1892300248146057, 0.14207985997200012, 0.07434023171663284, 0.07852980494499207, 0.08068341761827469, 0.32419899106025696, 0.04572971165180206, 0.04350285604596138, 0.07358071208000183, 0.12917546927928925, 0.19323034584522247, 0.37957602739334106, 0.1820816546678543, 0.18337449431419373, 0.19427499175071716, 0.0932704359292984, 0.062144163995981216, 0.06177632138133049, 0.11468944698572159, 0.12554799020290375, 0.0642896294593811, 0.06249008700251579, 0.022997256368398666, 0.031790316104888916, 0.0974164754152298, 0.25204890966415405, 0.15706953406333923, 0.16002342104911804, 0.09628494828939438, 0.07151390612125397, 0.06358741223812103, 0.03020319901406765, 0.08378651738166809, 0.06907746195793152, 0.05819486081600189, 0.0654856264591217, 0.16417178511619568, 0.10841604322195053, 0.09663756191730499, 0.10679182410240173, 0.14773957431316376, 0.08747026324272156, 0.06919052451848984, 0.05828173831105232, 0.07195033133029938, 0.0707247331738472]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.674558162689209</v>
+        <v>0.7167218327522278</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.8819161000137683</v>
+        <v>0.8925955000013346</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005581747468441572</v>
+        <v>0.005649338607603384</v>
       </c>
     </row>
     <row r="53">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[0.03486365079879761, 0.05046385899186134, 0.02851402387022972, 0.03394034504890442, 0.023722777143120766, 0.026337798684835434, 0.028719618916511536, 0.03561650589108467, 0.060550250113010406, 0.07732394337654114, 0.04954614117741585, 0.030037470161914825, 0.026126770302653313, 0.04911428317427635, 0.03817259520292282, 0.037654466927051544, 0.03292760252952576, 0.05502079427242279, 0.0626462772488594, 0.06988268345594406, 0.048760902136564255, 0.048566073179244995, 0.07694683223962784, 0.06050669774413109, 0.05129408836364746, 0.06952517479658127, 0.05819308012723923, 0.07093508541584015, 0.04232675954699516, 0.053539570420980453, 0.04821307957172394, 0.07304561883211136, 0.12812116742134094, 0.12029141187667847, 0.1211431547999382, 0.05372338369488716, 0.03473612666130066, 0.0457630380988121, 0.08989901840686798, 0.10979396849870682, 0.113701730966568, 0.07970812916755676, 0.04790960252285004, 0.04705648869276047, 0.03612104803323746, 0.036398984491825104, 0.029725149273872375, 0.037138864398002625, 0.0715918317437172, 0.05703369155526161, 0.042934317141771317, 0.03956950828433037, 0.029715675860643387, 0.025607990100979805, 0.025326073169708252, 0.024261189624667168, 0.02900579944252968, 0.03548533841967583, 0.03342325985431671, 0.03167922422289848, 0.027515806257724762, 0.028561783954501152, 0.036945756524801254, 0.03713499382138252, 0.05122848227620125, 0.048443663865327835, 0.05613993853330612, 0.06647448241710663, 0.12561725080013275, 0.19084642827510834, 0.19562600553035736, 0.03997140750288963, 0.03286002203822136, 0.0423940010368824, 0.08910886943340302, 0.0934399664402008, 0.06260013580322266, 0.039675481617450714, 0.030314970761537552, 0.024619603529572487, 0.01997740939259529, 0.021388031542301178, 0.027868222445249557, 0.05861613526940346, 0.052120380103588104, 0.06640996038913727, 0.06300725042819977, 0.0421970933675766, 0.028366077691316605, 0.03428981080651283, 0.028082992881536484, 0.023681189864873886, 0.04969651252031326, 0.04224651679396629, 0.03978892043232918, 0.04486291855573654, 0.0488436259329319, 0.04931952431797981, 0.04291538521647453, 0.05141499638557434, 0.05204850807785988, 0.08260070532560349, 0.037364549934864044, 0.04105577617883682, 0.04147309809923172, 0.041655320674180984, 0.04871369153261185, 0.04318336769938469, 0.043522343039512634, 0.04087730124592781, 0.03621561452746391, 0.04786824807524681, 0.028058189898729324, 0.025898467749357224, 0.018939079716801643, 0.02104094624519348, 0.02966894395649433, 0.054575130343437195, 0.029728099703788757, 0.023167865350842476, 0.03816947713494301, 0.019042689353227615, 0.025175997987389565, 0.04108450934290886, 0.052811235189437866, 0.056748803704977036, 0.05188867077231407, 0.03991938754916191, 0.035010356456041336, 0.055281803011894226, 0.08405375480651855, 0.06385606527328491, 0.07609587907791138, 0.06389617919921875, 0.0622265599668026, 0.06572256237268448, 0.05825792998075485, 0.07137304544448853, 0.1121792197227478, 0.081627257168293, 0.06538507342338562, 0.09163650870323181, 0.04395001754164696, 0.038515422493219376, 0.03492523357272148, 0.04025159031152725, 0.05188096687197685, 0.0517868734896183, 0.05803295597434044, 0.16099074482917786, 0.25954222679138184, 0.19016462564468384, 0.11176936328411102, 0.06402366608381271, 0.04342007264494896, 0.03931673616170883, 0.034226659685373306, 0.03415605425834656]</t>
+          <t>[0.03188871219754219, 0.03963182494044304, 0.02216467820107937, 0.026219433173537254, 0.015021012164652348, 0.017794111743569374, 0.019022280350327492, 0.021053900942206383, 0.05004251003265381, 0.05989575758576393, 0.02412472292780876, 0.01479867473244667, 0.011973321437835693, 0.029018884524703026, 0.02546759881079197, 0.023975633084774017, 0.015306547284126282, 0.040319181978702545, 0.04395638778805733, 0.061307381838560104, 0.033815670758485794, 0.02964431419968605, 0.0421866737306118, 0.029797667637467384, 0.028826620429754257, 0.038213592022657394, 0.03512151911854744, 0.05490456148982048, 0.01978396624326706, 0.021672135218977928, 0.02279024012386799, 0.03665637969970703, 0.08050879836082458, 0.06417746096849442, 0.05349759757518768, 0.020758001133799553, 0.01575571298599243, 0.024561524391174316, 0.04433629661798477, 0.056581877171993256, 0.06253479421138763, 0.05356890335679054, 0.02684841863811016, 0.020592691376805305, 0.012242279946804047, 0.009396548382937908, 0.008320310153067112, 0.013008558191359043, 0.036422327160835266, 0.031197307631373405, 0.01661224290728569, 0.014201609417796135, 0.009941204451024532, 0.0081093218177557, 0.00823919102549553, 0.007448133546859026, 0.00967823900282383, 0.011629688553512096, 0.01315167173743248, 0.012934601865708828, 0.011010024696588516, 0.009726679883897305, 0.010966602712869644, 0.011480669490993023, 0.023269012570381165, 0.024822065606713295, 0.038632381707429886, 0.0481530986726284, 0.15178333222866058, 0.2997642755508423, 0.289080947637558, 0.030865488573908806, 0.028737440705299377, 0.025282977148890495, 0.06119709089398384, 0.08409690111875534, 0.04172130674123764, 0.023322565481066704, 0.017939860001206398, 0.01689581573009491, 0.00936084147542715, 0.012112054973840714, 0.012647371739149094, 0.03824084997177124, 0.035245370119810104, 0.04654751718044281, 0.05241868272423744, 0.030762506648898125, 0.0162409208714962, 0.024721115827560425, 0.017240693792700768, 0.010741584934294224, 0.02374309115111828, 0.02026357874274254, 0.018272308632731438, 0.01996426098048687, 0.0254215057939291, 0.028906919062137604, 0.03536723926663399, 0.05981386825442314, 0.059465572237968445, 0.07600915431976318, 0.021053340286016464, 0.019160360097885132, 0.018653491511940956, 0.0250273235142231, 0.036108795553445816, 0.03602514788508415, 0.0388210229575634, 0.03134649991989136, 0.02227126993238926, 0.0474545955657959, 0.015429318882524967, 0.0194256529211998, 0.01573338732123375, 0.021472861990332603, 0.03666795790195465, 0.12385710328817368, 0.022682346403598785, 0.018687577918171883, 0.06989622861146927, 0.011752738617360592, 0.018618585541844368, 0.04333210363984108, 0.03893706202507019, 0.04533138498663902, 0.03164475038647652, 0.0279302429407835, 0.0315910242497921, 0.05376455560326576, 0.08066876232624054, 0.05804244801402092, 0.05351309850811958, 0.035227514803409576, 0.0364525280892849, 0.041133347898721695, 0.03926945477724075, 0.044253334403038025, 0.10554385930299759, 0.0779082402586937, 0.05370568856596947, 0.07317060977220535, 0.028181320056319237, 0.029657572507858276, 0.03219268471002579, 0.03630983084440231, 0.052790530025959015, 0.04230796918272972, 0.05584955960512161, 0.2237100601196289, 0.3030990958213806, 0.26164206862449646, 0.1076478362083435, 0.044805172830820084, 0.026558667421340942, 0.020419299602508545, 0.015813173726201057, 0.015765326097607613]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2595422267913818</v>
+        <v>0.3030990958213806</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.8889885999960825</v>
+        <v>0.8915723999962211</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005626510126557484</v>
+        <v>0.005642863291115323</v>
       </c>
     </row>
     <row r="54">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.13473953306674957, 0.12346518039703369, 0.08366312831640244, 0.0567038357257843, 0.08025158196687698, 0.06352362781763077, 0.10988548398017883, 0.06232113018631935, 0.1441444456577301, 0.10184243321418762, 0.1691402643918991, 0.16187988221645355, 0.15279971063137054, 0.07153008878231049, 0.0766613557934761, 0.07033271342515945, 0.11399192363023758, 0.12307943403720856, 0.05809515714645386, 0.10297464579343796, 0.08975842595100403, 0.08784207701683044, 0.10270732641220093, 0.11973714083433151, 0.23804157972335815, 0.15343551337718964, 0.10844438523054123, 0.18356475234031677, 0.2825496792793274, 0.14248666167259216, 0.11817489564418793, 0.12943612039089203, 0.10588081926107407, 0.08514654636383057, 0.07028694450855255, 0.13205887377262115, 0.27883923053741455, 0.306226909160614, 0.40936172008514404, 0.06961806863546371, 0.23258188366889954, 0.12722423672676086, 0.28956684470176697, 0.22670552134513855, 0.1667243391275406, 0.1268051266670227, 0.13759514689445496, 0.05533920228481293, 0.2564918100833893, 0.06093225255608559, 0.10009264945983887, 0.07104188203811646, 0.10917705297470093, 0.08786902576684952, 0.1396913081407547, 0.18558606505393982, 0.10322535783052444, 0.10979671031236649, 0.383719265460968, 0.11475879698991776, 0.2653154730796814, 0.23438893258571625, 0.0666579008102417, 0.036589983850717545, 0.06228339672088623, 0.10129822790622711, 0.1526779681444168, 0.1825486272573471, 0.13794337213039398, 0.056841108947992325, 0.040833089500665665, 0.04027244821190834, 0.06940613687038422, 0.1444156914949417, 0.05984906107187271, 0.08692473918199539, 0.0526641383767128, 0.0729965940117836, 0.04148798808455467, 0.08745642751455307, 0.05302581563591957, 0.05759531259536743, 0.15611517429351807, 0.17966632544994354, 0.16755448281764984, 0.05455351248383522, 0.11796244233846664, 0.314518541097641, 0.2973170578479767, 0.18138006329536438, 0.16702695190906525, 0.3443843126296997, 0.4090556502342224, 0.5430380702018738, 0.3060470521450043, 0.15515272319316864, 0.06273791939020157, 0.05001046881079674, 0.07471825182437897, 0.13373853266239166, 0.0454607829451561, 0.11676926910877228, 0.3517264723777771, 0.24043188989162445, 0.3967476785182953, 0.06571468710899353, 0.18197529017925262, 0.6734740138053894, 0.29321399331092834, 0.11459601670503616, 0.08034034073352814, 0.27518460154533386, 0.21198715269565582, 0.17255088686943054, 0.15463946759700775, 0.16728095710277557, 0.1064285859465599, 0.18069489300251007, 0.1424742192029953, 0.0874338373541832, 0.09402044117450714, 0.06190693378448486, 0.06268773227930069, 0.06418536603450775, 0.05691586434841156, 0.08602821826934814, 0.05448967590928078, 0.05366930738091469, 0.07420775294303894, 0.05420929938554764, 0.08703425526618958, 0.43863263726234436, 0.19856229424476624, 0.15294526517391205, 0.06841172277927399, 0.05468469858169556, 0.1262928694486618, 0.09364794939756393, 0.0472257025539875, 0.16289743781089783, 0.10002961754798889, 0.12347044050693512, 0.18750062584877014, 0.22474659979343414, 0.2214501053094864, 0.11447781324386597, 0.11871465295553207, 0.11862679570913315]</t>
+          <t>[0.06450764834880829, 0.07023300975561142, 0.051370974630117416, 0.029200317338109016, 0.040766943246126175, 0.03192339465022087, 0.040384046733379364, 0.03625377640128136, 0.09360074251890182, 0.07232872396707535, 0.11858127266168594, 0.15272878110408783, 0.09859081357717514, 0.04962973669171333, 0.03632529824972153, 0.04013950377702713, 0.06612179428339005, 0.07846713811159134, 0.028334613889455795, 0.044302165508270264, 0.04582586884498596, 0.04324106127023697, 0.05046758055686951, 0.07283274084329605, 0.19227759540081024, 0.12646755576133728, 0.0787719190120697, 0.1302335411310196, 0.2799740433692932, 0.1193448156118393, 0.09300560504198074, 0.10435429960489273, 0.07830539345741272, 0.06495006382465363, 0.039143361151218414, 0.07115525752305984, 0.2210730016231537, 0.22966448962688446, 0.3822876811027527, 0.05287740007042885, 0.22690331935882568, 0.14291810989379883, 0.31795433163642883, 0.15765538811683655, 0.08963867276906967, 0.0805990919470787, 0.10500558465719223, 0.03767489641904831, 0.22666211426258087, 0.03765872120857239, 0.05543883144855499, 0.04812467098236084, 0.08176801353693008, 0.0632089227437973, 0.10927905142307281, 0.16107423603534698, 0.05874476581811905, 0.07683000713586807, 0.23953916132450104, 0.05585254356265068, 0.17434820532798767, 0.12681813538074493, 0.0335114561021328, 0.023591473698616028, 0.02869943343102932, 0.060812246054410934, 0.10599789768457413, 0.12644074857234955, 0.07873230427503586, 0.03026922605931759, 0.02017464116215706, 0.016034549102187157, 0.028996950015425682, 0.07552596926689148, 0.026031499728560448, 0.05429910868406296, 0.029890181496739388, 0.040657468140125275, 0.02618536353111267, 0.06764619797468185, 0.03925197198987007, 0.028770286589860916, 0.06875455379486084, 0.10957211256027222, 0.08780533820390701, 0.023856572806835175, 0.03953659161925316, 0.19894571602344513, 0.12876778841018677, 0.08524123579263687, 0.09504447877407074, 0.24465081095695496, 0.18830862641334534, 0.37666651606559753, 0.18459497392177582, 0.08493826538324356, 0.039191216230392456, 0.03153955563902855, 0.052603982388973236, 0.09531480073928833, 0.033170100301504135, 0.07707751542329788, 0.2719944417476654, 0.22284600138664246, 0.3424942195415497, 0.060498565435409546, 0.16456493735313416, 0.7154513001441956, 0.1576995998620987, 0.08115175366401672, 0.03691478073596954, 0.1725016087293625, 0.1895742416381836, 0.18608638644218445, 0.16389119625091553, 0.19678713381290436, 0.06206576153635979, 0.1200539693236351, 0.1196107491850853, 0.07482120394706726, 0.07309816777706146, 0.038740821182727814, 0.03539670631289482, 0.03909002244472504, 0.03771882876753807, 0.0731424018740654, 0.04433678090572357, 0.04327138140797615, 0.05700432509183884, 0.03750373795628548, 0.053916845470666885, 0.34948527812957764, 0.14844538271427155, 0.08410536497831345, 0.04175488278269768, 0.02553388476371765, 0.0549326129257679, 0.054915234446525574, 0.02083025686442852, 0.07953900843858719, 0.04914455488324165, 0.06794776022434235, 0.10793454200029373, 0.10552196204662323, 0.09245596826076508, 0.05838315561413765, 0.08085920661687851, 0.08085954934358597]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.6734740138053894</v>
+        <v>0.7154513001441956</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.8238011000212282</v>
+        <v>0.8598391999985324</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005566223648792082</v>
+        <v>0.005809724324314408</v>
       </c>
     </row>
     <row r="55">
@@ -2725,11 +2725,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.30829572677612305, 0.32604309916496277, 0.15705469250679016, 0.15320904552936554, 0.12196969240903854, 0.20132049918174744, 0.20481400191783905, 0.663465678691864, 0.8425447344779968, 0.4111235439777374, 0.3670679032802582, 0.4062281847000122, 0.4228994846343994, 0.5887091755867004, 0.26551103591918945, 0.35933613777160645, 0.3975777328014374, 0.4717005491256714, 0.2883448302745819, 0.3442378640174866, 0.5983794331550598, 0.5065588355064392, 0.29444512724876404, 0.2398408055305481, 0.25043734908103943, 0.2887550890445709, 0.26776090264320374, 0.5026439428329468, 0.1728140264749527, 0.13150423765182495, 0.2751367390155792, 0.13573910295963287, 0.21918167173862457, 0.24274307489395142, 0.15078221261501312, 0.1301962435245514, 0.19561059772968292, 0.2588988244533539, 0.3215290606021881, 0.3180708885192871, 0.2609311044216156, 0.13733795285224915, 0.20936116576194763, 0.37308013439178467, 0.22390955686569214, 0.18046674132347107, 0.17560122907161713, 0.31792229413986206, 0.24008364975452423, 0.09738682955503464, 0.12441623955965042, 0.1820778250694275, 0.15505945682525635, 0.1548113375902176, 0.17721788585186005, 0.16757991909980774, 0.3476634919643402, 0.2179236263036728, 0.2954424321651459, 0.22380243241786957, 0.22526204586029053, 0.2595769166946411, 0.2580161392688751, 0.2629950940608978, 0.3623313903808594, 0.5360476970672607, 0.5111188292503357, 0.3985028862953186, 0.37585777044296265, 0.3030577301979065, 0.32526734471321106, 0.26368141174316406, 0.2487419992685318, 0.32993245124816895, 0.35447391867637634, 0.407659649848938, 0.29375118017196655, 0.20070427656173706, 0.22600172460079193, 0.2432783544063568, 0.36697065830230713, 0.3429896831512451, 0.23740948736667633, 0.2817395031452179, 0.1823444962501526, 0.22671391069889069, 0.18671682476997375, 0.24651825428009033, 0.147891104221344, 0.2831457257270813, 0.36334019899368286, 0.3232857882976532, 0.30325621366500854, 0.4961298704147339, 0.26866602897644043, 0.19126561284065247, 0.18849782645702362, 0.18667583167552948, 0.1277603805065155, 0.2327125370502472, 0.18661577999591827, 0.19980141520500183, 0.1699560284614563, 0.07131298631429672, 0.08430055528879166, 0.1204364150762558, 0.19664204120635986, 0.16461746394634247, 0.15863297879695892, 0.17420782148838043, 0.1612377017736435, 0.1341688632965088, 0.0917498841881752, 0.12817785143852234, 0.1647585928440094, 0.13853399455547333, 0.2517946660518646, 0.2514842450618744, 0.11263755708932877, 0.18600569665431976, 0.2243811935186386, 0.22391465306282043, 0.24952638149261475, 0.1806211918592453, 0.13901863992214203, 0.18444757163524628, 0.26441648602485657, 0.24174632132053375, 0.25109291076660156, 0.3202165365219116, 0.4310460090637207, 0.45081228017807007, 0.3537946343421936, 0.20324893295764923, 0.16582094132900238, 0.26303863525390625, 0.3298746347427368, 0.3103012442588806, 0.40722304582595825, 0.44652727246284485, 0.5387375950813293, 0.4832625687122345, 0.2216060906648636, 0.30901193618774414, 0.3774975836277008, 0.2007286548614502, 0.5708755254745483, 0.5714002847671509]</t>
+          <t>[0.42377203702926636, 0.34873250126838684, 0.10893113911151886, 0.10082781314849854, 0.07710859179496765, 0.16850954294204712, 0.1709439903497696, 0.7930127382278442, 0.9412512183189392, 0.47175654768943787, 0.37100306153297424, 0.48470088839530945, 0.334854394197464, 0.6958037614822388, 0.3024227023124695, 0.480940043926239, 0.5072285532951355, 0.6146395802497864, 0.23185065388679504, 0.27745115756988525, 0.539138674736023, 0.5113757848739624, 0.23131021857261658, 0.16339662671089172, 0.19276104867458344, 0.2390526682138443, 0.16982267796993256, 0.4038439691066742, 0.10142353177070618, 0.07864519208669662, 0.18238231539726257, 0.0879158079624176, 0.16202984750270844, 0.2509269118309021, 0.07904205471277237, 0.05949026346206665, 0.1762285828590393, 0.2337043732404709, 0.23152382671833038, 0.38817164301872253, 0.23046134412288666, 0.11644184589385986, 0.19809317588806152, 0.41383659839630127, 0.19620798528194427, 0.13507093489170074, 0.11249041557312012, 0.3149690628051758, 0.23163950443267822, 0.07515071332454681, 0.10019345581531525, 0.17599675059318542, 0.12367623299360275, 0.1418062448501587, 0.13541246950626373, 0.13644592463970184, 0.3709828853607178, 0.18030916154384613, 0.3047312796115875, 0.1609850823879242, 0.22637803852558136, 0.26807931065559387, 0.22524258494377136, 0.24291040003299713, 0.39600422978401184, 0.6852768063545227, 0.6432883143424988, 0.3718259930610657, 0.41925764083862305, 0.31296873092651367, 0.26662617921829224, 0.2006794661283493, 0.2226477712392807, 0.33460506796836853, 0.3970170021057129, 0.43263009190559387, 0.20560197532176971, 0.17048873007297516, 0.21931426227092743, 0.2177768051624298, 0.3973715305328369, 0.2757028043270111, 0.15849992632865906, 0.218868225812912, 0.16498222947120667, 0.1556490957736969, 0.15752694010734558, 0.25562089681625366, 0.13705655932426453, 0.252331405878067, 0.37653249502182007, 0.2988937497138977, 0.27567481994628906, 0.44672688841819763, 0.17800283432006836, 0.15749892592430115, 0.21256162226200104, 0.1782533824443817, 0.10763654112815857, 0.2555283308029175, 0.20223017036914825, 0.17433904111385345, 0.27764859795570374, 0.10400424897670746, 0.170635387301445, 0.24807411432266235, 0.42920994758605957, 0.398331880569458, 0.4018905758857727, 0.5022392868995667, 0.39908984303474426, 0.33609992265701294, 0.22925765812397003, 0.3225982189178467, 0.34771478176116943, 0.25168317556381226, 0.4085954427719116, 0.4769883155822754, 0.10589075088500977, 0.18784406781196594, 0.21515531837940216, 0.23467904329299927, 0.33628177642822266, 0.20215022563934326, 0.15436212718486786, 0.17986242473125458, 0.24002717435359955, 0.20871777832508087, 0.2141367644071579, 0.27945083379745483, 0.4503230154514313, 0.3829742968082428, 0.3302881419658661, 0.1604151576757431, 0.12434200942516327, 0.18571002781391144, 0.2418096363544464, 0.2913607060909271, 0.3859952688217163, 0.47550052404403687, 0.6219635009765625, 0.4627783000469208, 0.19164979457855225, 0.3398517966270447, 0.45390376448631287, 0.18338416516780853, 0.6909900307655334, 0.692436933517456]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.8425447344779968</v>
+        <v>0.9412512183189392</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.8253040999989025</v>
+        <v>0.8456886000058148</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005576379054046639</v>
+        <v>0.005714112162201451</v>
       </c>
     </row>
     <row r="56">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0.15019169449806213, 0.18767616152763367, 0.18814976513385773, 0.12566758692264557, 0.10711051523685455, 0.17277565598487854, 0.11321055144071579, 0.09868834912776947, 0.18227529525756836, 0.13299259543418884, 0.21066905558109283, 0.12917529046535492, 0.08556144684553146, 0.07832575589418411, 0.13351848721504211, 0.11930519342422485, 0.13009031116962433, 0.08081942796707153, 0.0884711965918541, 0.1415284276008606, 0.10703985393047333, 0.06141055375337601, 0.04359765723347664, 0.08520331978797913, 0.19892676174640656, 0.1704213172197342, 0.13975289463996887, 0.16840150952339172, 0.27469587326049805, 0.24497942626476288, 0.1299438625574112, 0.1060459166765213, 0.0752110555768013, 0.09883446991443634, 0.1288466602563858, 0.1229725033044815, 0.15178999304771423, 0.09836754202842712, 0.1874944120645523, 0.08189340680837631, 0.15989448130130768, 0.35855385661125183, 0.392306387424469, 0.10240743309259415, 0.10425279289484024, 0.0680900439620018, 0.05979013815522194, 0.09484685957431793, 0.15575677156448364, 0.13554935157299042, 0.08262849599123001, 0.06509389728307724, 0.051096536219120026, 0.0674971416592598, 0.049453020095825195, 0.058536406606435776, 0.06631439179182053, 0.07932458072900772, 0.08809923380613327, 0.04506651684641838, 0.09664084017276764, 0.08157546073198318, 0.08222988992929459, 0.0876111313700676, 0.11038029193878174, 0.09172336757183075, 0.12419543415307999, 0.05899973213672638, 0.07960325479507446, 0.06899598240852356, 0.050240177661180496, 0.09309718757867813, 0.10509424656629562, 0.06892247498035431, 0.07059460133314133, 0.0841173380613327, 0.16355936229228973, 0.1066410019993782, 0.07325243949890137, 0.042985398322343826, 0.044017091393470764, 0.03408949449658394, 0.05416400358080864, 0.07131712883710861, 0.05615372210741043, 0.05953153222799301, 0.029361438006162643, 0.025938577950000763, 0.016559069976210594, 0.02319149114191532, 0.02895507402718067, 0.02362806163728237, 0.04496830701828003, 0.041061896830797195, 0.04011228308081627, 0.039152372628450394, 0.048530541360378265, 0.030965667217969894, 0.05153767392039299, 0.13636697828769684, 0.0994429662823677, 0.08483041822910309, 0.11008040606975555, 0.10938376188278198, 0.12359309196472168, 0.0628049373626709, 0.05535810813307762, 0.04914803430438042, 0.14561788737773895, 0.13789002597332, 0.11320251226425171, 0.08392532169818878, 0.06367029249668121, 0.08493273705244064, 0.10558058321475983, 0.11773640662431717, 0.13007357716560364, 0.1751451939344406, 0.06394288688898087, 0.11182405799627304, 0.1363828331232071, 0.25607049465179443, 0.2269400805234909, 0.11514012515544891, 0.17990072071552277, 0.13866671919822693, 0.14431050419807434, 0.16044022142887115, 0.0856461375951767, 0.08056095987558365, 0.10543037950992584, 0.12789495289325714, 0.0666273906826973, 0.046565137803554535, 0.035712167620658875, 0.03272373229265213, 0.06171542778611183, 0.08781925588846207, 0.10993804037570953, 0.06849542260169983, 0.0845828726887703, 0.07683943957090378, 0.06005417928099632, 0.08075430244207382, 0.14994195103645325, 0.19824595749378204, 0.12198659777641296, 0.12170969694852829]</t>
+          <t>[0.20155149698257446, 0.2502307891845703, 0.2719978094100952, 0.18874384462833405, 0.1795474737882614, 0.1997693032026291, 0.17676477134227753, 0.07897083461284637, 0.19703099131584167, 0.12813135981559753, 0.27107784152030945, 0.11695042997598648, 0.06926464289426804, 0.05683654546737671, 0.14140358567237854, 0.1323344111442566, 0.13972604274749756, 0.060064516961574554, 0.12088650465011597, 0.15908199548721313, 0.13950224220752716, 0.05230800807476044, 0.03534727916121483, 0.07183243334293365, 0.2208452969789505, 0.18243612349033356, 0.12231214344501495, 0.16514895856380463, 0.27136844396591187, 0.23784568905830383, 0.08570258319377899, 0.09507875144481659, 0.05231296643614769, 0.07303276658058167, 0.12735195457935333, 0.13185317814350128, 0.18593409657478333, 0.10805583000183105, 0.21332572400569916, 0.13957872986793518, 0.30949580669403076, 0.6274574398994446, 0.6788196563720703, 0.15079405903816223, 0.1710207462310791, 0.07337508350610733, 0.06948857009410858, 0.23038306832313538, 0.20629988610744476, 0.18021905422210693, 0.10436080396175385, 0.06729691475629807, 0.0385253019630909, 0.05804848298430443, 0.04950965195894241, 0.09566449373960495, 0.09664101898670197, 0.12071942538022995, 0.17961488664150238, 0.06089002266526222, 0.19392992556095123, 0.11610621213912964, 0.10352364182472229, 0.09720123559236526, 0.12909577786922455, 0.06828747689723969, 0.10154057294130325, 0.04460851103067398, 0.0649086982011795, 0.03638065233826637, 0.04220286384224892, 0.1122656986117363, 0.11888935416936874, 0.07740336656570435, 0.06743516027927399, 0.07641404122114182, 0.1764001101255417, 0.09274471551179886, 0.06399185210466385, 0.030520929023623466, 0.026369556784629822, 0.02740274742245674, 0.0388738214969635, 0.050899211317300797, 0.03906559944152832, 0.060645006597042084, 0.01979634165763855, 0.016902895644307137, 0.009017330594360828, 0.012177499011158943, 0.015371186658740044, 0.019971538335084915, 0.03816517814993858, 0.031020445749163628, 0.02677498385310173, 0.02674126997590065, 0.028690839186310768, 0.016716191545128822, 0.03681483119726181, 0.08886610716581345, 0.048191457986831665, 0.04413476213812828, 0.054521795362234116, 0.08130692690610886, 0.12585550546646118, 0.05057227984070778, 0.04900465905666351, 0.048651840537786484, 0.24862657487392426, 0.18629875779151917, 0.09599073976278305, 0.10630280524492264, 0.055973120033741, 0.0882083997130394, 0.10651145875453949, 0.12203305959701538, 0.1139577105641365, 0.19242914021015167, 0.05243097245693207, 0.13232381641864777, 0.2739429473876953, 0.48927465081214905, 0.3204803764820099, 0.1915542036294937, 0.3430810868740082, 0.23777784407138824, 0.17098425328731537, 0.19490160048007965, 0.06997592002153397, 0.10050656646490097, 0.18745234608650208, 0.2948366701602936, 0.11372734606266022, 0.037787169218063354, 0.0432400107383728, 0.035380732268095016, 0.0734650045633316, 0.13050241768360138, 0.17658865451812744, 0.09442052245140076, 0.11476306617259979, 0.0712655708193779, 0.04211477190256119, 0.0736452266573906, 0.1452968567609787, 0.16140495240688324, 0.10265543311834335, 0.1020621806383133]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.392306387424469</v>
+        <v>0.6788196563720703</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0.8163967999862507</v>
+        <v>0.8119717999943532</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005516194594501694</v>
+        <v>0.005486295945907792</v>
       </c>
     </row>
     <row r="57">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[0.5081945657730103, 0.5296114683151245, 0.36509010195732117, 0.6791114807128906, 0.5860129594802856, 0.8583141565322876, 0.7041779160499573, 0.6815522313117981, 0.5107372999191284, 0.4557252526283264, 0.36467036604881287, 0.2632185220718384, 0.5159314274787903, 0.44381576776504517, 0.543697714805603, 0.4543622136116028, 0.4503576457500458, 0.19456782937049866, 0.23494860529899597, 0.21073919534683228, 0.2601622939109802, 0.34033170342445374, 0.2531944811344147, 0.1442830115556717, 0.23035824298858643, 0.21412381529808044, 0.24187560379505157, 0.21729175746440887, 0.1412450671195984, 0.1606680303812027, 0.20305466651916504, 0.19868478178977966, 0.21719853579998016, 0.21284306049346924, 0.18768836557865143, 0.2670398950576782, 0.6119173169136047, 0.6382968425750732, 0.6393164396286011, 0.7203556895256042, 0.44304266571998596, 0.13646331429481506, 0.12953072786331177, 0.15631234645843506, 0.08396349102258682, 0.08529065549373627, 0.06300804764032364, 0.10374636948108673, 0.21311844885349274, 0.10688889026641846, 0.2851521074771881, 0.3015271723270416, 0.3877500891685486, 0.31719717383384705, 0.13419193029403687, 0.3002939522266388, 0.3340107500553131, 0.22412936389446259, 0.2755745053291321, 0.24879895150661469, 0.34922581911087036, 0.2965206205844879, 0.45852044224739075, 0.20366382598876953, 0.2608889937400818, 0.1866367757320404, 0.41820743680000305, 0.171922966837883, 0.11445336043834686, 0.1285022497177124, 0.16669222712516785, 0.10705582052469254, 0.10086844116449356, 0.11616641283035278, 0.08436532318592072, 0.09776895493268967, 0.12262094020843506, 0.08884413540363312, 0.10463406145572662, 0.10966134816408157, 0.12416011095046997, 0.09197431802749634, 0.08096993714570999, 0.1246001347899437, 0.21923449635505676, 0.1908208429813385, 0.29551151394844055, 0.07609234005212784, 0.13365666568279266, 0.5863626599311829, 0.8122140169143677, 0.5790622234344482, 0.34661591053009033, 0.2478415071964264, 0.32948264479637146, 0.3012121319770813, 0.17637816071510315, 0.16190288960933685, 0.2359302043914795, 0.2355429083108902, 0.19848157465457916, 0.22704608738422394, 0.19943305850028992, 0.17283669114112854, 0.12628896534442902, 0.16769924759864807, 0.2183743119239807, 0.13142096996307373, 0.15178349614143372, 0.28774499893188477, 0.24646157026290894, 0.30027133226394653, 0.3691241443157196, 0.6535593271255493, 0.5969584584236145, 0.4560157060623169, 0.4517378807067871, 0.6147320866584778, 0.6067704558372498, 0.4758870303630829, 0.3062230050563812, 0.31251969933509827, 0.4653567373752594, 0.16266290843486786, 0.14862217009067535, 0.24429385364055634, 0.24378171563148499, 0.26469090580940247, 0.1961902379989624, 0.19098803400993347, 0.16685399413108826, 0.2647010385990143, 0.18214434385299683, 0.2502521872520447, 0.1734294593334198, 0.24087175726890564, 0.3618065118789673, 0.4625306725502014, 0.5081123113632202, 0.46255114674568176, 0.4213504493236542, 0.7084906697273254, 0.742497444152832, 0.7664875388145447, 0.7262877225875854, 0.6368073225021362, 0.5833634734153748, 0.6297550201416016, 0.8493423461914062, 0.8926877379417419, 0.5854005217552185, 0.45538070797920227, 0.3815644085407257, 0.5583658814430237, 0.5794289708137512, 0.5888681411743164, 0.5281622409820557, 0.6653770804405212, 0.46538010239601135, 0.7760946154594421, 0.6086112260818481, 0.7213342189788818, 0.42679548263549805, 0.2913059592247009, 0.20449401438236237, 0.3236166536808014, 0.3402024805545807, 0.3450462222099304, 0.3463432490825653]</t>
+          <t>[0.5602949857711792, 0.6466280817985535, 0.34836217761039734, 0.802965521812439, 0.649014413356781, 0.9296315908432007, 0.7637056112289429, 0.6407850980758667, 0.42675697803497314, 0.33329275250434875, 0.2167111486196518, 0.1132344901561737, 0.46082478761672974, 0.30007028579711914, 0.4852515459060669, 0.4151449203491211, 0.37800151109695435, 0.13150301575660706, 0.19831740856170654, 0.13118086755275726, 0.1600111424922943, 0.26699474453926086, 0.15119722485542297, 0.08470682799816132, 0.19139359891414642, 0.15726922452449799, 0.258636474609375, 0.1679905354976654, 0.06713574379682541, 0.08875806629657745, 0.10660447925329208, 0.1131138727068901, 0.08548025786876678, 0.07887262105941772, 0.07161767035722733, 0.15614262223243713, 0.5082160830497742, 0.5107209086418152, 0.5313868522644043, 0.6822189688682556, 0.3081757128238678, 0.05479186773300171, 0.04671363905072212, 0.05555852875113487, 0.025576792657375336, 0.02898952178657055, 0.02324633114039898, 0.033328402787446976, 0.09704093635082245, 0.07800563424825668, 0.26488229632377625, 0.17545707523822784, 0.25128424167633057, 0.244507297873497, 0.07550466805696487, 0.19586646556854248, 0.1996573656797409, 0.11511635035276413, 0.1671423614025116, 0.11787305027246475, 0.1873203068971634, 0.14829562604427338, 0.3190011978149414, 0.13025780022144318, 0.15863843262195587, 0.11481264233589172, 0.3774060904979706, 0.11488812416791916, 0.06343165785074234, 0.056930143386125565, 0.08381188660860062, 0.041191767901182175, 0.0420769564807415, 0.0554073266685009, 0.03759291023015976, 0.05357096344232559, 0.07055111974477768, 0.04802083596587181, 0.0678415521979332, 0.06160005182027817, 0.05286455899477005, 0.03929227963089943, 0.029551170766353607, 0.05660366639494896, 0.15899688005447388, 0.14316467940807343, 0.22372162342071533, 0.05012287572026253, 0.10977225005626678, 0.7475357055664062, 0.8165591955184937, 0.522602915763855, 0.4290044605731964, 0.21277733147144318, 0.24837349355220795, 0.2775953412055969, 0.13092438876628876, 0.09170854836702347, 0.14505168795585632, 0.14520281553268433, 0.13407494127750397, 0.12763145565986633, 0.14099915325641632, 0.09946572035551071, 0.054330430924892426, 0.060032885521650314, 0.0989849790930748, 0.054332420229911804, 0.06749153882265091, 0.15195156633853912, 0.17361699044704437, 0.19355732202529907, 0.3035580515861511, 0.6572942733764648, 0.524185299873352, 0.36949387192726135, 0.45661088824272156, 0.5476394295692444, 0.537318766117096, 0.39176976680755615, 0.2201603800058365, 0.21688951551914215, 0.43107545375823975, 0.1225963905453682, 0.0880926251411438, 0.19223281741142273, 0.1574845016002655, 0.1792771816253662, 0.13917583227157593, 0.1274644434452057, 0.11012255400419235, 0.22828194499015808, 0.09591132402420044, 0.21211792528629303, 0.10201290249824524, 0.198893740773201, 0.3760303854942322, 0.42584964632987976, 0.3768247067928314, 0.3724236488342285, 0.4678644835948944, 0.7060600519180298, 0.8125916719436646, 0.8634411692619324, 0.775944173336029, 0.7046254277229309, 0.6716077923774719, 0.6921860575675964, 0.9018345475196838, 0.9431028962135315, 0.5859919786453247, 0.5239133834838867, 0.309378981590271, 0.5604159235954285, 0.4840734601020813, 0.5011027455329895, 0.4965246617794037, 0.6218277812004089, 0.3409837484359741, 0.8322440981864929, 0.4712640941143036, 0.6811742186546326, 0.3123299181461334, 0.143217071890831, 0.09767895191907883, 0.23525962233543396, 0.27793359756469727, 0.22280319035053253, 0.2244253158569336]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.8926877379417419</v>
+        <v>0.9431028962135315</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.9385071000142489</v>
+        <v>0.9407868000125745</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005553296449788455</v>
+        <v>0.005566785798890974</v>
       </c>
     </row>
     <row r="58">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0.2581074833869934, 0.20357616245746613, 0.30961596965789795, 0.28582054376602173, 0.3553371727466583, 0.15693673491477966, 0.15567433834075928, 0.10316638648509979, 0.1185169517993927, 0.2408115267753601, 0.09812065213918686, 0.0847867801785469, 0.31766125559806824, 0.2043556571006775, 0.09593415260314941, 0.23550978302955627, 0.276664137840271, 0.15452617406845093, 0.30015257000923157, 0.12822599709033966, 0.13167594373226166, 0.06039540097117424, 0.08437652885913849, 0.18780529499053955, 0.21362240612506866, 0.5288146734237671, 0.59172523021698, 0.410216748714447, 0.1466263234615326, 0.18311269581317902, 0.3401792645454407, 0.2268240600824356, 0.12635649740695953, 0.18975728750228882, 0.33440643548965454, 0.2802429497241974, 0.3120247423648834, 0.3392561376094818, 0.27992120385169983, 0.11327781528234482, 0.16278287768363953, 0.2801472246646881, 0.14237791299819946, 0.07292915880680084, 0.07340481877326965, 0.07320023328065872, 0.196677565574646, 0.3313852548599243, 0.2482547014951706, 0.14954489469528198, 0.3351052701473236, 0.24982990324497223, 0.27421966195106506, 0.28027990460395813, 0.33889731764793396, 0.33671432733535767, 0.464682012796402, 0.3650875985622406, 0.32280972599983215, 0.3235848844051361, 0.21876788139343262, 0.43810540437698364, 0.40192994475364685, 0.4643399119377136, 0.6711627840995789, 0.3729057312011719, 0.3598383665084839, 0.6272947788238525, 0.49494898319244385, 0.40645572543144226, 0.17937421798706055, 0.3542192876338959, 0.11602197587490082, 0.17952939867973328, 0.16187532246112823, 0.1412854790687561, 0.19449152052402496, 0.17869330942630768, 0.46527671813964844, 0.3145681917667389, 0.7338219285011292, 0.818903923034668, 0.7273948192596436, 0.8829574584960938, 0.8402992486953735, 0.8245229125022888, 0.9374682307243347, 0.8619047999382019, 0.8128231763839722, 0.5721056461334229, 0.5453881025314331, 0.3733832538127899, 0.2957492470741272, 0.5388475656509399, 0.5440384745597839]</t>
+          <t>[0.2181398570537567, 0.1943625658750534, 0.4757571220397949, 0.5112218856811523, 0.5776157975196838, 0.16904428601264954, 0.13035884499549866, 0.07120687514543533, 0.08884653449058533, 0.26217180490493774, 0.06416335701942444, 0.05664411932229996, 0.41646623611450195, 0.1903611272573471, 0.06810164451599121, 0.1580517292022705, 0.10203459113836288, 0.06242506578564644, 0.18130236864089966, 0.056712497025728226, 0.06737177073955536, 0.028994832187891006, 0.048430416733026505, 0.1441926211118698, 0.2157815545797348, 0.6628928780555725, 0.7754284143447876, 0.4513475000858307, 0.13455477356910706, 0.16176126897335052, 0.33849242329597473, 0.141361266374588, 0.0720769539475441, 0.14376109838485718, 0.33075636625289917, 0.2571102976799011, 0.32848089933395386, 0.4903128147125244, 0.39112019538879395, 0.051492635160684586, 0.13311277329921722, 0.34534820914268494, 0.09680289775133133, 0.044581182301044464, 0.037021998316049576, 0.03209486976265907, 0.1425054371356964, 0.3102521598339081, 0.20725315809249878, 0.08525242656469345, 0.34049713611602783, 0.22969548404216766, 0.21075904369354248, 0.2554134726524353, 0.36104387044906616, 0.3315470218658447, 0.5753669142723083, 0.4491063356399536, 0.2996762692928314, 0.23720069229602814, 0.1511881947517395, 0.4478698670864105, 0.3814127445220947, 0.5432944893836975, 0.7827075719833374, 0.3967520594596863, 0.4304969310760498, 0.781792402267456, 0.6850257515907288, 0.7276007533073425, 0.2476133108139038, 0.7410857081413269, 0.11111141741275787, 0.14816159009933472, 0.10882911831140518, 0.13049429655075073, 0.22239746153354645, 0.16787660121917725, 0.6357498168945312, 0.36383894085884094, 0.9385771155357361, 0.9483908414840698, 0.9080106019973755, 0.9777436256408691, 0.9732906222343445, 0.9525800943374634, 0.9617563486099243, 0.8957605957984924, 0.9625749588012695, 0.8267121911048889, 0.7029756903648376, 0.5146858096122742, 0.39584240317344666, 0.7250382900238037, 0.7301617860794067]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.9374682307243347</v>
+        <v>0.9777436256408691</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.5250803999952041</v>
+        <v>0.5426374999951804</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005527162105212674</v>
+        <v>0.005711973684159793</v>
       </c>
     </row>
     <row r="59">
@@ -2885,11 +2885,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.11141401529312134, 0.1537434309720993, 0.11935271322727203, 0.1471046805381775, 0.04634864628314972, 0.059508271515369415, 0.05896633863449097, 0.060808468610048294, 0.07351323962211609, 0.06957317143678665, 0.15495531260967255, 0.08641432970762253, 0.10090336203575134, 0.10300283879041672, 0.23689942061901093, 0.0798092857003212, 0.10229053348302841, 0.1448219269514084, 0.08922985196113586, 0.05470152571797371, 0.032397814095020294, 0.030431531369686127, 0.05479207634925842, 0.03295464813709259, 0.08128318190574646, 0.07194000482559204, 0.12647010385990143, 0.07551194727420807, 0.07451457530260086, 0.04813862964510918, 0.04181203246116638, 0.045824263244867325, 0.04015599936246872, 0.027459610253572464, 0.10484695434570312, 0.061575766652822495, 0.11207674443721771, 0.044164277613162994, 0.08798529207706451, 0.2385932058095932, 0.300144761800766, 0.3485807478427887, 0.14683212339878082, 0.11632491648197174, 0.079378642141819, 0.07778406143188477, 0.07181107252836227, 0.06913206726312637, 0.04589955136179924, 0.02630283311009407, 0.02961830608546734, 0.03349751606583595, 0.012027864344418049, 0.0269585270434618, 0.03427108749747276, 0.0330951027572155, 0.04262551665306091, 0.05935012176632881, 0.200934037566185, 0.1577294021844864, 0.11069577932357788, 0.11777040362358093, 0.0473472960293293, 0.036194756627082825, 0.07223328948020935, 0.049598101526498795, 0.06369192898273468, 0.0916498601436615, 0.0692891925573349, 0.12542277574539185, 0.18927890062332153, 0.17423707246780396, 0.10920360684394836, 0.07247602939605713, 0.08966585993766785, 0.052348386496305466, 0.05657580867409706, 0.04836030304431915, 0.03650607541203499, 0.08857792615890503, 0.03350897133350372, 0.07777959108352661, 0.030823005363345146, 0.021594589576125145, 0.0253126360476017, 0.020868470892310143, 0.03204117342829704, 0.07543543726205826, 0.055254556238651276, 0.03397833928465843, 0.07522758841514587, 0.038650963455438614, 0.07279802113771439, 0.02702174335718155, 0.019513951614499092, 0.020368382334709167, 0.030811356380581856, 0.017597826197743416, 0.020104283466935158, 0.01829812303185463, 0.015477796085178852, 0.062119677662849426, 0.02973140962421894, 0.025796212255954742, 0.020175568759441376, 0.02296573668718338, 0.026202697306871414, 0.03485548496246338, 0.02770336903631687, 0.026247713714838028, 0.018472179770469666, 0.024950850754976273, 0.018645798787474632, 0.026333527639508247, 0.03188091143965721, 0.028422625735402107, 0.026328790932893753, 0.016235366463661194, 0.01952674798667431, 0.030962200835347176, 0.032145123928785324, 0.028072303161025047, 0.022254236042499542, 0.018105247989296913, 0.019274767488241196, 0.01898776926100254, 0.031695496290922165, 0.015870440751314163, 0.028706206008791924, 0.02140994928777218, 0.021834956482052803, 0.05032740533351898, 0.06613960862159729, 0.05399351194500923, 0.08798717707395554, 0.11352698504924774, 0.09853152185678482, 0.06644536554813385, 0.03766227513551712, 0.024601919576525688, 0.03275296092033386, 0.028949541971087456, 0.025974759832024574, 0.03354525938630104, 0.05751721188426018, 0.07513099163770676, 0.11661278456449509, 0.10163485258817673, 0.08362147212028503, 0.0523996464908123, 0.08053334057331085, 0.039476606994867325, 0.13342656195163727, 0.08081547170877457, 0.04814676567912102, 0.041599273681640625, 0.05203777924180031, 0.05423002690076828, 0.04262382909655571, 0.08051695674657822, 0.0291689895093441, 0.03127329424023628, 0.03170044720172882, 0.0811997726559639, 0.12534935772418976, 0.04769056662917137, 0.02306518889963627, 0.02646934986114502, 0.026446107774972916]</t>
+          <t>[0.042486678808927536, 0.05242309719324112, 0.04536720737814903, 0.056379880756139755, 0.013436759822070599, 0.02095085382461548, 0.023106765002012253, 0.022711681202054024, 0.019387884065508842, 0.017847467213869095, 0.04411744698882103, 0.023059505969285965, 0.02876819483935833, 0.02739044278860092, 0.04992860183119774, 0.021509947255253792, 0.03806120529770851, 0.042113784700632095, 0.026234731078147888, 0.011685848236083984, 0.008705087006092072, 0.00747949443757534, 0.017175056040287018, 0.009001034311950207, 0.02599416673183441, 0.021314339712262154, 0.02664555050432682, 0.024383198469877243, 0.01409501489251852, 0.011698978953063488, 0.01450988557189703, 0.013636919669806957, 0.010759841650724411, 0.006419812329113483, 0.03571135178208351, 0.01153550948947668, 0.030928516760468483, 0.00875171460211277, 0.012219028547406197, 0.046959683299064636, 0.10255173593759537, 0.06800048798322678, 0.034176427870988846, 0.03900174796581268, 0.022089071571826935, 0.030383948236703873, 0.021834585815668106, 0.01632763259112835, 0.012366161681711674, 0.007111634127795696, 0.00979131180793047, 0.009685234166681767, 0.0033511719666421413, 0.007673197891563177, 0.01107966061681509, 0.01058746874332428, 0.01375554408878088, 0.01870625466108322, 0.07152530550956726, 0.05447204411029816, 0.04627680033445358, 0.04318206012248993, 0.012300422415137291, 0.011748853139579296, 0.01959685981273651, 0.011260597966611385, 0.015506524592638016, 0.024913962930440903, 0.019796879962086678, 0.040039367973804474, 0.05617998540401459, 0.06675241887569427, 0.036155253648757935, 0.02454245090484619, 0.0342758372426033, 0.016826964914798737, 0.019866053014993668, 0.016873903572559357, 0.00912362802773714, 0.028511563315987587, 0.010237855836749077, 0.0290688369423151, 0.010396185331046581, 0.007493049371987581, 0.006486720405519009, 0.005876091308891773, 0.009654323570430279, 0.03185379505157471, 0.017316356301307678, 0.012321032583713531, 0.026716740801930428, 0.014062411151826382, 0.02599148452281952, 0.007843447849154472, 0.005988007877022028, 0.007026172708719969, 0.010214032605290413, 0.005751491989940405, 0.006444800645112991, 0.004738208372145891, 0.004067990928888321, 0.014104400761425495, 0.006173264235258102, 0.005575629882514477, 0.004584995098412037, 0.00684706773608923, 0.008904749527573586, 0.011130397208034992, 0.008171863853931427, 0.006122067105025053, 0.004426454659551382, 0.007325721438974142, 0.005120913032442331, 0.008558597415685654, 0.009189664386212826, 0.007905885577201843, 0.007306965999305248, 0.003594011999666691, 0.004838994238525629, 0.010410946793854237, 0.010755802504718304, 0.00799049623310566, 0.006716792471706867, 0.005138757172971964, 0.003622333984822035, 0.004632201977074146, 0.006266546435654163, 0.0038505997508764267, 0.008437484502792358, 0.005762120243161917, 0.0057783289812505245, 0.014610658399760723, 0.022814815863966942, 0.018840515986084938, 0.024485405534505844, 0.05341116338968277, 0.052514027804136276, 0.02970190718770027, 0.011449718847870827, 0.007102185394614935, 0.010809654369950294, 0.007651284337043762, 0.007632039953023195, 0.01116008311510086, 0.0200889203697443, 0.0318276472389698, 0.07417471706867218, 0.042785368859767914, 0.03325706720352173, 0.020361067727208138, 0.032676488161087036, 0.014898733235895634, 0.05491386353969574, 0.021498218178749084, 0.014119839295744896, 0.012252732180058956, 0.018446018919348717, 0.02032635360956192, 0.013904008083045483, 0.02424381673336029, 0.008642110973596573, 0.009540798142552376, 0.00955713726580143, 0.025312868878245354, 0.042485691606998444, 0.01923881471157074, 0.006735431496053934, 0.0083768917247653, 0.00838189572095871]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.3485807478427887</v>
+        <v>0.1025517359375954</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1.044857100001536</v>
+        <v>1.034413600005792</v>
       </c>
       <c r="J59" t="n">
-        <v>0.006182586390541635</v>
+        <v>0.006120790532578648</v>
       </c>
     </row>
     <row r="60">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[0.10984286665916443, 0.3630531132221222, 0.2971808910369873, 0.13330617547035217, 0.19591772556304932, 0.6475639343261719, 0.20804981887340546, 0.3144471347332001, 0.14255905151367188, 0.1867597997188568, 0.6013909578323364, 0.3747171461582184, 0.2323649376630783, 0.20999959111213684, 0.23487327992916107, 0.08933186531066895, 0.04554251953959465, 0.03552132099866867, 0.03938530758023262, 0.0442933514714241, 0.07717093825340271, 0.0546196848154068, 0.047083985060453415, 0.0386895090341568, 0.04879474267363548, 0.1354544758796692, 0.03915952891111374, 0.07594355940818787, 0.04900569096207619, 0.05433839559555054, 0.09763549268245697, 0.3163304626941681, 0.08685414493083954, 0.19092565774917603, 0.11620596051216125, 0.14421842992305756, 0.07579094171524048, 0.12848031520843506, 0.10149356722831726, 0.3096642792224884, 0.2619514763355255, 0.20662865042686462, 0.3082267642021179, 0.3797224164009094, 0.20688018202781677, 0.07188451290130615, 0.124077208340168, 0.10359181463718414, 0.18027031421661377, 0.23832251131534576, 0.20535479485988617, 0.2787092626094818, 0.19650880992412567, 0.6164439916610718, 0.504381000995636, 0.14903181791305542, 0.09806298464536667, 0.16142359375953674, 0.10301275551319122, 0.0920301303267479, 0.11942560970783234, 0.11982859671115875, 0.12678639590740204, 0.0937657281756401, 0.15923148393630981, 0.06717122346162796, 0.14828675985336304, 0.40311887860298157, 0.472162127494812, 0.2503029704093933, 0.3309577405452728, 0.5292242169380188, 0.4577450156211853, 0.6385110020637512, 0.38257887959480286, 0.6645127534866333, 0.3120633661746979, 0.6430769562721252, 0.6994351744651794, 0.7224962711334229, 0.48425552248954773, 0.39831212162971497, 0.18356047570705414, 0.11752015352249146, 0.22732286155223846, 0.1272396743297577, 0.1776995211839676, 0.1513979583978653, 0.11492476612329483, 0.26584094762802124, 0.2185337245464325, 0.27071475982666016, 0.4772125780582428, 0.24996007978916168, 0.4793877601623535, 0.2321300059556961, 0.4297349750995636, 0.6631168127059937, 0.6410499811172485, 0.7674469947814941, 0.7858801484107971, 0.7349222302436829, 0.278798907995224, 0.2263292819261551, 0.5730016827583313, 0.5077446103096008, 0.1898203343153, 0.22180138528347015, 0.26825201511383057, 0.10144107043743134, 0.1950681507587433, 0.18299438059329987, 0.19375739991664886, 0.31239667534828186, 0.29913103580474854, 0.333736777305603, 0.30143997073173523, 0.4893045425415039, 0.24616719782352448, 0.15905646979808807, 0.17201679944992065, 0.2222248613834381, 0.26352107524871826, 0.5465488433837891, 0.3973595201969147, 0.4070113003253937, 0.5616461038589478, 0.3753456771373749, 0.30530017614364624, 0.24067531526088715, 0.0961456298828125, 0.046845655888319016, 0.05732239782810211, 0.05811116844415665, 0.1352764219045639, 0.07213501632213593, 0.15659131109714508, 0.12511050701141357, 0.22667618095874786, 0.13422523438930511, 0.35770511627197266, 0.18413899838924408, 0.24916666746139526, 0.1658780574798584, 0.09282401949167252, 0.10726355016231537, 0.06626882404088974, 0.04615398496389389, 0.055667247623205185, 0.05168342962861061, 0.0377732515335083, 0.054635245352983475, 0.07725773006677628, 0.09104721248149872, 0.08968326449394226, 0.08905081450939178, 0.06713979691267014, 0.04592097923159599, 0.05952722951769829, 0.0710708349943161, 0.09232509136199951, 0.10618164390325546, 0.14242535829544067, 0.0949394628405571, 0.11224735528230667, 0.05805729702115059, 0.07272367179393768, 0.09750699251890182, 0.09687090665102005]</t>
+          <t>[0.02940971963107586, 0.10103791952133179, 0.13870853185653687, 0.057427890598773956, 0.05844486504793167, 0.28323811292648315, 0.0881386324763298, 0.12516966462135315, 0.0663737803697586, 0.08783692121505737, 0.44624558091163635, 0.1272943913936615, 0.09864212572574615, 0.16438539326190948, 0.2397889345884323, 0.05392874404788017, 0.020644398406147957, 0.016811352223157883, 0.017455311492085457, 0.017110519111156464, 0.031955376267433167, 0.02297394350171089, 0.018991366028785706, 0.015340299345552921, 0.014829705469310284, 0.09311506897211075, 0.015960268676280975, 0.049069009721279144, 0.024239573627710342, 0.032477330416440964, 0.05660929158329964, 0.27713221311569214, 0.03667278215289116, 0.14480525255203247, 0.07663051038980484, 0.09652701765298843, 0.03445815667510033, 0.07548907399177551, 0.047203220427036285, 0.19969750940799713, 0.15095578134059906, 0.10941749811172485, 0.20503941178321838, 0.30121779441833496, 0.07465234398841858, 0.02510307915508747, 0.048121754080057144, 0.056313931941986084, 0.1400572508573532, 0.1647098958492279, 0.18645070493221283, 0.24726159870624542, 0.12321851402521133, 0.6579649448394775, 0.5718755722045898, 0.16849787533283234, 0.07403689622879028, 0.11479733884334564, 0.05509715527296066, 0.045286573469638824, 0.06741274148225784, 0.07886756956577301, 0.09371291100978851, 0.05176016688346863, 0.07667215168476105, 0.03917042538523674, 0.1142953559756279, 0.3583836853504181, 0.41469937562942505, 0.2230396866798401, 0.2296546846628189, 0.4990653395652771, 0.35662442445755005, 0.4985722005367279, 0.2978736460208893, 0.5455189347267151, 0.15505003929138184, 0.41143912076950073, 0.4570137560367584, 0.6106861233711243, 0.30003249645233154, 0.18489329516887665, 0.09785521030426025, 0.05353838950395584, 0.15922480821609497, 0.08624015003442764, 0.09866786003112793, 0.08108072727918625, 0.03785256668925285, 0.13981597125530243, 0.10478425770998001, 0.12825772166252136, 0.23892296850681305, 0.0989503264427185, 0.2708519995212555, 0.07476633042097092, 0.24001529812812805, 0.4234388768672943, 0.4980875849723816, 0.481275349855423, 0.4836641848087311, 0.444880872964859, 0.07771310955286026, 0.05302160978317261, 0.21368002891540527, 0.1699076145887375, 0.056227680295705795, 0.08696717768907547, 0.11265625804662704, 0.0538795106112957, 0.12534208595752716, 0.11873860657215118, 0.12831076979637146, 0.12940600514411926, 0.10682728886604309, 0.19185274839401245, 0.13742130994796753, 0.2160763293504715, 0.07906278222799301, 0.052790042012929916, 0.04570537805557251, 0.055720988661050797, 0.08033372461795807, 0.21319210529327393, 0.15127520263195038, 0.10699155181646347, 0.2398165911436081, 0.15805119276046753, 0.1256871223449707, 0.14318569004535675, 0.055837467312812805, 0.032868269830942154, 0.043195366859436035, 0.04518396407365799, 0.15788306295871735, 0.08282490074634552, 0.20769193768501282, 0.13536591827869415, 0.2218037247657776, 0.10112237930297852, 0.40098053216934204, 0.16380426287651062, 0.24210117757320404, 0.12873196601867676, 0.04788713902235031, 0.05814029648900032, 0.04617385193705559, 0.03075922280550003, 0.04947195202112198, 0.05887584760785103, 0.025455018505454063, 0.031134339049458504, 0.042223721742630005, 0.043537452816963196, 0.04960621893405914, 0.05017125979065895, 0.04077689349651337, 0.023601200431585312, 0.03684024512767792, 0.04431508108973503, 0.08442052453756332, 0.08430849760770798, 0.0915449932217598, 0.05625610053539276, 0.08169274032115936, 0.03322320803999901, 0.02302008867263794, 0.030463088303804398, 0.030345920473337173]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.7858801484107971</v>
+        <v>0.6579649448394775</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.9332644999958575</v>
+        <v>0.9559420999867143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005522275147904482</v>
+        <v>0.005656462130098901</v>
       </c>
     </row>
     <row r="61">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0.06138041242957115, 0.0482412725687027, 0.039242640137672424, 0.056042589247226715, 0.0603942796587944, 0.1415533870458603, 0.08250073343515396, 0.10835906863212585, 0.09357818216085434, 0.05207321047782898, 0.04881174862384796, 0.05592789500951767, 0.07297027111053467, 0.08184757828712463, 0.054654091596603394, 0.034258101135492325, 0.05085466802120209, 0.03323514014482498, 0.037019044160842896, 0.03490639477968216, 0.032089583575725555, 0.0413658432662487, 0.03608197346329689, 0.021213416010141373, 0.02575201727449894, 0.02767319791018963, 0.0331023745238781, 0.04306035488843918, 0.033591847866773605, 0.023277001455426216, 0.028482994064688683, 0.03290122002363205, 0.0389045774936676, 0.052997615188360214, 0.05229811370372772, 0.026456862688064575, 0.036149147897958755, 0.029779205098748207, 0.026250706985592842, 0.02086521126329899, 0.024871353060007095, 0.03407758101820946, 0.03793655335903168, 0.03229161724448204, 0.04466656595468521, 0.036445245146751404, 0.03155994042754173, 0.034757159650325775, 0.04210711270570755, 0.055810410529375076, 0.04083902761340141, 0.03491491451859474, 0.049117088317871094, 0.036842215806245804, 0.03106655925512314, 0.02836785651743412, 0.02701019123196602, 0.02594303898513317, 0.031094573438167572, 0.04281353950500488, 0.051638200879096985, 0.03752422705292702, 0.04236678034067154, 0.032232899218797684, 0.039407774806022644, 0.0476447232067585, 0.04308516904711723, 0.035235531628131866, 0.054832056164741516, 0.053316935896873474, 0.055926065891981125, 0.07287288457155228, 0.07412876188755035, 0.11697277426719666, 0.10994309931993484, 0.11079654097557068, 0.10122949630022049, 0.13260048627853394, 0.1330871284008026, 0.09567925333976746, 0.09115061163902283, 0.0909544974565506, 0.06223442777991295, 0.052751872688531876, 0.06555308401584625, 0.05465700104832649, 0.055200304836034775, 0.043492939323186874, 0.052572790533304214, 0.0666046142578125, 0.06677193939685822, 0.056260671466588974, 0.0662153959274292, 0.061849504709243774, 0.05966371297836304, 0.04251549765467644, 0.06223522499203682, 0.06263250857591629, 0.07076405733823776, 0.09780395776033401, 0.10127923637628555, 0.08488092571496964, 0.07362181693315506, 0.07177438586950302, 0.0830782949924469, 0.06961561739444733, 0.11346370726823807, 0.08933316171169281, 0.1454613208770752, 0.052709899842739105, 0.058216046541929245, 0.03378970921039581, 0.05552081763744354, 0.04061316326260567, 0.04156537353992462, 0.037467747926712036, 0.0336812399327755, 0.06241517513990402, 0.05081639811396599, 0.05595714971423149, 0.03674515709280968, 0.045848336070775986, 0.06447131186723709, 0.04764024540781975, 0.04978623613715172, 0.05829218402504921, 0.05471233278512955, 0.0605737641453743, 0.05703526735305786, 0.07775349915027618, 0.08230593800544739, 0.08401273936033249, 0.17054641246795654, 0.12669602036476135, 0.13544785976409912, 0.23002107441425323, 0.23243175446987152, 0.34364989399909973, 0.16427604854106903, 0.18621067702770233, 0.27647167444229126, 0.18036386370658875, 0.12985427677631378, 0.17702201008796692, 0.21834374964237213, 0.24160853028297424, 0.2624349892139435, 0.3457554578781128, 0.19969211518764496, 0.17643679678440094, 0.1979251652956009, 0.21691451966762543, 0.3050912618637085, 0.15973921120166779, 0.1912441998720169, 0.3100709319114685, 0.15689975023269653, 0.10192487388849258, 0.09121070057153702, 0.1613146811723709, 0.14950121939182281, 0.15466882288455963, 0.07150770723819733, 0.03539346903562546, 0.04071110486984253, 0.045703593641519547, 0.07915142923593521, 0.06588715314865112, 0.0666540339589119]</t>
+          <t>[0.016840651631355286, 0.013785229064524174, 0.01112938392907381, 0.01951616257429123, 0.013348490931093693, 0.045503612607717514, 0.025345921516418457, 0.03380079194903374, 0.04289967194199562, 0.01579943671822548, 0.015336496755480766, 0.01365289930254221, 0.020177293568849564, 0.019664529711008072, 0.016355173662304878, 0.0092533053830266, 0.01116612646728754, 0.008637634105980396, 0.013041182421147823, 0.010790694504976273, 0.009811424650251865, 0.01164431031793356, 0.008076411671936512, 0.004599696025252342, 0.005241274833679199, 0.006569101940840483, 0.009451661258935928, 0.015343411825597286, 0.010246723890304565, 0.006700996775180101, 0.00747572910040617, 0.01031216885894537, 0.013343391939997673, 0.017779914662241936, 0.017572039738297462, 0.009606730192899704, 0.011734532192349434, 0.010532518848776817, 0.007976402528584003, 0.0056165968999266624, 0.0066123162396252155, 0.00905575230717659, 0.010622421279549599, 0.007922590710222721, 0.013278935104608536, 0.009194953367114067, 0.00811008084565401, 0.009458605200052261, 0.011994969099760056, 0.013683568686246872, 0.012052143923938274, 0.00923486240208149, 0.015033659525215626, 0.010667734779417515, 0.009670755825936794, 0.007748274132609367, 0.00875241868197918, 0.007305820472538471, 0.007912088185548782, 0.010213165543973446, 0.014599581249058247, 0.008722559548914433, 0.010101789608597755, 0.006740377750247717, 0.009437315165996552, 0.01248505525290966, 0.01055858563631773, 0.00864420272409916, 0.01573113724589348, 0.015279578045010567, 0.014667714014649391, 0.020345067605376244, 0.02445800229907036, 0.029600316658616066, 0.028273576870560646, 0.03156590834259987, 0.025751059874892235, 0.041526298969984055, 0.03958628699183464, 0.031377051025629044, 0.0241492111235857, 0.022218037396669388, 0.014552789740264416, 0.010775108821690083, 0.01300871279090643, 0.01145211048424244, 0.009808826260268688, 0.009309343993663788, 0.011694354005157948, 0.017000362277030945, 0.017755743116140366, 0.013643610291182995, 0.018520673736929893, 0.015582571737468243, 0.012344050221145153, 0.009115572087466717, 0.017255105078220367, 0.01731918193399906, 0.01726960763335228, 0.022967495024204254, 0.02547369711101055, 0.018211988732218742, 0.01573318988084793, 0.01885242946445942, 0.028989922255277634, 0.021642478182911873, 0.038417086005210876, 0.024101151153445244, 0.04193172976374626, 0.009371778927743435, 0.011061780154705048, 0.006574935745447874, 0.014845624566078186, 0.010818136855959892, 0.012277762405574322, 0.009238667786121368, 0.007358556147664785, 0.014152326621115208, 0.011089728213846684, 0.013418960385024548, 0.00838855654001236, 0.011783971451222897, 0.014646592549979687, 0.01186262909322977, 0.013932796195149422, 0.01695379614830017, 0.015273953787982464, 0.0188811756670475, 0.016209129244089127, 0.023073382675647736, 0.024910174310207367, 0.026715891435742378, 0.06004241853952408, 0.04404323920607567, 0.0551704466342926, 0.08955497294664383, 0.08026103675365448, 0.15589402616024017, 0.06184856593608856, 0.07186175882816315, 0.12419965863227844, 0.0519261360168457, 0.03758072108030319, 0.06442262977361679, 0.08777501434087753, 0.06860851496458054, 0.0882204920053482, 0.12976068258285522, 0.0660935789346695, 0.0554015152156353, 0.06354586780071259, 0.06541342288255692, 0.1256493479013443, 0.07050614804029465, 0.09535136073827744, 0.11591668426990509, 0.04317334294319153, 0.032139237970113754, 0.04004726558923721, 0.08047037571668625, 0.07304559648036957, 0.06979495286941528, 0.023747915402054787, 0.008427800610661507, 0.012151399627327919, 0.012416779063642025, 0.020106570795178413, 0.02042670175433159, 0.02093018777668476]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.3457554578781128</v>
+        <v>0.1558940261602402</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.913044799992349</v>
+        <v>0.9371487000025809</v>
       </c>
       <c r="J61" t="n">
-        <v>0.00540263195261745</v>
+        <v>0.005545258579896928</v>
       </c>
     </row>
     <row r="62">
@@ -3005,11 +3005,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[0.022085124626755714, 0.0158816147595644, 0.015353052876889706, 0.015195413492619991, 0.013229213654994965, 0.01672174036502838, 0.017412548884749413, 0.0159658994525671, 0.01814126782119274, 0.01944100856781006, 0.040972620248794556, 0.02759098820388317, 0.03325943648815155, 0.05334802716970444, 0.0346967875957489, 0.024118421599268913, 0.030159836634993553, 0.020044967532157898, 0.01836617849767208, 0.019184552133083344, 0.01906886138021946, 0.02696916274726391, 0.026400025933980942, 0.023707499727606773, 0.023942867293953896, 0.026929808780550957, 0.022435374557971954, 0.016672324389219284, 0.020022794604301453, 0.019051559269428253, 0.0194928590208292, 0.03767351806163788, 0.027779225260019302, 0.022844234481453896, 0.02699636109173298, 0.01865190453827381, 0.02292713150382042, 0.02860509790480137, 0.03291373699903488, 0.03406064584851265, 0.031697116792201996, 0.03933076187968254, 0.030673591420054436, 0.028221679851412773, 0.026975682005286217, 0.024202542379498482, 0.04703644663095474, 0.055426739156246185, 0.10948264598846436, 0.0514201745390892, 0.09066752344369888, 0.04826284199953079, 0.04805060103535652, 0.04061480611562729, 0.024634242057800293, 0.02030107006430626, 0.01639941707253456, 0.013519259169697762, 0.009358321316540241, 0.012600021436810493, 0.01382586918771267, 0.019955670461058617, 0.013557505793869495, 0.026302607730031013, 0.03194330260157585, 0.020771028473973274, 0.019084922969341278, 0.015049907378852367, 0.014146539382636547, 0.01660124957561493, 0.012220202013850212, 0.008498146198689938, 0.01041470654308796, 0.009739718399941921, 0.011153445579111576, 0.011006016284227371, 0.008098789490759373, 0.008364859037101269, 0.011931155808269978, 0.01048224326223135, 0.010573635809123516, 0.008562972769141197, 0.007728678174316883, 0.01459528785198927, 0.016948265954852104, 0.016628915444016457, 0.023890219628810883, 0.024826636537909508, 0.02062981203198433, 0.013023346662521362, 0.011116492561995983, 0.012627826072275639, 0.0142419608309865, 0.019661352038383484, 0.015868661925196648, 0.024819035083055496, 0.023210948333144188, 0.012317302636802197, 0.012123189866542816, 0.017988694831728935, 0.015124754048883915, 0.019831126555800438, 0.018341965973377228, 0.022694017738103867, 0.015702852979302406, 0.02152017317712307, 0.02151079848408699, 0.027546850964426994, 0.021228168159723282, 0.015412000939249992, 0.015800541266798973, 0.011457682587206364, 0.00972814578562975, 0.012042086571455002, 0.012050554156303406, 0.015306354500353336, 0.015866991132497787, 0.013577799312770367, 0.013879016041755676, 0.014497590251266956, 0.017066549509763718, 0.017185034230351448, 0.014301575720310211, 0.014107827097177505, 0.012759481556713581, 0.0098058907315135, 0.012114404700696468, 0.011201330460608006, 0.011131305247545242, 0.010445909574627876, 0.015612705610692501, 0.01620103232562542, 0.01266955304890871, 0.015801193192601204, 0.015239730477333069, 0.013980877585709095, 0.013019186444580555, 0.016840269789099693, 0.015016145072877407, 0.016407493501901627, 0.016561951488256454, 0.013872857205569744, 0.014782130718231201, 0.012748266570270061, 0.020802050828933716, 0.020612478256225586, 0.015147392638027668, 0.01330640260130167, 0.018455544486641884, 0.0198256503790617, 0.022746261209249496, 0.019872473552823067, 0.019621338695287704, 0.010536670684814453, 0.010905233211815357, 0.0146309370175004, 0.019001536071300507, 0.02782287448644638, 0.0139410849660635, 0.012051190249621868, 0.017617087811231613, 0.016260115429759026, 0.021380508318543434, 0.01601479761302471, 0.014707429334521294, 0.011178542859852314, 0.017849039286375046, 0.012605668976902962, 0.012748368084430695]</t>
+          <t>[0.015249266289174557, 0.008313100785017014, 0.007711189333349466, 0.008254545740783215, 0.008160601370036602, 0.010953479446470737, 0.013757996261119843, 0.009802238084375858, 0.009161321446299553, 0.013740253634750843, 0.024539999663829803, 0.01962575688958168, 0.02564992755651474, 0.0683206096291542, 0.02166224829852581, 0.009133678860962391, 0.014302866533398628, 0.007314568385481834, 0.007050987333059311, 0.006556815002113581, 0.009628668427467346, 0.021477440372109413, 0.01371382363140583, 0.011207394301891327, 0.007774795405566692, 0.009521424770355225, 0.007357260212302208, 0.005227930843830109, 0.00865662470459938, 0.008286048658192158, 0.007876553572714329, 0.029540710151195526, 0.016188930720090866, 0.0092781325802207, 0.010898914188146591, 0.00946342758834362, 0.0163801908493042, 0.024580802768468857, 0.03637604042887688, 0.03503517434000969, 0.03834998235106468, 0.03927755728363991, 0.028791390359401703, 0.03148574009537697, 0.027570156380534172, 0.023154105991125107, 0.07052803039550781, 0.12003783881664276, 0.2460797280073166, 0.06631295382976532, 0.15790846943855286, 0.041569970548152924, 0.05395279452204704, 0.04363624379038811, 0.026446811854839325, 0.016092458739876747, 0.011210001073777676, 0.00704115629196167, 0.003756006481125951, 0.006198592018336058, 0.007021728903055191, 0.01180046796798706, 0.007813090458512306, 0.022612374275922775, 0.03912371024489403, 0.0179852657020092, 0.01910383440554142, 0.009810424409806728, 0.007722464390099049, 0.008779644034802914, 0.007330008782446384, 0.004909896291792393, 0.005389138590544462, 0.005077107343822718, 0.004548118449747562, 0.004162900149822235, 0.002599073341116309, 0.0026596274692565203, 0.0047885156236588955, 0.004942350089550018, 0.005765645299106836, 0.004247147124260664, 0.004149519372731447, 0.007743682246655226, 0.008006340824067593, 0.007902702316641808, 0.010480710305273533, 0.012372500263154507, 0.011496464721858501, 0.006472807843238115, 0.0055443174205720425, 0.007273278199136257, 0.010247716680169106, 0.017950071021914482, 0.012944051995873451, 0.021238330751657486, 0.019827354699373245, 0.009131968952715397, 0.008583804592490196, 0.01459822990000248, 0.011730363592505455, 0.014023174531757832, 0.010786693543195724, 0.01365724578499794, 0.010244796052575111, 0.014445551671087742, 0.015920212492346764, 0.02289959415793419, 0.018668822944164276, 0.010041703470051289, 0.007983390241861343, 0.0051551018841564655, 0.003908989485353231, 0.006524953059852123, 0.004845308605581522, 0.004634708631783724, 0.004644830711185932, 0.004074187017977238, 0.007378177251666784, 0.010165482759475708, 0.010483738034963608, 0.013044213876128197, 0.00956732127815485, 0.008723918348550797, 0.00829498004168272, 0.005881224758923054, 0.0072362846694886684, 0.00554713886231184, 0.003733669174835086, 0.004024234134703875, 0.007201781962066889, 0.006470143795013428, 0.00445945467799902, 0.006575920153409243, 0.006151254288852215, 0.005662377458065748, 0.004966296721249819, 0.007687611039727926, 0.009252329356968403, 0.009013368748128414, 0.009854316711425781, 0.00702587328851223, 0.006727435626089573, 0.0048713963478803635, 0.009353366680443287, 0.009224571287631989, 0.006448888219892979, 0.00579380476847291, 0.008286263793706894, 0.008815928362309933, 0.009542006067931652, 0.010234951972961426, 0.017685091122984886, 0.0053155552595853806, 0.007063915487378836, 0.01047661155462265, 0.014279492199420929, 0.02317727915942669, 0.007920865900814533, 0.005512718576937914, 0.013323260471224785, 0.014970271848142147, 0.015459728427231312, 0.008229993283748627, 0.007739341352134943, 0.005002602934837341, 0.007258918136358261, 0.00552337896078825, 0.005572561640292406]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1094826459884644</v>
+        <v>0.2460797280073166</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.9514629000041168</v>
+        <v>0.9639824000041699</v>
       </c>
       <c r="J62" t="n">
-        <v>0.005629957988190041</v>
+        <v>0.005704037869847159</v>
       </c>
     </row>
     <row r="63">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0.01805642805993557, 0.02100115828216076, 0.012365056201815605, 0.018191106617450714, 0.02109839767217636, 0.03381403908133507, 0.020699847489595413, 0.030707353726029396, 0.03285391256213188, 0.04394393786787987, 0.03238067775964737, 0.02583986520767212, 0.08027791976928711, 0.08347658812999725, 0.09012364596128464, 0.12606900930404663, 0.04859587177634239, 0.026505254209041595, 0.030012689530849457, 0.026062369346618652, 0.04537240415811539, 0.029818356037139893, 0.041230347007513046, 0.04821405187249184, 0.04399911314249039, 0.044729944318532944, 0.036829594522714615, 0.028243234381079674, 0.05234696343541145, 0.03951794281601906, 0.03892015293240547, 0.057746123522520065, 0.06429152190685272, 0.040933165699243546, 0.022717265412211418, 0.024396449327468872, 0.036284398287534714, 0.023320557549595833, 0.020169852301478386, 0.03598659113049507, 0.030833609402179718, 0.05282945558428764, 0.04098159447312355, 0.037169501185417175, 0.02577991783618927, 0.03710125759243965, 0.03545616567134857, 0.03949360549449921, 0.10962198674678802, 0.07938477396965027, 0.03519248217344284, 0.024885717779397964, 0.027401626110076904, 0.031061604619026184, 0.04346704110503197, 0.03846454247832298, 0.025355495512485504, 0.019579008221626282, 0.025068826973438263, 0.042439933866262436, 0.10842860490083694, 0.07616571336984634, 0.19938147068023682, 0.1443554311990738, 0.06738031655550003, 0.10105155408382416, 0.06934192776679993, 0.12448029965162277, 0.1779099702835083, 0.05694340914487839, 0.03669675439596176, 0.03683541715145111, 0.048036642372608185, 0.059696704149246216, 0.06273205578327179, 0.08398855477571487, 0.10347161442041397, 0.07821057736873627, 0.17298878729343414, 0.30713000893592834, 0.13517437875270844, 0.041630178689956665, 0.032215267419815063, 0.0398692712187767, 0.02193136140704155, 0.015564515255391598, 0.02078404277563095, 0.039864592254161835, 0.030222203582525253, 0.028858568519353867, 0.0324929915368557, 0.02537516877055168, 0.02054036408662796, 0.03319384902715683, 0.020274577662348747, 0.03816698119044304, 0.09500977396965027, 0.21703863143920898, 0.10801510512828827, 0.15152142941951752, 0.1618584394454956, 0.07880213856697083, 0.03420431539416313, 0.05785321444272995, 0.02882382459938526, 0.03575395792722702, 0.08580470085144043, 0.10280247777700424, 0.09962372481822968, 0.1220894381403923, 0.06099667400121689, 0.10554896295070648, 0.08567038178443909, 0.10134338587522507, 0.09136603772640228, 0.04840141162276268, 0.0388251356780529, 0.058661557734012604, 0.08374267816543579, 0.16220998764038086, 0.09057856351137161, 0.06408743560314178, 0.06013737618923187, 0.0742684081196785, 0.16051341593265533, 0.09535983204841614, 0.0945134237408638, 0.12147995829582214, 0.08352058380842209, 0.07638797909021378, 0.05627857893705368, 0.04835999011993408, 0.042409706860780716, 0.04041163995862007, 0.061302002519369125, 0.053689293563365936, 0.0462738536298275, 0.09083345532417297, 0.5154168605804443, 0.041650716215372086, 0.02561883069574833, 0.027221612632274628, 0.02393171936273575, 0.02317134663462639, 0.026198124513030052, 0.036395300179719925, 0.05767900124192238, 0.029741069301962852, 0.028004469349980354, 0.04299083352088928, 0.02950374223291874, 0.031355712562799454, 0.03347078710794449, 0.043986350297927856, 0.08980932086706161, 0.038479484617710114, 0.05146656185388565, 0.034154441207647324, 0.06188809871673584, 0.053109150379896164, 0.06391185522079468, 0.09699847549200058, 0.04019252955913544, 0.06136401742696762, 0.024235133081674576, 0.02145938016474247, 0.02994649112224579, 0.026323240250349045, 0.02631186693906784]</t>
+          <t>[0.005380366463214159, 0.006358323153108358, 0.003977063111960888, 0.009031279012560844, 0.009689300321042538, 0.020286649465560913, 0.009806890971958637, 0.018698224797844887, 0.027338920161128044, 0.03830408677458763, 0.018400970846414566, 0.016303198412060738, 0.04670266434550285, 0.0440862774848938, 0.043012768030166626, 0.055142879486083984, 0.020423850044608116, 0.01057580579072237, 0.010387521237134933, 0.008296523243188858, 0.013861523941159248, 0.006052239332348108, 0.008910048753023148, 0.014793154783546925, 0.011895619332790375, 0.011258024722337723, 0.011661608703434467, 0.009148851037025452, 0.023123836144804955, 0.022800227627158165, 0.018888846039772034, 0.049328435212373734, 0.042728982865810394, 0.026746539399027824, 0.012179450131952763, 0.012118753045797348, 0.01874251663684845, 0.008115007542073727, 0.008741701953113079, 0.017684219405055046, 0.012805260717868805, 0.02698737196624279, 0.018739603459835052, 0.0196874737739563, 0.012128930538892746, 0.015827838331460953, 0.016491755843162537, 0.0218521561473608, 0.06968476623296738, 0.048626430332660675, 0.020104797556996346, 0.012077810242772102, 0.012086302973330021, 0.015492336824536324, 0.023585323244333267, 0.018569061532616615, 0.01008827704936266, 0.007403567899018526, 0.009923243895173073, 0.024055982008576393, 0.05430314689874649, 0.04974188655614853, 0.17890582978725433, 0.08144177496433258, 0.02923443913459778, 0.06351347267627716, 0.03804122656583786, 0.07844730466604233, 0.14128664135932922, 0.023852474987506866, 0.013779746368527412, 0.010370065458118916, 0.013906583189964294, 0.018674777820706367, 0.018423615023493767, 0.03883780539035797, 0.05657845363020897, 0.03208422288298607, 0.16374607384204865, 0.3665364682674408, 0.16256247460842133, 0.03360459953546524, 0.022840406745672226, 0.021163949742913246, 0.008910397998988628, 0.005571425426751375, 0.009887279011309147, 0.015888763591647148, 0.010107036679983139, 0.011331000365316868, 0.01374797709286213, 0.007872393354773521, 0.007723516784608364, 0.01223827712237835, 0.007625683676451445, 0.02101188153028488, 0.05954950675368309, 0.1870766580104828, 0.05786702409386635, 0.08525238186120987, 0.08396027237176895, 0.03536190837621689, 0.012540875002741814, 0.027788415551185608, 0.012372814118862152, 0.013514962047338486, 0.022849146276712418, 0.027737416326999664, 0.04894867166876793, 0.06693943589925766, 0.02101820521056652, 0.04817882552742958, 0.02567478083074093, 0.03791125863790512, 0.04632717743515968, 0.012300826609134674, 0.011904416605830193, 0.037019744515419006, 0.03940117359161377, 0.10353008657693863, 0.039349332451820374, 0.01761210896074772, 0.017746012657880783, 0.026685085147619247, 0.07475388050079346, 0.04289671406149864, 0.027606360614299774, 0.05597023293375969, 0.016800306737422943, 0.025669926777482033, 0.014047113247215748, 0.011353656649589539, 0.008233532309532166, 0.007110364735126495, 0.010881881229579449, 0.011746908538043499, 0.008807387202978134, 0.019381314516067505, 0.4100984036922455, 0.015640417113900185, 0.010698026977479458, 0.009010439738631248, 0.005748357158154249, 0.008473323658108711, 0.014826111495494843, 0.027249468490481377, 0.04247334972023964, 0.0175713449716568, 0.011180582456290722, 0.021548094227910042, 0.010096527636051178, 0.014647782780230045, 0.014610492624342442, 0.020842110738158226, 0.044874049723148346, 0.019300194457173347, 0.021069135516881943, 0.012676850892603397, 0.026145515963435173, 0.023071318864822388, 0.028859425336122513, 0.04628540202975273, 0.019786953926086426, 0.025085991248488426, 0.010005159303545952, 0.009845555759966373, 0.011067556217312813, 0.009715649299323559, 0.009713451378047466]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.5154168605804443</v>
+        <v>0.4100984036922455</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.9763639000011608</v>
+        <v>0.9989781999902334</v>
       </c>
       <c r="J63" t="n">
-        <v>0.005777301183438822</v>
+        <v>0.005911113609409665</v>
       </c>
     </row>
     <row r="64">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[0.18837572634220123, 0.19951166212558746, 0.29039114713668823, 0.4102862775325775, 0.20157630741596222, 0.2839405834674835, 0.07277175784111023, 0.060808125883340836, 0.08739170432090759, 0.06630706042051315, 0.05606907978653908, 0.05259033292531967, 0.08579688519239426, 0.11451951414346695, 0.05687748268246651, 0.03329151123762131, 0.03386300429701805, 0.07637649774551392, 0.05557410046458244, 0.05647815391421318, 0.09704669564962387, 0.17515726387500763, 0.10696330666542053, 0.08039678633213043, 0.08494728803634644, 0.035476572811603546, 0.04341138154268265, 0.045242343097925186, 0.047584328800439835, 0.05446825921535492, 0.046515919268131256, 0.04702765867114067, 0.046651121228933334, 0.04551674425601959, 0.05899524688720703, 0.05975460261106491, 0.06806488335132599, 0.057461101561784744, 0.058177199214696884, 0.06520621478557587, 0.043446339666843414, 0.13638970255851746, 0.08082505315542221, 0.1258740872144699, 0.09002383798360825, 0.09974973648786545, 0.08111825585365295, 0.07651760429143906, 0.07281067967414856, 0.05297332629561424, 0.1025615707039833, 0.09301157295703888, 0.1187371090054512, 0.07597425580024719, 0.07335314899682999, 0.10423460602760315, 0.04046338424086571, 0.048215948045253754, 0.046664949506521225, 0.02473081462085247, 0.03470399230718613, 0.07938672602176666, 0.0833766758441925, 0.14769262075424194, 0.10967098921537399, 0.07778902351856232, 0.09339794516563416, 0.06195841729640961, 0.04681422561407089, 0.04318087175488472, 0.038652919232845306, 0.05893111974000931, 0.046504873782396317, 0.04895126447081566, 0.07687093317508698, 0.1837611347436905, 0.14832155406475067, 0.09612417221069336, 0.04910546541213989, 0.0490458644926548, 0.03905297815799713, 0.036175720393657684, 0.02758963219821453, 0.07246635109186172, 0.07184427231550217, 0.04967783764004707, 0.044528428465127945, 0.052578240633010864, 0.035618290305137634, 0.04897915571928024, 0.044204212725162506, 0.04759851470589638, 0.045299381017684937, 0.06796982139348984, 0.05133209750056267, 0.04732411354780197, 0.05121319741010666, 0.05569104105234146, 0.07203270494937897, 0.06074473261833191, 0.07479358464479446, 0.07785694301128387, 0.08363461494445801, 0.06828735768795013, 0.07754603028297424, 0.05627767741680145, 0.11144722998142242, 0.09439777582883835, 0.11626718938350677, 0.1911008208990097, 0.08858359605073929, 0.053312163800001144, 0.044169146567583084, 0.0832957774400711, 0.07157203555107117, 0.05588559806346893, 0.1091596931219101, 0.12078085541725159, 0.07992545515298843, 0.06442561000585556, 0.06751847267150879, 0.16263210773468018, 0.1311212033033371, 0.28006625175476074, 0.2926378548145294, 0.2132204920053482, 0.07602245360612869, 0.028666401281952858, 0.025095844641327858, 0.024562083184719086, 0.036589011549949646, 0.049396008253097534, 0.0561491996049881, 0.07215787470340729, 0.08793985098600388, 0.11890895664691925, 0.061725858598947525, 0.043096873909235, 0.023419704288244247, 0.0637924075126648, 0.059975091367959976, 0.1618025153875351, 0.1457885056734085, 0.31512001156806946, 0.6465126872062683, 0.568028450012207, 0.23886829614639282, 0.061814431101083755, 0.13323692977428436, 0.11516553908586502, 0.1997072547674179, 0.23093751072883606, 0.2333439141511917, 0.2639690637588501, 0.3106689453125, 0.3873102366924286, 0.12057723104953766, 0.27674970030784607, 0.1527046114206314, 0.3410321772098541, 0.15179362893104553, 0.07112658023834229, 0.33165547251701355, 0.17485010623931885, 0.11092973500490189, 0.10410164296627045, 0.12079215049743652, 0.12277879565954208, 0.12290946394205093]</t>
+          <t>[0.17560747265815735, 0.11559450626373291, 0.23466840386390686, 0.2483469694852829, 0.0871727466583252, 0.15556883811950684, 0.02283668704330921, 0.019794059917330742, 0.023841729387640953, 0.018927082419395447, 0.016753772273659706, 0.020828852429986, 0.04514964297413826, 0.037035465240478516, 0.016472123563289642, 0.008307737298309803, 0.009245744906365871, 0.023852698504924774, 0.021706009283661842, 0.022958194836974144, 0.06192959472537041, 0.10952220112085342, 0.07220190763473511, 0.03587700426578522, 0.04321454465389252, 0.012718808837234974, 0.01650807447731495, 0.014501316472887993, 0.011684461496770382, 0.012588178738951683, 0.01965692825615406, 0.01941555365920067, 0.020227467641234398, 0.016963541507720947, 0.023789575323462486, 0.026219625025987625, 0.02085055410861969, 0.01932922936975956, 0.01666203886270523, 0.028841787949204445, 0.017362017184495926, 0.052189990878105164, 0.028985539451241493, 0.06583621352910995, 0.05000941455364227, 0.03639578819274902, 0.031141512095928192, 0.03618592396378517, 0.020576052367687225, 0.014961738139390945, 0.03154074773192406, 0.02189790830016136, 0.04395285248756409, 0.02774551883339882, 0.02403760887682438, 0.04165438562631607, 0.011962766759097576, 0.013509761542081833, 0.01240624114871025, 0.006267457269132137, 0.008274875581264496, 0.026540428400039673, 0.02741841971874237, 0.04737820103764534, 0.03935697302222252, 0.027895193547010422, 0.042438868433237076, 0.03178321197628975, 0.017148654907941818, 0.01518246065825224, 0.009973064996302128, 0.022028543055057526, 0.015139847062528133, 0.016972502693533897, 0.026904627680778503, 0.0943388044834137, 0.09269682317972183, 0.025470875203609467, 0.01337660476565361, 0.02291947603225708, 0.017655715346336365, 0.014056079089641571, 0.009286964312195778, 0.025283433496952057, 0.02029912732541561, 0.012310025282204151, 0.01012332271784544, 0.011489191092550755, 0.00630271015688777, 0.014512389898300171, 0.011050591245293617, 0.011992335319519043, 0.013602467253804207, 0.025358885526657104, 0.020135581493377686, 0.020360192283988, 0.01581556908786297, 0.015404896810650826, 0.02130155824124813, 0.0233808234333992, 0.02081979811191559, 0.019640440121293068, 0.021439265459775925, 0.020014988258481026, 0.02332060970366001, 0.010671796277165413, 0.04013705626130104, 0.034329257905483246, 0.043441686779260635, 0.13336952030658722, 0.033374980092048645, 0.012035610154271126, 0.013940215110778809, 0.02504453808069229, 0.02514270879328251, 0.015111477114260197, 0.044687431305646896, 0.0454367958009243, 0.026163434609770775, 0.02359825000166893, 0.022723091766238213, 0.07865902036428452, 0.0595206655561924, 0.13065870106220245, 0.12890076637268066, 0.07395321875810623, 0.0277512539178133, 0.010330287739634514, 0.008695069700479507, 0.006172843277454376, 0.013176921755075455, 0.02013351581990719, 0.0225038081407547, 0.030100686475634575, 0.03546838462352753, 0.03786679729819298, 0.015378606505692005, 0.010907907970249653, 0.006095414981245995, 0.0204471368342638, 0.015813998878002167, 0.09062755107879639, 0.10152651369571686, 0.3650389611721039, 0.6152609586715698, 0.5342254638671875, 0.13157303631305695, 0.016602905467152596, 0.06343738734722137, 0.04735959693789482, 0.1171622946858406, 0.15764100849628448, 0.13023337721824646, 0.14184065163135529, 0.15374065935611725, 0.23564912378787994, 0.042958714067935944, 0.15237455070018768, 0.06803874671459198, 0.23753811419010162, 0.05231736600399017, 0.03351163491606712, 0.17356404662132263, 0.06583794206380844, 0.04013404622673988, 0.046028729528188705, 0.042546577751636505, 0.04323295131325722, 0.04321088641881943]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.6465126872062683</v>
+        <v>0.6152609586715698</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.9736577000003308</v>
+        <v>1.0147755999933</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005761288165682431</v>
+        <v>0.00600458934907278</v>
       </c>
     </row>
     <row r="65">
@@ -3125,11 +3125,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[0.18913546204566956, 0.10753465443849564, 0.18029999732971191, 0.12720565497875214, 0.18631328642368317, 0.19164764881134033, 0.15529116988182068, 0.2554832994937897, 0.3995167016983032, 0.248747780919075, 0.12260505557060242, 0.09933636337518692, 0.058887332677841187, 0.1647096574306488, 0.17344845831394196, 0.07390832901000977, 0.0824555903673172, 0.11837562918663025, 0.09016640484333038, 0.13377459347248077, 0.09979765862226486, 0.09264582395553589, 0.06064769625663757, 0.028521595522761345, 0.05790584906935692, 0.033337175846099854, 0.046252258121967316, 0.1316900998353958, 0.14807070791721344, 0.1380046010017395, 0.08128966391086578, 0.12090567499399185, 0.06692299246788025, 0.06101171299815178, 0.0428282730281353, 0.051796555519104004, 0.029817616567015648, 0.025188589468598366, 0.027429427951574326, 0.056983716785907745, 0.032006122171878815, 0.05896860361099243, 0.04611559584736824, 0.07109272480010986, 0.050382040441036224, 0.053213223814964294, 0.045867130160331726, 0.06523304432630539, 0.09091361612081528, 0.18081477284431458, 0.05902424827218056, 0.07128609716892242, 0.06413542479276657, 0.08686710894107819, 0.04862042888998985, 0.04010539501905441, 0.026225417852401733, 0.03914983198046684, 0.028271790593862534, 0.05052025243639946, 0.0630582645535469, 0.052303776144981384, 0.08190750330686569, 0.08142440766096115, 0.12425818294286728, 0.05007407069206238, 0.09732839465141296, 0.05662274360656738, 0.05089791119098663, 0.07102405279874802, 0.06419606506824493, 0.09315375238656998, 0.08911573886871338, 0.08772986382246017, 0.09030453860759735, 0.05580483749508858, 0.08407001942396164, 0.21856707334518433, 0.2627500295639038, 0.10808980464935303, 0.26213178038597107, 0.12435559183359146, 0.34740540385246277, 0.1016378402709961, 0.09654269367456436, 0.07054641842842102, 0.08498290181159973, 0.08660323172807693, 0.08106224238872528, 0.20963765680789948, 0.11029171198606491, 0.17176514863967896, 0.14204108715057373, 0.2047058641910553, 0.31439658999443054, 0.15756011009216309, 0.10368814319372177, 0.08526447415351868, 0.05784178152680397, 0.05105755105614662, 0.05027575045824051, 0.03910653293132782, 0.05368395149707794, 0.1034964993596077, 0.1497713327407837, 0.21342991292476654, 0.2178966999053955, 0.05596911162137985, 0.07291014492511749, 0.14812083542346954, 0.150746151804924, 0.10192351043224335, 0.10492141544818878, 0.09916680306196213, 0.24479208886623383, 0.11915992200374603, 0.1209617629647255, 0.07257774472236633, 0.09540513902902603, 0.23429729044437408, 0.1161690205335617, 0.05865897238254547, 0.05305814743041992, 0.10306359082460403, 0.1913829743862152, 0.25858941674232483, 0.4283176362514496, 0.27503806352615356, 0.2164570689201355, 0.08369210362434387, 0.13376334309577942, 0.1852906197309494, 0.1836252063512802, 0.12358047813177109, 0.12558460235595703, 0.19749251008033752, 0.11245539784431458, 0.06620623916387558, 0.18898805975914001, 0.1081680878996849, 0.06290973722934723, 0.07752903550863266, 0.04942295700311661, 0.05790258198976517, 0.04474211484193802, 0.06476739794015884, 0.05609157308936119, 0.09152133017778397, 0.06574787944555283, 0.04872246831655502, 0.08200572431087494, 0.05855899304151535, 0.13448172807693481, 0.17555716633796692, 0.13038784265518188, 0.15661223232746124, 0.10931964963674545, 0.05518744885921478, 0.06535446643829346, 0.06087701395153999, 0.05628944933414459, 0.08029133081436157, 0.04338658228516579, 0.07380559295415878, 0.054094117134809494, 0.08165793120861053, 0.15202996134757996, 0.13069741427898407, 0.13050906360149384]</t>
+          <t>[0.10174009948968887, 0.06097247824072838, 0.20085200667381287, 0.09098675101995468, 0.1607738435268402, 0.2081097662448883, 0.11627689749002457, 0.23278898000717163, 0.4609127342700958, 0.27487993240356445, 0.10045866668224335, 0.07641564309597015, 0.02885729819536209, 0.17285391688346863, 0.15575040876865387, 0.05100221186876297, 0.06435945630073547, 0.10715995728969574, 0.0811251699924469, 0.10950928181409836, 0.09327371418476105, 0.05111991986632347, 0.02507679909467697, 0.007967918179929256, 0.024639522656798363, 0.011505409143865108, 0.015253105200827122, 0.08589819073677063, 0.05858108401298523, 0.06087719649076462, 0.04263416305184364, 0.0896758958697319, 0.04719322919845581, 0.042312029749155045, 0.03874597325921059, 0.04906177520751953, 0.028497038409113884, 0.040552813559770584, 0.03550335764884949, 0.10274692624807358, 0.03612453490495682, 0.11290322244167328, 0.04208259657025337, 0.06976592540740967, 0.034488797187805176, 0.04049619287252426, 0.03425466641783714, 0.037945713847875595, 0.08499264717102051, 0.21354329586029053, 0.05584287270903587, 0.05515027791261673, 0.05669454112648964, 0.08745434880256653, 0.031017666682600975, 0.02224249206483364, 0.013890238478779793, 0.022068670019507408, 0.015756893903017044, 0.026574833318591118, 0.031169263646006584, 0.024362601339817047, 0.0481429360806942, 0.06239160895347595, 0.08959776908159256, 0.024837257340550423, 0.06219880282878876, 0.028147084638476372, 0.027100075036287308, 0.048548564314842224, 0.032326553016901016, 0.07329318672418594, 0.0545080192387104, 0.051794592291116714, 0.04130541533231735, 0.027121538296341896, 0.05090070888400078, 0.2235969454050064, 0.24275733530521393, 0.053872860968112946, 0.129168301820755, 0.0635632649064064, 0.2816877067089081, 0.05288376286625862, 0.041552625596523285, 0.027788279578089714, 0.03058982640504837, 0.032190725207328796, 0.03435354679822922, 0.10075198858976364, 0.03563608229160309, 0.047064006328582764, 0.033724136650562286, 0.05245164781808853, 0.1644502431154251, 0.06845593452453613, 0.03885408863425255, 0.03242772817611694, 0.02533545531332493, 0.01651933416724205, 0.01213809847831726, 0.00899578258395195, 0.017350126057863235, 0.0465686097741127, 0.07124186307191849, 0.1295126974582672, 0.0851578488945961, 0.02471129223704338, 0.029517604038119316, 0.14615221321582794, 0.1016572043299675, 0.0476873442530632, 0.05743015930056572, 0.0510953888297081, 0.1959262192249298, 0.06604397296905518, 0.06781011819839478, 0.03819975629448891, 0.04344365745782852, 0.16119186580181122, 0.06484707444906235, 0.02034202218055725, 0.01348437275737524, 0.03091452270746231, 0.09182624518871307, 0.1497337818145752, 0.3908144533634186, 0.22663120925426483, 0.17220187187194824, 0.038885582238435745, 0.11589212715625763, 0.17792107164859772, 0.1516103744506836, 0.05291863530874252, 0.07249530404806137, 0.13773532211780548, 0.05879200994968414, 0.025227800011634827, 0.1376829445362091, 0.0693841502070427, 0.028148554265499115, 0.03950640559196472, 0.02137800306081772, 0.019241617992520332, 0.01570708490908146, 0.036739546805620193, 0.029522821307182312, 0.05252188816666603, 0.030457166954874992, 0.022088000550866127, 0.027517816051840782, 0.014871408231556416, 0.058804601430892944, 0.10652289539575577, 0.05735642462968826, 0.06454997509717941, 0.027876775711774826, 0.017513247206807137, 0.018290504813194275, 0.01843114383518696, 0.01888858526945114, 0.036226946860551834, 0.014470303431153297, 0.02176150120794773, 0.013417690061032772, 0.022975720465183258, 0.06813033670186996, 0.04755779728293419, 0.04751630499958992]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.4283176362514496</v>
+        <v>0.4609127342700958</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.9379998999938834</v>
+        <v>0.9640337000018917</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005550295266235997</v>
+        <v>0.005704341420129537</v>
       </c>
     </row>
     <row r="66">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[0.10381364077329636, 0.1525581330060959, 0.35516810417175293, 0.1800251454114914, 0.18567611277103424, 0.16698504984378815, 0.08742260187864304, 0.09453976154327393, 0.1306261271238327, 0.11607368290424347, 0.09507186710834503, 0.0796620175242424, 0.09533654898405075, 0.19589072465896606, 0.1857968121767044, 0.1387612372636795, 0.15898336470127106, 0.09707348048686981, 0.08206706494092941, 0.0789722129702568, 0.08483221381902695, 0.1145913153886795, 0.12734302878379822, 0.11018016934394836, 0.1054675430059433, 0.10880735516548157, 0.09361795336008072, 0.18497076630592346, 0.10907813906669617, 0.14499808847904205, 0.19216333329677582, 0.07177149504423141, 0.08949434757232666, 0.11753740161657333, 0.09512156993150711, 0.1048426628112793, 0.11619098484516144, 0.14982859790325165, 0.11337892711162567, 0.14828051626682281, 0.08193337917327881, 0.09792497009038925, 0.10812915861606598, 0.1621224284172058, 0.14289885759353638, 0.10572361201047897, 0.11045967042446136, 0.11430748552083969, 0.1970313936471939, 0.34231501817703247, 0.125331312417984, 0.1798999160528183, 0.14695928990840912, 0.13931670784950256, 0.09077132493257523, 0.19114568829536438, 0.07342150807380676, 0.11700113862752914, 0.15501044690608978, 0.11586769670248032, 0.0811208114027977, 0.12180289626121521, 0.07831887155771255, 0.06313561648130417, 0.0716693103313446, 0.07241074740886688, 0.15529122948646545, 0.10268039256334305, 0.08977385610342026, 0.16623325645923615, 0.11224035918712616, 0.15717029571533203, 0.1003771498799324, 0.1686638444662094, 0.09898177534341812, 0.1295253187417984, 0.0875372514128685, 0.12910979986190796, 0.0962240993976593, 0.1558530032634735, 0.11610084772109985, 0.1422341763973236, 0.1883988231420517, 0.17032232880592346, 0.15135778486728668, 0.11884012818336487, 0.13010844588279724, 0.09514579176902771, 0.160293310880661, 0.07258167117834091, 0.10807231068611145, 0.07422278821468353, 0.13370870053768158, 0.1288120150566101, 0.32353049516677856, 0.20672616362571716, 0.1566106528043747, 0.21926243603229523, 0.21875493228435516]</t>
+          <t>[0.04031984135508537, 0.04872298240661621, 0.231037899851799, 0.06793805211782455, 0.05984601378440857, 0.04019879549741745, 0.03046133928000927, 0.025408469140529633, 0.04298253729939461, 0.03420330584049225, 0.025514991953969002, 0.02216966077685356, 0.0292409248650074, 0.06536843627691269, 0.0954354777932167, 0.058264780789613724, 0.05551966279745102, 0.03183656558394432, 0.023683099076151848, 0.0190027616918087, 0.024172797799110413, 0.03712376952171326, 0.040706951171159744, 0.03114747256040573, 0.028891488909721375, 0.03214077651500702, 0.029387980699539185, 0.09215504676103592, 0.03485716134309769, 0.05974814295768738, 0.0967772975564003, 0.02794632688164711, 0.041275762021541595, 0.03915538638830185, 0.02931700088083744, 0.0363973006606102, 0.04481096938252449, 0.0709025114774704, 0.04797276109457016, 0.07534859329462051, 0.0306021086871624, 0.03581671789288521, 0.036995694041252136, 0.07464340329170227, 0.05882296338677406, 0.038366369903087616, 0.0422583669424057, 0.055104415863752365, 0.10592634230852127, 0.23326677083969116, 0.040319543331861496, 0.0510365255177021, 0.06003964692354202, 0.06655345857143402, 0.03306648135185242, 0.07321588695049286, 0.025217652320861816, 0.046273376792669296, 0.06921477615833282, 0.04112456738948822, 0.02998395450413227, 0.05077241361141205, 0.02444499358534813, 0.019928444176912308, 0.0307562667876482, 0.0243822131305933, 0.07171988487243652, 0.03356318548321724, 0.03178168833255768, 0.06775263696908951, 0.04224555194377899, 0.07620182633399963, 0.03576647862792015, 0.06461166590452194, 0.044487930834293365, 0.060465287417173386, 0.030312301591038704, 0.04023483395576477, 0.03592952340841293, 0.055761709809303284, 0.053416866809129715, 0.06427495181560516, 0.08308068662881851, 0.0728905200958252, 0.06558369100093842, 0.04595312103629112, 0.043337661772966385, 0.038486555218696594, 0.07199500501155853, 0.02134309709072113, 0.0332556776702404, 0.02483482100069523, 0.05148106440901756, 0.06574860960245132, 0.19724060595035553, 0.08961839973926544, 0.05923372134566307, 0.09739083796739578, 0.09711108356714249]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.3551681041717529</v>
+        <v>0.2332667708396912</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.5765654999995604</v>
+        <v>0.6071438999933889</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005823893939389499</v>
+        <v>0.006132766666599888</v>
       </c>
     </row>
     <row r="67">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[0.12269169092178345, 0.14648455381393433, 0.23098213970661163, 0.19085362553596497, 0.18842552602291107, 0.10635574907064438, 0.12516888976097107, 0.1647813767194748, 0.19932202994823456, 0.15374591946601868, 0.19697284698486328, 0.14868177473545074, 0.15196725726127625, 0.18559619784355164, 0.20848989486694336, 0.24355146288871765, 0.2203262895345688, 0.23649567365646362, 0.2031296044588089, 0.20895539224147797, 0.14564038813114166, 0.14182499051094055, 0.11579396575689316, 0.1796654313802719, 0.19299480319023132, 0.16074267029762268, 0.12252136319875717, 0.17187024652957916, 0.11783305555582047, 0.10906098037958145, 0.20604485273361206, 0.1674501746892929, 0.14078934490680695, 0.12209447473287582, 0.16403308510780334, 0.1823643147945404, 0.17980389297008514, 0.1391059011220932, 0.14739352464675903, 0.21272793412208557, 0.41283726692199707, 0.22294601798057556, 0.2757027745246887, 0.4515219032764435, 0.2384757250547409, 0.2042897641658783, 0.22772005200386047, 0.4227907359600067, 0.18136805295944214, 0.18165594339370728, 0.27764660120010376, 0.2607986032962799, 0.23058797419071198, 0.1835775524377823, 0.13644447922706604, 0.1558922380208969, 0.26003921031951904, 0.12760582566261292, 0.10109055042266846, 0.10951501131057739, 0.11224972456693649, 0.09175591915845871, 0.09000749886035919, 0.10847250372171402, 0.12451942265033722, 0.18651054799556732, 0.18293854594230652, 0.2602294981479645, 0.1385621875524521, 0.17076873779296875, 0.11455602943897247, 0.09393122047185898, 0.17567414045333862, 0.2125069946050644, 0.1432594209909439, 0.19654622673988342, 0.20991533994674683, 0.12848348915576935, 0.10605708509683609, 0.15456588566303253, 0.12503387033939362, 0.1679229438304901, 0.13030359148979187, 0.10543791949748993, 0.15953901410102844, 0.18087397515773773, 0.16125652194023132, 0.13584524393081665, 0.12333071976900101, 0.15924358367919922, 0.14724871516227722, 0.13428078591823578, 0.15212596952915192, 0.1491733342409134, 0.1860133409500122, 0.18672439455986023, 0.1338346153497696, 0.1251881718635559, 0.14736723899841309, 0.19640079140663147, 0.2534860074520111, 0.18472139537334442, 0.45974546670913696, 0.22589990496635437, 0.392745703458786, 0.1694357693195343, 0.11762043088674545, 0.18316321074962616, 0.14566387236118317, 0.13693957030773163, 0.10961931943893433, 0.1408180147409439, 0.15066230297088623, 0.1652628630399704, 0.15625540912151337, 0.18844476342201233, 0.23119032382965088, 0.21624316275119781, 0.19867251813411713, 0.1816781610250473, 0.10016351193189621, 0.1470600813627243, 0.16879090666770935, 0.18730762600898743, 0.27805182337760925, 0.15093488991260529, 0.1259528398513794, 0.10569541156291962, 0.1259254515171051, 0.1358053982257843, 0.07333573698997498, 0.07685109227895737, 0.11064781248569489, 0.17216148972511292, 0.18049415946006775, 0.19924402236938477, 0.16236647963523865, 0.1403358429670334, 0.14382463693618774, 0.15729233622550964, 0.1338747888803482, 0.12614034116268158, 0.11554135382175446, 0.12024375796318054, 0.10646350681781769, 0.1031489446759224, 0.14054474234580994, 0.14083701372146606]</t>
+          <t>[0.04085133969783783, 0.05597013607621193, 0.10930300503969193, 0.09321805834770203, 0.07790319621562958, 0.041574303060770035, 0.04806235432624817, 0.08132781088352203, 0.10691644996404648, 0.07170011103153229, 0.09706009924411774, 0.07667423784732819, 0.06411898881196976, 0.07795291393995285, 0.08348129689693451, 0.11439967900514603, 0.10301323980093002, 0.10016363114118576, 0.11164870858192444, 0.10365883260965347, 0.06110507994890213, 0.06632013618946075, 0.037669140845537186, 0.07368969917297363, 0.0758008062839508, 0.06174461543560028, 0.040684763342142105, 0.07856330275535583, 0.04414503648877144, 0.039078086614608765, 0.10312030464410782, 0.05976792052388191, 0.061906445771455765, 0.04723295196890831, 0.06713146716356277, 0.09823005646467209, 0.08800572156906128, 0.06403790414333344, 0.07113572210073471, 0.09884944558143616, 0.27117449045181274, 0.08272342383861542, 0.15695589780807495, 0.2904430329799652, 0.0937110185623169, 0.07959197461605072, 0.09943762421607971, 0.24176308512687683, 0.06825972348451614, 0.06180434674024582, 0.09966634958982468, 0.13401377201080322, 0.09732138365507126, 0.06553597748279572, 0.049688272178173065, 0.055991653352975845, 0.1012217104434967, 0.03165730834007263, 0.03021867945790291, 0.0396401509642601, 0.04746994376182556, 0.03477530553936958, 0.028850551694631577, 0.02912832796573639, 0.03463983163237572, 0.07457903027534485, 0.05215450003743172, 0.10371179133653641, 0.037090886384248734, 0.05190584808588028, 0.036210838705301285, 0.028048835694789886, 0.05726610869169235, 0.08015367388725281, 0.0468209870159626, 0.06327895075082779, 0.0676673948764801, 0.047081418335437775, 0.034883614629507065, 0.060638364404439926, 0.05096733942627907, 0.06062781810760498, 0.044670041650533676, 0.035467810928821564, 0.06974655389785767, 0.09486229717731476, 0.07649131119251251, 0.053189851343631744, 0.04602726548910141, 0.051831893622875214, 0.05837108939886093, 0.046442996710538864, 0.06341047585010529, 0.05596433952450752, 0.09175232797861099, 0.09372392296791077, 0.05976789444684982, 0.03904591128230095, 0.050066329538822174, 0.07324836403131485, 0.11532243341207504, 0.0864943340420723, 0.32688140869140625, 0.10622056573629379, 0.24321915209293365, 0.08358646929264069, 0.049297038465738297, 0.08940019458532333, 0.0650109276175499, 0.05626441910862923, 0.04897569119930267, 0.05653386563062668, 0.06756740063428879, 0.08246158808469772, 0.06737267971038818, 0.0803452879190445, 0.10661313682794571, 0.10841827839612961, 0.08349139988422394, 0.058213166892528534, 0.026006845757365227, 0.043940041214227676, 0.06025814265012741, 0.08054886758327484, 0.12424609065055847, 0.06465810537338257, 0.04590974003076553, 0.03480319678783417, 0.05529717728495598, 0.051747970283031464, 0.021509414538741112, 0.025409895926713943, 0.03408430889248848, 0.05725172162055969, 0.06820379197597504, 0.0974871814250946, 0.06382451951503754, 0.04492823779582977, 0.04861302673816681, 0.05859682336449623, 0.045955754816532135, 0.04627043753862381, 0.03460555523633957, 0.03902130946516991, 0.03511977568268776, 0.0368717797100544, 0.0462389774620533, 0.04621060565114021]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.459745466709137</v>
+        <v>0.3268814086914062</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.8263648000138346</v>
+        <v>0.8211233000038192</v>
       </c>
       <c r="J67" t="n">
-        <v>0.005583545946039423</v>
+        <v>0.00554813040543121</v>
       </c>
     </row>
     <row r="68">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[0.05786352977156639, 0.06011494621634483, 0.05917183682322502, 0.04976312443614006, 0.04492757096886635, 0.08381883054971695, 0.03520471230149269, 0.03329054266214371, 0.06368700414896011, 0.049555614590644836, 0.047744270414114, 0.06323760002851486, 0.04735302925109863, 0.06014096364378929, 0.07683136314153671, 0.03813725337386131, 0.05237499624490738, 0.10433143377304077, 0.06628677248954773, 0.060631562024354935, 0.05631241574883461, 0.06648144125938416, 0.057436972856521606, 0.08062448352575302, 0.048357781022787094, 0.03501572832465172, 0.05305831506848335, 0.02692626789212227, 0.035722218453884125, 0.08508794754743576, 0.07835234701633453, 0.06471779942512512, 0.07055950164794922, 0.07583475112915039, 0.07882410287857056, 0.08328172564506531, 0.06258432567119598, 0.05218079313635826, 0.04358656704425812, 0.043017879128456116, 0.0553247295320034, 0.044715993106365204, 0.08164574950933456, 0.05175114795565605, 0.05091696232557297, 0.06389680504798889, 0.055011190474033356, 0.0443301759660244, 0.04575805366039276, 0.045043908059597015, 0.07191072404384613, 0.05030542612075806, 0.07143612205982208, 0.06520076096057892, 0.0624382346868515, 0.04082563892006874, 0.04818117991089821, 0.04612978920340538, 0.03439503163099289, 0.05451178178191185, 0.03194721043109894, 0.02943229489028454, 0.024488309398293495, 0.04511309415102005, 0.023526979610323906, 0.03000381961464882, 0.03723287954926491, 0.027478719130158424, 0.07146620005369186, 0.059898700565099716, 0.029661284759640694, 0.04810825362801552, 0.06541535258293152, 0.0935705378651619, 0.10703007876873016, 0.11377888172864914, 0.054067425429821014, 0.03616734594106674, 0.033336009830236435, 0.061084307730197906, 0.0763780027627945, 0.05861521139740944, 0.04900549724698067, 0.04025110974907875, 0.07243715971708298, 0.03786024451255798, 0.03698137402534485, 0.08271104097366333, 0.06035163253545761, 0.05677863955497742, 0.07684149593114853, 0.0794205516576767, 0.05334535241127014, 0.0658133402466774, 0.042126789689064026, 0.06531619280576706, 0.04192008450627327, 0.05356648564338684, 0.07162055373191833, 0.05059343948960304, 0.03836241364479065, 0.057207800447940826, 0.030086182057857513, 0.05699590966105461, 0.05349941924214363, 0.040793608874082565, 0.05256427079439163, 0.04537944868206978, 0.060056980699300766, 0.04676537215709686, 0.035443875938653946, 0.06827057898044586, 0.04749055951833725, 0.07781656831502914, 0.044717155396938324, 0.03635885939002037, 0.045718591660261154, 0.04109418764710426, 0.029094308614730835, 0.047448839992284775, 0.0706690177321434, 0.09895958006381989, 0.0651426836848259, 0.05223383754491806, 0.03999917581677437, 0.07205896824598312, 0.06415633112192154, 0.05110938847064972, 0.04405255243182182, 0.053036659955978394, 0.03487234190106392, 0.04914702847599983, 0.03555840253829956, 0.030149128288030624, 0.05553391948342323, 0.050602737814188004, 0.039321593940258026, 0.06303011626005173, 0.051229871809482574, 0.06950871646404266, 0.039354436099529266, 0.054398063570261, 0.06454391032457352, 0.06706475466489792, 0.080325648188591, 0.0641542375087738, 0.041509125381708145, 0.041485950350761414]</t>
+          <t>[0.02217785269021988, 0.019291352480649948, 0.02363762818276882, 0.025586197152733803, 0.01966780051589012, 0.04062166437506676, 0.013554253615438938, 0.012879852205514908, 0.03183235600590706, 0.023704055696725845, 0.01909475401043892, 0.028900466859340668, 0.018131833523511887, 0.026068227365612984, 0.03146611526608467, 0.011554451659321785, 0.014864886179566383, 0.03089189901947975, 0.020063461735844612, 0.01808149367570877, 0.017315391451120377, 0.02237418293952942, 0.016156109049916267, 0.03825971111655235, 0.019136875867843628, 0.012770244851708412, 0.021905045956373215, 0.009740867651998997, 0.013132471591234207, 0.03503809869289398, 0.02784322388470173, 0.024789679795503616, 0.02796597220003605, 0.021050509065389633, 0.02452612854540348, 0.03137657418847084, 0.02244604006409645, 0.01698586717247963, 0.014431173913180828, 0.01686020754277706, 0.01829768344759941, 0.011991675943136215, 0.025479068979620934, 0.015328239649534225, 0.015471200458705425, 0.024950483813881874, 0.023169998079538345, 0.017888320609927177, 0.015265987254679203, 0.012802652083337307, 0.022044537588953972, 0.014955105260014534, 0.020359933376312256, 0.01985759101808071, 0.018280068412423134, 0.008792571723461151, 0.012609616853296757, 0.013093342073261738, 0.008738021366298199, 0.019458217546343803, 0.010675229132175446, 0.010100107640028, 0.007350188214331865, 0.015697715803980827, 0.0061356988735497, 0.009707330726087093, 0.013523736037313938, 0.0073242406360805035, 0.02592436783015728, 0.0315159410238266, 0.009877650998532772, 0.016308380290865898, 0.02408258430659771, 0.033924367278814316, 0.03896550089120865, 0.060427818447351456, 0.021068459376692772, 0.011129232123494148, 0.009942188858985901, 0.019594265148043633, 0.02931188978254795, 0.0183088518679142, 0.016136618331074715, 0.0123424818739295, 0.022035541012883186, 0.012772401794791222, 0.010295177809894085, 0.03292936831712723, 0.024113187566399574, 0.02653234638273716, 0.03475891798734665, 0.033747605979442596, 0.018722424283623695, 0.02256658300757408, 0.013395735993981361, 0.02450026199221611, 0.011749682947993279, 0.013376818969845772, 0.019498730078339577, 0.01648818887770176, 0.011956105940043926, 0.02174045704305172, 0.00658521568402648, 0.017093991860747337, 0.018699420616030693, 0.011617220006883144, 0.01701725833117962, 0.015588031150400639, 0.017208388075232506, 0.01782134175300598, 0.00885660108178854, 0.023239469155669212, 0.015222587622702122, 0.02502494864165783, 0.012242301367223263, 0.01084475964307785, 0.013335922732949257, 0.012058238498866558, 0.007970643229782581, 0.01667553000152111, 0.0263737253844738, 0.03338850662112236, 0.021598845720291138, 0.01768326945602894, 0.012381277047097683, 0.026654016226530075, 0.021387498825788498, 0.015755120664834976, 0.01309981383383274, 0.01929560676217079, 0.012550059705972672, 0.01652265153825283, 0.011424805037677288, 0.008245723322033882, 0.018646996468305588, 0.01595594733953476, 0.013888142071664333, 0.02397078275680542, 0.018114108592271805, 0.027767647057771683, 0.012225978076457977, 0.016306569799780846, 0.01836138777434826, 0.018716489896178246, 0.02517840266227722, 0.020174795761704445, 0.012075359001755714, 0.012059039436280727]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1137788817286491</v>
+        <v>0.06042781844735146</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.8375099000113551</v>
+        <v>0.8141090999997687</v>
       </c>
       <c r="J68" t="n">
-        <v>0.005658850675752399</v>
+        <v>0.005500737162160599</v>
       </c>
     </row>
     <row r="69">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0.09848568588495255, 0.06486989557743073, 0.06759599596261978, 0.06464403122663498, 0.09627080708742142, 0.07834689319133759, 0.06534137576818466, 0.06740566343069077, 0.052404504269361496, 0.046497590839862823, 0.06986796110868454, 0.060069311410188675, 0.059505242854356766, 0.0391664132475853, 0.04598710685968399, 0.042197730392217636, 0.04464951530098915, 0.052058130502700806, 0.04691643267869949, 0.03377123549580574, 0.04249773919582367, 0.033959921449422836, 0.04008477181196213, 0.03994342312216759, 0.04183512553572655, 0.07138004899024963, 0.07430611550807953, 0.0670776292681694, 0.09130243957042694, 0.12124749273061752, 0.10015588998794556, 0.06004540994763374, 0.07748916000127792, 0.07326517254114151, 0.06641233712434769, 0.06760521978139877, 0.0846603661775589, 0.07612365484237671, 0.06919153779745102, 0.0573427714407444, 0.06818677484989166, 0.060107819736003876, 0.040714848786592484, 0.05893566831946373, 0.05540359392762184, 0.0679030790925026, 0.061760518699884415, 0.05714002624154091, 0.05989661440253258, 0.06038534641265869, 0.07045384496450424, 0.06776034832000732, 0.05558541789650917, 0.048929713666439056, 0.05618312209844589, 0.07951147109270096, 0.06352639943361282, 0.08768805861473083, 0.07112368196249008, 0.06458213180303574, 0.06985217332839966, 0.05715420842170715, 0.04018170014023781, 0.05687198415398598, 0.05338075011968613, 0.04777965694665909, 0.04405444115400314, 0.056494299322366714, 0.04735127463936806, 0.04200657829642296, 0.05257274955511093, 0.0481584370136261, 0.04590785875916481, 0.051597028970718384, 0.051352359354496, 0.04854472726583481, 0.10135966539382935, 0.07018578797578812, 0.08296384662389755, 0.09216224402189255, 0.049940887838602066, 0.06189296022057533, 0.07272518426179886, 0.07072369754314423, 0.06957264989614487, 0.07347898930311203, 0.0797422006726265, 0.07181546837091446, 0.060973815619945526, 0.04913446679711342, 0.04843265563249588, 0.05777294933795929, 0.05551936477422714, 0.05227718874812126, 0.05908195301890373, 0.05373451113700867, 0.06342529505491257, 0.09910664707422256, 0.07761017978191376, 0.0725722461938858, 0.07688705623149872, 0.06070774793624878, 0.06853745877742767, 0.06085071712732315, 0.09458477795124054, 0.08691525459289551, 0.0659889504313469, 0.07680644094944, 0.08672402799129486, 0.08274774998426437, 0.06389525532722473, 0.06582964211702347, 0.06364641338586807, 0.07235321402549744, 0.0761701688170433, 0.06812545657157898, 0.061826758086681366, 0.05087345093488693, 0.05540652945637703, 0.047705721110105515, 0.04669780284166336, 0.05311531573534012, 0.05174969136714935, 0.05373352766036987, 0.0563882440328598, 0.049684710800647736, 0.04494236409664154, 0.06108197942376137, 0.054165687412023544, 0.05881422385573387, 0.05855785310268402, 0.04945512115955353, 0.06491121649742126, 0.055675193667411804, 0.06358980387449265, 0.062151484191417694, 0.06148739159107208, 0.04139365255832672, 0.0803576409816742, 0.10191938281059265, 0.07476849108934402, 0.07330956310033798, 0.07746362686157227, 0.07231929153203964, 0.07030896097421646, 0.05431479215621948, 0.07974116504192352, 0.05037969350814819, 0.05052725598216057]</t>
+          <t>[0.07885739207267761, 0.04141963645815849, 0.04431001842021942, 0.048185255378484726, 0.09042884409427643, 0.07994850724935532, 0.0653204694390297, 0.06631039828062057, 0.04432682320475578, 0.03568008914589882, 0.060494568198919296, 0.04966834932565689, 0.05124269425868988, 0.028234872967004776, 0.030708275735378265, 0.025113040581345558, 0.027169333770871162, 0.033427074551582336, 0.030018799006938934, 0.022593222558498383, 0.03305017948150635, 0.02311687543988228, 0.03040504641830921, 0.030624348670244217, 0.03857595473527908, 0.06886763125658035, 0.06516718119382858, 0.05365249142050743, 0.09363019466400146, 0.1291213482618332, 0.08710064738988876, 0.04709642380475998, 0.07251489907503128, 0.06580910086631775, 0.05461907014250755, 0.06444279104471207, 0.07585474103689194, 0.058328013867139816, 0.05293308198451996, 0.0436461865901947, 0.05077923461794853, 0.04569296911358833, 0.027795005589723587, 0.04506939277052879, 0.042749226093292236, 0.05470125749707222, 0.050693120807409286, 0.03942916914820671, 0.048330411314964294, 0.04464058578014374, 0.060172196477651596, 0.04353633522987366, 0.03376464545726776, 0.03257745876908302, 0.04538898915052414, 0.07808156311511993, 0.055793143808841705, 0.07844721525907516, 0.0597192719578743, 0.054327286779880524, 0.06326315551996231, 0.04455950856208801, 0.02547329105436802, 0.04871596768498421, 0.04336201772093773, 0.042772479355335236, 0.03368251770734787, 0.0497579388320446, 0.03579319268465042, 0.0266503244638443, 0.03415609896183014, 0.0302139800041914, 0.028100237250328064, 0.03561495989561081, 0.04047389328479767, 0.03399117290973663, 0.09228415787220001, 0.0514054074883461, 0.06891942769289017, 0.08166398108005524, 0.03676411136984825, 0.05166388675570488, 0.059025492519140244, 0.0616995170712471, 0.05539901182055473, 0.05513259768486023, 0.06494694948196411, 0.04968026280403137, 0.04365750029683113, 0.03728021681308746, 0.039183177053928375, 0.047124557197093964, 0.044220179319381714, 0.03865120932459831, 0.0470467209815979, 0.045858535915613174, 0.05639675632119179, 0.10141786187887192, 0.07062503695487976, 0.06403645873069763, 0.0714610293507576, 0.05476350709795952, 0.06264085322618484, 0.0727502703666687, 0.16006875038146973, 0.09995254129171371, 0.055560458451509476, 0.08351888507604599, 0.07932471483945847, 0.07632429152727127, 0.04731622338294983, 0.06177884712815285, 0.057761721312999725, 0.07238344103097916, 0.08084304630756378, 0.05945511907339096, 0.056009139865636826, 0.040380772203207016, 0.04344261437654495, 0.040662456303834915, 0.0376567505300045, 0.041543569415807724, 0.03894365206360817, 0.04018307477235794, 0.04462999477982521, 0.038766197860240936, 0.034113794565200806, 0.04549437388777733, 0.037710823118686676, 0.038685500621795654, 0.04706908389925957, 0.03611164912581444, 0.05859401077032089, 0.03974345698952675, 0.043199386447668076, 0.044954217970371246, 0.04939350113272667, 0.028016263619065285, 0.07376357913017273, 0.1017352044582367, 0.07411126047372818, 0.06001746281981468, 0.07132512331008911, 0.05931023508310318, 0.060882922261953354, 0.03976385295391083, 0.06806392967700958, 0.028590533882379532, 0.02866927720606327]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1212474927306175</v>
+        <v>0.1600687503814697</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.854702599986922</v>
+        <v>0.8489848000026541</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005736259060314912</v>
+        <v>0.005697884563776202</v>
       </c>
     </row>
     <row r="70">
@@ -3325,11 +3325,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[0.23414157330989838, 0.8987635970115662, 0.31184902787208557, 0.17765946686267853, 0.4414590299129486, 0.4096657633781433, 0.15204472839832306, 0.4769022762775421, 0.16824963688850403, 0.1222834661602974, 0.09408976882696152, 0.14497168362140656, 0.1710003763437271, 0.10797819495201111, 0.0821957066655159, 0.12358030676841736, 0.07619696110486984, 0.06107940152287483, 0.11714480072259903, 0.12109050899744034, 0.14404617249965668, 0.15419790148735046, 0.15215931832790375, 0.09174685180187225, 0.1614554077386856, 0.1496400684118271, 0.11216507107019424, 0.06918229162693024, 0.058903228491544724, 0.04812528192996979, 0.0410657562315464, 0.051350273191928864, 0.06519439071416855, 0.057032421231269836, 0.07706686854362488, 0.10264329612255096, 0.19546248018741608, 0.04800286144018173, 0.08061978965997696, 0.1246667355298996, 0.21894530951976776, 0.30860066413879395, 0.14216996729373932, 0.12769073247909546, 0.09358959645032883, 0.16079768538475037, 0.12712125480175018, 0.10328414291143417, 0.08029229193925858, 0.08378645032644272, 0.07645708322525024, 0.13830497860908508, 0.09008412063121796, 0.11384373903274536, 0.10612374544143677, 0.10681745409965515, 0.09469135105609894, 0.07640811800956726, 0.16190248727798462, 0.15397773683071136, 0.16623474657535553, 0.09946446120738983, 0.09981664270162582, 0.21367312967777252, 0.26370668411254883, 0.22543758153915405, 0.32572269439697266, 0.6589171290397644, 0.47641804814338684, 0.38193032145500183, 0.6758819222450256, 0.151080921292305, 0.11229979991912842, 0.19118554890155792, 0.1843501180410385, 0.10360386967658997, 0.06776051223278046, 0.13360507786273956, 0.29707616567611694, 0.09488053619861603, 0.1490873098373413, 0.15239952504634857, 0.15131160616874695, 0.06014762073755264, 0.10599842667579651, 0.191702201962471, 0.20288003981113434, 0.125921368598938, 0.10745954513549805, 0.09595581144094467, 0.08601675927639008, 0.17008540034294128, 0.06483642756938934, 0.07252202183008194, 0.12941348552703857, 0.09920951724052429, 0.16426816582679749, 0.14912046492099762, 0.11080911755561829, 0.08579020947217941, 0.13668067753314972, 0.08906317502260208, 0.17426824569702148, 0.19599901139736176, 0.3306523859500885, 0.2920464277267456, 0.22406652569770813, 0.13007518649101257, 0.11821287125349045, 0.09207733720541, 0.12121131271123886, 0.13071677088737488, 0.11963970959186554, 0.11604656279087067, 0.22534410655498505, 0.24687601625919342, 0.34549054503440857, 0.13732823729515076, 0.08717124164104462, 0.08716574311256409, 0.13154570758342743, 0.08664043247699738, 0.0894538015127182, 0.1384657919406891, 0.15991050004959106, 0.17643971741199493, 0.07330138236284256, 0.05935171991586685, 0.07643134146928787, 0.09606268256902695, 0.1062813550233841, 0.0838485062122345, 0.14006651937961578, 0.11925565451383591, 0.1812925487756729, 0.13024462759494781, 0.08521372079849243, 0.20320889353752136, 0.08104023337364197, 0.1541191190481186, 0.18923808634281158, 0.07445894181728363, 0.09479392319917679, 0.11870414018630981, 0.11572901904582977, 0.10338853299617767, 0.11907444149255753, 0.1218448281288147]</t>
+          <t>[0.10437203198671341, 0.8501302003860474, 0.07860959321260452, 0.03767835721373558, 0.2938464283943176, 0.37478718161582947, 0.052874647080898285, 0.26776814460754395, 0.06688153743743896, 0.04982468858361244, 0.03386228531599045, 0.06944092363119125, 0.10271593928337097, 0.05147081986069679, 0.0381033681333065, 0.06954792886972427, 0.038141872733831406, 0.027473237365484238, 0.08266063779592514, 0.10137040168046951, 0.09767067432403564, 0.08787906914949417, 0.06408081948757172, 0.04491882026195526, 0.07027247548103333, 0.10232875496149063, 0.04884613677859306, 0.018629545345902443, 0.01704522967338562, 0.016346920281648636, 0.011560078710317612, 0.016705675050616264, 0.023989249020814896, 0.01651485078036785, 0.027311494573950768, 0.03655753284692764, 0.13355869054794312, 0.012744697742164135, 0.027307681739330292, 0.05780903995037079, 0.13811935484409332, 0.34401974081993103, 0.05822949856519699, 0.04563622176647186, 0.030535800382494926, 0.07642912864685059, 0.056263599544763565, 0.04436107352375984, 0.03586786240339279, 0.03789351135492325, 0.027413740754127502, 0.061436764895915985, 0.03335410729050636, 0.06550811976194382, 0.06759113073348999, 0.04623283073306084, 0.0344969667494297, 0.026337191462516785, 0.08769776672124863, 0.06195984035730362, 0.0501025915145874, 0.02287483401596546, 0.030332181602716446, 0.07425425946712494, 0.0982930064201355, 0.06384330987930298, 0.13267558813095093, 0.5384604334831238, 0.2441699355840683, 0.28715765476226807, 0.5852960348129272, 0.05099014192819595, 0.029765810817480087, 0.0718332901597023, 0.07175826281309128, 0.03877707198262215, 0.02049313671886921, 0.06597036123275757, 0.22774705290794373, 0.04482105001807213, 0.08674664795398712, 0.07047495990991592, 0.07387906312942505, 0.021598773077130318, 0.03799135610461235, 0.09368991106748581, 0.06630207598209381, 0.033608581870794296, 0.03598647937178612, 0.03879786282777786, 0.02783082239329815, 0.06738844513893127, 0.02542589232325554, 0.024818358942866325, 0.05018811300396919, 0.04810381308197975, 0.07676509022712708, 0.07044854015111923, 0.04060869663953781, 0.03456450626254082, 0.04672836884856224, 0.025586416944861412, 0.05296981334686279, 0.11202086508274078, 0.25324690341949463, 0.22976793348789215, 0.14990881085395813, 0.07432392984628677, 0.08227763324975967, 0.04249907657504082, 0.06249645724892616, 0.07921568304300308, 0.07353338599205017, 0.0612175278365612, 0.15762358903884888, 0.1928284913301468, 0.43583565950393677, 0.10554314404726028, 0.045540377497673035, 0.037712931632995605, 0.07638799399137497, 0.05124688148498535, 0.04815429821610451, 0.09604554623365402, 0.09658302366733551, 0.12358888983726501, 0.037284355610609055, 0.036226313561201096, 0.037912510335445404, 0.04897726699709892, 0.052321694791316986, 0.03423341363668442, 0.08024364709854126, 0.056232862174510956, 0.11040998995304108, 0.06604289263486862, 0.03556418418884277, 0.11295747011899948, 0.03841078281402588, 0.09756689518690109, 0.12192201614379883, 0.03315474092960358, 0.0440499447286129, 0.055955760180950165, 0.05589775741100311, 0.043886449187994, 0.05137928947806358, 0.052796926349401474]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.8987635970115662</v>
+        <v>0.8501302003860474</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.8649202999949921</v>
+        <v>0.8395257000083802</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005844056081047244</v>
+        <v>0.005672470946002569</v>
       </c>
     </row>
     <row r="71">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[0.05914953723549843, 0.07434184849262238, 0.07018916308879852, 0.18241848051548004, 0.10777274519205093, 0.08802127838134766, 0.05642888322472572, 0.049188509583473206, 0.06621572375297546, 0.10113499313592911, 0.09998674690723419, 0.12081479281187057, 0.04315141588449478, 0.10240945965051651, 0.08186072111129761, 0.2185082733631134, 0.08985139429569244, 0.12650464475154877, 0.10620680451393127, 0.09738734364509583, 0.11704466491937637, 0.15225298702716827, 0.18188580870628357, 0.13918860256671906, 0.07877262681722641, 0.11308978497982025, 0.1503782421350479, 0.11324899643659592, 0.13101676106452942, 0.08035308122634888, 0.10753624141216278, 0.20736931264400482, 0.09738480299711227, 0.08152790367603302, 0.0691981315612793, 0.07102098315954208, 0.11715932935476303, 0.06647662073373795, 0.21299102902412415, 0.18073511123657227, 0.21987593173980713, 0.2318316400051117, 0.3372132182121277, 0.15550394356250763, 0.18208317458629608, 0.09398248791694641, 0.174210786819458, 0.1504075527191162, 0.1643608808517456, 0.10213036835193634, 0.13540257513523102, 0.15752094984054565, 0.09556084126234055, 0.13355563580989838, 0.07949398458003998, 0.10996466130018234, 0.1498509645462036, 0.16692668199539185, 0.12433414906263351, 0.18344014883041382, 0.14190909266471863, 0.07679968327283859, 0.07409948855638504, 0.12648537755012512, 0.12276695668697357, 0.11996044963598251, 0.29278600215911865, 0.3025917708873749, 0.16707444190979004, 0.17709565162658691, 0.15619993209838867, 0.16508795320987701, 0.06830240041017532, 0.13105210661888123, 0.13490746915340424, 0.1216234639286995, 0.1375933140516281, 0.07470789551734924, 0.10351461172103882, 0.3122713565826416, 0.16956236958503723, 0.14987975358963013, 0.35846763849258423, 0.2693449556827545, 0.1834316849708557, 0.1658286303281784, 0.09143739193677902, 0.11977452784776688, 0.11239728331565857, 0.22654640674591064, 0.15560752153396606, 0.16448065638542175, 0.21629144251346588, 0.16106122732162476, 0.37347760796546936, 0.40047162771224976, 0.18624764680862427, 0.07664302736520767, 0.11477499455213547, 0.12753644585609436, 0.15876172482967377, 0.11059718579053879, 0.11838795244693756, 0.1980394423007965, 0.11024021357297897, 0.20731715857982635, 0.19111505150794983, 0.16301214694976807, 0.15268465876579285, 0.09193949401378632, 0.13230986893177032, 0.14111720025539398, 0.16107448935508728, 0.12601065635681152, 0.11387469619512558, 0.09081577509641647, 0.15639853477478027, 0.09915098547935486, 0.11291580647230148, 0.22884099185466766, 0.14106570184230804, 0.0612819604575634, 0.13101771473884583, 0.3039170801639557, 0.10231506824493408, 0.09224285930395126, 0.09986323863267899, 0.23123757541179657, 0.14669275283813477, 0.2634202837944031, 0.38868358731269836, 0.10292182862758636, 0.22517946362495422, 0.13372530043125153, 0.1836288571357727, 0.20620931684970856, 0.28177738189697266, 0.07804268598556519, 0.07521312683820724, 0.05481918156147003, 0.07913791388273239, 0.043748755007982254, 0.07451796531677246, 0.08319486677646637, 0.0871943011879921, 0.05211041867733002, 0.08350599557161331, 0.08358705788850784]</t>
+          <t>[0.01225245464593172, 0.02005905658006668, 0.02170264720916748, 0.11918448656797409, 0.0377577506005764, 0.03765064850449562, 0.013707129284739494, 0.013186268508434296, 0.019611163064837456, 0.05458219721913338, 0.030704399570822716, 0.06124776229262352, 0.00944885890930891, 0.03378162160515785, 0.021625930443406105, 0.1502327173948288, 0.02996685914695263, 0.03603535145521164, 0.03446650877594948, 0.03269212320446968, 0.060249172151088715, 0.07586373388767242, 0.09313637018203735, 0.05173566937446594, 0.028133729472756386, 0.0895967185497284, 0.11442416161298752, 0.07502175867557526, 0.1116194874048233, 0.03776291385293007, 0.048312827944755554, 0.09253857284784317, 0.040701724588871, 0.02660178951919079, 0.03388788551092148, 0.028553174808621407, 0.06346399337053299, 0.020201774314045906, 0.15294335782527924, 0.16151881217956543, 0.18722940981388092, 0.18492357432842255, 0.26927146315574646, 0.08945523947477341, 0.16515713930130005, 0.056607797741889954, 0.15264344215393066, 0.13222379982471466, 0.13268013298511505, 0.07010194659233093, 0.11553675681352615, 0.10923179239034653, 0.05439912900328636, 0.12937046587467194, 0.04117560759186745, 0.06833534687757492, 0.106653593480587, 0.11953862011432648, 0.07787910848855972, 0.12077783048152924, 0.10862170159816742, 0.03930428996682167, 0.04871772602200508, 0.07574594765901566, 0.08870705217123032, 0.07391621172428131, 0.24988558888435364, 0.31455111503601074, 0.09239182621240616, 0.11855417490005493, 0.12045181542634964, 0.11780744045972824, 0.030266132205724716, 0.08038823306560516, 0.06978457421064377, 0.07135411351919174, 0.06045353785157204, 0.031230822205543518, 0.05588243156671524, 0.28486141562461853, 0.11797550320625305, 0.06883105635643005, 0.29382699728012085, 0.14301104843616486, 0.07267683744430542, 0.05016643553972244, 0.03087032400071621, 0.043240614235401154, 0.051004644483327866, 0.19489242136478424, 0.06574900448322296, 0.1108931303024292, 0.16582298278808594, 0.10417714715003967, 0.2986915707588196, 0.3399493992328644, 0.09729493409395218, 0.028124254196882248, 0.05106990784406662, 0.06722619384527206, 0.1031193807721138, 0.04960084334015846, 0.042481523007154465, 0.11112464964389801, 0.05621354654431343, 0.15962578356266022, 0.20008628070354462, 0.09896562993526459, 0.08326150476932526, 0.05771400406956673, 0.07889574766159058, 0.12444420903921127, 0.1502659022808075, 0.1257333755493164, 0.09724127501249313, 0.05827018618583679, 0.12072436511516571, 0.08011835068464279, 0.098420649766922, 0.16811498999595642, 0.07353656738996506, 0.030782967805862427, 0.06654572486877441, 0.22405587136745453, 0.04449905827641487, 0.0388268306851387, 0.037339046597480774, 0.23657919466495514, 0.08324333280324936, 0.2421272099018097, 0.5157234072685242, 0.07811395823955536, 0.29724663496017456, 0.10137582570314407, 0.1633785218000412, 0.16401521861553192, 0.24982206523418427, 0.04292795807123184, 0.04300070181488991, 0.029514987021684647, 0.04824959114193916, 0.019518906250596046, 0.045115403831005096, 0.048450641334056854, 0.0471087247133255, 0.021065637469291687, 0.050435978919267654, 0.05035621300339699]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.4004716277122498</v>
+        <v>0.5157234072685242</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.8372619999863673</v>
+        <v>0.842570099994191</v>
       </c>
       <c r="J71" t="n">
-        <v>0.005657175675583563</v>
+        <v>0.005693041216176966</v>
       </c>
     </row>
     <row r="72">
@@ -3405,11 +3405,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[0.050137124955654144, 0.07274983078241348, 0.05320985987782478, 0.056410517543554306, 0.08103378117084503, 0.09666914492845535, 0.06153499707579613, 0.06970424205064774, 0.09879373013973236, 0.10324615240097046, 0.04332654923200607, 0.04324749857187271, 0.07211899012327194, 0.07864797860383987, 0.09141084551811218, 0.11175841093063354, 0.07948057353496552, 0.0753544494509697, 0.06393232196569443, 0.07114025950431824, 0.08856307715177536, 0.13913898169994354, 0.07504653185606003, 0.07105869054794312, 0.06313294917345047, 0.1049748957157135, 0.08370554447174072, 0.0657539814710617, 0.1573914885520935, 0.09245749562978745, 0.09537511318922043, 0.08647124469280243, 0.05540455877780914, 0.043895870447158813, 0.1067148819565773, 0.12707242369651794, 0.11662320792675018, 0.09449632465839386, 0.06151272729039192, 0.11994488537311554, 0.08490192890167236, 0.1395900398492813, 0.05803108215332031, 0.04342176020145416, 0.048369377851486206, 0.03915096074342728, 0.038201216608285904, 0.046147048473358154, 0.04321117699146271, 0.04255397990345955, 0.0565585158765316, 0.05503788962960243, 0.05581371486186981, 0.06620997190475464, 0.04098663851618767, 0.03782357648015022, 0.054396361112594604, 0.1252405345439911, 0.039984602481126785, 0.04489737004041672, 0.04476112872362137, 0.02674306556582451, 0.03661496564745903, 0.04230700805783272, 0.049643661826848984, 0.10333175957202911, 0.08068717271089554, 0.12664708495140076, 0.18247826397418976, 0.1355186104774475, 0.11591663211584091, 0.10757414996623993, 0.09340124577283859, 0.12980592250823975, 0.12111416459083557, 0.10704709589481354, 0.11336167901754379, 0.1834428608417511, 0.12812018394470215, 0.08823110163211823, 0.11608709394931793, 0.07031503319740295, 0.05587773770093918, 0.06445810198783875, 0.059197187423706055, 0.059458401054143906, 0.07847433537244797, 0.10734548419713974, 0.10710375756025314, 0.09648758172988892, 0.09769298881292343, 0.13739608228206635, 0.10663638263940811, 0.09279666841030121, 0.106625035405159, 0.09513498097658157, 0.09876010566949844, 0.08424587547779083, 0.08554224669933319, 0.13507801294326782, 0.12831653654575348, 0.11021777242422104, 0.1273961365222931, 0.09210126101970673, 0.09553059190511703, 0.15680767595767975, 0.09792197495698929, 0.08857958763837814, 0.09106135368347168, 0.05829329043626785, 0.045709334313869476, 0.04909622669219971, 0.04651816561818123, 0.055003777146339417, 0.04907580465078354, 0.04629221558570862, 0.07329114526510239, 0.07079904526472092, 0.058095745742321014, 0.0858389362692833, 0.06524575501680374, 0.05588006600737572, 0.0436602383852005, 0.047758061438798904, 0.06347944587469101, 0.11137192696332932, 0.09784732013940811, 0.10203452408313751, 0.06344399601221085, 0.07191351056098938, 0.16839385032653809, 0.16043461859226227, 0.10915397852659225, 0.1035250648856163, 0.09289329499006271, 0.06806313246488571, 0.08911754190921783, 0.050683312118053436, 0.05963006988167763, 0.06662507355213165, 0.08543181419372559, 0.07232121378183365, 0.05878457799553871, 0.06133945286273956, 0.05299318581819534, 0.05841218680143356, 0.031976014375686646, 0.03172268345952034]</t>
+          <t>[0.019253283739089966, 0.028130821883678436, 0.020829571411013603, 0.024850908666849136, 0.03632650151848793, 0.04300086200237274, 0.025090500712394714, 0.03130154311656952, 0.05364447832107544, 0.053453948348760605, 0.017016179859638214, 0.013772404752671719, 0.029579518362879753, 0.028069231659173965, 0.04420918598771095, 0.07239428162574768, 0.03235683962702751, 0.03202308341860771, 0.023634720593690872, 0.024967361241579056, 0.03152114897966385, 0.05624343454837799, 0.030829820781946182, 0.03333190083503723, 0.02999316342175007, 0.05494886264204979, 0.02818247489631176, 0.019801504909992218, 0.09548281133174896, 0.03519134968519211, 0.053509421646595, 0.058801088482141495, 0.02445191890001297, 0.013470746576786041, 0.03544843569397926, 0.043695561587810516, 0.044462062418460846, 0.02888290211558342, 0.015784649178385735, 0.05473865568637848, 0.030902817845344543, 0.06619097292423248, 0.021237032487988472, 0.010185260325670242, 0.013987597078084946, 0.010231097228825092, 0.010343380272388458, 0.012847094796597958, 0.011351216584444046, 0.010325774550437927, 0.02034647762775421, 0.02289581671357155, 0.017508933320641518, 0.022378047928214073, 0.011587778106331825, 0.010168822482228279, 0.013796389102935791, 0.04351845383644104, 0.010895258747041225, 0.014823401346802711, 0.012293257750570774, 0.007507990580052137, 0.010607517324388027, 0.015401656739413738, 0.021645614877343178, 0.055535368621349335, 0.029992222785949707, 0.0506107471883297, 0.09535722434520721, 0.0505826361477375, 0.033052556216716766, 0.02759668044745922, 0.022066468372941017, 0.04152950644493103, 0.050630226731300354, 0.053244639188051224, 0.04947158321738243, 0.1520053744316101, 0.05743425339460373, 0.02468784898519516, 0.04562252387404442, 0.02884492464363575, 0.022090841084718704, 0.022423166781663895, 0.02281182073056698, 0.02027113363146782, 0.030536802485585213, 0.058476075530052185, 0.05885295569896698, 0.06697200238704681, 0.051601506769657135, 0.10379903018474579, 0.04873114079236984, 0.05384216457605362, 0.09833025187253952, 0.06488155573606491, 0.061140310019254684, 0.037565477192401886, 0.031017770990729332, 0.05540423467755318, 0.0570775605738163, 0.03841757774353027, 0.05802490562200546, 0.03560761734843254, 0.02757987380027771, 0.06007383391261101, 0.030036112293601036, 0.0319930762052536, 0.03803488239645958, 0.01994665339589119, 0.012187781743705273, 0.015854718163609505, 0.012530163861811161, 0.017516465857625008, 0.01656951755285263, 0.01444251649081707, 0.02704017236828804, 0.02260049805045128, 0.015023558400571346, 0.035969313234090805, 0.027932055294513702, 0.014594677835702896, 0.010386006906628609, 0.012128198519349098, 0.021481333300471306, 0.055995356291532516, 0.039764683693647385, 0.0490422323346138, 0.01954236440360546, 0.02526576817035675, 0.08245446532964706, 0.10625681281089783, 0.05653177946805954, 0.044568002223968506, 0.03244379535317421, 0.021390637382864952, 0.03273560106754303, 0.0120039451867342, 0.018793588504195213, 0.024380089715123177, 0.04181918129324913, 0.025240657851099968, 0.02307729236781597, 0.02609799988567829, 0.019545773044228554, 0.018658075481653214, 0.010360722430050373, 0.01027673203498125]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1834428608417511</v>
+        <v>0.1520053744316101</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.8350270999944769</v>
+        <v>0.8446869000035804</v>
       </c>
       <c r="J72" t="n">
-        <v>0.005642074999962682</v>
+        <v>0.005707343918943111</v>
       </c>
     </row>
     <row r="73">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[0.13344837725162506, 0.2568175196647644, 0.3399202227592468, 0.30234628915786743, 0.3641429841518402, 0.2833421528339386, 0.3867667615413666, 0.5634325742721558, 0.36408349871635437, 0.24420374631881714, 0.293371319770813, 0.30523258447647095, 0.15336430072784424, 0.1501733362674713, 0.160323828458786, 0.20419569313526154, 0.2386874407529831, 0.21849325299263, 0.18369336426258087, 0.31026598811149597, 0.29062825441360474, 0.3196367919445038, 0.6120666265487671, 0.4410364627838135, 0.17078441381454468, 0.20401787757873535, 0.22305692732334137, 0.3132293224334717, 0.24317513406276703, 0.28986090421676636, 0.2513924837112427, 0.2544345259666443, 0.2234889715909958, 0.2993772625923157, 0.19574175775051117, 0.21640217304229736, 0.15138009190559387, 0.1690765768289566, 0.14431387186050415, 0.34082069993019104, 0.24888917803764343, 0.2633001506328583, 0.40672391653060913, 0.31410959362983704, 0.2283090054988861, 0.2984878718852997, 0.329571008682251, 0.23864459991455078, 0.25697338581085205, 0.5255754590034485, 0.4240795373916626, 0.2912042438983917, 0.4521387219429016, 0.4400351345539093, 0.28122085332870483, 0.20518548786640167, 0.30780988931655884, 0.35550668835639954, 0.26221027970314026, 0.18041139841079712, 0.15858085453510284, 0.15015101432800293, 0.1830417364835739, 0.2168908268213272, 0.0816911906003952, 0.09829461574554443, 0.10197877883911133, 0.18575990200042725, 0.30066120624542236, 0.3925682306289673, 0.22380013763904572, 0.17743860185146332, 0.29717984795570374, 0.3503860831260681, 0.17802700400352478, 0.2150043398141861, 0.1865270584821701, 0.11728363484144211, 0.16500137746334076, 0.2393660694360733, 0.19156670570373535, 0.1916094422340393, 0.13009464740753174, 0.14488425850868225, 0.10090591758489609, 0.1844182163476944, 0.13683252036571503, 0.12425757199525833, 0.12021677196025848, 0.11587236821651459, 0.13124516606330872, 0.10029341280460358, 0.10879145562648773, 0.10943398624658585, 0.15763838589191437, 0.17578943073749542, 0.13489694893360138, 0.09879869967699051, 0.10203805565834045, 0.09960006922483444, 0.09183533489704132, 0.051385946571826935, 0.1278238743543625, 0.10861144214868546, 0.11908262223005295, 0.14158780872821808, 0.1207226887345314, 0.13556119799613953, 0.09373144060373306, 0.07587656378746033, 0.08444484323263168, 0.09001185745000839, 0.11420590430498123, 0.11490095406770706, 0.06947207450866699, 0.10190634429454803, 0.16559846699237823, 0.09977109730243683, 0.09801556915044785, 0.11405985802412033, 0.09603388607501984, 0.057366181164979935, 0.08846509456634521, 0.12558704614639282, 0.13639143109321594, 0.08763013035058975, 0.1049809604883194, 0.11399387568235397, 0.10583770275115967, 0.12456212937831879, 0.10101373493671417, 0.19985003769397736, 0.11184975504875183, 0.10783777385950089, 0.12733662128448486, 0.11540859192609787, 0.15003837645053864, 0.10658282041549683, 0.14949491620063782, 0.14418542385101318, 0.1547473669052124, 0.17203640937805176, 0.22760792076587677, 0.14872261881828308, 0.15747050940990448, 0.12826521694660187, 0.12760969996452332, 0.12693724036216736]</t>
+          <t>[0.05777068808674812, 0.18863843381404877, 0.3095356523990631, 0.21044614911079407, 0.3271758258342743, 0.24872061610221863, 0.3768410086631775, 0.4842839539051056, 0.37333640456199646, 0.14824996888637543, 0.19252067804336548, 0.21038660407066345, 0.08288946747779846, 0.07429175078868866, 0.07886646687984467, 0.09178563952445984, 0.17037920653820038, 0.12637607753276825, 0.08850916475057602, 0.18855662643909454, 0.1729465276002884, 0.255729079246521, 0.705375075340271, 0.3981648087501526, 0.08466242998838425, 0.11067654937505722, 0.13000760972499847, 0.237532839179039, 0.16320988535881042, 0.27265650033950806, 0.22296540439128876, 0.17407894134521484, 0.16523274779319763, 0.3227728307247162, 0.16655534505844116, 0.23105144500732422, 0.08590678125619888, 0.14399246871471405, 0.08024021983146667, 0.2911071479320526, 0.13855627179145813, 0.1738436371088028, 0.35616907477378845, 0.2858484089374542, 0.13879117369651794, 0.2575533092021942, 0.3383454978466034, 0.19313636422157288, 0.22196128964424133, 0.45622876286506653, 0.3755880892276764, 0.19701063632965088, 0.3830528259277344, 0.4378822147846222, 0.25823697447776794, 0.1549633890390396, 0.34984323382377625, 0.3940313756465912, 0.18699432909488678, 0.11363428831100464, 0.10188411176204681, 0.07254299521446228, 0.09737345576286316, 0.14684966206550598, 0.032274287194013596, 0.035245995968580246, 0.04907970875501633, 0.10974443703889847, 0.13681772351264954, 0.1881789118051529, 0.1094483733177185, 0.06710565835237503, 0.2078373283147812, 0.24181781709194183, 0.08346022665500641, 0.13386830687522888, 0.11512479186058044, 0.04472120851278305, 0.06847956776618958, 0.09678953140974045, 0.0808948203921318, 0.0734407901763916, 0.03818860650062561, 0.04866424947977066, 0.033707328140735626, 0.0833732932806015, 0.05356866493821144, 0.060957565903663635, 0.05466744676232338, 0.05441772937774658, 0.07789841294288635, 0.050143126398324966, 0.05586225911974907, 0.04300142824649811, 0.07095817476511002, 0.073135606944561, 0.05117899924516678, 0.03447892144322395, 0.03359978646039963, 0.03021719492971897, 0.03148011118173599, 0.019068166613578796, 0.04092705622315407, 0.059048138558864594, 0.0875452533364296, 0.0942162498831749, 0.06617297232151031, 0.06266577541828156, 0.03762953355908394, 0.02732558362185955, 0.025304501876235008, 0.03126594051718712, 0.04880773276090622, 0.05980045720934868, 0.02789047546684742, 0.03985486552119255, 0.08992595225572586, 0.04564082622528076, 0.0409921295940876, 0.05692172423005104, 0.034750524908304214, 0.02088450826704502, 0.03103102557361126, 0.06349774450063705, 0.04591536149382591, 0.03176829218864441, 0.05346549674868584, 0.05862089619040489, 0.04666123911738396, 0.06684195250272751, 0.05757390707731247, 0.15636882185935974, 0.06899557262659073, 0.059456903487443924, 0.08249270170927048, 0.06328239291906357, 0.09725787490606308, 0.04955100268125534, 0.07900360971689224, 0.08124816417694092, 0.08287787437438965, 0.10847868770360947, 0.113754503428936, 0.07682514190673828, 0.13305427134037018, 0.08287972211837769, 0.08469056338071823, 0.08369438350200653]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.6120666265487671</v>
+        <v>0.705375075340271</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.8347704000188969</v>
+        <v>0.8563824000011664</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005640340540668223</v>
+        <v>0.005786367567575448</v>
       </c>
     </row>
     <row r="74">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[0.08158082515001297, 0.05689755454659462, 0.06312759965658188, 0.05766281858086586, 0.0730985626578331, 0.08912164717912674, 0.07918970286846161, 0.07876437902450562, 0.10891319811344147, 0.07892532646656036, 0.06676030158996582, 0.07385794073343277, 0.08679091185331345, 0.09804663807153702, 0.08876249939203262, 0.0973876342177391, 0.0809566080570221, 0.08861859887838364, 0.11947281658649445, 0.11492830514907837, 0.1280323714017868, 0.07080896198749542, 0.07593289762735367, 0.1928102970123291, 0.12034622579813004, 0.07103462517261505, 0.09730923920869827, 0.09518531709909439, 0.08264734596014023, 0.08175815641880035, 0.06067122519016266, 0.0608421228826046, 0.06147962436079979, 0.10137849301099777, 0.08873773366212845, 0.07465299218893051, 0.08708357810974121, 0.06167275831103325, 0.11082397401332855, 0.0881408080458641, 0.10572809725999832, 0.07601377367973328, 0.06262371689081192, 0.11230599880218506, 0.09889554977416992, 0.08942846953868866, 0.13235099613666534, 0.13380217552185059, 0.07833601534366608, 0.12822741270065308, 0.10543443262577057, 0.14665056765079498, 0.10458377003669739, 0.14222028851509094, 0.07282670587301254, 0.08801642060279846, 0.04772641882300377, 0.0697346180677414, 0.06968624889850616, 0.07674986869096756, 0.0804397240281105, 0.07076039910316467, 0.07612984627485275, 0.1708654910326004, 0.09340190142393112, 0.09882818162441254, 0.17058129608631134, 0.0996374860405922, 0.09765288233757019, 0.09693832695484161, 0.12221477925777435, 0.13086287677288055, 0.08578839153051376, 0.18348920345306396, 0.10792999714612961, 0.10333453118801117, 0.06682136654853821, 0.06696831434965134, 0.08349760621786118, 0.08880823105573654, 0.06155553460121155, 0.0666331872344017, 0.07788918167352676, 0.0677654966711998, 0.05018434301018715, 0.06578085571527481, 0.05489811301231384, 0.04705839604139328, 0.04921640455722809, 0.06805978715419769, 0.07820449769496918, 0.0755520686507225, 0.08689607679843903, 0.08162354677915573, 0.04924021661281586, 0.0531667061150074, 0.05207439512014389, 0.06761536002159119, 0.05514020472764969, 0.06294728815555573, 0.05740158259868622, 0.05330938473343849, 0.04291543364524841, 0.06215016171336174, 0.06697624176740646, 0.061989929527044296, 0.06693577021360397, 0.07209359109401703, 0.05693872272968292, 0.06711489707231522, 0.09861946851015091, 0.07864262163639069, 0.1109553650021553, 0.09639585018157959, 0.09758191555738449, 0.05912638455629349, 0.08633063733577728, 0.06061761826276779, 0.07299144566059113, 0.06960798054933548, 0.07357313483953476, 0.049824558198451996, 0.07575158029794693, 0.09497778117656708, 0.0866803303360939, 0.07110562920570374, 0.08576885610818863, 0.1020975336432457, 0.0947282686829567, 0.1507072150707245, 0.15815667808055878, 0.1410641074180603, 0.08471705764532089, 0.07640912383794785, 0.13584908843040466, 0.180486798286438, 0.13069529831409454, 0.12368738651275635, 0.09401273727416992, 0.12672868371009827, 0.16047167778015137, 0.17117922008037567, 0.1296980232000351, 0.12832869589328766, 0.11547357589006424, 0.1134357750415802, 0.09865354746580124, 0.09768553078174591]</t>
+          <t>[0.03389384225010872, 0.021356916055083275, 0.024323144927620888, 0.021974679082632065, 0.029183857142925262, 0.04201120510697365, 0.04026808217167854, 0.038885440677404404, 0.058168526738882065, 0.04034130275249481, 0.03363973647356033, 0.038057539612054825, 0.041948217898607254, 0.05296711251139641, 0.03849998116493225, 0.044076576828956604, 0.039575520902872086, 0.0475962795317173, 0.08032410591840744, 0.07007600367069244, 0.07872016727924347, 0.03680938854813576, 0.038461849093437195, 0.15222986042499542, 0.09373056143522263, 0.031369972974061966, 0.04696567729115486, 0.04494762793183327, 0.04256553202867508, 0.04673658683896065, 0.027972117066383362, 0.03221315145492554, 0.03373030573129654, 0.0656033605337143, 0.04817105084657669, 0.03415609151124954, 0.045767009258270264, 0.020114004611968994, 0.03635871037840843, 0.03574300929903984, 0.05570857226848602, 0.03319071605801582, 0.03276650235056877, 0.06837403774261475, 0.05864913761615753, 0.03393193334341049, 0.05997950956225395, 0.06303121149539948, 0.030073272064328194, 0.05998298525810242, 0.05188881233334541, 0.06820157915353775, 0.038627300411462784, 0.06882964819669724, 0.023525800555944443, 0.029833132401108742, 0.01538354717195034, 0.02788492664694786, 0.03010372258722782, 0.024453463032841682, 0.026542725041508675, 0.025080794468522072, 0.030062120407819748, 0.11929261684417725, 0.0382455438375473, 0.05177997425198555, 0.14065061509609222, 0.0710919052362442, 0.07576484978199005, 0.06748265773057938, 0.07520017772912979, 0.0677952691912651, 0.03308464586734772, 0.08636761456727982, 0.0522904209792614, 0.06234624236822128, 0.03873633220791817, 0.03738797456026077, 0.045084189623594284, 0.047132473438978195, 0.02645554207265377, 0.031663037836551666, 0.03663879632949829, 0.02755911275744438, 0.01837252825498581, 0.029186785221099854, 0.024674419313669205, 0.01849249005317688, 0.016567131504416466, 0.024172071367502213, 0.032720278948545456, 0.033150944858789444, 0.04174415022134781, 0.03779766708612442, 0.01952803134918213, 0.021158821880817413, 0.024278005585074425, 0.034591760486364365, 0.028341609984636307, 0.028764771297574043, 0.02550310268998146, 0.025478476658463478, 0.017611846327781677, 0.02924383617937565, 0.0294708963483572, 0.026306934654712677, 0.027299044653773308, 0.028955547139048576, 0.021692292764782906, 0.024280153214931488, 0.03530535474419594, 0.03817371279001236, 0.053670644760131836, 0.04060494527220726, 0.04298808053135872, 0.019702907651662827, 0.02865670621395111, 0.018890682607889175, 0.02774306945502758, 0.02933722361922264, 0.027323825284838676, 0.018327174708247185, 0.029238296672701836, 0.04700084775686264, 0.038965288549661636, 0.028989285230636597, 0.038446445018053055, 0.043728869408369064, 0.04534699022769928, 0.07723871618509293, 0.0662790834903717, 0.06592365354299545, 0.03618690371513367, 0.025739720091223717, 0.05600214749574661, 0.09011834114789963, 0.06418095529079437, 0.047537583857774734, 0.03697519749403, 0.06140405684709549, 0.08464834094047546, 0.08828466385602951, 0.0680876299738884, 0.06623934209346771, 0.05200463905930519, 0.05211375653743744, 0.04814501479268074, 0.04781269654631615]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1928102970123291</v>
+        <v>0.1522298604249954</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.8309975000156555</v>
+        <v>0.8288185999990674</v>
       </c>
       <c r="J74" t="n">
-        <v>0.005614847973078754</v>
+        <v>0.005600125675669374</v>
       </c>
     </row>
     <row r="75">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[0.06774876266717911, 0.05784452706575394, 0.0629085972905159, 0.05033404007554054, 0.09218735992908478, 0.06671297550201416, 0.09474639594554901, 0.11125857383012772, 0.061338793486356735, 0.047600146383047104, 0.05335794761776924, 0.0728818029165268, 0.07386363297700882, 0.08045679330825806, 0.055249493569135666, 0.053466856479644775, 0.056294627487659454, 0.07730647921562195, 0.05986997112631798, 0.06557012349367142, 0.06981369107961655, 0.08511094748973846, 0.07213378697633743, 0.07673195749521255, 0.08701953291893005, 0.09066672623157501, 0.06266085803508759, 0.11673954874277115, 0.06997384130954742, 0.06614319235086441, 0.04793388023972511, 0.07490014284849167, 0.12589552998542786, 0.07400254160165787, 0.0809483602643013, 0.17809313535690308, 0.05415494367480278, 0.0946400836110115, 0.07878334820270538, 0.15076623857021332, 0.13227511942386627, 0.13053296506404877, 0.16694116592407227, 0.17939117550849915, 0.15632732212543488, 0.2235475778579712, 0.1407971978187561, 0.033539608120918274, 0.11364246904850006, 0.07327567785978317, 0.047207124531269073, 0.05258312076330185, 0.07305532693862915, 0.15385188162326813, 0.05211135745048523, 0.06791991740465164, 0.06198521703481674, 0.05207473412156105, 0.05286146327853203, 0.07039331644773483, 0.14184850454330444, 0.0504913367331028, 0.0422326885163784, 0.05102415010333061, 0.06738310307264328, 0.1467360556125641, 0.05297251045703888, 0.05897296220064163, 0.058105677366256714, 0.052377063781023026, 0.10827566683292389, 0.059394922107458115, 0.030477790161967278, 0.04228609800338745, 0.08776478469371796, 0.1961488425731659, 0.17987403273582458, 0.11948876827955246, 0.11563098430633545, 0.20471897721290588, 0.3636687994003296, 0.07385274767875671, 0.15976007282733917, 0.056051380932331085, 0.05143018811941147, 0.05213150009512901, 0.060669660568237305, 0.0664375051856041, 0.12051244080066681, 0.21069498360157013, 0.21841293573379517, 0.1267869621515274, 0.14734335243701935, 0.0765160396695137, 0.08344296365976334, 0.10624318569898605, 0.07092536985874176, 0.07705055922269821, 0.1115487590432167, 0.0943247526884079, 0.12576253712177277, 0.0911862775683403, 0.038559772074222565, 0.10243558138608932, 0.11555131524801254, 0.05210544168949127, 0.13557246327400208, 0.022386200726032257, 0.10814769566059113, 0.13079804182052612, 0.041422728449106216, 0.10340196639299393, 0.5364924669265747, 0.09585168212652206, 0.05558798462152481, 0.029925532639026642, 0.039669718593358994, 0.12922678887844086, 0.041998520493507385, 0.02691345103085041, 0.023405367508530617, 0.025707896798849106, 0.0347193144261837, 0.054702695459127426, 0.06957557052373886, 0.2832748591899872, 0.10031505674123764, 0.0775611400604248, 0.15533581376075745, 0.15663829445838928, 0.11971335113048553, 0.0641670972108841, 0.16284827888011932, 0.49229303002357483, 0.1334102302789688, 0.07315453886985779, 0.14951950311660767, 0.06687916815280914, 0.10044804960489273, 0.07232967019081116, 0.028007786720991135, 0.02951204590499401, 0.04427217319607735, 0.06527099758386612, 0.07125821709632874, 0.08393546938896179, 0.3846556842327118, 0.38461586833000183]</t>
+          <t>[0.030764861032366753, 0.026150763034820557, 0.03228014335036278, 0.01947116293013096, 0.037196576595306396, 0.02741413004696369, 0.03976983204483986, 0.05047924816608429, 0.025166485458612442, 0.025408951565623283, 0.029690423980355263, 0.038038358092308044, 0.033502526581287384, 0.036278706043958664, 0.02379884570837021, 0.022418955340981483, 0.02682751975953579, 0.03520486131310463, 0.03183338791131973, 0.02969234064221382, 0.029388943687081337, 0.03957974910736084, 0.032627206295728683, 0.0389554463326931, 0.05203333497047424, 0.04459354281425476, 0.037451907992362976, 0.0653514564037323, 0.0402262844145298, 0.028908925130963326, 0.015543189831078053, 0.0294826477766037, 0.07280532270669937, 0.02478792332112789, 0.04336134344339371, 0.13278476893901825, 0.019384298473596573, 0.05628989636898041, 0.03706538677215576, 0.07713828235864639, 0.07116429507732391, 0.07879623770713806, 0.1384313851594925, 0.15751706063747406, 0.11871661245822906, 0.17209768295288086, 0.09887396544218063, 0.013082238845527172, 0.0597289502620697, 0.034107983112335205, 0.020235419273376465, 0.020416811108589172, 0.03777805343270302, 0.11664745956659317, 0.02810276858508587, 0.03050113655626774, 0.024204209446907043, 0.021522995084524155, 0.019164370372891426, 0.03144831582903862, 0.07621420174837112, 0.023030752316117287, 0.018781114369630814, 0.022000854834914207, 0.03761820122599602, 0.12009638547897339, 0.03331080824136734, 0.031343452632427216, 0.024973005056381226, 0.019574111327528954, 0.03478144854307175, 0.027943061664700508, 0.01230870932340622, 0.018379822373390198, 0.03613494336605072, 0.08113555610179901, 0.05387387424707413, 0.02924702875316143, 0.02696690335869789, 0.06334354728460312, 0.28181010484695435, 0.02198045141994953, 0.06425178796052933, 0.019943000748753548, 0.02028719149529934, 0.017444929108023643, 0.024244356900453568, 0.023333000019192696, 0.045572567731142044, 0.11057484149932861, 0.15072086453437805, 0.04402204230427742, 0.06961141526699066, 0.040288425981998444, 0.026162561029195786, 0.05198407918214798, 0.031959742307662964, 0.024195155128836632, 0.03242712840437889, 0.0270462054759264, 0.054037999361753464, 0.032062821090221405, 0.012548577040433884, 0.033294010907411575, 0.03694414347410202, 0.01901882328093052, 0.04476149007678032, 0.005494908429682255, 0.03864418342709541, 0.05387858673930168, 0.015516411513090134, 0.05159434303641319, 0.4287514388561249, 0.02656620182096958, 0.024208230897784233, 0.013036493211984634, 0.010485795326530933, 0.04415743425488472, 0.013478276319801807, 0.0074633345939219, 0.007641399744898081, 0.009377659298479557, 0.009068669751286507, 0.013832197524607182, 0.024187559261918068, 0.11743082106113434, 0.04532386735081673, 0.02983185276389122, 0.09025654196739197, 0.06050582602620125, 0.054691363126039505, 0.0246963482350111, 0.07205904275178909, 0.3986257016658783, 0.04466145485639572, 0.026828061789274216, 0.07102548331022263, 0.03161873668432236, 0.03984778746962547, 0.023362647742033005, 0.009883495047688484, 0.009452505968511105, 0.014501781202852726, 0.030144162476062775, 0.024782564491033554, 0.030617959797382355, 0.1742406040430069, 0.17425702512264252]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.5364924669265747</v>
+        <v>0.4287514388561249</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.8431473999808077</v>
+        <v>0.8271130999928573</v>
       </c>
       <c r="J75" t="n">
-        <v>0.005696941891762214</v>
+        <v>0.005588602026978765</v>
       </c>
     </row>
     <row r="76">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[0.05863455682992935, 0.09915794432163239, 0.10657726228237152, 0.20429618656635284, 0.15238559246063232, 0.13668575882911682, 0.0783003568649292, 0.07407902926206589, 0.09025827795267105, 0.1712675243616104, 0.3121074438095093, 0.14182722568511963, 0.15327174961566925, 0.09376227110624313, 0.0956963449716568, 0.0819617435336113, 0.047644443809986115, 0.04762633144855499, 0.04589061439037323, 0.07865893840789795, 0.07546602934598923, 0.054918356239795685, 0.11120165884494781, 0.0467505045235157, 0.08201906085014343, 0.07192651927471161, 0.05520913377404213, 0.054487649351358414, 0.024259556084871292, 0.06190552935004234, 0.04338662326335907, 0.2462216019630432, 0.4969099760055542, 0.16319219768047333, 0.03023958019912243, 0.08051104843616486, 0.07034347206354141, 0.0419628880918026, 0.0537896566092968, 0.07128576934337616, 0.09059079736471176, 0.12703675031661987, 0.1279376745223999, 0.13974809646606445, 0.13779082894325256, 0.2611337900161743, 0.2867467701435089, 0.06127801164984703, 0.21198543906211853, 0.22252638638019562, 0.08838258683681488, 0.046525727957487106, 0.14947029948234558, 0.056643251329660416, 0.06618427485227585, 0.04898407310247421, 0.09357995539903641, 0.07920138537883759, 0.5012381076812744, 0.43803897500038147, 0.1518545150756836, 0.09181609749794006, 0.10795006155967712, 0.10632306337356567, 0.06964125484228134, 0.11637949198484421, 0.2146383672952652, 0.04373156279325485, 0.09441832453012466, 0.0883764699101448, 0.14567211270332336, 0.09819087386131287, 0.1096918061375618, 0.14596538245677948, 0.133762389421463, 0.06760372966527939, 0.07470742613077164, 0.3322635889053345, 0.32144245505332947, 0.11970765888690948, 0.2153836041688919, 0.41074511408805847, 0.132599338889122, 0.06888501346111298, 0.13614091277122498, 0.17146043479442596, 0.4571216106414795, 0.16903990507125854, 0.44020164012908936, 0.14676989614963531, 0.04982680082321167, 0.1337520331144333, 0.12557771801948547, 0.04627680778503418, 0.1392870396375656, 0.1038699522614479, 0.19036035239696503, 0.09155605733394623, 0.07267500460147858, 0.23790451884269714, 0.05730393901467323, 0.2629143297672272, 0.15495191514492035, 0.34369876980781555, 0.13556839525699615, 0.08108968287706375, 0.08884645253419876, 0.7932021021842957, 0.24622763693332672, 0.2700737416744232, 0.4064662456512451, 0.2642194926738739, 0.2974998354911804, 0.1828690767288208, 0.40870827436447144, 0.5096232891082764, 0.33647480607032776, 0.3052341043949127, 0.10896558314561844, 0.042977433651685715, 0.03194773569703102, 0.02648705057799816, 0.08436297625303268, 0.03724314644932747, 0.044086817651987076, 0.0827699676156044, 0.07001081109046936, 0.06409246474504471, 0.040925439447164536, 0.03749898076057434, 0.09140374511480331, 0.06563012301921844, 0.1633099764585495, 0.06204533204436302, 0.1158718541264534, 0.10098147392272949, 0.10858035832643509, 0.3010558485984802, 0.10506695508956909, 0.3495045006275177, 0.11553069204092026, 0.5205472111701965, 0.08108775317668915, 0.035288456827402115, 0.032305922359228134, 0.06113731861114502, 0.10574381053447723, 0.1050582081079483]</t>
+          <t>[0.016708888113498688, 0.019750280305743217, 0.022842876613140106, 0.07154100388288498, 0.05534105375409126, 0.03668941557407379, 0.019383331760764122, 0.014332086779177189, 0.022413423284888268, 0.06050898879766464, 0.09446310251951218, 0.030401479452848434, 0.04877355322241783, 0.020947551354765892, 0.036212366074323654, 0.02110125496983528, 0.011406744830310345, 0.009998233988881111, 0.010318223387002945, 0.01669459603726864, 0.015631435438990593, 0.014036121778190136, 0.02817927673459053, 0.008873092010617256, 0.01738237403333187, 0.016554947942495346, 0.012343144044280052, 0.020705947652459145, 0.005219704937189817, 0.019574174657464027, 0.008389798924326897, 0.061449114233255386, 0.11685561388731003, 0.05611797049641609, 0.007459584157913923, 0.025746339932084084, 0.026725128293037415, 0.016444619745016098, 0.021449165418744087, 0.027348214760422707, 0.03514133021235466, 0.09706147015094757, 0.04699669033288956, 0.07142274081707001, 0.06842217594385147, 0.11771156638860703, 0.08669722825288773, 0.02067676931619644, 0.10507179796695709, 0.05131896957755089, 0.026624856516718864, 0.013095105066895485, 0.046008121222257614, 0.018927322700619698, 0.022960912436246872, 0.009997351095080376, 0.03249739855527878, 0.016726350411772728, 0.4790908396244049, 0.3748176097869873, 0.07368679344654083, 0.023956170305609703, 0.03833303973078728, 0.03516245633363724, 0.025366587564349174, 0.04835550859570503, 0.10156069695949554, 0.012869441881775856, 0.031890567392110825, 0.021279623731970787, 0.04418650642037392, 0.026767130941152573, 0.03423929959535599, 0.049155253916978836, 0.07111775875091553, 0.025954270735383034, 0.028774511069059372, 0.17015649378299713, 0.08876469731330872, 0.034564148634672165, 0.08215522021055222, 0.14347046613693237, 0.04542495682835579, 0.014833816327154636, 0.044615257531404495, 0.05742781236767769, 0.22850678861141205, 0.05914079025387764, 0.27536705136299133, 0.0487215556204319, 0.013766882009804249, 0.043830178678035736, 0.04626189172267914, 0.01731681078672409, 0.05492058023810387, 0.026457348838448524, 0.10673429071903229, 0.03342273458838463, 0.02756502665579319, 0.09847994148731232, 0.01931263692677021, 0.0955636277794838, 0.06342089176177979, 0.3849087059497833, 0.0692218542098999, 0.021508263424038887, 0.0341862253844738, 0.7884146571159363, 0.11987678706645966, 0.2047891467809677, 0.35056987404823303, 0.22226057946681976, 0.3302850127220154, 0.12385472655296326, 0.28277724981307983, 0.3519297242164612, 0.11041238158941269, 0.10835261642932892, 0.04015614837408066, 0.02944212406873703, 0.014794135466217995, 0.014507044106721878, 0.06308180838823318, 0.02486174926161766, 0.02576175518333912, 0.06557032465934753, 0.048510901629924774, 0.03262704610824585, 0.01269167847931385, 0.015205883421003819, 0.06675989925861359, 0.04128333181142807, 0.11611288040876389, 0.03341125324368477, 0.10526122152805328, 0.08653439581394196, 0.07667144387960434, 0.21680675446987152, 0.058834195137023926, 0.3040047883987427, 0.10638707876205444, 0.5813747048377991, 0.03913421556353569, 0.017428655177354813, 0.0106505723670125, 0.017248772084712982, 0.035370178520679474, 0.03528249263763428]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.7932021021842957</v>
+        <v>0.7884146571159363</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.8908081999979913</v>
+        <v>0.8514772000053199</v>
       </c>
       <c r="J76" t="n">
-        <v>0.006018974324310753</v>
+        <v>0.00575322432436027</v>
       </c>
     </row>
     <row r="77">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[0.250507652759552, 0.2840290367603302, 0.5596404671669006, 0.3272593915462494, 0.24937427043914795, 0.4008139371871948, 0.655401349067688, 0.40323805809020996, 0.3675478398799896, 0.5970548987388611, 0.4558458626270294, 0.4044357240200043, 0.28135019540786743, 0.3951990306377411, 0.2731688618659973, 0.7217927575111389, 0.17452269792556763, 0.20340660214424133, 0.31618043780326843, 0.5058167576789856, 0.519180417060852, 0.25607728958129883, 0.3317428529262543, 0.6948926448822021, 0.36560723185539246, 0.8492251634597778, 0.4792390465736389, 0.6000905632972717, 0.5248419642448425, 0.5240278244018555, 0.504655122756958, 0.7699556350708008, 0.5961551070213318, 0.4751521646976471, 0.39857861399650574, 0.2743045687675476, 0.09022559970617294, 0.3500846028327942, 0.17758968472480774, 0.3105204105377197, 0.14296859502792358, 0.14347076416015625, 0.10968983918428421, 0.15826378762722015, 0.08785445988178253, 0.13133160769939423, 0.1468953788280487, 0.26422086358070374, 0.2542235851287842, 0.3141462504863739, 0.15204238891601562, 0.2073727697134018, 0.21671859920024872, 0.2057977020740509, 0.261780709028244, 0.28067776560783386, 0.12895791232585907, 0.11575949937105179, 0.09573443979024887, 0.12268347293138504, 0.5491865873336792, 0.17350558936595917, 0.11490655690431595, 0.11421006172895432, 0.05037136375904083, 0.05529199168086052, 0.07826054841279984, 0.09628791362047195, 0.1498667448759079, 0.14214232563972473, 0.1488802134990692, 0.21626092493534088, 0.23232489824295044, 0.28285616636276245, 0.21632890403270721, 0.17838510870933533, 0.47024497389793396, 0.14989884197711945, 0.1790488213300705, 0.07380706816911697, 0.1242150068283081, 0.08799722790718079, 0.11864697933197021, 0.07800999283790588, 0.1659972220659256, 0.15432418882846832, 0.10675153136253357, 0.2337697595357895, 0.07955325394868851, 0.07667166739702225, 0.055075112730264664, 0.1907646507024765, 0.22267983853816986, 0.10222433507442474, 0.3361329734325409, 0.5074779391288757, 0.13340604305267334, 0.5606088638305664, 0.12658627331256866, 0.48923206329345703, 0.5143141150474548, 0.47338011860847473, 0.35764080286026, 0.5645058751106262, 0.530954897403717, 0.7137278914451599, 0.3324893116950989, 0.32377469539642334, 0.62840336561203, 0.14726881682872772, 0.6535905003547668, 0.8377273678779602, 0.4060607850551605, 0.5349811315536499, 0.3081391751766205, 0.24782787263393402, 0.19522367417812347, 0.2267192304134369, 0.39357802271842957, 0.3308699131011963, 0.4065065383911133, 0.673672616481781, 0.7712420225143433, 0.6092661619186401, 0.3291968107223511, 0.63895583152771, 0.24316884577274323, 0.40375006198883057, 0.26266250014305115, 0.15158313512802124, 0.15379832684993744, 0.22782841324806213, 0.5655207633972168, 0.2928709387779236, 0.3475874662399292, 0.163580060005188, 0.0610298328101635, 0.1494300663471222, 0.08876608312129974, 0.12566980719566345, 0.09502357989549637, 0.17494188249111176, 0.08842852711677551, 0.15478892624378204, 0.10372643917798996, 0.16619032621383667, 0.0926731750369072, 0.09284079819917679]</t>
+          <t>[0.17415350675582886, 0.16333791613578796, 0.5386638045310974, 0.2513448894023895, 0.13538336753845215, 0.18637244403362274, 0.5818227529525757, 0.33666324615478516, 0.1979297548532486, 0.5266298651695251, 0.3230089247226715, 0.2831953465938568, 0.17065255343914032, 0.19944770634174347, 0.07110865414142609, 0.5274767875671387, 0.06163809448480606, 0.03853067010641098, 0.13285672664642334, 0.33901742100715637, 0.4041050374507904, 0.12970690429210663, 0.20289628207683563, 0.6441842317581177, 0.2699218988418579, 0.8268054127693176, 0.49599769711494446, 0.5952602028846741, 0.5379415154457092, 0.4975273907184601, 0.3797893226146698, 0.8219636082649231, 0.6265304684638977, 0.413536936044693, 0.3591694235801697, 0.2543466091156006, 0.04606541991233826, 0.33785250782966614, 0.09995273500680923, 0.2651142179965973, 0.06999162584543228, 0.08641432970762253, 0.05302143096923828, 0.09009037166833878, 0.03782007098197937, 0.051033686846494675, 0.05047333613038063, 0.10935714840888977, 0.10650790482759476, 0.17189806699752808, 0.07692337781190872, 0.11209642887115479, 0.16233544051647186, 0.11909562349319458, 0.14078566431999207, 0.19875013828277588, 0.07898689806461334, 0.05561543256044388, 0.046604666858911514, 0.053716376423835754, 0.5941405892372131, 0.1633826047182083, 0.05333402380347252, 0.04690369591116905, 0.012266715988516808, 0.015722425654530525, 0.02576686628162861, 0.03493368998169899, 0.054154086858034134, 0.049472156912088394, 0.05887852981686592, 0.1048637107014656, 0.09368553012609482, 0.13576222956180573, 0.09409861266613007, 0.08162636309862137, 0.3887897729873657, 0.05164489895105362, 0.10309460014104843, 0.022966794669628143, 0.04853197559714317, 0.033757179975509644, 0.06980817764997482, 0.027442527934908867, 0.08305465430021286, 0.10146661102771759, 0.06157520040869713, 0.17855501174926758, 0.0323832705616951, 0.03204452991485596, 0.02396256849169731, 0.22623516619205475, 0.13532866537570953, 0.05286993086338043, 0.2241661250591278, 0.3941640257835388, 0.05716398358345032, 0.4542228877544403, 0.04857571795582771, 0.31375518441200256, 0.4182002544403076, 0.3357968032360077, 0.1652536243200302, 0.35907164216041565, 0.2990241050720215, 0.5962825417518616, 0.16299761831760406, 0.20551587641239166, 0.43899428844451904, 0.05116172879934311, 0.422442764043808, 0.7981038689613342, 0.37825527787208557, 0.6158855557441711, 0.2405398041009903, 0.20562408864498138, 0.12282589077949524, 0.13789628446102142, 0.3304309546947479, 0.27215996384620667, 0.31591206789016724, 0.6830487251281738, 0.8461342453956604, 0.5360265374183655, 0.36758509278297424, 0.6573069095611572, 0.22839203476905823, 0.3399592936038971, 0.1562740057706833, 0.08534236252307892, 0.11647438257932663, 0.1854189932346344, 0.6494125127792358, 0.22165510058403015, 0.29093626141548157, 0.07249993085861206, 0.021447155624628067, 0.08672904223203659, 0.025830144062638283, 0.044189684092998505, 0.033716898411512375, 0.09857034683227539, 0.02663159929215908, 0.060750678181648254, 0.04063992574810982, 0.05758008360862732, 0.034026287496089935, 0.03412235900759697]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.8492251634597778</v>
+        <v>0.8461342453956604</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.053410699998494</v>
+        <v>0.9296077000035439</v>
       </c>
       <c r="J77" t="n">
-        <v>0.007117639864854691</v>
+        <v>0.006281133108132053</v>
       </c>
     </row>
     <row r="78">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[0.67344731092453, 0.6201232671737671, 0.7814564108848572, 0.9179226756095886, 0.7877720594406128, 0.2758229374885559, 0.24126555025577545, 0.3107547163963318, 0.26225557923316956, 0.3713359534740448, 0.506463885307312, 0.46507084369659424, 0.27006039023399353, 0.42568063735961914, 0.6142234206199646, 0.5839067101478577, 0.770179808139801, 0.6739983558654785, 0.5624474883079529, 0.4043624699115753, 0.34084537625312805, 0.44976556301116943, 0.36713507771492004, 0.39212435483932495, 0.5280827283859253, 0.6548503637313843, 0.6595568656921387, 0.736456573009491, 0.6185939908027649, 0.6137901544570923, 0.5753535628318787, 0.7049140334129333, 0.6912881135940552, 0.7791767716407776, 0.7922292947769165, 0.7932645082473755, 0.8680716753005981, 0.8771672248840332, 0.8812184929847717, 0.9322826266288757, 0.8927923440933228, 0.8614373207092285, 0.8728395104408264, 0.7643137574195862, 0.6401383876800537, 0.7505654692649841, 0.6978698968887329, 0.6509971022605896, 0.7505662441253662, 0.7240476608276367, 0.6931612491607666, 0.8626616597175598, 0.7983688116073608, 0.8473172783851624, 0.8555198907852173, 0.851319432258606, 0.8556491732597351, 0.8665480613708496, 0.8558838367462158, 0.8964543342590332, 0.9220594167709351, 0.8205306529998779, 0.6535508632659912, 0.7397441267967224, 0.6947735548019409, 0.7363483309745789, 0.7423651814460754, 0.8044766783714294, 0.8618902564048767, 0.8378151059150696, 0.7679589986801147, 0.5878335237503052, 0.7083665728569031, 0.7520188689231873, 0.6344628930091858, 0.7598233222961426, 0.6718863844871521, 0.6564143896102905, 0.6344712376594543, 0.3082471191883087, 0.3604760468006134, 0.47194182872772217, 0.4568696916103363, 0.4649391770362854, 0.44362518191337585, 0.32645899057388306, 0.39139652252197266, 0.4863572120666504, 0.33409711718559265, 0.2838378846645355, 0.3179866373538971, 0.48542192578315735, 0.4833982288837433, 0.6200892925262451, 0.5125977396965027, 0.5355384349822998, 0.47136497497558594, 0.6066522598266602, 0.4617063105106354, 0.4030611515045166, 0.44095033407211304, 0.5204759836196899, 0.3644571602344513, 0.3703933358192444, 0.45540615916252136, 0.6499766707420349, 0.6012071371078491, 0.6366416215896606, 0.6450091004371643, 0.590269923210144, 0.6902400851249695, 0.6635763049125671, 0.7197398543357849, 0.7836305499076843, 0.6349048614501953, 0.5359349250793457, 0.5775554180145264, 0.5130392909049988, 0.748088538646698, 0.6128555536270142, 0.5648190379142761, 0.560394287109375, 0.6428032517433167, 0.7558569312095642, 0.8227128982543945, 0.7332678437232971, 0.6342065334320068, 0.5242422819137573, 0.5778928399085999, 0.4975132346153259, 0.3142983317375183, 0.4127430021762848, 0.44621989130973816, 0.44538047909736633, 0.5265821218490601, 0.5265439748764038, 0.359677255153656, 0.5007290840148926, 0.6577677726745605, 0.9334225654602051, 0.9774737358093262, 0.9647611379623413, 0.749092161655426, 0.6934745907783508, 0.7976953387260437, 0.7731152176856995, 0.5933736562728882, 0.8284441232681274, 0.777572512626648, 0.8042296767234802, 0.7647414207458496, 0.7125786542892456, 0.8592488169670105, 0.8516220450401306, 0.8950749039649963, 0.8839390277862549, 0.8231077790260315, 0.8245139122009277]</t>
+          <t>[0.7256873250007629, 0.6634950637817383, 0.8476470708847046, 0.9602593779563904, 0.8938258290290833, 0.2522304952144623, 0.22326207160949707, 0.25995537638664246, 0.2410353124141693, 0.34856683015823364, 0.48650285601615906, 0.3869466781616211, 0.2133842259645462, 0.4183383882045746, 0.6081891059875488, 0.5538212656974792, 0.7925558686256409, 0.6373975276947021, 0.5005600452423096, 0.3486666977405548, 0.24778471887111664, 0.3671467900276184, 0.2695605754852295, 0.23363642394542694, 0.3282444477081299, 0.601195216178894, 0.5839104652404785, 0.6917086243629456, 0.4609607458114624, 0.470575213432312, 0.3778075575828552, 0.5872213840484619, 0.607746422290802, 0.717034637928009, 0.7621185779571533, 0.8598628640174866, 0.8783847093582153, 0.8793193101882935, 0.9096031785011292, 0.9461755752563477, 0.8697028756141663, 0.8100156784057617, 0.8313347101211548, 0.6881709098815918, 0.49112406373023987, 0.6388145089149475, 0.5335190296173096, 0.5236682891845703, 0.6148508787155151, 0.5426211953163147, 0.5440173149108887, 0.8058950304985046, 0.7158064246177673, 0.8051427602767944, 0.8194981217384338, 0.7863107919692993, 0.7739897966384888, 0.7953521609306335, 0.7191666960716248, 0.8124828338623047, 0.8666355013847351, 0.728707492351532, 0.5424867868423462, 0.68316650390625, 0.5382362604141235, 0.5438799858093262, 0.5734809041023254, 0.6683884859085083, 0.7560847997665405, 0.7449319958686829, 0.6248865723609924, 0.38856980204582214, 0.6086279153823853, 0.7365481853485107, 0.5299662351608276, 0.6950289011001587, 0.5765849947929382, 0.5030865669250488, 0.5459616780281067, 0.2333155870437622, 0.2717266380786896, 0.43840816617012024, 0.28238749504089355, 0.3498586416244507, 0.30142056941986084, 0.1580429971218109, 0.19685715436935425, 0.2850358486175537, 0.14400722086429596, 0.15744397044181824, 0.16845816373825073, 0.33528319001197815, 0.38010460138320923, 0.5539690852165222, 0.44846442341804504, 0.4955601096153259, 0.4400462806224823, 0.6309542655944824, 0.3669491410255432, 0.2804526090621948, 0.4137527048587799, 0.452879399061203, 0.24910074472427368, 0.2139635533094406, 0.32064059376716614, 0.5207616090774536, 0.4176963269710541, 0.3835509717464447, 0.4626346528530121, 0.38559746742248535, 0.49840256571769714, 0.5771464109420776, 0.7069954872131348, 0.8047505617141724, 0.6307905316352844, 0.44045376777648926, 0.4944270849227905, 0.4380047023296356, 0.7183511853218079, 0.5222919583320618, 0.4969683885574341, 0.5018540024757385, 0.5985853672027588, 0.7136592864990234, 0.7604114413261414, 0.5417657494544983, 0.43060776591300964, 0.29639047384262085, 0.3685028553009033, 0.3503846824169159, 0.2738877236843109, 0.33289480209350586, 0.3290337026119232, 0.2902176082134247, 0.40419790148735046, 0.33328622579574585, 0.1949417144060135, 0.4454267919063568, 0.6610599160194397, 0.9546935558319092, 0.9862611889839172, 0.9823163151741028, 0.722963273525238, 0.726233959197998, 0.8291939496994019, 0.7617168426513672, 0.5750803351402283, 0.8206387758255005, 0.750469446182251, 0.7691351175308228, 0.7062370181083679, 0.6817554235458374, 0.8515638113021851, 0.8621435165405273, 0.9191761016845703, 0.874352216720581, 0.7727561593055725, 0.7741156816482544]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.9774737358093262</v>
+        <v>0.9862611889839172</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.8587966999912169</v>
+        <v>0.9049166999902809</v>
       </c>
       <c r="J78" t="n">
-        <v>0.005435422151843144</v>
+        <v>0.005727320886014436</v>
       </c>
     </row>
     <row r="79">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[0.5203164219856262, 0.6563968062400818, 0.37644970417022705, 0.34327512979507446, 0.30062317848205566, 0.26885098218917847, 0.25978460907936096, 0.4836195111274719, 0.3079151213169098, 0.44106337428092957, 0.3609532117843628, 0.2610177993774414, 0.2843937575817108, 0.3119302988052368, 0.3221808671951294, 0.29828527569770813, 0.3336540460586548, 0.44886544346809387, 0.29510000348091125, 0.33171242475509644, 0.3964604437351227, 0.471817284822464, 0.519264817237854, 0.4169866442680359, 0.35865259170532227, 0.2435447871685028, 0.2999783456325531, 0.4845443069934845, 0.5610226392745972, 0.28631484508514404, 0.3871520459651947, 0.5391219258308411, 0.44394123554229736, 0.503531277179718, 0.42175760865211487, 0.3493281900882721, 0.410921573638916, 0.36456894874572754, 0.3053366541862488, 0.29005634784698486, 0.35677674412727356, 0.43324151635169983, 0.4592282772064209, 0.404472678899765, 0.4055100977420807, 0.28193140029907227, 0.28702661395072937, 0.22098401188850403, 0.2576695680618286, 0.2545597553253174, 0.20235250890254974, 0.28660258650779724, 0.30741217732429504, 0.27619123458862305, 0.24123220145702362, 0.29075857996940613, 0.2719898223876953, 0.3229730725288391, 0.291370689868927, 0.45929625630378723, 0.2914365828037262, 0.19110247492790222, 0.2883118987083435, 0.30755162239074707, 0.2858877182006836, 0.3012503683567047, 0.15896254777908325, 0.14301253855228424, 0.1074635311961174, 0.13205213844776154, 0.24607597291469574, 0.2929379940032959, 0.5049477815628052, 0.3067396283149719, 0.20477458834648132, 0.1203707754611969, 0.15692070126533508, 0.20676159858703613, 0.26536938548088074, 0.23493511974811554, 0.3339782953262329, 0.2233741581439972, 0.26783525943756104, 0.20213277637958527, 0.18967682123184204, 0.24118246138095856, 0.16366873681545258, 0.1737358570098877, 0.16206704080104828, 0.48461097478866577, 0.3198201060295105, 0.22485311329364777, 0.31674066185951233, 0.3796360492706299, 0.19596518576145172, 0.23107708990573883, 0.2505754828453064, 0.2610589861869812, 0.2767747938632965, 0.3307591676712036, 0.4438629150390625, 0.2974739074707031, 0.2728896141052246, 0.48927995562553406, 0.5177498459815979, 0.5455722212791443, 0.5739041566848755, 0.2527347803115845, 0.28029316663742065, 0.19872519373893738, 0.34571361541748047, 0.3193855285644531, 0.17996656894683838, 0.22092045843601227, 0.22606268525123596, 0.21959218382835388, 0.2548772394657135, 0.2278846800327301, 0.3138352632522583, 0.168865367770195, 0.1827290654182434, 0.249358132481575, 0.25170662999153137, 0.31800803542137146, 0.27742913365364075, 0.31414997577667236, 0.43962934613227844, 0.5020630359649658, 0.3120820224285126, 0.23051351308822632, 0.2618790864944458, 0.46660909056663513, 0.35401374101638794, 0.215997576713562, 0.2944861948490143, 0.28031492233276367, 0.2908143103122711, 0.2530980110168457, 0.23657575249671936, 0.32647475600242615, 0.240113765001297, 0.33009853959083557, 0.3678243160247803, 0.32446110248565674, 0.4945269525051117, 0.5696794390678406, 0.48048004508018494, 0.5105944871902466, 0.34867948293685913, 0.25672516226768494, 0.226334348320961, 0.3319845199584961, 0.30578887462615967, 0.4456431567668915, 0.30896517634391785, 0.3776077330112457, 0.21434496343135834, 0.21467368304729462]</t>
+          <t>[0.5878421068191528, 0.7272214889526367, 0.37177205085754395, 0.40019655227661133, 0.32579028606414795, 0.2900042235851288, 0.2461852878332138, 0.4020549952983856, 0.2266029268503189, 0.267621248960495, 0.23226207494735718, 0.18423934280872345, 0.16057118773460388, 0.2027624398469925, 0.2594241499900818, 0.23502986133098602, 0.23777136206626892, 0.42445722222328186, 0.2652354836463928, 0.2574724555015564, 0.33064883947372437, 0.40298840403556824, 0.48065000772476196, 0.38040775060653687, 0.2958802282810211, 0.15856288373470306, 0.22619794309139252, 0.3986387848854065, 0.45684880018234253, 0.22520004212856293, 0.33040928840637207, 0.42938756942749023, 0.3809877634048462, 0.49843907356262207, 0.3182900547981262, 0.2088327407836914, 0.3153075873851776, 0.26484858989715576, 0.20745542645454407, 0.17487622797489166, 0.2445683479309082, 0.33155590295791626, 0.364473432302475, 0.2613389194011688, 0.29873111844062805, 0.1626719981431961, 0.21468937397003174, 0.1437644064426422, 0.14646251499652863, 0.19819505512714386, 0.11637978255748749, 0.15289530158042908, 0.1668623983860016, 0.16468197107315063, 0.14018027484416962, 0.19235792756080627, 0.20385530591011047, 0.2875153422355652, 0.22999726235866547, 0.3185645639896393, 0.1842484325170517, 0.12294993549585342, 0.21023236215114594, 0.21259376406669617, 0.1933910995721817, 0.24875949323177338, 0.09980383515357971, 0.0949314534664154, 0.04858289659023285, 0.06394755095243454, 0.11764150857925415, 0.19135355949401855, 0.37747427821159363, 0.1598934829235077, 0.09216002374887466, 0.046390458941459656, 0.05765233933925629, 0.09102027118206024, 0.10830485820770264, 0.09415331482887268, 0.2275477945804596, 0.13127341866493225, 0.1363588124513626, 0.09664803743362427, 0.1057339534163475, 0.1267312616109848, 0.10664255917072296, 0.10082519799470901, 0.12160736322402954, 0.3918534815311432, 0.2262132465839386, 0.1359850913286209, 0.22204753756523132, 0.30071282386779785, 0.09133902937173843, 0.12834377586841583, 0.15716171264648438, 0.1792593002319336, 0.18963490426540375, 0.2780376672744751, 0.4067279100418091, 0.2349986582994461, 0.19167301058769226, 0.4967682361602783, 0.5300489068031311, 0.4274146854877472, 0.5360872149467468, 0.1662876307964325, 0.21207836270332336, 0.1372259557247162, 0.2588880956172943, 0.25329434871673584, 0.10294780135154724, 0.16321605443954468, 0.15656684339046478, 0.1418568640947342, 0.16491742432117462, 0.16372613608837128, 0.2283170074224472, 0.1096784919500351, 0.12122824788093567, 0.15173989534378052, 0.12641088664531708, 0.22575607895851135, 0.16249990463256836, 0.2196391373872757, 0.4145079553127289, 0.4423229992389679, 0.2549043595790863, 0.17241798341274261, 0.23177430033683777, 0.43597134947776794, 0.24574030935764313, 0.1252896785736084, 0.1736779808998108, 0.16005781292915344, 0.17852501571178436, 0.13787168264389038, 0.13368304073810577, 0.22622109949588776, 0.14785481989383698, 0.19381949305534363, 0.24829430878162384, 0.22134952247142792, 0.5425989031791687, 0.5372158885002136, 0.4343031644821167, 0.3943922519683838, 0.1776389330625534, 0.09864229708909988, 0.11582718789577484, 0.18655185401439667, 0.17810378968715668, 0.29091328382492065, 0.18390657007694244, 0.22361363470554352, 0.1135413870215416, 0.11337557435035706]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.6563968062400818</v>
+        <v>0.7272214889526367</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.933790199982468</v>
+        <v>0.8693155000073602</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005910064556851063</v>
+        <v>0.005501996835489621</v>
       </c>
     </row>
     <row r="80">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[0.9038719534873962, 0.9381084442138672, 0.9006325006484985, 0.801178514957428, 0.9091569185256958, 0.9221359491348267, 0.9592625498771667, 0.9902390241622925, 0.9903851747512817, 0.9920996427536011, 0.9831673502922058, 0.9868040680885315, 0.9896995425224304, 0.9743887186050415, 0.9632107019424438, 0.9860467314720154, 0.9850819110870361, 0.9822773337364197, 0.9826348423957825, 0.9889651536941528, 0.9887091517448425, 0.9810330867767334, 0.9884926080703735, 0.9820911288261414, 0.9759707450866699, 0.9827283024787903, 0.9752644896507263, 0.9921654462814331, 0.9924581050872803, 0.9933248162269592, 0.985322117805481, 0.9695213437080383, 0.961492657661438, 0.9555410742759705, 0.9733663201332092, 0.9863460659980774, 0.9827637672424316, 0.9772862792015076, 0.9902222156524658, 0.9846861362457275, 0.9789391756057739, 0.9804385900497437, 0.9532731175422668, 0.973381519317627, 0.9711071252822876, 0.9212771654129028, 0.9641638398170471, 0.9367022514343262, 0.9633411169052124, 0.9901387691497803, 0.9933412671089172, 0.9944899082183838, 0.9942653775215149, 0.9966610670089722, 0.9937101602554321, 0.9845309257507324, 0.9882766604423523, 0.9799640774726868, 0.9853546619415283, 0.9910321831703186, 0.9933096170425415, 0.9909301400184631, 0.98918217420578, 0.9910310506820679, 0.984772264957428, 0.9885504841804504, 0.9858934879302979, 0.9892610311508179, 0.9936220049858093, 0.9907874464988708, 0.9779892563819885, 0.9793954491615295, 0.9916110634803772, 0.9957534074783325, 0.9958992600440979, 0.9938315153121948, 0.9957275390625, 0.9941154718399048, 0.9954866766929626, 0.9958041310310364, 0.9924231171607971, 0.9921646118164062, 0.9945953488349915, 0.9952656030654907, 0.9961608648300171, 0.9974091649055481, 0.9954792261123657, 0.9946409463882446, 0.9930179119110107, 0.9898786544799805, 0.9903684854507446, 0.9849225282669067, 0.9701458811759949, 0.9910101890563965, 0.9944169521331787, 0.996301531791687, 0.9946123361587524, 0.9940820336341858, 0.9930868744850159, 0.9934118390083313, 0.9915505647659302, 0.9907050728797913, 0.989380955696106, 0.9941427111625671, 0.9940723776817322, 0.9895899891853333, 0.9576634764671326, 0.980150580406189, 0.9856325387954712, 0.9900293946266174, 0.9890902638435364, 0.9551912546157837, 0.9816222190856934, 0.9866008162498474, 0.9937947988510132, 0.9917186498641968, 0.9925054907798767, 0.9958763122558594, 0.9933574795722961, 0.9892386198043823, 0.9846908450126648, 0.9899263381958008, 0.9901567697525024, 0.9876676201820374, 0.9918782711029053, 0.9923394918441772, 0.9866529107093811, 0.9910763502120972, 0.9889562726020813, 0.9945987462997437, 0.9955173134803772, 0.9959557056427002, 0.9966313242912292, 0.9963135123252869, 0.9701057076454163, 0.9719323515892029, 0.9779654145240784, 0.9784720540046692, 0.9878125786781311, 0.9940409064292908, 0.9951490759849548, 0.9942820072174072, 0.9926296472549438, 0.9939823746681213, 0.9959285855293274, 0.9967664480209351, 0.9951521158218384, 0.9945195317268372, 0.9946146607398987, 0.9930382370948792, 0.9933098554611206, 0.9962729215621948, 0.9965498447418213, 0.9960624575614929, 0.994631290435791, 0.9752333164215088, 0.9707032442092896, 0.9705412983894348]</t>
+          <t>[0.8771548271179199, 0.9348055124282837, 0.8443505167961121, 0.8321382999420166, 0.9441057443618774, 0.9230977296829224, 0.9734542965888977, 0.9962994456291199, 0.9957576394081116, 0.9954639077186584, 0.9928170442581177, 0.9970943927764893, 0.9972285628318787, 0.9929764866828918, 0.9875462651252747, 0.9967904686927795, 0.9961650371551514, 0.9948528409004211, 0.9951914548873901, 0.995685338973999, 0.9970524311065674, 0.993179202079773, 0.9964685440063477, 0.9946998357772827, 0.992377758026123, 0.9948713779449463, 0.991958737373352, 0.9981966614723206, 0.9980806112289429, 0.9982267022132874, 0.9956035614013672, 0.9889274835586548, 0.9845895171165466, 0.9776654243469238, 0.9888007640838623, 0.9927628636360168, 0.9911467432975769, 0.9899709820747375, 0.9971297383308411, 0.994290828704834, 0.9922260046005249, 0.9914906620979309, 0.9745602011680603, 0.989737331867218, 0.9867572784423828, 0.9575387239456177, 0.9788939356803894, 0.951902449131012, 0.9839460253715515, 0.9955920577049255, 0.9971569776535034, 0.9983389377593994, 0.9974122643470764, 0.9988227486610413, 0.9982196688652039, 0.9956544637680054, 0.9962472319602966, 0.9943121671676636, 0.9948662519454956, 0.9963870048522949, 0.9971086382865906, 0.9946936964988708, 0.99445641040802, 0.9963471293449402, 0.992207944393158, 0.9955647587776184, 0.9936017394065857, 0.9944809675216675, 0.9968699812889099, 0.9951304197311401, 0.9884403944015503, 0.9876046180725098, 0.9958400726318359, 0.9978078007698059, 0.9980621933937073, 0.9967145919799805, 0.9980304837226868, 0.9970581531524658, 0.99751877784729, 0.9982265830039978, 0.997697651386261, 0.9978005290031433, 0.9985711574554443, 0.998320996761322, 0.9987127780914307, 0.9989668130874634, 0.9979705214500427, 0.997860848903656, 0.9977046847343445, 0.9968750476837158, 0.9963183403015137, 0.9949716329574585, 0.9885436296463013, 0.9962489008903503, 0.9967760443687439, 0.9984614849090576, 0.9980315566062927, 0.9969883561134338, 0.9956782460212708, 0.9968762397766113, 0.9963228702545166, 0.9963489770889282, 0.9955562949180603, 0.9976727366447449, 0.9977153539657593, 0.9967940449714661, 0.9875460267066956, 0.9920010566711426, 0.992739737033844, 0.9947167038917542, 0.9937953948974609, 0.9709436893463135, 0.9897871017456055, 0.9933739900588989, 0.9976785778999329, 0.997495710849762, 0.9970267415046692, 0.9982471466064453, 0.9976001381874084, 0.9955205917358398, 0.9945265650749207, 0.9968468546867371, 0.9965716600418091, 0.9965072274208069, 0.9976390600204468, 0.9979373216629028, 0.9960094690322876, 0.9960642457008362, 0.9962963461875916, 0.9979242086410522, 0.9985862970352173, 0.9986489415168762, 0.9984754920005798, 0.9981343150138855, 0.9816599488258362, 0.9796984195709229, 0.986143946647644, 0.9818575382232666, 0.995090126991272, 0.9974414110183716, 0.9981123208999634, 0.9975618124008179, 0.9956918358802795, 0.9970914125442505, 0.9977093935012817, 0.9980431795120239, 0.9970307350158691, 0.9971083998680115, 0.9974586367607117, 0.9964761137962341, 0.9970970153808594, 0.9981318116188049, 0.9986249208450317, 0.9983158111572266, 0.9978291392326355, 0.9849453568458557, 0.9762700200080872, 0.9760370254516602]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9974091649055481</v>
+        <v>0.9989668130874634</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.878476399986539</v>
+        <v>0.8980810999928508</v>
       </c>
       <c r="J80" t="n">
-        <v>0.005559977215104678</v>
+        <v>0.005684057594891461</v>
       </c>
     </row>
     <row r="81">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[0.8850014209747314, 0.8290273547172546, 0.9088133573532104, 0.9103367328643799, 0.9213011264801025, 0.9522415399551392, 0.9494320154190063, 0.9057983160018921, 0.9079014658927917, 0.9211419820785522, 0.9635407328605652, 0.9343336224555969, 0.9065230488777161, 0.9030932188034058, 0.893408477306366, 0.9050843715667725, 0.8989622592926025, 0.9103235602378845, 0.8877295851707458, 0.7185846567153931, 0.7804825901985168, 0.5162134170532227, 0.6467069983482361, 0.8780646324157715, 0.8928946852684021, 0.870736837387085, 0.8285219073295593, 0.8138762712478638, 0.8825541138648987, 0.8546580672264099, 0.967923641204834, 0.9002864360809326, 0.8254085183143616, 0.9357024431228638, 0.9587857127189636, 0.9741029143333435, 0.9380198121070862, 0.9883167147636414, 0.9829474091529846, 0.9528508186340332, 0.9714410305023193, 0.9634352922439575, 0.9669692516326904, 0.9753971695899963, 0.9865407347679138, 0.9641010761260986, 0.9470924139022827, 0.981683611869812, 0.9845512509346008, 0.9915550351142883, 0.9673632979393005, 0.9720401167869568, 0.9650900363922119, 0.978607177734375, 0.98372882604599, 0.9759875535964966, 0.9595023989677429, 0.8482346534729004, 0.7300108671188354, 0.8677220344543457, 0.8329601287841797, 0.8402314782142639, 0.7977159023284912, 0.8991732001304626, 0.936529815196991, 0.9723198413848877, 0.9778539538383484, 0.9776856303215027, 0.9690515995025635, 0.9648141860961914, 0.9417475461959839, 0.9533684253692627, 0.952967643737793, 0.9321028590202332, 0.8940680623054504, 0.948726236820221, 0.9418721199035645, 0.9458250999450684, 0.9406738877296448, 0.9486827850341797, 0.9555222392082214, 0.9025683403015137, 0.8739038109779358, 0.9069489240646362, 0.9232914447784424, 0.8900705575942993, 0.9002236723899841, 0.9340449571609497, 0.9358496069908142, 0.9178025722503662, 0.9758108854293823, 0.9816840291023254, 0.9908521771430969, 0.9935725927352905, 0.9949862957000732, 0.9834367036819458, 0.9658799171447754, 0.9784683585166931, 0.9022663831710815, 0.7761145830154419, 0.6479279398918152, 0.816353440284729, 0.5249309539794922, 0.42820239067077637, 0.5542008280754089, 0.8537202477455139, 0.7870738506317139, 0.7296076416969299, 0.9775060415267944, 0.961446225643158, 0.9678826332092285, 0.9869786500930786, 0.990712583065033, 0.9701668620109558, 0.9879409074783325, 0.9945173859596252, 0.9952502250671387, 0.9945112466812134, 0.9963799118995667, 0.9959220886230469, 0.9914973378181458, 0.9903770089149475, 0.9908921718597412, 0.993040919303894, 0.9925563931465149, 0.9937254786491394, 0.9899930357933044, 0.9961326122283936, 0.995854377746582, 0.9970703125, 0.9948331117630005, 0.9954755902290344, 0.9849085807800293, 0.9889569878578186, 0.9786568284034729, 0.9683215022087097, 0.964291512966156, 0.9854859113693237, 0.9892836809158325, 0.9555471539497375, 0.9668856263160706, 0.9776262640953064, 0.9259157776832581, 0.9805616736412048, 0.9846514463424683, 0.9931274652481079, 0.9905149936676025, 0.9797621369361877, 0.9869488477706909, 0.9876583218574524, 0.9932522177696228, 0.9948240518569946, 0.9934507608413696, 0.9921229481697083, 0.9911126494407654, 0.9906449317932129, 0.9934337139129639, 0.9934197068214417]</t>
+          <t>[0.9252040982246399, 0.8776717185974121, 0.9215608239173889, 0.9154651761054993, 0.9113978743553162, 0.9507423639297485, 0.9574073553085327, 0.9077601432800293, 0.9038112163543701, 0.9219521880149841, 0.9653047323226929, 0.951792299747467, 0.9020835161209106, 0.8801934719085693, 0.9040039777755737, 0.9404199719429016, 0.9387229681015015, 0.9334349632263184, 0.9179376363754272, 0.6973264813423157, 0.7217563390731812, 0.44506022334098816, 0.6180930733680725, 0.9210777878761292, 0.9275808334350586, 0.8958143591880798, 0.8306269645690918, 0.8327423334121704, 0.9393319487571716, 0.9136736989021301, 0.9864447712898254, 0.9363946318626404, 0.8088312149047852, 0.9104433059692383, 0.9428372979164124, 0.9817308187484741, 0.9521934390068054, 0.9895626902580261, 0.9851899743080139, 0.9635553956031799, 0.9768964648246765, 0.9775589108467102, 0.9821793437004089, 0.985844612121582, 0.9915245175361633, 0.9812565445899963, 0.9690471291542053, 0.9893360137939453, 0.9902183413505554, 0.9940425753593445, 0.9706935286521912, 0.9687748551368713, 0.9673242568969727, 0.9867826700210571, 0.9916064739227295, 0.9862546920776367, 0.9864756464958191, 0.8608006238937378, 0.6637901067733765, 0.8527843952178955, 0.7999168634414673, 0.8374786376953125, 0.793738842010498, 0.9294363260269165, 0.9579002261161804, 0.983389675617218, 0.9883286952972412, 0.9886801242828369, 0.9803721308708191, 0.9751436710357666, 0.9521146416664124, 0.9636002779006958, 0.9627932906150818, 0.9474890828132629, 0.8955737948417664, 0.9584935307502747, 0.9461249709129333, 0.9617711305618286, 0.9454782009124756, 0.9721859693527222, 0.973483681678772, 0.9365020990371704, 0.8988531231880188, 0.9406456351280212, 0.9388087391853333, 0.9001863598823547, 0.9051806926727295, 0.9312812685966492, 0.9587011337280273, 0.9494243264198303, 0.9885542988777161, 0.9866900444030762, 0.9944266080856323, 0.9955220222473145, 0.9970109462738037, 0.9904738068580627, 0.9756263494491577, 0.985872745513916, 0.8499166965484619, 0.5862789750099182, 0.45679572224617004, 0.7732489109039307, 0.29237592220306396, 0.2201061248779297, 0.3068602681159973, 0.7060678601264954, 0.7011427879333496, 0.5398087501525879, 0.9710589051246643, 0.9610423445701599, 0.9658905863761902, 0.9876523017883301, 0.9921787977218628, 0.9628627896308899, 0.9905517101287842, 0.996557354927063, 0.9973708391189575, 0.9962827563285828, 0.9972526431083679, 0.996531069278717, 0.991129994392395, 0.9892269372940063, 0.9894917011260986, 0.992895781993866, 0.9931188821792603, 0.9950359463691711, 0.9918568134307861, 0.9971363544464111, 0.9972596168518066, 0.998091995716095, 0.9966905117034912, 0.9969373941421509, 0.9876112341880798, 0.9907665252685547, 0.9674398303031921, 0.9532230496406555, 0.9577972888946533, 0.9847018122673035, 0.9935240745544434, 0.9818453788757324, 0.9861022233963013, 0.9868380427360535, 0.9218217134475708, 0.9864740967750549, 0.9869821667671204, 0.9951790571212769, 0.9932155609130859, 0.990532636642456, 0.9930163621902466, 0.9935519695281982, 0.9945263266563416, 0.9964151382446289, 0.9954113364219666, 0.9941614270210266, 0.9921398758888245, 0.9926967024803162, 0.9948023557662964, 0.9947850108146667]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.9970703125</v>
+        <v>0.998091995716095</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.8670725999982096</v>
+        <v>0.8738021000026492</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005487801265811453</v>
+        <v>0.005530393037991451</v>
       </c>
     </row>
     <row r="82">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[0.941650927066803, 0.8598245978355408, 0.9150241017341614, 0.9529940485954285, 0.9675509929656982, 0.9523706436157227, 0.961948037147522, 0.9710708260536194, 0.981213390827179, 0.9307847023010254, 0.9436119198799133, 0.9794816374778748, 0.9810263514518738, 0.9574588537216187, 0.9440154433250427, 0.9560214281082153, 0.9468698501586914, 0.8941940665245056, 0.9281152486801147, 0.9351450204849243, 0.8734045624732971, 0.8104907274246216, 0.8048934936523438, 0.6916059851646423, 0.6877066493034363, 0.6253689527511597, 0.865477442741394, 0.7899746298789978, 0.8695358633995056, 0.9055176973342896, 0.9466105699539185, 0.9302599430084229, 0.8751211762428284, 0.8981768488883972, 0.9091348052024841, 0.8858292102813721, 0.9073018431663513, 0.8447950482368469, 0.6503415703773499, 0.5479505062103271, 0.7367337942123413, 0.8109390139579773, 0.889114260673523, 0.8068104982376099, 0.7121672630310059, 0.709033191204071, 0.8154169917106628, 0.7721721529960632, 0.783316433429718, 0.8860200047492981, 0.8934891819953918, 0.9243717789649963, 0.9453194737434387, 0.9546128511428833, 0.958833634853363, 0.9758033752441406, 0.9421049356460571, 0.9513952732086182, 0.9551022052764893, 0.9492122530937195, 0.918820321559906, 0.8749114274978638, 0.9494341611862183, 0.9323468208312988, 0.8408396244049072, 0.7092868685722351, 0.8575485944747925, 0.8522891998291016, 0.8524039387702942, 0.8809470534324646, 0.6992394328117371, 0.7031619548797607, 0.7579854130744934, 0.8602620363235474, 0.904809832572937, 0.8816573023796082, 0.7017549872398376, 0.7870545387268066, 0.7441636919975281, 0.7021889090538025, 0.6618031859397888, 0.8043782114982605, 0.8595976233482361, 0.859580934047699, 0.832643449306488, 0.7279317378997803, 0.7388113737106323, 0.6309686303138733, 0.8717399835586548, 0.986242413520813, 0.9788506627082825, 0.9788221716880798, 0.9928632378578186, 0.986874520778656, 0.8814118504524231, 0.9031497240066528, 0.9093712568283081, 0.9259260892868042, 0.8670167326927185, 0.9160531163215637, 0.9466934204101562, 0.8847890496253967, 0.8453006148338318, 0.8724835515022278, 0.9088752865791321, 0.8495621681213379, 0.8942654728889465, 0.9428780674934387, 0.9736619591712952, 0.9813463091850281, 0.990760862827301, 0.9868494272232056, 0.976212739944458, 0.9933874607086182, 0.9831332564353943, 0.9819757342338562, 0.9875340461730957, 0.9801856279373169, 0.9518780708312988, 0.9616643786430359, 0.9204097390174866, 0.9861206412315369, 0.9834625720977783, 0.9967155456542969, 0.9939711689949036, 0.959550142288208, 0.948261022567749, 0.8391702175140381, 0.8092101812362671, 0.7744473218917847, 0.8465254306793213, 0.7937658429145813, 0.9284039735794067, 0.9235618710517883, 0.7172677516937256, 0.9324116110801697, 0.9348548650741577, 0.9289184212684631, 0.9614594578742981, 0.9629623889923096, 0.9357995390892029, 0.9709649682044983, 0.977952778339386, 0.9065630435943604, 0.9617387056350708, 0.9447506070137024, 0.8085137009620667, 0.8949669003486633, 0.9176990389823914, 0.9406174421310425, 0.7949451208114624, 0.7903227806091309, 0.8895582556724548, 0.84324049949646, 0.9584977030754089, 0.9196658730506897, 0.782607913017273, 0.7817908525466919]</t>
+          <t>[0.9593684077262878, 0.8565707206726074, 0.9441819190979004, 0.9679982662200928, 0.9833938479423523, 0.9710730910301208, 0.9755415916442871, 0.9848499298095703, 0.9908146262168884, 0.9585749506950378, 0.9661965370178223, 0.9910876154899597, 0.9914858937263489, 0.9862079620361328, 0.97542405128479, 0.9799015522003174, 0.9710647463798523, 0.9396982192993164, 0.9550878405570984, 0.9626189470291138, 0.8929200768470764, 0.8508681058883667, 0.8641022443771362, 0.7143017649650574, 0.7544645667076111, 0.7046142220497131, 0.9283068776130676, 0.847732424736023, 0.9242432117462158, 0.9285464286804199, 0.9681326746940613, 0.9513732194900513, 0.8937699198722839, 0.9358344078063965, 0.9473312497138977, 0.9222201108932495, 0.9150540828704834, 0.8468562960624695, 0.6204193830490112, 0.49106842279434204, 0.7091657519340515, 0.8342784643173218, 0.9263584017753601, 0.8495237827301025, 0.6868813633918762, 0.7128159999847412, 0.8676161766052246, 0.8544108867645264, 0.8629724383354187, 0.9442181587219238, 0.9503239393234253, 0.9637148976325989, 0.9693873524665833, 0.982245922088623, 0.9812726974487305, 0.9877910614013672, 0.9795173406600952, 0.98099684715271, 0.973484456539154, 0.9749793410301208, 0.9312338829040527, 0.902020275592804, 0.9724668264389038, 0.951641321182251, 0.8627750873565674, 0.6879868507385254, 0.884783148765564, 0.8977331519126892, 0.9336380362510681, 0.9308634400367737, 0.7723910212516785, 0.7546103000640869, 0.8443190455436707, 0.9164586067199707, 0.937865674495697, 0.932359516620636, 0.7802649140357971, 0.8368596434593201, 0.7906015515327454, 0.6985657811164856, 0.6144973635673523, 0.8258206844329834, 0.9063827991485596, 0.8961307406425476, 0.8768396973609924, 0.7787366509437561, 0.8273468613624573, 0.7559977173805237, 0.9378552436828613, 0.9950802326202393, 0.9888871312141418, 0.9830467104911804, 0.9964044094085693, 0.9921308159828186, 0.8837058544158936, 0.9118046164512634, 0.9192191362380981, 0.9389020204544067, 0.878210723400116, 0.9215274453163147, 0.9663681387901306, 0.917540967464447, 0.8834680914878845, 0.9418835639953613, 0.9471178650856018, 0.8841691613197327, 0.9257194995880127, 0.9512647390365601, 0.9790575504302979, 0.9911147356033325, 0.9946223497390747, 0.9929659366607666, 0.9842484593391418, 0.9964703321456909, 0.9870129227638245, 0.988848090171814, 0.9916372895240784, 0.9827138781547546, 0.9523000121116638, 0.9585587382316589, 0.8873171210289001, 0.9856432676315308, 0.9875233769416809, 0.9985878467559814, 0.9966259002685547, 0.9778274893760681, 0.9736098647117615, 0.9015692472457886, 0.8834217190742493, 0.8532590270042419, 0.8830300569534302, 0.8177142143249512, 0.9541117548942566, 0.951228678226471, 0.7183172106742859, 0.9419386386871338, 0.9500163197517395, 0.9521821737289429, 0.9763094782829285, 0.9806331992149353, 0.9826161861419678, 0.9899627566337585, 0.9932577610015869, 0.9357835650444031, 0.9815277457237244, 0.9708948135375977, 0.9214802384376526, 0.9460731148719788, 0.9724922180175781, 0.9843444228172302, 0.9338309168815613, 0.9272887110710144, 0.9600276947021484, 0.9406105875968933, 0.986499547958374, 0.9843373894691467, 0.8942554593086243, 0.893891453742981]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.9967155456542969</v>
+        <v>0.9985878467559814</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3823,10 +3823,10 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.8794254999957047</v>
+        <v>0.8799523000052432</v>
       </c>
       <c r="J82" t="n">
-        <v>0.005565984177188005</v>
+        <v>0.005569318354463565</v>
       </c>
     </row>
     <row r="83">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[0.7385705709457397, 0.8675521612167358, 0.9580150842666626, 0.931948184967041, 0.9307433366775513, 0.9542596936225891, 0.9785645008087158, 0.9833914041519165, 0.9860630631446838, 0.9801769256591797, 0.969119131565094, 0.9796543717384338, 0.9838877320289612, 0.9708583950996399, 0.9810429811477661, 0.9302671551704407, 0.9682464003562927, 0.9664846062660217, 0.9241195321083069, 0.9845702052116394, 0.9935344457626343, 0.9895776510238647, 0.9896341562271118, 0.9705395102500916, 0.9652860760688782, 0.9820606708526611, 0.9896919131278992, 0.9901847839355469, 0.9943035840988159, 0.9954231381416321, 0.9937228560447693, 0.9448181986808777, 0.8347842693328857, 0.8739181756973267, 0.8370198011398315, 0.8227415084838867, 0.8448004126548767, 0.7681210041046143, 0.9297295212745667, 0.9339074492454529, 0.9683788418769836, 0.9958274960517883, 0.9970107078552246, 0.9956218600273132, 0.983649730682373, 0.9784544706344604, 0.9462042450904846, 0.9456890225410461, 0.9307471513748169, 0.7935547828674316, 0.89460289478302, 0.8827983736991882, 0.8618224859237671, 0.756308913230896, 0.8155133128166199, 0.8199581503868103, 0.8397042751312256, 0.8218411803245544, 0.7771718502044678, 0.9802667498588562, 0.982437789440155, 0.9885998964309692, 0.9911465048789978, 0.9848693609237671, 0.9873034358024597, 0.9794060587882996, 0.9896745085716248, 0.9946936964988708, 0.9958239793777466, 0.9887190461158752, 0.9882630705833435, 0.9902995824813843, 0.9895991086959839, 0.9628838896751404, 0.9382449388504028, 0.9125707745552063, 0.9529606699943542, 0.9180580973625183, 0.9510037302970886, 0.8316232562065125, 0.8748394250869751, 0.9414264559745789, 0.9699426293373108, 0.9488834738731384, 0.9050690531730652, 0.9044516086578369, 0.7633333206176758, 0.9588213562965393, 0.9158068895339966, 0.9637671709060669, 0.9273053407669067, 0.9620628356933594, 0.9221934080123901, 0.9621405601501465, 0.8846217393875122, 0.8991820812225342, 0.8600118160247803, 0.9544076919555664, 0.9950262904167175, 0.9936891794204712, 0.9952782392501831, 0.9840643405914307, 0.9883559942245483, 0.9916953444480896, 0.9907037019729614, 0.9863011837005615, 0.9838119149208069, 0.9825339913368225, 0.9700986742973328, 0.9186164736747742, 0.9229172468185425, 0.8599568605422974, 0.8839008808135986, 0.690160870552063, 0.7119675874710083, 0.8015049695968628, 0.8730452060699463, 0.6684324741363525, 0.6523944735527039, 0.5094765424728394, 0.5958893299102783, 0.8289327025413513, 0.8819944858551025, 0.9075713753700256, 0.9795606732368469, 0.9724940061569214, 0.9485934376716614, 0.8537282943725586, 0.9798539280891418, 0.9915719032287598, 0.9881423115730286, 0.9859318733215332, 0.9753245115280151, 0.9804292917251587, 0.8746258020401001, 0.9751265645027161, 0.9724074602127075, 0.9298568964004517, 0.8686381578445435, 0.9042549729347229, 0.9541200399398804, 0.9519476294517517, 0.982862651348114, 0.955097496509552, 0.9209731221199036, 0.8973947167396545, 0.9702788591384888, 0.9761367440223694, 0.9835308194160461, 0.9881917834281921, 0.975667417049408, 0.8625009059906006, 0.8745557069778442, 0.8652859330177307, 0.611282229423523, 0.671284556388855, 0.8023154735565186, 0.8049567937850952]</t>
+          <t>[0.6980584859848022, 0.9381152987480164, 0.9790748953819275, 0.9608161449432373, 0.9677608609199524, 0.9721941351890564, 0.9927196502685547, 0.9928739070892334, 0.9957442879676819, 0.9929758310317993, 0.9890338182449341, 0.9936962723731995, 0.9929475784301758, 0.9839243292808533, 0.9910405278205872, 0.9559082388877869, 0.9795194864273071, 0.9808635711669922, 0.9590203166007996, 0.994750440120697, 0.9971548318862915, 0.9961690306663513, 0.9958410859107971, 0.9890754222869873, 0.9835612773895264, 0.9923943281173706, 0.9949502944946289, 0.9959121942520142, 0.9977357387542725, 0.9979686141014099, 0.9973745346069336, 0.9813376665115356, 0.9210535883903503, 0.9149351716041565, 0.8971056342124939, 0.8776557445526123, 0.9039656519889832, 0.8528961539268494, 0.9594548940658569, 0.9587944746017456, 0.984153687953949, 0.9981400966644287, 0.998577356338501, 0.9981207251548767, 0.9930765628814697, 0.9931041598320007, 0.9691382646560669, 0.9677802324295044, 0.9585797190666199, 0.8393927812576294, 0.9316501617431641, 0.8770171999931335, 0.8218925595283508, 0.7077953815460205, 0.8026590347290039, 0.8435046076774597, 0.904039740562439, 0.8909285068511963, 0.8390722274780273, 0.9889928698539734, 0.9932331442832947, 0.9943047165870667, 0.9963263869285583, 0.9908254742622375, 0.993528425693512, 0.9889379739761353, 0.9952660799026489, 0.9980397820472717, 0.9983651041984558, 0.9955835938453674, 0.9946894645690918, 0.9955736398696899, 0.9950541257858276, 0.9850871562957764, 0.9496304392814636, 0.9178493618965149, 0.9562358856201172, 0.9309696555137634, 0.974388599395752, 0.8828266263008118, 0.9277441501617432, 0.967239499092102, 0.9866679906845093, 0.9625263810157776, 0.9098585247993469, 0.9035846590995789, 0.7594624161720276, 0.9760703444480896, 0.9546169638633728, 0.9782443642616272, 0.9479362368583679, 0.9799889326095581, 0.9578450918197632, 0.9865142703056335, 0.950501024723053, 0.9642114639282227, 0.9482424855232239, 0.9863904714584351, 0.9986122846603394, 0.9980302453041077, 0.998097836971283, 0.9931858777999878, 0.9951205849647522, 0.9973185658454895, 0.9970777034759521, 0.9939946532249451, 0.9924774765968323, 0.9910579919815063, 0.9845786094665527, 0.9542801380157471, 0.947973906993866, 0.9183818101882935, 0.9047807455062866, 0.6479328870773315, 0.6462125182151794, 0.7804828882217407, 0.8039310574531555, 0.5580127835273743, 0.6840747594833374, 0.5280250310897827, 0.6139951348304749, 0.7994617223739624, 0.9145709872245789, 0.9214634299278259, 0.9877204298973083, 0.9839515686035156, 0.967740535736084, 0.8652631044387817, 0.9897449612617493, 0.9953789710998535, 0.9935909509658813, 0.9931095838546753, 0.9888089299201965, 0.9901698231697083, 0.8750718832015991, 0.9854527115821838, 0.9809474945068359, 0.9629095196723938, 0.8919479250907898, 0.9464978575706482, 0.9784518480300903, 0.9747231602668762, 0.9920876622200012, 0.951916515827179, 0.9478142261505127, 0.9199172854423523, 0.9827731847763062, 0.9894689321517944, 0.9934695959091187, 0.9957309365272522, 0.9917199611663818, 0.9125242233276367, 0.9103635549545288, 0.9067955613136292, 0.5940321087837219, 0.6278164386749268, 0.8188431859016418, 0.8220568895339966]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9970107078552246</v>
+        <v>0.9986122846603394</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.8701249999867287</v>
+        <v>0.8756491999956779</v>
       </c>
       <c r="J83" t="n">
-        <v>0.005507120253080561</v>
+        <v>0.005542083544276442</v>
       </c>
     </row>
     <row r="84">
@@ -3885,11 +3885,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[0.42217516899108887, 0.3552452325820923, 0.3665142059326172, 0.49914270639419556, 0.3881385028362274, 0.47823527455329895, 0.41233471035957336, 0.2845131754875183, 0.3700934052467346, 0.8080880045890808, 0.9801918268203735, 0.9816035032272339, 0.9281192421913147, 0.947119414806366, 0.9383886456489563, 0.906785786151886, 0.9516052603721619, 0.9036281704902649, 0.6629663705825806, 0.38511717319488525, 0.21623820066452026, 0.3089907765388489, 0.22189903259277344, 0.2695436179637909, 0.6946151852607727, 0.8452378511428833, 0.7295035719871521, 0.8720134496688843, 0.2988567650318146, 0.5718173384666443, 0.7510876655578613, 0.8831487894058228, 0.718058168888092, 0.9067753553390503, 0.8909379839897156, 0.9458657503128052, 0.9614229798316956, 0.9780729413032532, 0.9919288158416748, 0.9888057708740234, 0.8646454811096191, 0.6675982475280762, 0.47479161620140076, 0.38666126132011414, 0.8460726141929626, 0.9787044525146484, 0.9705803990364075, 0.9816749691963196, 0.9730989336967468, 0.9531230926513672, 0.9422992467880249, 0.9066160917282104, 0.9392738938331604, 0.9525777101516724, 0.9098567366600037, 0.9145199656486511, 0.9313661456108093, 0.9771289229393005, 0.9776669144630432, 0.9852240085601807, 0.9855855107307434, 0.9919073581695557, 0.9870107173919678, 0.9732577800750732, 0.9636006355285645, 0.9800784587860107, 0.9860726594924927, 0.9904568791389465, 0.9644438028335571, 0.8721773624420166, 0.9052859544754028, 0.8533607721328735, 0.3611840307712555, 0.3620404899120331, 0.40363556146621704, 0.33589738607406616, 0.2623467743396759, 0.4513774812221527, 0.5215014815330505, 0.6586887240409851, 0.5839463472366333, 0.5096408128738403, 0.42088058590888977, 0.274394690990448, 0.32247838377952576, 0.28158971667289734, 0.26655080914497375, 0.37275347113609314, 0.3260737955570221, 0.41302528977394104, 0.579279363155365, 0.455747127532959, 0.5909287929534912, 0.6616387367248535, 0.5874121189117432, 0.5188888311386108, 0.25660809874534607, 0.3520171344280243, 0.5132965445518494, 0.7051169276237488, 0.6979078650474548, 0.7109782695770264, 0.589006245136261, 0.4156295657157898, 0.5760676860809326, 0.4765184819698334, 0.3566861152648926, 0.37451040744781494, 0.7265014052391052, 0.538437008857727, 0.4411601424217224, 0.5790852308273315, 0.6477302312850952, 0.6911543607711792, 0.7222056984901428, 0.9058815240859985, 0.980535089969635, 0.9839491248130798, 0.9766726493835449, 0.9762780070304871, 0.9615046381950378, 0.945488691329956, 0.9245272278785706, 0.9863691329956055, 0.965707004070282, 0.9601619839668274, 0.7905793190002441, 0.9510722756385803, 0.9870447516441345, 0.985834538936615, 0.9928537011146545, 0.9858161211013794, 0.9691749215126038, 0.977112889289856, 0.9729411602020264, 0.9567566514015198, 0.9788488149642944, 0.9628762602806091, 0.9855168461799622, 0.9966346621513367, 0.9961152076721191, 0.9959099292755127, 0.9973782300949097, 0.9953226447105408, 0.9930484294891357, 0.9922524094581604, 0.9822152256965637, 0.9843032360076904, 0.986031174659729, 0.9826435446739197, 0.9837957620620728, 0.992302417755127, 0.9923017024993896, 0.9945530295372009, 0.9947197437286377, 0.9950542449951172, 0.995481014251709, 0.995489776134491]</t>
+          <t>[0.3737102746963501, 0.24939003586769104, 0.3087252974510193, 0.5174577236175537, 0.2793455421924591, 0.3333454430103302, 0.2833904027938843, 0.25192534923553467, 0.3358408510684967, 0.9117498993873596, 0.9900460839271545, 0.9883044958114624, 0.9672521948814392, 0.960888683795929, 0.9607113599777222, 0.9014212489128113, 0.9760057330131531, 0.959557056427002, 0.8130632638931274, 0.26638415455818176, 0.10149390995502472, 0.18853247165679932, 0.1629842221736908, 0.17774292826652527, 0.6687859296798706, 0.8819030523300171, 0.730163037776947, 0.9099228382110596, 0.25808367133140564, 0.664085328578949, 0.8147119283676147, 0.9181884527206421, 0.7159146070480347, 0.9087097644805908, 0.9146803021430969, 0.9752774238586426, 0.9878795742988586, 0.9893286824226379, 0.9954364895820618, 0.9944409728050232, 0.8529177308082581, 0.5139757990837097, 0.36776676774024963, 0.32218167185783386, 0.8977959752082825, 0.9853824377059937, 0.9811052680015564, 0.9877346158027649, 0.974327027797699, 0.9497194886207581, 0.9179792404174805, 0.858189046382904, 0.921562135219574, 0.9532070159912109, 0.9043891429901123, 0.9238526821136475, 0.9408881664276123, 0.9833014011383057, 0.980075478553772, 0.9900705218315125, 0.9903050661087036, 0.9967737793922424, 0.9912399649620056, 0.9806953072547913, 0.9605302214622498, 0.9890024662017822, 0.9912262558937073, 0.9931239485740662, 0.9774882793426514, 0.9306974411010742, 0.9500751495361328, 0.8710713386535645, 0.22299836575984955, 0.30742746591567993, 0.2901044487953186, 0.1873100996017456, 0.13721664249897003, 0.35613277554512024, 0.43114951252937317, 0.6111181974411011, 0.5191805362701416, 0.4161602258682251, 0.3511101305484772, 0.19213120639324188, 0.2244352549314499, 0.21428003907203674, 0.19104871153831482, 0.2588156461715698, 0.18015211820602417, 0.31206879019737244, 0.4815210700035095, 0.30835723876953125, 0.5818776488304138, 0.6980752944946289, 0.4839828908443451, 0.37272384762763977, 0.12310060858726501, 0.22038675844669342, 0.4506567716598511, 0.6512027382850647, 0.6302399039268494, 0.6143713593482971, 0.4057488441467285, 0.22909852862358093, 0.32608017325401306, 0.2505202889442444, 0.19713473320007324, 0.17588111758232117, 0.6027072072029114, 0.413627028465271, 0.19320020079612732, 0.2597348093986511, 0.40477311611175537, 0.367011696100235, 0.3832817077636719, 0.8307833671569824, 0.9802162051200867, 0.9843140840530396, 0.97206050157547, 0.9789208769798279, 0.957323431968689, 0.8963077664375305, 0.7901207208633423, 0.9811527729034424, 0.9370840787887573, 0.9503800272941589, 0.6480787396430969, 0.9073063731193542, 0.9870690107345581, 0.9861317873001099, 0.9910430908203125, 0.9826580882072449, 0.9525155425071716, 0.9771319031715393, 0.9726612567901611, 0.9571667909622192, 0.9774536490440369, 0.9617998003959656, 0.9812294244766235, 0.9971638321876526, 0.9963327646255493, 0.9970924854278564, 0.9982317090034485, 0.9958118200302124, 0.9929661750793457, 0.9921976923942566, 0.9804155230522156, 0.9870510101318359, 0.9877249598503113, 0.9768757820129395, 0.9803087711334229, 0.9929184317588806, 0.9940242171287537, 0.9960145950317383, 0.9956250786781311, 0.9957789182662964, 0.9959155917167664, 0.9959201812744141]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9973782300949097</v>
+        <v>0.9982317090034485</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.8644349999958649</v>
+        <v>0.8747990999981994</v>
       </c>
       <c r="J84" t="n">
-        <v>0.005471107594910538</v>
+        <v>0.005536703164545566</v>
       </c>
     </row>
     <row r="85">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[0.9532656669616699, 0.9077595472335815, 0.8847236633300781, 0.914732038974762, 0.8973992466926575, 0.8311581015586853, 0.9224140048027039, 0.9231603741645813, 0.8362215161323547, 0.9763636589050293, 0.9659543037414551, 0.8165764212608337, 0.7883501648902893, 0.9130575060844421, 0.9774686694145203, 0.991442859172821, 0.9925056099891663, 0.9958611130714417, 0.9905833005905151, 0.9813124537467957, 0.9799830913543701, 0.9651254415512085, 0.9733006954193115, 0.9724766612052917, 0.9151831269264221, 0.9877568483352661, 0.9596852660179138, 0.9754040241241455, 0.9342376589775085, 0.97065269947052, 0.9655082821846008, 0.965684175491333, 0.9528932571411133, 0.9664728045463562, 0.9695529341697693, 0.9711653590202332, 0.9672717452049255, 0.9752928614616394, 0.9726759195327759, 0.9765274524688721, 0.9787545800209045, 0.9791762828826904, 0.95247483253479, 0.8386291861534119, 0.8796685338020325, 0.9452171921730042, 0.9353117346763611, 0.8365703821182251, 0.8887406587600708, 0.942742645740509, 0.9414361119270325, 0.922247052192688, 0.7931839823722839, 0.6719956994056702, 0.5315391421318054, 0.706565797328949, 0.8355249762535095, 0.936700165271759, 0.8657557368278503, 0.9501290917396545, 0.9844344258308411, 0.953661322593689, 0.940451979637146, 0.8978942036628723, 0.9562494158744812, 0.9705244898796082, 0.9831010699272156, 0.9765563011169434, 0.9439961910247803, 0.9456443786621094, 0.9443839192390442, 0.9881443977355957, 0.9850069880485535, 0.9797388315200806, 0.98816978931427, 0.985664963722229, 0.9730281233787537, 0.9835003614425659, 0.984706461429596, 0.9855462312698364, 0.960413932800293, 0.937092661857605, 0.9781535863876343, 0.9804933667182922, 0.9779456853866577, 0.9822907447814941, 0.982104480266571, 0.907274067401886, 0.8446595668792725, 0.8723781108856201, 0.9323176145553589, 0.9187046885490417, 0.955373227596283, 0.9766327142715454, 0.972258985042572, 0.9728010296821594, 0.9817790389060974, 0.9701325297355652, 0.9665924310684204, 0.9714099764823914, 0.9606362581253052, 0.7951112389564514, 0.42894038558006287, 0.7952808141708374, 0.8428245782852173, 0.8855499029159546, 0.8871227502822876, 0.8188283443450928, 0.7874307036399841, 0.8435165286064148, 0.8673632144927979, 0.8711735010147095, 0.8796809911727905, 0.9629313349723816, 0.9768419861793518, 0.9052723050117493, 0.9046527743339539, 0.9276836514472961, 0.9667336344718933, 0.9590854048728943, 0.8436495065689087, 0.8537540435791016, 0.9111862778663635, 0.9156127572059631, 0.8904286623001099, 0.8499685525894165, 0.8863762617111206, 0.7744871973991394, 0.8899205327033997, 0.8305216431617737, 0.8419727087020874, 0.48977741599082947, 0.5457133650779724, 0.6302589774131775, 0.4880159795284271, 0.4980151653289795, 0.7639579176902771, 0.5170437693595886, 0.8659666776657104, 0.9826582074165344, 0.984718918800354, 0.9806839823722839, 0.9880572557449341, 0.935295045375824, 0.9010891318321228, 0.8040513396263123, 0.8479002714157104, 0.5490335822105408, 0.5515819191932678, 0.9071651697158813, 0.9616363644599915, 0.9900784492492676, 0.994234025478363, 0.9703404903411865, 0.6860377788543701, 0.1304692029953003, 0.10676219314336777, 0.10606130212545395]</t>
+          <t>[0.9683051705360413, 0.9167087078094482, 0.8788214325904846, 0.9359557032585144, 0.9360650777816772, 0.8569414019584656, 0.9543130397796631, 0.9544975161552429, 0.8802299499511719, 0.9910973310470581, 0.9739236831665039, 0.6903241872787476, 0.5209884643554688, 0.8616731762886047, 0.9841611981391907, 0.9920307397842407, 0.9929158687591553, 0.9972259402275085, 0.9938401579856873, 0.9867340326309204, 0.9883036613464355, 0.9563853740692139, 0.971688449382782, 0.9848255515098572, 0.9094254970550537, 0.9929966330528259, 0.9716350436210632, 0.98274165391922, 0.9102730751037598, 0.9670636653900146, 0.9572690725326538, 0.9564800262451172, 0.9278772473335266, 0.9589546322822571, 0.9377574324607849, 0.9315929412841797, 0.930178165435791, 0.9602562785148621, 0.9726905822753906, 0.9728955626487732, 0.9854126572608948, 0.9880848526954651, 0.9549732208251953, 0.7493618726730347, 0.78050297498703, 0.9303556084632874, 0.9343286156654358, 0.766238808631897, 0.893714189529419, 0.9546018838882446, 0.9574074745178223, 0.9497082829475403, 0.7458515167236328, 0.592059314250946, 0.4045534133911133, 0.52761310338974, 0.6940096020698547, 0.9064446091651917, 0.792339563369751, 0.9434745907783508, 0.9900211691856384, 0.9591023921966553, 0.9583204388618469, 0.8258277773857117, 0.9471874833106995, 0.9743654131889343, 0.9857925772666931, 0.9704293608665466, 0.8838857412338257, 0.8779728412628174, 0.8985060453414917, 0.9912278652191162, 0.991141676902771, 0.9841433763504028, 0.9910449981689453, 0.9881373047828674, 0.9529765844345093, 0.9826518297195435, 0.9828433394432068, 0.9854514598846436, 0.9420725703239441, 0.8790920972824097, 0.9752820730209351, 0.9663397669792175, 0.9757639765739441, 0.9806155562400818, 0.9719813466072083, 0.8437075614929199, 0.6634479761123657, 0.7108111381530762, 0.8584020733833313, 0.8404112458229065, 0.9251324534416199, 0.9692806005477905, 0.9679070115089417, 0.9681205749511719, 0.9811939597129822, 0.9766166806221008, 0.9720714092254639, 0.9788828492164612, 0.9590764045715332, 0.6461679339408875, 0.1754298359155655, 0.6049944162368774, 0.6309711933135986, 0.7157471179962158, 0.7502686381340027, 0.6519386172294617, 0.6482173800468445, 0.7886433601379395, 0.7499262094497681, 0.6835625171661377, 0.6835964918136597, 0.9240256547927856, 0.9376806020736694, 0.6899925470352173, 0.7358328104019165, 0.837105393409729, 0.9197763800621033, 0.8869163990020752, 0.5487785339355469, 0.5517021417617798, 0.7526276707649231, 0.7676469683647156, 0.7027304172515869, 0.5612246990203857, 0.693186342716217, 0.5705716013908386, 0.7502312660217285, 0.5707852244377136, 0.6313802003860474, 0.21400167047977448, 0.2670230567455292, 0.3294290006160736, 0.3166588544845581, 0.34079357981681824, 0.5904231071472168, 0.3331242799758911, 0.8297171592712402, 0.9829201102256775, 0.9797802567481995, 0.9726559519767761, 0.9842535257339478, 0.9203269481658936, 0.8584391474723816, 0.705119788646698, 0.820716142654419, 0.2960444390773773, 0.35703128576278687, 0.9596273899078369, 0.9711838364601135, 0.9894564747810364, 0.9968630075454712, 0.979838490486145, 0.5098421573638916, 0.02608609013259411, 0.04651641100645065, 0.046261977404356]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.9958611130714417</v>
+        <v>0.9972259402275085</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.8591171000152826</v>
+        <v>0.8733426999970106</v>
       </c>
       <c r="J85" t="n">
-        <v>0.005437450000096726</v>
+        <v>0.005527485443019055</v>
       </c>
     </row>
     <row r="86">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[0.7457225322723389, 0.7390512228012085, 0.7126083970069885, 0.6480652689933777, 0.8443451523780823, 0.8803889155387878, 0.9126722812652588, 0.8986839652061462, 0.8512826561927795, 0.8032283186912537, 0.734521746635437, 0.8150994181632996, 0.8263632655143738, 0.8278918862342834, 0.8072744607925415, 0.7503232359886169, 0.6945828199386597, 0.7275962233543396, 0.8479099273681641, 0.8637339472770691, 0.5264070630073547, 0.5258083939552307, 0.3986009955406189, 0.5711500644683838, 0.7823529839515686, 0.7108238935470581, 0.9010500907897949, 0.9372581839561462, 0.9095979332923889, 0.8624858260154724, 0.833896279335022, 0.7605698704719543, 0.8243484497070312, 0.7268384099006653, 0.7167134284973145, 0.5905885100364685, 0.6021705865859985, 0.7131094932556152, 0.6011061668395996, 0.5292128324508667, 0.5895799398422241, 0.6760343909263611, 0.680231511592865, 0.6551890969276428, 0.8325709700584412, 0.9276086688041687, 0.9120842218399048, 0.8690001368522644, 0.9252438545227051, 0.8872696757316589, 0.8003444075584412, 0.6609464287757874, 0.6735841631889343, 0.7248735427856445, 0.7945006489753723, 0.8879246115684509, 0.9031539559364319, 0.9072743654251099, 0.8865922689437866, 0.8533779382705688, 0.8818816542625427, 0.8907532095909119, 0.7838637232780457, 0.8920024037361145, 0.8010239601135254, 0.8667995929718018, 0.9290744662284851, 0.9210737347602844, 0.8962375521659851, 0.8480949401855469, 0.8948842883110046, 0.945225715637207, 0.9009799361228943, 0.9361810088157654, 0.9427648186683655, 0.8635820746421814, 0.8934113383293152, 0.8641821146011353, 0.8937466740608215, 0.8963797092437744, 0.8752273917198181, 0.8479366302490234, 0.8318541049957275, 0.8710668683052063, 0.9402839541435242, 0.8139005899429321, 0.850866436958313, 0.9395977854728699, 0.918757438659668, 0.9230669140815735, 0.9329421520233154, 0.9616595506668091, 0.9286037683486938, 0.9267365336418152, 0.8735138773918152, 0.8248262405395508, 0.910082995891571, 0.9397563338279724, 0.9410737156867981, 0.7884687185287476, 0.8452394008636475, 0.9159771203994751, 0.8334135413169861, 0.7534798979759216, 0.6221078634262085, 0.6004493832588196, 0.7284625768661499, 0.7731814980506897, 0.7901711463928223, 0.8887014985084534, 0.798549234867096, 0.8622709512710571, 0.9082741141319275, 0.8634672164916992, 0.8477861285209656, 0.9058671593666077, 0.8657296895980835, 0.8199977278709412, 0.9197765588760376, 0.8649733066558838, 0.9394770860671997, 0.9332732558250427, 0.9432324767112732, 0.8974767327308655, 0.8199484944343567, 0.8611103296279907, 0.8637941479682922, 0.9125324487686157, 0.9660499691963196, 0.9618724584579468, 0.9147340655326843, 0.9385474920272827, 0.9299089312553406, 0.9336293339729309, 0.9485384821891785, 0.9331863522529602, 0.9423974752426147, 0.9759241938591003, 0.9717423915863037, 0.9784111976623535, 0.9739907383918762, 0.9410499930381775, 0.9374203085899353, 0.8832517862319946, 0.8841862082481384, 0.9449015259742737, 0.9763906002044678, 0.9748977422714233, 0.9538940191268921, 0.9371751546859741, 0.8812896013259888, 0.8699216842651367, 0.912300169467926, 0.9072667956352234, 0.9204274415969849, 0.9372934699058533, 0.9223623275756836, 0.9223634600639343]</t>
+          <t>[0.8779613375663757, 0.8638610243797302, 0.8462803363800049, 0.7762491703033447, 0.9329298138618469, 0.9527712464332581, 0.9631747603416443, 0.9593297839164734, 0.9206060171127319, 0.8971784114837646, 0.8487439155578613, 0.90303635597229, 0.9205637574195862, 0.931907594203949, 0.9370478391647339, 0.9156280755996704, 0.8877995014190674, 0.8978908658027649, 0.9529517292976379, 0.9606766104698181, 0.7636356353759766, 0.7383096218109131, 0.5793589949607849, 0.7337005138397217, 0.9019535183906555, 0.8657268285751343, 0.9673089981079102, 0.9857304096221924, 0.9825671315193176, 0.9629878997802734, 0.9394340515136719, 0.9043489694595337, 0.9211879968643188, 0.8659210801124573, 0.8554728031158447, 0.7373641133308411, 0.7337738275527954, 0.8448740243911743, 0.7820470929145813, 0.6858139038085938, 0.7315839529037476, 0.8302253484725952, 0.8391733169555664, 0.797820508480072, 0.9234317541122437, 0.9759603142738342, 0.9698057174682617, 0.9667075872421265, 0.9755875468254089, 0.9640116691589355, 0.9231501221656799, 0.8439901471138, 0.8572222590446472, 0.8605086803436279, 0.9179247617721558, 0.9612681865692139, 0.9625499248504639, 0.9688748121261597, 0.9629339575767517, 0.9522766470909119, 0.9699472188949585, 0.9757413268089294, 0.9359442591667175, 0.9709535837173462, 0.9228278994560242, 0.9489633440971375, 0.9676128029823303, 0.9692173600196838, 0.9608193039894104, 0.9572837948799133, 0.9613437652587891, 0.979205846786499, 0.975264847278595, 0.9786686301231384, 0.9821971654891968, 0.9406995177268982, 0.9658811092376709, 0.9538915157318115, 0.9659394025802612, 0.9662072062492371, 0.9637026786804199, 0.9488124251365662, 0.9451615214347839, 0.95912104845047, 0.9821943640708923, 0.9199349284172058, 0.9361441731452942, 0.9817053079605103, 0.9669570922851562, 0.970615804195404, 0.979211688041687, 0.9883852005004883, 0.976658046245575, 0.9832752346992493, 0.966779351234436, 0.9462445974349976, 0.9796972870826721, 0.9866294860839844, 0.9865451455116272, 0.9322614669799805, 0.9709213376045227, 0.9790490865707397, 0.9431173205375671, 0.8854324221611023, 0.7896790504455566, 0.7773905396461487, 0.8593090176582336, 0.9050000905990601, 0.8752521872520447, 0.9530046582221985, 0.9291591048240662, 0.9475201368331909, 0.9725595116615295, 0.9554766416549683, 0.9431856274604797, 0.9660034775733948, 0.9533461332321167, 0.9370504021644592, 0.9812220931053162, 0.9692845344543457, 0.9877730011940002, 0.9822706580162048, 0.9854940176010132, 0.9720445275306702, 0.9584750533103943, 0.9710493683815002, 0.9694101214408875, 0.9756891131401062, 0.9895416498184204, 0.9898160696029663, 0.969620406627655, 0.9804193377494812, 0.9823611974716187, 0.9814136028289795, 0.9872655868530273, 0.9814352989196777, 0.9833524227142334, 0.9949226975440979, 0.9943848848342896, 0.9940376281738281, 0.9944826364517212, 0.989500105381012, 0.9844856262207031, 0.962577760219574, 0.9636340737342834, 0.9892942905426025, 0.9950697422027588, 0.9948055148124695, 0.9908186793327332, 0.9878219962120056, 0.9670261144638062, 0.9691243767738342, 0.973172664642334, 0.9664290547370911, 0.9781407117843628, 0.9870681762695312, 0.9830096364021301, 0.9830126166343689]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9784111976623535</v>
+        <v>0.9950697422027588</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.8815347999916412</v>
+        <v>0.8867895999865141</v>
       </c>
       <c r="J86" t="n">
-        <v>0.005579334177162286</v>
+        <v>0.005612592404977937</v>
       </c>
     </row>
     <row r="87">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[0.6048217415809631, 0.571760356426239, 0.7380601763725281, 0.7088803648948669, 0.8462949991226196, 0.8472281098365784, 0.8047343492507935, 0.8561334609985352, 0.9278978705406189, 0.9170087575912476, 0.9380394220352173, 0.957695484161377, 0.9240800142288208, 0.8209030628204346, 0.6081221103668213, 0.5114772319793701, 0.34276559948921204, 0.5613147020339966, 0.6949920058250427, 0.5813753604888916, 0.7693106532096863, 0.8780729174613953, 0.7783159613609314, 0.7444629669189453, 0.7819653153419495, 0.7323348522186279, 0.719708263874054, 0.5982561707496643, 0.5616555213928223, 0.4644570052623749, 0.5781105756759644, 0.7538788318634033, 0.6606087684631348, 0.606410801410675, 0.6162511706352234, 0.7366062998771667, 0.917018473148346, 0.866082489490509, 0.8474330306053162, 0.9038370847702026, 0.8889260292053223, 0.8191593885421753, 0.8927746415138245, 0.8197182416915894, 0.9016053080558777, 0.9400922656059265, 0.9578156471252441, 0.8958706855773926, 0.9324486255645752, 0.954860508441925, 0.9475393891334534, 0.9443674087524414, 0.9292428493499756, 0.9549439549446106, 0.9405728578567505, 0.8979215025901794, 0.9443352818489075, 0.9644646644592285, 0.9452512860298157, 0.8862792253494263, 0.8662058115005493, 0.9196351170539856, 0.9156831502914429, 0.8676261901855469, 0.8944005966186523, 0.9189334511756897, 0.8706962466239929, 0.8984898924827576, 0.7438923120498657, 0.6874252557754517, 0.9782081246376038, 0.9517448544502258, 0.9625701308250427, 0.9577103853225708, 0.9497604370117188, 0.8938494324684143, 0.9159536957740784, 0.9361569881439209, 0.9090301990509033, 0.8316933512687683, 0.7175602912902832, 0.6410180926322937, 0.606808602809906, 0.3149254620075226, 0.38056814670562744, 0.579620897769928, 0.7848266363143921, 0.7503215670585632, 0.37673112750053406, 0.22784197330474854, 0.2336198091506958, 0.5586368441581726, 0.6028364896774292, 0.8516277074813843, 0.8719410300254822, 0.546776533126831, 0.1852843314409256, 0.16839201748371124, 0.4903380572795868, 0.48029449582099915, 0.24386052787303925, 0.34013429284095764, 0.28504517674446106, 0.393990695476532, 0.2757038176059723, 0.4936359226703644, 0.22400225698947906, 0.7080773711204529, 0.8497990965843201, 0.9143533110618591, 0.8496652245521545, 0.7993205785751343, 0.8813492655754089, 0.8462818264961243, 0.7619648575782776, 0.8688744902610779, 0.9560260772705078, 0.8983680605888367, 0.9583797454833984, 0.9527905583381653, 0.9641143679618835, 0.9736762046813965, 0.9699687361717224, 0.9720982313156128, 0.9704236388206482, 0.9245412945747375, 0.9338570237159729, 0.94820237159729, 0.9777392745018005, 0.9396692514419556, 0.9061866402626038, 0.914405107498169, 0.9078100919723511, 0.945013701915741, 0.9607987403869629, 0.958092987537384, 0.9491181373596191, 0.9695424437522888, 0.9729147553443909, 0.9456976056098938, 0.8509814143180847, 0.8629996180534363, 0.8671325445175171, 0.8851144909858704, 0.9209027290344238, 0.9407799243927002, 0.9478210806846619, 0.9444935321807861, 0.9320656061172485, 0.9272347092628479, 0.8859819173812866, 0.7824103832244873, 0.6169705986976624, 0.7499836683273315, 0.7947770357131958, 0.8874699473381042, 0.8878560066223145]</t>
+          <t>[0.7878435254096985, 0.7582707405090332, 0.8954746723175049, 0.8691064715385437, 0.9359164834022522, 0.9335522055625916, 0.9168162941932678, 0.9448947906494141, 0.9742831587791443, 0.9764564037322998, 0.9819527268409729, 0.9891512393951416, 0.9869523048400879, 0.944557785987854, 0.7753069996833801, 0.659514844417572, 0.40057483315467834, 0.6524756550788879, 0.834069550037384, 0.7998632788658142, 0.9027414917945862, 0.9661662578582764, 0.9231652617454529, 0.9020130634307861, 0.9208430051803589, 0.9178435206413269, 0.9052008986473083, 0.8300639390945435, 0.7822914123535156, 0.6485133171081543, 0.7575501799583435, 0.8647652864456177, 0.7886142730712891, 0.6855729818344116, 0.7494231462478638, 0.8954770565032959, 0.983439028263092, 0.9653239250183105, 0.9405226707458496, 0.9690552949905396, 0.9694985747337341, 0.9330364465713501, 0.96187424659729, 0.9131054282188416, 0.9728236794471741, 0.9871370792388916, 0.9909434914588928, 0.9781689643859863, 0.9856840372085571, 0.9891961812973022, 0.9868685603141785, 0.9906290173530579, 0.9848021864891052, 0.989689826965332, 0.9880369901657104, 0.9762731790542603, 0.9834551811218262, 0.9892886877059937, 0.9839547872543335, 0.9658321738243103, 0.9638504981994629, 0.9803147315979004, 0.9824337959289551, 0.965857982635498, 0.9720598459243774, 0.983412504196167, 0.9749993681907654, 0.9770391583442688, 0.8985334038734436, 0.8652613162994385, 0.9955755472183228, 0.9935153722763062, 0.9918171763420105, 0.9924393892288208, 0.9904407262802124, 0.9778138399124146, 0.9868900775909424, 0.982410728931427, 0.9719865918159485, 0.9343358278274536, 0.9324392080307007, 0.8696181774139404, 0.8952337503433228, 0.5940085649490356, 0.773897647857666, 0.9125785231590271, 0.941555917263031, 0.937446653842926, 0.6462816596031189, 0.28979918360710144, 0.2742166221141815, 0.7817899584770203, 0.8249342441558838, 0.9650405049324036, 0.972079873085022, 0.8244356513023376, 0.47645825147628784, 0.20561064779758453, 0.5652079582214355, 0.5674575567245483, 0.20678582787513733, 0.2526876628398895, 0.23220211267471313, 0.287097305059433, 0.1683998703956604, 0.3165234327316284, 0.15144023299217224, 0.8393617272377014, 0.9646039605140686, 0.9820526242256165, 0.9619984030723572, 0.9488731622695923, 0.9739184379577637, 0.9688082337379456, 0.9264817237854004, 0.967971682548523, 0.9926630258560181, 0.978869616985321, 0.9914419054985046, 0.9856350421905518, 0.990934431552887, 0.9926544427871704, 0.9922139048576355, 0.9913021326065063, 0.9917929768562317, 0.9708864092826843, 0.9739546179771423, 0.9863199591636658, 0.9933086633682251, 0.9831140041351318, 0.9673301577568054, 0.9743091464042664, 0.9779974818229675, 0.9847394227981567, 0.9890271425247192, 0.990477442741394, 0.9871017932891846, 0.9913375377655029, 0.9936694502830505, 0.9861934781074524, 0.9590164422988892, 0.9667984843254089, 0.9701916575431824, 0.9713608026504517, 0.976622462272644, 0.9792382121086121, 0.9823042154312134, 0.9842250347137451, 0.9809144735336304, 0.9793767929077148, 0.9736713171005249, 0.9496200084686279, 0.8741710782051086, 0.9305517077445984, 0.9533694386482239, 0.974075198173523, 0.9741566181182861]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9782081246376038</v>
+        <v>0.9955755472183228</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.8749195999989752</v>
+        <v>0.8789093999948818</v>
       </c>
       <c r="J87" t="n">
-        <v>0.005572736305725957</v>
+        <v>0.005598149044553387</v>
       </c>
     </row>
     <row r="88">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[0.9010292291641235, 0.8747413754463196, 0.8480334877967834, 0.8615506887435913, 0.7503218054771423, 0.8568932414054871, 0.9037131667137146, 0.8209962248802185, 0.5861849784851074, 0.7344036102294922, 0.7675041556358337, 0.812468409538269, 0.8817517757415771, 0.9551327228546143, 0.9454069137573242, 0.9585162401199341, 0.9825150966644287, 0.9853657484054565, 0.9765869975090027, 0.978743851184845, 0.9838724732398987, 0.9658166170120239, 0.9483928680419922, 0.9721900820732117, 0.9642283320426941, 0.8997884392738342, 0.888113260269165, 0.9175521731376648, 0.8959541320800781, 0.8923636078834534, 0.9399126172065735, 0.9534163475036621, 0.9360252022743225, 0.9533215165138245, 0.9259968400001526, 0.93439120054245, 0.909613847732544, 0.9297094941139221, 0.8457867503166199, 0.8015965223312378, 0.8138951659202576, 0.8223444223403931, 0.8103589415550232, 0.9025706648826599, 0.8661214709281921, 0.9043341279029846, 0.9605324864387512, 0.9739065766334534, 0.9704688191413879, 0.9802647829055786, 0.9851437211036682, 0.9658886790275574, 0.9791010618209839, 0.9653693437576294, 0.9585981369018555, 0.9419786334037781, 0.92804354429245, 0.9615286588668823, 0.9444036483764648, 0.9097263813018799, 0.934748649597168, 0.9132473468780518, 0.9327614307403564, 0.9626911878585815, 0.9618495106697083, 0.969430685043335, 0.8969396948814392, 0.8852636814117432, 0.9323961734771729, 0.9461403489112854, 0.8978137373924255, 0.8105020523071289, 0.8813899159431458, 0.7154079675674438, 0.7749239802360535, 0.5520663261413574, 0.7382481098175049, 0.7826246619224548, 0.7487391233444214, 0.6393271088600159, 0.5243899822235107, 0.848773717880249, 0.7998352646827698, 0.6833145022392273, 0.6063823699951172, 0.7713590264320374, 0.507952094078064, 0.49548590183258057, 0.2934686243534088, 0.33330726623535156, 0.42526620626449585, 0.6797822117805481, 0.46077901124954224, 0.2700388431549072, 0.4013379216194153, 0.2525479197502136, 0.31861019134521484, 0.34151700139045715, 0.3251332938671112, 0.2339610606431961, 0.22437535226345062, 0.36236685514450073, 0.4733929932117462, 0.4344024062156677, 0.44531524181365967, 0.47208908200263977, 0.5322244167327881, 0.5331479907035828, 0.7095164060592651, 0.6371436715126038, 0.589796245098114, 0.4827031195163727, 0.5048409104347229, 0.851598858833313, 0.7007572054862976, 0.7159052491188049, 0.39431214332580566, 0.24270384013652802, 0.23289678990840912, 0.23711524903774261, 0.4570348858833313, 0.7734399437904358, 0.6108152270317078, 0.6982510685920715, 0.65218186378479, 0.509321928024292, 0.6928775906562805, 0.7723157405853271, 0.8264724612236023, 0.9074525833129883, 0.7712903022766113, 0.5486712455749512, 0.37249574065208435, 0.4706901013851166, 0.5902225971221924, 0.7201609015464783, 0.5941673517227173, 0.48976239562034607, 0.2461087554693222, 0.37432071566581726, 0.5763847231864929, 0.3851218521595001, 0.4250565767288208, 0.43179619312286377, 0.3162347674369812, 0.6126938462257385, 0.8629629015922546, 0.9368551969528198, 0.8867213129997253, 0.8459864854812622, 0.8259375095367432, 0.9024032354354858, 0.6555911898612976, 0.5550437569618225, 0.6352977156639099, 0.858753502368927, 0.8585155010223389]</t>
+          <t>[0.9734802842140198, 0.9666277170181274, 0.9499334692955017, 0.9362507462501526, 0.912116527557373, 0.9660500884056091, 0.97378009557724, 0.9514995813369751, 0.8112593293190002, 0.9151237607002258, 0.9234335422515869, 0.9567081332206726, 0.972274124622345, 0.9918537735939026, 0.9917768239974976, 0.9925028085708618, 0.9970197081565857, 0.9964003562927246, 0.9949265718460083, 0.9955582618713379, 0.9967105388641357, 0.9939666986465454, 0.9922019243240356, 0.9935324192047119, 0.9924310445785522, 0.9798689484596252, 0.9785234928131104, 0.9874117374420166, 0.9847638010978699, 0.982798159122467, 0.988231360912323, 0.9902448654174805, 0.9885780811309814, 0.9895221590995789, 0.9839826822280884, 0.9841563105583191, 0.9812545776367188, 0.9878016114234924, 0.9697167277336121, 0.9336764812469482, 0.9552335739135742, 0.9488274455070496, 0.9641158580780029, 0.9853383302688599, 0.9754263162612915, 0.9828308820724487, 0.9916734099388123, 0.9943128824234009, 0.992634117603302, 0.9964640736579895, 0.9977895021438599, 0.9958555102348328, 0.9971047043800354, 0.9943295121192932, 0.9914929270744324, 0.983238935470581, 0.9718271493911743, 0.9870648384094238, 0.9874775409698486, 0.979729413986206, 0.9823749661445618, 0.9820519089698792, 0.9863576889038086, 0.9901155233383179, 0.9903733730316162, 0.9925965070724487, 0.9605835676193237, 0.9685069918632507, 0.982053279876709, 0.989340603351593, 0.9730299711227417, 0.9351319670677185, 0.9648369550704956, 0.9239755868911743, 0.9457901120185852, 0.8697137236595154, 0.9366900324821472, 0.9386990666389465, 0.9159625172615051, 0.8294399380683899, 0.7046710252761841, 0.9628010392189026, 0.934870719909668, 0.9015893340110779, 0.8308328986167908, 0.9238085746765137, 0.699683427810669, 0.6501778960227966, 0.33777186274528503, 0.39069512486457825, 0.49137911200523376, 0.7965970039367676, 0.5567725300788879, 0.35642895102500916, 0.6245179772377014, 0.4000052213668823, 0.4932658076286316, 0.46371084451675415, 0.4366203248500824, 0.2363053560256958, 0.2299427092075348, 0.4284081757068634, 0.663031280040741, 0.6054373383522034, 0.579345703125, 0.5154228210449219, 0.6270296573638916, 0.6987016201019287, 0.8604894876480103, 0.8156028985977173, 0.7332698106765747, 0.5676138401031494, 0.7077944278717041, 0.9483643770217896, 0.8615059852600098, 0.8392724394798279, 0.6039586663246155, 0.26835736632347107, 0.22889406979084015, 0.23663891851902008, 0.5783764123916626, 0.9100723266601562, 0.7537270188331604, 0.8543334603309631, 0.8149827122688293, 0.6897484660148621, 0.8394464254379272, 0.9123214483261108, 0.9380272626876831, 0.9591665863990784, 0.8639910221099854, 0.766751229763031, 0.5197014212608337, 0.7355184555053711, 0.7246487736701965, 0.8984273672103882, 0.8482876420021057, 0.7223361730575562, 0.3524325489997864, 0.43762117624282837, 0.7088825702667236, 0.526611864566803, 0.5776298642158508, 0.508519172668457, 0.48542776703834534, 0.836553692817688, 0.9636812210083008, 0.9885095953941345, 0.979500949382782, 0.9528789520263672, 0.9250213503837585, 0.9552611112594604, 0.8079835176467896, 0.6727432608604431, 0.7526180744171143, 0.9615870118141174, 0.9616267681121826]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9853657484054565</v>
+        <v>0.9977895021438599</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.8756694999756292</v>
+        <v>0.8789016000082484</v>
       </c>
       <c r="J88" t="n">
-        <v>0.005577512738698275</v>
+        <v>0.005598099363109862</v>
       </c>
     </row>
     <row r="89">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[0.5810667872428894, 0.47171929478645325, 0.4516919255256653, 0.6540459394454956, 0.6985582709312439, 0.4799777865409851, 0.6729924082756042, 0.5185297131538391, 0.25532981753349304, 0.24431143701076508, 0.21607187390327454, 0.27200910449028015, 0.22591541707515717, 0.5779418349266052, 0.7446321845054626, 0.7521224021911621, 0.7797583937644958, 0.6855231523513794, 0.5445413589477539, 0.8225336670875549, 0.6276833415031433, 0.9011553525924683, 0.9149245023727417, 0.8215247988700867, 0.8745408654212952, 0.715788722038269, 0.8619662523269653, 0.9318627715110779, 0.9340172410011292, 0.966887891292572, 0.9738389849662781, 0.8038328289985657, 0.6637222766876221, 0.4309932291507721, 0.6072216629981995, 0.6933491230010986, 0.6707772016525269, 0.5845510363578796, 0.415435791015625, 0.47585612535476685, 0.638953685760498, 0.596220076084137, 0.5966500043869019, 0.7304753661155701, 0.609546959400177, 0.6204303503036499, 0.788802444934845, 0.6764131188392639, 0.35341522097587585, 0.49459752440452576, 0.27688974142074585, 0.7777214646339417, 0.6311925053596497, 0.6347578763961792, 0.41961732506752014, 0.44765913486480713, 0.5895008444786072, 0.27918681502342224, 0.5085910558700562, 0.5738065838813782, 0.6070372462272644, 0.5641660094261169, 0.5658701658248901, 0.7210037708282471, 0.39153948426246643, 0.6099618077278137, 0.5444734692573547, 0.3088369369506836, 0.2175600528717041, 0.6148459911346436, 0.7602236866950989, 0.6797072291374207, 0.6099798679351807, 0.6323350667953491, 0.6624972820281982, 0.6675794124603271, 0.43500348925590515, 0.6756135821342468, 0.7058672904968262, 0.6885753273963928, 0.4170086681842804, 0.39835125207901, 0.5952979326248169, 0.6789694428443909, 0.8684458136558533, 0.6252175569534302, 0.45264777541160583, 0.5936900973320007, 0.7857351899147034, 0.42176464200019836, 0.32111379504203796, 0.2419835478067398, 0.4444882869720459, 0.38984617590904236, 0.17869867384433746, 0.4232552945613861, 0.243916854262352, 0.25130805373191833, 0.4810042381286621, 0.48221275210380554, 0.16895297169685364, 0.43742847442626953, 0.6325450539588928, 0.6057359576225281, 0.5009132623672485, 0.4275576174259186, 0.6379735469818115, 0.36720144748687744, 0.596976101398468, 0.5400415658950806, 0.376740038394928, 0.27337390184402466, 0.27560558915138245, 0.2852049767971039, 0.4564254879951477, 0.8163326978683472, 0.5381491780281067, 0.6270304322242737, 0.5145730376243591, 0.061698250472545624, 0.09026627242565155, 0.07379209250211716, 0.08739110827445984, 0.15720747411251068, 0.08085700869560242, 0.1817072629928589, 0.1988982856273651, 0.22067077457904816, 0.14152272045612335, 0.18298618495464325, 0.12959922850131989, 0.14978863298892975, 0.15986064076423645, 0.15585827827453613, 0.15471866726875305, 0.15397116541862488, 0.15276771783828735, 0.1547037959098816, 0.15334734320640564, 0.1544308215379715, 0.1558070182800293, 0.1562497317790985, 0.15699854493141174, 0.15563657879829407, 0.15794777870178223, 0.15767110884189606, 0.15757101774215698, 0.15688207745552063, 0.15758080780506134, 0.15763257443904877, 0.1563684195280075, 0.1571684628725052, 0.15682634711265564, 0.156577929854393, 0.15616728365421295, 0.1554214507341385, 0.15614382922649384, 0.15614600479602814]</t>
+          <t>[0.5947054624557495, 0.46700650453567505, 0.4419875741004944, 0.6668142080307007, 0.681433379650116, 0.3700874447822571, 0.7100944519042969, 0.515296459197998, 0.12148882448673248, 0.17174534499645233, 0.19713838398456573, 0.28074127435684204, 0.2626141309738159, 0.6433454751968384, 0.8187923431396484, 0.7861697673797607, 0.7871145606040955, 0.7251238822937012, 0.451814740896225, 0.8051468729972839, 0.6056791543960571, 0.9235546588897705, 0.9248578548431396, 0.8867127895355225, 0.8928561806678772, 0.7340189814567566, 0.9234417676925659, 0.963464081287384, 0.9670785069465637, 0.9877578020095825, 0.9865455627441406, 0.8512021899223328, 0.7054003477096558, 0.48205217719078064, 0.6105020046234131, 0.697044312953949, 0.7330934405326843, 0.6579016447067261, 0.43495821952819824, 0.4853012263774872, 0.7141086459159851, 0.6238002181053162, 0.6167455315589905, 0.7773610949516296, 0.6175957322120667, 0.6329289674758911, 0.868351399898529, 0.6742978692054749, 0.274909108877182, 0.41527435183525085, 0.20389029383659363, 0.7699561715126038, 0.531794548034668, 0.5443133115768433, 0.2368030548095703, 0.30260857939720154, 0.44183215498924255, 0.17164236307144165, 0.385783314704895, 0.4105384945869446, 0.5059330463409424, 0.4569511413574219, 0.4875049591064453, 0.6678805947303772, 0.2566697299480438, 0.5871661305427551, 0.5654069185256958, 0.2597256004810333, 0.1453007459640503, 0.6462672352790833, 0.7920234799385071, 0.6165944933891296, 0.47206321358680725, 0.4598821699619293, 0.5211353302001953, 0.6798384785652161, 0.27166885137557983, 0.4618118703365326, 0.6313909292221069, 0.41993463039398193, 0.2062080353498459, 0.24255193769931793, 0.5795117616653442, 0.7004313468933105, 0.7999075651168823, 0.5931569933891296, 0.4229958951473236, 0.6003889441490173, 0.8044238090515137, 0.42098164558410645, 0.2576984465122223, 0.21664148569107056, 0.37067463994026184, 0.22964294254779816, 0.1252726912498474, 0.36026516556739807, 0.20134037733078003, 0.20240743458271027, 0.38365843892097473, 0.34826573729515076, 0.09683705866336823, 0.4297981858253479, 0.5763694643974304, 0.465724378824234, 0.36410394310951233, 0.24672450125217438, 0.47729143500328064, 0.23893961310386658, 0.5890493392944336, 0.4519060552120209, 0.273785799741745, 0.1668795496225357, 0.2733395993709564, 0.18294577300548553, 0.32648965716362, 0.6864635348320007, 0.2476024627685547, 0.32691413164138794, 0.3027247488498688, 0.02412443980574608, 0.03348326310515404, 0.027618354186415672, 0.024529442191123962, 0.039596982300281525, 0.030575605109333992, 0.07666489481925964, 0.09039406478404999, 0.11639662832021713, 0.07267554849386215, 0.1012725830078125, 0.06340181082487106, 0.0797126516699791, 0.08950336277484894, 0.08781521022319794, 0.0862959548830986, 0.0855291560292244, 0.0857345461845398, 0.08633498102426529, 0.08622994273900986, 0.08614034205675125, 0.08747690916061401, 0.08803775906562805, 0.08769027888774872, 0.08673204481601715, 0.08869820088148117, 0.08899857103824615, 0.0898476168513298, 0.0885726660490036, 0.08863808214664459, 0.0888696014881134, 0.08819004893302917, 0.08915052562952042, 0.08809744566679001, 0.08836068958044052, 0.08732716739177704, 0.08679842203855515, 0.08774270117282867, 0.08774322271347046]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9738389849662781</v>
+        <v>0.9877578020095825</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.8524096999899484</v>
+        <v>0.8584108000068227</v>
       </c>
       <c r="J89" t="n">
-        <v>0.005394998101202205</v>
+        <v>0.005432979746878624</v>
       </c>
     </row>
     <row r="90">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[0.1472150683403015, 0.13654030859470367, 0.16777193546295166, 0.12271537631750107, 0.14435788989067078, 0.12870067358016968, 0.15196338295936584, 0.12321197986602783, 0.17526699602603912, 0.17107664048671722, 0.11389221251010895, 0.2358068823814392, 0.16142798960208893, 0.1738518327474594, 0.1719113141298294, 0.06104008108377457, 0.07250115275382996, 0.15082918107509613, 0.09830330312252045, 0.1730719357728958, 0.1854638159275055, 0.10393842309713364, 0.13364571332931519, 0.19268092513084412, 0.22263172268867493, 0.156246617436409, 0.1694992333650589, 0.14528414607048035, 0.13620497286319733, 0.1707274615764618, 0.1534329503774643, 0.17182984948158264, 0.10970661044120789, 0.10038462281227112, 0.09860032051801682, 0.14382760226726532, 0.10663983970880508, 0.10765667259693146, 0.15569058060646057, 0.12687410414218903, 0.11614468693733215, 0.052868522703647614, 0.10142064839601517, 0.15275412797927856, 0.1153603121638298, 0.1382712423801422, 0.11308514326810837, 0.2035295069217682, 0.14839747548103333, 0.14923489093780518, 0.390421599149704, 0.3737975060939789, 0.15932506322860718, 0.13977091014385223, 0.16385586559772491, 0.2244291454553604, 0.2134963721036911, 0.23145243525505066, 0.3227788805961609, 0.18473392724990845, 0.20055057108402252, 0.13600260019302368, 0.21902932226657867, 0.13802459836006165, 0.14116328954696655, 0.19214077293872833, 0.1892215758562088, 0.2023623138666153, 0.1307564377784729, 0.13347885012626648, 0.10226677358150482, 0.1313910335302353, 0.11711277812719345, 0.07620517164468765, 0.10654447227716446, 0.09704546630382538, 0.09443491697311401, 0.11444075405597687, 0.08656711876392365, 0.094000905752182, 0.13649259507656097, 0.14815518260002136, 0.13772277534008026, 0.09421922266483307, 0.12265130132436752, 0.08724641799926758, 0.08858771622180939, 0.23545999825000763, 0.12055382877588272, 0.07974168658256531, 0.09925686568021774, 0.12043694406747818, 0.1841084063053131, 0.25752580165863037, 0.11392862349748611, 0.13686449825763702, 0.16876651346683502, 0.21976087987422943, 0.1430758684873581, 0.2209346890449524, 0.29291605949401855, 0.29286426305770874]</t>
+          <t>[0.0770038589835167, 0.06462623178958893, 0.06646299362182617, 0.04357867315411568, 0.07503899931907654, 0.08431138843297958, 0.09540660679340363, 0.06440065056085587, 0.08303219079971313, 0.08426937460899353, 0.06347911059856415, 0.15112867951393127, 0.1199919730424881, 0.10088999569416046, 0.09463092684745789, 0.024943780153989792, 0.02473575808107853, 0.07772589474916458, 0.04258164390921593, 0.07538294047117233, 0.07691015303134918, 0.03717895597219467, 0.05456136539578438, 0.11036939173936844, 0.1478845775127411, 0.08559847623109818, 0.1050264909863472, 0.07382714003324509, 0.049114443361759186, 0.06172989681363106, 0.062072817236185074, 0.08129729330539703, 0.04640121012926102, 0.046260710805654526, 0.04025883227586746, 0.06623857468366623, 0.04040843993425369, 0.03893163800239563, 0.05549122020602226, 0.04767976701259613, 0.04220544174313545, 0.01470820140093565, 0.03470183536410332, 0.05622934550046921, 0.03606156259775162, 0.04943692311644554, 0.03901727497577667, 0.0834236666560173, 0.04497504606842995, 0.08447140455245972, 0.3548417389392853, 0.3173430562019348, 0.08051636070013046, 0.07712825387716293, 0.07748329639434814, 0.13094817101955414, 0.1380765587091446, 0.16394510865211487, 0.22438305616378784, 0.12055530399084091, 0.09173676371574402, 0.05551779642701149, 0.10821579396724701, 0.05173831060528755, 0.06006656587123871, 0.10783254355192184, 0.07895148545503616, 0.08820772171020508, 0.05430047586560249, 0.06911007314920425, 0.04175082594156265, 0.054282017052173615, 0.0496329739689827, 0.022702815011143684, 0.036185745149850845, 0.05304214358329773, 0.03596629947423935, 0.04455762356519699, 0.029744520783424377, 0.0403161346912384, 0.05763711407780647, 0.04943899065256119, 0.0583721399307251, 0.03526010364294052, 0.04532516747713089, 0.028174638748168945, 0.04524238035082817, 0.13406746089458466, 0.04680972173810005, 0.02543242648243904, 0.03740831837058067, 0.047443218529224396, 0.08629098534584045, 0.17107152938842773, 0.051704201847314835, 0.07659447938203812, 0.08366568386554718, 0.12050436437129974, 0.07122498005628586, 0.15186874568462372, 0.22911617159843445, 0.22901341319084167]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.390421599149704</v>
+        <v>0.3548417389392853</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.5886917999887373</v>
+        <v>0.6065597999986494</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0057714882351837</v>
+        <v>0.005946664705869111</v>
       </c>
     </row>
     <row r="91">
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[0.1388433575630188, 0.12987054884433746, 0.1786442995071411, 0.1439443826675415, 0.08847155421972275, 0.2553366422653198, 0.33007097244262695, 0.09753934293985367, 0.15546029806137085, 0.08814788609743118, 0.12097413837909698, 0.08704639226198196, 0.2127913236618042, 0.1244724690914154, 0.20630870759487152, 0.19728735089302063, 0.2953599989414215, 0.2484370917081833, 0.1731373518705368, 0.08900532126426697, 0.1861768513917923, 0.2628510892391205, 0.17503713071346283, 0.16856050491333008, 0.09948038309812546, 0.11982759088277817, 0.16221092641353607, 0.12149370461702347, 0.13256478309631348, 0.10922054201364517, 0.1804375797510147, 0.18578048050403595, 0.317103773355484, 0.17724743485450745, 0.20115534961223602, 0.19951654970645905, 0.15270130336284637, 0.10208374261856079, 0.07677440345287323, 0.06564454734325409, 0.06976901739835739, 0.06141535937786102, 0.10640262812376022, 0.07727067172527313, 0.11548631638288498, 0.13278156518936157, 0.09608941525220871, 0.09699011594057083, 0.14703133702278137, 0.13681204617023468, 0.12067224830389023, 0.11133748292922974, 0.14090874791145325, 0.15511521697044373, 0.23380281031131744, 0.145736962556839, 0.20556709170341492, 0.10243909806013107, 0.2528653144836426, 0.10817017406225204, 0.2132682502269745, 0.16475369036197662, 0.13319335877895355, 0.08262448757886887, 0.09208320081233978, 0.1132424846291542, 0.07903459668159485, 0.1124475821852684, 0.09119180589914322, 0.12473341077566147, 0.1196829080581665, 0.20270977914333344, 0.07810995727777481, 0.1466747224330902, 0.12493863701820374, 0.14072903990745544, 0.1285264790058136, 0.11763989180326462, 0.19405163824558258, 0.15577246248722076, 0.16178373992443085, 0.13789337873458862, 0.17342998087406158, 0.05358292534947395, 0.07052438706159592, 0.071785569190979, 0.11070579290390015, 0.08603101223707199, 0.0771428644657135, 0.15262682735919952, 0.14614132046699524, 0.2267688661813736, 0.13528428971767426, 0.12500329315662384, 0.1706569790840149, 0.10330990701913834, 0.17745144665241241, 0.148927703499794, 0.16283544898033142, 0.2999422550201416, 0.5195581912994385, 0.5153964161872864]</t>
+          <t>[0.10887093096971512, 0.11042387783527374, 0.17510353028774261, 0.10688212513923645, 0.05591074377298355, 0.2285018116235733, 0.2663972079753876, 0.05714789032936096, 0.1417822688817978, 0.041299968957901, 0.10147186368703842, 0.06107950583100319, 0.1762976199388504, 0.07715319842100143, 0.14589205384254456, 0.15950195491313934, 0.22240248322486877, 0.21979770064353943, 0.12633036077022552, 0.054187875241041183, 0.16806119680404663, 0.26036688685417175, 0.13902737200260162, 0.11602438241243362, 0.0576714389026165, 0.08106739073991776, 0.12221172451972961, 0.10966379195451736, 0.14426642656326294, 0.10292834788560867, 0.16543667018413544, 0.15401609241962433, 0.36180609464645386, 0.12857574224472046, 0.17745336890220642, 0.1419886201620102, 0.14773857593536377, 0.08069141954183578, 0.04477430507540703, 0.028644153848290443, 0.054166968911886215, 0.03559141978621483, 0.08196554332971573, 0.0483890026807785, 0.08415937423706055, 0.10738961398601532, 0.07971930503845215, 0.07480137050151825, 0.12628373503684998, 0.1147085502743721, 0.08454492688179016, 0.09069552272558212, 0.15305648744106293, 0.14101406931877136, 0.19746777415275574, 0.14594775438308716, 0.2137424498796463, 0.06613106280565262, 0.2656635344028473, 0.10771773010492325, 0.20695152878761292, 0.12857331335544586, 0.07645025849342346, 0.0528319850564003, 0.06337272375822067, 0.11222654581069946, 0.06879331916570663, 0.1350369155406952, 0.1083216592669487, 0.11018817126750946, 0.12447687238454819, 0.1658281832933426, 0.053265281021595, 0.12005952000617981, 0.103716179728508, 0.08829694986343384, 0.11307849735021591, 0.09914175420999527, 0.12879297137260437, 0.08794325590133667, 0.12860628962516785, 0.07148955762386322, 0.08042628318071365, 0.03674585744738579, 0.0519818477332592, 0.05215531215071678, 0.07616154104471207, 0.06423916667699814, 0.06166471913456917, 0.20420263707637787, 0.15597642958164215, 0.22974371910095215, 0.1345541775226593, 0.11627104133367538, 0.179787740111351, 0.09282597154378891, 0.18146318197250366, 0.1336401402950287, 0.15790633857250214, 0.32521605491638184, 0.5750697255134583, 0.5701949000358582]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.5195581912994385</v>
+        <v>0.5750697255134583</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.5823695000144653</v>
+        <v>0.5814899999968475</v>
       </c>
       <c r="J91" t="n">
-        <v>0.005709504902102601</v>
+        <v>0.00570088235291027</v>
       </c>
     </row>
     <row r="92">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[0.15378253161907196, 0.1497509628534317, 0.20429526269435883, 0.1019001379609108, 0.11797518283128738, 0.19949857890605927, 0.087980717420578, 0.12407026439905167, 0.15095950663089752, 0.08611802011728287, 0.11119765043258667, 0.12561878561973572, 0.12827003002166748, 0.24222980439662933, 0.22063805162906647, 0.33386245369911194, 0.25301820039749146, 0.11502838879823685, 0.10279050469398499, 0.06930793076753616, 0.1912441998720169, 0.1402190774679184, 0.15780338644981384, 0.10100319981575012, 0.18440212309360504, 0.14354902505874634, 0.20054863393306732, 0.0899229645729065, 0.08899495005607605, 0.10597921907901764, 0.18714487552642822, 0.36099672317504883, 0.2917659282684326, 0.20365580916404724, 0.2692665159702301, 0.25322631001472473, 0.230179563164711, 0.17936617136001587, 0.21178849041461945, 0.24488399922847748, 0.1449626088142395, 0.1543661504983902, 0.13713498413562775, 0.16141322255134583, 0.08573585748672485, 0.40036484599113464, 0.30391478538513184, 0.5110711455345154, 0.3833286464214325, 0.22929154336452484, 0.16327179968357086, 0.16043053567409515, 0.2739722430706024, 0.15655766427516937, 0.2093329131603241, 0.12042336910963058, 0.17137284576892853, 0.09931786358356476, 0.07705538719892502, 0.1762174367904663, 0.322642982006073, 0.12571334838867188, 0.10076246410608292, 0.09629901498556137, 0.12136706709861755, 0.20324678719043732, 0.11644018441438675, 0.19557927548885345, 0.18573063611984253, 0.13966898620128632, 0.07282770425081253, 0.15356788039207458, 0.1787123680114746, 0.12084438651800156, 0.12936769425868988, 0.18392474949359894, 0.1287626326084137, 0.1216697096824646, 0.10356958955526352, 0.09672225266695023, 0.17775137722492218, 0.13126666843891144, 0.09705530852079391, 0.10542705655097961, 0.10223381221294403, 0.10829342901706696, 0.07005060464143753, 0.10670525580644608, 0.08510502427816391, 0.08767129480838776, 0.15509581565856934, 0.1592005342245102, 0.11558916419744492, 0.13098303973674774, 0.15813976526260376, 0.2098228633403778, 0.17378252744674683, 0.17734037339687347, 0.18656061589717865, 0.1864398717880249]</t>
+          <t>[0.14925234019756317, 0.1412554383277893, 0.1703486293554306, 0.09174617379903793, 0.10026685893535614, 0.17537280917167664, 0.05496680736541748, 0.07491577416658401, 0.10730550438165665, 0.04763732850551605, 0.07418911904096603, 0.09012989699840546, 0.1197575032711029, 0.21776118874549866, 0.19332683086395264, 0.29053613543510437, 0.23130609095096588, 0.09670695662498474, 0.064533531665802, 0.04412832111120224, 0.10897481441497803, 0.08746413141489029, 0.11833041161298752, 0.06260693818330765, 0.15397627651691437, 0.09276171028614044, 0.18346750736236572, 0.05830777436494827, 0.04615861922502518, 0.0863657221198082, 0.12484283000230789, 0.4366457164287567, 0.2907930016517639, 0.17574353516101837, 0.22975105047225952, 0.2833234369754791, 0.21459119021892548, 0.15912990272045135, 0.2221234291791916, 0.26536449790000916, 0.11896581947803497, 0.16382858157157898, 0.12647642195224762, 0.12598271667957306, 0.06825067102909088, 0.4526618421077728, 0.341217577457428, 0.7062138915061951, 0.5019840002059937, 0.30753207206726074, 0.15788188576698303, 0.1776924431324005, 0.28154510259628296, 0.14308786392211914, 0.19202762842178345, 0.09066592156887054, 0.14856499433517456, 0.07849825173616409, 0.05202804133296013, 0.1744246780872345, 0.39235422015190125, 0.1257687211036682, 0.09564164280891418, 0.0751614198088646, 0.12800058722496033, 0.1907837837934494, 0.07564251869916916, 0.18242470920085907, 0.14227870106697083, 0.09073740988969803, 0.04216012731194496, 0.1308983713388443, 0.1211162656545639, 0.06816740334033966, 0.0735410526394844, 0.14229202270507812, 0.09651658684015274, 0.08787909150123596, 0.080692358314991, 0.06377832591533661, 0.14200663566589355, 0.08216017484664917, 0.055859245359897614, 0.07431414723396301, 0.060122691094875336, 0.05644872784614563, 0.03041478991508484, 0.0653383880853653, 0.055922675877809525, 0.07284179329872131, 0.11430493742227554, 0.12877033650875092, 0.06922359019517899, 0.0909513384103775, 0.12134869396686554, 0.19596178829669952, 0.22445213794708252, 0.15688025951385498, 0.18034642934799194, 0.18058215081691742]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.5110711455345154</v>
+        <v>0.7062138915061951</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.5704104999895208</v>
+        <v>0.5710713000007672</v>
       </c>
       <c r="J92" t="n">
-        <v>0.005704104999895207</v>
+        <v>0.005710713000007672</v>
       </c>
     </row>
     <row r="93">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[0.4821661114692688, 0.19274713099002838, 0.24927474558353424, 0.13016636669635773, 0.14301030337810516, 0.28910931944847107, 0.3028530776500702, 0.2127627730369568, 0.3318459391593933, 0.2784911096096039, 0.20848795771598816, 0.189571812748909, 0.18629233539104462, 0.15134090185165405, 0.1791100949048996, 0.1540684849023819, 0.1125151738524437, 0.21007321774959564, 0.25081580877304077, 0.22815412282943726, 0.3590688705444336, 0.3029809594154358, 0.7721459269523621, 0.2984467148780823, 0.228631854057312, 0.19991159439086914, 0.2723630368709564, 0.14633846282958984, 0.11643726378679276, 0.16402694582939148, 0.12814557552337646, 0.1615428924560547, 0.2042788565158844, 0.2484540194272995, 0.30215492844581604, 0.16304466128349304, 0.11156393587589264, 0.15359121561050415, 0.2396814525127411, 0.18445390462875366, 0.2619355320930481, 0.1970098614692688, 0.1985662877559662, 0.21178340911865234, 0.1280795931816101, 0.3057451546192169, 0.20417053997516632, 0.16328825056552887, 0.12600569427013397, 0.12050578743219376, 0.25326019525527954, 0.2067352682352066, 0.21003684401512146, 0.38777780532836914, 0.4401630163192749, 0.4516894817352295, 0.6513916254043579, 0.333173006772995, 0.533216655254364, 0.3593693971633911, 0.3186003565788269, 0.5253409743309021, 0.5160239338874817, 0.5175709128379822, 0.2672760784626007, 0.14298444986343384, 0.1854640692472458, 0.2452457696199417, 0.4181828200817108, 0.502548336982727, 0.6223240494728088, 0.37321406602859497, 0.3290576636791229, 0.18971462547779083, 0.09531243145465851, 0.12853966653347015, 0.18814508616924286, 0.13468720018863678, 0.09298710525035858, 0.24725110828876495, 0.2831393778324127, 0.16381758451461792, 0.15076963603496552, 0.26065272092819214, 0.17384089529514313, 0.11261460930109024, 0.16948647797107697, 0.27683618664741516, 0.11003631353378296, 0.16682888567447662, 0.11261174082756042, 0.12028881907463074, 0.07417918741703033, 0.1945962905883789, 0.10736504942178726, 0.12593916058540344, 0.12822163105010986, 0.17092056572437286, 0.10637111961841583, 0.1504439264535904, 0.2695479393005371, 0.26948457956314087]</t>
+          <t>[0.5196537375450134, 0.14367997646331787, 0.18565808236598969, 0.07104440033435822, 0.09432067722082138, 0.1863066405057907, 0.3082472085952759, 0.18897227942943573, 0.29774513840675354, 0.26168912649154663, 0.15174640715122223, 0.15801505744457245, 0.12507082521915436, 0.1059519425034523, 0.10886096954345703, 0.12443279474973679, 0.06398066878318787, 0.1609065681695938, 0.21067757904529572, 0.20294614136219025, 0.3554653227329254, 0.32302793860435486, 0.9093492031097412, 0.27387022972106934, 0.15297502279281616, 0.1330680251121521, 0.2785147428512573, 0.07837692648172379, 0.06210188567638397, 0.09489630162715912, 0.07181047648191452, 0.1079423725605011, 0.12807856500148773, 0.14669175446033478, 0.19714988768100739, 0.08670281618833542, 0.04858572036027908, 0.12592366337776184, 0.2023308426141739, 0.13335642218589783, 0.16769957542419434, 0.1092640683054924, 0.14856523275375366, 0.17740440368652344, 0.08847387135028839, 0.32263898849487305, 0.19110944867134094, 0.11574029922485352, 0.08244308829307556, 0.08092653751373291, 0.2183365821838379, 0.19288429617881775, 0.20152758061885834, 0.44479870796203613, 0.5129995942115784, 0.4622693657875061, 0.7472409009933472, 0.3531787395477295, 0.6320727467536926, 0.38478854298591614, 0.331092894077301, 0.6022310853004456, 0.5918698310852051, 0.662334144115448, 0.3299138844013214, 0.13330648839473724, 0.2103772610425949, 0.2870601713657379, 0.5143876671791077, 0.6050713658332825, 0.7595614194869995, 0.47314363718032837, 0.5379607677459717, 0.16491909325122833, 0.07901289314031601, 0.103852778673172, 0.15929871797561646, 0.11634214967489243, 0.06473691016435623, 0.25218167901039124, 0.26120081543922424, 0.13145290315151215, 0.08380018919706345, 0.23371660709381104, 0.16593623161315918, 0.06425374746322632, 0.10204878449440002, 0.26024967432022095, 0.06942638009786606, 0.14910227060317993, 0.099508136510849, 0.09613499790430069, 0.054422080516815186, 0.1993079036474228, 0.07231686264276505, 0.11161790043115616, 0.12192444503307343, 0.16243350505828857, 0.08584246784448624, 0.12393443286418915, 0.3011147677898407, 0.30094078183174133]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.7721459269523621</v>
+        <v>0.9093492031097412</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.5863947000179905</v>
+        <v>0.5871881000057328</v>
       </c>
       <c r="J93" t="n">
-        <v>0.005748967647235201</v>
+        <v>0.005756746078487577</v>
       </c>
     </row>
     <row r="94">
@@ -4285,11 +4285,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[0.27166691422462463, 0.31752631068229675, 0.21538448333740234, 0.2583076059818268, 0.3163522779941559, 0.4158875644207001, 0.5423930287361145, 0.4786566197872162, 0.570627748966217, 0.429923415184021, 0.6146909594535828, 0.45331063866615295, 0.4297768175601959, 0.36527782678604126, 0.4211556613445282, 0.4887571334838867, 0.40440112352371216, 0.5595203042030334, 0.2781774699687958, 0.25714531540870667, 0.2759649157524109, 0.480420857667923, 0.20915567874908447, 0.4748052656650543, 0.4368442893028259, 0.3309257924556732, 0.24807094037532806, 0.34964075684547424, 0.375466525554657, 0.41788560152053833, 0.46886712312698364, 0.2665644586086273, 0.2438896745443344, 0.36721181869506836, 0.4876703917980194, 0.5205333828926086, 0.40000250935554504, 0.5254889726638794, 0.3769991993904114, 0.4482157230377197, 0.38967248797416687, 0.3688414394855499, 0.46990787982940674, 0.4729277491569519, 0.6339151263237, 0.4509858787059784, 0.4143945276737213, 0.5750378370285034, 0.7170405387878418, 0.7309579849243164, 0.4460529386997223, 0.5263357758522034, 0.40720757842063904, 0.4831832945346832, 0.3261203467845917, 0.42372971773147583, 0.45934736728668213, 0.5133295059204102, 0.3539040684700012, 0.5126057863235474, 0.5292803049087524, 0.43229731917381287, 0.2748676836490631, 0.3724815547466278, 0.40219128131866455, 0.4031001329421997, 0.38626521825790405, 0.3485923409461975, 0.5496491193771362, 0.28118979930877686, 0.24766500294208527, 0.2568327784538269, 0.3858254551887512, 0.42256712913513184, 0.46384820342063904, 0.301156222820282, 0.21812909841537476, 0.43978384137153625, 0.4567936658859253, 0.7139809727668762, 0.5196284651756287, 0.3890268802642822, 0.36667177081108093, 0.35074397921562195, 0.35161107778549194, 0.46142202615737915, 0.34354549646377563, 0.2226996272802353, 0.29881471395492554, 0.41934412717819214, 0.4793877601623535, 0.4602583646774292, 0.26295021176338196, 0.3323664367198944, 0.2469911426305771, 0.15250110626220703, 0.30136576294898987, 0.34324151277542114, 0.5052127242088318, 0.34895068407058716, 0.3941024839878082, 0.3913131058216095]</t>
+          <t>[0.14270682632923126, 0.1946827471256256, 0.13686825335025787, 0.18600155413150787, 0.2276897430419922, 0.358783483505249, 0.45860329270362854, 0.403005987405777, 0.5036060810089111, 0.3127124607563019, 0.5281950235366821, 0.34953954815864563, 0.339664101600647, 0.2847632169723511, 0.31436002254486084, 0.4129566252231598, 0.3955554664134979, 0.5489720702171326, 0.19156751036643982, 0.2113218754529953, 0.1806771457195282, 0.3734646439552307, 0.12510353326797485, 0.3586920499801636, 0.3401974141597748, 0.2546079158782959, 0.15573112666606903, 0.30561038851737976, 0.34059077501296997, 0.33747538924217224, 0.37289533019065857, 0.22998422384262085, 0.21447496116161346, 0.306599885225296, 0.47797560691833496, 0.4840621054172516, 0.30926698446273804, 0.4211203455924988, 0.3466658890247345, 0.3993954658508301, 0.33863139152526855, 0.27308881282806396, 0.4097292721271515, 0.4419022500514984, 0.6481410264968872, 0.3683792054653168, 0.3461376428604126, 0.5180643200874329, 0.7828319668769836, 0.7429596185684204, 0.3258497714996338, 0.45321252942085266, 0.23836477100849152, 0.39402952790260315, 0.20505395531654358, 0.34292471408843994, 0.403001606464386, 0.4308371841907501, 0.25759217143058777, 0.4364631772041321, 0.47125521302223206, 0.3816714584827423, 0.23740777373313904, 0.35573846101760864, 0.3673968017101288, 0.41099801659584045, 0.37263426184654236, 0.3328472971916199, 0.5844461917877197, 0.22972315549850464, 0.1851154863834381, 0.15536454319953918, 0.3138713538646698, 0.3655431270599365, 0.44634902477264404, 0.25027576088905334, 0.14217591285705566, 0.33485671877861023, 0.3408597707748413, 0.6307066082954407, 0.5169815421104431, 0.3483719527721405, 0.3129132091999054, 0.33829158544540405, 0.29320818185806274, 0.3756060004234314, 0.28383344411849976, 0.2084711194038391, 0.20799620449543, 0.3599329888820648, 0.43919306993484497, 0.4187384843826294, 0.20534752309322357, 0.23558436334133148, 0.14800739288330078, 0.08244726806879044, 0.2140159159898758, 0.21807846426963806, 0.3615154027938843, 0.24281246960163116, 0.31450799107551575, 0.3119030296802521]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.7309579849243164</v>
+        <v>0.7828319668769836</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.5843720000120811</v>
+        <v>0.5979447999998229</v>
       </c>
       <c r="J94" t="n">
-        <v>0.005729137255020403</v>
+        <v>0.005862203921566891</v>
       </c>
     </row>
     <row r="95">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[0.21235990524291992, 0.265022873878479, 0.280015230178833, 0.6459792852401733, 0.4741896688938141, 0.5221945643424988, 0.4324796497821808, 0.6051715016365051, 0.40589800477027893, 0.5021648406982422, 0.5103487372398376, 0.5611382126808167, 0.8735703825950623, 0.6290690898895264, 0.6055574417114258, 0.5075839161872864, 0.347148060798645, 0.24119772017002106, 0.4787403643131256, 0.5698580741882324, 0.46118560433387756, 0.29502594470977783, 0.36950746178627014, 0.3105500042438507, 0.4198743999004364, 0.40782827138900757, 0.39385688304901123, 0.2912451922893524, 0.3193855285644531, 0.41655659675598145, 0.55767422914505, 0.5895332098007202, 0.5398300886154175, 0.6539075374603271, 0.6451188325881958, 0.7125163674354553, 0.33675113320350647, 0.49013713002204895, 0.5250319242477417, 0.546511173248291, 0.3737686276435852, 0.3019755184650421, 0.32471224665641785, 0.35288989543914795, 0.2605050504207611, 0.2886026203632355, 0.29651400446891785, 0.3924206495285034, 0.6358310580253601, 0.486223429441452, 0.47695812582969666, 0.5025897026062012, 0.4117504060268402, 0.5076245665550232, 0.48627567291259766, 0.2806553840637207, 0.2664594054222107, 0.40911248326301575, 0.406286358833313, 0.28983011841773987, 0.43661436438560486, 0.3794231116771698, 0.4031147062778473, 0.41993027925491333, 0.3558543026447296, 0.5385552048683167, 0.3282196521759033, 0.4113222360610962, 0.3402061462402344, 0.4393478333950043, 0.3545491397380829, 0.19650200009346008, 0.3486919403076172, 0.3026900887489319, 0.27513372898101807, 0.2852346897125244, 0.28281790018081665, 0.2680017650127411, 0.3698044419288635, 0.2613365650177002, 0.4146745204925537, 0.4518463909626007, 0.5061609745025635, 0.304256409406662, 0.4029558002948761, 0.5477481484413147, 0.5808230042457581, 0.5753730535507202, 0.7133324146270752, 0.6953367590904236, 0.5294413566589355, 0.37122219800949097, 0.43143919110298157, 0.38353046774864197, 0.4943464398384094, 0.3845328986644745, 0.3643053472042084, 0.6745440363883972, 0.6064407229423523, 0.5807329416275024, 0.4116624593734741, 0.4125995337963104]</t>
+          <t>[0.12686435878276825, 0.16980524361133575, 0.2028377503156662, 0.6169400811195374, 0.34997785091400146, 0.34154072403907776, 0.34008094668388367, 0.5367072224617004, 0.3699439465999603, 0.4118180572986603, 0.3699215352535248, 0.4622807502746582, 0.8527582287788391, 0.6257601976394653, 0.4829907715320587, 0.4106496274471283, 0.2478720098733902, 0.1519361436367035, 0.41128209233283997, 0.5644404888153076, 0.37513870000839233, 0.19625626504421234, 0.27933287620544434, 0.22662441432476044, 0.2827341556549072, 0.2925243377685547, 0.2726341187953949, 0.23082837462425232, 0.20974469184875488, 0.28510189056396484, 0.5245958566665649, 0.491777241230011, 0.5081049799919128, 0.5967419743537903, 0.639180064201355, 0.6865832805633545, 0.2586051821708679, 0.4602530002593994, 0.45605021715164185, 0.5627797245979309, 0.30442193150520325, 0.22310806810855865, 0.31664276123046875, 0.4255830645561218, 0.2560253441333771, 0.2835148870944977, 0.1960538625717163, 0.26048722863197327, 0.5676889419555664, 0.38206368684768677, 0.4251285195350647, 0.4366418719291687, 0.3011040687561035, 0.4174649119377136, 0.4034000039100647, 0.15594254434108734, 0.1363791674375534, 0.29232102632522583, 0.28000012040138245, 0.17264658212661743, 0.33966150879859924, 0.3083002269268036, 0.2995135188102722, 0.3147464394569397, 0.2837267220020294, 0.44450920820236206, 0.21927344799041748, 0.3208213448524475, 0.27714449167251587, 0.38840579986572266, 0.3027360439300537, 0.10834609717130661, 0.18457965552806854, 0.180061936378479, 0.18102838099002838, 0.20637297630310059, 0.20837165415287018, 0.14688043296337128, 0.2383810430765152, 0.1663864701986313, 0.30521655082702637, 0.2786025106906891, 0.38459277153015137, 0.16878977417945862, 0.31818678975105286, 0.4922521710395813, 0.46293938159942627, 0.4905327558517456, 0.6620892286300659, 0.5940786004066467, 0.4558386504650116, 0.23453830182552338, 0.3193700611591339, 0.2692578434944153, 0.4834223985671997, 0.24055327475070953, 0.25023165345191956, 0.5367180109024048, 0.48367440700531006, 0.42890194058418274, 0.2729230523109436, 0.2739519774913788]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.8735703825950623</v>
+        <v>0.8527582287788391</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.6664175000041723</v>
+        <v>0.6835065999912331</v>
       </c>
       <c r="J95" t="n">
-        <v>0.006533504902001689</v>
+        <v>0.006701045097953265</v>
       </c>
     </row>
     <row r="96">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[0.10699676722288132, 0.11413482576608658, 0.15414893627166748, 0.25815117359161377, 0.14017382264137268, 0.15424571931362152, 0.11839156597852707, 0.18207399547100067, 0.3103424310684204, 0.24060532450675964, 0.19069045782089233, 0.23314803838729858, 0.2553471624851227, 0.12913884222507477, 0.15624429285526276, 0.2017420083284378, 0.12982283532619476, 0.16920369863510132, 0.1459396928548813, 0.1179446205496788, 0.10775976628065109, 0.10914253443479538, 0.15390606224536896, 0.13226036727428436, 0.13458208739757538, 0.10360363870859146, 0.09306507557630539, 0.08934645354747772, 0.1295948177576065, 0.18591055274009705, 0.14383146166801453, 0.1141972616314888, 0.16276881098747253, 0.18151283264160156, 0.11809193342924118, 0.15712757408618927, 0.14153169095516205, 0.13851356506347656, 0.0960979089140892, 0.1239413246512413, 0.12878040969371796, 0.12813803553581238, 0.16793487966060638, 0.09964664280414581, 0.13237164914608002, 0.10724949836730957, 0.1201603040099144, 0.14507314562797546, 0.10677620023488998, 0.12140245735645294, 0.10446327179670334, 0.14745952188968658, 0.20026712119579315, 0.20828284323215485, 0.24678462743759155, 0.2237386703491211, 0.2685644328594208, 0.17770051956176758, 0.17366190254688263, 0.1864665001630783, 0.1280386596918106, 0.1935841292142868, 0.12470268458127975, 0.19437898695468903, 0.16728608310222626, 0.22732433676719666, 0.27796220779418945, 0.18080204725265503, 0.15075625479221344, 0.18759943544864655, 0.1309717446565628, 0.15543481707572937, 0.09752557426691055, 0.11352546513080597, 0.0907030776143074, 0.125400573015213, 0.1185714527964592, 0.22316601872444153, 0.11688654869794846, 0.11530192196369171, 0.1055402159690857, 0.09619956463575363, 0.07667705416679382, 0.16985338926315308, 0.12471253424882889, 0.1596544235944748, 0.10858485847711563, 0.10977570712566376, 0.07945304363965988, 0.0725717693567276, 0.10431356728076935, 0.18426887691020966, 0.15703155100345612, 0.10149795562028885, 0.14928773045539856, 0.15318316221237183, 0.37595170736312866, 0.20403681695461273, 0.2890382707118988, 0.2655320167541504, 0.1987447887659073, 0.11954309791326523, 0.11949041485786438]</t>
+          <t>[0.03929790481925011, 0.04656260833144188, 0.06295134127140045, 0.12493135780096054, 0.05052211135625839, 0.07891762256622314, 0.03446533903479576, 0.08073005825281143, 0.18164291977882385, 0.1078958511352539, 0.08923328667879105, 0.09824351221323013, 0.10033763945102692, 0.0532989539206028, 0.05391707643866539, 0.09192047268152237, 0.04218648001551628, 0.08521262556314468, 0.0529853031039238, 0.04928762838244438, 0.04534238576889038, 0.03834350407123566, 0.0712183266878128, 0.05618291720747948, 0.05105209723114967, 0.03825908154249191, 0.03670172020792961, 0.039695147424936295, 0.05226719751954079, 0.12540693581104279, 0.08344990015029907, 0.058027658611536026, 0.06506042927503586, 0.06460059434175491, 0.044290296733379364, 0.07010648399591446, 0.06346249580383301, 0.05775609239935875, 0.04516531527042389, 0.056891631335020065, 0.05011816322803497, 0.0613337941467762, 0.10375615954399109, 0.03971126675605774, 0.0685691088438034, 0.04108987748622894, 0.04118383303284645, 0.04788811877369881, 0.04362417757511139, 0.053198955953121185, 0.05298840254545212, 0.07094083726406097, 0.1126069501042366, 0.10287174582481384, 0.14773230254650116, 0.09267186373472214, 0.141037717461586, 0.08197404444217682, 0.08414982259273529, 0.08996154367923737, 0.05102560669183731, 0.08142551779747009, 0.03893528878688812, 0.08896525949239731, 0.06425156444311142, 0.12535519897937775, 0.12844423949718475, 0.08467122167348862, 0.059366997331380844, 0.07423565536737442, 0.0486624613404274, 0.07040748745203018, 0.031702205538749695, 0.04215569049119949, 0.026911871507763863, 0.05401339381933212, 0.039337169378995895, 0.07951588183641434, 0.030209597200155258, 0.034538816660642624, 0.03404061123728752, 0.034332796931266785, 0.024499667808413506, 0.06118438392877579, 0.043203119188547134, 0.06013917550444603, 0.05039667710661888, 0.08078616112470627, 0.02899116277694702, 0.020853416994214058, 0.031001515686511993, 0.06506741791963577, 0.05473964661359787, 0.02655097469687462, 0.05317571386694908, 0.08740120381116867, 0.24228307604789734, 0.10924278944730759, 0.1854272484779358, 0.18364478647708893, 0.1031513437628746, 0.04403160139918327, 0.04388294368982315]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.3759517073631287</v>
+        <v>0.2422830760478973</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.5888097000133712</v>
+        <v>0.5878853000031086</v>
       </c>
       <c r="J96" t="n">
-        <v>0.005716599029256031</v>
+        <v>0.005707624271874841</v>
       </c>
     </row>
     <row r="97">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0.06912308186292648, 0.09847810119390488, 0.058663804084062576, 0.11997479200363159, 0.22748997807502747, 0.132977694272995, 0.1001145988702774, 0.19377543032169342, 0.09330657124519348, 0.2177228182554245, 0.1765236258506775, 0.07087559998035431, 0.08433980494737625, 0.24925048649311066, 0.18678264319896698, 0.12332411110401154, 0.0894882008433342, 0.1187296211719513, 0.07882700115442276, 0.2910507619380951, 0.11109194904565811, 0.1008782759308815, 0.1437971293926239, 0.09168893098831177, 0.13687115907669067, 0.1077238917350769, 0.0725950226187706, 0.12293820828199387, 0.13783711194992065, 0.22675998508930206, 0.16064085066318512, 0.13944070041179657, 0.18612121045589447, 0.1456761509180069, 0.2607976794242859, 0.11775963008403778, 0.1387772560119629, 0.28601929545402527, 0.11987148225307465, 0.09107687324285507, 0.07681728154420853, 0.07450702786445618, 0.09045051783323288, 0.10451150685548782, 0.17901711165905, 0.2501584589481354, 0.08599359542131424, 0.15938779711723328, 0.1280433088541031, 0.1177796721458435, 0.14284323155879974, 0.12974010407924652, 0.11223389208316803, 0.19907565414905548, 0.24767304956912994, 0.12832947075366974, 0.20009204745292664, 0.08941840380430222, 0.11522973328828812, 0.06280521303415298, 0.06532203406095505, 0.12752409279346466, 0.11358845233917236, 0.08257818967103958, 0.2748650014400482, 0.27526742219924927, 0.16085843741893768, 0.16216140985488892, 0.10731960833072662, 0.18853549659252167, 0.15271396934986115, 0.16831287741661072, 0.19923970103263855, 0.19634312391281128, 0.10740556567907333, 0.06940235197544098, 0.14122216403484344, 0.06302918493747711, 0.1057453453540802, 0.12401752918958664, 0.17519687116146088, 0.10437838733196259, 0.08944036066532135, 0.12950943410396576, 0.09598042070865631, 0.10311781615018845, 0.15248578786849976, 0.17718720436096191, 0.09556350111961365, 0.13499201834201813, 0.1371903270483017, 0.09687157720327377, 0.13264791667461395, 0.13034644722938538, 0.059744153171777725, 0.11800871789455414, 0.15432235598564148, 0.17472870647907257, 0.2111445814371109, 0.1736128330230713, 0.08823873102664948, 0.22892765700817108, 0.22852540016174316]</t>
+          <t>[0.020322352647781372, 0.04281561076641083, 0.02107314020395279, 0.061634209007024765, 0.09981295466423035, 0.0905950665473938, 0.051891621202230453, 0.146665558218956, 0.06712877750396729, 0.18382319808006287, 0.11611823737621307, 0.03618486598134041, 0.04789132624864578, 0.18385258316993713, 0.1410714089870453, 0.08805190771818161, 0.037796784192323685, 0.06428707391023636, 0.04891509190201759, 0.23553146421909332, 0.057572994381189346, 0.04467262700200081, 0.06090214103460312, 0.035464514046907425, 0.051339566707611084, 0.04913992062211037, 0.034694574773311615, 0.08098599314689636, 0.0836842954158783, 0.18290875852108002, 0.12209107726812363, 0.07869768142700195, 0.11868467926979065, 0.09023654460906982, 0.26325249671936035, 0.0605531744658947, 0.10115157067775726, 0.19378486275672913, 0.0663282573223114, 0.035620108246803284, 0.038438405841588974, 0.03446551039814949, 0.037445664405822754, 0.048798780888319016, 0.10687915980815887, 0.18401095271110535, 0.04139936342835426, 0.09066542983055115, 0.07279837131500244, 0.061530981212854385, 0.0802948996424675, 0.08086886256933212, 0.042023226618766785, 0.13338707387447357, 0.18962720036506653, 0.07481095939874649, 0.15239280462265015, 0.0554499588906765, 0.07624336332082748, 0.028108971193432808, 0.03867528960108757, 0.10082858055830002, 0.10329534113407135, 0.051220767199993134, 0.2215285450220108, 0.21498152613639832, 0.08220601081848145, 0.10266769677400589, 0.06376492977142334, 0.1295478492975235, 0.10531090945005417, 0.10150373727083206, 0.13398133218288422, 0.12234032154083252, 0.05692595988512039, 0.03062521107494831, 0.06824325025081635, 0.026034828275442123, 0.05343228578567505, 0.054783642292022705, 0.09001074731349945, 0.04387588053941727, 0.040873683989048004, 0.07256186753511429, 0.040860045701265335, 0.036367639899253845, 0.08607427030801773, 0.09538837522268295, 0.03969450294971466, 0.05135466158390045, 0.100113645195961, 0.05348403379321098, 0.06856357306241989, 0.05499574542045593, 0.02425513230264187, 0.05839657410979271, 0.09768622368574142, 0.10575278103351593, 0.11231178045272827, 0.08740534633398056, 0.03601539507508278, 0.10496709495782852, 0.10470721125602722]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.2910507619380951</v>
+        <v>0.2632524967193604</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.5870956999715418</v>
+        <v>0.5878902000113158</v>
       </c>
       <c r="J97" t="n">
-        <v>0.005699958252150891</v>
+        <v>0.005707671844770056</v>
       </c>
     </row>
     <row r="98">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[0.20363014936447144, 0.12812575697898865, 0.12325232475996017, 0.09325762093067169, 0.12189457565546036, 0.07684803754091263, 0.09358402341604233, 0.11774387955665588, 0.12758414447307587, 0.19970688223838806, 0.25408321619033813, 0.19686321914196014, 0.2343403398990631, 0.3029106855392456, 0.31965941190719604, 0.17445148527622223, 0.12908245623111725, 0.1379704475402832, 0.1503203809261322, 0.16960640251636505, 0.19612033665180206, 0.11021014302968979, 0.10760606825351715, 0.11170279234647751, 0.09035417437553406, 0.09798474609851837, 0.054023705422878265, 0.07597660273313522, 0.08879546076059341, 0.0751422792673111, 0.07246916741132736, 0.196867898106575, 0.2380961775779724, 0.26307758688926697, 0.12443985790014267, 0.1105547696352005, 0.17053598165512085, 0.11467920988798141, 0.13193950057029724, 0.09386692941188812, 0.14874418079853058, 0.1832267791032791, 0.13286474347114563, 0.15551820397377014, 0.10731255263090134, 0.14307604730129242, 0.06320950388908386, 0.12966184318065643, 0.09425463527441025, 0.1450989693403244, 0.12549778819084167, 0.08639590442180634, 0.1154845803976059, 0.12335377186536789, 0.11781210452318192, 0.10562719404697418, 0.09879697859287262, 0.08442787081003189, 0.11281175166368484, 0.15925833582878113, 0.1556708812713623, 0.14987275004386902, 0.12422125786542892, 0.07456058263778687, 0.17526468634605408, 0.14273734390735626, 0.10014568269252777, 0.08852768689393997, 0.15992681682109833, 0.18175892531871796, 0.17200660705566406, 0.13518884778022766, 0.1318519562482834, 0.16435521841049194, 0.11200637370347977, 0.08441215753555298, 0.13234549760818481, 0.08606451749801636, 0.08036059141159058, 0.09574221074581146, 0.08886336535215378, 0.10076068341732025, 0.10603775084018707, 0.1937095820903778, 0.14746664464473724, 0.15736758708953857, 0.11135983467102051, 0.09348270297050476, 0.11519856750965118, 0.13879582285881042, 0.2286013513803482, 0.24602535367012024, 0.13337795436382294, 0.1171860471367836, 0.12170286476612091, 0.10148791968822479, 0.16301275789737701, 0.15308040380477905, 0.1504536122083664, 0.14926674962043762]</t>
+          <t>[0.3340582549571991, 0.20502105355262756, 0.1840289831161499, 0.10633289068937302, 0.10602973401546478, 0.062483977526426315, 0.07512211799621582, 0.1317678689956665, 0.18160858750343323, 0.30513811111450195, 0.44746455550193787, 0.27588748931884766, 0.3371279537677765, 0.4401001036167145, 0.37561100721359253, 0.1700059324502945, 0.17926739156246185, 0.15298527479171753, 0.18397386372089386, 0.3018617033958435, 0.37507858872413635, 0.16176465153694153, 0.12868128716945648, 0.10612279921770096, 0.09871877729892731, 0.12646760046482086, 0.06278277188539505, 0.07817693054676056, 0.13339684903621674, 0.09754261374473572, 0.08401855826377869, 0.42227843403816223, 0.4928600490093231, 0.6172012686729431, 0.25003209710121155, 0.21349401772022247, 0.336884081363678, 0.21197061240673065, 0.27039194107055664, 0.15460079908370972, 0.27385860681533813, 0.3671743869781494, 0.2652655243873596, 0.2565733790397644, 0.1702142208814621, 0.22702059149742126, 0.08219048380851746, 0.17875561118125916, 0.14069588482379913, 0.22754183411598206, 0.15998472273349762, 0.0815989151597023, 0.16481730341911316, 0.22000229358673096, 0.18213523924350739, 0.16371752321720123, 0.14337801933288574, 0.15703077614307404, 0.19449228048324585, 0.30408236384391785, 0.29263150691986084, 0.2477891743183136, 0.24284833669662476, 0.10924775898456573, 0.31096166372299194, 0.257209837436676, 0.19064436852931976, 0.11431995034217834, 0.17562341690063477, 0.23884040117263794, 0.31236743927001953, 0.22345861792564392, 0.1360098421573639, 0.2267633080482483, 0.14304523169994354, 0.13079345226287842, 0.18917948007583618, 0.11216559261083603, 0.11687071621417999, 0.18879570066928864, 0.14254961907863617, 0.18473079800605774, 0.17294450104236603, 0.30267781019210815, 0.21723009645938873, 0.23629583418369293, 0.2210221141576767, 0.12050282210111618, 0.1165720745921135, 0.18217727541923523, 0.2852345407009125, 0.2707258462905884, 0.20228557288646698, 0.19577541947364807, 0.20705564320087433, 0.15247583389282227, 0.27737295627593994, 0.23912101984024048, 0.19416874647140503, 0.19217994809150696]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.319659411907196</v>
+        <v>0.6172012686729431</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.5723148999968544</v>
+        <v>0.5746107000013581</v>
       </c>
       <c r="J98" t="n">
-        <v>0.005723148999968544</v>
+        <v>0.005746107000013581</v>
       </c>
     </row>
     <row r="99">
@@ -4485,11 +4485,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[0.22001874446868896, 0.1558569222688675, 0.16100993752479553, 0.1360117793083191, 0.15881577134132385, 0.2225300669670105, 0.22709181904792786, 0.21058990061283112, 0.16526003181934357, 0.458982914686203, 0.301344633102417, 0.20691652595996857, 0.36756277084350586, 0.17494423687458038, 0.1198607012629509, 0.1514136791229248, 0.22863322496414185, 0.25304532051086426, 0.22354944050312042, 0.10649211704730988, 0.2337198257446289, 0.24231864511966705, 0.5371050834655762, 0.31315067410469055, 0.14095865190029144, 0.15715532004833221, 0.23768800497055054, 0.24854810535907745, 0.11505044251680374, 0.1470424234867096, 0.19492454826831818, 0.18628594279289246, 0.18854719400405884, 0.3062703013420105, 0.3743462860584259, 0.38745126128196716, 0.23588989675045013, 0.2029486447572708, 0.29087474942207336, 0.5019863247871399, 0.20918823778629303, 0.36657142639160156, 0.23900842666625977, 0.32053232192993164, 0.32695338129997253, 0.31679561734199524, 0.30127066373825073, 0.5108920931816101, 0.23499137163162231, 0.3686893582344055, 0.26635605096817017, 0.3370738923549652, 0.1196216493844986, 0.2641698122024536, 0.20314882695674896, 0.27969345450401306, 0.10561834275722504, 0.2634143531322479, 0.43027883768081665, 0.39036619663238525, 0.3333154320716858, 0.2709520161151886, 0.32463356852531433, 0.30777424573898315, 0.26657634973526, 0.3265906572341919, 0.24217075109481812, 0.8658236861228943, 0.544628381729126, 0.2445250302553177, 0.18265384435653687, 0.22833749651908875, 0.30664247274398804, 0.28404057025909424, 0.222239151597023, 0.1623079627752304, 0.1484934240579605, 0.2362201064825058, 0.4094676673412323, 0.22964727878570557, 0.25540754199028015, 0.27630555629730225, 0.2747427523136139, 0.31501176953315735, 0.4992869198322296, 0.31387120485305786, 0.2684635818004608, 0.2119905799627304, 0.29494762420654297, 0.31540176272392273, 0.46222230792045593, 0.46839460730552673, 0.33627989888191223, 0.16161853075027466, 0.3163191080093384, 0.319751113653183, 0.2645453214645386, 0.2660265266895294, 0.6037315130233765, 0.2684630751609802, 0.1799422949552536, 0.24472856521606445, 0.2453269362449646]</t>
+          <t>[0.4036294221878052, 0.217669278383255, 0.26808419823646545, 0.21512441337108612, 0.373838871717453, 0.5212724804878235, 0.5167221426963806, 0.4324081838130951, 0.3151618540287018, 0.720839262008667, 0.470348984003067, 0.30948561429977417, 0.640442967414856, 0.3492547869682312, 0.1967720240354538, 0.2810624837875366, 0.4208330810070038, 0.4468587338924408, 0.413621187210083, 0.13933923840522766, 0.38611316680908203, 0.45997148752212524, 0.7999688982963562, 0.5140247941017151, 0.22310583293437958, 0.228482186794281, 0.3779938817024231, 0.37262457609176636, 0.23937709629535675, 0.28720009326934814, 0.3600778579711914, 0.3169521987438202, 0.4160057008266449, 0.5230405926704407, 0.5930128693580627, 0.6191551685333252, 0.4470638334751129, 0.35266339778900146, 0.4085490107536316, 0.7195889353752136, 0.32602521777153015, 0.5466619729995728, 0.37950313091278076, 0.455840140581131, 0.48368537425994873, 0.5259596705436707, 0.4316793978214264, 0.6862429976463318, 0.38936078548431396, 0.5712616443634033, 0.42729467153549194, 0.5885807871818542, 0.15808872878551483, 0.4484308063983917, 0.29124826192855835, 0.368124395608902, 0.16330555081367493, 0.43730124831199646, 0.6084273457527161, 0.5942844748497009, 0.5803567171096802, 0.4820139706134796, 0.5311814546585083, 0.42744871973991394, 0.4472580552101135, 0.5564591288566589, 0.44621893763542175, 0.9581475853919983, 0.7732654213905334, 0.40135157108306885, 0.307241290807724, 0.3027525842189789, 0.5239882469177246, 0.47405141592025757, 0.3434394299983978, 0.2647772431373596, 0.21957683563232422, 0.36404934525489807, 0.6464932560920715, 0.35484111309051514, 0.382986843585968, 0.48351719975471497, 0.4637490212917328, 0.47170916199684143, 0.7845509052276611, 0.6156979203224182, 0.5386068224906921, 0.4390981197357178, 0.5196529626846313, 0.5709797739982605, 0.7900367379188538, 0.7631875276565552, 0.6202144622802734, 0.31428223848342896, 0.5843918919563293, 0.5255225896835327, 0.406078040599823, 0.4144309163093567, 0.8055914044380188, 0.42576736211776733, 0.32814696431159973, 0.5009469389915466, 0.5027017593383789]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.8658236861228943</v>
+        <v>0.9581475853919983</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.5860044000146445</v>
+        <v>0.5881576000101632</v>
       </c>
       <c r="J99" t="n">
-        <v>0.005689363106938296</v>
+        <v>0.00571026796126372</v>
       </c>
     </row>
     <row r="100">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[0.46843889355659485, 0.31430456042289734, 0.3011681139469147, 0.543073832988739, 0.5105000138282776, 0.6169291734695435, 0.5498416423797607, 0.33244141936302185, 0.27328577637672424, 0.48889100551605225, 0.4216431975364685, 0.5086597204208374, 0.5540154576301575, 0.5380229949951172, 0.38204559683799744, 0.3207741677761078, 0.34106501936912537, 0.23613862693309784, 0.3022966980934143, 0.25744399428367615, 0.16739380359649658, 0.4611998200416565, 0.3182511627674103, 0.43196555972099304, 0.29717689752578735, 0.43520182371139526, 0.3997485637664795, 0.38690775632858276, 0.44006243348121643, 0.3031846880912781, 0.31442147493362427, 0.3896370828151703, 0.3008309304714203, 0.45893561840057373, 0.5685949921607971, 0.403568834066391, 0.2817200720310211, 0.2658962905406952, 0.4106408655643463, 0.5736738443374634, 0.4625801146030426, 0.28424879908561707, 0.35948988795280457, 0.254625141620636, 0.29463768005371094, 0.2985383868217468, 0.30508357286453247, 0.3893163204193115, 0.3792959451675415, 0.3858697712421417, 0.3435691297054291, 0.4346068799495697, 0.4628535509109497, 0.27478575706481934, 0.26895925402641296, 0.3612385094165802, 0.21289579570293427, 0.14386533200740814, 0.25863316655158997, 0.34941741824150085, 0.4234631657600403, 0.3616062104701996, 0.49666568636894226, 0.38048234581947327, 0.4825470745563507, 0.312161386013031, 0.3233496844768524, 0.19636063277721405, 0.12041782587766647, 0.31130450963974, 0.17027412354946136, 0.13457413017749786, 0.2337108701467514, 0.13217894732952118, 0.20609109103679657, 0.1587475687265396, 0.3432754874229431, 0.37158724665641785, 0.2644575536251068, 0.29588088393211365, 0.20967568457126617, 0.3491719365119934, 0.24122510850429535, 0.20559319853782654, 0.4474712908267975, 0.39283737540245056, 0.30630019307136536, 0.38384339213371277, 0.27153366804122925, 0.42116406559944153, 0.402239590883255, 0.6529092192649841, 0.3956899046897888, 0.4979023039340973, 0.35318127274513245, 0.28501492738723755, 0.32193028926849365, 0.29626837372779846, 0.6423033475875854, 0.4788103401660919, 0.43812522292137146, 0.3655056059360504, 0.3654807507991791]</t>
+          <t>[0.6408209800720215, 0.34214895963668823, 0.38035085797309875, 0.6625259518623352, 0.6682368516921997, 0.72641521692276, 0.7137054204940796, 0.4824962615966797, 0.32035231590270996, 0.6091838479042053, 0.5135696530342102, 0.6149358749389648, 0.5626168251037598, 0.6836663484573364, 0.5410916805267334, 0.4586503207683563, 0.5705417394638062, 0.3598176836967468, 0.34716325998306274, 0.3786748945713043, 0.2409008890390396, 0.6728459596633911, 0.5104840397834778, 0.5741629004478455, 0.3792109191417694, 0.596808910369873, 0.5472517013549805, 0.5519332885742188, 0.5622275471687317, 0.3354574143886566, 0.3661307096481323, 0.43073123693466187, 0.401316374540329, 0.5144141912460327, 0.6615087985992432, 0.5570992827415466, 0.3881796598434448, 0.3153268098831177, 0.49807411432266235, 0.7059932947158813, 0.5577222108840942, 0.35296615958213806, 0.3931954503059387, 0.29268908500671387, 0.33884283900260925, 0.3818533420562744, 0.31928884983062744, 0.42254477739334106, 0.3914482295513153, 0.44763293862342834, 0.32393816113471985, 0.556709885597229, 0.5812516808509827, 0.43369773030281067, 0.41059592366218567, 0.44995516538619995, 0.26460686326026917, 0.14835646748542786, 0.381055623292923, 0.4646207094192505, 0.5078990459442139, 0.463299423456192, 0.6417509913444519, 0.4372844696044922, 0.5846566557884216, 0.35973501205444336, 0.4640851616859436, 0.20503424108028412, 0.16352848708629608, 0.4777500331401825, 0.2546786367893219, 0.20705239474773407, 0.2708362936973572, 0.14070743322372437, 0.2091163694858551, 0.13191688060760498, 0.5357710719108582, 0.5070410966873169, 0.2507018446922302, 0.4210340082645416, 0.25354623794555664, 0.4471912980079651, 0.2735755741596222, 0.23961037397384644, 0.5604435205459595, 0.539240837097168, 0.46726736426353455, 0.4890116751194, 0.3458833694458008, 0.5033393502235413, 0.44924813508987427, 0.7148913741111755, 0.35221558809280396, 0.5122178792953491, 0.297366201877594, 0.2158794403076172, 0.28047624230384827, 0.3179137408733368, 0.71217280626297, 0.6833872199058533, 0.584004282951355, 0.505142331123352, 0.5049355030059814]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.6529092192649841</v>
+        <v>0.72641521692276</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.585700600000564</v>
+        <v>0.597411299997475</v>
       </c>
       <c r="J100" t="n">
-        <v>0.005686413592238485</v>
+        <v>0.00580010970871335</v>
       </c>
     </row>
     <row r="101">
@@ -4565,11 +4565,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[0.2500759959220886, 0.22476008534431458, 0.32107722759246826, 0.45801571011543274, 0.3105665147304535, 0.33784469962120056, 0.30614614486694336, 0.24014227092266083, 0.2911731004714966, 0.22953249514102936, 0.5871269702911377, 0.3784524202346802, 0.3475753664970398, 0.3677808940410614, 0.4228217303752899, 0.3048672676086426, 0.6081601977348328, 0.4771402180194855, 0.41188931465148926, 0.43407776951789856, 0.34991490840911865, 0.6380001306533813, 0.42714276909828186, 0.32356926798820496, 0.35414668917655945, 0.28781917691230774, 0.6684144139289856, 0.5048559308052063, 0.3191126585006714, 0.3711140751838684, 0.418992817401886, 0.2862526476383209, 0.2992078363895416, 0.24963165819644928, 0.4474598169326782, 0.4704563021659851, 0.5973368287086487, 0.4220215082168579, 0.30018869042396545, 0.37402185797691345, 0.32140856981277466, 0.4727320075035095, 0.29895251989364624, 0.47338902950286865, 0.25556862354278564, 0.3087366819381714, 0.3518218398094177, 0.39206671714782715, 0.43035420775413513, 0.27134642004966736, 0.5711391568183899, 0.6264615058898926, 0.46318209171295166, 0.17546764016151428, 0.3288504183292389, 0.27947288751602173, 0.23371805250644684, 0.237847238779068, 0.4275849461555481, 0.4745694696903229, 0.6265284419059753, 0.42310044169425964, 0.25380760431289673, 0.5229551792144775, 0.5176319479942322, 0.8781510591506958, 0.33836856484413147, 0.6896829605102539, 0.5133346915245056, 0.6003609299659729, 0.4881807267665863, 0.31183579564094543, 0.16223208606243134, 0.27683576941490173, 0.30443528294563293, 0.5093744993209839, 0.5372223854064941, 0.3626207709312439, 0.33063653111457825, 0.4053821265697479, 0.37372761964797974, 0.22093790769577026, 0.2828313410282135, 0.41164711117744446, 0.28339964151382446, 0.3527200222015381, 0.24196316301822662, 0.2742258310317993, 0.6401392817497253, 0.7398735880851746, 0.2133892923593521, 0.2529820203781128, 0.21743296086788177, 0.36448851227760315, 0.22453828155994415, 0.16366367042064667, 0.17711575329303741, 0.2683560252189636, 0.34477826952934265, 0.10255508124828339, 0.18558670580387115, 0.3036026060581207, 0.30407291650772095]</t>
+          <t>[0.14541283249855042, 0.1133202314376831, 0.15677207708358765, 0.31351199746131897, 0.17489437758922577, 0.16148824989795685, 0.1469966471195221, 0.151955246925354, 0.1413431167602539, 0.11417575925588608, 0.3510419726371765, 0.17814098298549652, 0.1741262674331665, 0.19506199657917023, 0.23192250728607178, 0.11536894738674164, 0.4299062192440033, 0.30546241998672485, 0.33708176016807556, 0.3041072189807892, 0.22873879969120026, 0.6426892280578613, 0.43326231837272644, 0.21648555994033813, 0.20746798813343048, 0.25645679235458374, 0.5753536820411682, 0.4065113365650177, 0.1845742017030716, 0.26091432571411133, 0.29144853353500366, 0.13213548064231873, 0.22818942368030548, 0.14116115868091583, 0.33424150943756104, 0.4534221887588501, 0.605436384677887, 0.32962170243263245, 0.22174111008644104, 0.30203697085380554, 0.2691848576068878, 0.3370254933834076, 0.22257377207279205, 0.5796594023704529, 0.12292367219924927, 0.22988738119602203, 0.21267779171466827, 0.3518705666065216, 0.4540766477584839, 0.15833599865436554, 0.5018600821495056, 0.564187228679657, 0.39554524421691895, 0.0640605017542839, 0.17499788105487823, 0.14743131399154663, 0.13361112773418427, 0.1311464160680771, 0.27337297797203064, 0.2795833349227905, 0.528086245059967, 0.24292384088039398, 0.15767347812652588, 0.41373878717422485, 0.3629913926124573, 0.8572565913200378, 0.13739125430583954, 0.6307221055030823, 0.33346283435821533, 0.5078592300415039, 0.45504531264305115, 0.20124302804470062, 0.08708689361810684, 0.22851356863975525, 0.1497434824705124, 0.37078389525413513, 0.39733535051345825, 0.2813493013381958, 0.2559717297554016, 0.4336261749267578, 0.2507825791835785, 0.11912553012371063, 0.1650875210762024, 0.3573629558086395, 0.14827492833137512, 0.21031786501407623, 0.12817704677581787, 0.15383654832839966, 0.5398976802825928, 0.7289201021194458, 0.12160655111074448, 0.12732857465744019, 0.11747521162033081, 0.22951152920722961, 0.1555200219154358, 0.07315404713153839, 0.07586119323968887, 0.09140356630086899, 0.14192773401737213, 0.02936381846666336, 0.07802875339984894, 0.15131761133670807, 0.151594340801239]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.8781510591506958</v>
+        <v>0.8572565913200378</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.5946884000150021</v>
+        <v>0.583658400006243</v>
       </c>
       <c r="J101" t="n">
-        <v>0.005773673786553419</v>
+        <v>0.005666586407827602</v>
       </c>
     </row>
     <row r="102">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[0.6480400562286377, 0.41067183017730713, 0.5141626596450806, 0.22137108445167542, 0.35034745931625366, 0.26724115014076233, 0.4982207119464874, 0.1832575500011444, 0.39049848914146423, 0.21793876588344574, 0.19326674938201904, 0.18262580037117004, 0.2763896882534027, 0.22198225557804108, 0.16739338636398315, 0.3081229031085968, 0.518498957157135, 0.49743273854255676, 0.2888015806674957, 0.18074727058410645, 0.3740096986293793, 0.23673893511295319, 0.09822181612253189, 0.23162542283535004, 0.09604625403881073, 0.09356554597616196, 0.23882202804088593, 0.45040208101272583, 0.2834315896034241, 0.29017218947410583, 0.19268004596233368, 0.1350397765636444, 0.23694166541099548, 0.29111069440841675, 0.26412233710289, 0.2679300606250763, 0.5487522482872009, 0.27058759331703186, 0.4329918622970581, 0.22788205742835999, 0.4653337895870209, 0.4567870795726776, 0.4088435173034668, 0.2984258234500885, 0.27054470777511597, 0.34947773814201355, 0.3391226530075073, 0.18478995561599731, 0.2682195007801056, 0.10426663607358932, 0.25253599882125854, 0.1937413364648819, 0.17802944779396057, 0.3180045783519745, 0.42728012800216675, 0.2696329951286316, 0.15656554698944092, 0.3886674642562866, 0.44472649693489075, 0.3390065133571625, 0.1917390078306198, 0.39684221148490906, 0.2953934073448181, 0.11153563857078552, 0.08657422661781311, 0.48910239338874817, 0.5392714142799377, 0.3609984815120697, 0.4864314794540405, 0.40853095054626465, 0.3316219747066498, 0.4579829275608063, 0.5424111485481262, 0.2952365279197693, 0.33216193318367004, 0.39825400710105896, 0.223994642496109, 0.3119563162326813, 0.17913448810577393, 0.20836809277534485, 0.1447087973356247, 0.16783976554870605, 0.19127395749092102, 0.23008142411708832, 0.26785606145858765, 0.17245003581047058, 0.16700834035873413, 0.10554829984903336, 0.09225999563932419, 0.14029555022716522, 0.08331170678138733, 0.10121528804302216, 0.09711949527263641, 0.14089472591876984, 0.1651972383260727, 0.3469001352787018, 0.2515169680118561, 0.35663625597953796, 0.24855485558509827, 0.31566768884658813, 0.4440843164920807, 0.2769196927547455, 0.4237285852432251, 0.39672616124153137, 0.3507757782936096, 0.23164629936218262, 0.25758862495422363, 0.4416736662387848, 0.2650125324726105, 0.24836520850658417, 0.11997340619564056, 0.16884465515613556, 0.1084287241101265, 0.10798085480928421, 0.17407816648483276, 0.11409493535757065, 0.17457832396030426, 0.2168213278055191, 0.21669821441173553]</t>
+          <t>[0.7424069046974182, 0.3537295460700989, 0.6186379194259644, 0.15565258264541626, 0.28293097019195557, 0.2416747510433197, 0.45558783411979675, 0.1534803807735443, 0.416640967130661, 0.1881897747516632, 0.19188657402992249, 0.19763727486133575, 0.1858503818511963, 0.1974852979183197, 0.1187225729227066, 0.22385433316230774, 0.47963181138038635, 0.5781732201576233, 0.31392425298690796, 0.23345747590065002, 0.4893345534801483, 0.36089253425598145, 0.12239159643650055, 0.31479260325431824, 0.10308849066495895, 0.0873866155743599, 0.30914613604545593, 0.6224715709686279, 0.418044775724411, 0.4804169237613678, 0.2641585171222687, 0.1562575101852417, 0.39403247833251953, 0.38063567876815796, 0.34973451495170593, 0.4259844124317169, 0.7819550633430481, 0.475003182888031, 0.6282055377960205, 0.23795558512210846, 0.5095133185386658, 0.5109113454818726, 0.4024680554866791, 0.26488611102104187, 0.30647745728492737, 0.34166523814201355, 0.2682052254676819, 0.153821662068367, 0.2428416758775711, 0.096608467400074, 0.2400273233652115, 0.2163276970386505, 0.12944188714027405, 0.24174529314041138, 0.46586063504219055, 0.27130982279777527, 0.16695016622543335, 0.4475300908088684, 0.5396080613136292, 0.44064703583717346, 0.23861941695213318, 0.5471304655075073, 0.3979531228542328, 0.09329448640346527, 0.05261650308966637, 0.5039235353469849, 0.5714534521102905, 0.3252872824668884, 0.6417578458786011, 0.41537949442863464, 0.28966253995895386, 0.5133978724479675, 0.6492229104042053, 0.30244356393814087, 0.35142040252685547, 0.39386871457099915, 0.17912553250789642, 0.3845873177051544, 0.1940058171749115, 0.16959042847156525, 0.0998990386724472, 0.11229780316352844, 0.12858060002326965, 0.2145843803882599, 0.2634187340736389, 0.14778731763362885, 0.10786479711532593, 0.05176627263426781, 0.03541934862732887, 0.06547978520393372, 0.039883825927972794, 0.06066112592816353, 0.05038154125213623, 0.08064569532871246, 0.10361389070749283, 0.30282342433929443, 0.20788739621639252, 0.2897496819496155, 0.19592487812042236, 0.3197113573551178, 0.45583754777908325, 0.2142651379108429, 0.3823637068271637, 0.3962290287017822, 0.2613374590873718, 0.15932945907115936, 0.21162082254886627, 0.4240108132362366, 0.14495065808296204, 0.20890170335769653, 0.08566265553236008, 0.14241723716259003, 0.06475169956684113, 0.06357963383197784, 0.18749025464057922, 0.14302580058574677, 0.24772369861602783, 0.30778637528419495, 0.30849146842956543]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.6480400562286377</v>
+        <v>0.7819550633430481</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.6724619999877177</v>
+        <v>0.7025316999934148</v>
       </c>
       <c r="J102" t="n">
-        <v>0.005650941176367376</v>
+        <v>0.0059036277310371</v>
       </c>
     </row>
     <row r="103">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[0.4331815838813782, 0.47207191586494446, 0.3465278744697571, 0.5372799038887024, 0.5135920643806458, 0.3664703965187073, 0.3868936598300934, 0.3744053542613983, 0.31116971373558044, 0.4730513393878937, 0.27422434091567993, 0.2903725802898407, 0.22604747116565704, 0.27873343229293823, 0.25242555141448975, 0.3030507266521454, 0.2419465333223343, 0.26282116770744324, 0.27284014225006104, 0.27154991030693054, 0.29489362239837646, 0.36626383662223816, 0.3268953263759613, 0.3990379571914673, 0.5848449468612671, 0.3411616086959839, 0.36149731278419495, 0.40883901715278625, 0.20684006810188293, 0.4270808696746826, 0.46613460779190063, 0.4691713750362396, 0.4880402982234955, 0.4866498112678528, 0.26897281408309937, 0.3990447223186493, 0.8023235201835632, 0.32791686058044434, 0.29966241121292114, 0.30158689618110657, 0.20091572403907776, 0.34877029061317444, 0.21220454573631287, 0.2084982842206955, 0.20658817887306213, 0.16585692763328552, 0.10021054744720459, 0.13678795099258423, 0.14017507433891296, 0.2354135513305664, 0.13426737487316132, 0.24262171983718872, 0.16550123691558838, 0.15816599130630493, 0.2759457528591156, 0.40879178047180176, 0.19368456304073334, 0.24435830116271973, 0.2960365116596222, 0.3208997845649719, 0.32839328050613403, 0.4091261625289917, 0.29418545961380005, 0.2646954357624054, 0.28871968388557434, 0.21339474618434906, 0.19809193909168243, 0.21917617321014404, 0.28916624188423157, 0.20857763290405273, 0.24637828767299652, 0.2188132256269455, 0.14033298194408417, 0.12609556317329407, 0.3012651205062866, 0.31983518600463867, 0.2328839749097824, 0.33245477080345154, 0.43817082047462463, 0.6491217613220215, 0.4108346104621887, 0.5699498057365417, 0.42819371819496155, 0.6162401437759399, 0.4562309682369232, 0.15603770315647125, 0.22366249561309814, 0.27500712871551514, 0.2615799009799957, 0.28366273641586304, 0.33999350666999817, 0.1846906542778015, 0.32120174169540405, 0.43045759201049805, 0.3711942136287689, 0.3877384662628174, 0.21873503923416138, 0.16332553327083588, 0.21383023262023926, 0.3061618208885193, 0.23329386115074158, 0.2248460352420807, 0.31337058544158936, 0.3186667859554291, 0.260063111782074, 0.28362837433815, 0.32060548663139343, 0.34343329071998596, 0.18811428546905518, 0.18760597705841064, 0.1425112634897232, 0.18958958983421326, 0.24597316980361938, 0.12302138656377792, 0.16384410858154297, 0.16029511392116547, 0.21536614000797272, 0.21561139822006226]</t>
+          <t>[0.46057891845703125, 0.5543395280838013, 0.33837634325027466, 0.6659756898880005, 0.6759240627288818, 0.4548289179801941, 0.44958147406578064, 0.4742659330368042, 0.35406357049942017, 0.6109721064567566, 0.3414440155029297, 0.3752151131629944, 0.2261933833360672, 0.3146885335445404, 0.27253732085227966, 0.2651607394218445, 0.23718485236167908, 0.2339957356452942, 0.26935651898384094, 0.24071602523326874, 0.24268275499343872, 0.34534960985183716, 0.3483934998512268, 0.40218573808670044, 0.6416482329368591, 0.3541907072067261, 0.382291704416275, 0.4071117639541626, 0.1573459804058075, 0.4440516233444214, 0.5125827789306641, 0.5330837368965149, 0.5898977518081665, 0.6356191635131836, 0.23536646366119385, 0.43895038962364197, 0.9122894406318665, 0.39517030119895935, 0.2553008794784546, 0.30083271861076355, 0.18402265012264252, 0.5195139646530151, 0.3620302975177765, 0.19769835472106934, 0.21859082579612732, 0.15978221595287323, 0.06313220411539078, 0.07887917011976242, 0.12987424433231354, 0.22168517112731934, 0.09058170020580292, 0.2280661016702652, 0.19758479297161102, 0.17468832433223724, 0.3935541808605194, 0.6685273051261902, 0.24352750182151794, 0.2877749502658844, 0.4081217646598816, 0.4134785532951355, 0.35794737935066223, 0.4468681514263153, 0.2653921842575073, 0.24263738095760345, 0.34223222732543945, 0.20412540435791016, 0.17344464361667633, 0.21944397687911987, 0.31568291783332825, 0.19755464792251587, 0.3143346905708313, 0.289669007062912, 0.15333756804466248, 0.10603450238704681, 0.41647952795028687, 0.3888106644153595, 0.2629135549068451, 0.41790491342544556, 0.6534005999565125, 0.8231790661811829, 0.6076309084892273, 0.8508548140525818, 0.5763036608695984, 0.8940123319625854, 0.6317355632781982, 0.13584864139556885, 0.22435341775417328, 0.2650582790374756, 0.2554778456687927, 0.22780348360538483, 0.36621689796447754, 0.15636789798736572, 0.27809053659439087, 0.4438836872577667, 0.37675049901008606, 0.45399460196495056, 0.20954816043376923, 0.11549132317304611, 0.21344244480133057, 0.36162829399108887, 0.26395735144615173, 0.23615355789661407, 0.34973034262657166, 0.3231522738933563, 0.30705681443214417, 0.31169363856315613, 0.3750479519367218, 0.39456209540367126, 0.13618314266204834, 0.15438956022262573, 0.1467590630054474, 0.17600153386592865, 0.22565534710884094, 0.11215219646692276, 0.17083026468753815, 0.12695935368537903, 0.19823437929153442, 0.19882109761238098]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.8023235201835632</v>
+        <v>0.9122894406318665</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.671833800006425</v>
+        <v>0.6734990999975707</v>
       </c>
       <c r="J103" t="n">
-        <v>0.005693506779715466</v>
+        <v>0.005707619491504837</v>
       </c>
     </row>
     <row r="104">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[0.09998630732297897, 0.0859469473361969, 0.0958729088306427, 0.14407554268836975, 0.11646390706300735, 0.10931836813688278, 0.05463463068008423, 0.04046004265546799, 0.08585195243358612, 0.0958869457244873, 0.1048615351319313, 0.1670277714729309, 0.11838479340076447, 0.12889109551906586, 0.06681032478809357, 0.09545642137527466, 0.06386692076921463, 0.05374754220247269, 0.03981085866689682, 0.08354691416025162, 0.06656204909086227, 0.08707525581121445, 0.07674495875835419, 0.08684267848730087, 0.0859726294875145, 0.07188592106103897, 0.05524057149887085, 0.06490534543991089, 0.09131758660078049, 0.07364563643932343, 0.06638173013925552, 0.054440733045339584, 0.069320909678936, 0.09631821513175964, 0.1110619530081749, 0.29645878076553345, 0.1257956624031067, 0.07726915925741196, 0.14248675107955933, 0.19380518794059753, 0.064584881067276, 0.05837209150195122, 0.08241261541843414, 0.1210770532488823, 0.07216044515371323, 0.05723535642027855, 0.08137638866901398, 0.08023157715797424, 0.09585195779800415, 0.09231413900852203, 0.2775100767612457, 0.10583014041185379, 0.4517843723297119, 0.3119221329689026, 0.16280487179756165, 0.06486567109823227, 0.09056232869625092, 0.7983974814414978, 0.6674157977104187, 0.08512017130851746, 0.23531803488731384, 0.7580121159553528, 0.8099937438964844, 0.8851673603057861, 0.8298142552375793, 0.6207684278488159, 0.8444858193397522, 0.6609905362129211, 0.47350379824638367, 0.33055517077445984, 0.09755828231573105, 0.08726374804973602, 0.6020082235336304, 0.5013300180435181, 0.6019881367683411, 0.7480912804603577, 0.4381708800792694, 0.074542336165905, 0.06317118555307388, 0.1534694880247116, 0.6053655743598938, 0.7471275329589844, 0.8138845562934875, 0.3614267408847809, 0.1637839376926422, 0.05241473764181137, 0.13315391540527344, 0.11363783478736877, 0.0923766940832138, 0.05403842777013779, 0.053136568516492844, 0.09929613769054413, 0.12877759337425232, 0.06852370500564575, 0.06932619959115982, 0.08724658936262131, 0.050706248730421066, 0.06698034703731537, 0.09523254632949829, 0.11750519275665283, 0.07394643872976303, 0.0849691778421402, 0.09085887670516968, 0.06733443588018417, 0.08015940338373184, 0.0972299799323082, 0.07856837660074234, 0.10940536856651306, 0.12195321172475815, 0.11196786165237427, 0.08662732690572739, 0.07831012457609177, 0.0833314061164856, 0.07157540321350098, 0.053473614156246185, 0.07752413302659988, 0.08524227142333984, 0.08485880494117737]</t>
+          <t>[0.058685071766376495, 0.056056536734104156, 0.069508858025074, 0.12094948440790176, 0.08679037541151047, 0.06327573955059052, 0.023799220100045204, 0.021012678742408752, 0.0342276431620121, 0.042016059160232544, 0.052727118134498596, 0.10204789787530899, 0.061001699417829514, 0.07029303163290024, 0.042719196528196335, 0.06831958144903183, 0.0384720154106617, 0.029876401647925377, 0.021008454263210297, 0.046478912234306335, 0.02817409299314022, 0.05100617930293083, 0.03391828387975693, 0.0343017578125, 0.030394284054636955, 0.028247278183698654, 0.02078622579574585, 0.026196187362074852, 0.05892277508974075, 0.047941889613866806, 0.033482976257801056, 0.027177410200238228, 0.03664495795965195, 0.06995372474193573, 0.10001225024461746, 0.3317927420139313, 0.10363853722810745, 0.04308067262172699, 0.12769624590873718, 0.2001858800649643, 0.04338138923048973, 0.030018465593457222, 0.03264759108424187, 0.07766485214233398, 0.0379314199090004, 0.025941021740436554, 0.03445380926132202, 0.03949088603258133, 0.03905545920133591, 0.03609435260295868, 0.2613334655761719, 0.05184471979737282, 0.625605046749115, 0.2874718904495239, 0.12488832324743271, 0.03183075785636902, 0.049010809510946274, 0.9389505982398987, 0.9002959132194519, 0.05164991691708565, 0.2305975705385208, 0.9084784984588623, 0.9319596290588379, 0.9663414359092712, 0.9135978817939758, 0.7083107829093933, 0.9006599187850952, 0.8489639163017273, 0.7614249587059021, 0.6372664570808411, 0.06189694628119469, 0.06376593559980392, 0.8730039596557617, 0.6574118733406067, 0.8350735902786255, 0.8885312080383301, 0.636816143989563, 0.05524478480219841, 0.0355951301753521, 0.2267826795578003, 0.8268036246299744, 0.9398651719093323, 0.9467986822128296, 0.5733324885368347, 0.13356457650661469, 0.02248523198068142, 0.13484923541545868, 0.11677615344524384, 0.062065791338682175, 0.029947711154818535, 0.0231609083712101, 0.05330600589513779, 0.0984249860048294, 0.046855274587869644, 0.034616176038980484, 0.05404367670416832, 0.020449714735150337, 0.03295374661684036, 0.07725302875041962, 0.09771333634853363, 0.051526252180337906, 0.06364648789167404, 0.06260614842176437, 0.041338980197906494, 0.046123605221509933, 0.07160516083240509, 0.047329340130090714, 0.08510181307792664, 0.10106212645769119, 0.09913501143455505, 0.06292951852083206, 0.052835606038570404, 0.049495041370391846, 0.03448496013879776, 0.026034871116280556, 0.04063385725021362, 0.03478330746293068, 0.034770116209983826]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.8851673603057861</v>
+        <v>0.9663414359092712</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.6686562999966554</v>
+        <v>0.6732274999958463</v>
       </c>
       <c r="J104" t="n">
-        <v>0.005666578813530978</v>
+        <v>0.005705317796574969</v>
       </c>
     </row>
     <row r="105">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[0.6016817688941956, 0.7850703001022339, 0.7756487727165222, 0.9441672563552856, 0.9623638391494751, 0.9664734601974487, 0.9841554164886475, 0.9100590944290161, 0.7907688021659851, 0.6397852301597595, 0.8044922351837158, 0.7448015809059143, 0.8707062005996704, 0.9436574578285217, 0.9760128855705261, 0.9300448298454285, 0.9260693192481995, 0.5062422156333923, 0.21510785818099976, 0.32260194420814514, 0.6184710264205933, 0.3836207389831543, 0.47540074586868286, 0.3748078942298889, 0.5230045318603516, 0.6855008006095886, 0.901983916759491, 0.9531864523887634, 0.9600027799606323, 0.9578502178192139, 0.9811711311340332, 0.9576994180679321, 0.8978697061538696, 0.9342344403266907, 0.976971447467804, 0.9888715147972107, 0.9851828217506409, 0.9752237200737, 0.9784237742424011, 0.9781396985054016, 0.9625555276870728, 0.9816407561302185, 0.9767571091651917, 0.9831938743591309, 0.9616458415985107, 0.9814691543579102, 0.9774856567382812, 0.984516441822052, 0.97991943359375, 0.934670090675354, 0.967570424079895, 0.8844818472862244, 0.8852484226226807, 0.8658754229545593, 0.5702915191650391, 0.5247274041175842, 0.5943664312362671, 0.596768856048584, 0.8298882246017456, 0.3014805018901825, 0.595170259475708, 0.9767702221870422, 0.9609398245811462, 0.9765182137489319, 0.9786353707313538, 0.9692341089248657, 0.9419936537742615, 0.756671130657196, 0.32900530099868774, 0.24086037278175354, 0.35104453563690186, 0.4882299602031708, 0.36291220784187317, 0.40355709195137024, 0.4653894603252411, 0.47670021653175354, 0.563490629196167, 0.47655999660491943, 0.40689554810523987, 0.4597403109073639, 0.3786148726940155, 0.42859241366386414, 0.36450818181037903, 0.400403767824173, 0.4808351397514343, 0.598029375076294, 0.2554306089878082, 0.27849987149238586, 0.42528268694877625, 0.7892112135887146, 0.9419881701469421, 0.9634232521057129, 0.9540858268737793, 0.96660977602005, 0.9616183042526245, 0.95650315284729, 0.9745092988014221, 0.6788078546524048, 0.7152474522590637, 0.6168087124824524, 0.6984084248542786, 0.983866274356842, 0.9628201127052307, 0.92122483253479, 0.8148121237754822, 0.32751330733299255, 0.3854493796825409, 0.7630395293235779, 0.7225673794746399, 0.694912314414978, 0.7018179297447205, 0.9213033318519592, 0.9211123585700989, 0.8073468208312988, 0.5082463026046753, 0.21826165914535522, 0.6486338973045349, 0.9022068381309509, 0.9022175669670105]</t>
+          <t>[0.6123397946357727, 0.8029806017875671, 0.7465841770172119, 0.9551295638084412, 0.9694156050682068, 0.9679396152496338, 0.9836066961288452, 0.841519832611084, 0.7075086236000061, 0.5193703770637512, 0.7404345870018005, 0.723949134349823, 0.914054811000824, 0.9490782022476196, 0.9826730489730835, 0.9529554843902588, 0.9533964991569519, 0.5375586152076721, 0.14403006434440613, 0.2814025580883026, 0.709595263004303, 0.30305156111717224, 0.49107879400253296, 0.2788398563861847, 0.41688042879104614, 0.751187264919281, 0.9441831111907959, 0.978025496006012, 0.9642506241798401, 0.9576071500778198, 0.9850144982337952, 0.9717816710472107, 0.9392271637916565, 0.9546593427658081, 0.9859235286712646, 0.9929954409599304, 0.9897938966751099, 0.9833176136016846, 0.9794959425926208, 0.9800660610198975, 0.9686393737792969, 0.9855979084968567, 0.9759255647659302, 0.9869374632835388, 0.9589733481407166, 0.9825473427772522, 0.9707421660423279, 0.991258442401886, 0.990251898765564, 0.9579833745956421, 0.9852129817008972, 0.8796690702438354, 0.897595226764679, 0.8280895948410034, 0.3165856897830963, 0.3247814476490021, 0.4614661931991577, 0.4304429292678833, 0.8097980618476868, 0.1796598583459854, 0.5790106058120728, 0.98595130443573, 0.9774636626243591, 0.988678514957428, 0.9895921945571899, 0.9894348978996277, 0.9701688885688782, 0.8211550712585449, 0.2748183608055115, 0.1339336484670639, 0.1877356618642807, 0.367416650056839, 0.18998698890209198, 0.25751423835754395, 0.24703870713710785, 0.3344513475894928, 0.2690318524837494, 0.15660244226455688, 0.14794012904167175, 0.16926996409893036, 0.10045475512742996, 0.12595383822917938, 0.11590368300676346, 0.12244192510843277, 0.19674484431743622, 0.3056336045265198, 0.1132325530052185, 0.063290536403656, 0.1958451122045517, 0.8107876181602478, 0.9718287587165833, 0.9845332503318787, 0.9798837304115295, 0.9798087477684021, 0.978409469127655, 0.9785328507423401, 0.9824894666671753, 0.5259966850280762, 0.6933051943778992, 0.5731796026229858, 0.6862261891365051, 0.9916027188301086, 0.9807162284851074, 0.9543298482894897, 0.9061583876609802, 0.21560704708099365, 0.39079126715660095, 0.8800886273384094, 0.8608479499816895, 0.8394788503646851, 0.5654845833778381, 0.9692367911338806, 0.9696123600006104, 0.8790984749794006, 0.5565025210380554, 0.10771995037794113, 0.5176486372947693, 0.9501796960830688, 0.9500522613525391]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9888715147972107</v>
+        <v>0.9929954409599304</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.6746388000028674</v>
+        <v>0.6788361999933841</v>
       </c>
       <c r="J105" t="n">
-        <v>0.005669233613469473</v>
+        <v>0.005704505882297345</v>
       </c>
     </row>
     <row r="106">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[0.4555712342262268, 0.20270302891731262, 0.20587080717086792, 0.3419812321662903, 0.28379055857658386, 0.19570598006248474, 0.14644251763820648, 0.15592479705810547, 0.2887602150440216, 0.291233092546463, 0.2519186735153198, 0.29475533962249756, 0.2699470818042755, 0.2931368052959442, 0.8360341787338257, 0.4639294147491455, 0.3026745617389679, 0.13776814937591553, 0.18192218244075775, 0.5458359122276306, 0.5951009392738342, 0.1331237554550171, 0.1286570280790329, 0.14006824791431427, 0.38590142130851746, 0.9412937164306641, 0.9812521934509277, 0.9586455821990967, 0.9364614486694336, 0.9124916791915894, 0.8364644050598145, 0.6321554780006409, 0.8995266556739807, 0.8469716310501099, 0.8976566791534424, 0.9067434072494507, 0.987269401550293, 0.9661653637886047, 0.9618076086044312, 0.8499153852462769, 0.2886272072792053, 0.20783425867557526, 0.23187518119812012, 0.44344279170036316, 0.47002512216567993, 0.31779932975769043, 0.19327984750270844, 0.8087025880813599, 0.9093872308731079, 0.787437379360199, 0.9367944002151489, 0.9486820101737976, 0.9465202689170837, 0.9780410528182983, 0.9757306575775146, 0.9205458760261536, 0.9444153904914856, 0.9578102827072144, 0.8324857950210571, 0.6378882527351379, 0.9592820405960083, 0.8883553147315979, 0.6362046003341675, 0.4870907962322235, 0.19498686492443085, 0.3090270757675171, 0.15677428245544434, 0.1453203558921814, 0.11186661571264267, 0.1514681726694107, 0.2541528046131134, 0.2504696846008301, 0.23896725475788116, 0.28062278032302856, 0.334037184715271, 0.289303719997406, 0.24974073469638824, 0.27759864926338196, 0.2741398811340332, 0.19445942342281342, 0.08816418051719666, 0.1829904168844223, 0.36149314045906067, 0.17482440173625946, 0.2514919638633728, 0.18985459208488464, 0.1481218785047531, 0.1011495590209961, 0.10793451964855194, 0.17581550776958466, 0.17541085183620453, 0.3142796456813812, 0.15536651015281677, 0.11207198351621628, 0.20275309681892395, 0.32940518856048584, 0.31393080949783325, 0.41229248046875, 0.5415173172950745, 0.5441063046455383, 0.38342684507369995, 0.342856228351593, 0.33682096004486084, 0.28182142972946167, 0.23666805028915405, 0.14686131477355957, 0.1951211541891098, 0.5015997290611267, 0.30959418416023254, 0.07274361699819565, 0.08354644477367401, 0.8912208080291748, 0.9529324173927307, 0.8316822052001953, 0.4713827967643738, 0.20523183047771454, 0.3557388484477997, 0.3540862500667572]</t>
+          <t>[0.461821585893631, 0.1399983912706375, 0.13611972332000732, 0.2935813367366791, 0.19674821197986603, 0.09758880734443665, 0.06390532851219177, 0.09694536030292511, 0.18338878452777863, 0.16678299009799957, 0.24689285457134247, 0.19138407707214355, 0.11816718429327011, 0.1912715882062912, 0.8350440859794617, 0.32161349058151245, 0.17843058705329895, 0.0616171695291996, 0.07972152531147003, 0.3582785427570343, 0.45003077387809753, 0.04798407852649689, 0.04585598036646843, 0.06858251988887787, 0.4036918878555298, 0.9702817797660828, 0.9921547770500183, 0.9732488393783569, 0.9455194473266602, 0.924003541469574, 0.8904799818992615, 0.7035606503486633, 0.9551969170570374, 0.9016582369804382, 0.9093334078788757, 0.9333633780479431, 0.9948294758796692, 0.9770063757896423, 0.9798703193664551, 0.8548191785812378, 0.2252979278564453, 0.08649011701345444, 0.11991462111473083, 0.3517763912677765, 0.31935426592826843, 0.2217266708612442, 0.13077932596206665, 0.8509607911109924, 0.9743824005126953, 0.9010074138641357, 0.9694450497627258, 0.9724959135055542, 0.9645377397537231, 0.9808639883995056, 0.983241081237793, 0.93436598777771, 0.9753602147102356, 0.9757594466209412, 0.892299473285675, 0.5518115758895874, 0.9705938696861267, 0.8860263824462891, 0.4823445677757263, 0.2717207670211792, 0.06387826055288315, 0.11235827952623367, 0.0559355653822422, 0.049406297504901886, 0.029318174347281456, 0.06049459055066109, 0.13342951238155365, 0.14619018137454987, 0.10809922963380814, 0.15129201114177704, 0.2143043428659439, 0.21840868890285492, 0.10359814018011093, 0.1491399109363556, 0.13668233156204224, 0.07290210574865341, 0.01982232928276062, 0.039895378053188324, 0.20188666880130768, 0.054967526346445084, 0.1038484051823616, 0.053320251405239105, 0.0564335435628891, 0.026271479204297066, 0.030661778524518013, 0.05961551144719124, 0.06505030393600464, 0.18078166246414185, 0.05934764817357063, 0.027473419904708862, 0.05379719287157059, 0.10188387334346771, 0.10656268149614334, 0.14549480378627777, 0.285915344953537, 0.32526108622550964, 0.15897025167942047, 0.16595929861068726, 0.18092969059944153, 0.16770915687084198, 0.13284116983413696, 0.07172494381666183, 0.08761806786060333, 0.331737220287323, 0.1201440691947937, 0.019413374364376068, 0.02082253433763981, 0.892398476600647, 0.9721183776855469, 0.8181250691413879, 0.23001869022846222, 0.07671552896499634, 0.20844171941280365, 0.2087503969669342]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.987269401550293</v>
+        <v>0.9948294758796692</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.6831276000011712</v>
+        <v>0.677079799992498</v>
       </c>
       <c r="J106" t="n">
-        <v>0.005789216949162468</v>
+        <v>0.005737964406716085</v>
       </c>
     </row>
     <row r="107">
@@ -4805,11 +4805,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[0.3200935125350952, 0.4101869761943817, 0.5207774639129639, 0.680281937122345, 0.6009725332260132, 0.5567725300788879, 0.6076720952987671, 0.42285817861557007, 0.575222373008728, 0.4273626208305359, 0.5453316569328308, 0.7128632664680481, 0.6019118428230286, 0.6862836480140686, 0.4097767174243927, 0.35129496455192566, 0.3841167986392975, 0.3439096510410309, 0.45997199416160583, 0.5912413001060486, 0.5219130516052246, 0.5629023313522339, 0.4047815799713135, 0.38619643449783325, 0.44152387976646423, 0.5485264658927917, 0.49622803926467896, 0.4483835697174072, 0.37825655937194824, 0.2305968552827835, 0.26943671703338623, 0.3511880934238434, 0.5656986236572266, 0.6385518908500671, 0.6611528396606445, 0.8058895468711853, 0.7809759378433228, 0.5747201442718506, 0.4331081211566925, 0.4174133241176605, 0.41131022572517395, 0.578313946723938, 0.4214819669723511, 0.5771287679672241, 0.48589861392974854, 0.3628573715686798, 0.2312849760055542, 0.19774894416332245, 0.17207378149032593, 0.20116253197193146, 0.20929132401943207, 0.2429981678724289, 0.305903822183609, 0.31205296516418457, 0.8050098419189453, 0.47549009323120117, 0.6196249723434448, 0.5181276202201843, 0.36244553327560425, 0.8118019104003906, 0.5098199248313904, 0.6381612420082092, 0.4704466164112091, 0.62343829870224, 0.8726971745491028, 0.8641276359558105, 0.7581121921539307, 0.7854862213134766, 0.7327961325645447, 0.6656976342201233, 0.5433090925216675, 0.5551089644432068, 0.6348447799682617, 0.4943479895591736, 0.8392199873924255, 0.6867496371269226, 0.6470932960510254, 0.5430272221565247, 0.4618799686431885, 0.4978065490722656, 0.4327472448348999, 0.4925116300582886, 0.6256500482559204, 0.6249160170555115, 0.40500497817993164, 0.48546719551086426, 0.5563079714775085, 0.6364730596542358, 0.8576239943504333, 0.5600584149360657, 0.8638747334480286, 0.8623359203338623, 0.741439163684845, 0.6391933560371399, 0.7434598803520203, 0.7975519299507141, 0.76788729429245, 0.8790677785873413, 0.6951096057891846, 0.5876893401145935, 0.3679620921611786, 0.4772484600543976, 0.5805751085281372, 0.40758389234542847, 0.3964150547981262, 0.324909508228302, 0.4398954510688782, 0.44338753819465637, 0.6977673768997192, 0.3732292056083679, 0.5757428407669067, 0.29544708132743835, 0.32154834270477295, 0.3982376456260681, 0.3286682069301605, 0.4978407919406891, 0.566277027130127, 0.566239058971405]</t>
+          <t>[0.34459325671195984, 0.44203200936317444, 0.6687336564064026, 0.7959799766540527, 0.7362016439437866, 0.668087899684906, 0.7141376733779907, 0.4980009198188782, 0.6899869441986084, 0.5168336033821106, 0.6364351511001587, 0.8160478472709656, 0.7309275269508362, 0.8608449101448059, 0.510300874710083, 0.376539409160614, 0.37794312834739685, 0.30975058674812317, 0.5684634447097778, 0.7325564622879028, 0.653016984462738, 0.6952258348464966, 0.5661731958389282, 0.3845995366573334, 0.515092670917511, 0.7211540341377258, 0.6585937738418579, 0.5920306444168091, 0.38943493366241455, 0.1748017966747284, 0.24947170913219452, 0.31171324849128723, 0.6125290393829346, 0.7256702184677124, 0.6926847100257874, 0.8686966896057129, 0.8681923151016235, 0.708208441734314, 0.3824130892753601, 0.401348739862442, 0.41601571440696716, 0.6820598840713501, 0.5447961688041687, 0.7674056887626648, 0.7177473902702332, 0.5262508392333984, 0.22080840170383453, 0.16811220347881317, 0.16439321637153625, 0.163767009973526, 0.19427043199539185, 0.22094948589801788, 0.26843827962875366, 0.25607141852378845, 0.8948036432266235, 0.6344852447509766, 0.8098030686378479, 0.7113962173461914, 0.5144466161727905, 0.8833956718444824, 0.6001978516578674, 0.7045414447784424, 0.519416332244873, 0.7220199108123779, 0.9371683597564697, 0.9381998181343079, 0.8978705406188965, 0.9336696267127991, 0.9112415313720703, 0.7888631820678711, 0.7160308361053467, 0.7141045928001404, 0.8336474895477295, 0.5567118525505066, 0.950840413570404, 0.7843241691589355, 0.7055994272232056, 0.627243161201477, 0.5121514797210693, 0.6166083216667175, 0.4980223774909973, 0.6255549192428589, 0.7828055024147034, 0.7370671629905701, 0.5579238533973694, 0.5227411389350891, 0.5828751921653748, 0.6539378762245178, 0.9115035533905029, 0.5850459933280945, 0.9336837530136108, 0.9574164152145386, 0.8507773876190186, 0.8164829611778259, 0.8390997648239136, 0.8688009977340698, 0.8474786281585693, 0.9436618089675903, 0.7686100602149963, 0.6296842098236084, 0.42960238456726074, 0.6370857954025269, 0.7365059852600098, 0.48821157217025757, 0.4369613230228424, 0.29669609665870667, 0.4485100209712982, 0.5001019239425659, 0.8127161860466003, 0.4911143481731415, 0.7441620230674744, 0.4339834451675415, 0.3256895840167999, 0.5017901659011841, 0.3855566084384918, 0.5491288900375366, 0.6403964161872864, 0.6408267617225647]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.8790677785873413</v>
+        <v>0.9574164152145386</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.6716423000034411</v>
+        <v>0.6709846000012476</v>
       </c>
       <c r="J107" t="n">
-        <v>0.005691883898334246</v>
+        <v>0.005686310169502098</v>
       </c>
     </row>
     <row r="108">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[0.4493404030799866, 0.6945596933364868, 0.27811118960380554, 0.39593270421028137, 0.3944936990737915, 0.5331749320030212, 0.32356294989585876, 0.1653759628534317, 0.5489449501037598, 0.21796815097332, 0.4099385440349579, 0.5700377225875854, 0.36070024967193604, 0.3007628619670868, 0.42175403237342834, 0.3619251847267151, 0.1288745254278183, 0.3132156729698181, 0.2811976969242096, 0.7327535152435303, 0.3608446419239044, 0.5178541541099548, 0.2564106583595276, 0.30400049686431885, 0.3982788324356079, 0.39494454860687256, 0.33068037033081055, 0.45593947172164917, 0.35041072964668274, 0.5923819541931152, 0.3875657618045807, 0.4322277307510376, 0.550758421421051, 0.6717175841331482, 0.5362747311592102, 0.1926543116569519, 0.1735200732946396, 0.2380160391330719, 0.3136751353740692, 0.22601081430912018, 0.3942347466945648, 0.3318178355693817, 0.5699604749679565, 0.712670087814331, 0.38009604811668396, 0.6965503096580505, 0.46592122316360474, 0.31823238730430603, 0.23040924966335297, 0.5791420936584473, 0.8468737602233887, 0.6951436400413513, 0.41304200887680054, 0.7459090352058411, 0.8778559565544128, 0.6793307065963745, 0.3768954575061798, 0.8032926321029663, 0.4208533465862274, 0.7939876317977905, 0.3745253384113312, 0.351360559463501, 0.6027290225028992, 0.49104881286621094, 0.6350996494293213, 0.3845821022987366, 0.33792808651924133, 0.2621026933193207, 0.1334514021873474, 0.06286469101905823, 0.2384362518787384, 0.36280372738838196, 0.4279111623764038, 0.40800949931144714, 0.3803498446941376, 0.6232010126113892, 0.6990950703620911, 0.6686674356460571, 0.7563536167144775, 0.3283807933330536, 0.40126076340675354, 0.184578076004982, 0.21452336013317108, 0.16003486514091492, 0.11832311749458313, 0.22236081957817078, 0.1733655482530594, 0.10302691906690598, 0.1675233393907547, 0.43803879618644714, 0.4621110260486603, 0.29240986704826355, 0.1464858055114746, 0.5074390769004822, 0.28530213236808777, 0.3124432861804962, 0.25217628479003906, 0.18240490555763245, 0.3750304579734802, 0.2539500892162323, 0.34699225425720215, 0.4749826490879059, 0.4735281765460968, 0.510399341583252, 0.5599613785743713, 0.4382627308368683, 0.6979471445083618, 0.9493284821510315, 0.7746082544326782, 0.6588717103004456, 0.916776716709137, 0.914532482624054, 0.8798738121986389, 0.6599451899528503, 0.8473891615867615, 0.705274224281311, 0.8371649384498596, 0.8373908996582031]</t>
+          <t>[0.4284200072288513, 0.7435427308082581, 0.20770421624183655, 0.281640887260437, 0.20441056787967682, 0.38137945532798767, 0.13912732899188995, 0.05195533111691475, 0.5934074521064758, 0.12341972440481186, 0.3841700851917267, 0.6249891519546509, 0.2961920201778412, 0.14016218483448029, 0.4211482107639313, 0.37958523631095886, 0.06158134341239929, 0.3698156774044037, 0.17915049195289612, 0.8279702067375183, 0.39807847142219543, 0.46253111958503723, 0.22394435107707977, 0.40387460589408875, 0.4464569389820099, 0.5172147750854492, 0.26668497920036316, 0.37823286652565, 0.35914093255996704, 0.6550850868225098, 0.3060772716999054, 0.5598158240318298, 0.5279770493507385, 0.6816262006759644, 0.6746250987052917, 0.11707453429698944, 0.1281694769859314, 0.23612070083618164, 0.34748411178588867, 0.20778532326221466, 0.4125369191169739, 0.46385833621025085, 0.6561760902404785, 0.7939991354942322, 0.33030807971954346, 0.7039237022399902, 0.628350555896759, 0.519890308380127, 0.3176180422306061, 0.8055604100227356, 0.9534745216369629, 0.8523755669593811, 0.572566032409668, 0.8536004424095154, 0.9446033835411072, 0.8311649560928345, 0.585873007774353, 0.8789427876472473, 0.49598485231399536, 0.9035426378250122, 0.6918546557426453, 0.5515058636665344, 0.8337559700012207, 0.7488320469856262, 0.7811786532402039, 0.53733891248703, 0.48299285769462585, 0.2924950420856476, 0.13242125511169434, 0.03930488973855972, 0.27542993426322937, 0.5281717777252197, 0.7725383043289185, 0.6441182494163513, 0.5628460645675659, 0.873223066329956, 0.8480015993118286, 0.8369670510292053, 0.9003742933273315, 0.5636671185493469, 0.3912942409515381, 0.18000131845474243, 0.29865211248397827, 0.1228431835770607, 0.10556582361459732, 0.3464733958244324, 0.3620913326740265, 0.08403005450963974, 0.3553503751754761, 0.7207695841789246, 0.7243621945381165, 0.4647292494773865, 0.1336974799633026, 0.7205809950828552, 0.3708058297634125, 0.47276875376701355, 0.25530797243118286, 0.12459605187177658, 0.46961814165115356, 0.27643752098083496, 0.4800577759742737, 0.6869856119155884, 0.6734986901283264, 0.7176035046577454, 0.7525073885917664, 0.6523246169090271, 0.8835737705230713, 0.977434515953064, 0.8960468769073486, 0.7930547595024109, 0.9466055035591125, 0.9561627507209778, 0.9380269646644592, 0.8206192255020142, 0.9402625560760498, 0.7823181748390198, 0.9294496178627014, 0.929459273815155]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.9493284821510315</v>
+        <v>0.977434515953064</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.6745975999801885</v>
+        <v>0.6720549999881769</v>
       </c>
       <c r="J108" t="n">
-        <v>0.005716928813391428</v>
+        <v>0.005695381355832007</v>
       </c>
     </row>
     <row r="109">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[0.14611288905143738, 0.2061402052640915, 0.3705843687057495, 0.24922892451286316, 0.20779304206371307, 0.1674027144908905, 0.29118356108665466, 0.245818629860878, 0.17708148062229156, 0.17750895023345947, 0.26698774099349976, 0.46066075563430786, 0.6425909399986267, 0.21487373113632202, 0.15612934529781342, 0.19006213545799255, 0.16645802557468414, 0.25663062930107117, 0.15660615265369415, 0.2224218249320984, 0.1765865683555603, 0.13437238335609436, 0.14205610752105713, 0.2179243117570877, 0.3073858320713043, 0.16273494064807892, 0.32269948720932007, 0.22735711932182312, 0.18371732532978058, 0.20343686640262604, 0.11967449635267258, 0.14576491713523865, 0.3679255545139313, 0.4407764971256256, 0.4100959897041321, 0.7193577885627747, 0.7615151405334473, 0.7277438044548035, 0.8508475422859192, 0.9506708383560181, 0.9032677412033081, 0.9837843179702759, 0.9877395033836365, 0.9884337782859802, 0.993029773235321, 0.9924492835998535, 0.9882115721702576, 0.9892796874046326, 0.9924941062927246, 0.9926451444625854, 0.9856786131858826, 0.9782522320747375, 0.9781816601753235, 0.9766889810562134, 0.9848507642745972, 0.9574785232543945, 0.9745780229568481, 0.969751238822937, 0.9865649938583374, 0.9870791435241699, 0.9875642657279968, 0.9828763604164124, 0.9879181981086731, 0.9903578162193298, 0.9873615503311157, 0.981004536151886, 0.9843511581420898, 0.9870989918708801, 0.9838272333145142, 0.9732306599617004, 0.9369726181030273, 0.8980901837348938, 0.7411706447601318, 0.7170543074607849, 0.6521769762039185, 0.5836499333381653, 0.8870425820350647, 0.9778589606285095, 0.9606721997261047, 0.9001350402832031, 0.9388033747673035, 0.4824381470680237, 0.188808411359787, 0.1621941328048706, 0.16017727553844452, 0.21894897520542145, 0.2632455825805664, 0.22008535265922546, 0.24323788285255432, 0.31331250071525574, 0.23413819074630737, 0.19299134612083435, 0.2113831788301468, 0.3528076112270355, 0.25444504618644714, 0.21473389863967896, 0.20443953573703766, 0.2949879467487335, 0.26606136560440063, 0.19247335195541382, 0.20270571112632751, 0.2973276674747467, 0.31525176763534546, 0.2620393931865692, 0.37942203879356384, 0.27313798666000366, 0.5261682271957397, 0.9620670676231384, 0.9430024027824402, 0.9693714380264282, 0.9886981248855591, 0.9793599843978882, 0.985127866268158, 0.9768029451370239, 0.9885880947113037, 0.9685917496681213, 0.9902482628822327, 0.990269660949707]</t>
+          <t>[0.047174204140901566, 0.0889979898929596, 0.2541216313838959, 0.0682036355137825, 0.06932669132947922, 0.05130184814333916, 0.13009408116340637, 0.09062399715185165, 0.05120350793004036, 0.048071976751089096, 0.06694748997688293, 0.2640179395675659, 0.5955362915992737, 0.08638259768486023, 0.055367838591337204, 0.12484439462423325, 0.07890331745147705, 0.20620961487293243, 0.07804068922996521, 0.12261804938316345, 0.07120029628276825, 0.048450715839862823, 0.05066784843802452, 0.08106069266796112, 0.23868858814239502, 0.05349504575133324, 0.17452700436115265, 0.14247049391269684, 0.11722837388515472, 0.12379647046327591, 0.053160324692726135, 0.052394136786460876, 0.2957567870616913, 0.2942344844341278, 0.36094146966934204, 0.8236176371574402, 0.8655275106430054, 0.7889624238014221, 0.9188557267189026, 0.9660181403160095, 0.9233522415161133, 0.9901831746101379, 0.9950451850891113, 0.9937137961387634, 0.996802806854248, 0.9964538812637329, 0.9945439100265503, 0.9940237402915955, 0.996393620967865, 0.995829164981842, 0.9924544095993042, 0.9885181784629822, 0.9922771453857422, 0.9907344579696655, 0.9944894313812256, 0.9842018485069275, 0.9884310960769653, 0.9842000007629395, 0.995240330696106, 0.9951145648956299, 0.9942052960395813, 0.9854696989059448, 0.9946458339691162, 0.9962002635002136, 0.9929826259613037, 0.9896360039710999, 0.9916232228279114, 0.9948360919952393, 0.9922705888748169, 0.9880875945091248, 0.9657660126686096, 0.9265885353088379, 0.683262050151825, 0.6559432148933411, 0.5700964331626892, 0.5724145770072937, 0.9136303663253784, 0.988731861114502, 0.9830102920532227, 0.9684163331985474, 0.9653972387313843, 0.39393553137779236, 0.05797121301293373, 0.044673264026641846, 0.044975023716688156, 0.090883769094944, 0.15325427055358887, 0.1142573207616806, 0.07695019990205765, 0.12824329733848572, 0.07864846289157867, 0.05621121823787689, 0.09267516434192657, 0.24313905835151672, 0.1330607682466507, 0.09080088883638382, 0.06898847967386246, 0.13842478394508362, 0.0939120501279831, 0.08798467367887497, 0.08234216272830963, 0.12759149074554443, 0.18511392176151276, 0.11279654502868652, 0.2510037422180176, 0.1686301976442337, 0.4100498557090759, 0.9792066812515259, 0.9751644134521484, 0.9885464906692505, 0.9967344403266907, 0.9923525452613831, 0.9935304522514343, 0.9889321327209473, 0.9949951171875, 0.9855303764343262, 0.9960232973098755, 0.9960243701934814]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.993029773235321</v>
+        <v>0.996802806854248</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.6729256999969948</v>
+        <v>0.6768435999983922</v>
       </c>
       <c r="J109" t="n">
-        <v>0.005702760169466058</v>
+        <v>0.005735962711850781</v>
       </c>
     </row>
     <row r="110">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[0.15937139093875885, 0.15252132713794708, 0.1535646915435791, 0.09690249711275101, 0.15111160278320312, 0.12829500436782837, 0.10819564014673233, 0.18080134689807892, 0.10332529991865158, 0.13481588661670685, 0.11343715339899063, 0.12922020256519318, 0.11017318814992905, 0.09215805679559708, 0.14427566528320312, 0.2574557065963745, 0.1533488631248474, 0.24949930608272552, 0.49742186069488525, 0.09634305536746979, 0.1964903473854065, 0.1813688427209854, 0.14443598687648773, 0.25564584136009216, 0.31174713373184204, 0.4483337998390198, 0.2568459212779999, 0.21924389898777008, 0.2039405107498169, 0.22324323654174805, 0.26017579436302185, 0.19054245948791504, 0.25834518671035767, 0.48028430342674255, 0.8099899888038635, 0.4146353006362915, 0.39007797837257385, 0.16115789115428925, 0.12389343231916428, 0.2431054264307022, 0.1764887273311615, 0.10957828164100647, 0.08504211157560349, 0.1595451384782791, 0.29007256031036377, 0.38419535756111145, 0.2106955200433731, 0.14402028918266296, 0.1275692880153656, 0.1340041607618332, 0.10107482224702835, 0.12013774365186691, 0.10968547314405441, 0.14818918704986572, 0.1683982014656067, 0.30678504705429077, 0.23436671495437622, 0.2635926604270935, 0.1813426911830902, 0.10646804422140121, 0.07100696861743927, 0.42350348830223083, 0.45274868607521057, 0.40784719586372375, 0.20236699283123016, 0.10770943760871887, 0.16734828054904938, 0.16005058586597443, 0.33094629645347595, 0.1106523647904396, 0.38182321190834045, 0.15613652765750885, 0.16773445904254913, 0.13971541821956635, 0.13106593489646912, 0.162590891122818, 0.31039926409721375, 0.1792033165693283, 0.2169007509946823, 0.3459087908267975, 0.33879905939102173, 0.42960214614868164, 0.24764877557754517, 0.18625518679618835, 0.26167556643486023, 0.3181616961956024, 0.349304735660553, 0.2748255133628845, 0.2957438826560974, 0.22783149778842926, 0.2561241686344147, 0.5532348155975342, 0.301950603723526, 0.24251042306423187, 0.5333923697471619, 0.28218019008636475, 0.39923590421676636, 0.5910643935203552, 0.3900381922721863, 0.3196817636489868, 0.5620944499969482, 0.5992865562438965, 0.5617015957832336, 0.6464183330535889, 0.4826684594154358, 0.690655529499054, 0.7521724700927734, 0.31764769554138184, 0.5762930512428284, 0.6541717052459717, 0.47883570194244385, 0.14950942993164062, 0.1614600270986557, 0.4325793385505676, 0.6249849796295166, 0.6343848705291748, 0.436513751745224, 0.43623149394989014]</t>
+          <t>[0.09757667034864426, 0.11807132512331009, 0.10350549966096878, 0.06627864390611649, 0.1052895337343216, 0.08214735984802246, 0.04537739232182503, 0.11630090326070786, 0.06582164019346237, 0.06617255508899689, 0.07312782853841782, 0.05723869800567627, 0.047636695206165314, 0.031579405069351196, 0.04080566391348839, 0.06908677518367767, 0.03967490792274475, 0.06440143287181854, 0.2238139659166336, 0.025430291891098022, 0.0838869959115982, 0.057999059557914734, 0.039309799671173096, 0.06939699500799179, 0.15638938546180725, 0.2650418281555176, 0.11627919971942902, 0.0796637311577797, 0.07077334076166153, 0.08294553309679031, 0.11713891476392746, 0.08336307108402252, 0.1066315770149231, 0.20565856993198395, 0.7711893916130066, 0.10570032149553299, 0.1739252507686615, 0.038567375391721725, 0.029514281079173088, 0.06680620461702347, 0.03758390247821808, 0.022369645535945892, 0.015551983378827572, 0.049888256937265396, 0.10321333259344101, 0.19826079905033112, 0.06589250266551971, 0.03581399843096733, 0.02714400924742222, 0.030059121549129486, 0.025085903704166412, 0.03870838135480881, 0.030105821788311005, 0.03208746388554573, 0.035185907036066055, 0.09748664498329163, 0.04460196569561958, 0.06458515673875809, 0.027023278176784515, 0.01811414211988449, 0.011656113900244236, 0.18219983577728271, 0.18512462079524994, 0.1534174233675003, 0.04768279567360878, 0.0206774715334177, 0.0403335876762867, 0.051019374281167984, 0.18830552697181702, 0.030355364084243774, 0.19420890510082245, 0.03281624615192413, 0.04542456194758415, 0.03582204878330231, 0.0383274182677269, 0.05245652794837952, 0.14207600057125092, 0.05165876820683479, 0.07723245769739151, 0.12381336092948914, 0.1572360098361969, 0.2417764514684677, 0.10252843797206879, 0.04847192019224167, 0.06655284762382507, 0.11280298233032227, 0.20220725238323212, 0.15427638590335846, 0.16045168042182922, 0.13281592726707458, 0.07088937610387802, 0.3026353418827057, 0.10137107968330383, 0.07059725373983383, 0.30379581451416016, 0.12824325263500214, 0.2260204553604126, 0.41009771823883057, 0.12939751148223877, 0.07890459895133972, 0.39814987778663635, 0.4492861032485962, 0.3498421311378479, 0.4969060719013214, 0.2604905962944031, 0.5948536396026611, 0.622040867805481, 0.1510026454925537, 0.4113481044769287, 0.6298812031745911, 0.40378376841545105, 0.05600331351161003, 0.046471115201711655, 0.1392430067062378, 0.2482132911682129, 0.3799986243247986, 0.15543314814567566, 0.15522277355194092]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.8099899888038635</v>
+        <v>0.7711893916130066</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.6787744999746792</v>
+        <v>0.6884695999906398</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005752326270971857</v>
+        <v>0.005834488135513897</v>
       </c>
     </row>
     <row r="111">
@@ -4965,11 +4965,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[0.5709641575813293, 0.7715937495231628, 0.41248664259910583, 0.42602306604385376, 0.6446430087089539, 0.8483229279518127, 0.7231477499008179, 0.7189798355102539, 0.7731168866157532, 0.7856380343437195, 0.6314271092414856, 0.599126398563385, 0.7721104621887207, 0.7883245944976807, 0.8420751690864563, 0.4608515501022339, 0.6653839945793152, 0.5019083023071289, 0.5304759740829468, 0.576855480670929, 0.7540008425712585, 0.6165025234222412, 0.8732477426528931, 0.8309418559074402, 0.7507800459861755, 0.783927857875824, 0.7034612894058228, 0.48836833238601685, 0.37937653064727783, 0.20856718719005585, 0.5955011248588562, 0.4250491261482239, 0.49013954401016235, 0.5687425136566162, 0.6544221043586731, 0.5643216371536255, 0.5677183270454407, 0.8092811107635498, 0.8289964199066162, 0.8671297430992126, 0.7361834049224854, 0.6373756527900696, 0.7335822582244873, 0.613997757434845, 0.6829957365989685, 0.6995406746864319, 0.7327377796173096, 0.8200948238372803, 0.5838761329650879, 0.6162641048431396, 0.6040353775024414, 0.9253193140029907, 0.8984507322311401, 0.8839151263237, 0.7617224454879761, 0.7407415509223938, 0.4740578234195709, 0.7229840755462646, 0.5760321617126465, 0.7518010139465332, 0.5403609871864319, 0.627942681312561, 0.8792360424995422, 0.717662513256073, 0.601864218711853, 0.6037846803665161, 0.6044891476631165, 0.7235187292098999, 0.5631015300750732, 0.5728417634963989, 0.2892296314239502, 0.3162388801574707, 0.3856663107872009, 0.27360838651657104, 0.36870360374450684, 0.3804776668548584, 0.6314528584480286, 0.6964168548583984, 0.7134655714035034, 0.49043527245521545, 0.5949060916900635, 0.7210721373558044, 0.7490663528442383, 0.789066731929779, 0.8412033915519714, 0.6446404457092285, 0.7576233744621277, 0.7688327431678772, 0.7261072993278503, 0.5865573883056641, 0.4333750903606415, 0.5125223398208618, 0.5455905199050903, 0.6481415033340454, 0.3657134771347046, 0.5642961263656616, 0.805765688419342, 0.7654836177825928, 0.7934602499008179, 0.7400018572807312, 0.5145965814590454, 0.5513705015182495, 0.31833192706108093, 0.3766332268714905, 0.6161225438117981, 0.7237315773963928, 0.758826732635498, 0.7366420030593872, 0.5369739532470703, 0.5723517537117004, 0.4842577576637268, 0.8158688545227051, 0.7214157581329346, 0.7512952089309692, 0.6645878553390503, 0.6915233135223389, 0.8864300847053528, 0.6743136644363403, 0.6747644543647766]</t>
+          <t>[0.7011799216270447, 0.8785969018936157, 0.5281663537025452, 0.4864400625228882, 0.7313187122344971, 0.918675422668457, 0.7863454818725586, 0.8203027844429016, 0.8536378741264343, 0.8886677026748657, 0.7723148465156555, 0.6865777373313904, 0.8827643990516663, 0.8742095232009888, 0.919010579586029, 0.5732408761978149, 0.7229546308517456, 0.6174679398536682, 0.6212493777275085, 0.7132909893989563, 0.8570196032524109, 0.7304815649986267, 0.9284990429878235, 0.8748462200164795, 0.8187711834907532, 0.7999870181083679, 0.6808596253395081, 0.5082688331604004, 0.4223862290382385, 0.18427208065986633, 0.594032883644104, 0.41827377676963806, 0.5016174912452698, 0.5740138292312622, 0.632872462272644, 0.5841572284698486, 0.6867899894714355, 0.8795722126960754, 0.8683554530143738, 0.933294415473938, 0.872856080532074, 0.7366538643836975, 0.8622480630874634, 0.7645474076271057, 0.7825993895530701, 0.8232151865959167, 0.797091543674469, 0.8863174319267273, 0.6333767771720886, 0.7023971080780029, 0.6474566459655762, 0.9479569792747498, 0.9301890730857849, 0.9149442911148071, 0.7884968519210815, 0.7269017100334167, 0.3675364553928375, 0.7420946359634399, 0.5834240317344666, 0.740545392036438, 0.49690359830856323, 0.7042519450187683, 0.9272552132606506, 0.7785418033599854, 0.6603891253471375, 0.6144980192184448, 0.600574791431427, 0.7731877565383911, 0.5598663687705994, 0.5407585501670837, 0.2405395209789276, 0.24502041935920715, 0.32164132595062256, 0.2504432499408722, 0.3757492005825043, 0.412638396024704, 0.6752052307128906, 0.7105761170387268, 0.7353948354721069, 0.47419410943984985, 0.6653742790222168, 0.7863993644714355, 0.8484917879104614, 0.8568416237831116, 0.8701682090759277, 0.694144606590271, 0.8389050364494324, 0.8080941438674927, 0.8320629000663757, 0.7137826681137085, 0.4928302764892578, 0.6337934136390686, 0.5809159278869629, 0.7426161170005798, 0.3743954300880432, 0.6512704491615295, 0.8466457724571228, 0.7108919024467468, 0.8621309995651245, 0.8305670619010925, 0.6607964038848877, 0.5969836711883545, 0.24799205362796783, 0.3399873971939087, 0.6369116306304932, 0.7813000679016113, 0.8572707176208496, 0.7500423192977905, 0.5427238941192627, 0.5798953771591187, 0.6055957674980164, 0.9119178056716919, 0.8223003149032593, 0.8298405408859253, 0.7625598907470703, 0.76521235704422, 0.9371069073677063, 0.7856664657592773, 0.784741997718811]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9253193140029907</v>
+        <v>0.9479569792747498</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.6616908999858424</v>
+        <v>0.6899563999904785</v>
       </c>
       <c r="J111" t="n">
-        <v>0.005560427730973466</v>
+        <v>0.005797952941096458</v>
       </c>
     </row>
     <row r="112">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[0.9845414161682129, 0.9492366909980774, 0.8510896563529968, 0.9622592926025391, 0.9867942929267883, 0.99128258228302, 0.9899466633796692, 0.987052857875824, 0.996557354927063, 0.9866572022438049, 0.9728058576583862, 0.9725217819213867, 0.9753192663192749, 0.9950472116470337, 0.9891448616981506, 0.9920964241027832, 0.9946413040161133, 0.9667888283729553, 0.9799110889434814, 0.9966188669204712, 0.9872855544090271, 0.9628735184669495, 0.8718898892402649, 0.994243323802948, 0.9935675263404846, 0.9793009757995605, 0.9920137524604797, 0.9959916472434998, 0.9910753965377808, 0.9946330785751343, 0.9964960217475891, 0.9937268495559692, 0.9921939373016357, 0.9972489476203918, 0.993729829788208, 0.9953461289405823, 0.9943601489067078, 0.9961754083633423, 0.9934712648391724, 0.984419047832489, 0.8729127645492554, 0.9373720288276672, 0.9784746766090393, 0.9802466630935669, 0.9931899905204773, 0.9771009683609009, 0.9772943258285522, 0.9592965245246887, 0.9604164958000183, 0.9556513428688049, 0.9601739645004272, 0.9629242420196533, 0.9536443948745728, 0.9351708889007568, 0.9393278360366821, 0.9177684187889099, 0.9303966760635376, 0.823074221611023, 0.8257735371589661, 0.9458861351013184, 0.9340766668319702, 0.9585784077644348, 0.9729297161102295, 0.9259560108184814, 0.9293084144592285, 0.9535818696022034, 0.8824737071990967, 0.9015249013900757, 0.8401113748550415, 0.8359822034835815, 0.5795961022377014, 0.5607175230979919, 0.7743919491767883, 0.7017931342124939, 0.6484201550483704, 0.7737346887588501, 0.5528781414031982, 0.5527430772781372, 0.4614095389842987, 0.5041981935501099, 0.680640697479248, 0.6976317167282104, 0.717637836933136, 0.8411032557487488, 0.6614553928375244, 0.6356597542762756, 0.9034295678138733, 0.8480210304260254, 0.9452760815620422, 0.9895333647727966, 0.9844213724136353, 0.9550617337226868, 0.9127668738365173, 0.9696799516677856, 0.9833574891090393, 0.977167546749115, 0.9371778964996338, 0.9707867503166199, 0.9884588122367859, 0.9748880863189697, 0.9591200947761536, 0.9706099629402161, 0.685659646987915, 0.6370785236358643, 0.5684021711349487, 0.478556364774704, 0.29269009828567505, 0.2765541970729828, 0.917169988155365, 0.941453754901886, 0.9027126431465149, 0.9072122573852539, 0.7341867089271545, 0.6797009706497192, 0.40450024604797363, 0.383442223072052, 0.6073065996170044, 0.611051619052887]</t>
+          <t>[0.9970740079879761, 0.9912042021751404, 0.953384518623352, 0.9881657361984253, 0.997553288936615, 0.9985657334327698, 0.9982128143310547, 0.9973433613777161, 0.9988365769386292, 0.9961519837379456, 0.992968738079071, 0.9949325919151306, 0.9956942796707153, 0.9984920024871826, 0.9973810315132141, 0.9979043006896973, 0.9985525012016296, 0.9919523596763611, 0.9962127208709717, 0.9990505576133728, 0.9953615069389343, 0.9901222586631775, 0.9600375294685364, 0.9980321526527405, 0.998127281665802, 0.9910150170326233, 0.9973462820053101, 0.9985118508338928, 0.9964732527732849, 0.9979053735733032, 0.9988986253738403, 0.9978678226470947, 0.9975512623786926, 0.9988502264022827, 0.9968564510345459, 0.9982367753982544, 0.9970370531082153, 0.998128354549408, 0.9954354166984558, 0.9900062680244446, 0.8558118939399719, 0.9473893642425537, 0.9876091480255127, 0.983715832233429, 0.9967604279518127, 0.9797089695930481, 0.9789798259735107, 0.9513705372810364, 0.9577658772468567, 0.9597290754318237, 0.9695232510566711, 0.9580439329147339, 0.9514264464378357, 0.9563167691230774, 0.9326730966567993, 0.9024958610534668, 0.9331101775169373, 0.7096168994903564, 0.7477111220359802, 0.9500119090080261, 0.9302451014518738, 0.9581759572029114, 0.9673915505409241, 0.9225776195526123, 0.8949502110481262, 0.954217255115509, 0.8273550868034363, 0.7824659943580627, 0.6482885479927063, 0.7570648193359375, 0.3974274694919586, 0.3936363160610199, 0.7480109930038452, 0.5910502076148987, 0.4769316017627716, 0.7046149969100952, 0.36020711064338684, 0.34988656640052795, 0.2636749744415283, 0.35966384410858154, 0.5071502327919006, 0.466213583946228, 0.4778306186199188, 0.7409142851829529, 0.48080334067344666, 0.46813637018203735, 0.837279736995697, 0.6739952564239502, 0.8801538348197937, 0.9906079769134521, 0.9887802600860596, 0.9555650949478149, 0.9449682831764221, 0.980156660079956, 0.9926481246948242, 0.9901580214500427, 0.9777581691741943, 0.9886481165885925, 0.9943086504936218, 0.9891590476036072, 0.9898170232772827, 0.9877501130104065, 0.8551841378211975, 0.8533368706703186, 0.8295875787734985, 0.6917938590049744, 0.35985782742500305, 0.27057749032974243, 0.9414399266242981, 0.9631960391998291, 0.9220364093780518, 0.95546555519104, 0.8730921149253845, 0.8746830224990845, 0.5235644578933716, 0.6327974796295166, 0.8320049047470093, 0.8342922925949097]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9972489476203918</v>
+        <v>0.9990505576133728</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.672319500008598</v>
+        <v>0.6653112000058172</v>
       </c>
       <c r="J112" t="n">
-        <v>0.005697622881428797</v>
+        <v>0.005638230508523875</v>
       </c>
     </row>
     <row r="113">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[0.6439624428749084, 0.8681506514549255, 0.6642820835113525, 0.3994583487510681, 0.4731612801551819, 0.7078308463096619, 0.5576766729354858, 0.6082197427749634, 0.7252914905548096, 0.8127207159996033, 0.6102356314659119, 0.8941742181777954, 0.8067547082901001, 0.6937280893325806, 0.8391309976577759, 0.6126988530158997, 0.25446295738220215, 0.34061023592948914, 0.5943975448608398, 0.926194429397583, 0.9855839014053345, 0.986727774143219, 0.9898180365562439, 0.9841602444648743, 0.9715068340301514, 0.9798269271850586, 0.9862673282623291, 0.9806960225105286, 0.9829050302505493, 0.9625779390335083, 0.9649781584739685, 0.9744488000869751, 0.9715459942817688, 0.9738497138023376, 0.9842610359191895, 0.9837837815284729, 0.9713870286941528, 0.9809848070144653, 0.9825277924537659, 0.9835494756698608, 0.98589026927948, 0.9870213866233826, 0.9637221693992615, 0.9381331205368042, 0.9492334127426147, 0.9135332107543945, 0.8282240629196167, 0.6305828094482422, 0.26603418588638306, 0.6889979839324951, 0.7514848113059998, 0.33331266045570374, 0.39954766631126404, 0.7853091359138489, 0.8370704650878906, 0.7695123553276062, 0.3235107362270355, 0.21429933607578278, 0.20631736516952515, 0.41990411281585693, 0.43871334195137024, 0.4026029109954834, 0.6753018498420715, 0.9490376114845276, 0.824053943157196, 0.8296687602996826, 0.9449047446250916, 0.9864804148674011, 0.9937601685523987, 0.9635444283485413, 0.8349512219429016, 0.8891012668609619, 0.9640036225318909, 0.8711910247802734, 0.659024715423584, 0.8783205151557922, 0.8365167379379272, 0.4897449016571045, 0.144729882478714, 0.3178543746471405, 0.34174051880836487, 0.1902310699224472, 0.5773743391036987, 0.7528942823410034, 0.3398660719394684, 0.6167216300964355, 0.6205156445503235, 0.5520641207695007, 0.12222841382026672, 0.6347194910049438, 0.5331233143806458, 0.22674371302127838, 0.30569612979888916, 0.5442221164703369, 0.9606016874313354, 0.9720974564552307, 0.9813467264175415, 0.9797813892364502, 0.9614385366439819, 0.9650139808654785, 0.9707463979721069, 0.975357174873352, 0.9727638959884644, 0.9832578301429749, 0.9788383841514587, 0.9781831502914429, 0.980430543422699, 0.985896646976471, 0.9834471940994263, 0.976131796836853, 0.9691686034202576, 0.9557132720947266, 0.9649662375450134, 0.9811856150627136, 0.9902779459953308, 0.7964137196540833, 0.801813006401062, 0.8020159602165222]</t>
+          <t>[0.797033429145813, 0.9488279819488525, 0.8266778588294983, 0.6285921335220337, 0.6899979710578918, 0.8928652405738831, 0.7691860795021057, 0.8462983965873718, 0.8591302633285522, 0.9041417241096497, 0.5608980059623718, 0.8820321559906006, 0.7378578186035156, 0.6007440090179443, 0.7660514116287231, 0.5721505284309387, 0.1393434703350067, 0.20375573635101318, 0.5857335925102234, 0.9253858327865601, 0.98563551902771, 0.9872045516967773, 0.9939275979995728, 0.9868284463882446, 0.9792004823684692, 0.9825431108474731, 0.9877047538757324, 0.9838688969612122, 0.9838982224464417, 0.9676268696784973, 0.9639456868171692, 0.9783104658126831, 0.9762250185012817, 0.975600004196167, 0.9874345660209656, 0.9843675494194031, 0.9736663699150085, 0.9850645661354065, 0.9841189384460449, 0.9850680232048035, 0.9867298603057861, 0.9901673793792725, 0.9554433226585388, 0.9469214081764221, 0.9451702237129211, 0.8995979428291321, 0.7583159804344177, 0.4373779296875, 0.14789016544818878, 0.49004992842674255, 0.6475663185119629, 0.23535721004009247, 0.3240860104560852, 0.7182936668395996, 0.8282022476196289, 0.8687789440155029, 0.40440666675567627, 0.23217663168907166, 0.1965475231409073, 0.4247850179672241, 0.4899356961250305, 0.5492022037506104, 0.7934017181396484, 0.9793908596038818, 0.9163931608200073, 0.9329758882522583, 0.983955442905426, 0.9961044788360596, 0.9978064894676208, 0.989730954170227, 0.9337579607963562, 0.9602836966514587, 0.9890666007995605, 0.9386441111564636, 0.7945593595504761, 0.9314303398132324, 0.9071004390716553, 0.6080068945884705, 0.16037817299365997, 0.5185824632644653, 0.5833306908607483, 0.19942452013492584, 0.565846860408783, 0.7110576033592224, 0.1602822095155716, 0.4062645137310028, 0.3064814805984497, 0.297946959733963, 0.03285917267203331, 0.30845844745635986, 0.2974197268486023, 0.1093216985464096, 0.23305146396160126, 0.3124922811985016, 0.9608550667762756, 0.9717663526535034, 0.9799521565437317, 0.9791491627693176, 0.9429531097412109, 0.952502965927124, 0.9629524350166321, 0.9744818806648254, 0.9733231663703918, 0.9858505129814148, 0.9848121404647827, 0.9827573299407959, 0.9826487302780151, 0.9884777665138245, 0.9865663647651672, 0.9791569709777832, 0.9716188311576843, 0.9567874073982239, 0.9659556150436401, 0.9835894107818604, 0.9948118925094604, 0.7015087604522705, 0.7645482420921326, 0.7648375034332275]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9937601685523987</v>
+        <v>0.9978064894676208</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.7671533999964595</v>
+        <v>0.8181006999948295</v>
       </c>
       <c r="J113" t="n">
-        <v>0.006501299999969996</v>
+        <v>0.006933056779617199</v>
       </c>
     </row>
     <row r="114">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[0.978029191493988, 0.9703445434570312, 0.9663931131362915, 0.9673792719841003, 0.9544135332107544, 0.9544612169265747, 0.9609477519989014, 0.9717628955841064, 0.992984414100647, 0.9876931309700012, 0.984312117099762, 0.9648848176002502, 0.6448627710342407, 0.703764796257019, 0.7615195512771606, 0.23136743903160095, 0.29713156819343567, 0.3645956218242645, 0.6872016787528992, 0.4791412949562073, 0.3969806134700775, 0.5054823756217957, 0.5565571784973145, 0.7944479584693909, 0.7484229803085327, 0.28361719846725464, 0.9011347889900208, 0.2639714777469635, 0.27977240085601807, 0.865431010723114, 0.5637922883033752, 0.887649655342102, 0.8404102921485901, 0.9241622686386108, 0.6916211247444153, 0.9764859676361084, 0.9685134887695312, 0.9748099446296692, 0.9872215390205383, 0.964878261089325, 0.9664103388786316, 0.9577878713607788, 0.9688859581947327, 0.6990140080451965, 0.7992935180664062, 0.8616337776184082, 0.9599120616912842, 0.8993279933929443, 0.7870447635650635, 0.924943208694458, 0.8023165464401245, 0.7871168255805969, 0.9597551226615906, 0.9802051186561584, 0.9764792323112488, 0.9577974081039429, 0.8734117746353149, 0.9854270219802856, 0.9688249826431274, 0.9860192537307739, 0.9840813875198364, 0.9296019673347473, 0.8286175727844238, 0.981050968170166, 0.9943959712982178, 0.9869605302810669, 0.9005445837974548, 0.9938894510269165, 0.9822966456413269, 0.9671268463134766, 0.9727311730384827, 0.9669601917266846, 0.9315682053565979, 0.9122889041900635, 0.9071286916732788, 0.9364367723464966, 0.7271410822868347, 0.860495388507843, 0.9524621963500977, 0.9496800303459167, 0.9806413650512695, 0.9357689619064331, 0.9647879004478455, 0.9446015954017639, 0.966764509677887, 0.9595020413398743, 0.7989847660064697, 0.9625601768493652, 0.9005861878395081, 0.7458396553993225, 0.6701869964599609, 0.8673115968704224, 0.9164041876792908, 0.8221146464347839, 0.9187994003295898, 0.8837004899978638, 0.562705397605896, 0.283284068107605, 0.27401772141456604, 0.1673436015844345, 0.3404691219329834, 0.527142345905304, 0.8616713881492615, 0.8760403990745544, 0.8643724918365479, 0.960316002368927, 0.8961951732635498, 0.8661758899688721, 0.9861542582511902, 0.9914313554763794, 0.9830758571624756, 0.9492863416671753, 0.9325739145278931, 0.9627158045768738, 0.9743952751159668, 0.940725564956665, 0.8772205114364624, 0.877439558506012]</t>
+          <t>[0.9950238466262817, 0.9938600063323975, 0.99664306640625, 0.9960269927978516, 0.9951648712158203, 0.9957642555236816, 0.9957291483879089, 0.9959456324577332, 0.9987567663192749, 0.9984311461448669, 0.9975159168243408, 0.9947845339775085, 0.9286938905715942, 0.9558005332946777, 0.9671928882598877, 0.6578681468963623, 0.6869106292724609, 0.7815090417861938, 0.9092192053794861, 0.8417214751243591, 0.6448409557342529, 0.8091593980789185, 0.9076449275016785, 0.9743316769599915, 0.9785476922988892, 0.7601483464241028, 0.988994300365448, 0.7032977342605591, 0.5084514021873474, 0.9857949018478394, 0.9203928709030151, 0.9843554496765137, 0.9796661734580994, 0.9865437150001526, 0.966060996055603, 0.9966199398040771, 0.9978273510932922, 0.9970327615737915, 0.9978197813034058, 0.9956632256507874, 0.995072066783905, 0.9947403073310852, 0.9942546486854553, 0.9510568976402283, 0.9630539417266846, 0.9844446182250977, 0.9947006702423096, 0.9845367074012756, 0.9632182717323303, 0.9866366982460022, 0.9642565846443176, 0.9496216177940369, 0.994371771812439, 0.9969667792320251, 0.9960403442382812, 0.9940203428268433, 0.9851507544517517, 0.998174786567688, 0.9956121444702148, 0.9982303977012634, 0.9979128241539001, 0.9940139651298523, 0.9799742698669434, 0.9980202913284302, 0.9986932873725891, 0.9980509281158447, 0.9908685684204102, 0.9986214637756348, 0.9955525994300842, 0.9927952885627747, 0.9952234625816345, 0.9943144917488098, 0.9890574812889099, 0.9853330254554749, 0.9819980263710022, 0.9855985045433044, 0.9571360945701599, 0.9735756516456604, 0.9943821430206299, 0.9926331639289856, 0.9971808195114136, 0.9924989342689514, 0.9953840374946594, 0.9892789721488953, 0.9950293898582458, 0.9939275979995728, 0.9717099666595459, 0.9965437054634094, 0.9927188158035278, 0.970698356628418, 0.9541199207305908, 0.9893386960029602, 0.9921992421150208, 0.9772696495056152, 0.9878342151641846, 0.9815729856491089, 0.8923400044441223, 0.6832240223884583, 0.722183883190155, 0.4169875979423523, 0.6987763047218323, 0.8356600403785706, 0.9778091311454773, 0.9876902103424072, 0.9790738821029663, 0.9941593408584595, 0.9832947850227356, 0.9835415482521057, 0.9979422688484192, 0.9984750151634216, 0.9980504512786865, 0.9944463968276978, 0.9942548871040344, 0.9962939620018005, 0.997240424156189, 0.9911677837371826, 0.9748793840408325, 0.9749224185943604]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9943959712982178</v>
+        <v>0.9987567663192749</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.6669526000041515</v>
+        <v>0.6755338000075426</v>
       </c>
       <c r="J114" t="n">
-        <v>0.005652140678001284</v>
+        <v>0.005724862711928327</v>
       </c>
     </row>
     <row r="115">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[0.9760729074478149, 0.9776125550270081, 0.986261785030365, 0.9499961137771606, 0.9868374466896057, 0.9799209237098694, 0.9347531795501709, 0.9531471729278564, 0.9805616736412048, 0.9867048859596252, 0.97210294008255, 0.9601169228553772, 0.9617467522621155, 0.9960070252418518, 0.9967812299728394, 0.99674391746521, 0.9963001608848572, 0.9950534701347351, 0.9914474487304688, 0.997464656829834, 0.9982523322105408, 0.9948462247848511, 0.9870107173919678, 0.8766704797744751, 0.9897264838218689, 0.9851309657096863, 0.9886687397956848, 0.9696000218391418, 0.9744161367416382, 0.9422086477279663, 0.988631546497345, 0.8315900564193726, 0.8142856359481812, 0.5832815170288086, 0.806084156036377, 0.5804035067558289, 0.9052115678787231, 0.9690125584602356, 0.8528010249137878, 0.9708596467971802, 0.8540756702423096, 0.9787781238555908, 0.9815806746482849, 0.9864211082458496, 0.9830948710441589, 0.9031699299812317, 0.9184007048606873, 0.9478150010108948, 0.9784128069877625, 0.8977493047714233, 0.862586259841919, 0.9095948934555054, 0.6408182382583618, 0.6904350519180298, 0.8784292340278625, 0.5161609053611755, 0.5432349443435669, 0.8491867184638977, 0.724431574344635, 0.22249862551689148, 0.697892427444458, 0.9298359751701355, 0.9376028776168823, 0.9588832855224609, 0.9892667531967163, 0.9163092970848083, 0.8542402982711792, 0.9029545187950134, 0.9844377636909485, 0.9893325567245483, 0.9332914352416992, 0.8896182179450989, 0.9338459372520447, 0.6203673481941223, 0.8699195981025696, 0.9762756824493408, 0.9895582795143127, 0.9769608378410339, 0.9807575941085815, 0.9729569554328918, 0.9855360388755798, 0.9969518184661865, 0.9887112379074097, 0.9727714657783508, 0.977583646774292, 0.9721580743789673, 0.9885513186454773, 0.9857527613639832, 0.9612531065940857, 0.8971531391143799, 0.6926348209381104, 0.7330435514450073, 0.9397416114807129, 0.9895275235176086, 0.9805868864059448, 0.9797459244728088, 0.962792158126831, 0.7835404872894287, 0.5697519779205322, 0.988688051700592, 0.9897288084030151, 0.9820876717567444, 0.9803587198257446, 0.9922783374786377, 0.9924957752227783, 0.9916574358940125, 0.9870418310165405, 0.950986385345459, 0.9468288421630859, 0.8680156469345093, 0.9534702301025391, 0.939887523651123, 0.9376912117004395, 0.8952237367630005, 0.9725332856178284, 0.8810381293296814, 0.9315474629402161, 0.9316073656082153]</t>
+          <t>[0.9892842173576355, 0.9920976161956787, 0.9961463212966919, 0.9890156388282776, 0.9977530837059021, 0.9940669536590576, 0.9826860427856445, 0.9885817170143127, 0.9942552447319031, 0.9963715076446533, 0.994440495967865, 0.9869241118431091, 0.9900049567222595, 0.9986246824264526, 0.9990563988685608, 0.9990034699440002, 0.9987292885780334, 0.998505711555481, 0.9973161816596985, 0.9990285634994507, 0.9994316697120667, 0.9981657862663269, 0.9950993657112122, 0.9269332885742188, 0.9981169700622559, 0.9969722032546997, 0.9974756836891174, 0.994702160358429, 0.9961555600166321, 0.9896097183227539, 0.997517466545105, 0.9480739831924438, 0.9538002014160156, 0.7677730917930603, 0.9217987060546875, 0.678621232509613, 0.9598328471183777, 0.9872750043869019, 0.9432743787765503, 0.9946287274360657, 0.9679208397865295, 0.9960571527481079, 0.9964403510093689, 0.9961807727813721, 0.993536651134491, 0.9741405844688416, 0.9855216145515442, 0.9933384656906128, 0.9959889054298401, 0.9795026779174805, 0.9702134132385254, 0.974195122718811, 0.875511646270752, 0.916580080986023, 0.9661265015602112, 0.7539324164390564, 0.8520880937576294, 0.9734687209129333, 0.9588308930397034, 0.44150108098983765, 0.9459145665168762, 0.990673840045929, 0.9888563752174377, 0.9933348894119263, 0.9971279501914978, 0.982611894607544, 0.9649491906166077, 0.9859915375709534, 0.9977408647537231, 0.997103750705719, 0.982677161693573, 0.9745422005653381, 0.9828277826309204, 0.7314927577972412, 0.9744725823402405, 0.995375394821167, 0.9979630708694458, 0.9953905344009399, 0.9965571165084839, 0.9956089854240417, 0.9981182813644409, 0.9993458390235901, 0.9980510473251343, 0.9944130778312683, 0.995498538017273, 0.9959946870803833, 0.9978535771369934, 0.9972226619720459, 0.9924813508987427, 0.9743033051490784, 0.8638604283332825, 0.9204345941543579, 0.9906094670295715, 0.9966939687728882, 0.9952749013900757, 0.9948630928993225, 0.9913051724433899, 0.9604813456535339, 0.8499677777290344, 0.9970594048500061, 0.9970596432685852, 0.9945080876350403, 0.9958749413490295, 0.9983075857162476, 0.9983246922492981, 0.9978708028793335, 0.9974815249443054, 0.9914988875389099, 0.9914141297340393, 0.9736641049385071, 0.9949330687522888, 0.9904313683509827, 0.9903719425201416, 0.9803164601325989, 0.9939553141593933, 0.9416524171829224, 0.9713143706321716, 0.9713717103004456]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9982523322105408</v>
+        <v>0.9994316697120667</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -5143,10 +5143,10 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.6700227000110317</v>
+        <v>0.6688848000048893</v>
       </c>
       <c r="J115" t="n">
-        <v>0.00567815847466976</v>
+        <v>0.005668515254278723</v>
       </c>
     </row>
     <row r="116">
@@ -5165,11 +5165,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[0.9919773936271667, 0.9856892824172974, 0.9641158580780029, 0.9835690855979919, 0.9915364980697632, 0.9926655888557434, 0.9944234490394592, 0.9903331398963928, 0.992355227470398, 0.9863298535346985, 0.9933772683143616, 0.9910813570022583, 0.9839911460876465, 0.981681764125824, 0.97519850730896, 0.9794144034385681, 0.9807258248329163, 0.9876977801322937, 0.9775599241256714, 0.9566503763198853, 0.9811739921569824, 0.992655873298645, 0.9663287401199341, 0.9851478934288025, 0.9758557081222534, 0.9772481322288513, 0.986377477645874, 0.9919636249542236, 0.9887008666992188, 0.9959975481033325, 0.995380163192749, 0.9941496849060059, 0.9966748952865601, 0.9942346215248108, 0.9943475127220154, 0.9957318902015686, 0.9945698380470276, 0.993417501449585, 0.9946887493133545, 0.9897629022598267, 0.9396366477012634, 0.989224374294281, 0.9901162981987, 0.9837400317192078, 0.9944450259208679, 0.9909920692443848, 0.9879960417747498, 0.9523753523826599, 0.9441477060317993, 0.92970210313797, 0.8076065182685852, 0.8208742141723633, 0.9560325145721436, 0.9255093932151794, 0.8940315842628479, 0.8819244503974915, 0.9775920510292053, 0.9622179865837097, 0.9814474582672119, 0.9473516941070557, 0.8589113354682922, 0.7813224792480469, 0.858487606048584, 0.9389637112617493, 0.713129997253418, 0.7750975489616394, 0.8481504917144775, 0.4710852801799774, 0.5186322927474976, 0.7158104181289673, 0.5709955096244812, 0.5271947383880615, 0.4480043351650238, 0.2425534427165985, 0.3048555254936218, 0.6352115869522095, 0.5301187634468079, 0.4599117040634155, 0.9231583476066589, 0.9738314151763916, 0.9466872215270996, 0.9789820313453674, 0.968864917755127, 0.984071671962738, 0.9959444403648376, 0.9918043613433838, 0.9938563704490662, 0.9916702508926392, 0.9951487183570862, 0.991480827331543, 0.9957664012908936, 0.9926146268844604, 0.9958232641220093, 0.98867267370224, 0.9517321586608887, 0.9851735830307007, 0.9518258571624756, 0.9114757180213928, 0.8225401043891907, 0.832551121711731, 0.9615721106529236, 0.9169139266014099, 0.9048423767089844, 0.8658678531646729, 0.7316690683364868, 0.7335083484649658, 0.7881779670715332, 0.6255677938461304, 0.8028967380523682, 0.8505547642707825, 0.8768137097358704, 0.9234349727630615, 0.9241513013839722, 0.7438539266586304, 0.9266861081123352, 0.9805858731269836, 0.9069082140922546, 0.9068566560745239]</t>
+          <t>[0.9977059364318848, 0.9965707063674927, 0.9941962957382202, 0.9961011409759521, 0.9973908066749573, 0.9966720342636108, 0.9972541928291321, 0.9963281750679016, 0.9968440532684326, 0.9954364895820618, 0.9980058073997498, 0.994668185710907, 0.9891946315765381, 0.9841594696044922, 0.9859095215797424, 0.9864580035209656, 0.9854770302772522, 0.9932015538215637, 0.986706554889679, 0.9712606072425842, 0.9897018671035767, 0.9960616230964661, 0.9834607839584351, 0.9931774139404297, 0.9908316731452942, 0.9911332726478577, 0.9950329065322876, 0.9956745505332947, 0.9962215423583984, 0.9986472725868225, 0.9984058737754822, 0.9980625510215759, 0.9987483024597168, 0.9981537461280823, 0.9984924793243408, 0.9986995458602905, 0.9984750151634216, 0.9977388381958008, 0.9981312155723572, 0.9965084195137024, 0.9699918627738953, 0.9928708672523499, 0.9931038022041321, 0.9899929165840149, 0.9977431297302246, 0.9960014224052429, 0.9940707087516785, 0.9516152143478394, 0.9360427260398865, 0.9238142967224121, 0.7944767475128174, 0.9103307723999023, 0.9765245914459229, 0.9363351464271545, 0.9120526909828186, 0.9294084310531616, 0.9921483993530273, 0.9823143482208252, 0.9910076260566711, 0.9680518507957458, 0.848240315914154, 0.7588247060775757, 0.8292096257209778, 0.9596515893936157, 0.7510560154914856, 0.7700198888778687, 0.8286561369895935, 0.4243306517601013, 0.5276473164558411, 0.6715223789215088, 0.545175313949585, 0.48840099573135376, 0.40854984521865845, 0.20824022591114044, 0.28687337040901184, 0.7293594479560852, 0.4867057800292969, 0.44864165782928467, 0.9608161449432373, 0.9929518103599548, 0.9828271865844727, 0.9917435050010681, 0.9917318820953369, 0.9965407252311707, 0.9989370703697205, 0.9983769655227661, 0.998414158821106, 0.9978367686271667, 0.9985432624816895, 0.9976696372032166, 0.9986240863800049, 0.9978364109992981, 0.9984591007232666, 0.9965113997459412, 0.9835422039031982, 0.9939372539520264, 0.9717444181442261, 0.9432848691940308, 0.8190565705299377, 0.8331546187400818, 0.9748122096061707, 0.9404836297035217, 0.9198872447013855, 0.8841350674629211, 0.6310927271842957, 0.8065842986106873, 0.858691394329071, 0.6890484690666199, 0.8607465028762817, 0.9313591122627258, 0.8881002068519592, 0.9310530424118042, 0.9338954091072083, 0.7399759888648987, 0.9591091275215149, 0.9897128343582153, 0.9471008777618408, 0.9471349716186523]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9966748952865601</v>
+        <v>0.9989370703697205</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.6657928999920841</v>
+        <v>0.6931268000043929</v>
       </c>
       <c r="J116" t="n">
-        <v>0.005642312711797323</v>
+        <v>0.005873955932240617</v>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[0.9097574949264526, 0.8848428726196289, 0.9074012637138367, 0.8819010257720947, 0.917872428894043, 0.954164981842041, 0.9675978422164917, 0.963606595993042, 0.8821138143539429, 0.8140815496444702, 0.7612694501876831, 0.8022457957267761, 0.8658822178840637, 0.8987119793891907, 0.9083985090255737, 0.8619899749755859, 0.8748096823692322, 0.9130018353462219, 0.8628822565078735, 0.8834094405174255, 0.918783962726593, 0.9057363867759705, 0.9082942605018616, 0.9259170889854431, 0.9231401681900024, 0.8375244736671448, 0.5707677602767944, 0.48758023977279663, 0.3917582929134369, 0.3023003935813904, 0.2397754192352295, 0.30317676067352295, 0.8712487816810608, 0.8721461892127991, 0.8824317455291748, 0.9588972926139832, 0.9722214937210083, 0.9645383358001709, 0.9221466183662415, 0.9372391104698181, 0.9556761384010315, 0.9612624645233154, 0.9508885741233826, 0.9680541157722473, 0.9655954837799072, 0.9628238081932068, 0.9724775552749634, 0.9558488726615906, 0.961955189704895, 0.946853756904602, 0.9306115508079529, 0.9290087223052979, 0.9403703212738037, 0.9310644865036011, 0.9380007386207581, 0.9517785906791687, 0.8963377475738525, 0.8120170831680298, 0.8633602857589722, 0.9202920198440552, 0.9514003396034241, 0.9601200222969055, 0.9676684141159058, 0.9541116952896118, 0.9656407237052917, 0.9750027656555176, 0.9676831364631653, 0.9766470193862915, 0.9618365168571472, 0.9684332013130188, 0.9600069522857666, 0.9471117854118347, 0.9359923005104065, 0.9234797358512878, 0.8944873809814453, 0.6892279982566833, 0.7198343276977539, 0.8370406627655029, 0.7895744442939758, 0.8861817717552185, 0.8923826217651367, 0.8376617431640625, 0.7872324585914612, 0.7601921558380127, 0.810049831867218, 0.8418670296669006, 0.8694112300872803, 0.8740578889846802, 0.8188909292221069, 0.7266309857368469, 0.6840404272079468, 0.8716071844100952, 0.8154500722885132, 0.7910354137420654, 0.7565601468086243, 0.8554658889770508, 0.8938640356063843, 0.9034905433654785, 0.7997846007347107, 0.6430234909057617, 0.7549722790718079, 0.8697323203086853, 0.7260823249816895, 0.5021837949752808, 0.4521178901195526, 0.33500397205352783, 0.3285868465900421, 0.6770966053009033, 0.7757627964019775, 0.8981196284294128, 0.9627657532691956, 0.9462460279464722, 0.9565929770469666, 0.8600484132766724, 0.8863715529441833, 0.897469699382782, 0.8995329737663269, 0.8862072825431824, 0.8511552214622498, 0.8714203834533691, 0.8300237059593201, 0.8848764896392822, 0.889740526676178, 0.8531006574630737, 0.8393132090568542, 0.9209820032119751, 0.9168317317962646, 0.8553769588470459, 0.7784257531166077, 0.7548097372055054, 0.7562984228134155, 0.9060509204864502, 0.8520283699035645, 0.5711280107498169, 0.23587369918823242, 0.1768825203180313, 0.24907512962818146, 0.2394624948501587, 0.2114456743001938, 0.16900992393493652, 0.09721172600984573, 0.11002893000841141, 0.23398791253566742, 0.1892252415418625, 0.30693519115448, 0.5753276944160461, 0.9707444906234741, 0.9676027894020081, 0.9264788031578064, 0.9347652792930603, 0.9422873854637146, 0.9506078958511353, 0.9766878485679626, 0.9751811623573303, 0.964651882648468, 0.9335812926292419, 0.9329731464385986]</t>
+          <t>[0.9541269540786743, 0.9530665874481201, 0.9717517495155334, 0.9698789119720459, 0.9800454378128052, 0.986589789390564, 0.9907037615776062, 0.9878843426704407, 0.9486084580421448, 0.901707649230957, 0.8671834468841553, 0.8669390678405762, 0.9143376350402832, 0.9495002627372742, 0.9733805060386658, 0.959876537322998, 0.9518418312072754, 0.9745820760726929, 0.9442325234413147, 0.9611257910728455, 0.9774277210235596, 0.9755820035934448, 0.9815799593925476, 0.9849770069122314, 0.981826663017273, 0.9576826691627502, 0.8300966620445251, 0.7328739166259766, 0.6056804060935974, 0.5801987051963806, 0.4792364835739136, 0.6067185401916504, 0.9669165015220642, 0.9610827565193176, 0.9731214046478271, 0.9890668392181396, 0.9914759397506714, 0.9891788959503174, 0.9789113998413086, 0.984478235244751, 0.9902130961418152, 0.9909093976020813, 0.9864627718925476, 0.991260826587677, 0.9899786710739136, 0.9878749251365662, 0.9917901754379272, 0.9897838234901428, 0.9890121221542358, 0.9820746779441833, 0.9683383703231812, 0.9745848178863525, 0.9820221662521362, 0.9746320247650146, 0.9735401272773743, 0.9826215505599976, 0.9601187109947205, 0.9365081787109375, 0.9607835412025452, 0.9665282368659973, 0.9864786267280579, 0.9902303814888, 0.9911572933197021, 0.983721137046814, 0.9856861233711243, 0.9917274713516235, 0.9912002682685852, 0.9947267174720764, 0.9919354915618896, 0.9920640587806702, 0.9875412583351135, 0.9813441038131714, 0.974474310874939, 0.9721221327781677, 0.9587854743003845, 0.8401931524276733, 0.8361137509346008, 0.9202732443809509, 0.901334822177887, 0.9487278461456299, 0.9424766898155212, 0.8933902978897095, 0.8661924004554749, 0.8600010275840759, 0.8997734785079956, 0.926652193069458, 0.9528082609176636, 0.9562057852745056, 0.9201995134353638, 0.821318507194519, 0.7595935463905334, 0.9202750325202942, 0.921221911907196, 0.890424370765686, 0.8656066656112671, 0.9080508947372437, 0.9342716932296753, 0.9709715843200684, 0.9580050110816956, 0.9236024022102356, 0.9564294219017029, 0.9574195742607117, 0.8580985069274902, 0.6484031677246094, 0.6737381815910339, 0.49644508957862854, 0.48990312218666077, 0.8521770238876343, 0.9165098071098328, 0.9658677577972412, 0.9895710945129395, 0.9816641807556152, 0.985548198223114, 0.9591782093048096, 0.9705008864402771, 0.9708040356636047, 0.9666382074356079, 0.9468823671340942, 0.9281325936317444, 0.9416812062263489, 0.923669159412384, 0.9508994817733765, 0.9530965685844421, 0.9301382303237915, 0.9171519875526428, 0.961991012096405, 0.9556049704551697, 0.92850661277771, 0.8872783184051514, 0.8588796257972717, 0.84529048204422, 0.9381009936332703, 0.9152904748916626, 0.686494767665863, 0.46245577931404114, 0.31872496008872986, 0.4811435639858246, 0.43498551845550537, 0.34148043394088745, 0.24099214375019073, 0.09479359537363052, 0.0959671214222908, 0.2934041917324066, 0.2364356517791748, 0.5059942603111267, 0.7698392271995544, 0.9882823824882507, 0.987174391746521, 0.9659796953201294, 0.977715790271759, 0.982227623462677, 0.9857513308525085, 0.9930086135864258, 0.9922125935554504, 0.9875001311302185, 0.9797959327697754, 0.9795420169830322]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9766878485679626</v>
+        <v>0.9947267174720764</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.8910153000033461</v>
+        <v>0.9469098999979906</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005675256687919402</v>
+        <v>0.006031273248394845</v>
       </c>
     </row>
     <row r="118">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[0.9635531306266785, 0.9616384506225586, 0.9369710087776184, 0.8886617422103882, 0.9458473920822144, 0.9714098572731018, 0.9641549587249756, 0.97097247838974, 0.9745123386383057, 0.9746719598770142, 0.9719997644424438, 0.9760777950286865, 0.9746782183647156, 0.9750315546989441, 0.9754816889762878, 0.9724892973899841, 0.9763782024383545, 0.9702119827270508, 0.9567974805831909, 0.9556133151054382, 0.9740619659423828, 0.9725072979927063, 0.9720836877822876, 0.9785603880882263, 0.966939389705658, 0.9753506779670715, 0.9474544525146484, 0.9325239658355713, 0.9598500728607178, 0.9590609669685364, 0.9316501021385193, 0.9591817259788513, 0.9751436710357666, 0.9651716351509094, 0.9665233492851257, 0.9470187425613403, 0.9405664205551147, 0.9589559435844421, 0.9494742751121521, 0.9464219212532043, 0.958191454410553, 0.9831235408782959, 0.973863959312439, 0.9808672070503235, 0.9826503396034241, 0.982721745967865, 0.9696465134620667, 0.9219223856925964, 0.9037244319915771, 0.9227768182754517, 0.9753955006599426, 0.9659834504127502, 0.969720184803009, 0.9474459886550903, 0.9766422510147095, 0.9667103886604309, 0.9778761863708496, 0.9804312586784363, 0.9709404706954956, 0.9882303476333618, 0.9840561151504517, 0.9790384769439697, 0.992120623588562, 0.9905072450637817, 0.9888843297958374, 0.9916764497756958, 0.9888971447944641, 0.9882729649543762, 0.9909710884094238, 0.9881270527839661, 0.9858822822570801, 0.9864349365234375, 0.9853941202163696, 0.9839996695518494, 0.9798938035964966, 0.981908917427063, 0.973313570022583, 0.9733933806419373, 0.9636061787605286, 0.9781365990638733, 0.9680207967758179, 0.9729470014572144, 0.9653439521789551, 0.9700554609298706, 0.9606963992118835, 0.9715214967727661, 0.9449314475059509, 0.9054211378097534, 0.9101733565330505, 0.9589316844940186, 0.9312885999679565, 0.9416715502738953, 0.9278863668441772, 0.9556218385696411, 0.9506242871284485, 0.9329701662063599, 0.884998619556427, 0.9107275009155273, 0.9310941696166992, 0.9495235681533813, 0.9465360045433044, 0.9591565728187561, 0.9602106809616089, 0.9309201240539551, 0.9763952493667603, 0.9754056930541992, 0.9560431838035583, 0.9627329707145691, 0.9645200371742249, 0.9791820049285889, 0.9885772466659546, 0.991731584072113, 0.9918758869171143, 0.9937044978141785, 0.9916452765464783, 0.9862200021743774, 0.9882815480232239, 0.9901633858680725, 0.9917416572570801, 0.9833390712738037, 0.9745141267776489, 0.9768672585487366, 0.9713800549507141, 0.939708411693573, 0.9602097272872925, 0.9855895638465881, 0.9832351207733154, 0.9825406670570374, 0.9811084866523743, 0.9787775278091431, 0.9598889946937561, 0.9665222764015198, 0.9423022270202637, 0.9418060183525085, 0.8569754362106323, 0.833662748336792, 0.9101763963699341, 0.9348235130310059, 0.954275369644165, 0.9455013275146484, 0.9345110058784485, 0.9527144432067871, 0.9393222332000732, 0.908382773399353, 0.919455885887146, 0.9345128536224365, 0.9860503077507019, 0.9881998300552368, 0.9840350151062012, 0.9901386499404907, 0.9902952909469604, 0.9847385883331299, 0.9814115166664124, 0.9757754802703857, 0.9631466865539551, 0.9715430736541748, 0.9714617133140564]</t>
+          <t>[0.9790785312652588, 0.9767844080924988, 0.9662567377090454, 0.921430766582489, 0.9739018082618713, 0.9839891791343689, 0.9801212549209595, 0.9840980172157288, 0.9889230728149414, 0.9884938597679138, 0.9851601123809814, 0.9898365139961243, 0.9901988506317139, 0.9912192225456238, 0.9924699664115906, 0.9910809397697449, 0.9905415177345276, 0.9888297915458679, 0.9813675284385681, 0.9814794659614563, 0.9909638166427612, 0.9913313388824463, 0.9911035299301147, 0.9927194118499756, 0.9885984659194946, 0.991915225982666, 0.9830307960510254, 0.9751297235488892, 0.9844033718109131, 0.9821809530258179, 0.9559909105300903, 0.9714585542678833, 0.9882575869560242, 0.985592782497406, 0.9835092425346375, 0.9614169597625732, 0.9612829685211182, 0.9783748984336853, 0.9720928072929382, 0.969414472579956, 0.9789596199989319, 0.9933967590332031, 0.9898586869239807, 0.9938027858734131, 0.994636595249176, 0.993894636631012, 0.9835439324378967, 0.9151785373687744, 0.8842088580131531, 0.930695116519928, 0.9844153523445129, 0.9769399166107178, 0.9791265726089478, 0.9542682766914368, 0.9870663285255432, 0.9802886247634888, 0.9829869270324707, 0.9896942377090454, 0.9839311242103577, 0.9936880469322205, 0.9906823635101318, 0.9876794815063477, 0.9965276122093201, 0.9954727292060852, 0.9952195286750793, 0.9965779185295105, 0.9956032037734985, 0.9948090314865112, 0.9963317513465881, 0.9956912398338318, 0.9951298236846924, 0.9944614171981812, 0.9943547248840332, 0.9939311742782593, 0.9918387532234192, 0.9921492338180542, 0.9855123162269592, 0.9796820878982544, 0.9710874557495117, 0.9830693006515503, 0.9780704379081726, 0.9823085069656372, 0.9720521569252014, 0.9809383153915405, 0.9724922180175781, 0.9852002859115601, 0.9606630802154541, 0.9328649640083313, 0.9279107451438904, 0.9715238213539124, 0.9589428901672363, 0.9601823091506958, 0.9551706910133362, 0.9721183776855469, 0.9680257439613342, 0.9496851563453674, 0.8882405161857605, 0.9267017245292664, 0.9358447194099426, 0.9572240710258484, 0.960169792175293, 0.9699998497962952, 0.9666774272918701, 0.9601023197174072, 0.9886859655380249, 0.9850039482116699, 0.9667658805847168, 0.9792317152023315, 0.9819217920303345, 0.9896732568740845, 0.9949052333831787, 0.9965192079544067, 0.9963812232017517, 0.9974506497383118, 0.9969137907028198, 0.9942236542701721, 0.9939862489700317, 0.9959853291511536, 0.9967453479766846, 0.9941715598106384, 0.9898424744606018, 0.9913892149925232, 0.987711489200592, 0.9708809852600098, 0.9849573373794556, 0.9939729571342468, 0.9922107458114624, 0.9930897355079651, 0.9929296374320984, 0.9908086657524109, 0.977390706539154, 0.9795001745223999, 0.9618933200836182, 0.9687694907188416, 0.9117622971534729, 0.8772646188735962, 0.9419986009597778, 0.9694575667381287, 0.9717950820922852, 0.9674950838088989, 0.9479725360870361, 0.9543094038963318, 0.9458011388778687, 0.9474259614944458, 0.9481704235076904, 0.9601008892059326, 0.9934866428375244, 0.994401752948761, 0.9930579662322998, 0.9957807064056396, 0.9965290427207947, 0.9939857125282288, 0.9938244819641113, 0.9913267493247986, 0.9862120151519775, 0.9911630153656006, 0.9911525845527649]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9937044978141785</v>
+        <v>0.9974506497383118</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.888324300001841</v>
+        <v>0.9367689000064274</v>
       </c>
       <c r="J118" t="n">
-        <v>0.005658116560521281</v>
+        <v>0.005966680891760685</v>
       </c>
     </row>
     <row r="119">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[0.9144323468208313, 0.8919212818145752, 0.8437850475311279, 0.8660582304000854, 0.9176696538925171, 0.8894868493080139, 0.8848974108695984, 0.8505333662033081, 0.7637186646461487, 0.9106766581535339, 0.9165164828300476, 0.7772586941719055, 0.7467772364616394, 0.5459519028663635, 0.5656293630599976, 0.8459816575050354, 0.7091639637947083, 0.8492937088012695, 0.8147430419921875, 0.8053970336914062, 0.7568647265434265, 0.8323721289634705, 0.9250279068946838, 0.9348242282867432, 0.9321213960647583, 0.8311516046524048, 0.6943391561508179, 0.6875361800193787, 0.7722775936126709, 0.7306053042411804, 0.8036690950393677, 0.8610024452209473, 0.7692372798919678, 0.7833681106567383, 0.8997682929039001, 0.8042707443237305, 0.8463698625564575, 0.8989750146865845, 0.8783842325210571, 0.8885185122489929, 0.9204110503196716, 0.8110035061836243, 0.8109604120254517, 0.74309241771698, 0.6215605735778809, 0.5955443382263184, 0.6819678544998169, 0.7491186261177063, 0.785746157169342, 0.5481021404266357, 0.4373646378517151, 0.41695377230644226, 0.441010445356369, 0.3662955164909363, 0.2725483179092407, 0.5197377800941467, 0.4788611829280853, 0.6041255593299866, 0.7722086906433105, 0.8393871784210205, 0.7727285027503967, 0.7351651191711426, 0.6315098404884338, 0.6913871765136719, 0.6664924621582031, 0.823249340057373, 0.9325188994407654, 0.9434646964073181, 0.8971860408782959, 0.8175538182258606, 0.8412150144577026, 0.8125665783882141, 0.8674484491348267, 0.919100284576416, 0.8885266184806824, 0.7761317491531372, 0.6998535990715027, 0.7202102541923523, 0.88789302110672, 0.9589771032333374, 0.9125938415527344, 0.913713812828064, 0.9178469181060791, 0.7251642346382141, 0.7667425274848938, 0.9150857925415039, 0.8787522912025452, 0.8774994611740112, 0.8544093370437622, 0.7547370791435242, 0.6785789132118225, 0.9387200474739075, 0.9239727258682251, 0.8905349969863892, 0.8923179507255554, 0.9023891687393188, 0.8937401175498962, 0.6835471391677856, 0.4520981013774872, 0.4023360013961792, 0.498174786567688, 0.42963024973869324, 0.2725423574447632, 0.7132260203361511, 0.8618522882461548, 0.9296689033508301, 0.7438749670982361, 0.7279859185218811, 0.7245725989341736, 0.5645152926445007, 0.4373202621936798, 0.48661327362060547, 0.8661615252494812, 0.885490357875824, 0.9195253252983093, 0.9051395654678345, 0.891201913356781, 0.9375593662261963, 0.9464290738105774, 0.9135040640830994, 0.9258157014846802, 0.6772450804710388, 0.5400063991546631, 0.6785679459571838, 0.8221520185470581, 0.8391510844230652, 0.7851563692092896, 0.8209708333015442, 0.7216326594352722, 0.7577300667762756, 0.8851433396339417, 0.8963961601257324, 0.9344499111175537, 0.923093318939209, 0.9244812726974487, 0.9649360775947571, 0.9433576464653015, 0.9297567009925842, 0.943412721157074, 0.9298862218856812, 0.8098126649856567, 0.7998983860015869, 0.9177330732345581, 0.8720928430557251, 0.9075062274932861, 0.872018039226532, 0.8344830870628357, 0.7225195169448853, 0.47843804955482483, 0.42789381742477417, 0.40682917833328247, 0.7369449734687805, 0.5449920296669006, 0.47868308424949646, 0.8279308676719666, 0.7610857486724854, 0.7631494402885437]</t>
+          <t>[0.9418933987617493, 0.876660943031311, 0.8281393051147461, 0.7989485263824463, 0.9467598795890808, 0.9164965748786926, 0.9203950762748718, 0.8873181343078613, 0.7552802562713623, 0.9428847432136536, 0.925446629524231, 0.6956479549407959, 0.6752804517745972, 0.31623998284339905, 0.32894831895828247, 0.8376439809799194, 0.6758998036384583, 0.8526200652122498, 0.7776010632514954, 0.8037910461425781, 0.7666813731193542, 0.8394668698310852, 0.9537088871002197, 0.9498775601387024, 0.9379188418388367, 0.8563763499259949, 0.748180627822876, 0.7262318730354309, 0.761929452419281, 0.7365179061889648, 0.8388199210166931, 0.8946139216423035, 0.8151731491088867, 0.7721282243728638, 0.9087759256362915, 0.8477238416671753, 0.8843204379081726, 0.9266577363014221, 0.8930840492248535, 0.9128100275993347, 0.9524215459823608, 0.8702437877655029, 0.8748213052749634, 0.7727334499359131, 0.5343162417411804, 0.5055940747261047, 0.5656465291976929, 0.6534883975982666, 0.6898770332336426, 0.37958088517189026, 0.30558523535728455, 0.26991066336631775, 0.31670379638671875, 0.2553854286670685, 0.14976049959659576, 0.36358681321144104, 0.3225438594818115, 0.4779742956161499, 0.7514666318893433, 0.8595840930938721, 0.7907459735870361, 0.7426589131355286, 0.5923541784286499, 0.6962124109268188, 0.6690951585769653, 0.8483269214630127, 0.9495141506195068, 0.968662679195404, 0.936785101890564, 0.8503041863441467, 0.8737583756446838, 0.8284041881561279, 0.8943246603012085, 0.925831139087677, 0.8677939176559448, 0.740580141544342, 0.6409740447998047, 0.7000316381454468, 0.9161370396614075, 0.9770558476448059, 0.9442617297172546, 0.9407093524932861, 0.9362953305244446, 0.7019351720809937, 0.7384325265884399, 0.9000169634819031, 0.8583409190177917, 0.8022344708442688, 0.8187469840049744, 0.6906609535217285, 0.5552451610565186, 0.950165867805481, 0.9373232126235962, 0.8789774179458618, 0.9369226694107056, 0.9591813683509827, 0.9569344520568848, 0.6520751714706421, 0.41692885756492615, 0.3709312677383423, 0.37012606859207153, 0.311582088470459, 0.17954638600349426, 0.6964176297187805, 0.8532422780990601, 0.9572361707687378, 0.837868869304657, 0.8610499501228333, 0.8140470385551453, 0.535308301448822, 0.4190952777862549, 0.4876735210418701, 0.917504608631134, 0.9177672863006592, 0.9488590955734253, 0.9255357384681702, 0.9014536142349243, 0.9517382979393005, 0.9406616687774658, 0.9063100218772888, 0.9265478849411011, 0.712111234664917, 0.5962643027305603, 0.8132559061050415, 0.8701830506324768, 0.8611123561859131, 0.7666366100311279, 0.8342325687408447, 0.7185941338539124, 0.7738494277000427, 0.9275927543640137, 0.9388710260391235, 0.9709460735321045, 0.9466835260391235, 0.9320521354675293, 0.9661831855773926, 0.9476248025894165, 0.9422546029090881, 0.9637145400047302, 0.9478599429130554, 0.8176920413970947, 0.7887757420539856, 0.9295216798782349, 0.8922604322433472, 0.9143517017364502, 0.8661327362060547, 0.8004090189933777, 0.6140978932380676, 0.2844346761703491, 0.26443663239479065, 0.22669537365436554, 0.6237813830375671, 0.41000017523765564, 0.345058798789978, 0.7795414328575134, 0.6991577744483948, 0.7018360495567322]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9649360775947571</v>
+        <v>0.9770558476448059</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.8800819999887608</v>
+        <v>0.9422521999949822</v>
       </c>
       <c r="J119" t="n">
-        <v>0.005605617834323317</v>
+        <v>0.006001606369394791</v>
       </c>
     </row>
     <row r="120">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0.49922215938568115, 0.4270187020301819, 0.6389160752296448, 0.7607081532478333, 0.9081043004989624, 0.873216986656189, 0.862737774848938, 0.5015805959701538, 0.35409480333328247, 0.3288255035877228, 0.3689221143722534, 0.27805304527282715, 0.26205694675445557, 0.30809858441352844, 0.16618166863918304, 0.20114609599113464, 0.16585221886634827, 0.1691386103630066, 0.21043743193149567, 0.4547717869281769, 0.4458931088447571, 0.6925437450408936, 0.22912587225437164, 0.19576917588710785, 0.21484701335430145, 0.3293488621711731, 0.38806217908859253, 0.37796932458877563, 0.5379222631454468, 0.6215295791625977, 0.7337089776992798, 0.8477753400802612, 0.8551105260848999, 0.4826149046421051, 0.2019311785697937, 0.17163437604904175, 0.1931658834218979, 0.13104264438152313, 0.07970278710126877, 0.09578964114189148, 0.05986684560775757, 0.07695557922124863, 0.12219627946615219, 0.4458966553211212, 0.4037310481071472, 0.4483925402164459, 0.27712276577949524, 0.22713254392147064, 0.2268083244562149, 0.6215847134590149, 0.7120997905731201, 0.6515522599220276, 0.8884759545326233, 0.9610335230827332, 0.925725519657135, 0.7686941623687744, 0.662272572517395, 0.5347321629524231, 0.6678452491760254, 0.36353161931037903, 0.26932987570762634, 0.30672580003738403, 0.39378461241722107, 0.4514792561531067, 0.4252129793167114, 0.36667948961257935, 0.43768996000289917, 0.6404470205307007, 0.5857803821563721, 0.5522318482398987, 0.7159793972969055, 0.5536105632781982, 0.5679958462715149, 0.4480424225330353, 0.3953534960746765, 0.452062726020813, 0.4434643089771271, 0.3211294114589691, 0.3788977563381195, 0.6465895175933838, 0.6874244809150696, 0.6358054876327515, 0.5774890184402466, 0.698329746723175, 0.6189796924591064, 0.8343521952629089, 0.9307869076728821, 0.910256028175354, 0.9201741218566895, 0.8763569593429565, 0.8613425493240356, 0.7571578621864319, 0.7507475018501282, 0.8397277593612671, 0.6597565412521362, 0.6868405342102051, 0.7920054197311401, 0.5430416464805603, 0.571349024772644, 0.5641524195671082, 0.5093082189559937, 0.3469906151294708, 0.3605767786502838, 0.2159714698791504, 0.30285489559173584, 0.3004549443721771, 0.306243896484375, 0.44745826721191406, 0.43311870098114014, 0.4640483856201172, 0.537746250629425, 0.767885148525238, 0.4175388813018799, 0.30667489767074585, 0.24791809916496277, 0.731458842754364, 0.897562563419342, 0.9149364829063416, 0.7507213950157166, 0.4188149571418762, 0.648140013217926, 0.6435132026672363, 0.6064553260803223, 0.5964010953903198, 0.8561369776725769, 0.7357651591300964, 0.9521283507347107, 0.9777206182479858, 0.9651169180870056, 0.9688894748687744, 0.854938268661499, 0.5820103883743286, 0.5539841055870056, 0.5480614304542542, 0.3916352391242981, 0.17206010222434998, 0.19645458459854126, 0.19418059289455414]</t>
+          <t>[0.3948044776916504, 0.3614423871040344, 0.6029502153396606, 0.707434356212616, 0.8450581431388855, 0.8062556385993958, 0.7546910047531128, 0.29754894971847534, 0.1627756655216217, 0.16221299767494202, 0.18192940950393677, 0.15679267048835754, 0.15556979179382324, 0.17283959686756134, 0.08703180402517319, 0.1072278618812561, 0.09150069206953049, 0.10264626145362854, 0.09934338927268982, 0.36782893538475037, 0.3559643626213074, 0.6722726225852966, 0.15570934116840363, 0.10180746763944626, 0.1095142662525177, 0.16108445823192596, 0.1429942101240158, 0.1737956553697586, 0.29282519221305847, 0.3169623613357544, 0.5263283252716064, 0.7476969361305237, 0.8240658640861511, 0.3317205607891083, 0.06699078530073166, 0.04957924783229828, 0.050337642431259155, 0.03239339217543602, 0.017792019993066788, 0.02697681449353695, 0.016965558752417564, 0.020180456340312958, 0.03912059962749481, 0.33738693594932556, 0.3938240706920624, 0.45789700746536255, 0.1572537124156952, 0.10756956785917282, 0.12035958468914032, 0.4783167839050293, 0.6411889791488647, 0.5238956212997437, 0.7755934000015259, 0.9580457210540771, 0.9222062826156616, 0.8083811402320862, 0.7472851872444153, 0.5351011753082275, 0.70311439037323, 0.1806519478559494, 0.1113312616944313, 0.13285936415195465, 0.230478897690773, 0.3041668236255646, 0.22293831408023834, 0.1693790704011917, 0.2111704796552658, 0.3954579532146454, 0.31940367817878723, 0.2765447497367859, 0.5028890371322632, 0.43617135286331177, 0.439198762178421, 0.23419208824634552, 0.15381543338298798, 0.18868479132652283, 0.22283582389354706, 0.1471582055091858, 0.13906672596931458, 0.46492525935173035, 0.5331557989120483, 0.4579557478427887, 0.5071701407432556, 0.6914445757865906, 0.5139731168746948, 0.7937849164009094, 0.9288954734802246, 0.9073167443275452, 0.9138773083686829, 0.8360071182250977, 0.8302609324455261, 0.6727520227432251, 0.7045609354972839, 0.7912507653236389, 0.37411633133888245, 0.3807251453399658, 0.4376421570777893, 0.21274110674858093, 0.2707348167896271, 0.23100507259368896, 0.36659348011016846, 0.17733019590377808, 0.19175468385219574, 0.08969049155712128, 0.21041780710220337, 0.17685510218143463, 0.172402024269104, 0.4323194921016693, 0.35382482409477234, 0.24927985668182373, 0.2740212380886078, 0.4538867473602295, 0.12658944725990295, 0.10779350996017456, 0.10237891227006912, 0.40229496359825134, 0.7260387539863586, 0.74639493227005, 0.545735239982605, 0.18462680280208588, 0.41216543316841125, 0.3346159756183624, 0.3321197032928467, 0.3316080570220947, 0.7814916372299194, 0.5425824522972107, 0.9156031012535095, 0.9792187809944153, 0.967542827129364, 0.9780418276786804, 0.8400516510009766, 0.3844786286354065, 0.38014817237854004, 0.39717406034469604, 0.251460462808609, 0.09136179834604263, 0.07980876415967941, 0.0785813182592392]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9777206182479858</v>
+        <v>0.9792187809944153</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.7647235000040382</v>
+        <v>0.7642062999948394</v>
       </c>
       <c r="J120" t="n">
-        <v>0.005541474637710422</v>
+        <v>0.005537726811556807</v>
       </c>
     </row>
     <row r="121">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[0.9862209558486938, 0.985889196395874, 0.9808188080787659, 0.974702000617981, 0.9731054902076721, 0.9826337695121765, 0.9824695587158203, 0.9800276160240173, 0.9847123622894287, 0.9803302884101868, 0.9761281609535217, 0.9691892266273499, 0.9808816909790039, 0.9739930629730225, 0.9629552960395813, 0.9690278768539429, 0.9640318751335144, 0.9798163175582886, 0.9800243973731995, 0.9789326786994934, 0.9761048555374146, 0.9797556400299072, 0.9671342372894287, 0.9603955149650574, 0.9485334753990173, 0.9596254229545593, 0.9811661839485168, 0.9799439311027527, 0.9795653820037842, 0.9744269847869873, 0.9753686189651489, 0.9726747870445251, 0.980357825756073, 0.9747816324234009, 0.9715203642845154, 0.979064404964447, 0.981349527835846, 0.9739596247673035, 0.9779562950134277, 0.9788506627082825, 0.9741398096084595, 0.9696525931358337, 0.9755069017410278, 0.9781154990196228, 0.98011714220047, 0.9811142086982727, 0.976150631904602, 0.9839159846305847, 0.9838607311248779, 0.9835069179534912, 0.9849947094917297, 0.9873485565185547, 0.9756524562835693, 0.9755550026893616, 0.9822047352790833, 0.9808216094970703, 0.9794607162475586, 0.982607901096344, 0.9774816632270813, 0.9820465445518494, 0.9886688590049744, 0.9867136478424072, 0.9661865830421448, 0.958464503288269, 0.966802179813385, 0.9625051617622375, 0.9573310017585754, 0.9624701738357544, 0.9722368121147156, 0.9662242531776428, 0.9707111120223999, 0.9720124006271362, 0.9648892283439636, 0.9656023979187012, 0.9758867025375366, 0.9710375666618347, 0.9603034853935242, 0.9700265526771545, 0.9775816798210144, 0.9758800268173218, 0.9749971032142639, 0.9825772643089294, 0.9789611101150513, 0.9749382138252258, 0.9705557227134705, 0.9698689579963684, 0.977464497089386, 0.9763199090957642, 0.9772751927375793, 0.9777126312255859, 0.9790908694267273, 0.9821244478225708, 0.9837184548377991, 0.983991801738739, 0.9801774024963379, 0.9736671447753906, 0.979336678981781, 0.9849934577941895, 0.9831826686859131, 0.9789113998413086, 0.9797898530960083, 0.975648045539856, 0.9703320860862732, 0.9632431268692017, 0.9723019599914551, 0.9778587222099304, 0.9728291034698486, 0.9678217768669128, 0.9531340599060059, 0.9542694687843323, 0.9643115401268005, 0.9678103923797607, 0.9720346927642822, 0.9783813953399658, 0.9807986617088318, 0.9795445799827576, 0.9729424715042114, 0.9717455506324768, 0.9691577553749084, 0.9701884984970093, 0.975923478603363, 0.9763705730438232, 0.9860613346099854, 0.9811567068099976, 0.9729741811752319, 0.9645981788635254, 0.9663780331611633, 0.9511837959289551, 0.9531121850013733, 0.9659021496772766, 0.974675714969635, 0.9683775305747986, 0.9661765098571777, 0.9710327386856079, 0.9725192785263062, 0.9704239964485168, 0.9667160511016846, 0.9712737798690796, 0.9711533188819885]</t>
+          <t>[0.9924958944320679, 0.9915223121643066, 0.9874514937400818, 0.9833852052688599, 0.983201801776886, 0.9910878539085388, 0.9910166263580322, 0.9890917539596558, 0.9920578598976135, 0.9882956743240356, 0.9856544137001038, 0.9755330681800842, 0.9861382842063904, 0.9817193150520325, 0.9697318077087402, 0.9742019176483154, 0.9720088243484497, 0.9893189072608948, 0.9899383783340454, 0.9889795780181885, 0.9819215536117554, 0.9852408766746521, 0.973514974117279, 0.9623477458953857, 0.94821697473526, 0.9628657698631287, 0.9857200980186462, 0.985284149646759, 0.9847816228866577, 0.9770299196243286, 0.9774353504180908, 0.9743822813034058, 0.9813775420188904, 0.9758642315864563, 0.9743329286575317, 0.98250812292099, 0.9843496680259705, 0.9780192375183105, 0.9798921942710876, 0.9830053448677063, 0.9787317514419556, 0.9766610264778137, 0.9836995601654053, 0.9842793345451355, 0.9835047721862793, 0.9861652851104736, 0.9801549315452576, 0.9892143607139587, 0.9891632795333862, 0.9875895977020264, 0.9894110560417175, 0.9928545355796814, 0.9814950823783875, 0.9788374900817871, 0.9859259724617004, 0.9832069873809814, 0.9791807532310486, 0.9841843843460083, 0.9774278998374939, 0.989346981048584, 0.9932442307472229, 0.9921000599861145, 0.9725949168205261, 0.961416482925415, 0.9736098647117615, 0.9585586190223694, 0.955141007900238, 0.9590778350830078, 0.9740688800811768, 0.9671676754951477, 0.9721397161483765, 0.9754880666732788, 0.9675746560096741, 0.9677175283432007, 0.9778432250022888, 0.9727627635002136, 0.9586472511291504, 0.9747595191001892, 0.981090784072876, 0.9763104915618896, 0.9784232974052429, 0.9853261709213257, 0.981640636920929, 0.9802250266075134, 0.9756878614425659, 0.9741111397743225, 0.9786101579666138, 0.9781539440155029, 0.9809247851371765, 0.9839782118797302, 0.9851699471473694, 0.9882656335830688, 0.9910665154457092, 0.9920681715011597, 0.9890013933181763, 0.9817103743553162, 0.9869863390922546, 0.9899953603744507, 0.9866591691970825, 0.9849955439567566, 0.9871286153793335, 0.9845452308654785, 0.9791826605796814, 0.9741926193237305, 0.9802952408790588, 0.9851375818252563, 0.9804486632347107, 0.9729676842689514, 0.9613862037658691, 0.9579835534095764, 0.9726258516311646, 0.9749137163162231, 0.9778456091880798, 0.9807594418525696, 0.981376588344574, 0.9803779721260071, 0.9792634844779968, 0.9776086807250977, 0.9741206765174866, 0.970576822757721, 0.9761605262756348, 0.9777312874794006, 0.9914731979370117, 0.9883605241775513, 0.981155276298523, 0.9737979173660278, 0.9787763953208923, 0.9640677571296692, 0.9613516926765442, 0.9745041728019714, 0.9841229319572449, 0.977102518081665, 0.9737880825996399, 0.9785741567611694, 0.9840280413627625, 0.9833200573921204, 0.9761269092559814, 0.9813361763954163, 0.9813047647476196]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9886688590049744</v>
+        <v>0.9932442307472229</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.8013797999883536</v>
+        <v>0.8451488999999128</v>
       </c>
       <c r="J121" t="n">
-        <v>0.005765322302074487</v>
+        <v>0.006080207913668438</v>
       </c>
     </row>
     <row r="122">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[0.2577159106731415, 0.19001249969005585, 0.1716385781764984, 0.10691303014755249, 0.07613888382911682, 0.06407281011343002, 0.07275146245956421, 0.06664716452360153, 0.08187542110681534, 0.1230243593454361, 0.17379720509052277, 0.23977340757846832, 0.26464393734931946, 0.23195473849773407, 0.19840720295906067, 0.12532712519168854, 0.17271888256072998, 0.20175081491470337, 0.17976699769496918, 0.14918255805969238, 0.35337144136428833, 0.38833117485046387, 0.49660560488700867, 0.6537144780158997, 0.685093343257904, 0.5744168758392334, 0.559736430644989, 0.6164801120758057, 0.5266218185424805, 0.4251745343208313, 0.36044278740882874, 0.34295371174812317, 0.3802453279495239, 0.5949218273162842, 0.42084845900535583, 0.5668811202049255, 0.6902132630348206, 0.6946495771408081, 0.6967931985855103, 0.6188258528709412, 0.5046858191490173, 0.2196781188249588, 0.15534624457359314, 0.10042408853769302, 0.07782478630542755, 0.05246575176715851, 0.07991224527359009, 0.10308238863945007, 0.09393316507339478, 0.08484289050102234, 0.11114111542701721, 0.10093963891267776, 0.1468217670917511, 0.12615005671977997, 0.10133331269025803, 0.10701777040958405, 0.11529503017663956, 0.1480039358139038, 0.26591137051582336, 0.44273972511291504, 0.454263299703598, 0.39047545194625854, 0.4553242623806, 0.5527024269104004, 0.5118474364280701, 0.7472960352897644, 0.6791173219680786, 0.7230882048606873, 0.6918348073959351, 0.6515636444091797, 0.5937074422836304, 0.6111692190170288, 0.646073579788208, 0.6143972873687744, 0.8261281847953796, 0.832214891910553, 0.8514923453330994, 0.8393335342407227, 0.8817960023880005, 0.8554224371910095, 0.9118257164955139, 0.8537326455116272, 0.8647807240486145, 0.9146987199783325, 0.9409003853797913, 0.9454108476638794, 0.9386788010597229, 0.927135705947876, 0.9328725337982178, 0.9608584046363831, 0.9428231716156006, 0.9461444020271301, 0.9685391783714294, 0.9563272595405579, 0.9090419411659241, 0.8981286883354187, 0.9141318798065186, 0.8795779347419739, 0.9514808058738708, 0.9501457810401917, 0.9454308152198792, 0.8830693960189819, 0.8764168620109558, 0.8525806069374084, 0.9161449670791626, 0.915378987789154, 0.8666408061981201, 0.9136705994606018, 0.8973265886306763, 0.9354276061058044, 0.8784604668617249, 0.8602901697158813, 0.8602702617645264, 0.9193766713142395, 0.8783203959465027, 0.8689771294593811, 0.8971532583236694, 0.8416098952293396, 0.7719277143478394, 0.7857736945152283, 0.81523597240448, 0.8102202415466309, 0.8551884889602661, 0.80311518907547, 0.8846238851547241, 0.9690142273902893, 0.9602023363113403, 0.9649674892425537, 0.9341819286346436, 0.9158042073249817, 0.8868049383163452, 0.8841152787208557, 0.9234693646430969, 0.9259827136993408, 0.9030830264091492, 0.8609359860420227, 0.8937799334526062, 0.8963385820388794, 0.8962265849113464]</t>
+          <t>[0.22440208494663239, 0.15535017848014832, 0.10749407857656479, 0.06007987633347511, 0.04050169885158539, 0.029695607721805573, 0.03358010947704315, 0.03167220205068588, 0.051961466670036316, 0.0854254961013794, 0.11729565262794495, 0.19339057803153992, 0.17377813160419464, 0.14738591015338898, 0.12949007749557495, 0.07504671066999435, 0.11056975275278091, 0.14303067326545715, 0.13508068025112152, 0.08128508925437927, 0.2325023114681244, 0.29618242383003235, 0.4971696734428406, 0.7164127826690674, 0.8001276850700378, 0.6732817888259888, 0.6416621804237366, 0.691098690032959, 0.5422911643981934, 0.2739698886871338, 0.2688358426094055, 0.24533653259277344, 0.3984445333480835, 0.603089451789856, 0.35997074842453003, 0.571502685546875, 0.7698703408241272, 0.7719168663024902, 0.7100645303726196, 0.5700255632400513, 0.4376560151576996, 0.18240977823734283, 0.1262071132659912, 0.05367862433195114, 0.04109226539731026, 0.025231553241610527, 0.03531355410814285, 0.0747566819190979, 0.06939809024333954, 0.061058592051267624, 0.08019416779279709, 0.07770881801843643, 0.1017918586730957, 0.07755068689584732, 0.05580555275082588, 0.060150694102048874, 0.07948324084281921, 0.10033585876226425, 0.23768053948879242, 0.45394662022590637, 0.48465511202812195, 0.3556949198246002, 0.4058302938938141, 0.5510292053222656, 0.45288991928100586, 0.8150063157081604, 0.7215844392776489, 0.7683067321777344, 0.7323084473609924, 0.6294589638710022, 0.5873545408248901, 0.6848522424697876, 0.7953504920005798, 0.7303438782691956, 0.912202000617981, 0.9116280674934387, 0.9186614155769348, 0.9094054698944092, 0.9635780453681946, 0.9457033276557922, 0.9566618204116821, 0.9062495231628418, 0.9187442064285278, 0.9743975400924683, 0.9847047328948975, 0.984397828578949, 0.9615297913551331, 0.9443318247795105, 0.9433459639549255, 0.9790412187576294, 0.9704602360725403, 0.9678988456726074, 0.9822055697441101, 0.9742305278778076, 0.9525468945503235, 0.9299533367156982, 0.9514582753181458, 0.9384728670120239, 0.976842999458313, 0.9727148413658142, 0.9633693695068359, 0.8712238073348999, 0.8226539492607117, 0.805656909942627, 0.9226627349853516, 0.9124014377593994, 0.8658539056777954, 0.9556258320808411, 0.9430538415908813, 0.9720993638038635, 0.8916403651237488, 0.8556592464447021, 0.8592947721481323, 0.9604272842407227, 0.9357941150665283, 0.9336201548576355, 0.9399133324623108, 0.8993028402328491, 0.8655504584312439, 0.9090495109558105, 0.9092979431152344, 0.917066216468811, 0.9470312595367432, 0.9125155806541443, 0.9528924822807312, 0.9914844632148743, 0.9899999499320984, 0.9927615523338318, 0.9857197403907776, 0.9703523516654968, 0.9491366147994995, 0.9568315148353577, 0.9588464498519897, 0.9684237837791443, 0.9580507278442383, 0.9372515082359314, 0.9553108215332031, 0.9334992170333862, 0.9334117770195007]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9690142273902893</v>
+        <v>0.9927615523338318</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.798175000003539</v>
+        <v>0.8103661999921314</v>
       </c>
       <c r="J122" t="n">
-        <v>0.00574226618707582</v>
+        <v>0.005829972661813895</v>
       </c>
     </row>
     <row r="123">
@@ -5445,11 +5445,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[0.2148575484752655, 0.32876285910606384, 0.1975732445716858, 0.2611826956272125, 0.22706259787082672, 0.2231854796409607, 0.2077367901802063, 0.24772322177886963, 0.22747156023979187, 0.17369937896728516, 0.26450884342193604, 0.4148370623588562, 0.5524002909660339, 0.5304275751113892, 0.4906359612941742, 0.713021457195282, 0.7368690371513367, 0.8367419838905334, 0.8569159507751465, 0.9744178056716919, 0.9759002327919006, 0.9827625751495361, 0.9760549664497375, 0.9719386100769043, 0.9617838859558105, 0.9558157324790955, 0.8930225372314453, 0.8353418111801147, 0.8702102899551392, 0.8244097828865051, 0.8968048691749573, 0.938975989818573, 0.9244881868362427, 0.9497336745262146, 0.9715689420700073, 0.9590632915496826, 0.7812893390655518, 0.1590064913034439, 0.10184627771377563, 0.10462964326143265, 0.2783815562725067, 0.4043871760368347, 0.6186805367469788, 0.9064707159996033, 0.9169752597808838, 0.8884783983230591, 0.6696609258651733, 0.817645251750946, 0.8728699684143066, 0.7200993299484253, 0.7130094170570374, 0.4333396553993225, 0.7656323313713074, 0.819768488407135, 0.849800169467926, 0.3303440511226654, 0.31800612807273865, 0.47119662165641785, 0.8490190505981445, 0.8860569596290588, 0.9021781086921692, 0.9202370643615723, 0.9483934044837952, 0.9325944781303406, 0.966677725315094, 0.9687137603759766, 0.9681573510169983, 0.9472123384475708, 0.9193401336669922, 0.850300133228302, 0.8817526698112488, 0.8578214049339294, 0.8681529760360718, 0.8551483154296875, 0.8195692896842957, 0.9080002903938293, 0.8890177607536316, 0.8961507081985474, 0.9296044111251831, 0.9041524529457092, 0.9071636199951172, 0.9254693984985352, 0.5945284366607666, 0.7577970027923584, 0.8063585758209229, 0.29401832818984985, 0.24685336649417877, 0.1506703943014145, 0.11012513190507889, 0.25270071625709534, 0.27194759249687195, 0.43497082591056824, 0.8712023496627808, 0.701453685760498, 0.33298757672309875, 0.3716557025909424, 0.2856270968914032, 0.2440830022096634, 0.5136538147926331, 0.6067085266113281, 0.5630894899368286, 0.6391190886497498, 0.5189157724380493, 0.519607424736023, 0.37009042501449585, 0.3572322130203247, 0.40186288952827454, 0.5430132746696472, 0.4941259026527405, 0.28686657547950745, 0.29553496837615967, 0.3187568783760071, 0.5197792649269104, 0.569943368434906, 0.6078919768333435, 0.747211217880249, 0.7383631467819214, 0.5378439426422119, 0.3706945776939392, 0.30644690990448, 0.4443575441837311, 0.46552759408950806, 0.48590925335884094, 0.6852597594261169, 0.7570804953575134, 0.7765629291534424, 0.4873576760292053, 0.6269907355308533, 0.4387955963611603, 0.5593328475952148, 0.6096571683883667, 0.3875254690647125, 0.28718480467796326, 0.24835743010044098, 0.3195563554763794, 0.34353482723236084, 0.5267279148101807, 0.701891303062439, 0.7025227546691895]</t>
+          <t>[0.2985827922821045, 0.54135662317276, 0.31153011322021484, 0.45175448060035706, 0.4700686037540436, 0.453427255153656, 0.3982837200164795, 0.43990352749824524, 0.3931771516799927, 0.3246830701828003, 0.5359950661659241, 0.6322850584983826, 0.7698110342025757, 0.7588114142417908, 0.6525714993476868, 0.8924159407615662, 0.9081742167472839, 0.9335910677909851, 0.9404830932617188, 0.985612154006958, 0.9836909174919128, 0.9884627461433411, 0.9891948699951172, 0.9893130660057068, 0.9844667911529541, 0.9816187024116516, 0.9430933594703674, 0.8970836997032166, 0.8805350065231323, 0.8587183356285095, 0.9058234095573425, 0.9721778631210327, 0.9745312333106995, 0.9849551320075989, 0.9882336854934692, 0.9825015664100647, 0.9343783855438232, 0.27690765261650085, 0.11826948821544647, 0.10931235551834106, 0.4490707814693451, 0.6613612174987793, 0.8232244849205017, 0.9710314869880676, 0.9621728658676147, 0.9576848745346069, 0.8371424674987793, 0.902777910232544, 0.9479413628578186, 0.8317877650260925, 0.8266971111297607, 0.44774556159973145, 0.9461227059364319, 0.9647246599197388, 0.9566800594329834, 0.5572664141654968, 0.5406448841094971, 0.7454723715782166, 0.936497688293457, 0.9550215005874634, 0.959121584892273, 0.9593856334686279, 0.9714325666427612, 0.9549250602722168, 0.985241711139679, 0.9864740967750549, 0.9865759611129761, 0.9736329317092896, 0.951734185218811, 0.8935314416885376, 0.9028669595718384, 0.8822236061096191, 0.8646078109741211, 0.8858053088188171, 0.8633993864059448, 0.9382749795913696, 0.9433577656745911, 0.9445531964302063, 0.9594767093658447, 0.9598856568336487, 0.9651656746864319, 0.970658540725708, 0.8985952734947205, 0.95926833152771, 0.9719940423965454, 0.5385541915893555, 0.38762468099594116, 0.17232488095760345, 0.08089419454336166, 0.3524336516857147, 0.3944918215274811, 0.6978387832641602, 0.9585268497467041, 0.8802905082702637, 0.48925817012786865, 0.5384688377380371, 0.39135974645614624, 0.32698842883110046, 0.7322866320610046, 0.7699160575866699, 0.7588476538658142, 0.7855640649795532, 0.6571818590164185, 0.7408432364463806, 0.5098608732223511, 0.4434594511985779, 0.5602740049362183, 0.6917057037353516, 0.6129872798919678, 0.3195280134677887, 0.3860629200935364, 0.4680210053920746, 0.70646071434021, 0.7576999068260193, 0.7628477215766907, 0.9016576409339905, 0.8501489162445068, 0.6821655035018921, 0.5490151643753052, 0.4602297246456146, 0.6305317878723145, 0.5970162749290466, 0.6746465563774109, 0.830822765827179, 0.8776088953018188, 0.8790743947029114, 0.6482558250427246, 0.7744538187980652, 0.512861430644989, 0.6382527351379395, 0.7671036720275879, 0.4904373586177826, 0.3952760100364685, 0.3870410919189453, 0.5013263821601868, 0.36484554409980774, 0.6637696623802185, 0.8070569634437561, 0.8075207471847534]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.9827625751495361</v>
+        <v>0.9893130660057068</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5463,10 +5463,10 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.7955548999889288</v>
+        <v>0.7917905000067549</v>
       </c>
       <c r="J123" t="n">
-        <v>0.005723416546682941</v>
+        <v>0.005696334532422697</v>
       </c>
     </row>
     <row r="124">
@@ -5485,11 +5485,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[0.2570856511592865, 0.25118303298950195, 0.15367746353149414, 0.1790582686662674, 0.14852158725261688, 0.08670547604560852, 0.06927675753831863, 0.13715961575508118, 0.365387499332428, 0.39992213249206543, 0.5789619088172913, 0.7557260990142822, 0.8986572027206421, 0.9736425280570984, 0.9653667211532593, 0.9705896377563477, 0.9738725423812866, 0.9681162238121033, 0.9620575904846191, 0.9740772247314453, 0.973899245262146, 0.9702999591827393, 0.9609420299530029, 0.8417844772338867, 0.6567972302436829, 0.16861280798912048, 0.15157011151313782, 0.10419323295354843, 0.2413436472415924, 0.5497480034828186, 0.33638277649879456, 0.46632882952690125, 0.6183187961578369, 0.7411382794380188, 0.716627299785614, 0.719394862651825]</t>
+          <t>[0.20315614342689514, 0.148404061794281, 0.06063796952366829, 0.06588524580001831, 0.08884669095277786, 0.044691868126392365, 0.028408311307430267, 0.055006563663482666, 0.29436638951301575, 0.3481597602367401, 0.5472636818885803, 0.7653952836990356, 0.9329630732536316, 0.9806817770004272, 0.9735556244850159, 0.9815187454223633, 0.9849247336387634, 0.9829181432723999, 0.9747141003608704, 0.9819657206535339, 0.9841274619102478, 0.9794204831123352, 0.9760980606079102, 0.885400652885437, 0.6495824456214905, 0.11393066495656967, 0.0853026956319809, 0.04265480488538742, 0.14864957332611084, 0.4988355040550232, 0.2886146903038025, 0.3908347487449646, 0.6069000959396362, 0.7924110293388367, 0.7436188459396362, 0.7463173866271973]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.9740772247314453</v>
+        <v>0.9849247336387634</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.2280991999723483</v>
+        <v>0.2320400000025984</v>
       </c>
       <c r="J124" t="n">
-        <v>0.006336088888120785</v>
+        <v>0.006445555555627733</v>
       </c>
     </row>
     <row r="125">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[0.4387432336807251, 0.28112998604774475, 0.27229344844818115, 0.42080405354499817, 0.4573932886123657, 0.37058696150779724, 0.6119006276130676, 0.8158307671546936, 0.834096372127533, 0.7263501882553101, 0.8028784990310669, 0.7210143208503723, 0.6812877655029297, 0.551464319229126, 0.6165294051170349, 0.6349861025810242, 0.7777963876724243, 0.7254247665405273, 0.6285247206687927, 0.3854747712612152, 0.2651800513267517, 0.24677374958992004, 0.17653682827949524, 0.21980425715446472, 0.2618519365787506, 0.41785237193107605, 0.557168185710907, 0.47037559747695923, 0.4231521487236023, 0.3710159659385681, 0.42062821984291077, 0.3932802975177765, 0.4602004885673523, 0.46978768706321716, 0.40193971991539, 0.38283833861351013, 0.45285141468048096, 0.5818923711776733, 0.5417200922966003, 0.4907459616661072, 0.2643429934978485, 0.2375776171684265, 0.19854171574115753, 0.18979208171367645, 0.21100619435310364, 0.3021910488605499, 0.4694136083126068, 0.5787114500999451, 0.7494786977767944, 0.8264190554618835, 0.8275907635688782, 0.6063469052314758, 0.817289412021637, 0.9081642627716064, 0.921440064907074, 0.8856171369552612, 0.9283266067504883, 0.9396472573280334, 0.9734001755714417, 0.9653570055961609, 0.9413928985595703, 0.8138994574546814, 0.5213391780853271, 0.4826299250125885, 0.2826155424118042, 0.2604994475841522, 0.2568425238132477, 0.30804526805877686, 0.329151451587677, 0.3309890925884247, 0.17454412579536438, 0.1722780466079712, 0.22475071251392365, 0.21262334287166595, 0.2569536566734314, 0.33042940497398376, 0.24850322306156158, 0.2414524406194687, 0.2555575668811798, 0.38280320167541504, 0.4030574858188629, 0.4033946990966797, 0.739356517791748, 0.8525949716567993, 0.882466197013855, 0.8999038934707642, 0.8656992316246033, 0.9478945732116699, 0.9708828926086426, 0.9449909329414368, 0.9489002227783203, 0.971758246421814, 0.980068027973175, 0.9703061580657959, 0.9183887839317322, 0.8711039423942566, 0.6957994103431702, 0.443126380443573, 0.4420624375343323, 0.3661385476589203, 0.2956753969192505, 0.16911762952804565, 0.24649932980537415, 0.3684677481651306, 0.4123683571815491, 0.42630133032798767, 0.24223719537258148, 0.2776681184768677, 0.2331092655658722, 0.26658791303634644, 0.31034719944000244, 0.3413461148738861, 0.34945136308670044, 0.2921253442764282, 0.2735500633716583, 0.3868159055709839, 0.46355903148651123, 0.28544721007347107, 0.3570372760295868, 0.3841036856174469, 0.550078809261322, 0.7655214667320251, 0.8987711668014526, 0.9438524842262268, 0.9845812916755676, 0.9840953946113586, 0.9743337035179138, 0.9389389157295227, 0.9561027884483337, 0.9725337028503418, 0.9547385573387146, 0.9391481280326843, 0.9570353031158447, 0.9578507542610168, 0.9549167156219482, 0.9540552496910095, 0.9839673638343811, 0.9807587265968323, 0.9809609651565552]</t>
+          <t>[0.45934832096099854, 0.17378753423690796, 0.1508512943983078, 0.23275429010391235, 0.29514914751052856, 0.2456122189760208, 0.5642463564872742, 0.7773150205612183, 0.798880934715271, 0.5945576429367065, 0.7565631866455078, 0.6323184370994568, 0.5138927698135376, 0.4135715961456299, 0.49841779470443726, 0.5340526103973389, 0.7701181769371033, 0.6904006600379944, 0.6033526659011841, 0.32523301243782043, 0.16151271760463715, 0.15239141881465912, 0.08062087744474411, 0.12596186995506287, 0.18256071209907532, 0.3138944208621979, 0.4735676050186157, 0.3999800682067871, 0.3525363802909851, 0.29937875270843506, 0.3290903568267822, 0.25936272740364075, 0.29435423016548157, 0.2736535668373108, 0.24124059081077576, 0.24696311354637146, 0.2829340398311615, 0.5184605121612549, 0.4666447341442108, 0.4262792468070984, 0.15451478958129883, 0.13785357773303986, 0.08643873780965805, 0.0650249794125557, 0.08211338520050049, 0.1361902356147766, 0.2754407823085785, 0.4158729612827301, 0.6155317425727844, 0.8124470710754395, 0.8068079352378845, 0.44246578216552734, 0.7733840942382812, 0.9023233652114868, 0.9233900308609009, 0.861847460269928, 0.9235851168632507, 0.9591989517211914, 0.9860429763793945, 0.9815393090248108, 0.9603050947189331, 0.8325491547584534, 0.47981196641921997, 0.40477100014686584, 0.1531301736831665, 0.13767269253730774, 0.13789395987987518, 0.1930856555700302, 0.17201490700244904, 0.17635907232761383, 0.07977697998285294, 0.09154138714075089, 0.15310394763946533, 0.17840319871902466, 0.2245692014694214, 0.2942277491092682, 0.1581731140613556, 0.14158278703689575, 0.12905745208263397, 0.3221431374549866, 0.3998768925666809, 0.37509599328041077, 0.7599568963050842, 0.8939502239227295, 0.9123557209968567, 0.9283101558685303, 0.8662388920783997, 0.9676483273506165, 0.9818918108940125, 0.9620466232299805, 0.9638676643371582, 0.9750404953956604, 0.9846951365470886, 0.975196361541748, 0.9285653233528137, 0.86137455701828, 0.6665917038917542, 0.35493525862693787, 0.33465585112571716, 0.2872110903263092, 0.24782416224479675, 0.10796899348497391, 0.20203959941864014, 0.3437846004962921, 0.4111137092113495, 0.3990944027900696, 0.1775638312101364, 0.20602668821811676, 0.13891097903251648, 0.17606094479560852, 0.22593188285827637, 0.25830137729644775, 0.247365340590477, 0.17988194525241852, 0.19008636474609375, 0.3237585425376892, 0.337443083524704, 0.14782258868217468, 0.2854134738445282, 0.3383685052394867, 0.583344578742981, 0.8249160051345825, 0.9220695495605469, 0.9540255069732666, 0.9909175038337708, 0.9907273054122925, 0.9826716780662537, 0.9397971630096436, 0.9610921144485474, 0.9792231321334839, 0.9593543410301208, 0.9455903172492981, 0.9637064933776855, 0.9640176892280579, 0.9523683190345764, 0.9541175365447998, 0.9905133247375488, 0.988857626914978, 0.988991379737854]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9845812916755676</v>
+        <v>0.9909175038337708</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.7954278000106569</v>
+        <v>0.7931528000044636</v>
       </c>
       <c r="J125" t="n">
-        <v>0.00572250215835005</v>
+        <v>0.005706135251830674</v>
       </c>
     </row>
     <row r="126">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[0.18941034376621246, 0.16492845118045807, 0.18557685613632202, 0.18630196154117584, 0.1952412724494934, 0.1748877465724945, 0.13941442966461182, 0.16619335114955902, 0.153409942984581, 0.13231559097766876, 0.14259430766105652, 0.10783835500478745, 0.1620759814977646, 0.2326650470495224, 0.14505484700202942, 0.156677708029747, 0.2523742914199829, 0.24811145663261414, 0.2566288411617279, 0.20253385603427887, 0.21013133227825165, 0.17104484140872955, 0.25262755155563354, 0.16503718495368958, 0.14669200778007507, 0.1817161589860916, 0.13314521312713623, 0.18041814863681793, 0.24107050895690918, 0.1928103119134903, 0.1542186439037323, 0.23356127738952637, 0.2210659682750702, 0.23224514722824097, 0.20098230242729187, 0.21390306949615479, 0.2184937596321106, 0.22162525355815887, 0.19332897663116455, 0.19071128964424133, 0.18077921867370605, 0.19426901638507843, 0.19782991707324982, 0.18668191134929657, 0.15503385663032532, 0.14430776238441467, 0.13504496216773987, 0.10288187861442566, 0.11004965752363205, 0.11821620911359787, 0.10518106818199158, 0.14622610807418823, 0.22045966982841492, 0.20414789021015167, 0.1896396279335022, 0.14787721633911133, 0.14129088819026947, 0.14771071076393127, 0.19911032915115356, 0.17572858929634094, 0.1476113498210907, 0.18262898921966553, 0.16693153977394104, 0.16164226830005646, 0.1712075173854828, 0.187843456864357, 0.16039788722991943, 0.1459479182958603, 0.1462283879518509, 0.12850871682167053, 0.16820096969604492, 0.16244900226593018, 0.1528899222612381, 0.14885102212429047, 0.14759638905525208, 0.11660203337669373, 0.08049935847520828, 0.08794966340065002, 0.08839619904756546, 0.09366457164287567, 0.1256265491247177, 0.13498452305793762, 0.14887288212776184, 0.16613556444644928, 0.19163396954536438, 0.18568643927574158, 0.15401721000671387, 0.17649494111537933, 0.1629878580570221, 0.13518394529819489, 0.12876196205615997, 0.19147033989429474, 0.18911974132061005, 0.17436176538467407, 0.13271519541740417, 0.12400277704000473, 0.134337916970253, 0.19862443208694458, 0.15237587690353394, 0.17119701206684113, 0.1474636197090149, 0.1202714592218399, 0.13113565742969513, 0.12425387650728226, 0.13263145089149475, 0.1270090490579605, 0.14694347977638245, 0.15911667048931122, 0.18701006472110748, 0.1757078617811203, 0.1738714724779129, 0.18944214284420013, 0.1901109516620636, 0.14574895799160004, 0.13786961138248444, 0.14195498824119568, 0.15622542798519135, 0.13704298436641693, 0.12492040544748306, 0.1313510537147522, 0.11828567832708359, 0.15524516999721527, 0.1434393972158432, 0.14165093004703522, 0.10614515095949173, 0.09320129454135895, 0.07633886486291885, 0.1203252449631691, 0.10625876486301422, 0.09911438077688217, 0.1181858703494072, 0.12887310981750488, 0.16441835463047028, 0.1995144784450531, 0.16304732859134674, 0.13583321869373322, 0.17724020779132843, 0.1560978889465332, 0.14297282695770264, 0.13166722655296326, 0.1329052895307541, 0.15023455023765564, 0.1918635070323944, 0.16269265115261078, 0.15757720172405243, 0.1512063443660736, 0.12752850353717804, 0.12783734500408173]</t>
+          <t>[0.2632211744785309, 0.1882271021604538, 0.2228914499282837, 0.24302679300308228, 0.18978101015090942, 0.14536724984645844, 0.11749076098203659, 0.1819988340139389, 0.16116005182266235, 0.14055636525154114, 0.17391498386859894, 0.12073296308517456, 0.18362528085708618, 0.3688506782054901, 0.17603705823421478, 0.1892317235469818, 0.3656056523323059, 0.3828129768371582, 0.38502237200737, 0.2958511412143707, 0.3138102889060974, 0.25602424144744873, 0.40458765625953674, 0.24003538489341736, 0.16578224301338196, 0.24570004642009735, 0.1578408181667328, 0.24110300838947296, 0.3224128484725952, 0.23484420776367188, 0.17138205468654633, 0.24516484141349792, 0.22839397192001343, 0.29975181818008423, 0.323440283536911, 0.29806065559387207, 0.27506956458091736, 0.2176964432001114, 0.1660553365945816, 0.18613287806510925, 0.20601677894592285, 0.2611241936683655, 0.2989480793476105, 0.25665223598480225, 0.15800762176513672, 0.13954564929008484, 0.13533319532871246, 0.09076832234859467, 0.09094849973917007, 0.09665330499410629, 0.08374366164207458, 0.12144356220960617, 0.18139338493347168, 0.16343800723552704, 0.145846888422966, 0.1064249724149704, 0.10447812080383301, 0.11370866000652313, 0.22156918048858643, 0.18217304348945618, 0.14671936631202698, 0.21146534383296967, 0.17378559708595276, 0.1684674471616745, 0.18207406997680664, 0.21136395633220673, 0.16881877183914185, 0.13664449751377106, 0.1246488094329834, 0.1086195558309555, 0.14478696882724762, 0.15778277814388275, 0.14318415522575378, 0.1578177660703659, 0.1524207890033722, 0.10297010838985443, 0.06668447703123093, 0.08063706755638123, 0.08322855830192566, 0.08720323443412781, 0.1289280503988266, 0.13708525896072388, 0.16110290586948395, 0.198557510972023, 0.205354243516922, 0.2275717556476593, 0.17320473492145538, 0.24586039781570435, 0.17405666410923004, 0.12432901561260223, 0.11330633610486984, 0.2178453654050827, 0.19788070023059845, 0.15890216827392578, 0.11855822056531906, 0.1218969076871872, 0.14309823513031006, 0.2749907672405243, 0.17111387848854065, 0.19364555180072784, 0.14192895591259003, 0.12972572445869446, 0.13247030973434448, 0.1491452157497406, 0.14502546191215515, 0.14589011669158936, 0.18620070815086365, 0.2145160287618637, 0.2442161738872528, 0.22215451300144196, 0.19056151807308197, 0.19033756852149963, 0.22516238689422607, 0.14886893332004547, 0.14584194123744965, 0.1432563066482544, 0.16375836730003357, 0.12864890694618225, 0.09411824494600296, 0.09797518700361252, 0.09421586245298386, 0.1807265281677246, 0.178299218416214, 0.1562182456254959, 0.10109005868434906, 0.08985644578933716, 0.07287375628948212, 0.11014252156019211, 0.08512206375598907, 0.09228753298521042, 0.1339944750070572, 0.1335258036851883, 0.18476593494415283, 0.22495940327644348, 0.17642837762832642, 0.12527664005756378, 0.16626575589179993, 0.13343319296836853, 0.12124045193195343, 0.11660393327474594, 0.10975580662488937, 0.14531169831752777, 0.26091617345809937, 0.20841169357299805, 0.1940602958202362, 0.19008982181549072, 0.1290694922208786, 0.12976868450641632]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.2566288411617279</v>
+        <v>0.4045876562595367</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.8658888000063598</v>
+        <v>0.8667305000126362</v>
       </c>
       <c r="J126" t="n">
-        <v>0.005850600000042972</v>
+        <v>0.005856287162247542</v>
       </c>
     </row>
     <row r="127">
@@ -5605,11 +5605,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[0.18184639513492584, 0.12922640144824982, 0.12876975536346436, 0.16135549545288086, 0.08113134652376175, 0.07083471864461899, 0.07034062594175339, 0.06686166673898697, 0.09314850717782974, 0.07802420854568481, 0.12093613296747208, 0.1694193035364151, 0.24345161020755768, 0.2676566541194916, 0.22254805266857147, 0.2211347073316574, 0.19253244996070862, 0.14244034886360168, 0.11828741431236267, 0.5918585062026978, 0.9189895987510681, 0.9650095701217651, 0.9652062058448792, 0.9391486048698425, 0.8928254246711731, 0.3737315833568573, 0.5930704474449158, 0.7617805600166321, 0.9752816557884216, 0.9798306822776794, 0.9633312821388245, 0.9633396863937378, 0.9795811772346497, 0.9866859912872314, 0.9710411429405212, 0.9409934282302856, 0.9697638750076294, 0.9348284006118774, 0.7475077509880066, 0.8465487957000732, 0.39209794998168945, 0.318515419960022, 0.5732770562171936, 0.7348495721817017, 0.4924562871456146, 0.5689525008201599, 0.11416386812925339, 0.10405723005533218, 0.10706093162298203, 0.15676674246788025, 0.1935306340456009, 0.19772969186306, 0.08645905554294586, 0.07747559994459152, 0.06453265994787216, 0.08011917769908905, 0.08440137654542923, 0.07430421561002731, 0.25930798053741455, 0.30573636293411255, 0.31480440497398376, 0.13663288950920105, 0.1543118804693222, 0.19748781621456146, 0.8902757167816162, 0.9456473588943481, 0.9329274892807007, 0.9579866528511047, 0.9796384572982788, 0.9806817770004272, 0.95323246717453, 0.9130196571350098, 0.8113434314727783, 0.8985491991043091, 0.9117598533630371, 0.9524651169776917, 0.9523531198501587, 0.9275392293930054, 0.8964786529541016, 0.9569931030273438, 0.9133667945861816, 0.8704652190208435, 0.8776799440383911, 0.7899599671363831, 0.9066206216812134, 0.9607649445533752, 0.9657970666885376, 0.9724164605140686, 0.9604599475860596, 0.9613954424858093, 0.9604016542434692, 0.9764983654022217, 0.9749130606651306, 0.9428614377975464, 0.7215299606323242, 0.6319710612297058, 0.4780532121658325, 0.563529908657074, 0.5642606616020203, 0.5220683217048645, 0.2283180207014084, 0.2795778214931488, 0.33837100863456726, 0.41537410020828247, 0.4005964994430542, 0.19415143132209778, 0.44377151131629944, 0.6560019850730896, 0.6640762090682983, 0.8789687752723694, 0.7836927771568298, 0.6809377074241638, 0.9043555855751038, 0.9717872142791748, 0.9586434960365295, 0.9778125882148743, 0.9737882018089294, 0.9606701135635376, 0.9523075819015503, 0.948026180267334, 0.9464929699897766, 0.9739094376564026, 0.9598109722137451, 0.9352357387542725, 0.9327054023742676, 0.9273149371147156, 0.9407278895378113, 0.9192829728126526, 0.9002082943916321, 0.892191469669342, 0.9482102990150452, 0.9459954500198364, 0.9727765321731567, 0.9722514748573303, 0.9686757326126099, 0.9671270847320557, 0.963395893573761, 0.9590337872505188, 0.947088360786438, 0.9660521745681763, 0.964076042175293, 0.9690713286399841, 0.8387929201126099, 0.461952269077301, 0.615708589553833, 0.7718542814254761, 0.7711770534515381]</t>
+          <t>[0.4078245162963867, 0.2325029969215393, 0.25532591342926025, 0.38704735040664673, 0.1841457486152649, 0.1721903383731842, 0.10160703212022781, 0.0732419416308403, 0.10327547043561935, 0.08933108299970627, 0.24771501123905182, 0.32519102096557617, 0.5049804449081421, 0.5219597220420837, 0.5063380599021912, 0.4460194408893585, 0.20460116863250732, 0.11629138141870499, 0.13185451924800873, 0.8734166622161865, 0.9792799353599548, 0.9930522441864014, 0.9941735863685608, 0.9898068308830261, 0.9797037839889526, 0.698585569858551, 0.8365092873573303, 0.9208930134773254, 0.9930039048194885, 0.9937415719032288, 0.9882358908653259, 0.9893079400062561, 0.9937540888786316, 0.9961735606193542, 0.9925877451896667, 0.9767124056816101, 0.9900580048561096, 0.9825195074081421, 0.8952153921127319, 0.949537992477417, 0.6795005202293396, 0.5544604659080505, 0.853095531463623, 0.9467349052429199, 0.8244413137435913, 0.8802630305290222, 0.12711860239505768, 0.12077269703149796, 0.11737081408500671, 0.35214290022850037, 0.4647059142589569, 0.5637723803520203, 0.1472647786140442, 0.0976484939455986, 0.07160564512014389, 0.11532846838235855, 0.1420280486345291, 0.12667079269886017, 0.5462659597396851, 0.6936416029930115, 0.6527603268623352, 0.28968346118927, 0.397482305765152, 0.44570836424827576, 0.9664804935455322, 0.9841405153274536, 0.9763665199279785, 0.9765907526016235, 0.991860568523407, 0.9930290579795837, 0.9663375616073608, 0.959709644317627, 0.9336186051368713, 0.9719715118408203, 0.9745205044746399, 0.9896253943443298, 0.9892567992210388, 0.978745698928833, 0.9725865721702576, 0.9870109558105469, 0.9785968065261841, 0.9668920040130615, 0.9747573733329773, 0.9534845352172852, 0.9741902351379395, 0.9899213314056396, 0.9858188033103943, 0.9842899441719055, 0.9814824461936951, 0.9831970930099487, 0.9838477969169617, 0.992641031742096, 0.993313729763031, 0.9844214916229248, 0.9371376633644104, 0.8886193037033081, 0.806513786315918, 0.856185793876648, 0.8425582051277161, 0.8140353560447693, 0.4255034029483795, 0.6066424250602722, 0.7182023525238037, 0.6487574577331543, 0.6138591766357422, 0.4089261591434479, 0.7013655304908752, 0.8643317818641663, 0.8789395689964294, 0.9541833996772766, 0.9237037301063538, 0.8593282699584961, 0.9793097972869873, 0.9928673505783081, 0.9884757995605469, 0.9927794337272644, 0.9914787411689758, 0.9865421056747437, 0.9801979064941406, 0.9796375632286072, 0.9751477241516113, 0.9902375340461731, 0.9831541180610657, 0.9793588519096375, 0.9854342937469482, 0.9822927117347717, 0.9858435988426208, 0.9797061085700989, 0.9772261381149292, 0.9809731245040894, 0.9879328608512878, 0.9863007068634033, 0.992559552192688, 0.9940047860145569, 0.993955671787262, 0.9905419945716858, 0.9826933145523071, 0.9824522733688354, 0.9833325147628784, 0.9918113946914673, 0.9890487194061279, 0.9917158484458923, 0.9539681077003479, 0.7481561303138733, 0.8677602410316467, 0.9518203735351562, 0.951553463935852]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9866859912872314</v>
+        <v>0.9961735606193542</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.8363385999982711</v>
+        <v>0.8374383000045782</v>
       </c>
       <c r="J127" t="n">
-        <v>0.005689378231280756</v>
+        <v>0.005696859183704613</v>
       </c>
     </row>
     <row r="128">
@@ -5645,11 +5645,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[0.1853051483631134, 0.2601698935031891, 0.2661292850971222, 0.24895372986793518, 0.1998576521873474, 0.2960805892944336, 0.31372207403182983, 0.2340150773525238, 0.2873617708683014, 0.15048831701278687, 0.10492170602083206, 0.14098292589187622, 0.2202412188053131, 0.2654833495616913, 0.30110615491867065, 0.27972596883773804, 0.3975003957748413, 0.3778284788131714, 0.18419891595840454, 0.19140778481960297, 0.18148519098758698, 0.09760692715644836, 0.15267054736614227, 0.1860937774181366, 0.19459843635559082, 0.26121678948402405, 0.35543540120124817, 0.19251380860805511, 0.10846380144357681, 0.11498986929655075, 0.09391402453184128, 0.08070379495620728, 0.0783185213804245, 0.125058114528656, 0.1484798640012741, 0.18821729719638824, 0.2564407289028168, 0.2199232429265976, 0.20797553658485413, 0.24298971891403198, 0.2877461314201355, 0.26335015892982483, 0.41030415892601013, 0.37656012177467346, 0.30168113112449646, 0.17943035066127777, 0.13539743423461914, 0.133327454328537, 0.14953108131885529, 0.19665487110614777, 0.26596006751060486, 0.2065463811159134, 0.1651667207479477, 0.20661486685276031, 0.27558445930480957, 0.28403225541114807, 0.23037180304527283, 0.21817640960216522, 0.22273027896881104, 0.336818128824234, 0.16054728627204895, 0.10583025217056274, 0.1039428785443306, 0.1511985808610916, 0.10927094519138336, 0.12897416949272156, 0.09770350158214569, 0.07990628480911255, 0.08850950002670288, 0.09488584101200104, 0.06800904124975204, 0.06114446371793747, 0.18750175833702087, 0.19963331520557404, 0.14594754576683044, 0.07945230603218079, 0.08954504877328873, 0.08198890089988708, 0.15407131612300873, 0.16561168432235718, 0.17799730598926544, 0.17118455469608307, 0.15825854241847992, 0.14155273139476776, 0.2319280356168747, 0.1511296182870865, 0.12410593777894974, 0.10167457908391953, 0.07870367169380188, 0.0881587564945221, 0.12064310908317566, 0.12157005816698074, 0.11112122982740402, 0.10367181152105331, 0.14454978704452515, 0.13077089190483093, 0.13702984154224396, 0.13011899590492249, 0.13045981526374817, 0.17304563522338867, 0.17592479288578033, 0.16950730979442596, 0.1578981578350067, 0.11162307858467102, 0.14578381180763245, 0.11528417468070984, 0.1487783044576645, 0.149542897939682, 0.09777210652828217, 0.06437534838914871, 0.07096133381128311, 0.10558001697063446, 0.09190630912780762, 0.09722001105546951, 0.15301644802093506, 0.12561839818954468, 0.14081746339797974, 0.1199723333120346, 0.09350753575563431, 0.08797109872102737, 0.1283344179391861, 0.10983458906412125, 0.10957308858633041, 0.1706833839416504, 0.12770642340183258, 0.14095264673233032, 0.16861028969287872, 0.2209167331457138, 0.1819201409816742, 0.21422718465328217, 0.12525200843811035, 0.09984986484050751, 0.13768336176872253, 0.11320938169956207, 0.16706930100917816, 0.29059600830078125, 0.27891647815704346, 0.19716282188892365, 0.1528836488723755, 0.18410874903202057, 0.13743656873703003, 0.08366089314222336, 0.08690764009952545, 0.08859460055828094, 0.17053431272506714, 0.09835676103830338, 0.08506680279970169, 0.085192009806633]</t>
+          <t>[0.32147374749183655, 0.4125072956085205, 0.36416909098625183, 0.2221122682094574, 0.16442811489105225, 0.27538642287254333, 0.3229061961174011, 0.2432733029127121, 0.4045449495315552, 0.2011377066373825, 0.12559418380260468, 0.1854710578918457, 0.2722829282283783, 0.2761700451374054, 0.37395286560058594, 0.36548736691474915, 0.551214873790741, 0.5208008885383606, 0.19323651492595673, 0.18676209449768066, 0.1846318393945694, 0.08895166963338852, 0.1626863032579422, 0.2434193640947342, 0.27875998616218567, 0.3798001706600189, 0.5129305720329285, 0.21997269988059998, 0.10717865824699402, 0.10474398732185364, 0.10909418761730194, 0.09664884209632874, 0.09462273865938187, 0.1421668529510498, 0.1565324068069458, 0.24672310054302216, 0.41095301508903503, 0.3476977050304413, 0.32398149371147156, 0.293297678232193, 0.36375999450683594, 0.3357272744178772, 0.5940083861351013, 0.5261268615722656, 0.47553616762161255, 0.2844316065311432, 0.19444338977336884, 0.23450526595115662, 0.2228551208972931, 0.30911198258399963, 0.4623126685619354, 0.2587478756904602, 0.21171173453330994, 0.3130916953086853, 0.4442468583583832, 0.37107202410697937, 0.2570708394050598, 0.35265669226646423, 0.39880678057670593, 0.566824197769165, 0.2370244711637497, 0.13659138977527618, 0.11530689150094986, 0.17901194095611572, 0.1434713900089264, 0.17604900896549225, 0.09282103180885315, 0.0813482254743576, 0.0918034240603447, 0.10504995286464691, 0.07015636563301086, 0.06311950087547302, 0.29755687713623047, 0.30690285563468933, 0.19268503785133362, 0.07969770580530167, 0.0968334972858429, 0.10099557042121887, 0.17676684260368347, 0.2045079469680786, 0.2929612994194031, 0.20249485969543457, 0.17401941120624542, 0.1518302857875824, 0.2748801112174988, 0.20362971723079681, 0.17394019663333893, 0.1530272662639618, 0.10261253267526627, 0.10632924735546112, 0.16379475593566895, 0.16574209928512573, 0.14070522785186768, 0.11387991160154343, 0.15884487330913544, 0.15653324127197266, 0.15590547025203705, 0.15896324813365936, 0.16446037590503693, 0.21057811379432678, 0.2137620747089386, 0.2042495161294937, 0.2382810264825821, 0.1727556586265564, 0.2269267737865448, 0.15126733481884003, 0.18217092752456665, 0.18628723919391632, 0.14302340149879456, 0.09094355255365372, 0.08318449556827545, 0.12927475571632385, 0.11735407263040543, 0.11778620630502701, 0.23329731822013855, 0.19464626908302307, 0.1886148303747177, 0.15491224825382233, 0.10963865369558334, 0.0979495719075203, 0.1456824541091919, 0.1181698739528656, 0.10991156101226807, 0.25435635447502136, 0.19841718673706055, 0.21083670854568481, 0.22161881625652313, 0.30517083406448364, 0.23983940482139587, 0.2760741412639618, 0.13582395017147064, 0.12297134101390839, 0.2575247287750244, 0.23785477876663208, 0.30020076036453247, 0.467375785112381, 0.46430665254592896, 0.32029956579208374, 0.2191421538591385, 0.2366851568222046, 0.15894584357738495, 0.10344119369983673, 0.09931870549917221, 0.09254423528909683, 0.20119832456111908, 0.09333600848913193, 0.08512633293867111, 0.08595821261405945]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.4103041589260101</v>
+        <v>0.5940083861351013</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.8383954000019003</v>
+        <v>0.8474282999959541</v>
       </c>
       <c r="J128" t="n">
-        <v>0.005664833783796623</v>
+        <v>0.005725866891864555</v>
       </c>
     </row>
     <row r="129">
@@ -5685,11 +5685,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[0.854938805103302, 0.7763223648071289, 0.5452543497085571, 0.6618614196777344, 0.48494914174079895, 0.7715365886688232, 0.7111648321151733, 0.9296308755874634, 0.9526180624961853, 0.9561049938201904, 0.9735218286514282, 0.9788813591003418, 0.9789963960647583, 0.9750304222106934, 0.9804014563560486, 0.9847531914710999, 0.9917069673538208, 0.990502119064331, 0.9884910583496094, 0.9879779815673828, 0.9869372248649597, 0.9882856607437134, 0.9850519895553589, 0.9728895425796509, 0.9649681448936462, 0.951751708984375, 0.9189710021018982, 0.9031899571418762, 0.457317978143692, 0.2092094123363495, 0.19300146400928497, 0.868751585483551, 0.825814425945282, 0.8675364255905151, 0.9164986610412598, 0.8572705388069153, 0.8730742931365967, 0.9207068681716919, 0.8683359622955322, 0.8022575378417969, 0.7093783617019653, 0.6073064804077148, 0.7716292142868042, 0.746751606464386, 0.5806200504302979, 0.6987040042877197, 0.689946174621582, 0.3732808232307434, 0.15925487875938416, 0.712160587310791, 0.8365159630775452, 0.8674259781837463, 0.9342790842056274, 0.9353657364845276, 0.9404822587966919, 0.9330331683158875, 0.9055877923965454, 0.921455442905426, 0.9330379366874695, 0.9356933832168579, 0.8902984261512756, 0.7884740233421326, 0.7652989625930786, 0.7396026253700256, 0.7676088213920593, 0.7678954601287842, 0.7937819361686707, 0.795612096786499, 0.7103801965713501, 0.6985896229743958, 0.9070363640785217, 0.8635553121566772, 0.7205516695976257, 0.5476227402687073, 0.31958749890327454, 0.1788065880537033, 0.0694086030125618, 0.07398023456335068, 0.0977972149848938, 0.08812034130096436, 0.07302993535995483, 0.07627233862876892, 0.03457334265112877, 0.0423135869204998, 0.07855937629938126, 0.09967781603336334, 0.15861231088638306, 0.33500438928604126, 0.5104055404663086, 0.5432254672050476, 0.7434626221656799, 0.8969675302505493, 0.9729129076004028, 0.9745641946792603, 0.956890344619751, 0.9562044739723206, 0.9252906441688538, 0.9558386206626892, 0.9604093432426453, 0.943909227848053, 0.8982657194137573, 0.8988132476806641, 0.931778609752655, 0.968151330947876, 0.9494215250015259, 0.9555234313011169, 0.9761993885040283, 0.9839562773704529, 0.9798771739006042, 0.9448740482330322, 0.7363056540489197, 0.4003811776638031, 0.17600935697555542, 0.153631791472435, 0.07105737924575806, 0.08726775646209717, 0.10356312990188599, 0.14169001579284668, 0.10129968076944351, 0.09466856718063354, 0.18031121790409088, 0.2822875380516052, 0.38291507959365845, 0.6315668821334839, 0.892532229423523, 0.9240942597389221, 0.9207586050033569, 0.8872480392456055, 0.8811521530151367, 0.9395628571510315, 0.9738376140594482, 0.9717782139778137, 0.9772397875785828, 0.9682583808898926, 0.9732610583305359, 0.9662549495697021, 0.9684513211250305, 0.9781524538993835, 0.9723777174949646, 0.9785366058349609, 0.9769721031188965, 0.9801802635192871, 0.9549708366394043, 0.9607670307159424, 0.9594392776489258, 0.9527240991592407, 0.951963484287262]</t>
+          <t>[0.9230221509933472, 0.9002199769020081, 0.7276908755302429, 0.8301296830177307, 0.6447440385818481, 0.844021737575531, 0.7688556909561157, 0.9596002101898193, 0.9760223031044006, 0.9710312485694885, 0.9869793653488159, 0.9879014492034912, 0.9880947470664978, 0.9838451147079468, 0.9885448813438416, 0.9929794669151306, 0.9967353940010071, 0.9958718419075012, 0.9958250522613525, 0.9943517446517944, 0.9942933320999146, 0.9948335886001587, 0.9933184385299683, 0.9885697960853577, 0.9854103326797485, 0.9800772070884705, 0.9620568156242371, 0.9568970203399658, 0.666582465171814, 0.29995909333229065, 0.1878955066204071, 0.9311950206756592, 0.8759661912918091, 0.9372645020484924, 0.9609140753746033, 0.9229106307029724, 0.940951406955719, 0.969538152217865, 0.9426472187042236, 0.8878899216651917, 0.8284211158752441, 0.7932097315788269, 0.8998283743858337, 0.8715410828590393, 0.6498619914054871, 0.7788228988647461, 0.7565207481384277, 0.35733354091644287, 0.14690470695495605, 0.7475884556770325, 0.897498607635498, 0.9628960490226746, 0.9730547666549683, 0.9737157821655273, 0.9743822813034058, 0.9603657722473145, 0.9517073035240173, 0.9655367136001587, 0.975564181804657, 0.9764770865440369, 0.9623888731002808, 0.9137312769889832, 0.8892967104911804, 0.8916224837303162, 0.9033952951431274, 0.8965663909912109, 0.9168192148208618, 0.8902400135993958, 0.8389575481414795, 0.8439151048660278, 0.9665513038635254, 0.9455313682556152, 0.8752050995826721, 0.8630198240280151, 0.7007808685302734, 0.46862417459487915, 0.0686260536313057, 0.08702364563941956, 0.16362601518630981, 0.13889111578464508, 0.07943375408649445, 0.09349317103624344, 0.029273316264152527, 0.034517720341682434, 0.09987844526767731, 0.08148276060819626, 0.21432510018348694, 0.5895170569419861, 0.39720478653907776, 0.318793922662735, 0.6930423974990845, 0.9514378905296326, 0.9886190891265869, 0.9900811314582825, 0.9757786393165588, 0.9802667498588562, 0.9619839787483215, 0.9767870306968689, 0.9787042140960693, 0.9626400470733643, 0.909746527671814, 0.9170130491256714, 0.961187481880188, 0.9816471934318542, 0.9717363119125366, 0.9748806357383728, 0.9879899621009827, 0.9912979602813721, 0.9889206886291504, 0.9602620005607605, 0.7112802267074585, 0.405268132686615, 0.13208916783332825, 0.09569305181503296, 0.04485038295388222, 0.07303529232740402, 0.07824481278657913, 0.1568678468465805, 0.07768957316875458, 0.0676468014717102, 0.18867647647857666, 0.3429529666900635, 0.4668387770652771, 0.7525801658630371, 0.9490212798118591, 0.9683006405830383, 0.9664235711097717, 0.966847836971283, 0.9576189517974854, 0.978594958782196, 0.9894489049911499, 0.9875836968421936, 0.9891982674598694, 0.9852741956710815, 0.9872322082519531, 0.9822803139686584, 0.9870491623878479, 0.9910235404968262, 0.9875081181526184, 0.9889834523200989, 0.9892515540122986, 0.9897572994232178, 0.979490339756012, 0.9809722900390625, 0.9793471693992615, 0.9767087697982788, 0.9762500524520874]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.9917069673538208</v>
+        <v>0.9967353940010071</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.8424659000011161</v>
+        <v>0.8369353000016417</v>
       </c>
       <c r="J129" t="n">
-        <v>0.00573106054422528</v>
+        <v>0.005693437414977155</v>
       </c>
     </row>
     <row r="130">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[0.6123141646385193, 0.40520280599594116, 0.4764142334461212, 0.33297204971313477, 0.44112688302993774, 0.5971674919128418, 0.6282998919487, 0.5428077578544617, 0.6368222832679749, 0.7085718512535095, 0.5449551343917847, 0.42703336477279663, 0.4349348843097687, 0.6583648920059204, 0.6337590217590332, 0.8251773715019226, 0.40394991636276245, 0.6701065301895142, 0.2892491817474365, 0.39248570799827576, 0.39384984970092773, 0.45731571316719055, 0.4421510100364685, 0.6269071102142334, 0.6916253566741943, 0.7528225779533386, 0.5816655158996582, 0.7945301532745361, 0.7933706045150757, 0.7798664569854736, 0.7320839762687683, 0.7148336172103882, 0.7159334421157837, 0.5165254473686218, 0.37252748012542725, 0.6142241954803467, 0.7708863019943237, 0.7257654070854187, 0.640086829662323, 0.4655846655368805, 0.3360392451286316, 0.401706337928772, 0.3746599853038788, 0.39583340287208557, 0.3577323853969574, 0.6240742802619934, 0.49484941363334656, 0.7058319449424744, 0.6997804045677185, 0.6181756854057312, 0.6078372001647949, 0.4550613462924957, 0.657745361328125, 0.6707883477210999, 0.46782195568084717, 0.6782512664794922, 0.5785319209098816, 0.40662920475006104, 0.6146925091743469, 0.8246476054191589, 0.6475013494491577, 0.45834580063819885, 0.5018410682678223, 0.6279672980308533, 0.4881679117679596, 0.6085785031318665, 0.37287890911102295, 0.4442691206932068, 0.6542257070541382, 0.41278862953186035, 0.7623415589332581, 0.5732812881469727, 0.6594172716140747, 0.5819240212440491, 0.3543708920478821, 0.7146292328834534, 0.6114545464515686, 0.8081609606742859, 0.677616536617279, 0.6699694991111755, 0.7684895396232605, 0.5375255942344666, 0.5215362906455994, 0.4673772156238556, 0.7019988298416138, 0.7235034704208374, 0.4336138665676117, 0.4542756974697113, 0.4416372776031494, 0.11892931908369064, 0.14430013298988342, 0.15263095498085022, 0.46440619230270386, 0.24013683199882507, 0.2720796763896942, 0.7045150399208069, 0.3048308193683624, 0.4450225830078125, 0.5154232978820801, 0.49396976828575134, 0.38320982456207275, 0.38297730684280396]</t>
+          <t>[0.8516181111335754, 0.693831741809845, 0.7802612781524658, 0.5626219511032104, 0.7260040640830994, 0.8179265260696411, 0.8551627397537231, 0.7100215554237366, 0.8573917746543884, 0.9153034687042236, 0.7745208740234375, 0.587573230266571, 0.5536205172538757, 0.8262286186218262, 0.830668032169342, 0.9609414935112, 0.6823482513427734, 0.8497858047485352, 0.4140253961086273, 0.5149566531181335, 0.5278847217559814, 0.6876896619796753, 0.6211518049240112, 0.8599427938461304, 0.8297469615936279, 0.9001900553703308, 0.7299113273620605, 0.9601337313652039, 0.9251115322113037, 0.9347499012947083, 0.917273759841919, 0.853767991065979, 0.8253263831138611, 0.7095094323158264, 0.5472329258918762, 0.7932372689247131, 0.9348618388175964, 0.9022042751312256, 0.8240111470222473, 0.620231568813324, 0.49050021171569824, 0.5537811517715454, 0.5716663599014282, 0.5983352661132812, 0.4942290782928467, 0.8074461221694946, 0.6889863014221191, 0.8751185536384583, 0.8732808232307434, 0.836629331111908, 0.846297562122345, 0.6545361280441284, 0.836895763874054, 0.8766797780990601, 0.6128360033035278, 0.8517547249794006, 0.7646757364273071, 0.604527473449707, 0.7788628339767456, 0.9251559972763062, 0.7824993133544922, 0.6293421387672424, 0.7551085352897644, 0.8322645425796509, 0.7218843698501587, 0.7514966726303101, 0.5117732286453247, 0.6944791674613953, 0.8561851978302002, 0.693244218826294, 0.9149428606033325, 0.7253121733665466, 0.7835584282875061, 0.6925835609436035, 0.42645126581192017, 0.843369722366333, 0.67669677734375, 0.8641411662101746, 0.8156494498252869, 0.7323974967002869, 0.803382396697998, 0.6444935202598572, 0.5764738917350769, 0.5875982046127319, 0.7966992855072021, 0.8510726094245911, 0.512945830821991, 0.6445131897926331, 0.5827577710151672, 0.1469762623310089, 0.18511587381362915, 0.21838419139385223, 0.582102358341217, 0.3895344138145447, 0.33027011156082153, 0.8562024235725403, 0.35613834857940674, 0.5510860681533813, 0.6061329245567322, 0.5548431873321533, 0.5296245813369751, 0.5296151041984558]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.8251773715019226</v>
+        <v>0.9609414935112</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.5819974000041839</v>
+        <v>0.6108557999978075</v>
       </c>
       <c r="J130" t="n">
-        <v>0.005705856862786116</v>
+        <v>0.005988782352919681</v>
       </c>
     </row>
     <row r="131">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[0.5577525496482849, 0.466110497713089, 0.17058026790618896, 0.3414226472377777, 0.400857150554657, 0.30825275182724, 0.19212698936462402, 0.3192675709724426, 0.6177055835723877, 0.8370375633239746, 0.8970678448677063, 0.7011454105377197, 0.7330924272537231, 0.8043784499168396, 0.5743290781974792, 0.5527538061141968, 0.607540488243103, 0.3843872845172882, 0.5101712346076965, 0.7702852487564087, 0.6839070320129395, 0.6296162009239197, 0.7867175340652466, 0.659813642501831, 0.39000821113586426, 0.4177241325378418, 0.4620862901210785, 0.35491088032722473, 0.49690914154052734, 0.5642596483230591, 0.5597741603851318, 0.3478516638278961, 0.652904212474823, 0.5521417856216431, 0.799177885055542, 0.7294281721115112, 0.6748932003974915, 0.5159580111503601, 0.3969305455684662, 0.25960326194763184, 0.19146263599395752, 0.17894724011421204, 0.16679096221923828, 0.10557250678539276, 0.23152419924736023, 0.12330339103937149, 0.20088240504264832, 0.09563488513231277, 0.16700801253318787, 0.20758391916751862, 0.18515442311763763, 0.24180684983730316, 0.21694521605968475, 0.18586651980876923, 0.3149491548538208, 0.1827724128961563, 0.14905314147472382, 0.21066710352897644, 0.2747943699359894, 0.2360667884349823, 0.3497963547706604, 0.24694415926933289, 0.21604609489440918, 0.35318121314048767, 0.22909556329250336, 0.4513172507286072, 0.4002241790294647, 0.6204038262367249, 0.5413720011711121, 0.4064546525478363, 0.29187631607055664, 0.3704283833503723, 0.1675708144903183, 0.13036656379699707, 0.13701163232326508, 0.17080625891685486, 0.2021569013595581, 0.21520894765853882, 0.24801070988178253, 0.11706239730119705, 0.15978360176086426, 0.2539505064487457, 0.27956223487854004, 0.18156050145626068, 0.2135213315486908, 0.14215627312660217, 0.08508580923080444, 0.18186098337173462, 0.17008313536643982, 0.19418315589427948, 0.190440833568573, 0.19296392798423767, 0.25755399465560913, 0.15944765508174896, 0.13028454780578613, 0.1198909804224968, 0.12415456026792526, 0.2043333500623703, 0.24264508485794067, 0.2188972681760788, 0.1396539807319641, 0.22494319081306458, 0.22518177330493927]</t>
+          <t>[0.6119980216026306, 0.48534268140792847, 0.1620446890592575, 0.23927639424800873, 0.35842227935791016, 0.22552154958248138, 0.1393204927444458, 0.40307116508483887, 0.6971073746681213, 0.8907978534698486, 0.9341914653778076, 0.7242658138275146, 0.8181262016296387, 0.8190194964408875, 0.5823505520820618, 0.6604177951812744, 0.6215533018112183, 0.3582366108894348, 0.5578808188438416, 0.8218218684196472, 0.7086153030395508, 0.7084622383117676, 0.8326290845870972, 0.6884369254112244, 0.3766534626483917, 0.46051573753356934, 0.5757577419281006, 0.37192848324775696, 0.6082746982574463, 0.7403597831726074, 0.6889112591743469, 0.43757686018943787, 0.8687333464622498, 0.7450157999992371, 0.9055011868476868, 0.805723249912262, 0.7028257250785828, 0.6049056649208069, 0.3916360139846802, 0.25004079937934875, 0.14045269787311554, 0.13545869290828705, 0.1011001467704773, 0.07653655856847763, 0.23194435238838196, 0.08807536959648132, 0.14982269704341888, 0.07793289422988892, 0.1340492218732834, 0.16810861229896545, 0.12111090868711472, 0.2062993198633194, 0.28150197863578796, 0.15522560477256775, 0.3699262738227844, 0.20582042634487152, 0.14322878420352936, 0.18521608412265778, 0.19602686166763306, 0.1895882785320282, 0.27815285325050354, 0.2285199761390686, 0.16392630338668823, 0.319023072719574, 0.21499671041965485, 0.4651634395122528, 0.44488805532455444, 0.6404451131820679, 0.5349543690681458, 0.4448206424713135, 0.3285481035709381, 0.37008291482925415, 0.13306835293769836, 0.09934542328119278, 0.1081259623169899, 0.1827445924282074, 0.21319323778152466, 0.25516626238822937, 0.27302122116088867, 0.1199042797088623, 0.16565735638141632, 0.23013612627983093, 0.2497432678937912, 0.198107048869133, 0.2146940529346466, 0.12171781808137894, 0.070573590695858, 0.1623624563217163, 0.16146308183670044, 0.18837937712669373, 0.21087367832660675, 0.20666901767253876, 0.23782257735729218, 0.1665404736995697, 0.12018468976020813, 0.11263889074325562, 0.12764817476272583, 0.19627992808818817, 0.3041805624961853, 0.23806162178516388, 0.13610957562923431, 0.229501873254776, 0.2296118587255478]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.8970678448677063</v>
+        <v>0.9341914653778076</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5783,10 +5783,10 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.6917728999978863</v>
+        <v>0.7179333999956725</v>
       </c>
       <c r="J131" t="n">
-        <v>0.006716241747552294</v>
+        <v>0.006970227184424005</v>
       </c>
     </row>
     <row r="132">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[0.3730241358280182, 0.40555518865585327, 0.26397576928138733, 0.4052194356918335, 0.4649854600429535, 0.38906824588775635, 0.32106995582580566, 0.35129958391189575, 0.3997713029384613, 0.23553620278835297, 0.2224002480506897, 0.33811190724372864, 0.2233331799507141, 0.1604437679052353, 0.18513134121894836, 0.4283083975315094, 0.3332565724849701, 0.18582291901111603, 0.22244636714458466, 0.15451863408088684, 0.1498587280511856, 0.17939256131649017, 0.21646618843078613, 0.20697453618049622, 0.28244397044181824, 0.4239908754825592, 0.3325445055961609, 0.4540858268737793, 0.699657142162323, 0.7114490866661072, 0.6806027293205261, 0.3812848627567291, 0.27476125955581665, 0.22297948598861694, 0.3118208646774292, 0.5566542148590088, 0.3693687319755554, 0.2828868329524994, 0.2522526979446411, 0.2730630338191986, 0.29942235350608826, 0.18365105986595154, 0.26410454511642456, 0.2027713805437088, 0.1942290961742401, 0.3190906345844269, 0.27226918935775757, 0.2069748193025589, 0.1352815330028534, 0.1350974589586258, 0.15417899191379547, 0.18687261641025543, 0.1590326577425003, 0.20309194922447205, 0.3129297196865082, 0.18995584547519684, 0.26091060042381287, 0.16115477681159973, 0.26770225167274475, 0.2040776014328003, 0.17713667452335358, 0.16755709052085876, 0.2340298891067505, 0.25900834798812866, 0.23063209652900696, 0.34688112139701843, 0.31734010577201843, 0.18690001964569092, 0.2182006984949112, 0.26814383268356323, 0.18990087509155273, 0.12064402550458908, 0.13005420565605164, 0.19236741960048676, 0.27243393659591675, 0.294789582490921, 0.5206133723258972, 0.4432845711708069, 0.5991236567497253, 0.2973482012748718, 0.6191814541816711, 0.6306852102279663, 0.6128261089324951, 0.4989585280418396, 0.484121710062027, 0.7034229040145874, 0.6524524092674255, 0.6742134094238281, 0.63223797082901, 0.48677492141723633, 0.8410972952842712, 0.8448505997657776, 0.7785510420799255, 0.7201264500617981, 0.556945264339447, 0.34407564997673035, 0.3521101772785187, 0.5226308703422546, 0.4239007830619812, 0.5204935073852539, 0.48435378074645996, 0.48616793751716614]</t>
+          <t>[0.2879307270050049, 0.2677837908267975, 0.11863340437412262, 0.21944871544837952, 0.2923539876937866, 0.2097737342119217, 0.20392562448978424, 0.16354364156723022, 0.21604157984256744, 0.11483649909496307, 0.07480709254741669, 0.18218892812728882, 0.09839321672916412, 0.04978559911251068, 0.052744705229997635, 0.24697603285312653, 0.1609145998954773, 0.08303581178188324, 0.08861443400382996, 0.05019001290202141, 0.04429074749350548, 0.04925135523080826, 0.05887693166732788, 0.05636691674590111, 0.12331493943929672, 0.23168641328811646, 0.18403196334838867, 0.31420618295669556, 0.6043476462364197, 0.6132346391677856, 0.5134972929954529, 0.15273387730121613, 0.09124918282032013, 0.07225064188241959, 0.14765124022960663, 0.4473607540130615, 0.17602220177650452, 0.12500587105751038, 0.11034052819013596, 0.10805688798427582, 0.12027884274721146, 0.049218907952308655, 0.10819122195243835, 0.08431373536586761, 0.09362874180078506, 0.17507104575634003, 0.1151646301150322, 0.09020645916461945, 0.0457456074655056, 0.046491920948028564, 0.05194919556379318, 0.06340869516134262, 0.05686195567250252, 0.06900687515735626, 0.14837339520454407, 0.0586397685110569, 0.07580594718456268, 0.04735472425818443, 0.08725046366453171, 0.06800314784049988, 0.06197211891412735, 0.04930168390274048, 0.07511238008737564, 0.1066727563738823, 0.07518042623996735, 0.17293372750282288, 0.12123294174671173, 0.06859661638736725, 0.09249110519886017, 0.11492973566055298, 0.07292354851961136, 0.036204054951667786, 0.038653381168842316, 0.06747476756572723, 0.10169916599988937, 0.11084182560443878, 0.298530638217926, 0.27331626415252686, 0.4612034857273102, 0.1495436578989029, 0.542483389377594, 0.4884961247444153, 0.5063096284866333, 0.37945643067359924, 0.3832283318042755, 0.6627888083457947, 0.5462880730628967, 0.5030002593994141, 0.5233059525489807, 0.3115940988063812, 0.7990602254867554, 0.8143960237503052, 0.7530102729797363, 0.6503109335899353, 0.3598475754261017, 0.18889057636260986, 0.15717491507530212, 0.26318657398223877, 0.20881375670433044, 0.4136829078197479, 0.2664639353752136, 0.26792439818382263]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.8448505997657776</v>
+        <v>0.8143960237503052</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.57885510000051</v>
+        <v>0.5815759999968577</v>
       </c>
       <c r="J132" t="n">
-        <v>0.005675050000005</v>
+        <v>0.005701725490165272</v>
       </c>
     </row>
     <row r="133">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[0.5729554295539856, 0.5411142110824585, 0.673258364200592, 0.6491078734397888, 0.5604172348976135, 0.7320507764816284, 0.6839653849601746, 0.6592142581939697, 0.5834478735923767, 0.47372984886169434, 0.2881271541118622, 0.4459505081176758, 0.4811124801635742, 0.4051855504512787, 0.42529889941215515, 0.4081375300884247, 0.4248563349246979, 0.39370787143707275, 0.7311423420906067, 0.2769773006439209, 0.47590863704681396, 0.7664228081703186, 0.7157565951347351, 0.46418195962905884, 0.3351869285106659, 0.7802784442901611, 0.8242768049240112, 0.6606081128120422, 0.609324038028717, 0.5583013892173767, 0.46347853541374207, 0.3904593288898468, 0.5199248194694519, 0.6455355286598206, 0.5225532054901123, 0.6040220260620117, 0.5201438069343567, 0.5637547969818115, 0.44403597712516785, 0.34039831161499023, 0.4245237708091736, 0.4476492404937744, 0.5610337853431702, 0.37629321217536926, 0.32295167446136475, 0.2900379002094269, 0.36360251903533936, 0.5369554758071899, 0.40404823422431946, 0.45502349734306335, 0.41555365920066833, 0.6155480146408081, 0.6811410784721375, 0.5517908930778503, 0.6767383813858032, 0.7366983294487, 0.5961053371429443, 0.5892946720123291, 0.6902078986167908, 0.6758544445037842, 0.639286458492279, 0.7155382633209229, 0.6585670113563538, 0.7832503318786621, 0.8653237819671631, 0.6263373494148254, 0.6892435550689697, 0.6652556657791138, 0.7561517357826233, 0.7964419722557068, 0.7777608633041382, 0.7700332403182983, 0.7240860462188721, 0.7929934859275818, 0.6883401870727539, 0.6891478896141052, 0.4997185468673706, 0.6943403482437134, 0.6746526956558228, 0.6272176504135132, 0.5025584697723389, 0.5956705808639526, 0.5584490299224854, 0.5768012404441833, 0.5574769973754883, 0.4661441147327423, 0.3550325036048889, 0.3744276463985443, 0.4297415018081665, 0.6419925093650818, 0.6915215253829956, 0.6471239328384399, 0.6766582727432251, 0.6307616829872131, 0.5928971767425537, 0.4726015031337738, 0.8248203992843628, 0.7006437182426453, 0.5168073773384094, 0.5290505290031433, 0.6187169551849365, 0.6173509955406189]</t>
+          <t>[0.38568416237831116, 0.3762536644935608, 0.5773516297340393, 0.5401660799980164, 0.39602574706077576, 0.5538633465766907, 0.44404539465904236, 0.46911466121673584, 0.4096509516239166, 0.44442451000213623, 0.1781553477048874, 0.27401456236839294, 0.31095755100250244, 0.2364480197429657, 0.2796557545661926, 0.2740194797515869, 0.3021727502346039, 0.2600712478160858, 0.5863423943519592, 0.19510924816131592, 0.4089394807815552, 0.7644419074058533, 0.5970682501792908, 0.39835163950920105, 0.17892231047153473, 0.7133653163909912, 0.6701721549034119, 0.5765734314918518, 0.48189157247543335, 0.4622757136821747, 0.38472118973731995, 0.27117398381233215, 0.373430073261261, 0.47958502173423767, 0.3951980173587799, 0.5989282131195068, 0.4504244923591614, 0.4975440502166748, 0.27719852328300476, 0.19896376132965088, 0.30510029196739197, 0.3270951211452484, 0.390291303396225, 0.19900497794151306, 0.17620430886745453, 0.13558031618595123, 0.17984412610530853, 0.3914598822593689, 0.21472924947738647, 0.28274086117744446, 0.27713456749916077, 0.3878094255924225, 0.5529209971427917, 0.3716612756252289, 0.5091703534126282, 0.6592418551445007, 0.46324530243873596, 0.4828808009624481, 0.6215983033180237, 0.6144168972969055, 0.47850605845451355, 0.5920125246047974, 0.524361789226532, 0.6881822347640991, 0.8300015926361084, 0.658009946346283, 0.5525243878364563, 0.5472961068153381, 0.7104445099830627, 0.726126492023468, 0.7502030730247498, 0.7647355794906616, 0.6193303465843201, 0.7545980215072632, 0.6472538709640503, 0.5886545181274414, 0.3206420838832855, 0.6135457754135132, 0.5548507571220398, 0.4960612654685974, 0.3429297208786011, 0.394621342420578, 0.37944164872169495, 0.39136162400245667, 0.41986730694770813, 0.30869409441947937, 0.18365751206874847, 0.18007022142410278, 0.24283534288406372, 0.4567042291164398, 0.5214505195617676, 0.5638867616653442, 0.5456364154815674, 0.4236786663532257, 0.4550738036632538, 0.31920260190963745, 0.7545618414878845, 0.6105203628540039, 0.3142065703868866, 0.3967985510826111, 0.5347346663475037, 0.5327690839767456]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.8653237819671631</v>
+        <v>0.8300015926361084</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.5910641000082251</v>
+        <v>0.5924987999896985</v>
       </c>
       <c r="J133" t="n">
-        <v>0.00579474607851201</v>
+        <v>0.005808811764604887</v>
       </c>
     </row>
     <row r="134">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[0.3395135998725891, 0.09472472965717316, 0.06973263621330261, 0.14310109615325928, 0.8829383850097656, 0.9692752361297607, 0.9746696949005127, 0.97380131483078, 0.9351543188095093, 0.9520466923713684, 0.9140141606330872, 0.9420761466026306, 0.9459357857704163, 0.8764020204544067, 0.9211370348930359, 0.7566492557525635, 0.6092630624771118, 0.4268874228000641, 0.31686949729919434, 0.35955020785331726, 0.5402161478996277, 0.27022606134414673, 0.5870714783668518, 0.9189254641532898, 0.9296164512634277, 0.9442477226257324, 0.5369145274162292, 0.14307957887649536, 0.16075459122657776, 0.12918871641159058, 0.1722286492586136, 0.12207284569740295, 0.07913045585155487, 0.06333595514297485, 0.06614059954881668, 0.06949140876531601, 0.06261470913887024, 0.05251144617795944, 0.06934227049350739, 0.05460331216454506, 0.04231254383921623, 0.08918391168117523, 0.07295026630163193, 0.08578542619943619, 0.05701553449034691, 0.06143302842974663, 0.056001272052526474, 0.06519261002540588, 0.0744408369064331, 0.1496637910604477, 0.2755279839038849, 0.2068508416414261, 0.25733163952827454, 0.157716765999794, 0.11723782122135162, 0.26260489225387573, 0.2909336984157562, 0.20070649683475494, 0.6543488502502441, 0.9291900396347046, 0.948028564453125, 0.9459530711174011, 0.96013343334198, 0.6685779094696045, 0.3927121162414551, 0.5075064301490784, 0.4640866219997406, 0.2515754997730255, 0.862436830997467, 0.9310440421104431, 0.8971128463745117, 0.9606860876083374, 0.8799742460250854, 0.5186329483985901, 0.25769463181495667, 0.22236627340316772, 0.1615428626537323, 0.13863594830036163, 0.2645025849342346, 0.41102659702301025, 0.44870343804359436, 0.3780967891216278, 0.18483009934425354, 0.1616680920124054, 0.16309869289398193, 0.22883453965187073, 0.3024965226650238, 0.1913701593875885, 0.1518772393465042, 0.1527114063501358, 0.1468118131160736, 0.11821260303258896, 0.0669708326458931, 0.13569015264511108, 0.14093849062919617, 0.0985495075583458, 0.090910904109478, 0.08569878339767456, 0.11058643460273743, 0.05031347647309303, 0.08649125695228577, 0.16569997370243073, 0.1653713881969452]</t>
+          <t>[0.3657967746257782, 0.08409199863672256, 0.0569225437939167, 0.15038254857063293, 0.9598342776298523, 0.9848360419273376, 0.9862377643585205, 0.9837851524353027, 0.9566105604171753, 0.9693162441253662, 0.9433795213699341, 0.9634149074554443, 0.960006058216095, 0.8946132063865662, 0.940767765045166, 0.8442171812057495, 0.7550498247146606, 0.4882352650165558, 0.5604982972145081, 0.5057172179222107, 0.6993665099143982, 0.38186749815940857, 0.7723313570022583, 0.9601942300796509, 0.9689674377441406, 0.98796147108078, 0.7360477447509766, 0.15695470571517944, 0.1452024132013321, 0.1171666830778122, 0.34547895193099976, 0.12144804000854492, 0.05767086520791054, 0.04546211659908295, 0.05647774413228035, 0.0621320866048336, 0.047540005296468735, 0.03797130659222603, 0.06249091774225235, 0.04551413282752037, 0.03683655336499214, 0.10431081801652908, 0.07210434973239899, 0.09084546566009521, 0.05257045105099678, 0.05132753774523735, 0.0492735356092453, 0.05628031864762306, 0.07820410281419754, 0.14876917004585266, 0.3518548607826233, 0.19497667253017426, 0.23207245767116547, 0.1319516897201538, 0.08870644122362137, 0.25700631737709045, 0.39724957942962646, 0.2565956711769104, 0.7985226511955261, 0.9763953685760498, 0.9780054688453674, 0.9724646210670471, 0.9831958413124084, 0.7689415812492371, 0.6091824769973755, 0.8180505633354187, 0.7111755609512329, 0.2943173348903656, 0.9502661228179932, 0.9682683944702148, 0.956980288028717, 0.9752806425094604, 0.927056610584259, 0.8022270798683167, 0.3683290183544159, 0.32486453652381897, 0.2730714678764343, 0.1980908066034317, 0.47693493962287903, 0.5763744711875916, 0.6063010692596436, 0.41234177350997925, 0.1662633717060089, 0.14603447914123535, 0.1747937649488449, 0.31147947907447815, 0.4191119074821472, 0.2283352017402649, 0.16557246446609497, 0.14494353532791138, 0.20227722823619843, 0.0948236808180809, 0.05926787480711937, 0.1132432222366333, 0.16385461390018463, 0.10071594268083572, 0.08828442543745041, 0.07018613070249557, 0.12129911780357361, 0.0386832132935524, 0.07061315327882767, 0.165709987282753, 0.16548670828342438]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.9746696949005127</v>
+        <v>0.98796147108078</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.5800836000125855</v>
+        <v>0.5890011000010418</v>
       </c>
       <c r="J134" t="n">
-        <v>0.005631879611772675</v>
+        <v>0.005718457281563513</v>
       </c>
     </row>
     <row r="135">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[0.8461095094680786, 0.948637068271637, 0.9380176067352295, 0.7190753221511841, 0.7341210842132568, 0.7991321086883545, 0.2199586182832718, 0.5751580595970154, 0.7954578399658203, 0.6490516066551208, 0.9464387893676758, 0.8844758868217468, 0.7256000638008118, 0.8577722907066345, 0.9019530415534973, 0.9307680130004883, 0.9737706780433655, 0.7941333055496216, 0.8683305382728577, 0.9227314591407776, 0.7874525785446167, 0.5709576606750488, 0.7209872007369995, 0.9159258604049683, 0.922710657119751, 0.8566305637359619, 0.9021690487861633, 0.865440845489502, 0.9779123067855835, 0.8425323963165283, 0.8588632345199585, 0.7431932687759399, 0.9146330952644348, 0.5982823371887207, 0.513954222202301, 0.7912015914916992, 0.5580803751945496, 0.5861377716064453, 0.5782246589660645, 0.8753039240837097, 0.6811681985855103, 0.7178620100021362, 0.7620196342468262, 0.6409485936164856, 0.5735057592391968, 0.5524980425834656, 0.6162922978401184, 0.9098195433616638, 0.66081303358078, 0.6827066540718079, 0.7512560486793518, 0.8251937031745911, 0.8422775864601135, 0.8791802525520325, 0.9215203523635864, 0.708669126033783, 0.9519306421279907, 0.8578816652297974, 0.7955927848815918, 0.5446508526802063, 0.9215270280838013, 0.9007717370986938, 0.9506344199180603, 0.7974085807800293, 0.8788416981697083, 0.7206149697303772, 0.9670854806900024, 0.9366397261619568, 0.9471944570541382, 0.8668438196182251, 0.8731329441070557, 0.8073819279670715, 0.8953154683113098, 0.8141449093818665, 0.7875233292579651, 0.710975706577301, 0.8028739094734192, 0.8884797096252441, 0.3756598234176636, 0.5104990601539612, 0.8631846308708191, 0.5356459617614746, 0.49537375569343567, 0.4577540159225464, 0.4707546830177307, 0.37861329317092896, 0.6021347045898438, 0.8770243525505066, 0.7659916877746582, 0.618685781955719, 0.8314757943153381, 0.7532268166542053, 0.8800056576728821, 0.7568194270133972, 0.803045928478241, 0.8984149098396301, 0.4274042546749115, 0.7630269527435303, 0.7890031337738037, 0.7314881682395935, 0.5640557408332825, 0.5741198062896729]</t>
+          <t>[0.8463873863220215, 0.9753928780555725, 0.9655122756958008, 0.6702622175216675, 0.653946578502655, 0.8232499361038208, 0.18190708756446838, 0.6523242592811584, 0.7802043557167053, 0.7003329396247864, 0.9552221298217773, 0.9061954617500305, 0.7543550133705139, 0.9081156849861145, 0.908399224281311, 0.9377971887588501, 0.9869582056999207, 0.770363450050354, 0.857268214225769, 0.9293593168258667, 0.8134521245956421, 0.660371720790863, 0.7271300554275513, 0.9319702386856079, 0.9418280124664307, 0.8810267448425293, 0.9267484545707703, 0.8865172266960144, 0.9821258783340454, 0.8515705466270447, 0.8909392952919006, 0.7613152265548706, 0.9245367646217346, 0.5850083827972412, 0.5511957406997681, 0.8456176519393921, 0.589641273021698, 0.690269947052002, 0.6770859956741333, 0.9425713419914246, 0.7620427012443542, 0.7727169394493103, 0.7873638868331909, 0.6738559007644653, 0.6093025207519531, 0.5564610958099365, 0.726006805896759, 0.9329094290733337, 0.7511471509933472, 0.7726722359657288, 0.717752993106842, 0.8421068787574768, 0.854681134223938, 0.8970328569412231, 0.9393378496170044, 0.6319846510887146, 0.939748227596283, 0.8852179050445557, 0.8835844993591309, 0.48139408230781555, 0.9329643249511719, 0.8955446481704712, 0.9731345772743225, 0.7580990791320801, 0.8836983442306519, 0.6887862682342529, 0.974927544593811, 0.9426571726799011, 0.9496170282363892, 0.9033161997795105, 0.9001749753952026, 0.7650184631347656, 0.9220309257507324, 0.8301863670349121, 0.7836085557937622, 0.6820195317268372, 0.7898040413856506, 0.9258834719657898, 0.3610745072364807, 0.45423460006713867, 0.8674172163009644, 0.5701794028282166, 0.6081893444061279, 0.5131743550300598, 0.45185619592666626, 0.29530665278434753, 0.6278839707374573, 0.9031840562820435, 0.7292724251747131, 0.5978635549545288, 0.8009465336799622, 0.776623010635376, 0.915966808795929, 0.7774840593338013, 0.8737183809280396, 0.9555484652519226, 0.49222680926322937, 0.7357137203216553, 0.8361313343048096, 0.7452403903007507, 0.5252487659454346, 0.5356141924858093]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9779123067855835</v>
+        <v>0.9869582056999207</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.5823353999876417</v>
+        <v>0.5860966000036569</v>
       </c>
       <c r="J135" t="n">
-        <v>0.005709170588114134</v>
+        <v>0.005746045098075068</v>
       </c>
     </row>
     <row r="136">
@@ -5965,11 +5965,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[0.07915010303258896, 0.17558321356773376, 0.1350228190422058, 0.10496905446052551, 0.17967720329761505, 0.23733913898468018, 0.15534016489982605, 0.19503243267536163, 0.15042537450790405, 0.09280075877904892, 0.14183691143989563, 0.10296480357646942, 0.11233902722597122, 0.09739963710308075, 0.1675063520669937, 0.15487654507160187, 0.14376936852931976, 0.17850522696971893, 0.115890271961689, 0.16009636223316193, 0.13471239805221558, 0.2409411519765854, 0.24526347219944, 0.21496891975402832, 0.2496720850467682, 0.1577846109867096, 0.39663103222846985, 0.2522215247154236, 0.21769475936889648, 0.3093297481536865, 0.4396296441555023, 0.3609590530395508, 0.6023607850074768, 0.661424458026886, 0.46789658069610596, 0.5731313824653625, 0.6185890436172485, 0.6353669166564941, 0.2485082745552063, 0.22090213000774384, 0.24611148238182068, 0.22598546743392944, 0.3144571781158447, 0.24183975160121918, 0.11783932894468307, 0.1549174040555954, 0.1262677013874054, 0.1736413836479187, 0.2339339554309845, 0.14816029369831085, 0.1248926892876625, 0.1023680567741394, 0.12637953460216522, 0.1275472342967987, 0.18040034174919128, 0.1393769532442093, 0.09451736509799957, 0.05264389142394066, 0.0866529569029808, 0.18753165006637573, 0.14880461990833282, 0.110309898853302, 0.10459474474191666, 0.0848413035273552, 0.08440277725458145, 0.0711587518453598, 0.06178838759660721, 0.09519287198781967, 0.08044518530368805, 0.06940477341413498, 0.05551093816757202, 0.11337081342935562, 0.11713731288909912, 0.09644036740064621, 0.12534627318382263, 0.11327968537807465, 0.11771010607481003, 0.12192747741937637, 0.0989222526550293, 0.14056122303009033, 0.13749350607395172, 0.15927956998348236, 0.3370644152164459, 0.39451655745506287, 0.6675035953521729, 0.6589740514755249, 0.48995310068130493, 0.7154778242111206, 0.8136293292045593, 0.8241382837295532, 0.7929859161376953, 0.6469643115997314, 0.8203888535499573, 0.43768781423568726, 0.23020711541175842, 0.09567277133464813, 0.21478945016860962, 0.1628512144088745, 0.11964234709739685, 0.16939501464366913, 0.29585930705070496, 0.2956119775772095]</t>
+          <t>[0.04720928147435188, 0.07983782887458801, 0.0944097489118576, 0.056309301406145096, 0.0847746804356575, 0.09917966276407242, 0.07352808862924576, 0.07451147586107254, 0.0631285309791565, 0.041075851768255234, 0.05557720363140106, 0.03886322304606438, 0.051483556628227234, 0.04300052672624588, 0.07405779510736465, 0.07333289086818695, 0.05396471172571182, 0.08613995462656021, 0.050418924540281296, 0.07298891991376877, 0.06192420795559883, 0.1374615877866745, 0.153696671128273, 0.09524773806333542, 0.12588007748126984, 0.08408412337303162, 0.2707315683364868, 0.11821868270635605, 0.11551403999328613, 0.1920115053653717, 0.37500810623168945, 0.2844103276729584, 0.5567563772201538, 0.571794331073761, 0.3443683683872223, 0.48381924629211426, 0.5038326978683472, 0.5809977650642395, 0.13674037158489227, 0.11568000912666321, 0.1846376657485962, 0.10046021640300751, 0.11698977649211884, 0.11906491219997406, 0.03899211809039116, 0.044871557503938675, 0.041138410568237305, 0.06454834342002869, 0.13937871158123016, 0.07121814787387848, 0.057442087680101395, 0.05834338068962097, 0.07726722210645676, 0.062174346297979355, 0.06801130622625351, 0.06991948187351227, 0.03965870290994644, 0.0240483395755291, 0.03536468371748924, 0.08892388641834259, 0.05980265513062477, 0.04915466904640198, 0.04646654799580574, 0.030860446393489838, 0.03475165367126465, 0.02987627685070038, 0.02825283445417881, 0.042286455631256104, 0.03883372247219086, 0.035390473902225494, 0.03390716016292572, 0.05521566420793533, 0.05381114408373833, 0.06077084317803383, 0.08117987215518951, 0.05748335272073746, 0.05626252293586731, 0.0612679198384285, 0.05715898796916008, 0.08667425066232681, 0.07733513414859772, 0.08780497312545776, 0.36578813195228577, 0.38275784254074097, 0.7691856622695923, 0.7370753288269043, 0.5396589040756226, 0.7488313913345337, 0.8716232180595398, 0.9074119329452515, 0.8586056232452393, 0.6997970938682556, 0.9269712567329407, 0.6386526226997375, 0.1725761890411377, 0.032077230513095856, 0.10537425428628922, 0.09393953531980515, 0.06782756745815277, 0.08920598775148392, 0.1893002837896347, 0.18916398286819458]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.8241382837295532</v>
+        <v>0.9269712567329407</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.5859070000005886</v>
+        <v>0.5839675999886822</v>
       </c>
       <c r="J136" t="n">
-        <v>0.005744186274515574</v>
+        <v>0.005725172548908649</v>
       </c>
     </row>
     <row r="137">
@@ -6005,11 +6005,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[0.1222248449921608, 0.23850809037685394, 0.2081364393234253, 0.40215012431144714, 0.3900025188922882, 0.32106003165245056, 0.7113487124443054, 0.45671555399894714, 0.3859638273715973, 0.5813645720481873, 0.5898510217666626, 0.5609889626502991, 0.40657174587249756, 0.37520185112953186, 0.2265670895576477, 0.46415454149246216, 0.3060154616832733, 0.5862249732017517, 0.5281563401222229, 0.4337414503097534, 0.24966493248939514, 0.5573377013206482, 0.29971829056739807, 0.6037476658821106, 0.6405096054077148, 0.6363887190818787, 0.3478577733039856, 0.4467349052429199, 0.18669724464416504, 0.13458365201950073, 0.15968547761440277, 0.141556516289711, 0.15245850384235382, 0.22157305479049683, 0.1493852585554123, 0.14466406404972076, 0.18428881466388702, 0.16926294565200806, 0.45156729221343994, 0.24358916282653809, 0.3568282425403595, 0.26652276515960693, 0.4270804524421692, 0.24795019626617432, 0.2512059509754181, 0.3393590450286865, 0.3267642855644226, 0.3244381546974182, 0.3572588860988617, 0.18424350023269653, 0.25917962193489075, 0.1980581283569336, 0.10790087282657623, 0.17540857195854187, 0.24437862634658813, 0.1467910259962082, 0.253589004278183, 0.25970590114593506, 0.6023001670837402, 0.41718629002571106, 0.6201698184013367, 0.16862840950489044, 0.2706594169139862, 0.2805277407169342, 0.3619128465652466, 0.16841356456279755, 0.40372180938720703, 0.27936071157455444, 0.22166761755943298, 0.17476248741149902, 0.2876891791820526, 0.43153905868530273, 0.5916414856910706, 0.49805954098701477, 0.7876071333885193, 0.8270911574363708, 0.5567137002944946, 0.49737346172332764, 0.5061004757881165, 0.8306952118873596, 0.7341750860214233, 0.8601862192153931, 0.7341190576553345, 0.602850079536438, 0.6818343997001648, 0.4671660363674164, 0.5805824995040894, 0.8204392194747925, 0.7597522139549255, 0.45402705669403076, 0.4251253306865692, 0.3105895221233368, 0.5531479716300964, 0.2091226577758789, 0.4059956669807434, 0.16752782464027405, 0.3854672908782959, 0.1698949784040451, 0.37124964594841003, 0.2724767327308655, 0.24829714000225067, 0.22415001690387726, 0.14735344052314758, 0.5518631339073181, 0.5218883156776428, 0.35391634702682495, 0.3122856318950653, 0.15616630017757416, 0.32409441471099854, 0.13536079227924347, 0.2607351243495941, 0.17304477095603943, 0.17992594838142395, 0.12646789848804474, 0.15392877161502838, 0.26564860343933105, 0.2815396189689636, 0.37977293133735657, 0.3806654214859009]</t>
+          <t>[0.0499100461602211, 0.12874743342399597, 0.15193356573581696, 0.23736493289470673, 0.23989684879779816, 0.15602247416973114, 0.581980288028717, 0.29398930072784424, 0.29321086406707764, 0.48430335521698, 0.4142742455005646, 0.3736570477485657, 0.24245186150074005, 0.26120176911354065, 0.13697585463523865, 0.28437283635139465, 0.17089925706386566, 0.47621068358421326, 0.3674719035625458, 0.28949815034866333, 0.13142980635166168, 0.372446745634079, 0.1413392871618271, 0.4260222911834717, 0.4420541524887085, 0.5951381921768188, 0.28126323223114014, 0.40139031410217285, 0.1517595797777176, 0.10315526276826859, 0.087822824716568, 0.07892584800720215, 0.07504971325397491, 0.12834380567073822, 0.07644947618246078, 0.05532336235046387, 0.0868106260895729, 0.07632540166378021, 0.3934573531150818, 0.18976275622844696, 0.24983274936676025, 0.18107466399669647, 0.3946056067943573, 0.15311279892921448, 0.16897092759609222, 0.28534188866615295, 0.2675643563270569, 0.21064622700214386, 0.2459479421377182, 0.1067572608590126, 0.12308287620544434, 0.14953002333641052, 0.10131526738405228, 0.09810304641723633, 0.17141716182231903, 0.05958900600671768, 0.14695073664188385, 0.11650647222995758, 0.5548304319381714, 0.25348374247550964, 0.4358426034450531, 0.06326419860124588, 0.12622565031051636, 0.2027890533208847, 0.2090405523777008, 0.075705885887146, 0.23465320467948914, 0.21845319867134094, 0.18962089717388153, 0.13394811749458313, 0.1720982939004898, 0.34939709305763245, 0.37041303515434265, 0.29895228147506714, 0.6327412128448486, 0.7482779622077942, 0.5213221907615662, 0.3815421760082245, 0.35986363887786865, 0.7632508873939514, 0.45918577909469604, 0.7430610060691833, 0.5446412563323975, 0.4853877127170563, 0.5297663807868958, 0.3297310471534729, 0.5377443432807922, 0.7572799324989319, 0.7450019121170044, 0.3359032869338989, 0.26070356369018555, 0.19002479314804077, 0.388713002204895, 0.09006651490926743, 0.23636361956596375, 0.09589971601963043, 0.2981334924697876, 0.07030193507671356, 0.21919070184230804, 0.15426911413669586, 0.17942433059215546, 0.13080355525016785, 0.09280876815319061, 0.4861810803413391, 0.45577335357666016, 0.22365199029445648, 0.20545057952404022, 0.08744797855615616, 0.21909873187541962, 0.06588498502969742, 0.21207574009895325, 0.09905881434679031, 0.09238098561763763, 0.06993108242750168, 0.08415631204843521, 0.25794515013694763, 0.21715864539146423, 0.39082980155944824, 0.39214426279067993]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.8601862192153931</v>
+        <v>0.7632508873939514</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.6742777999897953</v>
+        <v>0.6749865000019781</v>
       </c>
       <c r="J137" t="n">
-        <v>0.005666199999914246</v>
+        <v>0.005672155462201497</v>
       </c>
     </row>
     <row r="138">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[0.3751234710216522, 0.4468909800052643, 0.40094512701034546, 0.3735140264034271, 0.4426942467689514, 0.39124685525894165, 0.4398581385612488, 0.5079845786094666, 0.5385560989379883, 0.4832284450531006, 0.49658453464508057, 0.7012119293212891, 0.5954129695892334, 0.8417907357215881, 0.8942519426345825, 0.8260658383369446, 0.7858983874320984, 0.8340767025947571, 0.7351824045181274, 0.5246744155883789, 0.8263679146766663, 0.6589937210083008, 0.618414044380188, 0.33490118384361267, 0.3736193776130676, 0.5070461630821228, 0.6567646861076355, 0.6137292981147766, 0.7305236458778381, 0.6752976179122925, 0.658136248588562, 0.6253462433815002, 0.5621294975280762, 0.4449681341648102, 0.548545777797699, 0.6059523224830627, 0.612115740776062, 0.750722348690033, 0.6045656204223633, 0.5176969170570374, 0.4801510274410248, 0.599466860294342, 0.6429556608200073, 0.6734033226966858, 0.814205527305603, 0.8386824131011963, 0.7658862471580505, 0.8172231912612915, 0.5361352562904358, 0.5684337615966797, 0.5401161909103394, 0.7261165380477905, 0.5732554197311401, 0.7610629796981812, 0.8175749778747559, 0.8394694328308105, 0.828289806842804, 0.569192111492157, 0.4779994487762451, 0.8131635189056396, 0.6766372919082642, 0.6304180026054382, 0.6073020696640015, 0.8233090043067932, 0.6328644156455994, 0.516862690448761, 0.43350136280059814, 0.4215954840183258, 0.6834998726844788, 0.8798141479492188, 0.5291997194290161, 0.34175699949264526, 0.44536417722702026, 0.3697972893714905, 0.39827391505241394, 0.4737495481967926, 0.3828415870666504, 0.490217000246048, 0.6200709939002991, 0.7380144000053406, 0.610751748085022, 0.6696214079856873, 0.6919791102409363, 0.5277268290519714, 0.4852029085159302, 0.7552372217178345, 0.7543884515762329, 0.6438206434249878, 0.46559950709342957, 0.804892897605896, 0.5342018008232117, 0.5510117411613464, 0.6600291132926941, 0.5836597681045532, 0.4372737407684326, 0.5742610096931458, 0.40101364254951477, 0.32762959599494934, 0.4388614296913147, 0.5581808686256409, 0.5393293499946594, 0.47387754917144775, 0.3052370548248291, 0.4269866347312927, 0.45720210671424866, 0.33649080991744995, 0.49967923760414124, 0.5686902403831482, 0.649074137210846, 0.4520050287246704, 0.470379501581192, 0.3564511835575104, 0.4217410981655121, 0.42750516533851624, 0.7231403589248657, 0.6103361248970032, 0.3980557322502136, 0.4064943790435791]</t>
+          <t>[0.5537374019622803, 0.6013714075088501, 0.47577887773513794, 0.5076690912246704, 0.6067505478858948, 0.48047637939453125, 0.5337612628936768, 0.6190917491912842, 0.6623594760894775, 0.6195418834686279, 0.6426813006401062, 0.9165146946907043, 0.8155843615531921, 0.9533151388168335, 0.9617422223091125, 0.9243457913398743, 0.8758673071861267, 0.9082781076431274, 0.8893529176712036, 0.6285738348960876, 0.9198594093322754, 0.8298123478889465, 0.870827853679657, 0.41056570410728455, 0.5147826671600342, 0.6145913600921631, 0.794759213924408, 0.7186359167098999, 0.8525364995002747, 0.8565230965614319, 0.7968113422393799, 0.837989866733551, 0.6507828831672668, 0.565660297870636, 0.7124503254890442, 0.772377610206604, 0.7998487949371338, 0.8666688203811646, 0.804547905921936, 0.6164304614067078, 0.615160346031189, 0.7682048082351685, 0.8097065091133118, 0.8418522477149963, 0.9185855984687805, 0.9398072957992554, 0.893957257270813, 0.9213747978210449, 0.7230249643325806, 0.7749606370925903, 0.7262471318244934, 0.8695735335350037, 0.6915709972381592, 0.890175998210907, 0.946715772151947, 0.9487441778182983, 0.9370310306549072, 0.740073025226593, 0.7477763891220093, 0.9221014976501465, 0.7904166579246521, 0.7720827460289001, 0.8192621469497681, 0.9499295949935913, 0.8492040038108826, 0.7300741672515869, 0.5595004558563232, 0.6430237293243408, 0.8978251218795776, 0.9649320840835571, 0.687501847743988, 0.36719298362731934, 0.5822167992591858, 0.4768010079860687, 0.5092703700065613, 0.6276415586471558, 0.45866596698760986, 0.5404132008552551, 0.7768839597702026, 0.8630462288856506, 0.7531359195709229, 0.8450031280517578, 0.8269622325897217, 0.7085800766944885, 0.68215012550354, 0.8695694804191589, 0.8936378359794617, 0.747047483921051, 0.5647096037864685, 0.9228717684745789, 0.615995466709137, 0.7700172662734985, 0.8621564507484436, 0.7345139980316162, 0.47784411907196045, 0.7233187556266785, 0.48732897639274597, 0.3861905336380005, 0.5117055773735046, 0.6840173602104187, 0.6842511296272278, 0.6151236295700073, 0.38410115242004395, 0.5243463516235352, 0.6281638145446777, 0.35991477966308594, 0.6023292541503906, 0.712175726890564, 0.7738748788833618, 0.5878852009773254, 0.6491023302078247, 0.4321238100528717, 0.511017918586731, 0.5673210620880127, 0.9077215790748596, 0.8428583145141602, 0.5238515734672546, 0.5366442799568176]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.8942519426345825</v>
+        <v>0.9649320840835571</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.6676957000163384</v>
+        <v>0.6646440999902552</v>
       </c>
       <c r="J138" t="n">
-        <v>0.005658438135731681</v>
+        <v>0.005632577118561485</v>
       </c>
     </row>
     <row r="139">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[0.9079325199127197, 0.8968901038169861, 0.8578277230262756, 0.843905508518219, 0.8865518569946289, 0.7925054430961609, 0.8818634748458862, 0.9459692239761353, 0.9127950072288513, 0.8876573443412781, 0.8954905271530151, 0.8533952236175537, 0.7766712307929993, 0.7927413582801819, 0.918531060218811, 0.8018048405647278, 0.7840471863746643, 0.7676819562911987, 0.7140679359436035, 0.5837040543556213, 0.7861510515213013, 0.5912602543830872, 0.5630621314048767, 0.9462705254554749, 0.9574649333953857, 0.9549261331558228, 0.8028641939163208, 0.7712399959564209, 0.6709862351417542, 0.9113124012947083, 0.8855128884315491, 0.8626633286476135, 0.7930031418800354, 0.7640765309333801, 0.6626408696174622, 0.7796520590782166, 0.847455620765686, 0.8561661243438721, 0.8167776465415955, 0.7704359292984009, 0.7761297821998596, 0.7083459496498108, 0.6822660565376282, 0.8230836987495422, 0.8622844815254211, 0.9239377975463867, 0.8566647171974182, 0.8584156632423401, 0.9163286089897156, 0.953386127948761, 0.8689655661582947, 0.7711425423622131, 0.9199877977371216, 0.7667053937911987, 0.5661519169807434, 0.7636767029762268, 0.7802221179008484, 0.7737770676612854, 0.9616566896438599, 0.9387128353118896, 0.8566239476203918, 0.7871174812316895, 0.8528183698654175, 0.7838406562805176, 0.909665048122406, 0.7833751440048218, 0.8243849277496338, 0.6714439392089844, 0.8579286336898804, 0.65260249376297, 0.6699342727661133, 0.5860837697982788, 0.8307114243507385, 0.765250027179718, 0.7962281703948975, 0.8235830068588257, 0.7635393142700195, 0.8625807166099548, 0.8136100172996521, 0.8317174911499023, 0.8438394665718079, 0.8043851256370544, 0.8928818702697754, 0.8158963918685913, 0.8997795581817627, 0.9118980169296265, 0.893474817276001, 0.7734763622283936, 0.7236777544021606, 0.7583970427513123, 0.8242164254188538, 0.7151055932044983, 0.4733109772205353, 0.7817725539207458, 0.7217803001403809, 0.802436113357544, 0.9530505537986755, 0.904238224029541, 0.8905810117721558, 0.8883126378059387, 0.8618853688240051, 0.775044858455658, 0.9185230135917664, 0.8150725960731506, 0.8113132119178772, 0.9010626077651978, 0.9613206386566162, 0.9277397394180298, 0.7969073057174683, 0.9002553224563599, 0.830852210521698, 0.9106640219688416, 0.8909053802490234, 0.755364716053009, 0.7460176348686218, 0.7062265276908875, 0.9328249096870422, 0.9331548810005188]</t>
+          <t>[0.9817624092102051, 0.9724109172821045, 0.9583166837692261, 0.9546075463294983, 0.9623216390609741, 0.9257884621620178, 0.9745194911956787, 0.988079845905304, 0.9821957945823669, 0.9778438806533813, 0.9790492057800293, 0.9635851383209229, 0.932831346988678, 0.9373406171798706, 0.9848447442054749, 0.9421108961105347, 0.92172771692276, 0.9102326035499573, 0.8876843452453613, 0.7345119714736938, 0.9327695369720459, 0.7962165474891663, 0.7273132801055908, 0.9846113324165344, 0.9867911338806152, 0.9895272254943848, 0.9315547943115234, 0.926585853099823, 0.8772514462471008, 0.9725022315979004, 0.9694280028343201, 0.9700888991355896, 0.9372173547744751, 0.9371791481971741, 0.891055166721344, 0.9473485946655273, 0.9581078886985779, 0.9580577611923218, 0.9352589845657349, 0.8972050547599792, 0.9356347322463989, 0.8842625617980957, 0.8592902421951294, 0.9404224753379822, 0.9625769853591919, 0.9817248582839966, 0.9674633741378784, 0.9585766792297363, 0.9854668378829956, 0.9898344278335571, 0.9636595249176025, 0.9005765914916992, 0.9801676273345947, 0.8980244398117065, 0.699367344379425, 0.9169982075691223, 0.940916121006012, 0.9179794192314148, 0.9898092746734619, 0.9851186871528625, 0.9556500315666199, 0.9280908107757568, 0.954697847366333, 0.8997306227684021, 0.9784234166145325, 0.9152288436889648, 0.9490631818771362, 0.877941370010376, 0.9629150629043579, 0.8610879182815552, 0.8340623378753662, 0.8214887976646423, 0.960013210773468, 0.9381164312362671, 0.9420766830444336, 0.9599141478538513, 0.9228706359863281, 0.9679999351501465, 0.9620416760444641, 0.9674015641212463, 0.9601093530654907, 0.940281867980957, 0.9748561382293701, 0.9289838671684265, 0.9779781699180603, 0.9794263243675232, 0.9862061142921448, 0.9353217482566833, 0.8872959017753601, 0.9194818735122681, 0.9532442092895508, 0.892281711101532, 0.6546716690063477, 0.9250184893608093, 0.8534327149391174, 0.9168153405189514, 0.9898595213890076, 0.9732365608215332, 0.9584569931030273, 0.9776107668876648, 0.9510776996612549, 0.904242992401123, 0.969231128692627, 0.9302868843078613, 0.9221795201301575, 0.9689772725105286, 0.9887831807136536, 0.981620728969574, 0.9150733351707458, 0.975681483745575, 0.9652526378631592, 0.9807506203651428, 0.9754103422164917, 0.9207234978675842, 0.9021932482719421, 0.9307489991188049, 0.9894458651542664, 0.989503026008606]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.9616566896438599</v>
+        <v>0.9898595213890076</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0.6667211999883875</v>
+        <v>0.6627184000099078</v>
       </c>
       <c r="J139" t="n">
-        <v>0.005650179660918539</v>
+        <v>0.005616257627202608</v>
       </c>
     </row>
     <row r="140">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[0.8105559945106506, 0.8559708595275879, 0.7262704372406006, 0.5730629563331604, 0.424434632062912, 0.48559674620628357, 0.7050527334213257, 0.8145216703414917, 0.7900683283805847, 0.6488841772079468, 0.7998328804969788, 0.6959754824638367, 0.5634862780570984, 0.8899181485176086, 0.5183181166648865, 0.4446464478969574, 0.6917687654495239, 0.6692302823066711, 0.9071863293647766, 0.7714757919311523, 0.7771178483963013, 0.8911332488059998, 0.7723944783210754, 0.9073206782341003, 0.7667531967163086, 0.572528600692749, 0.6813878417015076, 0.9380061626434326, 0.7422297596931458, 0.37048405408859253, 0.2072218507528305, 0.3020652234554291, 0.43044811487197876, 0.5195310711860657, 0.6887198686599731, 0.4410605728626251, 0.6657270193099976, 0.618468701839447, 0.29732316732406616, 0.8156348466873169, 0.3584287166595459, 0.45290130376815796, 0.5995610356330872, 0.7208619117736816, 0.9079036712646484, 0.8743881583213806, 0.6354649662971497, 0.5940513610839844, 0.7759171724319458, 0.7325962781906128, 0.7126079201698303, 0.7733848094940186, 0.7108208537101746, 0.9122421741485596, 0.8582573533058167, 0.6941134333610535, 0.5704442262649536, 0.7922444343566895, 0.9039667248725891, 0.845179557800293, 0.5653823018074036, 0.5329820513725281, 0.5943610668182373, 0.6707279086112976, 0.8376405239105225, 0.8319250345230103, 0.4960622489452362, 0.6481890082359314, 0.44993945956230164, 0.5391039252281189, 0.5231987833976746, 0.4393506348133087, 0.6178233623504639, 0.851410448551178, 0.8017308115959167, 0.6938196420669556, 0.7617297768592834, 0.7997147440910339, 0.720305860042572, 0.7951885461807251, 0.6338669061660767, 0.6348377466201782, 0.5372910499572754, 0.4850187599658966, 0.5835818648338318, 0.865899920463562, 0.8452275395393372, 0.6886178851127625, 0.4142679274082184, 0.652086615562439, 0.5188097357749939, 0.5572664141654968, 0.782673180103302, 0.8452759981155396, 0.9273812174797058, 0.7957057952880859, 0.8031604886054993, 0.9011536836624146, 0.8799306750297546, 0.7936559915542603, 0.8297430872917175, 0.8102207183837891, 0.6172625422477722, 0.5140883922576904, 0.48661792278289795, 0.4278245270252228, 0.5387667417526245, 0.7672631144523621, 0.9522289037704468, 0.8397321701049805, 0.5152827501296997, 0.6896846890449524, 0.3702724575996399, 0.48125019669532776, 0.3821539282798767, 0.43605417013168335, 0.36682063341140747, 0.3728078007698059]</t>
+          <t>[0.9136386513710022, 0.9422723650932312, 0.8658276200294495, 0.7599136233329773, 0.5627799034118652, 0.6312596797943115, 0.8484627604484558, 0.9374176263809204, 0.9400433301925659, 0.7914071083068848, 0.9324091076850891, 0.8289770483970642, 0.6354381442070007, 0.9756190776824951, 0.8005014657974243, 0.6794419884681702, 0.8848572969436646, 0.8899643421173096, 0.9850406050682068, 0.9639880657196045, 0.940077543258667, 0.9727956056594849, 0.9351804852485657, 0.9795072674751282, 0.9151004552841187, 0.7257347106933594, 0.8707540035247803, 0.9863939881324768, 0.9332032799720764, 0.6904529333114624, 0.44991475343704224, 0.5959914326667786, 0.7396210432052612, 0.8844854831695557, 0.9385071992874146, 0.809981107711792, 0.9331163763999939, 0.9054447412490845, 0.6509628891944885, 0.9832646250724792, 0.7748265266418457, 0.8106749057769775, 0.8863020539283752, 0.9464654922485352, 0.989189624786377, 0.9799385070800781, 0.9247030019760132, 0.8132174015045166, 0.9346657991409302, 0.9392271041870117, 0.8842305541038513, 0.9396179914474487, 0.9356845021247864, 0.9888357520103455, 0.9687132239341736, 0.8952668309211731, 0.768869936466217, 0.9593551158905029, 0.9827772378921509, 0.9741691946983337, 0.8219241499900818, 0.7738238573074341, 0.7545779943466187, 0.8684587478637695, 0.9532886147499084, 0.9470266699790955, 0.5314845442771912, 0.811335027217865, 0.5789288282394409, 0.7144947052001953, 0.7279524803161621, 0.539537787437439, 0.8046627640724182, 0.9549577832221985, 0.9171006679534912, 0.8331298828125, 0.8648495078086853, 0.9417459964752197, 0.8717976808547974, 0.9228107333183289, 0.8591461181640625, 0.9015095829963684, 0.7384575009346008, 0.8063471913337708, 0.8190910816192627, 0.9784246683120728, 0.9666761755943298, 0.907816469669342, 0.6568121314048767, 0.8416844010353088, 0.6707598567008972, 0.8301792740821838, 0.9510805010795593, 0.9649735689163208, 0.9898459911346436, 0.9471450448036194, 0.9514576196670532, 0.9849258065223694, 0.9813124537467957, 0.9595523476600647, 0.9657933712005615, 0.9651824235916138, 0.8459258079528809, 0.820140540599823, 0.7472171783447266, 0.6994090676307678, 0.7003358602523804, 0.913724422454834, 0.9950236082077026, 0.96394944190979, 0.7070073485374451, 0.9163069725036621, 0.4782693088054657, 0.686948835849762, 0.5011714696884155, 0.7337116599082947, 0.6168319582939148, 0.6247089505195618]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9522289037704468</v>
+        <v>0.9950236082077026</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0.666223500011256</v>
+        <v>0.6605775999923935</v>
       </c>
       <c r="J140" t="n">
-        <v>0.005645961864502169</v>
+        <v>0.005598115254172827</v>
       </c>
     </row>
     <row r="141">
@@ -6165,11 +6165,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[0.7449511885643005, 0.8567255735397339, 0.7943795323371887, 0.8493539690971375, 0.7250557541847229, 0.7157090306282043, 0.6986765265464783, 0.8462499976158142, 0.7044243216514587, 0.8942607641220093, 0.8096469044685364, 0.8225247859954834, 0.6089293360710144, 0.5991051197052002, 0.42045971751213074, 0.7530654668807983, 0.6348036527633667, 0.5775967240333557, 0.6214312314987183, 0.5849127173423767, 0.6820732951164246, 0.65666663646698, 0.7707223892211914, 0.5582544803619385, 0.6855371594429016, 0.6792094111442566, 0.6114547848701477, 0.7024677395820618, 0.5875454545021057, 0.5350955724716187, 0.44923850893974304, 0.2862333655357361, 0.47642114758491516, 0.5863252282142639, 0.5883721113204956, 0.5385048985481262, 0.6378405690193176, 0.637761652469635, 0.5549768209457397, 0.4065113365650177, 0.4604073166847229, 0.6733586192131042, 0.6597998142242432, 0.6006977558135986, 0.677520751953125, 0.7573696970939636, 0.8319456577301025, 0.7093825936317444, 0.8180994987487793, 0.776094377040863, 0.5460126996040344, 0.6479572653770447, 0.8346384763717651, 0.7751342058181763, 0.895140528678894, 0.8477367758750916, 0.8526613116264343, 0.8970162272453308, 0.8959442973136902, 0.8948578834533691, 0.8361881971359253, 0.8339148759841919, 0.8526405096054077, 0.8231936097145081, 0.7182697057723999, 0.8730652928352356, 0.7086240649223328, 0.7972604036331177, 0.6922104954719543, 0.6320948600769043, 0.7773167490959167, 0.5517075061798096, 0.5190436244010925, 0.7033836245536804, 0.7387536764144897, 0.6978821754455566, 0.6717357635498047, 0.8320402503013611, 0.6596562266349792, 0.5111223459243774, 0.5919278860092163, 0.5053983330726624, 0.5793867111206055, 0.7750547528266907, 0.6863493323326111, 0.5995079874992371, 0.7545129656791687, 0.7765212059020996, 0.6348685622215271, 0.6037436723709106, 0.7544203400611877, 0.6928611397743225, 0.6273327469825745, 0.7283469438552856, 0.8039233088493347, 0.7577556371688843, 0.8033975958824158, 0.5438182353973389, 0.5975385904312134, 0.6082715392112732, 0.15270966291427612, 0.5668298602104187, 0.7137295007705688, 0.8112596869468689, 0.7696059346199036, 0.8533439040184021, 0.569499671459198, 0.4568140506744385, 0.497079074382782, 0.583989679813385, 0.58180832862854, 0.7023945450782776, 0.7275739312171936, 0.7879309058189392, 0.8276968002319336, 0.7569098472595215, 0.46502354741096497, 0.447395384311676, 0.4500165283679962]</t>
+          <t>[0.8285565376281738, 0.9287227988243103, 0.8879583477973938, 0.9213925004005432, 0.742876410484314, 0.7949889302253723, 0.7546637654304504, 0.869811475276947, 0.8114220499992371, 0.950366735458374, 0.8984111547470093, 0.9109947085380554, 0.7312189340591431, 0.7410990595817566, 0.5220333933830261, 0.8590927124023438, 0.7319892644882202, 0.7042667269706726, 0.7384665608406067, 0.6997491717338562, 0.852220356464386, 0.8777361512184143, 0.9068018198013306, 0.648901104927063, 0.799442708492279, 0.8321337699890137, 0.7770363688468933, 0.8363014459609985, 0.7433953881263733, 0.6561347246170044, 0.5074604749679565, 0.2816137373447418, 0.5222274661064148, 0.5664528012275696, 0.6883859038352966, 0.6077055931091309, 0.7411700487136841, 0.7596679329872131, 0.716515839099884, 0.4523181617259979, 0.5513060092926025, 0.8229860663414001, 0.8366564512252808, 0.7471152544021606, 0.8415184020996094, 0.8926392793655396, 0.9392966032028198, 0.8593566417694092, 0.9260733127593994, 0.8691390752792358, 0.6441710591316223, 0.7952581644058228, 0.9407786726951599, 0.8876810669898987, 0.9558864235877991, 0.9444434642791748, 0.9302163124084473, 0.9564947485923767, 0.9536064267158508, 0.9661985039710999, 0.9258899092674255, 0.891808807849884, 0.9168705344200134, 0.8906213045120239, 0.8702359199523926, 0.9417372941970825, 0.8437672853469849, 0.866845965385437, 0.6761614680290222, 0.6635124683380127, 0.8369522094726562, 0.5275974869728088, 0.5134133100509644, 0.801559567451477, 0.8427680134773254, 0.8273530006408691, 0.8130877614021301, 0.9366202354431152, 0.7502411007881165, 0.6667008996009827, 0.7243022322654724, 0.6355931758880615, 0.7412035465240479, 0.8521977066993713, 0.8329720497131348, 0.7337895035743713, 0.8992815613746643, 0.9152799248695374, 0.7933050990104675, 0.7340918779373169, 0.8391038775444031, 0.8032985329627991, 0.7400846481323242, 0.8372748494148254, 0.9284718036651611, 0.8096169233322144, 0.8921302556991577, 0.536033034324646, 0.5002884864807129, 0.5594757199287415, 0.07750069350004196, 0.48205944895744324, 0.7382489442825317, 0.8917441964149475, 0.8699421882629395, 0.9190323352813721, 0.5668323636054993, 0.5156673192977905, 0.5209550857543945, 0.6995242834091187, 0.6455977559089661, 0.7977918386459351, 0.8239490389823914, 0.8896196484565735, 0.8869431614875793, 0.7953330278396606, 0.4818238615989685, 0.49477165937423706, 0.4994117319583893]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.8970162272453308</v>
+        <v>0.9661985039710999</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0.6683707000047434</v>
+        <v>0.6979110000102082</v>
       </c>
       <c r="J141" t="n">
-        <v>0.005616560504241541</v>
+        <v>0.005864798319413515</v>
       </c>
     </row>
     <row r="142">
@@ -6205,11 +6205,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[0.1570541113615036, 0.0788290947675705, 0.1776345670223236, 0.2857712507247925, 0.16693583130836487, 0.207522913813591, 0.1661929041147232, 0.12230827659368515, 0.12819920480251312, 0.1119372770190239, 0.2170550376176834, 0.1815965473651886, 0.13395380973815918, 0.23739635944366455, 0.10851529985666275, 0.21302826702594757, 0.22615428268909454, 0.16747187077999115, 0.18440039455890656, 0.15299560129642487, 0.18778087198734283, 0.28759801387786865, 0.3275567889213562, 0.2768588066101074, 0.21501773595809937, 0.39234480261802673, 0.290866881608963, 0.3503727316856384, 0.382691890001297, 0.2633586525917053, 0.2775975465774536, 0.2928658127784729, 0.32412853837013245, 0.45282021164894104, 0.5219981670379639, 0.47560933232307434, 0.35078778862953186, 0.27946746349334717, 0.23224207758903503, 0.20448920130729675, 0.22678561508655548, 0.21893411874771118, 0.2726020812988281, 0.23223285377025604, 0.205191507935524, 0.17774417996406555, 0.16306830942630768, 0.25105395913124084, 0.15933258831501007, 0.23737362027168274, 0.2817474603652954, 0.2554062008857727, 0.2930651307106018, 0.2635115385055542, 0.3361015319824219, 0.23433206975460052, 0.2715485990047455, 0.19386881589889526, 0.3033604919910431, 0.20853574573993683, 0.26326537132263184, 0.19942064583301544, 0.27002277970314026, 0.3622201383113861, 0.30226412415504456, 0.10211467742919922, 0.33043670654296875, 0.15712212026119232, 0.28340592980384827, 0.16626422107219696, 0.15443333983421326, 0.11720427125692368, 0.1486845165491104, 0.14239254593849182, 0.22115497291088104, 0.3044517934322357, 0.19997642934322357, 0.14916522800922394, 0.08569779247045517, 0.19905459880828857, 0.24672479927539825, 0.26549673080444336, 0.17485123872756958, 0.11812441796064377, 0.45127278566360474, 0.27049267292022705, 0.3246024549007416, 0.3246052861213684, 0.25141191482543945, 0.37644892930984497, 0.4054308533668518, 0.3894856870174408, 0.1575743407011032, 0.23474180698394775, 0.2801773250102997, 0.30231010913848877, 0.36271804571151733, 0.27271145582199097, 0.16422897577285767, 0.3273273706436157, 0.4230397045612335, 0.3896333575248718, 0.4581485390663147, 0.18349073827266693, 0.14896172285079956, 0.14024437963962555, 0.25358355045318604, 0.25415340065956116]</t>
+          <t>[0.1072891429066658, 0.044882453978061676, 0.11009141802787781, 0.21681976318359375, 0.0936901867389679, 0.1395585685968399, 0.13286858797073364, 0.10980300605297089, 0.11776337772607803, 0.07071482390165329, 0.1774623990058899, 0.1140856146812439, 0.09428712725639343, 0.18687523901462555, 0.0635855495929718, 0.13642962276935577, 0.1759028285741806, 0.0966251865029335, 0.11296477168798447, 0.09443012624979019, 0.15879285335540771, 0.24264656007289886, 0.21960322558879852, 0.19610750675201416, 0.15724505484104156, 0.33831778168678284, 0.254224568605423, 0.3510160744190216, 0.28388768434524536, 0.17286381125450134, 0.20060190558433533, 0.17914648354053497, 0.25444450974464417, 0.396352618932724, 0.5211884379386902, 0.4262252151966095, 0.23151251673698425, 0.18988601863384247, 0.23056817054748535, 0.14383138716220856, 0.1943194568157196, 0.13243108987808228, 0.18442195653915405, 0.18090014159679413, 0.14969132840633392, 0.10151952505111694, 0.09734011441469193, 0.174908846616745, 0.07389328628778458, 0.13121378421783447, 0.18641261756420135, 0.21135029196739197, 0.23591864109039307, 0.2094501554965973, 0.3310411274433136, 0.17942112684249878, 0.16267496347427368, 0.12295562028884888, 0.3599289655685425, 0.18768736720085144, 0.2204790860414505, 0.19515717029571533, 0.1843283623456955, 0.2854998707771301, 0.2436610460281372, 0.07469078153371811, 0.31531962752342224, 0.1571330726146698, 0.2145547717809677, 0.1812749207019806, 0.14057447016239166, 0.05013605207204819, 0.09879472851753235, 0.06941238790750504, 0.1954544186592102, 0.2530359923839569, 0.10524740070104599, 0.10173308849334717, 0.05551287904381752, 0.12307988852262497, 0.1325671374797821, 0.17444521188735962, 0.08451949059963226, 0.05536499246954918, 0.45329558849334717, 0.1712251752614975, 0.18684062361717224, 0.2196149080991745, 0.20022185146808624, 0.278215616941452, 0.42623648047447205, 0.35215243697166443, 0.1056533232331276, 0.1664489507675171, 0.2514321804046631, 0.23467332124710083, 0.3290407657623291, 0.19789955019950867, 0.09673070162534714, 0.2170664370059967, 0.3613356351852417, 0.25188469886779785, 0.5739160776138306, 0.13876841962337494, 0.08069216459989548, 0.06271273642778397, 0.1685715764760971, 0.16930267214775085]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.5219981670379639</v>
+        <v>0.5739160776138306</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.6167482000018936</v>
+        <v>0.6394777999958023</v>
       </c>
       <c r="J142" t="n">
-        <v>0.005710631481499014</v>
+        <v>0.005921090740701873</v>
       </c>
     </row>
     <row r="143">
@@ -6245,11 +6245,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[0.34161171317100525, 0.3608720004558563, 0.26536324620246887, 0.40054652094841003, 0.28023016452789307, 0.3088605999946594, 0.26812222599983215, 0.34273603558540344, 0.3676762878894806, 0.3221547603607178, 0.3949587643146515, 0.6664649844169617, 0.42485734820365906, 0.3191477358341217, 0.4734880030155182, 0.5555325150489807, 0.447299063205719, 0.3927661180496216, 0.36072948575019836, 0.3564154803752899, 0.5622085928916931, 0.3550286293029785, 0.324057936668396, 0.2912433445453644, 0.36495786905288696, 0.3823852241039276, 0.3869825601577759, 0.26094603538513184, 0.4501156210899353, 0.5295839309692383, 0.32518547773361206, 0.40499231219291687, 0.26475590467453003, 0.31659483909606934, 0.1519424468278885, 0.19776657223701477, 0.26602572202682495, 0.21706853806972504, 0.29514437913894653, 0.4287583529949188, 0.32704585790634155, 0.3896945118904114, 0.42345428466796875, 0.268158495426178, 0.3299531042575836, 0.4427337050437927, 0.3357476592063904, 0.5075123906135559, 0.5651467442512512, 0.5614585876464844, 0.6120859384536743, 0.41740766167640686, 0.7044219970703125, 0.8111849427223206, 0.5586704611778259, 0.5595153570175171, 0.3011626601219177, 0.2220332771539688, 0.15830105543136597, 0.47850263118743896, 0.47620511054992676, 0.373931348323822, 0.361870139837265, 0.41706207394599915, 0.4886245131492615, 0.2524864077568054, 0.36764758825302124, 0.3702399730682373, 0.4858303964138031, 0.4672321081161499, 0.29978108406066895, 0.2897103726863861, 0.2992699444293976, 0.250782310962677, 0.4059857726097107, 0.341106653213501, 0.3726561367511749, 0.2943185865879059, 0.5433749556541443, 0.3484218418598175, 0.3033158779144287, 0.3431845009326935, 0.5534982085227966, 0.4938983619213104, 0.42878198623657227, 0.46563878655433655, 0.4508211612701416, 0.5636179447174072, 0.47968825697898865, 0.4482344090938568, 0.2943039834499359, 0.34887945652008057, 0.42519688606262207, 0.3844355046749115, 0.47252559661865234, 0.45458441972732544, 0.5813912153244019, 0.49382054805755615, 0.35729196667671204, 0.5162383317947388, 0.5222781300544739, 0.2963322103023529, 0.38293346762657166, 0.21593083441257477, 0.26364216208457947, 0.29369431734085083, 0.26874029636383057, 0.26902756094932556, 0.4091474115848541, 0.409748911857605, 0.4019731283187866, 0.43317118287086487, 0.2428731918334961, 0.25658804178237915, 0.3479757606983185, 0.34024983644485474, 0.49753543734550476, 0.49255502223968506]</t>
+          <t>[0.36181578040122986, 0.39311647415161133, 0.2773723900318146, 0.41042086482048035, 0.21938368678092957, 0.29939934611320496, 0.18140733242034912, 0.4440552890300751, 0.4113072156906128, 0.3096484839916229, 0.421659380197525, 0.726848304271698, 0.4642530679702759, 0.31797853112220764, 0.5226770639419556, 0.5921249985694885, 0.4030432403087616, 0.30603301525115967, 0.24639223515987396, 0.31614750623703003, 0.5105550289154053, 0.265619695186615, 0.3028545379638672, 0.271835595369339, 0.41807422041893005, 0.36019012331962585, 0.47486379742622375, 0.2431362271308899, 0.4209858775138855, 0.559904158115387, 0.3001253604888916, 0.43410027027130127, 0.23032478988170624, 0.30922603607177734, 0.09431134909391403, 0.1343209147453308, 0.18970385193824768, 0.16791309416294098, 0.2213742583990097, 0.38626226782798767, 0.27910634875297546, 0.377217173576355, 0.4289277195930481, 0.18177160620689392, 0.3219869136810303, 0.40858811140060425, 0.24066050350666046, 0.5351875424385071, 0.48193931579589844, 0.537635087966919, 0.5404201745986938, 0.2978645861148834, 0.6672045588493347, 0.8334211707115173, 0.6032530665397644, 0.6407099962234497, 0.2706288993358612, 0.185665100812912, 0.09397916495800018, 0.3668476641178131, 0.4649195373058319, 0.3555409908294678, 0.32285383343696594, 0.5816531181335449, 0.5241971015930176, 0.2655053734779358, 0.3653448224067688, 0.3782142102718353, 0.5696585178375244, 0.6077934503555298, 0.33854755759239197, 0.29399725794792175, 0.3195461928844452, 0.22338612377643585, 0.4912196695804596, 0.3084803819656372, 0.33492201566696167, 0.26398149132728577, 0.5550909638404846, 0.42342689633369446, 0.29570478200912476, 0.4638311266899109, 0.6851858496665955, 0.5752615928649902, 0.6184227466583252, 0.5376885533332825, 0.4797666668891907, 0.6888393759727478, 0.6618651151657104, 0.6094690561294556, 0.34961211681365967, 0.40629786252975464, 0.4880713224411011, 0.44708606600761414, 0.5127221941947937, 0.5554226040840149, 0.7148934602737427, 0.566420316696167, 0.38931331038475037, 0.6073400378227234, 0.6304906010627747, 0.36165738105773926, 0.40516236424446106, 0.23238219320774078, 0.2948702573776245, 0.338228702545166, 0.30811241269111633, 0.22189109027385712, 0.4410513639450073, 0.5259889960289001, 0.42737719416618347, 0.44602566957473755, 0.2376657873392105, 0.22195392847061157, 0.36031922698020935, 0.3473849892616272, 0.6865878105163574, 0.6815701127052307]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.8111849427223206</v>
+        <v>0.8334211707115173</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.6779231000109576</v>
+        <v>0.6752853999932995</v>
       </c>
       <c r="J143" t="n">
-        <v>0.005745111017042013</v>
+        <v>0.00572275762706186</v>
       </c>
     </row>
     <row r="144">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[0.14661452174186707, 0.3686371147632599, 0.5813707709312439, 0.8162676692008972, 0.646712064743042, 0.43139132857322693, 0.22923868894577026, 0.4073857367038727, 0.26549527049064636, 0.2047031968832016, 0.10634364932775497, 0.10503438860177994, 0.16366419196128845, 0.3032946288585663, 0.7881024479866028, 0.4393230378627777, 0.20153690874576569, 0.24980978667736053, 0.20437364280223846, 0.21279338002204895, 0.29620155692100525, 0.2204449474811554, 0.34191277623176575, 0.14765051007270813, 0.24111300706863403, 0.3007514178752899, 0.3474782705307007, 0.15291999280452728, 0.7693923115730286, 0.2395014762878418, 0.35968637466430664, 0.23516149818897247, 0.1794915795326233, 0.14849212765693665, 0.2436179220676422, 0.48435816168785095, 0.3954541087150574, 0.2331160604953766, 0.16360434889793396, 0.2531231641769409, 0.18964558839797974, 0.13163161277770996, 0.2801225185394287, 0.16950352489948273, 0.2617335319519043, 0.5252774357795715, 0.2201148420572281, 0.4194737374782562, 0.38544487953186035, 0.6679650545120239, 0.6394379138946533, 0.3450290560722351, 0.35471272468566895, 0.42697393894195557, 0.3300284147262573, 0.27673155069351196, 0.647544264793396, 0.15580502152442932, 0.22078046202659607, 0.20451851189136505, 0.3045855760574341, 0.22854973375797272, 0.23203378915786743, 0.15150338411331177, 0.1641526073217392, 0.22077029943466187, 0.1402304321527481, 0.4912945330142975, 0.2166629582643509, 0.2197556048631668, 0.4412127137184143, 0.2160063236951828, 0.11002881824970245, 0.2731971740722656, 0.44573742151260376, 0.339314728975296, 0.37898674607276917, 0.48923423886299133, 0.5141013264656067, 0.6116417646408081, 0.5435985922813416, 0.5494338274002075, 0.49858129024505615, 0.5486495494842529, 0.550683319568634, 0.5328021049499512, 0.7509244084358215, 0.5807890295982361, 0.4530683755874634, 0.32387956976890564, 0.593305766582489, 0.6130592823028564, 0.6426934003829956, 0.9370326995849609, 0.7593514919281006, 0.8579963445663452, 0.7909968495368958, 0.8343541026115417, 0.5387604236602783, 0.8380334973335266, 0.6769989132881165, 0.5712147355079651, 0.5178991556167603, 0.756093442440033, 0.931088387966156, 0.760810375213623, 0.4837050139904022, 0.6357965469360352, 0.9566149115562439, 0.8624594211578369, 0.7718347907066345, 0.8666568398475647, 0.6838433742523193, 0.711172342300415, 0.8287525773048401, 0.6013761758804321, 0.7278276085853577, 0.7415162920951843]</t>
+          <t>[0.05802766606211662, 0.2642887532711029, 0.5140044689178467, 0.7762781977653503, 0.5541662573814392, 0.34681257605552673, 0.12496446818113327, 0.3040494918823242, 0.1811203509569168, 0.15623849630355835, 0.0626944899559021, 0.07364150881767273, 0.12052923440933228, 0.25646907091140747, 0.8427355289459229, 0.3806617259979248, 0.14784148335456848, 0.2788742780685425, 0.14564980566501617, 0.13722243905067444, 0.16777078807353973, 0.11140324920415878, 0.22049671411514282, 0.0542893186211586, 0.12227020412683487, 0.17419271171092987, 0.14877840876579285, 0.06060913950204849, 0.5066680908203125, 0.10691335052251816, 0.21640554070472717, 0.12010366469621658, 0.09730517864227295, 0.0849628895521164, 0.18745079636573792, 0.41213569045066833, 0.38923317193984985, 0.19186660647392273, 0.09122195839881897, 0.15797848999500275, 0.10035692155361176, 0.04739983379840851, 0.1778668314218521, 0.07139813899993896, 0.12839148938655853, 0.3645786941051483, 0.14702293276786804, 0.40763092041015625, 0.3572565019130707, 0.6122241020202637, 0.5675663352012634, 0.18370939791202545, 0.2204471230506897, 0.3180549442768097, 0.1770968735218048, 0.1638798862695694, 0.6162457466125488, 0.07626528292894363, 0.10300519317388535, 0.10017392039299011, 0.2095177173614502, 0.20173709094524384, 0.12742993235588074, 0.10746297240257263, 0.07209111750125885, 0.15481770038604736, 0.056749165058135986, 0.3876912593841553, 0.1333875060081482, 0.1635156124830246, 0.3572957515716553, 0.16780400276184082, 0.0516076423227787, 0.21506498754024506, 0.29332250356674194, 0.18701393902301788, 0.24196071922779083, 0.3285319209098816, 0.3886941075325012, 0.38447877764701843, 0.36383938789367676, 0.3868738114833832, 0.3812985122203827, 0.3276672065258026, 0.38211750984191895, 0.33421680331230164, 0.6311632990837097, 0.37180808186531067, 0.23728428781032562, 0.14321112632751465, 0.38077792525291443, 0.43054917454719543, 0.45052802562713623, 0.9148469567298889, 0.5859535932540894, 0.7616554498672485, 0.6935549378395081, 0.7548609375953674, 0.2743062674999237, 0.7146859169006348, 0.4266933500766754, 0.4126724898815155, 0.3424032926559448, 0.7129622101783752, 0.9241198897361755, 0.6084449291229248, 0.245609313249588, 0.41715434193611145, 0.957644522190094, 0.8131488561630249, 0.7021043300628662, 0.757213830947876, 0.4784052073955536, 0.5161512494087219, 0.7795256972312927, 0.3825336992740631, 0.5840449333190918, 0.6068557500839233]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9566149115562439</v>
+        <v>0.957644522190094</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.6607276999857277</v>
+        <v>0.6512015999905998</v>
       </c>
       <c r="J144" t="n">
-        <v>0.005599387288014642</v>
+        <v>0.005518657627038981</v>
       </c>
     </row>
     <row r="145">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[0.739568829536438, 0.46998050808906555, 0.74647456407547, 0.5330742001533508, 0.2526599168777466, 0.31072142720222473, 0.4261346161365509, 0.34515509009361267, 0.39140382409095764, 0.6246820688247681, 0.4787624478340149, 0.35680291056632996, 0.4340854585170746, 0.6016077399253845, 0.44067999720573425, 0.372978538274765, 0.21925942599773407, 0.39823439717292786, 0.7072699666023254, 0.5344132781028748, 0.49601802229881287, 0.24227654933929443, 0.37891680002212524, 0.3844352662563324, 0.5626201629638672, 0.405792236328125, 0.2158883810043335, 0.2681707739830017, 0.3329598605632782, 0.23825626075267792, 0.33298319578170776, 0.3496905267238617, 0.19877180457115173, 0.2531096935272217, 0.23449723422527313, 0.3192608058452606, 0.6500895619392395, 0.1751728057861328, 0.3026510179042816, 0.20626936852931976, 0.4190056324005127, 0.6186918616294861, 0.5430985689163208, 0.4850587248802185, 0.24060069024562836, 0.2370597869157791, 0.19152025878429413, 0.16179975867271423, 0.14370474219322205, 0.2566836178302765, 0.1412678062915802, 0.1853090077638626, 0.4351148009300232, 0.3018184006214142, 0.2637415826320648, 0.15424267947673798, 0.3843666911125183, 0.5045189261436462, 0.4304550588130951, 0.19291281700134277, 0.2610265016555786, 0.3986138105392456, 0.4375595152378082, 0.44693487882614136, 0.23341920971870422, 0.3838294446468353, 0.596360445022583, 0.46478018164634705, 0.595989465713501, 0.7511405944824219, 0.705534815788269, 0.5578960180282593, 0.4819984436035156, 0.6291073560714722, 0.3376803994178772, 0.24659332633018494, 0.20123200118541718, 0.29998958110809326, 0.24416117370128632, 0.2599102854728699, 0.2647620141506195, 0.19543126225471497, 0.21267566084861755, 0.24388763308525085, 0.22967104613780975, 0.4424627423286438, 0.3563597500324249, 0.4111045300960541, 0.377660870552063, 0.35742446780204773, 0.3176092803478241, 0.4396369755268097, 0.5622339248657227, 0.44858309626579285, 0.40492352843284607, 0.33932632207870483, 0.4248548150062561, 0.4362041652202606, 0.2214956134557724, 0.1634729951620102, 0.22355042397975922, 0.14192821085453033, 0.13204942643642426, 0.2293885350227356, 0.1588260680437088, 0.27881455421447754, 0.33964186906814575, 0.4116414785385132, 0.5510551333427429, 0.3692169487476349, 0.38272058963775635, 0.4642588794231415, 0.269830584526062, 0.2701626121997833, 0.2760200798511505, 0.33836084604263306, 0.4106747806072235, 0.4099646210670471]</t>
+          <t>[0.6581649780273438, 0.4643118679523468, 0.6707447171211243, 0.5645111799240112, 0.22545211017131805, 0.21404127776622772, 0.37670570611953735, 0.3023639917373657, 0.38854357600212097, 0.6947059631347656, 0.5309897661209106, 0.39633551239967346, 0.6218640804290771, 0.6300163865089417, 0.40683963894844055, 0.3883650600910187, 0.1676359623670578, 0.3227510452270508, 0.783928632736206, 0.6035675406455994, 0.42688801884651184, 0.2474350929260254, 0.3662867248058319, 0.3788681924343109, 0.5220499634742737, 0.3524087071418762, 0.14920179545879364, 0.24804538488388062, 0.33751580119132996, 0.2015874683856964, 0.23495744168758392, 0.22672702372074127, 0.138588085770607, 0.17178314924240112, 0.21890465915203094, 0.26860323548316956, 0.6243913769721985, 0.11619757115840912, 0.1950450986623764, 0.11845908313989639, 0.37691062688827515, 0.557493269443512, 0.44096359610557556, 0.4230876863002777, 0.14584586024284363, 0.1623189002275467, 0.12131992727518082, 0.10709434747695923, 0.07650765031576157, 0.17702876031398773, 0.07351220399141312, 0.07533328980207443, 0.29854291677474976, 0.22431856393814087, 0.17631371319293976, 0.05756111815571785, 0.40628334879875183, 0.37167733907699585, 0.43190187215805054, 0.1413496732711792, 0.2099561095237732, 0.3728232681751251, 0.2677524983882904, 0.37688174843788147, 0.16962136328220367, 0.2912413775920868, 0.5682280659675598, 0.40050211548805237, 0.58012455701828, 0.7732831239700317, 0.6804202198982239, 0.47050780057907104, 0.36831775307655334, 0.5439030528068542, 0.2241000235080719, 0.1567620038986206, 0.10833584517240524, 0.24598661065101624, 0.1895739883184433, 0.19850337505340576, 0.19324667751789093, 0.10635221749544144, 0.10903983563184738, 0.15044322609901428, 0.1488882601261139, 0.38270434737205505, 0.27551716566085815, 0.3146105408668518, 0.3010627329349518, 0.28139641880989075, 0.2541234493255615, 0.31744492053985596, 0.5165650248527527, 0.33061298727989197, 0.2870926856994629, 0.20395007729530334, 0.28467974066734314, 0.33082494139671326, 0.10374455153942108, 0.0897437334060669, 0.1456405371427536, 0.05434810370206833, 0.05454130843281746, 0.12191645056009293, 0.06681942939758301, 0.15754196047782898, 0.19852031767368317, 0.2926569879055023, 0.48657816648483276, 0.1935502588748932, 0.20100389420986176, 0.3688158690929413, 0.17092469334602356, 0.12777356803417206, 0.13425762951374054, 0.1720392256975174, 0.24176158010959625, 0.2411193549633026]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.7511405944824219</v>
+        <v>0.7839286327362061</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.666740699991351</v>
+        <v>0.6634665000019595</v>
       </c>
       <c r="J145" t="n">
-        <v>0.00565034491518094</v>
+        <v>0.005622597457643725</v>
       </c>
     </row>
     <row r="146">
@@ -6365,11 +6365,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[0.29533806443214417, 0.33548399806022644, 0.28163260221481323, 0.18386748433113098, 0.18395769596099854, 0.13001713156700134, 0.18579234182834625, 0.18616198003292084, 0.12120112776756287, 0.1416880488395691, 0.16565191745758057, 0.1535850316286087, 0.12343096733093262, 0.24701076745986938, 0.24344010651111603, 0.3643905222415924, 0.3005516827106476, 0.19481265544891357, 0.1626933068037033, 0.11766957491636276, 0.25951525568962097, 0.1447700560092926, 0.2239547073841095, 0.24872687458992004, 0.11931456625461578, 0.1915803700685501, 0.2546725273132324, 0.19775530695915222, 0.1591375321149826, 0.21949386596679688, 0.12675131857395172, 0.18184681236743927, 0.16000248491764069, 0.20402133464813232, 0.1817948967218399, 0.11929834634065628, 0.18764398992061615, 0.29889047145843506, 0.25062328577041626, 0.1478039026260376, 0.40882959961891174, 0.22708825767040253, 0.21542981266975403, 0.13114897906780243, 0.2478141039609909, 0.3722414970397949, 0.17557087540626526, 0.3820464611053467, 0.2733493149280548, 0.8742510080337524, 0.5548785328865051, 0.3686803877353668, 0.47124916315078735, 0.44137391448020935, 0.4502207636833191, 0.3948940932750702, 0.7079561948776245, 0.4209757149219513, 0.10182949155569077, 0.144916832447052, 0.1466161608695984, 0.1523570567369461, 0.1674717217683792, 0.06682208180427551, 0.12920723855495453, 0.11513997614383698, 0.1969379037618637, 0.16425497829914093, 0.22182054817676544, 0.3521146774291992, 0.2988252639770508, 0.6191187500953674, 0.45427343249320984, 0.5016911029815674, 0.6401275396347046, 0.6878136396408081, 0.7316247820854187, 0.49935421347618103, 0.28442829847335815, 0.38343650102615356, 0.2052525132894516, 0.20756150782108307, 0.2370947152376175, 0.08886124938726425, 0.08940237015485764, 0.1774873435497284, 0.13195349276065826, 0.1470116227865219, 0.18415886163711548, 0.13381116092205048, 0.20627297461032867, 0.2153610736131668, 0.21580755710601807, 0.3155961036682129, 0.15964922308921814, 0.15904492139816284, 0.30951693654060364, 0.1538681983947754, 0.15620766580104828, 0.15739962458610535, 0.16466376185417175, 0.2202417552471161, 0.13572928309440613, 0.16161760687828064, 0.17055584490299225, 0.17944078147411346, 0.20646671950817108, 0.14894446730613708, 0.19888685643672943, 0.18716999888420105, 0.25269466638565063, 0.15686479210853577, 0.23903419077396393, 0.2869156301021576, 0.1910356730222702, 0.23764289915561676, 0.23752810060977936, 0.237445667386055]</t>
+          <t>[0.28405213356018066, 0.331985205411911, 0.28409287333488464, 0.14508740603923798, 0.1716468185186386, 0.09021857380867004, 0.16047441959381104, 0.10618337988853455, 0.06552498042583466, 0.09953573346138, 0.11437509208917618, 0.10487324744462967, 0.07737641781568527, 0.2313520610332489, 0.17700816690921783, 0.39098459482192993, 0.300533652305603, 0.19577810168266296, 0.11470548808574677, 0.08066119998693466, 0.29988282918930054, 0.11478577554225922, 0.2704755961894989, 0.2334536463022232, 0.07868727296590805, 0.1374015212059021, 0.21730762720108032, 0.13176728785037994, 0.10442156344652176, 0.11885994672775269, 0.05912403389811516, 0.10276380926370621, 0.07971563190221786, 0.10318731516599655, 0.09635704755783081, 0.05375036597251892, 0.11696460843086243, 0.29274019598960876, 0.2097417712211609, 0.11123491078615189, 0.4065967798233032, 0.12026569992303848, 0.1372775137424469, 0.10082549601793289, 0.19246503710746765, 0.40960198640823364, 0.15199480950832367, 0.3516676723957062, 0.27244070172309875, 0.9218335747718811, 0.7000367641448975, 0.3883606493473053, 0.42745542526245117, 0.380124568939209, 0.5110116004943848, 0.4858880341053009, 0.8162121176719666, 0.5331456661224365, 0.04978892207145691, 0.055217694491147995, 0.06478732824325562, 0.07222042232751846, 0.06770550459623337, 0.025428492575883865, 0.06317933648824692, 0.06494610011577606, 0.12566432356834412, 0.10018040984869003, 0.12163885682821274, 0.2996250092983246, 0.30064308643341064, 0.6053450107574463, 0.4204850494861603, 0.4257108271121979, 0.5738371014595032, 0.6254847049713135, 0.6426821351051331, 0.31075358390808105, 0.14436857402324677, 0.3323209583759308, 0.11878930777311325, 0.1460263580083847, 0.16857321560382843, 0.04922844469547272, 0.04369615763425827, 0.15618662536144257, 0.06492481380701065, 0.08921026438474655, 0.11553963273763657, 0.06658298522233963, 0.10621917992830276, 0.14987467229366302, 0.1524927020072937, 0.21864904463291168, 0.09854039549827576, 0.07925987988710403, 0.27143651247024536, 0.0650402307510376, 0.08437129855155945, 0.0777844488620758, 0.056149713695049286, 0.09885798394680023, 0.057495784014463425, 0.0717625841498375, 0.0869402214884758, 0.06899839639663696, 0.08991505950689316, 0.06828340142965317, 0.0957624763250351, 0.07183947414159775, 0.12089259922504425, 0.066283218562603, 0.10156981647014618, 0.14941899478435516, 0.066741444170475, 0.10863388329744339, 0.11978208273649216, 0.11885116994380951]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.8742510080337524</v>
+        <v>0.9218335747718811</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0.6537352000013925</v>
+        <v>0.6691295000055106</v>
       </c>
       <c r="J146" t="n">
-        <v>0.005540128813571123</v>
+        <v>0.005670588983097548</v>
       </c>
     </row>
     <row r="147">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[0.2309219390153885, 0.0800352394580841, 0.23489810526371002, 0.2863788902759552, 0.14936615526676178, 0.11162985116243362, 0.08409696817398071, 0.09968224167823792, 0.18227481842041016, 0.2321179211139679, 0.1924092322587967, 0.13876792788505554, 0.1235843375325203, 0.07989469915628433, 0.12308052182197571, 0.09953707456588745, 0.10265593230724335, 0.09844683110713959, 0.08262267708778381, 0.16226604580879211, 0.11797073483467102, 0.08453725278377533, 0.16409164667129517, 0.09936816990375519, 0.14725811779499054, 0.10856136679649353, 0.16664157807826996, 0.17511002719402313, 0.21511581540107727, 0.11193883419036865, 0.24468576908111572, 0.32733801007270813, 0.47695714235305786, 0.7022743225097656, 0.3432677984237671, 0.450675904750824, 0.2676329016685486, 0.17137302458286285, 0.16540373861789703, 0.1992948353290558, 0.2263648957014084, 0.21104995906352997, 0.17176754772663116, 0.2810543477535248, 0.16702547669410706, 0.16331209242343903, 0.17086966335773468, 0.07891489565372467, 0.09936504065990448, 0.1990927755832672, 0.1697574108839035, 0.2534521222114563, 0.1891527771949768, 0.09557048231363297, 0.19229468703269958, 0.11099013686180115, 0.09519827365875244, 0.10251916199922562, 0.11440147459506989, 0.0835309624671936, 0.056582920253276825, 0.11366024613380432, 0.08736133575439453, 0.12127906084060669, 0.10369102656841278, 0.07726436108350754, 0.0939783826470375, 0.05981273576617241, 0.05615297332406044, 0.10881581902503967, 0.11925119161605835, 0.18177956342697144, 0.20313754677772522, 0.410251647233963, 0.15119601786136627, 0.17767517268657684, 0.08445600420236588, 0.1306198388338089, 0.12036895751953125, 0.12607787549495697, 0.08601095527410507, 0.08851058036088943, 0.10178136080503464, 0.08729655295610428, 0.10381360352039337, 0.08003959059715271, 0.05943308398127556, 0.15938620269298553, 0.16526049375534058, 0.18136370182037354, 0.1719881296157837, 0.0897032767534256, 0.11385296285152435, 0.16381853818893433, 0.22721703350543976, 0.2835145592689514, 0.2971879243850708, 0.24385182559490204, 0.26103001832962036, 0.31375783681869507, 0.26892396807670593, 0.304153174161911, 0.1594584733247757, 0.21076993644237518, 0.12639518082141876, 0.13172338902950287, 0.17974554002285004, 0.15392953157424927, 0.23137666285037994, 0.12941546738147736, 0.45372918248176575, 0.0871201828122139, 0.13691453635692596, 0.3647010624408722, 0.2144252359867096, 0.3994007110595703, 0.32837730646133423, 0.3319838345050812]</t>
+          <t>[0.2503691017627716, 0.06844795495271683, 0.5289249420166016, 0.5404717922210693, 0.25093191862106323, 0.09685691446065903, 0.05136094242334366, 0.056742653250694275, 0.19140897691249847, 0.32714083790779114, 0.2796313762664795, 0.14053146541118622, 0.1339133381843567, 0.06637181341648102, 0.1185135617852211, 0.09407541900873184, 0.11460062116384506, 0.11107300966978073, 0.09726069122552872, 0.3101215660572052, 0.16807818412780762, 0.08693418651819229, 0.16917522251605988, 0.11743643134832382, 0.24016009271144867, 0.1308092623949051, 0.2955149710178375, 0.34406304359436035, 0.22846657037734985, 0.08020798861980438, 0.28442633152008057, 0.37440013885498047, 0.6765456199645996, 0.8955064415931702, 0.4466984272003174, 0.6637344360351562, 0.3328975439071655, 0.21841567754745483, 0.11282669752836227, 0.15029923617839813, 0.19388720393180847, 0.24176546931266785, 0.22199572622776031, 0.5035343766212463, 0.19116133451461792, 0.25007951259613037, 0.22587351500988007, 0.06992015242576599, 0.10067802667617798, 0.3077898621559143, 0.23986011743545532, 0.4381752908229828, 0.21932750940322876, 0.08144715428352356, 0.20789873600006104, 0.10576566308736801, 0.12367969751358032, 0.10417957603931427, 0.1325715333223343, 0.08247014135122299, 0.03724074736237526, 0.12145257741212845, 0.06687412410974503, 0.1001284047961235, 0.09390145540237427, 0.07279985398054123, 0.08031440526247025, 0.027090560644865036, 0.03362841159105301, 0.12471798062324524, 0.14354552328586578, 0.3350922465324402, 0.3120948374271393, 0.6465491652488708, 0.21232637763023376, 0.26073119044303894, 0.07249327003955841, 0.1256994605064392, 0.16990594565868378, 0.10606105625629425, 0.07205162197351456, 0.07765231281518936, 0.04968421533703804, 0.0338466539978981, 0.04794672131538391, 0.03337020054459572, 0.023626169189810753, 0.09033740311861038, 0.12678545713424683, 0.13113310933113098, 0.18544964492321014, 0.05703793466091156, 0.13267120718955994, 0.20594052970409393, 0.4567466378211975, 0.34505972266197205, 0.475046843290329, 0.31203892827033997, 0.36823534965515137, 0.4171816110610962, 0.36255812644958496, 0.358794242143631, 0.14266885817050934, 0.2508142292499542, 0.12422527372837067, 0.0967262014746666, 0.2383444905281067, 0.11677166074514389, 0.1429961621761322, 0.062647245824337, 0.5541260242462158, 0.026909826323390007, 0.055079590529203415, 0.2611043155193329, 0.09440219402313232, 0.3784751892089844, 0.3768308758735657, 0.3868142068386078]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.7022743225097656</v>
+        <v>0.8955064415931702</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0.6590165999950841</v>
+        <v>0.6661389999935636</v>
       </c>
       <c r="J147" t="n">
-        <v>0.005584886440636306</v>
+        <v>0.005645245762657318</v>
       </c>
     </row>
     <row r="148">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[0.41092610359191895, 0.6613982319831848, 0.3021807074546814, 0.34895747900009155, 0.8450468182563782, 0.367531418800354, 0.6493452787399292, 0.7456621527671814, 0.7290038466453552, 0.7850242853164673, 0.9545630216598511, 0.9219035506248474, 0.8778033256530762, 0.5087172389030457, 0.5683655142784119, 0.4377255439758301, 0.433520644903183, 0.7108035087585449, 0.785717785358429, 0.638420045375824, 0.4538450837135315, 0.584235668182373, 0.751607358455658, 0.31670284271240234, 0.4539198577404022, 0.6666367053985596, 0.6550525426864624, 0.3404056429862976, 0.27384039759635925, 0.2052263766527176, 0.45254310965538025, 0.39528971910476685, 0.2900828719139099, 0.25464576482772827, 0.2232017070055008, 0.5306938290596008, 0.4840826094150543, 0.19456855952739716, 0.45141419768333435, 0.3319507837295532, 0.12605956196784973, 0.15295155346393585, 0.19944414496421814, 0.1209321841597557, 0.1386430561542511, 0.11302005499601364, 0.19509248435497284, 0.15375149250030518, 0.17092172801494598, 0.21605828404426575, 0.2126293033361435, 0.4267650544643402, 0.3890685439109802, 0.2194433957338333, 0.738201916217804, 0.7988996505737305, 0.7509005069732666, 0.6273079514503479, 0.7461252808570862, 0.89043128490448, 0.6957333087921143, 0.5582164525985718, 0.6093382835388184, 0.6220566630363464, 0.8459867238998413, 0.6834682822227478, 0.6389763355255127, 0.6528030633926392, 0.5456043481826782, 0.47701382637023926, 0.5690914392471313, 0.39948827028274536, 0.31205686926841736, 0.18868768215179443, 0.1872413009405136, 0.23046967387199402, 0.17030668258666992, 0.15966464579105377, 0.12731528282165527, 0.1726938635110855, 0.2102597951889038, 0.3068569600582123, 0.21606308221817017, 0.4095703363418579, 0.2484567016363144, 0.23273004591464996, 0.2675590515136719, 0.28460681438446045, 0.21806521713733673, 0.22555524110794067, 0.29808324575424194, 0.4472200870513916, 0.37444910407066345, 0.46685463190078735, 0.2429494857788086, 0.24661174416542053, 0.20572924613952637, 0.39039838314056396, 0.31227535009384155, 0.42418286204338074, 0.3515917956829071, 0.5657567977905273, 0.41467124223709106, 0.3608083128929138, 0.4240283668041229, 0.34053096175193787, 0.24638062715530396, 0.2524944543838501, 0.2203189879655838, 0.1606004536151886, 0.16211776435375214, 0.20467853546142578, 0.21593822538852692, 0.15923583507537842, 0.2834717631340027, 0.3499278724193573, 0.33044713735580444, 0.3301001191139221]</t>
+          <t>[0.2531176209449768, 0.6622542142868042, 0.14543437957763672, 0.22421176731586456, 0.8280336260795593, 0.22918391227722168, 0.5665560364723206, 0.6254172921180725, 0.546618640422821, 0.7093000411987305, 0.9605700969696045, 0.9121717810630798, 0.8189178705215454, 0.2170829325914383, 0.2270226776599884, 0.21132664382457733, 0.3294183909893036, 0.6352902054786682, 0.7889798879623413, 0.7386204600334167, 0.4024336338043213, 0.5501018762588501, 0.7839186787605286, 0.2757762670516968, 0.4706612229347229, 0.7275868654251099, 0.75688636302948, 0.27886947989463806, 0.3124706745147705, 0.17399339377880096, 0.4000931680202484, 0.5918999314308167, 0.24535736441612244, 0.2077365219593048, 0.13248977065086365, 0.44322896003723145, 0.37553516030311584, 0.12073437124490738, 0.30608871579170227, 0.15525992214679718, 0.04470503330230713, 0.051885589957237244, 0.08131951093673706, 0.0367356613278389, 0.04018806666135788, 0.04225822910666466, 0.0887972041964531, 0.0825309306383133, 0.06510560214519501, 0.09456837922334671, 0.10404150187969208, 0.33001837134361267, 0.48604875802993774, 0.17082960903644562, 0.7992936968803406, 0.9112722277641296, 0.8445013165473938, 0.7152881622314453, 0.8351745009422302, 0.9299864768981934, 0.7942624092102051, 0.7723336815834045, 0.8459000587463379, 0.7610369920730591, 0.891448438167572, 0.78374844789505, 0.7592167854309082, 0.8127420544624329, 0.5668250918388367, 0.4504123032093048, 0.6789160370826721, 0.540544331073761, 0.35267797112464905, 0.22007209062576294, 0.16561149060726166, 0.25543859601020813, 0.1652936488389969, 0.12482552230358124, 0.15422169864177704, 0.22735460102558136, 0.2824191451072693, 0.3239403963088989, 0.2719629108905792, 0.5331023931503296, 0.3145946264266968, 0.21298940479755402, 0.26048794388771057, 0.274609237909317, 0.26383858919143677, 0.2289246916770935, 0.28481313586235046, 0.5300008058547974, 0.4299360513687134, 0.49648231267929077, 0.2845859229564667, 0.25837236642837524, 0.19156087934970856, 0.48830053210258484, 0.333473801612854, 0.49055737257003784, 0.4616564214229584, 0.649291455745697, 0.47060641646385193, 0.4672125279903412, 0.537013590335846, 0.37019777297973633, 0.2320062518119812, 0.2862338423728943, 0.24386605620384216, 0.10353782773017883, 0.12480063736438751, 0.21646131575107574, 0.2801555395126343, 0.1551489233970642, 0.28000733256340027, 0.33606889843940735, 0.34567928314208984, 0.34799107909202576]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.9545630216598511</v>
+        <v>0.9605700969696045</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.6734877000271808</v>
+        <v>0.6687598999997135</v>
       </c>
       <c r="J148" t="n">
-        <v>0.005707522881586278</v>
+        <v>0.005667456779658589</v>
       </c>
     </row>
     <row r="149">
@@ -6485,11 +6485,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[0.0876404270529747, 0.06105644255876541, 0.10809113085269928, 0.18250830471515656, 0.2600342631340027, 0.12579400837421417, 0.22010940313339233, 0.10491921752691269, 0.3805542588233948, 0.542982816696167, 0.07238102704286575, 0.08724135160446167, 0.1466546356678009, 0.2328236997127533, 0.4970492124557495, 0.36081844568252563, 0.10551732778549194, 0.0771506279706955, 0.11446462571620941, 0.13593976199626923, 0.3096030652523041, 0.1689106822013855, 0.2126927375793457, 0.14565706253051758, 0.084457166492939, 0.09008006006479263, 0.3155486285686493, 0.5037612915039062, 0.16720916330814362, 0.20023103058338165, 0.08159179240465164, 0.22488175332546234, 0.2154712677001953, 0.11295629292726517, 0.12325652688741684, 0.15315856039524078, 0.2607463598251343, 0.15162548422813416, 0.36127927899360657, 0.2529621720314026, 0.3906119167804718, 0.17977310717105865, 0.12397825717926025, 0.09006962180137634, 0.1466074287891388, 0.21703936159610748, 0.11786792427301407, 0.08477696031332016, 0.05074148252606392, 0.10327062755823135, 0.15679152309894562, 0.5840962529182434, 0.32591527700424194, 0.3359082341194153, 0.43427059054374695, 0.3821464478969574, 0.0829036682844162, 0.3277142345905304, 0.14924655854701996, 0.13306425511837006, 0.11509980261325836, 0.08647343516349792, 0.12756463885307312, 0.3565906882286072, 0.24232538044452667, 0.1558000147342682, 0.236700177192688, 0.20898012816905975, 0.3819141387939453, 0.2667944133281708, 0.11437211185693741, 0.2201908677816391, 0.19231748580932617, 0.4386308193206787, 0.2163764089345932, 0.185507133603096, 0.19828683137893677, 0.32182300090789795, 0.3314032256603241, 0.4168083965778351, 0.5574648380279541, 0.7160612344741821, 0.504521369934082, 0.386008083820343, 0.346000611782074, 0.2764696180820465, 0.286941260099411, 0.3794856071472168, 0.44870099425315857, 0.5173044204711914, 0.4782505929470062, 0.4631425142288208, 0.49692481756210327, 0.23420795798301697, 0.4207216501235962, 0.2395184189081192, 0.87503582239151, 0.6572709083557129, 0.47457751631736755, 0.19925038516521454, 0.31681516766548157, 0.25082239508628845, 0.3143167495727539, 0.26915088295936584, 0.24735382199287415, 0.267729252576828, 0.4277486503124237, 0.2824878394603729, 0.33076730370521545, 0.2779635787010193, 0.14508573710918427, 0.20225174725055695, 0.19451695680618286, 0.48110440373420715, 0.33597472310066223, 0.3695349395275116, 0.64675372838974, 0.6443246603012085]</t>
+          <t>[0.02771119959652424, 0.02074228599667549, 0.052895914763212204, 0.07556162029504776, 0.18749377131462097, 0.07277221977710724, 0.10669298470020294, 0.04674632102251053, 0.34075385332107544, 0.433402419090271, 0.02211516536772251, 0.037138938903808594, 0.10345038771629333, 0.1369033306837082, 0.26343366503715515, 0.1885939985513687, 0.027560630813241005, 0.02470153011381626, 0.028726227581501007, 0.04740650951862335, 0.21043963730335236, 0.05930125340819359, 0.08902963995933533, 0.05510034039616585, 0.021142208948731422, 0.03056946210563183, 0.18476106226444244, 0.5703785419464111, 0.11301657557487488, 0.13950024545192719, 0.05707261338829994, 0.16267791390419006, 0.1300538331270218, 0.04043527692556381, 0.06137895584106445, 0.07688204199075699, 0.3095925748348236, 0.07524538040161133, 0.3319341540336609, 0.11549241840839386, 0.3175627291202545, 0.10882751643657684, 0.057671643793582916, 0.04153747856616974, 0.07004468888044357, 0.12784141302108765, 0.06843933463096619, 0.04141370207071304, 0.015614921227097511, 0.04065299034118652, 0.07686438411474228, 0.61390620470047, 0.34223732352256775, 0.3671511709690094, 0.26571470499038696, 0.2356119453907013, 0.01852954924106598, 0.1737554967403412, 0.043143972754478455, 0.04624227434396744, 0.046415045857429504, 0.033322062343358994, 0.051021091639995575, 0.19911910593509674, 0.08752180635929108, 0.05594947561621666, 0.08708317577838898, 0.08486418426036835, 0.21735389530658722, 0.30872178077697754, 0.04563627019524574, 0.12051668018102646, 0.11719685047864914, 0.40440452098846436, 0.11918874084949493, 0.14579002559185028, 0.10665887594223022, 0.255022794008255, 0.18971945345401764, 0.21948552131652832, 0.3877611756324768, 0.6266729235649109, 0.380121648311615, 0.3584776520729065, 0.25403425097465515, 0.18248601257801056, 0.1837502419948578, 0.313829630613327, 0.3729590177536011, 0.41606074571609497, 0.4681977927684784, 0.310163676738739, 0.41937822103500366, 0.12800027430057526, 0.1999443769454956, 0.12262402474880219, 0.8731478452682495, 0.6746240854263306, 0.34984248876571655, 0.1496685892343521, 0.26858219504356384, 0.17055346071720123, 0.30486351251602173, 0.19468963146209717, 0.14142782986164093, 0.12284361571073532, 0.27908337116241455, 0.15468482673168182, 0.20493429899215698, 0.1294640600681305, 0.06559063494205475, 0.10808764398097992, 0.11554152518510818, 0.3825072646141052, 0.23972424864768982, 0.23882520198822021, 0.4919981062412262, 0.4884452819824219]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.87503582239151</v>
+        <v>0.8731478452682495</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.7837055999843869</v>
+        <v>0.7745928999938769</v>
       </c>
       <c r="J149" t="n">
-        <v>0.006641572881223618</v>
+        <v>0.006564346610117601</v>
       </c>
     </row>
     <row r="150">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[0.12898746132850647, 0.10558686405420303, 0.07231941819190979, 0.10227275639772415, 0.12812204658985138, 0.11135739088058472, 0.10461144149303436, 0.19423358142375946, 0.17852848768234253, 0.20955471694469452, 0.16228576004505157, 0.2005929797887802, 0.19593121111392975, 0.19992518424987793, 0.33908310532569885, 0.277574360370636, 0.3194231688976288, 0.37241822481155396, 0.6065459251403809, 0.4121866822242737, 0.32697829604148865, 0.34720680117607117, 0.2576768696308136, 0.2815764546394348, 0.28019869327545166, 0.22042600810527802, 0.49862146377563477, 0.29542163014411926, 0.3405936658382416, 0.31130459904670715, 0.3679899573326111, 0.2508696913719177, 0.21617819368839264, 0.2638409733772278, 0.22318093478679657, 0.1756054013967514, 0.3059837520122528, 0.2139120101928711, 0.31361421942710876, 0.2898952066898346, 0.13013018667697906, 0.22641630470752716, 0.21819183230400085, 0.17924532294273376, 0.14827659726142883, 0.09425395727157593, 0.1028829962015152, 0.07787216454744339, 0.10255968570709229, 0.1543046534061432, 0.16064146161079407, 0.16320179402828217, 0.28812089562416077, 0.24550384283065796, 0.2125030755996704, 0.34592124819755554, 0.258638858795166, 0.47378602623939514, 0.6443955302238464, 0.6183121800422668, 0.3512836992740631, 0.4005518853664398, 0.27367445826530457, 0.2621268033981323, 0.1387336552143097, 0.25901153683662415, 0.36899474263191223, 0.4620620012283325, 0.38901376724243164, 0.21083787083625793, 0.34054869413375854, 0.3401191830635071, 0.39574700593948364, 0.41432952880859375, 0.32214468717575073, 0.3140718936920166, 0.29796546697616577, 0.723671019077301, 0.5182027816772461, 0.2020147144794464, 0.18045204877853394, 0.19494670629501343, 0.27667510509490967, 0.2737666070461273, 0.16311709582805634, 0.36099493503570557, 0.33665892481803894, 0.38423848152160645, 0.42499175667762756, 0.20921964943408966, 0.16038778424263, 0.14413242042064667, 0.13141369819641113, 0.19211120903491974, 0.20486074686050415, 0.36571189761161804, 0.3723680078983307, 0.2883315980434418, 0.29704952239990234, 0.20560318231582642, 0.18595340847969055, 0.2785763144493103, 0.1780690997838974, 0.1634041666984558, 0.2359655797481537, 0.17856165766716003, 0.08611157536506653, 0.08559485524892807, 0.12453500926494598, 0.09885294735431671, 0.1103435531258583, 0.17047019302845, 0.1289558708667755, 0.09498562663793564, 0.07449762523174286, 0.07366955280303955, 0.07455426454544067, 0.11074903607368469, 0.11434510350227356, 0.09262523800134659, 0.08217228949069977, 0.09149634093046188, 0.17063812911510468, 0.16859105229377747, 0.1699424535036087, 0.16393524408340454, 0.17571985721588135, 0.20367863774299622, 0.20427900552749634, 0.18279080092906952, 0.19622038304805756, 0.2028312385082245, 0.12340700626373291, 0.14176209270954132, 0.19230221211910248, 0.26585331559181213, 0.2679601311683655, 0.3079458773136139, 0.41712063550949097, 0.28809231519699097, 0.2795554995536804, 0.27887970209121704, 0.44068852066993713, 0.4023055136203766, 0.35188737511634827, 0.29763421416282654, 0.22210931777954102, 0.19962818920612335, 0.15061858296394348, 0.191586434841156, 0.09651759266853333, 0.11356478929519653, 0.11424477398395538, 0.18042916059494019, 0.1803339719772339, 0.10355068743228912, 0.0909283235669136, 0.0901755839586258]</t>
+          <t>[0.08334523439407349, 0.07401222735643387, 0.04549441486597061, 0.05147312581539154, 0.10351495444774628, 0.09757787734270096, 0.08857061713933945, 0.19013798236846924, 0.12833699584007263, 0.17731019854545593, 0.0795351043343544, 0.1149711087346077, 0.12298081070184708, 0.22038021683692932, 0.4163960814476013, 0.3264214098453522, 0.40773236751556396, 0.5689666867256165, 0.8117938041687012, 0.6312547326087952, 0.44944509863853455, 0.5850573778152466, 0.4328116774559021, 0.44640761613845825, 0.37347573041915894, 0.36224719882011414, 0.7302646040916443, 0.46233251690864563, 0.4151166081428528, 0.4607431888580322, 0.39868587255477905, 0.3126339018344879, 0.19812503457069397, 0.23685117065906525, 0.20717500150203705, 0.2095993012189865, 0.38498368859291077, 0.21588341891765594, 0.37208718061447144, 0.3874579966068268, 0.11194606125354767, 0.15797363221645355, 0.12126599252223969, 0.1584136039018631, 0.09409721195697784, 0.038983654230833054, 0.03919253125786781, 0.03481365740299225, 0.04668852686882019, 0.0915251076221466, 0.07364127039909363, 0.09276288747787476, 0.207303985953331, 0.1882159411907196, 0.15210853517055511, 0.2624981105327606, 0.19068092107772827, 0.42305776476860046, 0.7326382398605347, 0.6957939863204956, 0.42376095056533813, 0.5454550385475159, 0.27425917983055115, 0.21212491393089294, 0.10466376692056656, 0.20431102812290192, 0.34961023926734924, 0.5606682896614075, 0.46601736545562744, 0.3424969017505646, 0.5767120122909546, 0.5124164819717407, 0.5407506823539734, 0.6075468063354492, 0.4644634425640106, 0.4283731281757355, 0.37302732467651367, 0.7818132638931274, 0.5459586977958679, 0.2001410722732544, 0.1758304089307785, 0.1812220811843872, 0.18831788003444672, 0.21989506483078003, 0.09895650297403336, 0.271613746881485, 0.4580709934234619, 0.571980893611908, 0.7063721418380737, 0.21409624814987183, 0.18575523793697357, 0.19263218343257904, 0.1857781559228897, 0.2592664957046509, 0.2172088623046875, 0.5672712922096252, 0.5160505771636963, 0.30916687846183777, 0.23556485772132874, 0.14068233966827393, 0.13803289830684662, 0.2244223803281784, 0.12300366908311844, 0.13169646263122559, 0.21461403369903564, 0.13249734044075012, 0.04927777498960495, 0.05373828858137131, 0.08643992245197296, 0.07644911855459213, 0.08517269790172577, 0.17331838607788086, 0.088546521961689, 0.05313130095601082, 0.048193298280239105, 0.04194911569356918, 0.032196298241615295, 0.06701251119375229, 0.06788589060306549, 0.05543484166264534, 0.04775204136967659, 0.05111359432339668, 0.10148755460977554, 0.11838167160749435, 0.11039157211780548, 0.10055544972419739, 0.09123411774635315, 0.1316399723291397, 0.11050198972225189, 0.09897752106189728, 0.09902440756559372, 0.09846538305282593, 0.0579625703394413, 0.06508149206638336, 0.09461567550897598, 0.18399356305599213, 0.20052529871463776, 0.2643362879753113, 0.43913424015045166, 0.20781156420707703, 0.22096450626850128, 0.24104544520378113, 0.4147019684314728, 0.3986358344554901, 0.3543277680873871, 0.2244168519973755, 0.1641371250152588, 0.15223929286003113, 0.1050378829240799, 0.15956957638263702, 0.08239562809467316, 0.10913120210170746, 0.1327914297580719, 0.23217535018920898, 0.24895544350147247, 0.13757671415805817, 0.10586749762296677, 0.10478521883487701]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.723671019077301</v>
+        <v>0.8117938041687012</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.8727088000159711</v>
+        <v>0.8955112999974517</v>
       </c>
       <c r="J150" t="n">
-        <v>0.005523473417822601</v>
+        <v>0.005667793037958556</v>
       </c>
     </row>
     <row r="151">
@@ -6565,11 +6565,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[0.11704593896865845, 0.07994049787521362, 0.04602542519569397, 0.07311972975730896, 0.029382480308413506, 0.029028726741671562, 0.02405724860727787, 0.023217909038066864, 0.03363419696688652, 0.07382674515247345, 0.06188812851905823, 0.07421185821294785, 0.04453594982624054, 0.03392155095934868, 0.04299449175596237, 0.033168189227581024, 0.029680712148547173, 0.04352525249123573, 0.022844914346933365, 0.027622604742646217, 0.034695807844400406, 0.05758287385106087, 0.03585933521389961, 0.07574720680713654, 0.03336872532963753, 0.023976793512701988, 0.01813426986336708, 0.026653002947568893, 0.018687177449464798, 0.01971793919801712, 0.015121344476938248, 0.024522049352526665, 0.02139197289943695, 0.033249493688344955, 0.02665787562727928, 0.016121461987495422, 0.015169496648013592, 0.026308735832571983, 0.025056997314095497, 0.022193899378180504, 0.027572039514780045, 0.022490423172712326, 0.033365197479724884, 0.028282195329666138, 0.03122595325112343, 0.02525908127427101, 0.02481476031243801, 0.08084774017333984, 0.04459819197654724, 0.040548548102378845, 0.11521036177873611, 0.05131750553846359, 0.0705573782324791, 0.04451756179332733, 0.03260144591331482, 0.03351088985800743, 0.07383382320404053, 0.10121456533670425, 0.15531650185585022, 0.15749336779117584, 0.07984168827533722, 0.06844354420900345, 0.0253357645124197, 0.026347821578383446, 0.020895183086395264, 0.020975053310394287, 0.030437607318162918, 0.038248684257268906, 0.037617169320583344, 0.02412685565650463, 0.02961789444088936, 0.029314741492271423, 0.022978641092777252, 0.03098168596625328, 0.029369113966822624, 0.050480931997299194, 0.05597496032714844, 0.03424469754099846, 0.023280689492821693, 0.032492708414793015, 0.03796875476837158, 0.030998677015304565, 0.022659309208393097, 0.025538990274071693, 0.022879257798194885, 0.025791049003601074, 0.02066735550761223, 0.013761444948613644, 0.022060198709368706, 0.02422913908958435, 0.013638387434184551, 0.016782941296696663, 0.02156725339591503, 0.027114594355225563, 0.07802854478359222, 0.08645998686552048, 0.05595143139362335, 0.08817961812019348, 0.11113226413726807, 0.2602064311504364, 0.16772723197937012, 0.104962557554245, 0.10332552343606949, 0.09719143062829971, 0.08570800721645355, 0.14660440385341644, 0.23016181588172913, 0.2450660616159439, 0.2859973609447479, 0.17087793350219727, 0.19515331089496613, 0.06379897147417068, 0.17529821395874023, 0.19861572980880737, 0.08530734479427338, 0.06120080128312111, 0.04262427240610123, 0.2663436532020569, 0.0965970903635025, 0.08746249973773956, 0.128059983253479, 0.08267883956432343, 0.057972460985183716, 0.029034528881311417, 0.08813917636871338, 0.08289710432291031, 0.07734563946723938, 0.28457167744636536, 0.061165276914834976, 0.10942457616329193, 0.05252165347337723, 0.09636053442955017, 0.08618570119142532, 0.06838316470384598, 0.06257746368646622, 0.06054289638996124, 0.09534334391355515, 0.14906834065914154, 0.103368379175663, 0.055469706654548645, 0.057852063328027725, 0.05892976373434067, 0.06943648308515549, 0.10251466184854507, 0.05008162930607796, 0.052694883197546005, 0.041423648595809937, 0.041683897376060486, 0.07209721207618713, 0.03563233092427254, 0.044251054525375366, 0.10123535245656967, 0.550426721572876, 0.6905919313430786, 0.8461288809776306, 0.7995043396949768, 0.7999531626701355]</t>
+          <t>[0.10354830324649811, 0.05754061043262482, 0.03408576920628548, 0.04724343493580818, 0.0154167041182518, 0.01914146915078163, 0.014398885890841484, 0.010830630548298359, 0.01659051701426506, 0.04969009384512901, 0.04973665252327919, 0.06536867469549179, 0.027384622022509575, 0.015322246588766575, 0.019007474184036255, 0.016716817393898964, 0.013576542027294636, 0.022492820397019386, 0.009479952044785023, 0.011513151228427887, 0.01972065679728985, 0.02495020441710949, 0.011991092935204506, 0.03613676503300667, 0.013926579616963863, 0.008740534074604511, 0.005345892161130905, 0.009603582322597504, 0.005490316078066826, 0.005006302148103714, 0.0033683921210467815, 0.005655787885189056, 0.005908625666052103, 0.01210029423236847, 0.008659674786031246, 0.005108443088829517, 0.005293888971209526, 0.011761980131268501, 0.013420885428786278, 0.009124568663537502, 0.012723200023174286, 0.007928619161248207, 0.013986761681735516, 0.008445419371128082, 0.012353931553661823, 0.010670401155948639, 0.008319266140460968, 0.03163519501686096, 0.0158519484102726, 0.014336141757667065, 0.05328945443034172, 0.02220296300947666, 0.032487642019987106, 0.018781207501888275, 0.010549752973020077, 0.014864006079733372, 0.040981315076351166, 0.08386699855327606, 0.13672809302806854, 0.08169610798358917, 0.041998397558927536, 0.03964395448565483, 0.010816412977874279, 0.011472955346107483, 0.0074694799259305, 0.007334160152822733, 0.011076183058321476, 0.0178487878292799, 0.014777838252484798, 0.008435115218162537, 0.011460446752607822, 0.010783448815345764, 0.008991561830043793, 0.015287729911506176, 0.012731768190860748, 0.02347607910633087, 0.03192143887281418, 0.01760125905275345, 0.011010232381522655, 0.015190290287137032, 0.02046321891248226, 0.018152721226215363, 0.01134396716952324, 0.014250217005610466, 0.011001772247254848, 0.01015142910182476, 0.006576866842806339, 0.005128475837409496, 0.008443886414170265, 0.008636241778731346, 0.004721164703369141, 0.005608857609331608, 0.006912743207067251, 0.01071216631680727, 0.08189542591571808, 0.05407620221376419, 0.029966777190566063, 0.058978237211704254, 0.06182011216878891, 0.20239290595054626, 0.0986395850777626, 0.0717417299747467, 0.07999373227357864, 0.052941638976335526, 0.054320719093084335, 0.11844009160995483, 0.21439695358276367, 0.16229486465454102, 0.27147382497787476, 0.147120401263237, 0.197731614112854, 0.03412092849612236, 0.16092757880687714, 0.20144473016262054, 0.07353862375020981, 0.0440140999853611, 0.021059444174170494, 0.24765948951244354, 0.052017465233802795, 0.057755246758461, 0.06723514944314957, 0.03939994424581528, 0.026186352595686913, 0.011838609352707863, 0.04059941694140434, 0.04343530535697937, 0.044099267572164536, 0.19340305030345917, 0.01886161044239998, 0.03549157455563545, 0.020666852593421936, 0.051554299890995026, 0.03131414204835892, 0.026438944041728973, 0.02792453020811081, 0.023066580295562744, 0.04382609948515892, 0.08580775558948517, 0.05346298962831497, 0.01782514899969101, 0.02254279889166355, 0.022985894232988358, 0.04071735218167305, 0.0680442601442337, 0.02209366485476494, 0.02480238303542137, 0.016315452754497528, 0.017346151173114777, 0.03678249940276146, 0.014881675131618977, 0.023697545751929283, 0.07009182125329971, 0.7425581812858582, 0.9476879835128784, 0.9648812413215637, 0.9449238777160645, 0.9448734521865845]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.8461288809776306</v>
+        <v>0.9648812413215637</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.891250399989076</v>
+        <v>0.9105780999962008</v>
       </c>
       <c r="J151" t="n">
-        <v>0.005676754140057808</v>
+        <v>0.005799860509529941</v>
       </c>
     </row>
     <row r="152">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[0.24648335576057434, 0.07877787947654724, 0.047965157777071, 0.0660930797457695, 0.09364179521799088, 0.27784913778305054, 0.9222440123558044, 0.8935734033584595, 0.9733870625495911, 0.97695392370224, 0.9713706374168396, 0.9558411240577698, 0.9568548798561096, 0.9493533968925476, 0.9827319979667664, 0.9953500032424927, 0.995895504951477, 0.9944825172424316, 0.9916898012161255, 0.9878260493278503, 0.9629494547843933, 0.9456593990325928, 0.981285572052002, 0.9817298650741577, 0.9727283716201782, 0.9760264754295349, 0.9521663188934326, 0.9212889671325684, 0.9338345527648926, 0.9153781533241272, 0.9333580732345581, 0.9088243842124939, 0.6211651563644409, 0.7629675269126892, 0.16545750200748444, 0.1478024423122406, 0.11453315615653992, 0.22621722519397736, 0.10060824453830719, 0.1154847964644432, 0.266906201839447, 0.14296293258666992, 0.16331662237644196, 0.22099879384040833, 0.130080446600914, 0.08005309849977493, 0.07435157150030136, 0.07184834778308868, 0.11823906004428864, 0.09888084977865219, 0.08941099047660828, 0.09792795032262802, 0.08734966069459915, 0.07937033474445343, 0.10389437526464462, 0.12846338748931885, 0.13053102791309357, 0.08413096517324448, 0.11813680082559586, 0.06602310389280319, 0.06183217093348503, 0.029999248683452606, 0.06907588243484497, 0.21974702179431915, 0.8981239795684814, 0.8950899839401245, 0.9361230731010437, 0.9657302498817444, 0.9510406255722046, 0.9184659123420715, 0.9526402354240417, 0.9837554693222046, 0.9874365329742432, 0.9844990372657776, 0.9903621673583984, 0.9878334999084473, 0.984229326248169, 0.9851251840591431, 0.9805160760879517, 0.9829533100128174, 0.966163158416748, 0.976729154586792, 0.9104955792427063, 0.9674473404884338, 0.9734111428260803, 0.9740894436836243, 0.8972715735435486, 0.8997564315795898, 0.9645105600357056, 0.9551307559013367, 0.85584557056427, 0.09927782416343689, 0.26626527309417725, 0.2991129159927368, 0.21478325128555298, 0.11612474918365479, 0.12940236926078796, 0.14993563294410706, 0.09836426377296448, 0.058851636946201324, 0.05730864405632019, 0.04858854040503502, 0.08080989122390747, 0.06969547271728516, 0.07291916757822037, 0.15039823949337006, 0.30013197660446167, 0.5064877867698669, 0.33761441707611084, 0.17563511431217194, 0.1893429309129715, 0.1758546233177185, 0.1293603628873825, 0.05726068839430809, 0.13488803803920746, 0.15035976469516754, 0.054102495312690735, 0.07174598425626755, 0.3930419385433197, 0.8815754055976868, 0.7363780736923218, 0.9025739431381226, 0.9770084023475647, 0.9793432950973511, 0.9365155100822449, 0.9684469699859619, 0.9744179248809814, 0.9599133729934692, 0.9915021657943726, 0.9935630559921265, 0.9886259436607361, 0.9863187074661255, 0.9895520806312561, 0.9793635010719299, 0.9899829626083374, 0.9909789562225342, 0.9871182441711426, 0.9581061005592346, 0.9581182599067688]</t>
+          <t>[0.2958982586860657, 0.06554315239191055, 0.03276472166180611, 0.02797817811369896, 0.049945421516895294, 0.2458067387342453, 0.9622191190719604, 0.9675484299659729, 0.9931282997131348, 0.9932015538215637, 0.9941028952598572, 0.9885246157646179, 0.9902632236480713, 0.9835675954818726, 0.9935396313667297, 0.9981687068939209, 0.9985445737838745, 0.9978621602058411, 0.9955244064331055, 0.9957049489021301, 0.9834874272346497, 0.9717403650283813, 0.994437575340271, 0.9963234663009644, 0.9951979517936707, 0.9938632249832153, 0.9879750609397888, 0.9773412346839905, 0.984691321849823, 0.9652520418167114, 0.9704378247261047, 0.9731177687644958, 0.8080843687057495, 0.888025164604187, 0.13355965912342072, 0.09632446616888046, 0.06963668018579483, 0.23024804890155792, 0.07430831342935562, 0.08479544520378113, 0.2283315658569336, 0.12135830521583557, 0.17882193624973297, 0.29751890897750854, 0.09163380414247513, 0.032217543572187424, 0.027859317138791084, 0.02998165227472782, 0.0600137934088707, 0.0459258072078228, 0.042873941361904144, 0.06893765181303024, 0.05061651021242142, 0.044926661998033524, 0.06692744791507721, 0.09076850116252899, 0.07693606615066528, 0.04728256165981293, 0.061097513884305954, 0.04201672971248627, 0.03996407240629196, 0.013809794560074806, 0.038686297833919525, 0.2636786699295044, 0.9809778928756714, 0.9800369739532471, 0.9845825433731079, 0.9919541478157043, 0.9894607663154602, 0.970790445804596, 0.9910228252410889, 0.9940008521080017, 0.9956448078155518, 0.993676483631134, 0.9962820410728455, 0.9945467710494995, 0.9941844344139099, 0.9948337078094482, 0.995147168636322, 0.9961948394775391, 0.9919049739837646, 0.993361234664917, 0.9404734969139099, 0.9855746030807495, 0.990520715713501, 0.9901465773582458, 0.9424465894699097, 0.9547989964485168, 0.9909332990646362, 0.9914045333862305, 0.9674897193908691, 0.08735612034797668, 0.30359065532684326, 0.2404714971780777, 0.2041773945093155, 0.0911232978105545, 0.11487962305545807, 0.10400167107582092, 0.07439789921045303, 0.040884967893362045, 0.047915708273649216, 0.037404581904411316, 0.06468721479177475, 0.0633520856499672, 0.0636725202202797, 0.17080500721931458, 0.3382095396518707, 0.6342830061912537, 0.5082051753997803, 0.19435957074165344, 0.2391843944787979, 0.19936387240886688, 0.13348844647407532, 0.02330511249601841, 0.09188523143529892, 0.0971621721982956, 0.02405974641442299, 0.040027596056461334, 0.3199986517429352, 0.9449864625930786, 0.8271616697311401, 0.9725587368011475, 0.9919348955154419, 0.9946452379226685, 0.9798437356948853, 0.9841029644012451, 0.9883140325546265, 0.9814348220825195, 0.9964697360992432, 0.9977686405181885, 0.9959980249404907, 0.9962694644927979, 0.996644914150238, 0.9934706687927246, 0.9975628852844238, 0.9978556036949158, 0.9950398802757263, 0.9897589683532715, 0.989781379699707]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.9958955049514771</v>
+        <v>0.9985445737838745</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.7895143000059761</v>
+        <v>0.7930210999911651</v>
       </c>
       <c r="J152" t="n">
-        <v>0.005679958992848749</v>
+        <v>0.005705187769720612</v>
       </c>
     </row>
     <row r="153">
@@ -6645,11 +6645,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[0.6617669463157654, 0.3881032466888428, 0.3271770477294922, 0.2876031994819641, 0.4092210531234741, 0.6082374453544617, 0.7094050049781799, 0.4581014811992645, 0.6404622197151184, 0.7536274194717407, 0.7640053629875183, 0.8393422365188599, 0.6988552212715149, 0.8736330270767212, 0.8852961659431458, 0.9127036333084106, 0.9594513773918152, 0.9412713050842285, 0.942932665348053, 0.9529553651809692, 0.849543571472168, 0.727138340473175, 0.8239028453826904, 0.6969084739685059, 0.7736754417419434, 0.7293815612792969, 0.7644131779670715, 0.7766063213348389, 0.8977893590927124, 0.8947789072990417, 0.6692756414413452, 0.6748325824737549, 0.9341874122619629, 0.8306635022163391, 0.8813127279281616, 0.8103612661361694, 0.8385124802589417, 0.8048547506332397, 0.8213850855827332, 0.6615931391716003, 0.8384166955947876, 0.6636796593666077, 0.5182862281799316, 0.3549596071243286, 0.16885210573673248, 0.21301421523094177, 0.39498355984687805, 0.7910346388816833, 0.8831906318664551, 0.8735339045524597, 0.9082219004631042, 0.9607702493667603, 0.9467790126800537, 0.9377333521842957, 0.8953832983970642, 0.9401744604110718, 0.9345584511756897, 0.8947521448135376, 0.8002797365188599, 0.6736679077148438, 0.6723242402076721, 0.4329906404018402, 0.4611124098300934, 0.517951250076294, 0.7562674880027771, 0.93091881275177, 0.92338627576828, 0.8969195485115051, 0.9464677572250366, 0.9559212923049927, 0.9112849831581116, 0.7868795990943909, 0.5278385281562805, 0.5895664691925049, 0.44171231985092163, 0.4556277394294739, 0.3606281578540802, 0.38858991861343384, 0.11064593493938446, 0.12164793908596039, 0.12448850274085999, 0.17402665317058563, 0.46826010942459106, 0.794998824596405, 0.6896712779998779, 0.8229818344116211, 0.7247511148452759, 0.7388284802436829, 0.8588136434555054, 0.8116508722305298, 0.7085162401199341, 0.8445746302604675, 0.8198921084403992, 0.8389674425125122, 0.4612082242965698, 0.6986928582191467, 0.6321559548377991, 0.7798274755477905, 0.6481504440307617, 0.3840278089046478, 0.4070670008659363, 0.8384631872177124, 0.7969844341278076, 0.8787981271743774, 0.8009257316589355, 0.7675029039382935, 0.7939893007278442, 0.9284960627555847, 0.8431671857833862, 0.8055991530418396, 0.7243743538856506, 0.7271541357040405, 0.828669011592865, 0.7780966758728027, 0.8054306507110596, 0.7706828117370605, 0.6523411870002747, 0.7601988911628723, 0.7067124843597412, 0.5418153405189514, 0.617723286151886, 0.5562793612480164, 0.535729169845581, 0.7347530722618103, 0.7091724276542664, 0.5821937322616577, 0.8205040097236633, 0.5651242136955261, 0.5118630528450012, 0.6104022264480591, 0.6253814101219177, 0.562591016292572, 0.4722607433795929, 0.2969149649143219, 0.6226920485496521, 0.5188149213790894, 0.35909390449523926, 0.2720063328742981, 0.1840122491121292, 0.21344369649887085, 0.30504322052001953, 0.28412508964538574, 0.3530219793319702, 0.42845776677131653, 0.4261947274208069, 0.3125040531158447, 0.24825376272201538, 0.12847177684307098, 0.16113144159317017, 0.1378260999917984, 0.2911377251148224, 0.33900171518325806, 0.24717047810554504, 0.23797647655010223, 0.1823287159204483, 0.2408776432275772, 0.28373757004737854, 0.2823701500892639]</t>
+          <t>[0.5486797094345093, 0.29930388927459717, 0.2713533341884613, 0.21229639649391174, 0.40741896629333496, 0.6414764523506165, 0.785026490688324, 0.47161194682121277, 0.7256863117218018, 0.7916115522384644, 0.8325042724609375, 0.8828901648521423, 0.710568368434906, 0.8929137587547302, 0.9394592046737671, 0.9473506212234497, 0.9800295233726501, 0.9607099294662476, 0.9550795555114746, 0.973944365978241, 0.8866925239562988, 0.7867220640182495, 0.9103381633758545, 0.8052401542663574, 0.8716175556182861, 0.8494147658348083, 0.8753021955490112, 0.8609235882759094, 0.9438895583152771, 0.9478225708007812, 0.7547714710235596, 0.8389949798583984, 0.9767473340034485, 0.9364198446273804, 0.9615091681480408, 0.9192902445793152, 0.8841865658760071, 0.8745154142379761, 0.8863732218742371, 0.7736771702766418, 0.8980225324630737, 0.7221178412437439, 0.5318590998649597, 0.46482905745506287, 0.1539297103881836, 0.23213009536266327, 0.45869192481040955, 0.850931704044342, 0.9530766606330872, 0.9343193769454956, 0.9489172697067261, 0.9847530722618103, 0.9755580425262451, 0.9760450124740601, 0.9479124546051025, 0.9681040644645691, 0.9686242938041687, 0.9392798542976379, 0.8782781958580017, 0.7711891531944275, 0.7134101390838623, 0.46085044741630554, 0.47698327898979187, 0.49633678793907166, 0.8521194458007812, 0.9600998163223267, 0.955706775188446, 0.9383144378662109, 0.9708960652351379, 0.9772211313247681, 0.9387348890304565, 0.8261697292327881, 0.45764094591140747, 0.5328753590583801, 0.36379101872444153, 0.33456695079803467, 0.24078218638896942, 0.30831193923950195, 0.06464903056621552, 0.0735926553606987, 0.06271623075008392, 0.09732907265424728, 0.37576112151145935, 0.7488806843757629, 0.6005786657333374, 0.8429003357887268, 0.685215950012207, 0.6882805228233337, 0.8401957154273987, 0.8349339962005615, 0.6871243715286255, 0.8297424912452698, 0.8251351118087769, 0.8915966153144836, 0.45857954025268555, 0.7363772392272949, 0.6258609294891357, 0.8363642692565918, 0.7059424519538879, 0.3825341761112213, 0.48789578676223755, 0.8608028292655945, 0.7474560737609863, 0.8781343102455139, 0.8878498673439026, 0.8520010709762573, 0.8572469353675842, 0.9595809578895569, 0.8611812591552734, 0.8451903462409973, 0.7674631476402283, 0.7150623798370361, 0.8726904988288879, 0.8176520466804504, 0.8889132142066956, 0.8751150965690613, 0.7824822664260864, 0.8768875598907471, 0.8243364691734314, 0.5843613147735596, 0.7283787131309509, 0.7137662172317505, 0.6056989431381226, 0.8346382975578308, 0.7808068990707397, 0.6589893102645874, 0.8515883684158325, 0.6452194452285767, 0.5530973076820374, 0.6111806631088257, 0.6930162906646729, 0.551952600479126, 0.430938184261322, 0.29034191370010376, 0.6631109118461609, 0.44794872403144836, 0.32166650891304016, 0.23813334107398987, 0.13961243629455566, 0.16212812066078186, 0.3107043504714966, 0.31441420316696167, 0.36186906695365906, 0.3814402222633362, 0.3085164427757263, 0.2609865963459015, 0.26405683159828186, 0.10687816888093948, 0.13230043649673462, 0.11124403774738312, 0.2722533941268921, 0.3021678030490875, 0.21442322432994843, 0.22407513856887817, 0.13753627240657806, 0.25052937865257263, 0.24679943919181824, 0.24547912180423737]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9607702493667603</v>
+        <v>0.9847530722618103</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0.8957205999759026</v>
+        <v>0.9039328999933787</v>
       </c>
       <c r="J153" t="n">
-        <v>0.005669117721366472</v>
+        <v>0.005721094303755561</v>
       </c>
     </row>
     <row r="154">
@@ -6685,11 +6685,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[0.1187044307589531, 0.21254293620586395, 0.2412727177143097, 0.09074962884187698, 0.14131543040275574, 0.2806311547756195, 0.26861321926116943, 0.35369250178337097, 0.27374204993247986, 0.29653289914131165, 0.24652181565761566, 0.13126112520694733, 0.06857052445411682, 0.0334329828619957, 0.06137281656265259, 0.09201360493898392, 0.07195628434419632, 0.42149075865745544, 0.5316595435142517, 0.7002718448638916, 0.81402188539505, 0.7230640053749084, 0.8064709901809692, 0.8176372051239014, 0.8489798903465271, 0.9022905826568604, 0.848330020904541, 0.6570572853088379, 0.6099033355712891, 0.5559911727905273, 0.588198721408844, 0.459404855966568, 0.43500879406929016, 0.46204057335853577, 0.18160924315452576, 0.2923748195171356, 0.19458697736263275, 0.18632860481739044, 0.12942393124103546, 0.30988991260528564, 0.6793068647384644, 0.7398629188537598, 0.437360942363739, 0.3936578035354614, 0.33106300234794617, 0.3681763708591461, 0.24712218344211578, 0.27524375915527344, 0.11268316954374313, 0.22587651014328003, 0.19236521422863007, 0.05032952502369881, 0.19570806622505188, 0.30166786909103394, 0.22487424314022064, 0.1480768769979477, 0.25754761695861816, 0.5102560520172119, 0.3488212823867798, 0.4731367230415344, 0.13695843517780304, 0.15381263196468353, 0.06181173026561737, 0.3039056956768036, 0.30820173025131226, 0.33487793803215027, 0.2407802790403366, 0.1798928827047348, 0.1801435947418213, 0.5077861547470093, 0.20267751812934875, 0.07318071275949478, 0.07585132122039795, 0.06535544991493225, 0.08138148486614227, 0.05436437204480171, 0.062085263431072235, 0.07733669131994247, 0.07196158170700073, 0.10848472267389297, 0.0819212943315506, 0.05308857932686806, 0.06616002321243286, 0.05158202350139618, 0.06141740083694458, 0.04091143235564232, 0.03159550204873085, 0.040859900414943695, 0.04060860350728035, 0.04612673819065094, 0.04464904963970184, 0.05743084102869034, 0.0408550463616848, 0.04629587009549141, 0.05648364499211311, 0.055172473192214966, 0.04922956973314285, 0.03340020775794983, 0.020244726911187172, 0.02152418904006481, 0.04169422388076782, 0.06228644400835037, 0.0683019682765007, 0.06550902873277664, 0.4723878800868988, 0.4962860345840454, 0.4370809495449066, 0.39292147755622864, 0.19064638018608093, 0.15921030938625336, 0.3305528163909912, 0.44081366062164307, 0.291485071182251, 0.2029901146888733, 0.48267126083374023, 0.6239980459213257, 0.5538228750228882, 0.5417620539665222, 0.5963637828826904, 0.5311980247497559, 0.38822469115257263, 0.12221022695302963, 0.29939231276512146, 0.23411758244037628, 0.25210314989089966, 0.1973581314086914, 0.52627032995224, 0.7251357436180115, 0.6877886652946472, 0.7831282019615173, 0.5817157626152039, 0.38670724630355835, 0.4368171989917755, 0.3269481956958771, 0.1457550972700119, 0.20562610030174255, 0.3713512718677521, 0.5085894465446472, 0.6561921238899231, 0.8144488334655762, 0.6656375527381897, 0.35967570543289185, 0.17620453238487244, 0.325783908367157, 0.26640886068344116, 0.18791556358337402, 0.16284939646720886, 0.247663214802742, 0.25123634934425354, 0.14460362493991852, 0.1600683480501175, 0.0804586261510849, 0.10330558568239212, 0.09514089673757553, 0.05916431546211243, 0.043315984308719635, 0.26321297883987427, 0.25730159878730774]</t>
+          <t>[0.10688241571187973, 0.1885795146226883, 0.19945859909057617, 0.0705999881029129, 0.22455249726772308, 0.419476717710495, 0.28644052147865295, 0.38414710760116577, 0.36674928665161133, 0.32531309127807617, 0.34194305539131165, 0.1700194627046585, 0.05845552310347557, 0.019668782129883766, 0.031503185629844666, 0.087248794734478, 0.07580835372209549, 0.677978515625, 0.7491465210914612, 0.8945716619491577, 0.9276517033576965, 0.9269080758094788, 0.9426442384719849, 0.9238635301589966, 0.9302172660827637, 0.9690234065055847, 0.9467447400093079, 0.8275481462478638, 0.8318872451782227, 0.6910039186477661, 0.7087354063987732, 0.7535817623138428, 0.6935674548149109, 0.6309258341789246, 0.36566123366355896, 0.5519922375679016, 0.3744277358055115, 0.30626097321510315, 0.17744101583957672, 0.498892217874527, 0.8881728649139404, 0.9063804149627686, 0.7205708622932434, 0.6033568382263184, 0.5162217617034912, 0.5721767544746399, 0.38478901982307434, 0.40526890754699707, 0.1390201598405838, 0.3416646420955658, 0.3461923897266388, 0.05626421421766281, 0.4046104848384857, 0.5802168846130371, 0.34949547052383423, 0.18655744194984436, 0.4738914370536804, 0.7993731498718262, 0.7421225905418396, 0.6312693953514099, 0.242325097322464, 0.1815187931060791, 0.0445285327732563, 0.4624735713005066, 0.35946938395500183, 0.3196014165878296, 0.18520542979240417, 0.13389316201210022, 0.14264385402202606, 0.575496256351471, 0.2092801183462143, 0.031943004578351974, 0.05178804695606232, 0.04923215135931969, 0.05865492671728134, 0.030956938862800598, 0.04999257251620293, 0.06522344797849655, 0.09525635093450546, 0.15385763347148895, 0.08812935650348663, 0.031725794076919556, 0.059487901628017426, 0.039172276854515076, 0.04775811731815338, 0.029328856617212296, 0.017580745741724968, 0.024134987965226173, 0.023022854700684547, 0.027700275182724, 0.027367817237973213, 0.04705580696463585, 0.023733416572213173, 0.027673790231347084, 0.039898842573165894, 0.040852680802345276, 0.03241821378469467, 0.01650085300207138, 0.008881373330950737, 0.009412167593836784, 0.022118309512734413, 0.0445680245757103, 0.061267536133527756, 0.06895371526479721, 0.78813236951828, 0.7141087651252747, 0.588676393032074, 0.4886857271194458, 0.21070003509521484, 0.20220376551151276, 0.5230913162231445, 0.6621175408363342, 0.47481417655944824, 0.3888211250305176, 0.7662456631660461, 0.8478636741638184, 0.7636112570762634, 0.7486729025840759, 0.7855389714241028, 0.7735174298286438, 0.6870982050895691, 0.34951362013816833, 0.6389667391777039, 0.4047884941101074, 0.35781851410865784, 0.2856440544128418, 0.6974629163742065, 0.8884783387184143, 0.8952892422676086, 0.9255371689796448, 0.8333213925361633, 0.6625489592552185, 0.6497294902801514, 0.5047098994255066, 0.232334703207016, 0.2747028172016144, 0.655718207359314, 0.7486290335655212, 0.9103907346725464, 0.9586536884307861, 0.9063078761100769, 0.7168113589286804, 0.39256957173347473, 0.5969105362892151, 0.5657195448875427, 0.3731324374675751, 0.36750638484954834, 0.5565199255943298, 0.5364671945571899, 0.22956441342830658, 0.34058621525764465, 0.13106055557727814, 0.1443982720375061, 0.12894168496131897, 0.05064661428332329, 0.03986811637878418, 0.6191303133964539, 0.6067070364952087]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.9022905826568604</v>
+        <v>0.9690234065055847</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0.8955832000065129</v>
+        <v>0.8991573999956017</v>
       </c>
       <c r="J154" t="n">
-        <v>0.005668248101307044</v>
+        <v>0.005690869620225327</v>
       </c>
     </row>
     <row r="155">
@@ -6725,11 +6725,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[0.6575571298599243, 0.7245357036590576, 0.6546563506126404, 0.5832839608192444, 0.556646466255188, 0.2612689733505249, 0.25575515627861023, 0.34989452362060547, 0.4915764629840851, 0.46216845512390137, 0.4053831398487091, 0.37542086839675903, 0.661884605884552, 0.38887348771095276, 0.3224535286426544, 0.12695005536079407, 0.0699603334069252, 0.059960056096315384, 0.04572944715619087, 0.04098202660679817, 0.05852729082107544, 0.08799856901168823, 0.11797314882278442, 0.3646667003631592, 0.6818569898605347, 0.8072853684425354, 0.7333627343177795, 0.24363115429878235, 0.2902911305427551, 0.6018009185791016, 0.5476531982421875, 0.553546667098999, 0.42250773310661316, 0.4444343149662018, 0.6936588287353516, 0.5336192846298218, 0.5983113646507263, 0.32259318232536316, 0.20117637515068054, 0.1199880838394165, 0.45595717430114746, 0.7817822694778442, 0.7437537908554077, 0.41002270579338074, 0.22442269325256348, 0.23391026258468628, 0.6310230493545532, 0.45647189021110535, 0.37211930751800537, 0.17942719161510468, 0.32639166712760925, 0.17668603360652924, 0.150737002491951, 0.2911771833896637, 0.1990395188331604, 0.14130361378192902, 0.30999019742012024, 0.5599210858345032, 0.4970342516899109, 0.5988855361938477, 0.5625988245010376, 0.29443252086639404, 0.3695935010910034, 0.7795021533966064, 0.7338777780532837, 0.46951380372047424, 0.3379199504852295, 0.23899279534816742, 0.1873403787612915, 0.48515740036964417, 0.47624966502189636, 0.66941237449646, 0.8376550674438477, 0.8781189322471619, 0.756148636341095, 0.504983127117157, 0.5899685621261597, 0.5654467344284058, 0.5959112048149109, 0.699962854385376, 0.46832719445228577, 0.6284446716308594, 0.6432743072509766, 0.6409221291542053, 0.7346212267875671, 0.8397993445396423, 0.8512136340141296, 0.7081072330474854, 0.4876086711883545, 0.30966851115226746, 0.09142695367336273, 0.09494534134864807, 0.08078311383724213, 0.07402671128511429, 0.1082611009478569, 0.08460786938667297, 0.08209001272916794, 0.05187198519706726, 0.047383468598127365, 0.043795958161354065, 0.04961879551410675, 0.12640944123268127, 0.041630927473306656, 0.046494416892528534, 0.06799141317605972, 0.07584389299154282, 0.14959116280078888, 0.29317888617515564, 0.490812748670578, 0.17212586104869843, 0.06525235623121262, 0.057412080466747284, 0.13357853889465332, 0.5935893654823303, 0.2441345602273941, 0.21300473809242249, 0.1618398278951645, 0.3657722771167755, 0.4221322238445282, 0.29013702273368835, 0.5815210342407227, 0.3659072816371918, 0.5841544270515442, 0.3740265667438507, 0.4501957297325134, 0.2608800232410431, 0.6235835552215576, 0.6041984558105469, 0.2695273458957672, 0.3812324106693268, 0.5585498809814453, 0.4463655948638916, 0.500389039516449, 0.24958181381225586, 0.4657239317893982, 0.21852222084999084, 0.21307311952114105, 0.24963919818401337, 0.47002172470092773, 0.5326659083366394, 0.675768256187439, 0.6070337891578674, 0.3951302468776703, 0.36158522963523865, 0.20062969624996185, 0.41308873891830444, 0.4253915548324585, 0.2876390218734741, 0.3851681351661682, 0.6585005521774292, 0.5728439688682556, 0.522573709487915, 0.6016196608543396, 0.4043810963630676, 0.430149108171463, 0.5332814455032349, 0.6100528240203857, 0.6102995872497559]</t>
+          <t>[0.8415142893791199, 0.9053533673286438, 0.864202082157135, 0.7824833393096924, 0.7092621922492981, 0.3468981683254242, 0.3433995842933655, 0.4599125385284424, 0.7323033213615417, 0.6002901196479797, 0.5801188349723816, 0.54886394739151, 0.747869074344635, 0.420951247215271, 0.3477681279182434, 0.1203320175409317, 0.046419184654951096, 0.04455454275012016, 0.026152677834033966, 0.02272823639214039, 0.02952282875776291, 0.05417260527610779, 0.09610111266374588, 0.520584225654602, 0.8656994700431824, 0.932094395160675, 0.9143664240837097, 0.5153414011001587, 0.4777037501335144, 0.8889151811599731, 0.8285999298095703, 0.8192132115364075, 0.5496436953544617, 0.5827457904815674, 0.8907371759414673, 0.6947174072265625, 0.8734354972839355, 0.48018303513526917, 0.2480151504278183, 0.18584516644477844, 0.6579664945602417, 0.9098368883132935, 0.897960901260376, 0.6886330246925354, 0.46238306164741516, 0.46809184551239014, 0.8569010496139526, 0.7768241167068481, 0.7320147156715393, 0.4403833746910095, 0.652696967124939, 0.4539652168750763, 0.25260379910469055, 0.5969739556312561, 0.41606050729751587, 0.32927608489990234, 0.6533792614936829, 0.8451460003852844, 0.721014678478241, 0.8163131475448608, 0.7561512589454651, 0.6365568041801453, 0.7338472008705139, 0.9487740993499756, 0.9231889247894287, 0.7521190643310547, 0.6542041301727295, 0.41613098978996277, 0.4033561050891876, 0.7592716813087463, 0.7871858477592468, 0.922538161277771, 0.9696034789085388, 0.9733375906944275, 0.9635072350502014, 0.8269901275634766, 0.8445824980735779, 0.7985108494758606, 0.7595183253288269, 0.785196840763092, 0.46295252442359924, 0.7736968994140625, 0.7730262279510498, 0.7770057320594788, 0.8495210409164429, 0.938025176525116, 0.9409051537513733, 0.8948661088943481, 0.6304470896720886, 0.41027405858039856, 0.1672600954771042, 0.09996961057186127, 0.0747700110077858, 0.06741378456354141, 0.13322387635707855, 0.09553191810846329, 0.06336171925067902, 0.03709205240011215, 0.034046970307826996, 0.039282020181417465, 0.05032709240913391, 0.21357257664203644, 0.026994256302714348, 0.033671680837869644, 0.04736582934856415, 0.065674789249897, 0.21981990337371826, 0.4290604293346405, 0.6610255241394043, 0.22478382289409637, 0.06990963965654373, 0.043115582317113876, 0.10350100696086884, 0.7347332239151001, 0.3703632652759552, 0.21800504624843597, 0.14646737277507782, 0.45443010330200195, 0.6796535849571228, 0.4163430333137512, 0.7530831098556519, 0.4487625062465668, 0.673448383808136, 0.37289178371429443, 0.5745434761047363, 0.2956021726131439, 0.7757442593574524, 0.7601673007011414, 0.2918960154056549, 0.3788753151893616, 0.6357643604278564, 0.6049571633338928, 0.7310128211975098, 0.22016645967960358, 0.6032271385192871, 0.2870476543903351, 0.2978218197822571, 0.30247363448143005, 0.6508113145828247, 0.7260579466819763, 0.8363142013549805, 0.8003813624382019, 0.592862069606781, 0.6081587076187134, 0.3694736361503601, 0.6410893797874451, 0.5976909399032593, 0.4813372492790222, 0.6678004860877991, 0.840983510017395, 0.7459968328475952, 0.6991399526596069, 0.7090075612068176, 0.41816240549087524, 0.562777042388916, 0.6649514436721802, 0.7218255400657654, 0.720483660697937]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.8781189322471619</v>
+        <v>0.9733375906944275</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.8872002999996766</v>
+        <v>0.9100251000054413</v>
       </c>
       <c r="J155" t="n">
-        <v>0.005615191772149852</v>
+        <v>0.005759652531680009</v>
       </c>
     </row>
     <row r="156">
@@ -6765,11 +6765,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[0.6046484112739563, 0.8018335103988647, 0.8704707026481628, 0.9065344333648682, 0.6855182647705078, 0.84288489818573, 0.8417161703109741, 0.47965437173843384, 0.3205762207508087, 0.2303767204284668, 0.1697573959827423, 0.2630748152732849, 0.2539534270763397, 0.4778606593608856, 0.3695606291294098, 0.5644322037696838, 0.8115867972373962, 0.6714810132980347, 0.8134745359420776, 0.9530805349349976, 0.9175090193748474, 0.7607580423355103, 0.8187730312347412, 0.838686466217041, 0.7772005796432495, 0.9526099562644958, 0.9667654037475586, 0.9090380668640137, 0.7587850093841553, 0.7168389558792114, 0.8246909379959106, 0.6946375966072083, 0.8983678817749023, 0.8332687616348267, 0.7926729917526245, 0.5163584351539612, 0.6997272968292236, 0.6169050931930542, 0.6815468668937683, 0.7662771344184875, 0.5099632143974304, 0.43490633368492126, 0.30072030425071716, 0.7135337591171265, 0.714934766292572, 0.4540005326271057, 0.4678563177585602, 0.7162528038024902, 0.775398313999176, 0.7144448161125183, 0.630997359752655, 0.7435386776924133, 0.8584533929824829, 0.66798996925354, 0.5889660716056824, 0.8419356346130371, 0.8690564036369324, 0.769568920135498, 0.666841983795166, 0.38830065727233887, 0.40251025557518005, 0.27657631039619446, 0.3229158818721771, 0.30300450325012207, 0.4657400846481323, 0.5261229872703552, 0.8826940655708313, 0.753129243850708, 0.7618609666824341, 0.765129566192627, 0.7861472964286804, 0.7468076348304749, 0.485310435295105, 0.6799088716506958, 0.8378009796142578, 0.8999118804931641, 0.959345817565918, 0.9471796751022339, 0.934526801109314, 0.9392044544219971, 0.9254822134971619, 0.8105054497718811, 0.7006264925003052, 0.7232224941253662, 0.6619360446929932, 0.7252921462059021, 0.5776215195655823, 0.8234768509864807, 0.8062475919723511, 0.6475444436073303, 0.825199544429779, 0.8071691393852234, 0.878346860408783, 0.8656154870986938, 0.5269117951393127, 0.40188857913017273, 0.6304219961166382, 0.5776397585868835, 0.6106706261634827, 0.38253694772720337, 0.4733235836029053, 0.7320507764816284, 0.9035614132881165, 0.8991591334342957, 0.8657318353652954, 0.6808727979660034, 0.6492071151733398, 0.445843905210495, 0.5143972635269165, 0.253060907125473, 0.2113114595413208, 0.5033766627311707, 0.4614701271057129, 0.6914564371109009, 0.7367144823074341, 0.8509781360626221, 0.9056375026702881, 0.8217694163322449, 0.8471702933311462, 0.7366763353347778, 0.7555855512619019, 0.6340854167938232, 0.6845979690551758, 0.6603489518165588, 0.8402907848358154, 0.7980619072914124, 0.897226095199585, 0.9115504622459412, 0.9733110666275024, 0.9341336488723755, 0.6311633586883545, 0.674077033996582, 0.7647618651390076, 0.9224727153778076, 0.8273590207099915, 0.7909897565841675, 0.666027307510376, 0.43143558502197266, 0.3294946253299713, 0.3051774799823761, 0.2314148098230362, 0.21791128814220428, 0.354777455329895, 0.5448224544525146, 0.41618233919143677, 0.17133857309818268, 0.19079214334487915, 0.43569210171699524, 0.3304774761199951, 0.730854332447052, 0.8806911706924438, 0.9067071676254272, 0.8040991425514221, 0.8027147054672241, 0.8140583038330078, 0.5687520503997803, 0.5730656981468201]</t>
+          <t>[0.6322817206382751, 0.8469797968864441, 0.9496562480926514, 0.9579590559005737, 0.8252426385879517, 0.93315190076828, 0.9422988295555115, 0.6475655436515808, 0.41211816668510437, 0.24692203104496002, 0.14531689882278442, 0.27262377738952637, 0.2685089111328125, 0.660620391368866, 0.6313090920448303, 0.7268086671829224, 0.9043325781822205, 0.8482791781425476, 0.8893784880638123, 0.9819761514663696, 0.9378603100776672, 0.6853466033935547, 0.8830885291099548, 0.8083665370941162, 0.7961663007736206, 0.9841926693916321, 0.9883782267570496, 0.9334800243377686, 0.7434569597244263, 0.765062153339386, 0.8911826610565186, 0.8003137707710266, 0.9502550959587097, 0.8719615340232849, 0.8500304818153381, 0.5241799354553223, 0.7088421583175659, 0.5594261884689331, 0.6253401041030884, 0.7179515957832336, 0.5703526139259338, 0.3929060101509094, 0.22199030220508575, 0.8348360657691956, 0.7974963188171387, 0.5150453448295593, 0.44362419843673706, 0.7679826021194458, 0.8213291764259338, 0.7569687962532043, 0.5673503279685974, 0.7363407015800476, 0.8757996559143066, 0.4943237006664276, 0.4395475685596466, 0.8556822538375854, 0.8926982879638672, 0.7182259559631348, 0.6378771066665649, 0.23252969980239868, 0.2886430025100708, 0.15822267532348633, 0.17659680545330048, 0.15669824182987213, 0.33992061018943787, 0.426237553358078, 0.9234206676483154, 0.7774404287338257, 0.7155949473381042, 0.7466979622840881, 0.774466335773468, 0.6370836496353149, 0.26830050349235535, 0.5801027417182922, 0.816119372844696, 0.9098796248435974, 0.978289008140564, 0.9697027802467346, 0.9471298456192017, 0.949323832988739, 0.9518694281578064, 0.8261874318122864, 0.6032047867774963, 0.7859214544296265, 0.6422573924064636, 0.6550513505935669, 0.47901681065559387, 0.780503511428833, 0.8381869196891785, 0.6059796810150146, 0.8087499737739563, 0.7652000188827515, 0.9101743102073669, 0.8563939332962036, 0.31725868582725525, 0.20458829402923584, 0.39695534110069275, 0.3765050172805786, 0.36040088534355164, 0.13919658958911896, 0.23159392178058624, 0.5730517506599426, 0.9200942516326904, 0.9191046953201294, 0.9122738242149353, 0.6989569067955017, 0.5427561402320862, 0.39486899971961975, 0.48207053542137146, 0.19044582545757294, 0.09951493889093399, 0.4450944662094116, 0.4052450954914093, 0.6859855055809021, 0.7544081211090088, 0.8665459752082825, 0.9495475888252258, 0.8451176285743713, 0.8990340232849121, 0.6713208556175232, 0.6987370252609253, 0.47545546293258667, 0.5855979323387146, 0.5190522074699402, 0.8604152202606201, 0.8027535080909729, 0.9171023964881897, 0.9300961494445801, 0.9823622107505798, 0.9434758424758911, 0.3963008522987366, 0.46322450041770935, 0.7125958204269409, 0.9568458199501038, 0.8310097455978394, 0.7430164217948914, 0.5003874897956848, 0.21436938643455505, 0.13409782946109772, 0.1292615681886673, 0.08016946166753769, 0.08511172980070114, 0.17587654292583466, 0.38103070855140686, 0.3170737624168396, 0.08107142150402069, 0.0696919858455658, 0.38059040904045105, 0.2591959834098816, 0.7389546036720276, 0.9460987448692322, 0.9700462818145752, 0.8698533177375793, 0.817897617816925, 0.9171165227890015, 0.6391838788986206, 0.6440377235412598]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.9733110666275024</v>
+        <v>0.9883782267570496</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.8828949999879114</v>
+        <v>0.8951590999931796</v>
       </c>
       <c r="J156" t="n">
-        <v>0.005623535031770137</v>
+        <v>0.005701650318427895</v>
       </c>
     </row>
     <row r="157">
@@ -6805,11 +6805,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[0.45909950137138367, 0.29377487301826477, 0.21547821164131165, 0.2229139357805252, 0.13420967757701874, 0.19496186077594757, 0.3981887102127075, 0.49143174290657043, 0.3653077185153961, 0.4612601697444916, 0.40996935963630676, 0.5990388989448547, 0.522874653339386, 0.4729575216770172, 0.28749725222587585, 0.3743947744369507, 0.4548853933811188, 0.2654413878917694, 0.18716350197792053, 0.45772889256477356, 0.6038597822189331, 0.7141343355178833, 0.7726249098777771, 0.7818593382835388, 0.9807615876197815, 0.9914892911911011, 0.9895662069320679, 0.8953538537025452, 0.22402305901050568, 0.3067113161087036, 0.22789700329303741, 0.32919517159461975, 0.3051213026046753, 0.3438764810562134, 0.10453416407108307, 0.12828601896762848, 0.17030975222587585, 0.1388244777917862, 0.11662519723176956, 0.21062278747558594, 0.23587548732757568, 0.8486089110374451, 0.7375024557113647, 0.882055401802063, 0.8389365673065186, 0.9171375036239624, 0.963726818561554, 0.9415495991706848, 0.9678339958190918, 0.9612781405448914, 0.9790473580360413, 0.9730911254882812, 0.9628855586051941, 0.9440396428108215, 0.9500465393066406, 0.7823474407196045, 0.9120023846626282, 0.8895756602287292, 0.8960132598876953, 0.8763764500617981, 0.7046959400177002, 0.7130590081214905, 0.8112469911575317, 0.8520830869674683, 0.8298577666282654, 0.6925015449523926, 0.5954535007476807, 0.4303816854953766, 0.793695867061615, 0.6268659234046936, 0.704762876033783, 0.6020105481147766, 0.8060733675956726, 0.8162173628807068, 0.6188201308250427, 0.6903048753738403, 0.6866665482521057, 0.570980966091156, 0.5072029232978821, 0.6204084753990173, 0.6282956004142761, 0.4925626218318939, 0.47763413190841675, 0.3966776728630066, 0.5024367570877075, 0.5108298659324646, 0.3627168834209442, 0.5080330967903137, 0.3207496404647827, 0.3097058832645416, 0.40739893913269043, 0.37735360860824585, 0.43202313780784607, 0.3576468825340271, 0.2975185811519623, 0.3082691729068756, 0.49461308121681213, 0.385811984539032, 0.49959075450897217, 0.26868847012519836, 0.3630973994731903, 0.5907642841339111, 0.8988510370254517, 0.9242249727249146, 0.5737850069999695, 0.25228235125541687, 0.30263400077819824, 0.23825807869434357, 0.23274758458137512, 0.2662964463233948, 0.10329873859882355, 0.07290051877498627, 0.18900926411151886, 0.14720475673675537, 0.14666740596294403, 0.304843544960022, 0.22458860278129578, 0.1405256688594818, 0.24887502193450928, 0.24153445661067963, 0.25307443737983704, 0.2838813364505768, 0.6638692617416382, 0.6075502634048462, 0.570832371711731, 0.34790506958961487, 0.5248452425003052, 0.7646388411521912, 0.5275574326515198, 0.36768707633018494, 0.5187422633171082, 0.4355139136314392, 0.38708755373954773, 0.4706173241138458, 0.35592564940452576, 0.30347245931625366, 0.3655046820640564, 0.5492478013038635, 0.35704535245895386, 0.26264721155166626, 0.28483831882476807, 0.3080079257488251, 0.35301223397254944, 0.39868536591529846, 0.7511325478553772, 0.5768746137619019, 0.4512532949447632, 0.6705225706100464, 0.4596407115459442, 0.5192469954490662, 0.3223104774951935, 0.19978833198547363, 0.4043007791042328, 0.24160754680633545, 0.14989525079727173, 0.3048022389411926, 0.23230522871017456, 0.2306813895702362]</t>
+          <t>[0.7063452005386353, 0.39007556438446045, 0.2737559974193573, 0.245143324136734, 0.09957529604434967, 0.1498992145061493, 0.30327266454696655, 0.5385861992835999, 0.5018260478973389, 0.5774219036102295, 0.5414745211601257, 0.7620106935501099, 0.6846712827682495, 0.6272533535957336, 0.4385596215724945, 0.5697557330131531, 0.5890680551528931, 0.5006130337715149, 0.23935680091381073, 0.681107223033905, 0.7864364981651306, 0.8410941362380981, 0.8455201387405396, 0.8194444179534912, 0.9875934720039368, 0.9950320720672607, 0.9965283274650574, 0.9686636924743652, 0.28422755002975464, 0.3309479355812073, 0.1653258502483368, 0.36511582136154175, 0.36877548694610596, 0.4182172119617462, 0.06937019526958466, 0.06731667369604111, 0.09132115542888641, 0.0848642960190773, 0.05544595047831535, 0.11884821951389313, 0.1505603939294815, 0.8902834057807922, 0.6809419989585876, 0.9365581274032593, 0.9213642477989197, 0.9469424486160278, 0.9845134615898132, 0.9693026542663574, 0.9810311198234558, 0.9786862730979919, 0.9898326396942139, 0.9886179566383362, 0.9864538311958313, 0.9707639217376709, 0.9749167561531067, 0.9267891645431519, 0.9752461314201355, 0.972260594367981, 0.9634926319122314, 0.9529717564582825, 0.736857533454895, 0.7192979454994202, 0.7880067229270935, 0.8872418999671936, 0.8807410001754761, 0.7828156352043152, 0.640795886516571, 0.45390474796295166, 0.8501522541046143, 0.5303511619567871, 0.7226898670196533, 0.5825701951980591, 0.7997756004333496, 0.8954359889030457, 0.7015138864517212, 0.7879207730293274, 0.7695538401603699, 0.6772115230560303, 0.4848260283470154, 0.6778712272644043, 0.6795044541358948, 0.5698105096817017, 0.4516075551509857, 0.27924829721450806, 0.48281359672546387, 0.5645997524261475, 0.39580899477005005, 0.5985573530197144, 0.35613763332366943, 0.2461031675338745, 0.42093974351882935, 0.2969137728214264, 0.5802016854286194, 0.49050769209861755, 0.2956103980541229, 0.3143801689147949, 0.5303855538368225, 0.3179166615009308, 0.5322065949440002, 0.215165376663208, 0.41967710852622986, 0.7620715498924255, 0.9792282581329346, 0.9653400182723999, 0.6462931036949158, 0.32287856936454773, 0.3388078212738037, 0.2211022526025772, 0.16449929773807526, 0.3060985505580902, 0.07958641648292542, 0.04954465851187706, 0.17498457431793213, 0.086606964468956, 0.0890616625547409, 0.3171931505203247, 0.19938907027244568, 0.13723886013031006, 0.22322189807891846, 0.2080422192811966, 0.1260526329278946, 0.1536416858434677, 0.7013753056526184, 0.761542022228241, 0.7369505763053894, 0.4767591655254364, 0.5847402215003967, 0.8487063050270081, 0.599767804145813, 0.5174596309661865, 0.6632916331291199, 0.5116340517997742, 0.49015548825263977, 0.6396734118461609, 0.39017653465270996, 0.32126712799072266, 0.3458613455295563, 0.6534608006477356, 0.4405060112476349, 0.29704633355140686, 0.23616014420986176, 0.3190786838531494, 0.2613620460033417, 0.3163541555404663, 0.6297509670257568, 0.5000602602958679, 0.4850180149078369, 0.8040445446968079, 0.46692711114883423, 0.5032021403312683, 0.3290826380252838, 0.17436698079109192, 0.36323845386505127, 0.18768095970153809, 0.13074199855327606, 0.41164520382881165, 0.26669546961784363, 0.2645827829837799]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9914892911911011</v>
+        <v>0.9965283274650574</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0.9048001999908593</v>
+        <v>0.9061498999944888</v>
       </c>
       <c r="J157" t="n">
-        <v>0.005726583544245945</v>
+        <v>0.005735125949332207</v>
       </c>
     </row>
     <row r="158">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[0.08994583040475845, 0.15862533450126648, 0.07866865396499634, 0.20257820188999176, 0.16475602984428406, 0.0881461501121521, 0.1928192377090454, 0.17582091689109802, 0.12453524023294449, 0.20303481817245483, 0.19859008491039276, 0.16625116765499115, 0.1212206706404686, 0.09899399429559708, 0.1327892690896988, 0.21997180581092834, 0.4264427423477173, 0.6708372235298157, 0.39787858724594116, 0.49371081590652466, 0.3001578450202942, 0.4245237708091736, 0.6076117753982544, 0.7547237277030945, 0.596348226070404, 0.6257848739624023, 0.5703364610671997, 0.6835794448852539, 0.35776591300964355, 0.3063429296016693, 0.2703104317188263, 0.5417576432228088, 0.46089646220207214, 0.3565063774585724, 0.5336742401123047, 0.5834147334098816, 0.6331802010536194, 0.5361372828483582, 0.6079394221305847, 0.6941629648208618, 0.6156662106513977, 0.2180941104888916, 0.2785508930683136, 0.268064945936203, 0.3978464603424072, 0.5232375860214233, 0.6402408480644226, 0.7827757596969604, 0.6529455184936523, 0.5303601026535034, 0.5136193037033081, 0.5869010090827942, 0.5144855976104736, 0.6083113551139832, 0.8239269852638245, 0.9212604761123657, 0.7577301859855652, 0.6239105463027954, 0.7889971137046814, 0.8089868426322937, 0.8804144263267517, 0.648324191570282, 0.6697273254394531, 0.6674519777297974, 0.7003827095031738, 0.5683103799819946, 0.6779820322990417, 0.5259045362472534, 0.3751939535140991, 0.3083348870277405, 0.553799033164978, 0.33634674549102783, 0.2746124565601349, 0.3655385673046112, 0.5185397863388062, 0.3900003731250763, 0.37659671902656555, 0.4652310311794281, 0.6113326549530029, 0.5391291975975037, 0.48322805762290955, 0.23550668358802795, 0.13361409306526184, 0.26332753896713257, 0.2642562687397003, 0.3739132583141327, 0.1534225195646286, 0.1972130537033081, 0.11951179057359695, 0.09090418368577957, 0.36971065402030945, 0.2646825313568115, 0.14412759244441986, 0.23889663815498352, 0.19151918590068817, 0.3988212049007416, 0.5461782217025757, 0.4605187177658081, 0.5021843314170837, 0.6738235354423523, 0.5150090456008911, 0.441943883895874, 0.45851460099220276, 0.508281946182251, 0.5266219973564148, 0.722437858581543, 0.5758424401283264, 0.6088067293167114, 0.7493448257446289, 0.6652490496635437, 0.6528914570808411, 0.39655601978302, 0.6669808030128479, 0.45261791348457336, 0.4036356210708618, 0.33566465973854065, 0.47819799184799194, 0.6094405651092529, 0.33680105209350586, 0.7296431660652161, 0.44467973709106445, 0.4992329478263855, 0.4200727641582489, 0.33488187193870544, 0.23762868344783783, 0.41781383752822876, 0.33473724126815796, 0.4436097741127014, 0.5449644327163696, 0.7120135426521301, 0.8563349843025208, 0.629937469959259, 0.48373469710350037, 0.2851867973804474, 0.14577914774417877, 0.1233798936009407, 0.25517094135284424, 0.1196957603096962, 0.11961288750171661]</t>
+          <t>[0.019637420773506165, 0.04186508432030678, 0.027846496552228928, 0.11691854149103165, 0.05505150556564331, 0.029400363564491272, 0.1269344985485077, 0.07483218610286713, 0.08198437839746475, 0.20214137434959412, 0.10254330188035965, 0.0815153494477272, 0.049394410103559494, 0.030473506078124046, 0.06761185079813004, 0.1381208300590515, 0.37295347452163696, 0.7540542483329773, 0.34961479902267456, 0.3763577938079834, 0.22538775205612183, 0.4917786121368408, 0.6721494793891907, 0.8219950199127197, 0.6494463086128235, 0.709703803062439, 0.6755435466766357, 0.7268966436386108, 0.2410469800233841, 0.21182239055633545, 0.2691880762577057, 0.4836656451225281, 0.34205350279808044, 0.20822647213935852, 0.4072377681732178, 0.49392083287239075, 0.5407691597938538, 0.5396926999092102, 0.6475309729576111, 0.6982613205909729, 0.6712952852249146, 0.1637696772813797, 0.3196001946926117, 0.319103866815567, 0.3633064925670624, 0.5238537192344666, 0.649946391582489, 0.8556159734725952, 0.6204093098640442, 0.5826353430747986, 0.5082119107246399, 0.6182993054389954, 0.4713593125343323, 0.6931702494621277, 0.8948856592178345, 0.9566311836242676, 0.8468263745307922, 0.6687223315238953, 0.8186667561531067, 0.8463192582130432, 0.9372718930244446, 0.5854190587997437, 0.6348100304603577, 0.7127895951271057, 0.8418804407119751, 0.6147733926773071, 0.6576659679412842, 0.5345669984817505, 0.4285906255245209, 0.32629650831222534, 0.635120153427124, 0.3092783987522125, 0.13411465287208557, 0.3367747366428375, 0.4837234318256378, 0.33049213886260986, 0.2858353853225708, 0.44270268082618713, 0.653377890586853, 0.5770776271820068, 0.5451624989509583, 0.2913358211517334, 0.10188188403844833, 0.26057785749435425, 0.2828487157821655, 0.5179521441459656, 0.14349231123924255, 0.18030112981796265, 0.11221539229154587, 0.07657866925001144, 0.4647520184516907, 0.3841674029827118, 0.1291450560092926, 0.24013742804527283, 0.21119186282157898, 0.5282120704650879, 0.6847394108772278, 0.6615017056465149, 0.7570599913597107, 0.8689567446708679, 0.6213864088058472, 0.359785795211792, 0.45404165983200073, 0.5981384515762329, 0.5303966403007507, 0.8030210733413696, 0.6309186220169067, 0.6589664220809937, 0.8041874766349792, 0.7264944314956665, 0.7650547027587891, 0.5282161831855774, 0.848838746547699, 0.6300613880157471, 0.5527082085609436, 0.4325018525123596, 0.563819944858551, 0.8649528622627258, 0.4530012607574463, 0.8654735684394836, 0.5719977021217346, 0.5731518268585205, 0.44061335921287537, 0.3804863691329956, 0.2007448971271515, 0.3593548536300659, 0.3536446988582611, 0.4826219379901886, 0.7408860325813293, 0.8393405675888062, 0.941457986831665, 0.67305588722229, 0.5200533866882324, 0.2738940715789795, 0.1079704761505127, 0.0905824527144432, 0.2754848301410675, 0.09119554609060287, 0.0910530835390091]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.9212604761123657</v>
+        <v>0.9566311836242676</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.8104487000091467</v>
+        <v>0.7939542999956757</v>
       </c>
       <c r="J158" t="n">
-        <v>0.005830566187116163</v>
+        <v>0.00571190143881781</v>
       </c>
     </row>
     <row r="159">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[0.520871102809906, 0.35048097372055054, 0.3916988670825958, 0.5219904780387878, 0.3318082392215729, 0.5976119041442871, 0.316173791885376, 0.1550716906785965, 0.25873324275016785, 0.19769805669784546, 0.15530435740947723, 0.3256338834762573, 0.2799574136734009, 0.3863444924354553, 0.29575005173683167, 0.3885941505432129, 0.6365293264389038, 0.3313395082950592, 0.45072466135025024, 0.5019852519035339, 0.6243107318878174, 0.711143434047699, 0.5731215476989746, 0.38300344347953796, 0.2513393461704254, 0.3098040819168091, 0.2799215316772461, 0.33082839846611023, 0.12498680502176285, 0.06014948710799217, 0.0656624361872673, 0.0799330398440361, 0.0915384590625763, 0.14957356452941895, 0.19003844261169434, 0.2308013141155243, 0.28680220246315, 0.15337353944778442, 0.07186281681060791, 0.1023169681429863, 0.12514151632785797, 0.29844844341278076, 0.2823128402233124, 0.1713172346353531, 0.20208372175693512, 0.24611477553844452, 0.2971824109554291, 0.4553973376750946, 0.21633382141590118, 0.1572742462158203, 0.36361390352249146, 0.21084249019622803, 0.32776886224746704, 0.18231487274169922, 0.18940752744674683, 0.1340237408876419, 0.13303247094154358, 0.18603627383708954, 0.19335946440696716, 0.5696383118629456, 0.27979037165641785, 0.4503211975097656, 0.4322696626186371, 0.21075889468193054, 0.2602698802947998, 0.16579905152320862, 0.19417940080165863, 0.07356510311365128, 0.07690529525279999, 0.08515088260173798, 0.12838463485240936, 0.0862872302532196, 0.1606879085302353, 0.09941408783197403, 0.1126587763428688, 0.08971936255693436, 0.3011262118816376, 0.14609628915786743, 0.062197245657444, 0.06530873477458954, 0.09685839712619781, 0.15091754496097565, 0.21076750755310059, 0.4152493178844452, 0.2483873963356018, 0.10733509808778763, 0.1938413828611374, 0.13887730240821838, 0.09929949790239334, 0.1045847162604332, 0.11905842274427414, 0.10413162410259247, 0.12194544076919556, 0.3501211702823639, 0.3528161942958832, 0.39595767855644226, 0.4262903928756714, 0.24238578975200653, 0.5431615114212036, 0.733852744102478, 0.3379707932472229, 0.25370582938194275, 0.4385201632976532, 0.44810399413108826, 0.35700976848602295, 0.14580769836902618, 0.07407429814338684, 0.06211156025528908, 0.1534302979707718, 0.11963570863008499, 0.12224951386451721, 0.06345270574092865, 0.11994106322526932, 0.20724241435527802, 0.2007656842470169, 0.08969327807426453, 0.26854875683784485, 0.2900732457637787, 0.5820642709732056, 0.3763890564441681, 0.5921973586082458, 0.4773496389389038, 0.32081079483032227, 0.5696312189102173, 0.5663853883743286, 0.6629504561424255, 0.7156610488891602, 0.6750669479370117, 0.8567079901695251, 0.8006063103675842, 0.6764886379241943, 0.6235685348510742, 0.6284430027008057, 0.3783234655857086, 0.3077620565891266, 0.9420366883277893, 0.919121503829956, 0.8369593024253845, 0.8306471109390259, 0.9103091359138489, 0.8735074996948242, 0.8165675401687622, 0.6635497808456421, 0.3995206356048584, 0.4404546916484833, 0.698391318321228, 0.4272801876068115, 0.4992391765117645, 0.5319304466247559, 0.6831389665603638, 0.7272548079490662, 0.8013929724693298, 0.5516990423202515, 0.4599757492542267, 0.3421179950237274, 0.43463078141212463, 0.43661218881607056]</t>
+          <t>[0.5300997495651245, 0.28846949338912964, 0.29427048563957214, 0.4080107808113098, 0.30295640230178833, 0.5984596610069275, 0.2950223386287689, 0.11301686614751816, 0.2583140432834625, 0.19497299194335938, 0.13821060955524445, 0.3327917456626892, 0.18168741464614868, 0.4017564058303833, 0.2550273537635803, 0.3903815746307373, 0.6885830760002136, 0.33665668964385986, 0.4229271411895752, 0.4515540897846222, 0.5769152045249939, 0.6429048180580139, 0.4978683888912201, 0.3300091028213501, 0.26777946949005127, 0.33886176347732544, 0.28896600008010864, 0.33106961846351624, 0.07830406725406647, 0.029242534190416336, 0.03506197780370712, 0.04846018925309181, 0.06987939029932022, 0.10379961133003235, 0.160813570022583, 0.17400121688842773, 0.29959577322006226, 0.1729700267314911, 0.06566786020994186, 0.0732990950345993, 0.08725478500127792, 0.3094295859336853, 0.25138407945632935, 0.15359510481357574, 0.15698249638080597, 0.21870540082454681, 0.3049461245536804, 0.5936610698699951, 0.2552569508552551, 0.24272318184375763, 0.5223874449729919, 0.30343860387802124, 0.3282659351825714, 0.1673794984817505, 0.13821646571159363, 0.10761351883411407, 0.1345081329345703, 0.18883183598518372, 0.24317948520183563, 0.7569106817245483, 0.3482854962348938, 0.5487592816352844, 0.5063483119010925, 0.189223974943161, 0.24984587728977203, 0.1694432944059372, 0.18267787992954254, 0.048347655683755875, 0.03702712804079056, 0.03779425472021103, 0.07208505272865295, 0.034611888229846954, 0.09193647652864456, 0.05737287178635597, 0.0824085921049118, 0.047337159514427185, 0.3166853189468384, 0.15220969915390015, 0.03973788395524025, 0.03704541549086571, 0.056439727544784546, 0.08484959602355957, 0.13098585605621338, 0.3368927836418152, 0.21868720650672913, 0.07583152502775192, 0.19568631052970886, 0.11999404430389404, 0.08298393338918686, 0.09881504625082016, 0.1178218200802803, 0.12029425799846649, 0.14103244245052338, 0.4787200689315796, 0.46287938952445984, 0.511924147605896, 0.34844771027565, 0.15547960996627808, 0.4966675043106079, 0.7316654920578003, 0.30616214871406555, 0.26055267453193665, 0.34346145391464233, 0.43021637201309204, 0.3514631688594818, 0.11968308687210083, 0.05881212651729584, 0.03429502248764038, 0.11922327429056168, 0.10872582346200943, 0.08617747575044632, 0.04867705702781677, 0.09330205619335175, 0.17085260152816772, 0.12869703769683838, 0.04200538992881775, 0.18601484596729279, 0.2978487014770508, 0.6421929001808167, 0.3320617377758026, 0.4530153274536133, 0.37141406536102295, 0.26646363735198975, 0.4429364800453186, 0.5284817814826965, 0.6389273405075073, 0.7440070509910583, 0.6049361824989319, 0.8733933568000793, 0.7804715633392334, 0.6911966800689697, 0.5373426079750061, 0.5280210375785828, 0.24245186150074005, 0.1876370757818222, 0.9605944156646729, 0.9241950511932373, 0.9037551879882812, 0.8925200700759888, 0.9292150735855103, 0.8844165802001953, 0.8163519501686096, 0.693838357925415, 0.43255290389060974, 0.4144172966480255, 0.7776705622673035, 0.3788504898548126, 0.4173719882965088, 0.4715304970741272, 0.668033242225647, 0.6425014138221741, 0.7457104921340942, 0.4454881548881531, 0.29557809233665466, 0.1712622493505478, 0.2995060086250305, 0.3025747537612915]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.9420366883277893</v>
+        <v>0.9605944156646729</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.8880281999881845</v>
+        <v>0.8905082999990555</v>
       </c>
       <c r="J159" t="n">
-        <v>0.00565623057317315</v>
+        <v>0.005672027388529016</v>
       </c>
     </row>
     <row r="160">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[0.19637253880500793, 0.25010135769844055, 0.3731951117515564, 0.2673969566822052, 0.3147532045841217, 0.3942783772945404, 0.14429441094398499, 0.2793489694595337, 0.5014569759368896, 0.3987836241722107, 0.24651026725769043, 0.47963809967041016, 0.5492644906044006, 0.7403826713562012, 0.7846893668174744, 0.6628478169441223, 0.19762162864208221, 0.19356587529182434, 0.13482074439525604, 0.16248811781406403, 0.10802114009857178, 0.25045251846313477, 0.33688780665397644, 0.2103065848350525, 0.6359069347381592, 0.31068363785743713, 0.19457828998565674, 0.18712878227233887, 0.2653961479663849, 0.1915471851825714, 0.22684794664382935, 0.1476619392633438, 0.35989534854888916, 0.4146187901496887, 0.3252599239349365, 0.3502441942691803, 0.5505458116531372, 0.5677600502967834, 0.6983974575996399, 0.5980551242828369, 0.4859238862991333, 0.5129262208938599, 0.3339093327522278, 0.3324138820171356, 0.4911540448665619, 0.6895932555198669, 0.6031326055526733, 0.36535999178886414, 0.3227585256099701, 0.1740833967924118, 0.29219987988471985, 0.17943333089351654, 0.2955370843410492, 0.17306610941886902, 0.13135689496994019, 0.17580009996891022, 0.18708926439285278, 0.32264405488967896, 0.42606687545776367, 0.28525710105895996, 0.3451445996761322, 0.43471091985702515, 0.4712046682834625, 0.7053090333938599, 0.8276562094688416, 0.7801346778869629, 0.824824333190918, 0.7474023103713989, 0.9389141201972961, 0.786608874797821, 0.7838788628578186, 0.7067685723304749, 0.5278713703155518, 0.27151957154273987, 0.4905471205711365, 0.4272124767303467, 0.7019663453102112, 0.5189551115036011, 0.47969314455986023, 0.7941824197769165, 0.6583436131477356, 0.7906736135482788, 0.5557291507720947, 0.33590051531791687, 0.4453901946544647, 0.7166285514831543, 0.16465844213962555, 0.17279879748821259, 0.1650519073009491, 0.35407131910324097, 0.22482062876224518, 0.14302849769592285, 0.13031604886054993, 0.2961600422859192, 0.7862799167633057, 0.49618130922317505, 0.3732448220252991, 0.1524234414100647, 0.22950638830661774, 0.30427640676498413, 0.18280354142189026, 0.2863852083683014, 0.35733523964881897, 0.5834187269210815, 0.3610818684101105, 0.17820574343204498, 0.24264493584632874, 0.1837581843137741, 0.07931268215179443, 0.1511044204235077, 0.26817673444747925, 0.3561737835407257, 0.5104042887687683, 0.45153626799583435, 0.21372899413108826, 0.43673500418663025, 0.08535010367631912, 0.08271297067403793, 0.0910198837518692, 0.13261714577674866, 0.12275022268295288, 0.10449226945638657, 0.14423929154872894, 0.11554193496704102, 0.18944834172725677, 0.37021374702453613, 0.7259113192558289, 0.252483993768692, 0.131017804145813, 0.21380862593650818, 0.2755886912345886, 0.28530153632164, 0.6797917485237122, 0.7261027097702026, 0.5544416308403015, 0.5109206438064575, 0.651298463344574, 0.588718056678772, 0.8044633269309998, 0.5469229817390442, 0.619551956653595, 0.8952435851097107, 0.7349621057510376, 0.7143397927284241, 0.6923218965530396, 0.7577179074287415, 0.6080161333084106, 0.5481253862380981, 0.7432073354721069, 0.7432552576065063, 0.8581933975219727, 0.892985999584198, 0.7027045488357544, 0.6276659369468689, 0.7671788930892944, 0.8055466413497925, 0.6860483288764954, 0.6861979961395264]</t>
+          <t>[0.11928438395261765, 0.18786317110061646, 0.2400771528482437, 0.22264117002487183, 0.22743260860443115, 0.29884058237075806, 0.07767260074615479, 0.16341325640678406, 0.4676917493343353, 0.33323436975479126, 0.13883242011070251, 0.4313104450702667, 0.37931379675865173, 0.7015748023986816, 0.8424439430236816, 0.6992127299308777, 0.15239587426185608, 0.1305581033229828, 0.080689936876297, 0.10514340549707413, 0.06412073969841003, 0.2222290337085724, 0.2864554226398468, 0.14724503457546234, 0.6905785202980042, 0.2244654893875122, 0.13375267386436462, 0.07918491959571838, 0.20430119335651398, 0.10067208111286163, 0.09879141300916672, 0.065394327044487, 0.2828819453716278, 0.19219985604286194, 0.13005051016807556, 0.23149548470973969, 0.5083803534507751, 0.46297913789749146, 0.582928478717804, 0.4857580065727234, 0.3324439227581024, 0.5399585962295532, 0.4656727612018585, 0.4005696475505829, 0.6251196265220642, 0.6800817251205444, 0.5711869597434998, 0.3793275058269501, 0.3659594655036926, 0.15893866121768951, 0.39884597063064575, 0.21778978407382965, 0.3909515142440796, 0.30067142844200134, 0.1922341138124466, 0.1533682644367218, 0.17255255579948425, 0.33327189087867737, 0.4856280982494354, 0.38899660110473633, 0.39565515518188477, 0.3636373281478882, 0.3695356845855713, 0.8136329650878906, 0.8746863603591919, 0.8348744511604309, 0.8936448097229004, 0.9194211363792419, 0.9730801582336426, 0.8478294610977173, 0.8708962798118591, 0.783064603805542, 0.6046050786972046, 0.18694236874580383, 0.33257290720939636, 0.24840925633907318, 0.6697443723678589, 0.45335689187049866, 0.48392894864082336, 0.8710534572601318, 0.7645643949508667, 0.9224579930305481, 0.5786766409873962, 0.43879324197769165, 0.5757860541343689, 0.7526471614837646, 0.1055293157696724, 0.0724552646279335, 0.10065006464719772, 0.3443155288696289, 0.13851234316825867, 0.0685214027762413, 0.07251223921775818, 0.217274010181427, 0.7522071599960327, 0.4919184744358063, 0.32614508271217346, 0.11218614876270294, 0.1344814896583557, 0.20078639686107635, 0.10494227707386017, 0.1790207177400589, 0.3032381236553192, 0.5896041393280029, 0.3027290403842926, 0.10722646862268448, 0.22984686493873596, 0.1532013863325119, 0.03371239826083183, 0.10511137545108795, 0.37355518341064453, 0.4692910611629486, 0.6378432512283325, 0.6370031833648682, 0.2843509912490845, 0.4739437997341156, 0.05592428520321846, 0.04329144209623337, 0.05863093212246895, 0.09936857968568802, 0.143923819065094, 0.07727944850921631, 0.15889772772789001, 0.07033517211675644, 0.13877075910568237, 0.4171866476535797, 0.8734580278396606, 0.3295956254005432, 0.2088075429201126, 0.22651058435440063, 0.4007125794887543, 0.3320777714252472, 0.7842576503753662, 0.7339646816253662, 0.612907886505127, 0.5724779963493347, 0.6646606922149658, 0.6596900820732117, 0.8380850553512573, 0.5157804489135742, 0.6552315354347229, 0.9044280052185059, 0.781139612197876, 0.6866475939750671, 0.6963605284690857, 0.6560387015342712, 0.5806229710578918, 0.48078200221061707, 0.6820728778839111, 0.7045775055885315, 0.8819329738616943, 0.9148581624031067, 0.7071527242660522, 0.6056652069091797, 0.7692742347717285, 0.857353925704956, 0.7525239586830139, 0.7529392838478088]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9389141201972961</v>
+        <v>0.9730801582336426</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.9772954999934882</v>
+        <v>0.9057463999924948</v>
       </c>
       <c r="J160" t="n">
-        <v>0.006185414556920812</v>
+        <v>0.005732572151851233</v>
       </c>
     </row>
     <row r="161">
@@ -6965,11 +6965,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[0.13377027213573456, 0.15332995355129242, 0.1602313071489334, 0.21859341859817505, 0.1602080911397934, 0.09520667791366577, 0.1085158959031105, 0.07018749415874481, 0.09407747536897659, 0.03810616955161095, 0.04346170276403427, 0.0581972673535347, 0.036282729357481, 0.06051534414291382, 0.09518462419509888, 0.09508345276117325, 0.07230550795793533, 0.044666092842817307, 0.07126361131668091, 0.048437390476465225, 0.04003040865063667, 0.0338234044611454, 0.04163828119635582, 0.05877599120140076, 0.11819377541542053, 0.09993581473827362, 0.09435451030731201, 0.07045074552297592, 0.07227261364459991, 0.03717770799994469, 0.0638507679104805, 0.1301439106464386, 0.11075443774461746, 0.06783107668161392, 0.07660781592130661, 0.051239632070064545, 0.14509448409080505, 0.203329935669899, 0.1682298481464386, 0.21163111925125122, 0.22446362674236298, 0.18578371405601501, 0.19344718754291534, 0.424452006816864, 0.46470099687576294, 0.5105441808700562, 0.25309887528419495, 0.3037915825843811, 0.29786232113838196, 0.17621353268623352, 0.09611775726079941, 0.15504051744937897, 0.11452597379684448, 0.06528880447149277, 0.08486011624336243, 0.11792519688606262, 0.10194522887468338, 0.13625642657279968, 0.15875600278377533, 0.11250843852758408, 0.1547519713640213, 0.14922469854354858, 0.27331334352493286, 0.3201472759246826, 0.3449704349040985, 0.37889954447746277, 0.2034573256969452, 0.19324609637260437, 0.08842919766902924, 0.042717501521110535, 0.01929783634841442, 0.03798602893948555, 0.03826247900724411, 0.023486748337745667, 0.04787309095263481, 0.07725245505571365, 0.07012782245874405, 0.05811268463730812, 0.14957007765769958, 0.13220258057117462, 0.27611786127090454, 0.218717560172081, 0.13874872028827667, 0.17536523938179016, 0.43231990933418274, 0.3266735076904297, 0.3628307282924652, 0.42985835671424866, 0.3304133713245392, 0.3267759084701538, 0.19973227381706238, 0.1330794394016266, 0.13939616084098816, 0.08519270271062851, 0.161714568734169, 0.13689260184764862, 0.28289851546287537, 0.17079870402812958, 0.1623072475194931, 0.18999552726745605, 0.20823213458061218, 0.14156588912010193, 0.13469979166984558, 0.15298672020435333, 0.07298588752746582, 0.12575919926166534, 0.16906307637691498, 0.05803646519780159, 0.10870158672332764, 0.05656658113002777, 0.06002223864197731, 0.11914277076721191, 0.07760985940694809, 0.0798819288611412, 0.08253363519906998, 0.0362660177052021, 0.03514251112937927, 0.03607208654284477, 0.029774164780974388, 0.030723517760634422, 0.025949060916900635, 0.030643802136182785, 0.02514669857919216, 0.02627270296216011, 0.026385299861431122]</t>
+          <t>[0.10924345999956131, 0.1145264059305191, 0.08014491945505142, 0.11826931685209274, 0.1211819127202034, 0.06407485157251358, 0.08655979484319687, 0.05120651796460152, 0.057613860815763474, 0.016984274610877037, 0.02504786290228367, 0.04030415415763855, 0.022040339186787605, 0.03336002305150032, 0.0709792822599411, 0.07945146411657333, 0.053529612720012665, 0.033998627215623856, 0.07190804928541183, 0.02831244096159935, 0.02978789620101452, 0.02031983621418476, 0.02379586733877659, 0.04245652258396149, 0.11544298380613327, 0.09536916762590408, 0.06960172206163406, 0.048095982521772385, 0.04771821200847626, 0.029097599908709526, 0.03381088748574257, 0.05914587154984474, 0.05764695256948471, 0.055330634117126465, 0.06923582404851913, 0.029110191389918327, 0.14089113473892212, 0.2117573618888855, 0.13706280291080475, 0.1708892434835434, 0.1878446340560913, 0.10839548707008362, 0.1141146719455719, 0.27407217025756836, 0.2955789864063263, 0.41149279475212097, 0.15806162357330322, 0.1583748161792755, 0.1859392672777176, 0.09103237837553024, 0.05516156926751137, 0.06752488017082214, 0.05078843608498573, 0.025428904220461845, 0.037228167057037354, 0.06120262295007706, 0.03806028887629509, 0.045997876673936844, 0.07198825478553772, 0.04568394273519516, 0.07087525725364685, 0.06257617473602295, 0.1796817034482956, 0.2985241115093231, 0.23444269597530365, 0.2671065926551819, 0.07316365838050842, 0.07744511216878891, 0.044797591865062714, 0.021862119436264038, 0.005719294771552086, 0.014062132686376572, 0.01707843318581581, 0.008103705011308193, 0.018297765403985977, 0.059512004256248474, 0.029506616294384003, 0.022595014423131943, 0.09157564491033554, 0.05967899039387703, 0.17733900249004364, 0.11308615654706955, 0.0678250789642334, 0.11002101749181747, 0.4468458890914917, 0.2777475416660309, 0.2901468276977539, 0.3219485282897949, 0.24334682524204254, 0.21155677735805511, 0.10598312318325043, 0.06929914653301239, 0.10202059149742126, 0.05981258302927017, 0.11432289332151413, 0.07984686642885208, 0.183069109916687, 0.1307002305984497, 0.10811877250671387, 0.15601123869419098, 0.15222540497779846, 0.09000032395124435, 0.0953429713845253, 0.10579895973205566, 0.04276767000555992, 0.0905255526304245, 0.11330559849739075, 0.03507257252931595, 0.07356807589530945, 0.027654321864247322, 0.033553194254636765, 0.08251550793647766, 0.048378992825746536, 0.0647900402545929, 0.07701542228460312, 0.02711479365825653, 0.02240625210106373, 0.02554108016192913, 0.02309560962021351, 0.023505328223109245, 0.016033824533224106, 0.019124971702694893, 0.016205022111535072, 0.01603439822793007, 0.016139252111315727]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.5105441808700562</v>
+        <v>0.4468458890914917</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.7207477000192739</v>
+        <v>0.7238524999993388</v>
       </c>
       <c r="J161" t="n">
-        <v>0.005765981600154191</v>
+        <v>0.00579081999999471</v>
       </c>
     </row>
     <row r="162">
@@ -7005,11 +7005,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[0.04252508655190468, 0.04362952336668968, 0.033443354070186615, 0.04571571946144104, 0.05239798501133919, 0.06614511460065842, 0.038256727159023285, 0.03384013846516609, 0.09316980093717575, 0.12906736135482788, 0.09703932702541351, 0.13396792113780975, 0.11891904473304749, 0.09623489528894424, 0.13609373569488525, 0.19936037063598633, 0.13824544847011566, 0.079644113779068, 0.07041271775960922, 0.17139819264411926, 0.1434006541967392, 0.06689862161874771, 0.051760461181402206, 0.05637204274535179, 0.051041968166828156, 0.05195494741201401, 0.02464413270354271, 0.034706082195043564, 0.06559554487466812, 0.033831264823675156, 0.03544406592845917, 0.06904669106006622, 0.07197153568267822, 0.08837947249412537, 0.046761274337768555, 0.026482785120606422, 0.025195473805069923, 0.032331813126802444, 0.03415478393435478, 0.023541541770100594, 0.024910423904657364, 0.05384959653019905, 0.07552018016576767, 0.08097299933433533, 0.13723725080490112, 0.0701313316822052, 0.08908718079328537, 0.15211448073387146, 0.0970781072974205, 0.09492235630750656, 0.044115278869867325, 0.02563541755080223, 0.01666111871600151, 0.02373456209897995, 0.03429685905575752, 0.03170887753367424, 0.04560083895921707, 0.04767633602023125, 0.02826545760035515, 0.020135022699832916, 0.04464682936668396, 0.04595094546675682, 0.028806103393435478, 0.043257683515548706, 0.03164006397128105, 0.03337443992495537, 0.02579985372722149, 0.03490127995610237, 0.03579302877187729, 0.03235148265957832, 0.02026432938873768, 0.022665487602353096, 0.02336559258401394, 0.02654433809220791, 0.03674241527915001, 0.04347982257604599, 0.046590421348810196, 0.04110313951969147, 0.04036623612046242, 0.0908098891377449, 0.09192047268152237, 0.07104622572660446, 0.05804933235049248, 0.07725799083709717, 0.10027481615543365, 0.05811752378940582, 0.07167615741491318, 0.05275861546397209, 0.024541039019823074, 0.05331820994615555, 0.05661836266517639, 0.053940583020448685, 0.05876879766583443, 0.03585943952202797, 0.05718725919723511, 0.046944014728069305, 0.055742308497428894, 0.046289268881082535, 0.07265037298202515, 0.040505241602659225, 0.02688026614487171, 0.02816062793135643, 0.017862487584352493, 0.02237175777554512, 0.02762667089700699, 0.02210211753845215, 0.01892523095011711, 0.016486095264554024, 0.016780896112322807, 0.01788262464106083, 0.017150646075606346, 0.014041885733604431, 0.018015341833233833, 0.01829821802675724, 0.028463996946811676, 0.02764078415930271, 0.019518639892339706, 0.021286649629473686, 0.03700157254934311, 0.02184928022325039, 0.03314663842320442, 0.02958245947957039, 0.026482751592993736, 0.021517224609851837, 0.021458076313138008]</t>
+          <t>[0.029714815318584442, 0.03265910595655441, 0.023397721350193024, 0.0445009246468544, 0.05912495404481888, 0.0713072419166565, 0.04741663113236427, 0.038136035203933716, 0.16278257966041565, 0.10200036317110062, 0.07126686722040176, 0.12956157326698303, 0.12712723016738892, 0.06097165867686272, 0.08323045074939728, 0.15000863373279572, 0.12445136159658432, 0.07574166357517242, 0.06363195925951004, 0.21578727662563324, 0.11521753668785095, 0.06465001404285431, 0.055105339735746384, 0.0412091389298439, 0.03582285717129707, 0.06760084629058838, 0.023011978715658188, 0.03362784907221794, 0.1277948021888733, 0.03679522126913071, 0.02854214422404766, 0.053679224103689194, 0.07410220056772232, 0.1055711880326271, 0.045306067913770676, 0.02049289643764496, 0.017519740387797356, 0.016515763476490974, 0.019734010100364685, 0.01438220776617527, 0.019047897309064865, 0.03123750165104866, 0.07176189124584198, 0.06215105578303337, 0.12142369896173477, 0.04704927280545235, 0.07876387238502502, 0.1669568419456482, 0.09374742954969406, 0.09831693023443222, 0.04478568583726883, 0.02179097943007946, 0.009948688559234142, 0.016419243067502975, 0.03300211951136589, 0.025134164839982986, 0.04318113997578621, 0.04853801056742668, 0.02425522357225418, 0.01205970998853445, 0.024038445204496384, 0.02716115303337574, 0.016528859734535217, 0.021355628967285156, 0.022286176681518555, 0.01604290120303631, 0.012164326384663582, 0.02065248414874077, 0.016749203205108643, 0.017489036545157433, 0.006486392114311457, 0.006678208243101835, 0.0061251032166182995, 0.008400210179388523, 0.01789577677845955, 0.03664654493331909, 0.04110360145568848, 0.024992570281028748, 0.024879077449440956, 0.07138945907354355, 0.06638378649950027, 0.07034584134817123, 0.052450623363256454, 0.07878033071756363, 0.0762733593583107, 0.04463181272149086, 0.04681624472141266, 0.03464576601982117, 0.010374508798122406, 0.026347767561674118, 0.02265043929219246, 0.028557496145367622, 0.03646421805024147, 0.01911010593175888, 0.04603182524442673, 0.029758475720882416, 0.02333332970738411, 0.02389156073331833, 0.0396670401096344, 0.020015202462673187, 0.015056923031806946, 0.013683067634701729, 0.008827424608170986, 0.013444625772535801, 0.015084100887179375, 0.011929896660149097, 0.011513586156070232, 0.0075176856480538845, 0.00787076074630022, 0.007915981113910675, 0.007865707390010357, 0.0066296691074967384, 0.00994991883635521, 0.010337251238524914, 0.019084515050053596, 0.015001730062067509, 0.014913997612893581, 0.014945177361369133, 0.027814282104372978, 0.013627166859805584, 0.018351195380091667, 0.01908986084163189, 0.015506691299378872, 0.010293192230165005, 0.010263417847454548]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.1993603706359863</v>
+        <v>0.2157872766256332</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.793322999990778</v>
+        <v>0.7195949000015389</v>
       </c>
       <c r="J162" t="n">
-        <v>0.006346583999926225</v>
+        <v>0.005756759200012312</v>
       </c>
     </row>
     <row r="163">
@@ -7045,11 +7045,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[0.035361528396606445, 0.04559187963604927, 0.04902094602584839, 0.054318610578775406, 0.04604177922010422, 0.09001705050468445, 0.05429169535636902, 0.06640145927667618, 0.040474873036146164, 0.07034334540367126, 0.0587589405477047, 0.0619167797267437, 0.0708736851811409, 0.09142863005399704, 0.10550381988286972, 0.13071134686470032, 0.10028648376464844, 0.05851364508271217, 0.08189389854669571, 0.0964915007352829, 0.25937148928642273, 0.1124841719865799, 0.19301562011241913, 0.31602710485458374, 0.0669594407081604, 0.08581194281578064, 0.15625229477882385, 0.11815600842237473, 0.09960980713367462, 0.10379676520824432, 0.1062561497092247, 0.0672740712761879, 0.0748276337981224, 0.07811043411493301, 0.12019827961921692, 0.1921321004629135, 0.30912038683891296, 0.40054580569267273, 0.34839776158332825, 0.6294004321098328, 0.7288866639137268, 0.29599034786224365, 0.10161451995372772, 0.051839396357536316, 0.06113230064511299, 0.11126421391963959, 0.18660281598567963, 0.2857087552547455, 0.2266501784324646, 0.15027087926864624, 0.0950269103050232, 0.09896937757730484, 0.1302138864994049, 0.08272850513458252, 0.10377869009971619, 0.07892238348722458, 0.08552317321300507, 0.07537031173706055, 0.09426261484622955, 0.07119876891374588, 0.05484454706311226, 0.03841052204370499, 0.04147927463054657, 0.0213038120418787, 0.024292871356010437, 0.0624314583837986, 0.05173152685165405, 0.09458903223276138, 0.09926016628742218, 0.15663999319076538, 0.09060966223478317, 0.06096045300364494, 0.07069143652915955, 0.09371902048587799, 0.23490627110004425, 0.11366039514541626, 0.07153580337762833, 0.06616455316543579, 0.09712423384189606, 0.11955995112657547, 0.07957129180431366, 0.06842658668756485, 0.043646953999996185, 0.0515921413898468, 0.035315923392772675, 0.07783351093530655, 0.07915239781141281, 0.09029871225357056, 0.0919920802116394, 0.09218636155128479, 0.053077492862939835, 0.080882228910923, 0.08567443490028381, 0.12428596615791321, 0.14522810280323029, 0.05617855116724968, 0.09943901747465134, 0.044090501964092255, 0.04305899888277054, 0.0644049197435379, 0.07798770070075989, 0.06874080002307892, 0.11195173114538193, 0.06075447425246239, 0.06908204406499863, 0.06003479287028313, 0.09570429474115372, 0.14285318553447723, 0.15059642493724823, 0.2085435688495636, 0.17840170860290527, 0.05566336214542389, 0.04257724806666374, 0.05475970730185509, 0.08481748402118683, 0.2973177134990692, 0.21609921753406525, 0.11692115664482117, 0.03348470479249954, 0.09273671358823776, 0.1214977502822876, 0.144412100315094, 0.08947630971670151, 0.09035913646221161]</t>
+          <t>[0.024491503834724426, 0.027688059955835342, 0.042324915528297424, 0.0379362478852272, 0.03859947994351387, 0.11396411806344986, 0.034972649067640305, 0.0547281876206398, 0.021714305505156517, 0.04791155830025673, 0.02857186459004879, 0.04074554890394211, 0.08178022503852844, 0.06998748332262039, 0.07144550234079361, 0.06856650859117508, 0.044249311089515686, 0.022094061598181725, 0.043290019035339355, 0.06110137328505516, 0.2103973925113678, 0.06450508534908295, 0.10870286822319031, 0.2568783462047577, 0.02513999678194523, 0.053305353969335556, 0.09228368103504181, 0.07394707947969437, 0.047328755259513855, 0.06511291861534119, 0.04804875701665878, 0.03516962751746178, 0.030310537666082382, 0.03238964453339577, 0.06301707774400711, 0.1391097605228424, 0.2132033407688141, 0.25760316848754883, 0.2562398314476013, 0.6437019109725952, 0.7705768942832947, 0.19109906256198883, 0.038190875202417374, 0.017252186313271523, 0.019579382613301277, 0.042088836431503296, 0.09024516493082047, 0.15677829086780548, 0.14984551072120667, 0.06955044716596603, 0.028610026463866234, 0.034990377724170685, 0.05860867351293564, 0.03359822928905487, 0.06575226783752441, 0.05831814184784889, 0.05711309239268303, 0.06406331807374954, 0.058960530906915665, 0.04255536571145058, 0.029190674424171448, 0.018459482118487358, 0.017896952107548714, 0.008435972966253757, 0.011165635660290718, 0.033555205911397934, 0.023750944063067436, 0.0644184947013855, 0.049214038997888565, 0.07813603430986404, 0.038109518587589264, 0.027153149247169495, 0.030865881592035294, 0.05258304998278618, 0.18625380098819733, 0.05434950813651085, 0.033149249851703644, 0.03130695968866348, 0.05230679735541344, 0.0559881255030632, 0.03566873446106911, 0.025455553084611893, 0.019224034622311592, 0.02416377142071724, 0.018366530537605286, 0.04321373626589775, 0.03807957097887993, 0.05833903327584267, 0.048012908548116684, 0.04456641897559166, 0.018964512273669243, 0.03500193729996681, 0.04554011672735214, 0.06455937772989273, 0.07001174241304398, 0.023283742368221283, 0.05780312046408653, 0.01861574687063694, 0.012829619459807873, 0.0358915701508522, 0.0342884361743927, 0.025587048381567, 0.07178632915019989, 0.019376719370484352, 0.04778670892119408, 0.022660575807094574, 0.03381762653589249, 0.05112508311867714, 0.0700448751449585, 0.08461786061525345, 0.09044504910707474, 0.01567644625902176, 0.01174862589687109, 0.017922094091773033, 0.043641719967126846, 0.194838747382164, 0.13564087450504303, 0.06823741644620895, 0.00798330269753933, 0.039745036512613297, 0.09210110455751419, 0.07333064079284668, 0.03714505955576897, 0.03773542866110802]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.7288866639137268</v>
+        <v>0.7705768942832947</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.7297620000026654</v>
+        <v>0.7064962000004016</v>
       </c>
       <c r="J163" t="n">
-        <v>0.005885177419376334</v>
+        <v>0.005697550000003239</v>
       </c>
     </row>
     <row r="164">
@@ -7085,11 +7085,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[0.4196957051753998, 0.15915939211845398, 0.39794179797172546, 0.48041632771492004, 0.4823312759399414, 0.3510202169418335, 0.23694400489330292, 0.45854347944259644, 0.31333157420158386, 0.5370709896087646, 0.5090487003326416, 0.5036434531211853, 0.29691582918167114, 0.3090289533138275, 0.2717691659927368, 0.4898925721645355, 0.5151641368865967, 0.44808459281921387, 0.6142448782920837, 0.6793417930603027, 0.561587393283844, 0.6495524644851685, 0.3148886263370514, 0.3056878447532654, 0.32394590973854065, 0.6423922181129456, 0.2218601554632187, 0.279634028673172, 0.20489178597927094, 0.09876575320959091, 0.32063859701156616, 0.7030073404312134, 0.7108598351478577, 0.45429161190986633, 0.2779684364795685, 0.33666887879371643, 0.6383978724479675, 0.5255793929100037, 0.4197950065135956, 0.34539881348609924, 0.7374523878097534, 0.43986275792121887, 0.22621524333953857, 0.5039275288581848, 0.34752601385116577, 0.7801610231399536, 0.5937528610229492, 0.30248287320137024, 0.6771760582923889, 0.4842691123485565, 0.5709859132766724, 0.6330208778381348, 0.608661949634552, 0.5416483283042908, 0.5367160439491272, 0.4300294816493988, 0.3603820502758026, 0.4067731499671936, 0.36181578040122986, 0.34320974349975586, 0.4381146728992462, 0.7643424272537231, 0.6337862610816956, 0.41537249088287354, 0.4303226172924042, 0.3235636055469513, 0.5258678793907166, 0.625632643699646, 0.7184466123580933, 0.7259379029273987, 0.6371818780899048, 0.75429368019104, 0.7239397168159485, 0.6447572112083435, 0.606025218963623, 0.7411970496177673, 0.9361045360565186, 0.7127018570899963, 0.6953460574150085, 0.7019633054733276, 0.6031517386436462, 0.8404373526573181, 0.40473097562789917, 0.6598416566848755, 0.9112013578414917, 0.7865650057792664, 0.7033832669258118, 0.735622763633728, 0.5055899620056152, 0.8696085214614868, 0.9015457034111023, 0.6606836318969727, 0.6748630404472351, 0.6197967529296875, 0.6008368134498596, 0.8791109919548035, 0.5299370288848877, 0.6473604440689087, 0.7681620717048645, 0.6244062185287476, 0.6725683212280273, 0.5159076452255249, 0.41634660959243774, 0.6016568541526794, 0.7112647294998169, 0.6118441820144653, 0.6127561926841736]</t>
+          <t>[0.6461909413337708, 0.19928090274333954, 0.47594153881073, 0.587999165058136, 0.6285260319709778, 0.3595236837863922, 0.2175145447254181, 0.5491700768470764, 0.2889055013656616, 0.6535188555717468, 0.6649899482727051, 0.6580458283424377, 0.43321698904037476, 0.426853209733963, 0.3080248534679413, 0.5316928625106812, 0.5327406525611877, 0.5013620257377625, 0.7505574822425842, 0.7973601818084717, 0.5875018239021301, 0.703181803226471, 0.2522799074649811, 0.31600549817085266, 0.39104631543159485, 0.7069585919380188, 0.16449375450611115, 0.23757006227970123, 0.12394818663597107, 0.05180828645825386, 0.3267934322357178, 0.7033589482307434, 0.7463293671607971, 0.534554123878479, 0.35535168647766113, 0.43597567081451416, 0.7165388464927673, 0.6168245673179626, 0.4693673253059387, 0.40277308225631714, 0.8927390575408936, 0.5707836747169495, 0.21842597424983978, 0.5790910124778748, 0.40798288583755493, 0.8763067722320557, 0.6009984016418457, 0.3293011486530304, 0.7491676211357117, 0.4981533885002136, 0.585536003112793, 0.7061032652854919, 0.6129400730133057, 0.5437986254692078, 0.5239759683609009, 0.4047377109527588, 0.28848665952682495, 0.5258957147598267, 0.398656964302063, 0.3501318395137787, 0.4638511538505554, 0.8478794097900391, 0.7660263180732727, 0.5289902687072754, 0.4760083556175232, 0.315938800573349, 0.67696213722229, 0.6947947144508362, 0.8320558071136475, 0.8185647130012512, 0.7040612101554871, 0.8772357702255249, 0.8533594012260437, 0.7214575409889221, 0.6203108429908752, 0.8407326340675354, 0.9756415486335754, 0.8019286394119263, 0.8432973027229309, 0.7762685418128967, 0.7282741069793701, 0.9469862580299377, 0.4933973252773285, 0.7354087829589844, 0.9535305500030518, 0.8796855807304382, 0.7919698357582092, 0.7810581922531128, 0.5463755130767822, 0.9484344720840454, 0.9524688124656677, 0.7575139403343201, 0.7893536686897278, 0.7693516612052917, 0.6874720454216003, 0.9365983009338379, 0.6262224316596985, 0.8019654750823975, 0.9039928317070007, 0.7965459823608398, 0.8006283640861511, 0.6667987704277039, 0.47015243768692017, 0.5986146330833435, 0.7043440937995911, 0.6808829307556152, 0.6810588240623474]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9361045360565186</v>
+        <v>0.9756415486335754</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.6128320000134408</v>
+        <v>0.6266247000021394</v>
       </c>
       <c r="J164" t="n">
-        <v>0.005727401869284494</v>
+        <v>0.00585630560749663</v>
       </c>
     </row>
     <row r="165">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[0.08342235535383224, 0.07741614431142807, 0.18043453991413116, 0.1883624643087387, 0.3186311423778534, 0.18824000656604767, 0.24883590638637543, 0.4900802969932556, 0.33086323738098145, 0.24341319501399994, 0.5013420581817627, 0.46907174587249756, 0.12132282555103302, 0.44306617975234985, 0.2103639841079712, 0.36710286140441895, 0.46391913294792175, 0.24267414212226868, 0.2635057866573334, 0.15050731599330902, 0.1791904866695404, 0.36969998478889465, 0.22791239619255066, 0.5145872831344604, 0.29835617542266846, 0.17762582004070282, 0.44834765791893005, 0.28909337520599365, 0.2526252865791321, 0.24798758327960968, 0.26709362864494324, 0.14345042407512665, 0.09948129951953888, 0.11992498487234116, 0.11966466903686523, 0.0558202750980854, 0.06683358550071716, 0.11021430790424347, 0.23508277535438538, 0.18944618105888367, 0.1961134374141693, 0.09083256870508194, 0.23167262971401215, 0.21705907583236694, 0.35305389761924744, 0.13865265250205994, 0.10343535989522934, 0.06388912349939346, 0.10892114043235779, 0.11031509935855865, 0.12991558015346527, 0.20930257439613342, 0.2548119127750397, 0.2418363243341446, 0.400322288274765, 0.2928730845451355, 0.15789416432380676, 0.1282079964876175, 0.2026223987340927, 0.24300825595855713, 0.4525916278362274, 0.41201579570770264, 0.34305837750434875, 0.15830330550670624, 0.13589255511760712, 0.1994512379169464, 0.17803822457790375, 0.144388809800148, 0.1534920036792755, 0.10131809860467911, 0.14518305659294128, 0.2791779339313507, 0.3640947937965393, 0.5243439674377441, 0.2623296082019806, 0.20565856993198395, 0.2987719476222992, 0.439514696598053, 0.2556696832180023, 0.5312188863754272, 0.1399466097354889, 0.12084411084651947, 0.2552272081375122, 0.1689758002758026, 0.20455607771873474, 0.11513776332139969, 0.1544143110513687, 0.031657613813877106, 0.09069430828094482, 0.09428561478853226, 0.15852729976177216, 0.09426657855510712, 0.20843751728534698, 0.09488420933485031, 0.11625734716653824, 0.28983572125434875, 0.11570515483617783, 0.10585182905197144, 0.14065369963645935, 0.05899352952837944, 0.07667676359415054, 0.11467039585113525, 0.18148843944072723, 0.1355137676000595, 0.14832714200019836, 0.11345451325178146, 0.11348282545804977]</t>
+          <t>[0.074880450963974, 0.06399958580732346, 0.23991148173809052, 0.2634919583797455, 0.4094092845916748, 0.3104170262813568, 0.3161827623844147, 0.4886612296104431, 0.35405370593070984, 0.30436578392982483, 0.5494834780693054, 0.39918214082717896, 0.08450933545827866, 0.41584351658821106, 0.19955407083034515, 0.44877782464027405, 0.4611671268939972, 0.2195129692554474, 0.28528717160224915, 0.21922577917575836, 0.17000581324100494, 0.364812970161438, 0.20634475350379944, 0.6063590049743652, 0.3504299521446228, 0.19629323482513428, 0.4216666519641876, 0.3244779109954834, 0.32157889008522034, 0.4998019337654114, 0.38895851373672485, 0.1370639055967331, 0.09592588990926743, 0.09992755949497223, 0.08745653927326202, 0.04623718932271004, 0.05204293131828308, 0.10599648207426071, 0.3441891670227051, 0.2036987692117691, 0.1968739777803421, 0.06083110347390175, 0.20647206902503967, 0.18310321867465973, 0.34430214762687683, 0.16693732142448425, 0.12234765291213989, 0.061401110142469406, 0.09696399420499802, 0.10513877123594284, 0.11782122403383255, 0.2435147911310196, 0.33675819635391235, 0.3325880467891693, 0.4815593361854553, 0.334033340215683, 0.17365849018096924, 0.10945699363946915, 0.20682664215564728, 0.22916828095912933, 0.4546084403991699, 0.4006280303001404, 0.33403444290161133, 0.19876405596733093, 0.17271511256694794, 0.2513030767440796, 0.21346865594387054, 0.1431216150522232, 0.15995480120182037, 0.11114653944969177, 0.1135241761803627, 0.29360803961753845, 0.3442486524581909, 0.472960889339447, 0.24987418949604034, 0.2207917720079422, 0.45804664492607117, 0.5054929256439209, 0.27189624309539795, 0.7061046361923218, 0.19069570302963257, 0.10837294161319733, 0.31533777713775635, 0.18995238840579987, 0.17809176445007324, 0.08808624744415283, 0.13136325776576996, 0.018288876861333847, 0.09743540734052658, 0.1125660091638565, 0.2040683776140213, 0.08645869791507721, 0.21050624549388885, 0.0743224248290062, 0.09959042072296143, 0.33504849672317505, 0.09626065939664841, 0.11640020459890366, 0.15844565629959106, 0.06187046691775322, 0.07281652092933655, 0.11886909604072571, 0.16187463700771332, 0.127720445394516, 0.1040068045258522, 0.07835792750120163, 0.07839411497116089]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.5312188863754272</v>
+        <v>0.7061046361923218</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.6598879999946803</v>
+        <v>0.6090379999950528</v>
       </c>
       <c r="J165" t="n">
-        <v>0.006167177570043741</v>
+        <v>0.00569194392518741</v>
       </c>
     </row>
     <row r="166">
@@ -7165,11 +7165,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[0.5614917874336243, 0.3442724347114563, 0.5044072866439819, 0.47935751080513, 0.3207397162914276, 0.3130430281162262, 0.3536275029182434, 0.3252107799053192, 0.4025748074054718, 0.40691959857940674, 0.2885477542877197, 0.36910322308540344, 0.23423518240451813, 0.36118367314338684, 0.53211510181427, 0.47728514671325684, 0.39003986120224, 0.7727978825569153, 0.6152114868164062, 0.14834901690483093, 0.3088148832321167, 0.2665501832962036, 0.20628201961517334, 0.14141452312469482, 0.18169204890727997, 0.1654856652021408, 0.18228387832641602, 0.30277666449546814, 0.1568262279033661, 0.3768460154533386, 0.28894293308258057, 0.22527055442333221, 0.2244480550289154, 0.2555907070636749, 0.4502819776535034, 0.5230004191398621, 0.5737669467926025, 0.4038795232772827, 0.3761906623840332, 0.3179742395877838, 0.2418096959590912, 0.33092737197875977, 0.13688431680202484, 0.15951646864414215, 0.2822033166885376, 0.25576281547546387, 0.21582993865013123, 0.28966954350471497, 0.5464901924133301, 0.505700945854187, 0.4294617176055908, 0.6824434995651245, 0.566478431224823, 0.6030845046043396, 0.49703162908554077, 0.22799094021320343, 0.2099267542362213, 0.15258997678756714, 0.16269245743751526, 0.15304352343082428, 0.1971188336610794, 0.13360026478767395, 0.2657436728477478, 0.2297377586364746, 0.12276589870452881, 0.08388181030750275, 0.20721174776554108, 0.2025299370288849, 0.2496001422405243, 0.2239750772714615, 0.20339679718017578, 0.18129169940948486, 0.14664998650550842, 0.1557035893201828, 0.15298928320407867, 0.2290656417608261, 0.11878176033496857, 0.18396343290805817, 0.4399101436138153, 0.4932160973548889, 0.12307335436344147, 0.10808910429477692, 0.20361195504665375, 0.18276789784431458, 0.13803331553936005, 0.1256127506494522, 0.14804892241954803, 0.1030580922961235, 0.21880358457565308, 0.12898482382297516, 0.11906846612691879, 0.1245269700884819, 0.13336408138275146, 0.07046050578355789, 0.20327097177505493, 0.10312215983867645, 0.15675172209739685, 0.1209101676940918, 0.24110591411590576, 0.11417900770902634, 0.13926586508750916, 0.16244415938854218, 0.11045067757368088, 0.14962752163410187, 0.29116201400756836, 0.15223176777362823, 0.15156018733978271]</t>
+          <t>[0.3772655129432678, 0.13791196048259735, 0.3216173052787781, 0.25748586654663086, 0.15663395822048187, 0.18042956292629242, 0.19887442886829376, 0.17558163404464722, 0.3394986689090729, 0.261188268661499, 0.1480526626110077, 0.20216719806194305, 0.10825149714946747, 0.14246155321598053, 0.35248228907585144, 0.28377845883369446, 0.20699667930603027, 0.7906814217567444, 0.43606236577033997, 0.04342195391654968, 0.1387479305267334, 0.13367503881454468, 0.08062612265348434, 0.03883727267384529, 0.07435349375009537, 0.06843862682580948, 0.08784330636262894, 0.1396361142396927, 0.06406137347221375, 0.20525915920734406, 0.1356842815876007, 0.0988478884100914, 0.12991805374622345, 0.15650346875190735, 0.3787861466407776, 0.5013467669487, 0.5981566309928894, 0.356452614068985, 0.3171730637550354, 0.23853132128715515, 0.1283932775259018, 0.1704072654247284, 0.05127296224236488, 0.05715569481253624, 0.16517885029315948, 0.12148372828960419, 0.08222370594739914, 0.1207968220114708, 0.3231599032878876, 0.31474441289901733, 0.2398795187473297, 0.48736077547073364, 0.3866640031337738, 0.5051324367523193, 0.2874912619590759, 0.13061925768852234, 0.1061052531003952, 0.07892390340566635, 0.07226379215717316, 0.08171702176332474, 0.14074411988258362, 0.07016600668430328, 0.1987859606742859, 0.13061057031154633, 0.06761467456817627, 0.0342569462954998, 0.1280478686094284, 0.18279054760932922, 0.18569576740264893, 0.14434391260147095, 0.1311868280172348, 0.12441932410001755, 0.07229907810688019, 0.06795138120651245, 0.06468717008829117, 0.1181073784828186, 0.0411912240087986, 0.12940600514411926, 0.3445720076560974, 0.4162813425064087, 0.06461700052022934, 0.050723593682050705, 0.13026724755764008, 0.09406949579715729, 0.07640136033296585, 0.07372484356164932, 0.10566353052854538, 0.050936415791511536, 0.12088657915592194, 0.08217112720012665, 0.07183943688869476, 0.07698897272348404, 0.07369276881217957, 0.03727702051401138, 0.124720498919487, 0.041039712727069855, 0.06556042283773422, 0.04381760582327843, 0.11179666221141815, 0.04286201670765877, 0.07631849497556686, 0.07037614285945892, 0.04456469416618347, 0.07297291606664658, 0.21705587208271027, 0.06457843631505966, 0.06430329382419586]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.7727978825569153</v>
+        <v>0.7906814217567444</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.600511099997675</v>
+        <v>0.6150234999950044</v>
       </c>
       <c r="J166" t="n">
-        <v>0.005612253271006309</v>
+        <v>0.005747883177523405</v>
       </c>
     </row>
     <row r="167">
@@ -7205,11 +7205,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[0.6298296451568604, 0.5968186259269714, 0.22986698150634766, 0.541168212890625, 0.5917154550552368, 0.41154611110687256, 0.1503235399723053, 0.3597896695137024, 0.46515846252441406, 0.3232390582561493, 0.5526202917098999, 0.307599812746048, 0.2705264389514923, 0.1123296320438385, 0.33111023902893066, 0.33415642380714417, 0.688203752040863, 0.25137266516685486, 0.20400981605052948, 0.19392676651477814, 0.1877845823764801, 0.4506268799304962, 0.39774182438850403, 0.697501540184021, 0.32109200954437256, 0.5325543284416199, 0.7829883694648743, 0.6430352926254272, 0.5772068500518799, 0.37975943088531494, 0.6340262293815613, 0.6834968328475952, 0.2922087609767914, 0.5452577471733093, 0.30557048320770264, 0.4958755075931549, 0.27499672770500183, 0.18572206795215607, 0.1258854866027832, 0.4262539744377136, 0.30829229950904846, 0.2831793427467346, 0.1715773344039917, 0.1207146868109703, 0.13650432229042053, 0.15717343986034393, 0.15527461469173431, 0.17760974168777466, 0.28782567381858826, 0.23948337137699127, 0.20165753364562988, 0.3287826478481293, 0.28516241908073425, 0.29140183329582214, 0.2915450930595398, 0.35487303137779236, 0.22741816937923431, 0.29704591631889343, 0.31683987379074097, 0.42884132266044617, 0.2506720721721649, 0.15378046035766602, 0.17222857475280762, 0.29516494274139404, 0.5735992789268494, 0.6368359327316284, 0.5151346325874329, 0.27273616194725037, 0.4875783920288086, 0.39399823546409607, 0.4968810975551605, 0.3944559693336487, 0.16204087436199188, 0.21634234488010406, 0.11246876418590546, 0.3079383671283722, 0.22527852654457092, 0.3542967438697815, 0.3247477412223816, 0.29538702964782715, 0.4067644476890564, 0.4221242368221283, 0.41666221618652344, 0.4516916871070862, 0.34450194239616394, 0.3082493543624878, 0.3319220542907715, 0.33272477984428406, 0.43152913451194763, 0.3930971622467041, 0.28945058584213257, 0.2294776290655136, 0.22096218168735504, 0.4152643084526062, 0.40848520398139954, 0.2528308629989624, 0.2824397385120392, 0.2112765610218048, 0.12296923249959946, 0.10799702256917953, 0.312478244304657, 0.1050984114408493, 0.09208453446626663, 0.1093849241733551, 0.23035073280334473, 0.20629233121871948, 0.2060810923576355]</t>
+          <t>[0.578399658203125, 0.6713157892227173, 0.26245787739753723, 0.5880162715911865, 0.6774492859840393, 0.5253342390060425, 0.14975030720233917, 0.34481024742126465, 0.5018702745437622, 0.3363472521305084, 0.6175137162208557, 0.20783191919326782, 0.2724493443965912, 0.061474721878767014, 0.3284246623516083, 0.32825133204460144, 0.8101877570152283, 0.26537594199180603, 0.13325223326683044, 0.11720099300146103, 0.15508832037448883, 0.5527877807617188, 0.6314489841461182, 0.7908794283866882, 0.3736605942249298, 0.5848159193992615, 0.8778086304664612, 0.7418309450149536, 0.6128724813461304, 0.2467271387577057, 0.5904582142829895, 0.8457908630371094, 0.3008788824081421, 0.6428800821304321, 0.28675511479377747, 0.3830185532569885, 0.23720397055149078, 0.18328246474266052, 0.07523533701896667, 0.416109174489975, 0.2712857723236084, 0.2550055682659149, 0.13823743164539337, 0.0671117976307869, 0.06247111037373543, 0.07841800898313522, 0.07098235934972763, 0.07291226834058762, 0.156016007065773, 0.17322780191898346, 0.10166175663471222, 0.23859970271587372, 0.13596738874912262, 0.16559836268424988, 0.18996983766555786, 0.18363633751869202, 0.1323590874671936, 0.2542848587036133, 0.31391677260398865, 0.3329419791698456, 0.11822041869163513, 0.06229887530207634, 0.07441692799329758, 0.20621562004089355, 0.5453545451164246, 0.6563712358474731, 0.5601639747619629, 0.13744516670703888, 0.36637285351753235, 0.17243315279483795, 0.22555777430534363, 0.17620359361171722, 0.04238932579755783, 0.0696249008178711, 0.029059406369924545, 0.1247793436050415, 0.09992625564336777, 0.199674591422081, 0.15069325268268585, 0.1783551126718521, 0.3004101514816284, 0.2721519470214844, 0.26406434178352356, 0.2603817880153656, 0.1995037943124771, 0.1489819884300232, 0.26514849066734314, 0.19758287072181702, 0.3939773738384247, 0.3150295913219452, 0.2499573528766632, 0.21406437456607819, 0.1349746584892273, 0.4675462543964386, 0.3232479393482208, 0.14575384557247162, 0.21349841356277466, 0.1454906314611435, 0.08219169080257416, 0.043905921280384064, 0.3926372528076172, 0.0477287657558918, 0.03586684167385101, 0.06065097451210022, 0.2134040743112564, 0.1648699939250946, 0.16449953615665436]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.7829883694648743</v>
+        <v>0.8778086304664612</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.6899020000128075</v>
+        <v>0.7368253000022378</v>
       </c>
       <c r="J167" t="n">
-        <v>0.006447682243110351</v>
+        <v>0.00688621775703026</v>
       </c>
     </row>
     <row r="168">
@@ -7245,11 +7245,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[0.36638203263282776, 0.5566002726554871, 0.39756906032562256, 0.48044922947883606, 0.40968871116638184, 0.1553209275007248, 0.491425484418869, 0.41926103830337524, 0.5462896227836609, 0.5275949835777283, 0.48065894842147827, 0.5357751250267029, 0.23683388531208038, 0.47913387417793274, 0.5154520273208618, 0.22959072887897491, 0.4703846275806427, 0.2613917291164398, 0.20666679739952087, 0.23805980384349823, 0.2952604293823242, 0.3452557325363159, 0.3687629699707031, 0.3537670373916626, 0.2568221688270569, 0.6559156775474548, 0.7643966674804688, 0.5791751742362976, 0.46851763129234314, 0.29216665029525757, 0.5894967913627625, 0.7505954504013062, 0.41440367698669434, 0.49041542410850525, 0.6460320353507996, 0.6016978621482849, 0.5398160219192505, 0.5441874861717224, 0.459035724401474, 0.41711947321891785, 0.4839136004447937, 0.5239281058311462, 0.27536794543266296, 0.21106497943401337, 0.225082665681839, 0.3924565613269806, 0.14800526201725006, 0.2941035032272339, 0.18385356664657593, 0.2650347650051117, 0.36915090680122375, 0.2161613255739212, 0.37967032194137573, 0.2658947706222534, 0.31465885043144226, 0.2399129569530487, 0.2107076495885849, 0.4906661808490753, 0.10090065747499466, 0.19779525697231293, 0.25920024514198303, 0.3519977033138275, 0.47382035851478577, 0.734853208065033, 0.36527079343795776, 0.4096423387527466, 0.4816770851612091, 0.2125268578529358, 0.16148491203784943, 0.3490886092185974, 0.2872670292854309, 0.6152583360671997, 0.24329665303230286, 0.3813210725784302, 0.24253179132938385, 0.1812741905450821, 0.2923889458179474, 0.3517554998397827, 0.7804290652275085, 0.5520086288452148, 0.5378329753875732, 0.7663224339485168, 0.5387470126152039, 0.6655539870262146, 0.7183916568756104, 0.5726640224456787, 0.750848650932312, 0.8095380663871765, 0.946683943271637, 0.9717357754707336, 0.9355958700180054, 0.3324563503265381, 0.11965452879667282, 0.37008166313171387, 0.4086799621582031, 0.37766918540000916, 0.3959612548351288, 0.2005174160003662, 0.08699125051498413, 0.28518232703208923, 0.30396127700805664, 0.513235330581665, 0.26411134004592896, 0.1686696708202362, 0.23711609840393066, 0.20332074165344238, 0.20356470346450806]</t>
+          <t>[0.4285402297973633, 0.7255290746688843, 0.5593650937080383, 0.601814329624176, 0.4482949674129486, 0.12645737826824188, 0.4740079641342163, 0.47592929005622864, 0.5147456526756287, 0.6340545415878296, 0.5064279437065125, 0.5765864253044128, 0.17456863820552826, 0.5891616344451904, 0.6839224100112915, 0.25228795409202576, 0.5048425793647766, 0.2869971692562103, 0.2688169777393341, 0.18181616067886353, 0.37109625339508057, 0.3690943419933319, 0.4342663288116455, 0.48636236786842346, 0.19270679354667664, 0.8046204447746277, 0.8573897480964661, 0.6607388257980347, 0.5484340190887451, 0.3397640287876129, 0.5707376003265381, 0.7971975803375244, 0.37431395053863525, 0.42648255825042725, 0.617741584777832, 0.6580300331115723, 0.42930275201797485, 0.47870007157325745, 0.6217407584190369, 0.5484682321548462, 0.6019735932350159, 0.7647594809532166, 0.5191486477851868, 0.3301278352737427, 0.32579752802848816, 0.5628701448440552, 0.24127478897571564, 0.4898981750011444, 0.16043569147586823, 0.25399747490882874, 0.4612801969051361, 0.219047412276268, 0.4067433178424835, 0.2853951156139374, 0.2609776556491852, 0.36122435331344604, 0.3497663736343384, 0.5723668932914734, 0.09733568131923676, 0.20568536221981049, 0.311561644077301, 0.26229986548423767, 0.5513389110565186, 0.8210287094116211, 0.5328112244606018, 0.6329736709594727, 0.6226601600646973, 0.3126814365386963, 0.20688161253929138, 0.5318666100502014, 0.32546302676200867, 0.660733163356781, 0.2755734622478485, 0.4293102025985718, 0.24854831397533417, 0.11197297275066376, 0.17636464536190033, 0.1777672916650772, 0.7139259576797485, 0.2780599296092987, 0.2889503836631775, 0.7207826972007751, 0.3933747112751007, 0.4089612662792206, 0.7311276197433472, 0.38431689143180847, 0.7949367165565491, 0.7659605145454407, 0.9606184363365173, 0.9867710471153259, 0.9737718105316162, 0.2908814251422882, 0.06491278111934662, 0.4497512876987457, 0.595050036907196, 0.37916216254234314, 0.34166622161865234, 0.20411317050457, 0.09566526114940643, 0.16176670789718628, 0.27156883478164673, 0.5434151291847229, 0.20589175820350647, 0.088177390396595, 0.18470731377601624, 0.13488741219043732, 0.13543498516082764]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.9717357754707336</v>
+        <v>0.9867710471153259</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.6098775999853387</v>
+        <v>0.6439221000036923</v>
       </c>
       <c r="J168" t="n">
-        <v>0.005699790654068586</v>
+        <v>0.006017963551436377</v>
       </c>
     </row>
     <row r="169">
@@ -7285,11 +7285,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[0.2813742756843567, 0.11039144545793533, 0.05527423694729805, 0.23257704079151154, 0.33595481514930725, 0.146877259016037, 0.2868283689022064, 0.16966436803340912, 0.13131986558437347, 0.20810863375663757, 0.24275419116020203, 0.4179323613643646, 0.5965724587440491, 0.2867707908153534, 0.10817927122116089, 0.16363973915576935, 0.34491488337516785, 0.7747388482093811, 0.3699209988117218, 0.13065111637115479, 0.08870730549097061, 0.504194974899292, 0.19666588306427002, 0.19922882318496704, 0.2937697172164917, 0.3250052332878113, 0.12899437546730042, 0.1117541640996933, 0.23199903964996338, 0.1792203038930893, 0.21026359498500824, 0.09693475067615509, 0.26033759117126465, 0.06137034669518471, 0.07115840166807175, 0.31994014978408813, 0.27602338790893555, 0.26642748713493347, 0.13493195176124573, 0.19062846899032593, 0.12477868050336838, 0.28081029653549194, 0.13231389224529266, 0.11735446006059647, 0.13829359412193298, 0.13009381294250488, 0.11246731132268906, 0.19236302375793457, 0.4659136235713959, 0.4755905568599701, 0.46076664328575134, 0.40333959460258484, 0.17079372704029083, 0.19102074205875397, 0.08852878957986832, 0.1785999983549118, 0.12863460183143616, 0.2051183581352234, 0.38526031374931335, 0.17643988132476807, 0.11793708056211472, 0.06080082058906555, 0.13803306221961975, 0.05753587186336517, 0.05920584872364998, 0.08100160956382751, 0.16105088591575623, 0.1848154217004776, 0.3747518062591553, 0.11156470328569412, 0.2426004558801651, 0.22513489425182343, 0.09949976950883865, 0.14184904098510742, 0.17167796194553375, 0.1728721410036087, 0.0788644477725029, 0.12815962731838226, 0.10523096472024918, 0.08192417770624161, 0.07584908604621887, 0.2105383425951004, 0.12665420770645142, 0.13137787580490112, 0.11841810494661331, 0.08777512609958649, 0.08048032969236374, 0.1148408055305481, 0.13062699139118195, 0.12064096331596375, 0.08866851776838303, 0.20476557314395905, 0.0775952935218811, 0.09691218286752701, 0.15077288448810577, 0.09121809154748917, 0.07612261921167374, 0.07200998067855835, 0.1467761993408203, 0.08753333240747452, 0.09104565531015396, 0.12520235776901245, 0.19553139805793762, 0.17275886237621307, 0.0993536189198494, 0.0800766795873642, 0.08017543703317642]</t>
+          <t>[0.33598145842552185, 0.14276200532913208, 0.058037158101797104, 0.4119518995285034, 0.5995677709579468, 0.15319965779781342, 0.406636506319046, 0.12611588835716248, 0.08485046774148941, 0.11372578144073486, 0.19333605468273163, 0.3197072446346283, 0.35985398292541504, 0.19434723258018494, 0.07637064158916473, 0.14781266450881958, 0.33523571491241455, 0.918202817440033, 0.27561554312705994, 0.07161369919776917, 0.07591288536787033, 0.6729652881622314, 0.260078102350235, 0.23703491687774658, 0.45010364055633545, 0.3494221866130829, 0.0821930468082428, 0.07481435686349869, 0.24389412999153137, 0.19053760170936584, 0.33027464151382446, 0.10876265168190002, 0.3055308759212494, 0.07240170985460281, 0.029974594712257385, 0.3456908166408539, 0.22556644678115845, 0.35263001918792725, 0.11367712914943695, 0.11556311696767807, 0.07314944267272949, 0.21940971910953522, 0.09283461421728134, 0.07107456773519516, 0.13382746279239655, 0.08603030443191528, 0.07239782065153122, 0.1909874677658081, 0.5497696399688721, 0.6911820769309998, 0.3528091609477997, 0.45359909534454346, 0.1749912053346634, 0.10718099772930145, 0.04533076658844948, 0.16168485581874847, 0.08945414423942566, 0.12713177502155304, 0.34255483746528625, 0.11949679255485535, 0.06835679709911346, 0.03423537313938141, 0.1062321737408638, 0.04458470642566681, 0.03745131194591522, 0.041141096502542496, 0.12053077667951584, 0.15265755355358124, 0.23848772048950195, 0.08992700278759003, 0.26335546374320984, 0.19703398644924164, 0.08640462905168533, 0.12054923176765442, 0.3275536596775055, 0.20034338533878326, 0.06641396135091782, 0.09461791068315506, 0.07822519540786743, 0.0601591058075428, 0.049646537750959396, 0.215584859251976, 0.09929607808589935, 0.15238933265209198, 0.11309374868869781, 0.07150772958993912, 0.04306120052933693, 0.0776987299323082, 0.08719488233327866, 0.0660078153014183, 0.0676724836230278, 0.17612439393997192, 0.05810065194964409, 0.07472217082977295, 0.12013819068670273, 0.04565667733550072, 0.058884356170892715, 0.07653407007455826, 0.10804539918899536, 0.05557633936405182, 0.05254213139414787, 0.09969115257263184, 0.21421705186367035, 0.1407419592142105, 0.0780017226934433, 0.042095016688108444, 0.04226022958755493]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.7747388482093811</v>
+        <v>0.918202817440033</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7303,10 +7303,10 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.619358599971747</v>
+        <v>0.6026344999991124</v>
       </c>
       <c r="J169" t="n">
-        <v>0.005788398130577075</v>
+        <v>0.005632098130832827</v>
       </c>
     </row>
     <row r="170">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[0.046694956719875336, 0.06610137224197388, 0.08397156000137329, 0.06577553600072861, 0.04929712787270546, 0.07944969832897186, 0.09978039562702179, 0.07672729343175888, 0.04539937153458595, 0.05367501452565193, 0.04409868270158768, 0.05737493559718132, 0.041342537850141525, 0.04398345947265625, 0.03340647742152214, 0.057707224041223526, 0.06058315560221672, 0.059486374258995056, 0.09876678138971329, 0.12031546980142593, 0.11512085795402527, 0.12850137054920197, 0.07422560453414917, 0.06183350086212158, 0.07848142832517624, 0.07657667249441147, 0.08235114812850952, 0.12935484945774078, 0.12729424238204956, 0.17020125687122345, 0.1505221277475357, 0.21778608858585358, 0.0930604413151741, 0.09626553952693939, 0.09832809120416641, 0.06365568935871124, 0.09436304867267609, 0.04859907925128937, 0.05193064361810684, 0.08149191737174988, 0.056350238621234894, 0.06621786206960678, 0.08651283383369446, 0.19316451251506805, 0.11877527832984924, 0.25694984197616577, 0.2105901539325714, 0.10714563727378845, 0.14333637058734894, 0.3082975745201111, 0.2911126911640167, 0.3799767792224884, 0.12960799038410187, 0.05936888977885246, 0.07959914952516556, 0.08402475714683533, 0.0992317646741867, 0.11773618310689926, 0.1128057986497879, 0.2012675702571869, 0.14588133990764618, 0.19580787420272827, 0.18614999949932098, 0.16638173162937164, 0.11123395711183548, 0.08264075219631195, 0.13701528310775757, 0.20135654509067535, 0.2656956613063812, 0.414050430059433, 0.405221164226532, 0.44301530718803406, 0.36685341596603394, 0.3084748685359955, 0.49564963579177856, 0.19297896325588226, 0.315104216337204, 0.23740364611148834, 0.34649965167045593, 0.22141988575458527, 0.22666727006435394, 0.19687190651893616, 0.18726785480976105, 0.22774353623390198, 0.19637782871723175, 0.10003969818353653, 0.13751786947250366, 0.11078760027885437, 0.13768483698368073, 0.22230181097984314, 0.14306455850601196, 0.24439860880374908, 0.09857042878866196, 0.10410124063491821, 0.15372353792190552, 0.28964176774024963, 0.14488078653812408, 0.2400432974100113, 0.12919028103351593, 0.10361077636480331, 0.06585133075714111, 0.05564158409833908, 0.0689144879579544, 0.08804090321063995, 0.04402788728475571, 0.08718953281641006, 0.08548063039779663]</t>
+          <t>[0.015427515842020512, 0.02258911542594433, 0.03939025476574898, 0.03581218421459198, 0.020310252904891968, 0.037774309515953064, 0.04584912583231926, 0.03404651954770088, 0.016655415296554565, 0.017841627821326256, 0.01641913503408432, 0.02092336118221283, 0.015083547681570053, 0.013661421835422516, 0.008516531437635422, 0.013908433727920055, 0.014074606820940971, 0.014589899219572544, 0.03192497417330742, 0.05033571645617485, 0.03870764002203941, 0.04478925094008446, 0.032863810658454895, 0.022145817056298256, 0.03174872696399689, 0.029576459899544716, 0.03259062021970749, 0.04838547110557556, 0.03634608909487724, 0.06924158334732056, 0.05405805632472038, 0.07600314170122147, 0.028135210275650024, 0.029663454741239548, 0.02433021366596222, 0.01796054095029831, 0.03252599015831947, 0.015024242922663689, 0.020042957738041878, 0.03119310364127159, 0.012891242280602455, 0.024402771145105362, 0.03734985366463661, 0.1252841204404831, 0.049422312527894974, 0.12976454198360443, 0.07417674362659454, 0.037507910281419754, 0.04543241113424301, 0.12618990242481232, 0.1201164498925209, 0.2600031793117523, 0.07105440646409988, 0.02037537656724453, 0.0198579840362072, 0.02493840456008911, 0.034036628901958466, 0.042380813509225845, 0.04659530147910118, 0.09806700050830841, 0.060792308300733566, 0.09064484387636185, 0.07965169847011566, 0.08645418286323547, 0.03974572569131851, 0.034248288720846176, 0.04995644465088844, 0.09789428859949112, 0.1445816457271576, 0.2507762908935547, 0.18493163585662842, 0.23304732143878937, 0.288405179977417, 0.1318243443965912, 0.32049527764320374, 0.08300590515136719, 0.20391501486301422, 0.11979587376117706, 0.20005324482917786, 0.12172465026378632, 0.10916848480701447, 0.10995976626873016, 0.07030846923589706, 0.0948481559753418, 0.08391212671995163, 0.04213981702923775, 0.07587090879678726, 0.04368665814399719, 0.0522102490067482, 0.08678215742111206, 0.04896187409758568, 0.0952625423669815, 0.02327856235206127, 0.04061909019947052, 0.08095638453960419, 0.11139309406280518, 0.04179856926202774, 0.08697625994682312, 0.04551438242197037, 0.04602118581533432, 0.017358772456645966, 0.018722645938396454, 0.02396922931075096, 0.0365658774971962, 0.012214114889502525, 0.03165345638990402, 0.030976789072155952]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.4956496357917786</v>
+        <v>0.3204952776432037</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.6127672000147868</v>
+        <v>0.6081852999923285</v>
       </c>
       <c r="J170" t="n">
-        <v>0.005726796261820437</v>
+        <v>0.005683974766283444</v>
       </c>
     </row>
     <row r="171">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[0.9880207180976868, 0.9929966330528259, 0.9921461939811707, 0.9878360629081726, 0.9950804710388184, 0.9955328702926636, 0.9803826808929443, 0.9931807518005371, 0.9907570481300354, 0.9833831191062927, 0.9823901653289795, 0.9925224184989929, 0.9929585456848145, 0.995503842830658, 0.9946724772453308, 0.9888052940368652, 0.9906787276268005, 0.9922550916671753, 0.9956782460212708, 0.9970917701721191, 0.9965100884437561, 0.9956102967262268, 0.9835464954376221, 0.9888595342636108, 0.993603527545929, 0.997867226600647, 0.9961541295051575, 0.9974971413612366, 0.9969205856323242, 0.9974932670593262, 0.9969791173934937, 0.9943232536315918, 0.9948439598083496, 0.9979311227798462, 0.9968079924583435, 0.9950580596923828, 0.997175931930542, 0.9951633214950562, 0.993243396282196, 0.9954772591590881, 0.9963603615760803, 0.9955339431762695, 0.995822548866272, 0.9902495741844177, 0.9949530363082886, 0.991348922252655, 0.9877390265464783, 0.9896933436393738, 0.9949445128440857, 0.9945098161697388, 0.9961487054824829, 0.9948699474334717, 0.9937713742256165, 0.993567168712616, 0.9972134232521057, 0.9975544810295105, 0.9962930083274841, 0.9976783394813538, 0.998087465763092, 0.9968608617782593, 0.9960636496543884, 0.9951776266098022, 0.9927054047584534, 0.9958237409591675, 0.9967845678329468, 0.9956462979316711, 0.9971261620521545, 0.9950453042984009, 0.9942798614501953, 0.9950199127197266, 0.9972097277641296, 0.9950523972511292, 0.9927024841308594, 0.9894915819168091, 0.9875172972679138, 0.9880232810974121, 0.9881018400192261, 0.9876997470855713, 0.9702790975570679, 0.9895220398902893, 0.9954571723937988, 0.9960575103759766, 0.9900964498519897, 0.9659820199012756, 0.9914296269416809, 0.9869236350059509, 0.9894417524337769, 0.9873465895652771, 0.9960471987724304, 0.9959534406661987, 0.9908561706542969, 0.9829767942428589, 0.9852884411811829, 0.9933911561965942, 0.9951855540275574, 0.9950627684593201, 0.9956353306770325, 0.99741131067276, 0.994094967842102, 0.9944517016410828, 0.9931908249855042, 0.9929391145706177, 0.9931524991989136, 0.994806706905365, 0.9959801435470581, 0.9946221113204956, 0.9941573143005371, 0.9960334897041321, 0.994743824005127, 0.9944114089012146, 0.9903050661087036, 0.9931622743606567, 0.992982029914856, 0.9939078092575073, 0.9942873120307922, 0.9927843809127808, 0.9913356304168701, 0.9913414120674133]</t>
+          <t>[0.9933146834373474, 0.9963533878326416, 0.9968878626823425, 0.994702160358429, 0.9977967739105225, 0.9981125593185425, 0.9876617193222046, 0.9969708919525146, 0.9952752590179443, 0.9919965863227844, 0.9942613840103149, 0.996791422367096, 0.9968482851982117, 0.9977906942367554, 0.9977009892463684, 0.9935897588729858, 0.9955767393112183, 0.9964476823806763, 0.9983882904052734, 0.9989405274391174, 0.9984244108200073, 0.9980027079582214, 0.9861108064651489, 0.994347870349884, 0.9972403049468994, 0.9990290403366089, 0.9981599450111389, 0.999096155166626, 0.998869001865387, 0.9991377592086792, 0.9987547397613525, 0.9974120259284973, 0.997550904750824, 0.9991629123687744, 0.9988651275634766, 0.9979740977287292, 0.9989315867424011, 0.9979196190834045, 0.9971611499786377, 0.9980586171150208, 0.9979662895202637, 0.9980753660202026, 0.9982934594154358, 0.9964228272438049, 0.9980631470680237, 0.9965533018112183, 0.9967837333679199, 0.9966236352920532, 0.9982959628105164, 0.9978208541870117, 0.9987704157829285, 0.998250424861908, 0.9977472424507141, 0.9977732300758362, 0.9990511536598206, 0.9992535710334778, 0.9987871050834656, 0.9992097616195679, 0.9993879795074463, 0.9989290833473206, 0.9986740350723267, 0.9986317753791809, 0.9978943467140198, 0.9980559349060059, 0.9988118410110474, 0.9986190795898438, 0.999091625213623, 0.9979045391082764, 0.9971543550491333, 0.9977649450302124, 0.9987725615501404, 0.9980757236480713, 0.9972714781761169, 0.9963375329971313, 0.9954043626785278, 0.9960143566131592, 0.9961779117584229, 0.9971849322319031, 0.9913843870162964, 0.9964684247970581, 0.9979105591773987, 0.9982597231864929, 0.9967871904373169, 0.983857274055481, 0.9975135326385498, 0.9955754280090332, 0.9955215454101562, 0.9943079352378845, 0.998534083366394, 0.9985297918319702, 0.9951010346412659, 0.9911909699440002, 0.9920483231544495, 0.9964597821235657, 0.9983034133911133, 0.9984568357467651, 0.9981006979942322, 0.9989989399909973, 0.9977007508277893, 0.998324453830719, 0.9978979825973511, 0.9974621534347534, 0.9982170462608337, 0.9983639121055603, 0.9985703229904175, 0.9982876181602478, 0.9980181455612183, 0.9985815286636353, 0.9979090690612793, 0.9978856444358826, 0.997215986251831, 0.9974539875984192, 0.998180627822876, 0.9983296990394592, 0.9986575841903687, 0.9965807795524597, 0.9974110722541809, 0.9974164962768555]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.998087465763092</v>
+        <v>0.9993879795074463</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.6804378000088036</v>
+        <v>0.7137019000074361</v>
       </c>
       <c r="J171" t="n">
-        <v>0.005766422033972912</v>
+        <v>0.006048321186503695</v>
       </c>
     </row>
     <row r="172">
@@ -7405,11 +7405,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[0.9787493348121643, 0.972735583782196, 0.974908709526062, 0.9678516983985901, 0.9913141131401062, 0.987999439239502, 0.9576637744903564, 0.9796055555343628, 0.9189828634262085, 0.8543522357940674, 0.9499078989028931, 0.9741398096084595, 0.8913773894309998, 0.8327043056488037, 0.902808427810669, 0.9677828550338745, 0.947766125202179, 0.9252179861068726, 0.9813612103462219, 0.9768869280815125, 0.9891874194145203, 0.982435405254364, 0.9894931316375732, 0.989963710308075, 0.9688355326652527, 0.972480297088623, 0.977360725402832, 0.9689404964447021, 0.9650765061378479, 0.9555879831314087, 0.9867183566093445, 0.9779821038246155, 0.9842892289161682, 0.9643105864524841, 0.9595243334770203, 0.9740079045295715, 0.9937029480934143, 0.9937671422958374, 0.9807274341583252, 0.936869204044342, 0.6844090819358826, 0.830213189125061, 0.9422286748886108, 0.9247187972068787, 0.9446507096290588, 0.9390363693237305, 0.9533455967903137, 0.9703394770622253, 0.955091655254364, 0.9577538967132568, 0.9763833284378052, 0.9794859886169434, 0.9815400242805481, 0.9934399724006653, 0.9949511289596558, 0.9934287667274475, 0.9906522035598755, 0.9793968200683594, 0.990391731262207, 0.9975852966308594, 0.9973356127738953, 0.9953532218933105, 0.994869589805603, 0.9963616728782654, 0.9962940812110901, 0.9961134195327759, 0.9933888912200928, 0.9921693205833435, 0.9901244044303894, 0.9954338669776917, 0.9967862367630005, 0.9899964332580566, 0.993671178817749, 0.983866810798645, 0.9754626154899597, 0.993675172328949, 0.9663798213005066, 0.8768535256385803, 0.9947987794876099, 0.989276647567749, 0.9705759286880493, 0.9779306650161743, 0.9801614880561829, 0.9689162969589233, 0.9897634983062744, 0.9938598871231079, 0.9956513047218323, 0.997489333152771, 0.9876796007156372, 0.9960327744483948, 0.9973897337913513, 0.9971545934677124, 0.9957472681999207, 0.9956966638565063, 0.9951819777488708, 0.9899473786354065, 0.9703842401504517, 0.9666603803634644, 0.9680700898170471, 0.961617648601532, 0.9529973864555359, 0.927789032459259, 0.9940365552902222, 0.9972209930419922, 0.9943076968193054, 0.9949689507484436, 0.9964832067489624, 0.9967347979545593, 0.9978218078613281, 0.9963625073432922, 0.9954110980033875, 0.996161937713623, 0.995108425617218, 0.9948469400405884, 0.9932854175567627, 0.9949657320976257, 0.9959421753883362, 0.995930016040802]</t>
+          <t>[0.988514244556427, 0.9778413772583008, 0.9797357320785522, 0.9831704497337341, 0.9946416616439819, 0.9918792843818665, 0.9670795798301697, 0.9855892062187195, 0.9473831653594971, 0.900077223777771, 0.9686400890350342, 0.9883224368095398, 0.9271001815795898, 0.9038640856742859, 0.9464971423149109, 0.9764999151229858, 0.9608511328697205, 0.9535734057426453, 0.9890823364257812, 0.9859833121299744, 0.9958556294441223, 0.9936739206314087, 0.996025800704956, 0.996459424495697, 0.9863894581794739, 0.9844010472297668, 0.9890696406364441, 0.9904620051383972, 0.9821456074714661, 0.9679294228553772, 0.9919068813323975, 0.9888505339622498, 0.9922135472297668, 0.9830326437950134, 0.9859111309051514, 0.9832763671875, 0.9976282715797424, 0.9971935153007507, 0.9902811050415039, 0.9635346531867981, 0.6532586216926575, 0.9053300619125366, 0.9515203237533569, 0.9416717886924744, 0.957490086555481, 0.9468027353286743, 0.9637182950973511, 0.9791315793991089, 0.9639219641685486, 0.9505690336227417, 0.9806873202323914, 0.9897560477256775, 0.9920586943626404, 0.9966391324996948, 0.9970635771751404, 0.9950450658798218, 0.9930886626243591, 0.9841631650924683, 0.9960054755210876, 0.9988493919372559, 0.99882572889328, 0.9973809123039246, 0.9974950551986694, 0.9983409643173218, 0.9985540509223938, 0.9980722665786743, 0.9969893097877502, 0.9975076913833618, 0.9963796734809875, 0.9979482293128967, 0.998618483543396, 0.9953457713127136, 0.9967087507247925, 0.9916678071022034, 0.9852592945098877, 0.9975977540016174, 0.9849536418914795, 0.9038273692131042, 0.9978368878364563, 0.9943574070930481, 0.9775320291519165, 0.985217273235321, 0.9858023524284363, 0.9826520681381226, 0.9946334362030029, 0.9966423511505127, 0.9977078437805176, 0.9990720748901367, 0.9939876794815063, 0.9980344176292419, 0.9987824559211731, 0.998547375202179, 0.9975185394287109, 0.9975804090499878, 0.9974218606948853, 0.9917763471603394, 0.9598408937454224, 0.9621254205703735, 0.9532402753829956, 0.9627429246902466, 0.947302520275116, 0.9297979474067688, 0.9960787892341614, 0.9982896447181702, 0.9964420199394226, 0.9967042803764343, 0.9975232481956482, 0.9978185892105103, 0.9987601041793823, 0.9971715807914734, 0.99679034948349, 0.9971426129341125, 0.9958237409591675, 0.9962804913520813, 0.9951310157775879, 0.9964784979820251, 0.9975905418395996, 0.9975929856300354]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.9978218078613281</v>
+        <v>0.9990720748901367</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.6695349999936298</v>
+        <v>0.6859028000035323</v>
       </c>
       <c r="J172" t="n">
-        <v>0.005674025423674829</v>
+        <v>0.005812735593250274</v>
       </c>
     </row>
     <row r="173">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[0.9917497038841248, 0.9910675883293152, 0.9912444353103638, 0.9770452976226807, 0.971671462059021, 0.9767523407936096, 0.9644923806190491, 0.9264092445373535, 0.9782726764678955, 0.9720744490623474, 0.9735110998153687, 0.9488134980201721, 0.9569754004478455, 0.9587095379829407, 0.981681764125824, 0.9932107329368591, 0.9974473714828491, 0.9979562759399414, 0.995352029800415, 0.9927746057510376, 0.789700984954834, 0.7786852717399597, 0.466519296169281, 0.882904052734375, 0.9580597281455994, 0.937992513179779, 0.9424962997436523, 0.9609622955322266, 0.9191017746925354, 0.9383580088615417, 0.9629855751991272, 0.9395735859870911, 0.9443623423576355, 0.5238077044487, 0.5994666814804077, 0.74721759557724, 0.7333567142486572, 0.8737987875938416, 0.8545498847961426, 0.9677150845527649, 0.9728047251701355, 0.9895580410957336, 0.9953151941299438, 0.9965103268623352, 0.9975071549415588, 0.9956356883049011, 0.9918811917304993, 0.9921370148658752, 0.987857460975647, 0.9893729090690613, 0.9934695959091187, 0.9934877157211304, 0.9937253594398499, 0.9976091384887695, 0.9908905625343323, 0.9914835095405579, 0.9978322386741638, 0.9977695941925049, 0.997616171836853, 0.9961903095245361, 0.9962399005889893, 0.984649121761322, 0.9604644179344177, 0.9405150413513184, 0.9788103103637695, 0.9668595790863037, 0.9232566952705383, 0.9379367232322693, 0.9557573795318604, 0.9672754406929016, 0.9940952062606812, 0.9976206421852112, 0.9943846464157104, 0.997161865234375, 0.7886659502983093, 0.642687976360321, 0.6003280282020569, 0.9635286927223206, 0.8420600295066833, 0.9558631181716919, 0.9332056641578674, 0.9728195071220398, 0.9705952405929565, 0.9835166335105896, 0.9869214296340942, 0.9920875430107117, 0.9854137897491455, 0.9707909822463989, 0.9876281023025513, 0.9657599329948425, 0.9964430928230286, 0.9966909885406494, 0.9976745247840881, 0.997323215007782, 0.9963498115539551, 0.9928255081176758, 0.992695689201355, 0.9921553730964661, 0.9867776036262512, 0.934811532497406, 0.9881375432014465, 0.9936246871948242, 0.9955610036849976, 0.9827336072921753, 0.9507498145103455, 0.8901865482330322, 0.9778583645820618, 0.9906101822853088, 0.9751679301261902, 0.943071186542511, 0.7653260827064514, 0.9191983938217163, 0.9036697149276733, 0.9756157994270325, 0.9788442254066467, 0.9505664110183716, 0.9607669711112976, 0.9608701467514038]</t>
+          <t>[0.9950271248817444, 0.9935184121131897, 0.9953241944313049, 0.9873139262199402, 0.9868135452270508, 0.9895836114883423, 0.9781982898712158, 0.9560230374336243, 0.9904927611351013, 0.9848141074180603, 0.9815735220909119, 0.9693478345870972, 0.9775681495666504, 0.9721916317939758, 0.989500105381012, 0.9966813921928406, 0.9989610910415649, 0.9991440773010254, 0.9981130361557007, 0.9966268539428711, 0.8923807740211487, 0.8856189250946045, 0.5666748881340027, 0.9372376799583435, 0.9657968282699585, 0.9676913022994995, 0.9678919315338135, 0.9782488346099854, 0.9628950953483582, 0.9739789366722107, 0.9892596006393433, 0.9767509698867798, 0.9708920121192932, 0.6356794834136963, 0.5838404297828674, 0.7491657137870789, 0.7597367763519287, 0.9072245359420776, 0.9008335471153259, 0.9829429388046265, 0.9823635816574097, 0.9952777624130249, 0.997331976890564, 0.9981096982955933, 0.9986804127693176, 0.9975138902664185, 0.9950868487358093, 0.9945835471153259, 0.9927154183387756, 0.994661271572113, 0.9964839220046997, 0.9964112639427185, 0.9975749850273132, 0.9990885257720947, 0.996606707572937, 0.9969502091407776, 0.9990290403366089, 0.999125063419342, 0.9991863369941711, 0.9986526966094971, 0.9987683892250061, 0.9916199445724487, 0.9753329157829285, 0.954905092716217, 0.9852690100669861, 0.9794626832008362, 0.9584235548973083, 0.9562357664108276, 0.9767404198646545, 0.9778822064399719, 0.9975001215934753, 0.9990391731262207, 0.9973984956741333, 0.9988992214202881, 0.817755937576294, 0.6072593927383423, 0.5585412979125977, 0.9762070775032043, 0.856712281703949, 0.962302029132843, 0.9626303315162659, 0.9816800355911255, 0.9715012311935425, 0.9877803325653076, 0.9918637275695801, 0.9954984188079834, 0.993920087814331, 0.974600076675415, 0.9915436506271362, 0.9681576490402222, 0.9980486631393433, 0.9986422657966614, 0.9989044666290283, 0.9988570213317871, 0.9981131553649902, 0.9977232813835144, 0.996183454990387, 0.9963505268096924, 0.993744432926178, 0.9661798477172852, 0.996610701084137, 0.9974356293678284, 0.998314619064331, 0.9952461123466492, 0.9742890000343323, 0.9127627015113831, 0.9824455976486206, 0.9956804513931274, 0.984176754951477, 0.9607694745063782, 0.8940140604972839, 0.9581920504570007, 0.9315589070320129, 0.9920490384101868, 0.9896725416183472, 0.9722225069999695, 0.9747680425643921, 0.974823534488678]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9979562759399414</v>
+        <v>0.9991863369941711</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.6650492000044324</v>
+        <v>0.6757658999995328</v>
       </c>
       <c r="J173" t="n">
-        <v>0.005636010169529088</v>
+        <v>0.00572682966101299</v>
       </c>
     </row>
     <row r="174">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[0.9181131720542908, 0.910836935043335, 0.9292958974838257, 0.7644287943840027, 0.6253057718276978, 0.7899529337882996, 0.9690691828727722, 0.9641701579093933, 0.9437297582626343, 0.9568092823028564, 0.938597559928894, 0.9217231869697571, 0.9812088012695312, 0.9728580713272095, 0.980525553226471, 0.9369375705718994, 0.9720525145530701, 0.9681058526039124, 0.9835182428359985, 0.9834920763969421, 0.9879194498062134, 0.9905129075050354, 0.9897410869598389, 0.9833922386169434, 0.9810272455215454, 0.9878563284873962, 0.9887228012084961, 0.990327775478363, 0.9898067116737366, 0.9716079831123352, 0.9275349974632263, 0.5478646159172058, 0.4714430868625641, 0.6527918577194214, 0.811935305595398, 0.9418912529945374, 0.9821876287460327, 0.9899040460586548, 0.8698388934135437, 0.9771955013275146, 0.9754263162612915, 0.9902843832969666, 0.9870296716690063, 0.9841648936271667, 0.989871084690094, 0.9905698299407959, 0.9880751967430115, 0.988477885723114, 0.9887931942939758, 0.9916350841522217, 0.9884055852890015, 0.9900330901145935, 0.9856147766113281, 0.9807613492012024, 0.962630569934845, 0.9319406151771545, 0.9699727892875671, 0.9522035717964172, 0.9577515721321106, 0.9499130249023438, 0.7864156365394592, 0.45813554525375366, 0.5671172738075256, 0.5425506830215454, 0.40223026275634766, 0.49978166818618774, 0.43986254930496216, 0.6419298052787781, 0.5954858660697937, 0.6748855710029602, 0.2713713049888611, 0.17496362328529358, 0.7452131509780884, 0.9431944489479065, 0.974230170249939, 0.9843491911888123, 0.9859263896942139, 0.9882315993309021, 0.9795055389404297, 0.9660453200340271, 0.9705358147621155, 0.9926183819770813, 0.989540159702301, 0.9605616331100464, 0.9743781089782715, 0.9842352867126465, 0.978791356086731, 0.9762181043624878, 0.9463890790939331, 0.9855610728263855, 0.9884433150291443, 0.9820190668106079, 0.9817960858345032, 0.9856943488121033, 0.9758029580116272, 0.9789532423019409, 0.9758169054985046, 0.9866486191749573, 0.9780264496803284, 0.9705820679664612, 0.8493184447288513, 0.7684797644615173, 0.8108806610107422, 0.7865451574325562, 0.7948006391525269, 0.8195629715919495, 0.863307535648346, 0.9221476316452026, 0.9533030390739441, 0.9757625460624695, 0.9763733148574829, 0.9430921077728271, 0.9622753858566284, 0.9702609181404114, 0.9871122241020203, 0.9752578139305115, 0.9860974550247192, 0.9860886931419373]</t>
+          <t>[0.9642159938812256, 0.9336668252944946, 0.9511482119560242, 0.8083703517913818, 0.7393038272857666, 0.816730260848999, 0.9828848838806152, 0.9812625050544739, 0.9748411774635315, 0.980340301990509, 0.9669159650802612, 0.9486331939697266, 0.985772430896759, 0.9775254130363464, 0.9800395369529724, 0.9396035671234131, 0.9746339321136475, 0.9793749451637268, 0.9911688566207886, 0.9899026155471802, 0.9913250207901001, 0.9927980303764343, 0.9951853156089783, 0.9925261735916138, 0.9916982650756836, 0.9946028590202332, 0.9943511486053467, 0.9951745867729187, 0.9947473406791687, 0.9869897961616516, 0.9627504348754883, 0.6140846610069275, 0.4380713403224945, 0.7382938265800476, 0.8496944308280945, 0.9677432775497437, 0.9905232787132263, 0.9954140186309814, 0.9232353568077087, 0.9852161407470703, 0.9895360469818115, 0.9961200952529907, 0.9949100613594055, 0.9917774200439453, 0.9923921227455139, 0.9948051571846008, 0.9927788376808167, 0.989260196685791, 0.9938820600509644, 0.9958518743515015, 0.9933920502662659, 0.9954319000244141, 0.9915152788162231, 0.991285502910614, 0.9798046350479126, 0.9762254953384399, 0.986689567565918, 0.9723910093307495, 0.9727161526679993, 0.9866928458213806, 0.8705345988273621, 0.5192082524299622, 0.6979513764381409, 0.6368274092674255, 0.482619971036911, 0.5925722718238831, 0.6219559907913208, 0.8078325390815735, 0.7298117876052856, 0.7907270193099976, 0.34751617908477783, 0.1993807703256607, 0.8652976155281067, 0.9752777814865112, 0.9881354570388794, 0.9925497770309448, 0.9938092827796936, 0.9959501028060913, 0.993389368057251, 0.9762095808982849, 0.9663318395614624, 0.9970301389694214, 0.9954916834831238, 0.9784063100814819, 0.986722469329834, 0.9902474284172058, 0.9874952435493469, 0.9850874543190002, 0.9570493102073669, 0.9918761253356934, 0.9947469830513, 0.9925497770309448, 0.9898555278778076, 0.9907259941101074, 0.991094708442688, 0.992807149887085, 0.9937645196914673, 0.9938913583755493, 0.9887386560440063, 0.9907722473144531, 0.9278675317764282, 0.8916409611701965, 0.8867378830909729, 0.840188205242157, 0.8926684260368347, 0.8986403346061707, 0.9220636487007141, 0.957287609577179, 0.9819853901863098, 0.9909104704856873, 0.9915580749511719, 0.9709775447845459, 0.9791063070297241, 0.9788714051246643, 0.9919586181640625, 0.9810231328010559, 0.9924235343933105, 0.9924190044403076]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9926183819770813</v>
+        <v>0.9970301389694214</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.6701618999941275</v>
+        <v>0.6831749000120908</v>
       </c>
       <c r="J174" t="n">
-        <v>0.005679338135543453</v>
+        <v>0.005789617796712634</v>
       </c>
     </row>
     <row r="175">
@@ -7525,11 +7525,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[0.7557962536811829, 0.4556114375591278, 0.7181802988052368, 0.4197303056716919, 0.9818148016929626, 0.5193123817443848, 0.5653040409088135, 0.9330059289932251, 0.9778845906257629, 0.9529488682746887, 0.9947465062141418, 0.9947550296783447, 0.9804261922836304, 0.9581086039543152, 0.8116558194160461, 0.75212162733078, 0.8462697267532349, 0.732298731803894, 0.8517938256263733, 0.8784241676330566, 0.9530035853385925, 0.986369252204895, 0.9822421073913574, 0.9365190267562866, 0.9314249753952026, 0.9114419221878052, 0.9525982737541199, 0.9898680448532104, 0.9592666029930115, 0.9713876247406006, 0.96781986951828, 0.9896790981292725, 0.995521068572998, 0.9904959201812744, 0.9870095252990723, 0.9922134280204773, 0.9960917830467224, 0.9973468780517578, 0.9968205690383911, 0.9956841468811035, 0.9967777132987976, 0.9976751208305359, 0.9898697733879089, 0.9872227907180786, 0.8884642720222473, 0.9389224052429199, 0.8255541920661926, 0.9295248985290527, 0.653079628944397, 0.870644748210907, 0.6764242649078369, 0.9462897777557373, 0.9745122194290161, 0.7630844116210938, 0.5956379175186157, 0.5710405111312866, 0.7343097925186157, 0.8846015930175781, 0.9515812993049622, 0.6211261749267578, 0.6285563111305237, 0.7107712030410767, 0.7133099436759949, 0.5036523342132568, 0.6476341485977173, 0.7688159346580505, 0.9485052824020386, 0.9478326439857483, 0.9363915920257568, 0.8652858734130859, 0.9164586067199707, 0.9649549126625061, 0.9765006303787231, 0.9799169898033142, 0.9210143685340881, 0.9782402515411377, 0.9817650318145752, 0.9768904447555542, 0.975899338722229, 0.9651436805725098, 0.9700495004653931, 0.9806484580039978, 0.9740952253341675, 0.985567569732666, 0.977445125579834, 0.9715643525123596, 0.9671819806098938, 0.9756026268005371, 0.986156702041626, 0.9832467436790466, 0.94682377576828, 0.9773149490356445, 0.9506551623344421, 0.726528525352478, 0.9587858319282532, 0.9866688251495361, 0.980381965637207, 0.9599737524986267, 0.9107847213745117, 0.9445520043373108, 0.914979875087738, 0.9269003868103027, 0.9534890651702881, 0.9191828370094299, 0.36359483003616333, 0.37410423159599304, 0.2996516525745392, 0.46906164288520813, 0.3369421362876892, 0.3746081590652466, 0.4618271291255951, 0.8615354895591736, 0.974626362323761, 0.8497811555862427, 0.6706563234329224, 0.35851889848709106, 0.27321603894233704, 0.44868847727775574, 0.44874030351638794]</t>
+          <t>[0.884396493434906, 0.5225189328193665, 0.7845213413238525, 0.4190210700035095, 0.9941112399101257, 0.5615509748458862, 0.6022348999977112, 0.9666259288787842, 0.9889923334121704, 0.9883503913879395, 0.9979947805404663, 0.9976321458816528, 0.986473560333252, 0.9732903838157654, 0.8445076942443848, 0.7946429252624512, 0.916086733341217, 0.8293118476867676, 0.9022464156150818, 0.9339610934257507, 0.9680408239364624, 0.9944210648536682, 0.9931968450546265, 0.9605858325958252, 0.9719546437263489, 0.9489908218383789, 0.9762874245643616, 0.9970492720603943, 0.9884878993034363, 0.9882211089134216, 0.9898532032966614, 0.9974223375320435, 0.9983054399490356, 0.9964601397514343, 0.9938741326332092, 0.9979189038276672, 0.9984945058822632, 0.9989810585975647, 0.9990091323852539, 0.998532772064209, 0.9983872175216675, 0.9992362260818481, 0.9963016510009766, 0.9964020252227783, 0.9529508352279663, 0.9774143695831299, 0.8730090856552124, 0.9643901586532593, 0.6455434560775757, 0.8962900638580322, 0.7232221961021423, 0.9658750891685486, 0.9854311943054199, 0.8048824667930603, 0.632057249546051, 0.5535777807235718, 0.8782709240913391, 0.9463018178939819, 0.984350323677063, 0.7229453921318054, 0.7849780917167664, 0.8844192028045654, 0.923381507396698, 0.7302058935165405, 0.8132396340370178, 0.9076130390167236, 0.9847373366355896, 0.9811561107635498, 0.982756495475769, 0.9323595762252808, 0.9617729783058167, 0.9871459007263184, 0.9910697937011719, 0.9915578365325928, 0.9642457365989685, 0.9925785660743713, 0.994296133518219, 0.9896814227104187, 0.9912446141242981, 0.9927114248275757, 0.987432599067688, 0.9925332069396973, 0.9899852275848389, 0.9939939379692078, 0.9928845763206482, 0.9885208606719971, 0.9875237345695496, 0.9905418753623962, 0.995461642742157, 0.9936439990997314, 0.9825724363327026, 0.9926738142967224, 0.9850078821182251, 0.8592888712882996, 0.9866983890533447, 0.9963750243186951, 0.9939998388290405, 0.9859743714332581, 0.9504864811897278, 0.9734039306640625, 0.9707967638969421, 0.979604959487915, 0.9822714328765869, 0.9747884273529053, 0.40740862488746643, 0.39239776134490967, 0.3969011902809143, 0.4541824758052826, 0.3318195939064026, 0.40414103865623474, 0.5073533654212952, 0.9341569542884827, 0.9919165968894958, 0.961094081401825, 0.8329223990440369, 0.5465086102485657, 0.35635706782341003, 0.7393603920936584, 0.7395535111427307]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9976751208305359</v>
+        <v>0.9992362260818481</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.6802329000202008</v>
+        <v>0.6840499999962049</v>
       </c>
       <c r="J175" t="n">
-        <v>0.005716242857312611</v>
+        <v>0.0057483193276992</v>
       </c>
     </row>
     <row r="176">
@@ -7565,11 +7565,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[0.1872401237487793, 0.2585355341434479, 0.20139513909816742, 0.23428623378276825, 0.7335944771766663, 0.8826724290847778, 0.496147096157074, 0.2482733130455017, 0.18228207528591156, 0.25482580065727234, 0.15174806118011475, 0.4177955687046051, 0.13268285989761353, 0.2275782823562622, 0.6955549120903015, 0.9024083018302917, 0.41933414340019226, 0.1690073013305664, 0.33499056100845337, 0.4196453094482422, 0.45971131324768066, 0.17481620609760284, 0.886476457118988, 0.25776246190071106, 0.7544416189193726, 0.7446040511131287, 0.9800951480865479, 0.9553627967834473, 0.9635115265846252, 0.94617760181427, 0.9549306035041809, 0.5126526355743408, 0.6736060976982117, 0.80998295545578, 0.7387821078300476, 0.9391289949417114, 0.6797074675559998, 0.20519442856311798, 0.9191806316375732, 0.9450334906578064, 0.929672122001648, 0.4757052958011627, 0.4530092477798462, 0.5139070749282837, 0.2814861536026001, 0.2989961504936218, 0.9799301624298096, 0.9811060428619385, 0.9774895310401917, 0.9093248248100281, 0.1281656175851822, 0.21548683941364288, 0.3064097464084625, 0.5384206175804138, 0.5868799090385437, 0.4628770649433136, 0.863875150680542, 0.8536709547042847, 0.9639471173286438, 0.9728303551673889, 0.9785603880882263, 0.9617969393730164, 0.9542858600616455, 0.9175403714179993, 0.9395124316215515, 0.9456430077552795, 0.8993464112281799, 0.8362445831298828, 0.8616969585418701, 0.44259411096572876, 0.4794113039970398, 0.5496901869773865, 0.8465080857276917, 0.8626673817634583, 0.9364288449287415, 0.9408971667289734, 0.6464268565177917, 0.30517494678497314, 0.42188170552253723, 0.5067980885505676, 0.7340313792228699, 0.48499026894569397, 0.841100811958313, 0.9603902101516724, 0.9061821699142456, 0.699657142162323, 0.9467622637748718, 0.9307068586349487, 0.8360134363174438, 0.4157927334308624, 0.27480971813201904, 0.302650511264801, 0.11608677357435226, 0.3416177034378052, 0.4571181535720825, 0.41839146614074707, 0.6196686625480652, 0.9354904890060425, 0.9878805875778198, 0.9756473302841187, 0.915209174156189, 0.9473689198493958, 0.8735341429710388, 0.8072240948677063, 0.9226316809654236, 0.6964135766029358, 0.6228108406066895, 0.29232293367385864, 0.20954100787639618, 0.13533559441566467, 0.16215945780277252, 0.22800517082214355, 0.16197490692138672, 0.18530142307281494, 0.43540894985198975, 0.18915274739265442, 0.2595146894454956, 0.25992003083229065]</t>
+          <t>[0.16699782013893127, 0.21493010222911835, 0.190897598862648, 0.2512994408607483, 0.8881663084030151, 0.9651697874069214, 0.5154625177383423, 0.2804354131221771, 0.1409176141023636, 0.23416678607463837, 0.12990213930606842, 0.7138353586196899, 0.10974565893411636, 0.236983984708786, 0.9047731757164001, 0.9480673670768738, 0.6398084759712219, 0.16951610147953033, 0.4711068272590637, 0.5445189476013184, 0.8005077242851257, 0.12288033962249756, 0.9469547271728516, 0.17023901641368866, 0.8443329334259033, 0.7343248128890991, 0.9901291728019714, 0.9562056660652161, 0.9755026698112488, 0.9532985687255859, 0.9594420194625854, 0.4725189805030823, 0.736843466758728, 0.8814693689346313, 0.784511148929596, 0.9702650308609009, 0.6065526604652405, 0.15256114304065704, 0.9641467332839966, 0.9631398320198059, 0.9469313025474548, 0.3717119097709656, 0.3095887303352356, 0.5109377503395081, 0.30124807357788086, 0.37184232473373413, 0.9927207827568054, 0.9947085380554199, 0.9903539419174194, 0.9493943452835083, 0.07179960608482361, 0.18093368411064148, 0.22642068564891815, 0.5290356278419495, 0.5133861899375916, 0.5147876739501953, 0.9160193204879761, 0.9342444539070129, 0.9872924089431763, 0.9869530200958252, 0.9857139587402344, 0.9771207571029663, 0.9688438773155212, 0.8867833614349365, 0.9659821391105652, 0.9592871069908142, 0.8842130899429321, 0.8031160235404968, 0.8530942797660828, 0.39081937074661255, 0.4691840708255768, 0.5123597383499146, 0.8160185813903809, 0.8848812580108643, 0.9769582152366638, 0.979977011680603, 0.7435041069984436, 0.35895243287086487, 0.48137471079826355, 0.636613667011261, 0.6485686898231506, 0.495102196931839, 0.9234917163848877, 0.9861840605735779, 0.9635351300239563, 0.776945948600769, 0.9795220494270325, 0.9754292964935303, 0.9589657783508301, 0.47292691469192505, 0.15725775063037872, 0.17640420794487, 0.07863657921552658, 0.3553391396999359, 0.5026026368141174, 0.4369126558303833, 0.7295810580253601, 0.9573287963867188, 0.9944317936897278, 0.9875182509422302, 0.8813494443893433, 0.9505653381347656, 0.8545451164245605, 0.854226291179657, 0.9405840039253235, 0.6375516057014465, 0.5962796807289124, 0.20776480436325073, 0.19884084165096283, 0.08181359618902206, 0.12371078133583069, 0.16060994565486908, 0.11528483033180237, 0.17273904383182526, 0.504838228225708, 0.16907954216003418, 0.34780892729759216, 0.3482644259929657]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.9878805875778198</v>
+        <v>0.9947085380554199</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.6769947000138927</v>
+        <v>0.6851962999935495</v>
       </c>
       <c r="J176" t="n">
-        <v>0.005737243220456718</v>
+        <v>0.005806748305030081</v>
       </c>
     </row>
     <row r="177">
@@ -7605,11 +7605,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[0.3317200243473053, 0.34567582607269287, 0.6439328789710999, 0.369644433259964, 0.5456032156944275, 0.7655463814735413, 0.6876712441444397, 0.9795314073562622, 0.965133786201477, 0.961169958114624, 0.949802041053772, 0.9713285565376282, 0.9269083738327026, 0.9361644983291626, 0.8810133934020996, 0.9866935610771179, 0.9829709529876709, 0.8809025883674622, 0.9406076669692993, 0.9667443633079529, 0.997209370136261, 0.9874572157859802, 0.9364398121833801, 0.497562974691391, 0.8578879237174988, 0.9425235986709595, 0.907371997833252, 0.8457529544830322, 0.9960600733757019, 0.9907647371292114, 0.9589062929153442, 0.5589814782142639, 0.9314068555831909, 0.9719209671020508, 0.7156107425689697, 0.3106210231781006, 0.6430343389511108, 0.4887327253818512, 0.9804586172103882, 0.9950566291809082, 0.9918217062950134, 0.9641225934028625, 0.8324179649353027, 0.6095948219299316, 0.8651626110076904, 0.9918065071105957, 0.9728066325187683, 0.9938074946403503, 0.9709032773971558, 0.9378677606582642, 0.9098240733146667, 0.9695698618888855, 0.972870945930481, 0.992369532585144, 0.9835536479949951, 0.9026389122009277, 0.8808184266090393, 0.7943136096000671, 0.8265947103500366, 0.9953174591064453, 0.9939779043197632, 0.9919238686561584, 0.9927363395690918, 0.9943948984146118, 0.9860705733299255, 0.8596034646034241, 0.7435184121131897, 0.8831027746200562, 0.8432353138923645, 0.9032341837882996, 0.7818558216094971, 0.9522473812103271, 0.9166938662528992, 0.7916008234024048, 0.8680694103240967, 0.9398044347763062, 0.9417921900749207, 0.9094337821006775, 0.9774444103240967, 0.9752522706985474, 0.9751124978065491, 0.872160017490387, 0.9380261301994324, 0.9557958245277405, 0.8618515729904175, 0.7312107086181641, 0.9858716130256653, 0.9742067456245422, 0.9243808388710022, 0.9904776811599731, 0.9693104028701782, 0.9761167764663696, 0.9701595902442932, 0.9912243485450745, 0.9531635046005249, 0.8821932673454285, 0.7982165813446045, 0.9446056485176086, 0.6543856263160706, 0.7175586223602295, 0.7594117522239685, 0.7804226279258728, 0.8824014067649841, 0.8403453826904297, 0.5207512378692627, 0.8014702796936035, 0.456760048866272, 0.06456276774406433, 0.07409613579511642, 0.05297071859240532, 0.1510261595249176, 0.11077242344617844, 0.07290250062942505, 0.06397625058889389, 0.05553622171282768, 0.08256206661462784, 0.05956164374947548, 0.05955871194601059]</t>
+          <t>[0.2554154098033905, 0.3110387623310089, 0.809418261051178, 0.4442026913166046, 0.6808142066001892, 0.8611686825752258, 0.8299102783203125, 0.993617057800293, 0.9763104915618896, 0.9752994179725647, 0.9702156782150269, 0.9801820516586304, 0.9542807936668396, 0.9740095138549805, 0.9487716555595398, 0.9958475232124329, 0.9923345446586609, 0.9723629355430603, 0.988716721534729, 0.9917619228363037, 0.999026894569397, 0.9963388442993164, 0.9763306975364685, 0.6964397430419922, 0.9374712705612183, 0.9847848415374756, 0.9724742770195007, 0.9323005080223083, 0.99872225522995, 0.9975064396858215, 0.9849698543548584, 0.7693888545036316, 0.9838857650756836, 0.992219865322113, 0.9161403775215149, 0.3059878349304199, 0.7529946565628052, 0.61278235912323, 0.994158148765564, 0.9985320568084717, 0.9978740215301514, 0.9878380298614502, 0.9269887804985046, 0.6729439496994019, 0.928252100944519, 0.9964693784713745, 0.9885804057121277, 0.9978688955307007, 0.9850885272026062, 0.9625487923622131, 0.9545634388923645, 0.9905009269714355, 0.9917347431182861, 0.9979584217071533, 0.9958130717277527, 0.9508408308029175, 0.9472095370292664, 0.8971148729324341, 0.8946816921234131, 0.998289167881012, 0.9977670907974243, 0.9973069429397583, 0.9975449442863464, 0.9983662962913513, 0.9968876242637634, 0.9611318707466125, 0.9043247699737549, 0.9516725540161133, 0.9436920881271362, 0.9679359197616577, 0.9183904528617859, 0.9855546951293945, 0.9742047190666199, 0.9022844433784485, 0.9558395147323608, 0.9787040948867798, 0.975543737411499, 0.9703686237335205, 0.9912648797035217, 0.9928761720657349, 0.9931074976921082, 0.9671967625617981, 0.9804109930992126, 0.9826841950416565, 0.9076100587844849, 0.8383423089981079, 0.996367335319519, 0.9885005950927734, 0.9593793749809265, 0.9967315196990967, 0.9871335029602051, 0.9938595294952393, 0.9897783398628235, 0.997500479221344, 0.9784592390060425, 0.9407526850700378, 0.9071398377418518, 0.975983202457428, 0.855254054069519, 0.8623617887496948, 0.889456570148468, 0.8821286559104919, 0.9564805626869202, 0.9169817566871643, 0.3854938745498657, 0.8193264007568359, 0.3719632029533386, 0.02621861919760704, 0.06547313183546066, 0.01756412535905838, 0.095951609313488, 0.06379616260528564, 0.04423946887254715, 0.04154500737786293, 0.032294999808073044, 0.05234478414058685, 0.03440134972333908, 0.034401487559080124]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.997209370136261</v>
+        <v>0.999026894569397</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0.6684030999895185</v>
+        <v>0.6843700999888824</v>
       </c>
       <c r="J177" t="n">
-        <v>0.005664433050758632</v>
+        <v>0.005799746610075275</v>
       </c>
     </row>
     <row r="178">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[0.9928767085075378, 0.9955047965049744, 0.9836093187332153, 0.9928345680236816, 0.9957784414291382, 0.9965066313743591, 0.9961285591125488, 0.9977899789810181, 0.9946045279502869, 0.9915317893028259, 0.9717701077461243, 0.9062941670417786, 0.8158968687057495, 0.556193470954895, 0.32133498787879944, 0.9306185841560364, 0.9910422563552856, 0.34077996015548706, 0.9223619699478149, 0.9258501529693604, 0.9923704862594604, 0.9928673505783081, 0.9919077157974243, 0.9822816848754883, 0.9885196089744568, 0.9925271272659302, 0.9850814938545227, 0.9917318820953369, 0.9882283806800842, 0.9807562232017517, 0.9712472558021545, 0.9870535731315613, 0.9894629120826721, 0.9916269779205322, 0.99552321434021, 0.9796265959739685, 0.9909034371376038, 0.9950758814811707, 0.990326464176178, 0.9900784492492676, 0.9957295060157776, 0.9944756627082825, 0.9950182437896729, 0.9911357164382935, 0.9954568147659302, 0.9961186647415161, 0.9951732754707336, 0.9942037463188171, 0.9929682612419128, 0.9929280877113342, 0.9872118830680847, 0.987856388092041, 0.9852070212364197, 0.9015514254570007, 0.9911646246910095, 0.9774678945541382, 0.9724908471107483, 0.9832072257995605, 0.9782955050468445, 0.9868783354759216, 0.9884563684463501, 0.9953784942626953, 0.994019627571106, 0.992935836315155, 0.9916403293609619, 0.9963435530662537, 0.993281364440918, 0.9567918181419373, 0.940025806427002, 0.9905657172203064, 0.9947147965431213, 0.991978645324707, 0.991272509098053, 0.9932665824890137, 0.9946662187576294, 0.995354413986206, 0.995893120765686, 0.9949158430099487, 0.9951766729354858, 0.99345463514328, 0.9888458847999573, 0.9816074371337891, 0.979613184928894, 0.988004744052887, 0.9897660613059998, 0.9794144034385681, 0.990990400314331, 0.9936406016349792, 0.9955872297286987, 0.9924966096878052, 0.9947564601898193, 0.993573009967804, 0.994550883769989, 0.9934327602386475, 0.9951057434082031, 0.9915537238121033, 0.9863011837005615, 0.9670037627220154, 0.9857786893844604, 0.9895505309104919, 0.9698963165283203, 0.970690906047821, 0.9878645539283752, 0.9963763356208801, 0.9925372004508972, 0.9911417961120605, 0.9954869151115417, 0.9767997860908508, 0.9553278684616089, 0.9836708307266235, 0.9895620942115784, 0.9903111457824707, 0.9776313900947571, 0.9888440370559692, 0.994120180606842, 0.9968499541282654, 0.9958871006965637, 0.9958933591842651]</t>
+          <t>[0.9964830875396729, 0.9980190992355347, 0.9885091185569763, 0.9955447912216187, 0.9967986345291138, 0.9984447360038757, 0.9984265565872192, 0.9992102384567261, 0.9979332685470581, 0.9973788261413574, 0.9926665425300598, 0.9751923084259033, 0.9483054876327515, 0.7578136324882507, 0.43364614248275757, 0.9814013838768005, 0.9983055591583252, 0.547467827796936, 0.9721558094024658, 0.9561335444450378, 0.9973695278167725, 0.9965691566467285, 0.9956405162811279, 0.9823306798934937, 0.9950019717216492, 0.9977796673774719, 0.994161069393158, 0.9956135749816895, 0.9941222071647644, 0.9890038371086121, 0.9806255102157593, 0.9940969944000244, 0.9942860007286072, 0.9962880611419678, 0.9983231425285339, 0.9882903099060059, 0.9946318864822388, 0.9979821443557739, 0.9972028732299805, 0.9965912103652954, 0.9984452128410339, 0.9982426166534424, 0.9984539747238159, 0.9973695278167725, 0.9981593489646912, 0.9984569549560547, 0.9981583952903748, 0.9973445534706116, 0.9972779154777527, 0.9973959922790527, 0.9951955676078796, 0.9955359697341919, 0.995283305644989, 0.9651517868041992, 0.9972001314163208, 0.9900700449943542, 0.9850481748580933, 0.9921979308128357, 0.9864001274108887, 0.9939518570899963, 0.9957250356674194, 0.9984721541404724, 0.997424840927124, 0.9972564578056335, 0.9973857998847961, 0.9989336133003235, 0.9976071119308472, 0.9827443957328796, 0.9714454412460327, 0.9964935183525085, 0.9977801442146301, 0.996749758720398, 0.9957976341247559, 0.9968420267105103, 0.9979191422462463, 0.9982280135154724, 0.9983378648757935, 0.9982843995094299, 0.9979748129844666, 0.9972392320632935, 0.9957038760185242, 0.9929304122924805, 0.9903207421302795, 0.9931469559669495, 0.9937798380851746, 0.9832668900489807, 0.9947355389595032, 0.9966339468955994, 0.9982668161392212, 0.9962360262870789, 0.9977413415908813, 0.9973498582839966, 0.9976145029067993, 0.9966394901275635, 0.9968448877334595, 0.9952102303504944, 0.9941765069961548, 0.9782018661499023, 0.9936559200286865, 0.9957429766654968, 0.9846740961074829, 0.9854737520217896, 0.9954391121864319, 0.9984346032142639, 0.9964939951896667, 0.9952749013900757, 0.9979623556137085, 0.9884754419326782, 0.9813286066055298, 0.9924329519271851, 0.9957232475280762, 0.9964633584022522, 0.981221079826355, 0.9911236763000488, 0.9968950748443604, 0.9986448884010315, 0.997867226600647, 0.9978758096694946]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.9977899789810181</v>
+        <v>0.9992102384567261</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.6806743000051938</v>
+        <v>0.688735200004885</v>
       </c>
       <c r="J178" t="n">
-        <v>0.005768426271230456</v>
+        <v>0.005836738983092246</v>
       </c>
     </row>
     <row r="179">
@@ -7685,11 +7685,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[0.8839666843414307, 0.9710982441902161, 0.9885039925575256, 0.9733313918113708, 0.966377854347229, 0.9811113476753235, 0.965981662273407, 0.9769424200057983, 0.9677354693412781, 0.9736811518669128, 0.9093056917190552, 0.9474887847900391, 0.9134911894798279, 0.9570479989051819, 0.9140521883964539, 0.9635935425758362, 0.9719125032424927, 0.9693312048912048, 0.94992995262146, 0.9700630903244019, 0.9727289080619812, 0.8794326186180115, 0.8702937364578247, 0.9489486217498779, 0.9646683931350708, 0.9397031664848328, 0.9658344388008118, 0.9814323782920837, 0.9733195304870605, 0.9848270416259766, 0.9935979843139648, 0.9943751096725464, 0.989303708076477, 0.9736717939376831, 0.9725245833396912, 0.9815529584884644, 0.970388650894165, 0.987356424331665, 0.9850314855575562, 0.8894755840301514, 0.6968112587928772, 0.7991510033607483, 0.9589183330535889, 0.9535800814628601, 0.9620848298072815, 0.9676932692527771, 0.9720132946968079, 0.9398311972618103, 0.9224086999893188, 0.923224925994873, 0.9131097793579102, 0.9318063259124756, 0.9243442416191101, 0.8722124695777893, 0.9035999178886414, 0.6861937046051025, 0.71273273229599, 0.1704256683588028, 0.3348219096660614, 0.7800919413566589, 0.9323351383209229, 0.9348039627075195, 0.8766376376152039, 0.9074264764785767, 0.988835871219635, 0.9645945429801941, 0.9845020174980164, 0.9593403339385986, 0.9642094969749451, 0.9823463559150696, 0.936974287033081, 0.9091987609863281, 0.8847984671592712, 0.6800339818000793, 0.9127628207206726, 0.9393502473831177, 0.7726930975914001, 0.7929731607437134, 0.949665904045105, 0.9740222692489624, 0.9879822134971619, 0.98390793800354, 0.9078581929206848, 0.9534964561462402, 0.9247366786003113, 0.9518969655036926, 0.9236383438110352, 0.9254210591316223, 0.81325763463974, 0.9376230835914612, 0.9687230587005615, 0.8724254369735718, 0.9509849548339844, 0.8773679733276367, 0.9682278633117676, 0.9120122194290161, 0.9205769896507263, 0.9591743350028992, 0.920801043510437, 0.9661778211593628, 0.9745469689369202, 0.920984148979187, 0.8661490082740784, 0.95827716588974, 0.9546186327934265, 0.9648571610450745, 0.9403267502784729, 0.9589856266975403, 0.9778444766998291, 0.8517109751701355, 0.926599383354187, 0.9757118821144104, 0.969038724899292, 0.83778315782547, 0.889383852481842, 0.9629414677619934, 0.9801846146583557, 0.9802184104919434]</t>
+          <t>[0.9544687271118164, 0.9890615940093994, 0.9969028830528259, 0.9921034574508667, 0.984767735004425, 0.9915556311607361, 0.9843409657478333, 0.9903815388679504, 0.9912057518959045, 0.9928901195526123, 0.9578058123588562, 0.9797194600105286, 0.978101372718811, 0.9861857295036316, 0.9525038599967957, 0.9858554005622864, 0.9885315895080566, 0.986423671245575, 0.9653388261795044, 0.9907384514808655, 0.9887707233428955, 0.9429080486297607, 0.9586086869239807, 0.9806147217750549, 0.9888961315155029, 0.9778311252593994, 0.989402174949646, 0.9950148463249207, 0.9938333034515381, 0.9962047934532166, 0.9979357719421387, 0.9982203841209412, 0.996623158454895, 0.9906443357467651, 0.9883617758750916, 0.9941903352737427, 0.9868665933609009, 0.9958635568618774, 0.9958283305168152, 0.9639919996261597, 0.8429452180862427, 0.8959919214248657, 0.980922281742096, 0.972824215888977, 0.988229513168335, 0.9896029829978943, 0.9935959577560425, 0.9784842133522034, 0.9731963276863098, 0.9669889807701111, 0.9786713123321533, 0.9688572287559509, 0.9691281914710999, 0.9216490387916565, 0.9499413371086121, 0.7541614770889282, 0.7483484148979187, 0.10856472700834274, 0.2865690588951111, 0.9100860357284546, 0.9665266871452332, 0.9528469443321228, 0.9407286643981934, 0.9706583619117737, 0.9978535771369934, 0.9902178645133972, 0.9937505125999451, 0.9846850633621216, 0.9936065673828125, 0.996196985244751, 0.991001546382904, 0.9708709120750427, 0.9702743887901306, 0.8576953411102295, 0.9657778143882751, 0.9831485748291016, 0.9050713777542114, 0.9323091506958008, 0.9897428154945374, 0.9942654967308044, 0.997591495513916, 0.9969727993011475, 0.9844264388084412, 0.9920784831047058, 0.9864137172698975, 0.9865830540657043, 0.9749912023544312, 0.9837454557418823, 0.9498152732849121, 0.9879646301269531, 0.9939987659454346, 0.9704181551933289, 0.9888413548469543, 0.9712052941322327, 0.9931800365447998, 0.9760403633117676, 0.9857183694839478, 0.990949809551239, 0.9845135807991028, 0.992233395576477, 0.9924759268760681, 0.9754087328910828, 0.9675699472427368, 0.9942781925201416, 0.9903998970985413, 0.9930157661437988, 0.9894408583641052, 0.9872996211051941, 0.9949047565460205, 0.958490788936615, 0.9858742952346802, 0.996155321598053, 0.9942886829376221, 0.9569374918937683, 0.9627634286880493, 0.9889315366744995, 0.9953916072845459, 0.9953994154930115]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.9943751096725464</v>
+        <v>0.9982203841209412</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.6690720999904443</v>
+        <v>0.677768699999433</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0056701025422919</v>
+        <v>0.005743802542368077</v>
       </c>
     </row>
     <row r="180">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[0.5218673348426819, 0.48798370361328125, 0.5465153455734253, 0.6690511703491211, 0.38762298226356506, 0.3682030737400055, 0.704966127872467, 0.7364062070846558, 0.8053144812583923, 0.8419330716133118, 0.855072557926178, 0.9804263114929199, 0.9867622256278992, 0.9329661130905151, 0.839448094367981, 0.47293758392333984, 0.4568824768066406, 0.5548388361930847, 0.521243691444397, 0.36695337295532227, 0.32746365666389465, 0.08648364245891571, 0.2795085608959198, 0.8561306595802307, 0.9812164902687073, 0.8963490128517151, 0.7582800388336182, 0.7053729891777039, 0.894053041934967, 0.7135357856750488, 0.560891330242157, 0.41177523136138916, 0.7985076308250427, 0.8527701497077942, 0.8728010654449463, 0.8673032522201538, 0.307625949382782, 0.3082362115383148, 0.42555487155914307, 0.3197202980518341, 0.4881829023361206, 0.2661873996257782, 0.5185886025428772, 0.4888589680194855, 0.6745671629905701, 0.7397750616073608, 0.9611620306968689, 0.3673997223377228, 0.5171818137168884, 0.3328811824321747, 0.27841416001319885, 0.8599740862846375, 0.9763197898864746, 0.9703946113586426, 0.9506463408470154, 0.5288509130477905, 0.5715717673301697, 0.4274323582649231, 0.7696086168289185, 0.791408121585846, 0.9495667219161987, 0.919324517250061, 0.9403829574584961, 0.8988811373710632, 0.9485833644866943, 0.9185956120491028, 0.9290260076522827, 0.905166506767273, 0.6818270087242126, 0.6875926852226257, 0.7803587317466736, 0.8779255151748657, 0.856995165348053, 0.7683870792388916, 0.7653726935386658, 0.7594725489616394, 0.8554696440696716, 0.8799454569816589, 0.8960898518562317, 0.7593832612037659, 0.7976672053337097, 0.8413752317428589, 0.9920763969421387, 0.96210777759552, 0.9805804491043091, 0.7534633874893188, 0.930816650390625, 0.7151851058006287, 0.19255349040031433, 0.1625434309244156, 0.28537940979003906, 0.31311482191085815, 0.4583285450935364, 0.37539735436439514, 0.45528650283813477, 0.3141178786754608, 0.4590015709400177, 0.6192464828491211, 0.783903956413269, 0.9205189347267151, 0.9088826775550842, 0.8075565099716187, 0.8824766874313354, 0.7348727583885193, 0.5795976519584656, 0.33647024631500244, 0.6212683916091919, 0.4956386685371399, 0.8631649613380432, 0.2887831926345825, 0.07545984536409378, 0.05397826060652733, 0.0720156729221344, 0.041755352169275284, 0.04230380058288574, 0.17787708342075348, 0.3284212052822113, 0.32932937145233154]</t>
+          <t>[0.5146324038505554, 0.4710650146007538, 0.6315462589263916, 0.7297316789627075, 0.5142055153846741, 0.4876205623149872, 0.8834075927734375, 0.8482377529144287, 0.8832979202270508, 0.9047423005104065, 0.9739814400672913, 0.9954427480697632, 0.9966793060302734, 0.9595286250114441, 0.9092751741409302, 0.5025314688682556, 0.4547523856163025, 0.7168674468994141, 0.5226369500160217, 0.3739938735961914, 0.27494674921035767, 0.052845388650894165, 0.2896881401538849, 0.9268184900283813, 0.9925373196601868, 0.9492843151092529, 0.8919947147369385, 0.7539463043212891, 0.917428731918335, 0.7693751454353333, 0.5120850205421448, 0.4104326665401459, 0.8782323002815247, 0.9120140671730042, 0.8914997577667236, 0.8950509428977966, 0.25555047392845154, 0.19553521275520325, 0.4020889103412628, 0.22671355307102203, 0.30384892225265503, 0.21473242342472076, 0.429475873708725, 0.4753779172897339, 0.7311804294586182, 0.7752909660339355, 0.9810976982116699, 0.35988810658454895, 0.5745608806610107, 0.431343674659729, 0.21419109404087067, 0.9049733281135559, 0.9916674494743347, 0.9852924942970276, 0.9846182465553284, 0.5011963248252869, 0.5705380439758301, 0.5300691723823547, 0.8839285373687744, 0.8707501292228699, 0.9713433980941772, 0.9586297869682312, 0.9756577610969543, 0.9583286643028259, 0.9713336229324341, 0.9746175408363342, 0.9752054214477539, 0.98274165391922, 0.827470600605011, 0.8651624321937561, 0.8676605224609375, 0.940538227558136, 0.8942510485649109, 0.8530958294868469, 0.8043344020843506, 0.7828237414360046, 0.8682477474212646, 0.9590473771095276, 0.9640811681747437, 0.9145856499671936, 0.9012122750282288, 0.8994299173355103, 0.9975351095199585, 0.9886554479598999, 0.9941060543060303, 0.8488104939460754, 0.9594582915306091, 0.6721621751785278, 0.11734604835510254, 0.09204690903425217, 0.1501767337322235, 0.15108999609947205, 0.3364807963371277, 0.26331719756126404, 0.3409385085105896, 0.15595029294490814, 0.28494393825531006, 0.5528757572174072, 0.81792151927948, 0.9284896850585938, 0.8899990916252136, 0.7123193740844727, 0.8826912045478821, 0.6605940461158752, 0.5211758613586426, 0.2799379527568817, 0.6854175925254822, 0.5339264869689941, 0.9120349884033203, 0.3227500915527344, 0.04383767023682594, 0.02281670644879341, 0.018360663205385208, 0.013714783824980259, 0.013894581235945225, 0.10625074058771133, 0.1940358728170395, 0.19505342841148376]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.9920763969421387</v>
+        <v>0.9975351095199585</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.6670548999973107</v>
+        <v>0.66911460000847</v>
       </c>
       <c r="J180" t="n">
-        <v>0.005653007627095853</v>
+        <v>0.005670462711936186</v>
       </c>
     </row>
     <row r="181">
@@ -7765,11 +7765,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[0.5585232377052307, 0.5412657260894775, 0.9232951998710632, 0.5507650971412659, 0.2343270182609558, 0.16502772271633148, 0.4944564998149872, 0.846224844455719, 0.14680169522762299, 0.13094773888587952, 0.40036994218826294, 0.33164656162261963, 0.9128907918930054, 0.6636757254600525, 0.2939128577709198, 0.7815179824829102, 0.935169517993927, 0.9897074699401855, 0.9759077429771423, 0.9204245209693909, 0.8908158540725708, 0.9773461818695068, 0.9939178228378296, 0.9882619976997375, 0.9811371564865112, 0.9715520739555359, 0.9785352349281311, 0.9727080464363098, 0.9858300089836121, 0.7380334138870239, 0.7394474148750305, 0.708340048789978, 0.7170718908309937, 0.5909910798072815, 0.5550169348716736, 0.7528181672096252, 0.5486267805099487, 0.8219947814941406, 0.4178457260131836, 0.5287737250328064, 0.8794713616371155, 0.7752995491027832, 0.6148212552070618, 0.40625131130218506, 0.7834980487823486, 0.4396553933620453, 0.7454796433448792, 0.9663722515106201, 0.8870548605918884, 0.8821502923965454, 0.9355834722518921, 0.749856173992157, 0.9075572490692139, 0.898421585559845, 0.8964220285415649, 0.9064222574234009, 0.7328055500984192, 0.8819959759712219, 0.9848435521125793, 0.9956867098808289, 0.9536399245262146, 0.9225040674209595, 0.9256041646003723, 0.9551650285720825, 0.7616836428642273, 0.9492740035057068, 0.9790415167808533, 0.7366523742675781, 0.39245128631591797, 0.22648219764232635, 0.3122178316116333, 0.41926318407058716, 0.20792745053768158, 0.08330985903739929, 0.1776351034641266, 0.6667662858963013, 0.8255175352096558, 0.9134935140609741, 0.9592415690422058, 0.9562424421310425, 0.9586294889450073, 0.9703289270401001, 0.970234215259552, 0.8887744545936584, 0.9048715233802795, 0.9172056913375854, 0.9261481165885925, 0.921012818813324, 0.9273223280906677, 0.9187167882919312, 0.9568176865577698, 0.9750205874443054, 0.9798765182495117, 0.9791977405548096, 0.9459200501441956, 0.9544808864593506, 0.6293937563896179, 0.6626221537590027, 0.4895729720592499, 0.7136945128440857, 0.5463657975196838, 0.6133407950401306, 0.8888754844665527, 0.5646821856498718, 0.6408464312553406, 0.6511632204055786, 0.5107561945915222, 0.6190670132637024, 0.48626208305358887, 0.4053508937358856, 0.6423398852348328, 0.8341649770736694, 0.7657381892204285, 0.6766389012336731, 0.6810409426689148, 0.7381858825683594, 0.9273801445960999, 0.9274280667304993]</t>
+          <t>[0.5196282863616943, 0.539668083190918, 0.9294645190238953, 0.4384090006351471, 0.1157679632306099, 0.24719087779521942, 0.5227048397064209, 0.8961995840072632, 0.10568937659263611, 0.0905332863330841, 0.2985857129096985, 0.18690362572669983, 0.8554152250289917, 0.6849959492683411, 0.1743105947971344, 0.823239803314209, 0.9757035374641418, 0.9951808452606201, 0.9867996573448181, 0.9511435627937317, 0.9423497319221497, 0.9890475869178772, 0.997442364692688, 0.9949683547019958, 0.9892498254776001, 0.9850454926490784, 0.9891435503959656, 0.9888226985931396, 0.9942947030067444, 0.7543146014213562, 0.6759455800056458, 0.8343038558959961, 0.6702799201011658, 0.4862219989299774, 0.5546871423721313, 0.8238760828971863, 0.5677375793457031, 0.8466214537620544, 0.47742515802383423, 0.6032678484916687, 0.9462074637413025, 0.8875926733016968, 0.6664676070213318, 0.3455648422241211, 0.813816249370575, 0.48754793405532837, 0.7292038798332214, 0.9798644781112671, 0.9128523468971252, 0.9551226496696472, 0.9618352651596069, 0.6278591752052307, 0.8992561101913452, 0.8334261178970337, 0.8016778826713562, 0.9133398532867432, 0.6843104958534241, 0.8816680908203125, 0.9940381050109863, 0.9982372522354126, 0.9619244933128357, 0.9226669073104858, 0.9208852648735046, 0.9705138206481934, 0.6556914448738098, 0.946905791759491, 0.9907584190368652, 0.8242629170417786, 0.4794897735118866, 0.3031756579875946, 0.41374337673187256, 0.4272790253162384, 0.14203181862831116, 0.08919041603803635, 0.1659851223230362, 0.6895838975906372, 0.9059493541717529, 0.9442737698554993, 0.9852659106254578, 0.9698482155799866, 0.9663909673690796, 0.9651934504508972, 0.9838687777519226, 0.9241665601730347, 0.8547748327255249, 0.9381282925605774, 0.9589718580245972, 0.9706645011901855, 0.9411304593086243, 0.9365747570991516, 0.9660950303077698, 0.9843234419822693, 0.9889296889305115, 0.9842153191566467, 0.9488909840583801, 0.975920557975769, 0.6463942527770996, 0.603843629360199, 0.33902278542518616, 0.6021177768707275, 0.5240305662155151, 0.7419519424438477, 0.9183939099311829, 0.4935159683227539, 0.6206369996070862, 0.5794373750686646, 0.5075217485427856, 0.5460670590400696, 0.3325710892677307, 0.28821873664855957, 0.5948790907859802, 0.8917872905731201, 0.7440072894096375, 0.674737274646759, 0.6891858577728271, 0.7152272462844849, 0.9580779671669006, 0.9581074118614197]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.9956867098808289</v>
+        <v>0.9982372522354126</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.6705375000019558</v>
+        <v>0.6625121999968542</v>
       </c>
       <c r="J181" t="n">
-        <v>0.005682521186457253</v>
+        <v>0.005614510169464866</v>
       </c>
     </row>
     <row r="182">
@@ -7805,11 +7805,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[0.9223307371139526, 0.9702703356742859, 0.9665340781211853, 0.9606111645698547, 0.9710965752601624, 0.7523640394210815, 0.8879834413528442, 0.8443864583969116, 0.652522623538971, 0.7839147448539734, 0.3810405135154724, 0.07144326716661453, 0.14678160846233368, 0.0759579986333847, 0.16798818111419678, 0.1607508361339569, 0.10447009652853012, 0.10345683991909027, 0.057960376143455505, 0.1516173630952835, 0.11102086305618286, 0.16676487028598785, 0.3595889210700989, 0.6818172335624695, 0.8360668420791626, 0.5008202791213989, 0.4675925672054291, 0.7564483880996704, 0.8302658200263977, 0.8862183690071106, 0.7671646475791931, 0.6788066625595093, 0.630463182926178, 0.7458122968673706, 0.7171158790588379, 0.6078032851219177, 0.6857413649559021, 0.7989279627799988, 0.6191479563713074, 0.5763218402862549, 0.6746754050254822, 0.3824427127838135, 0.9146133065223694, 0.6660923361778259, 0.5386122465133667, 0.514789342880249, 0.3040829002857208, 0.09998763352632523, 0.13049469888210297, 0.3004966676235199, 0.43458449840545654, 0.5443207025527954, 0.8986836671829224, 0.8254062533378601, 0.7534663081169128, 0.7996566891670227, 0.6906808614730835, 0.7654340267181396, 0.792059063911438, 0.8904685974121094, 0.7382692694664001, 0.6427946090698242, 0.7509397268295288, 0.6883580684661865, 0.6657872796058655, 0.8036136627197266, 0.886360228061676, 0.9552688002586365, 0.7063186764717102, 0.5511781573295593, 0.6783032417297363, 0.8093018531799316, 0.5883429646492004, 0.4633307158946991, 0.679629921913147, 0.5978868007659912, 0.3074493706226349, 0.28657177090644836, 0.5150419473648071, 0.6822708249092102, 0.5923908948898315, 0.8663396239280701, 0.9655104875564575, 0.9559760093688965, 0.9607910513877869, 0.9654985666275024, 0.9578384160995483, 0.9428024888038635, 0.7670149207115173, 0.7043888568878174, 0.8857215642929077, 0.9214864373207092, 0.9659777879714966, 0.8926136493682861, 0.7344170212745667, 0.8607618808746338, 0.8348135352134705, 0.8379606604576111, 0.8420104384422302, 0.9390321373939514, 0.7720996737480164, 0.25393247604370117, 0.18192049860954285, 0.15978851914405823, 0.15500041842460632, 0.24919192492961884, 0.09755495935678482, 0.15076419711112976, 0.2410491406917572, 0.10414105653762817, 0.48653915524482727, 0.6132798790931702, 0.7811925411224365, 0.9569337964057922, 0.9419035315513611, 0.8317177295684814, 0.9204814434051514, 0.9206105470657349]</t>
+          <t>[0.9742860794067383, 0.9902646541595459, 0.9908445477485657, 0.9852149486541748, 0.9923698902130127, 0.8760471343994141, 0.948352575302124, 0.9589138627052307, 0.9029562473297119, 0.9648502469062805, 0.6596823334693909, 0.23072688281536102, 0.31786420941352844, 0.10980729013681412, 0.29751908779144287, 0.2951907217502594, 0.2537018656730652, 0.18725091218948364, 0.10081862658262253, 0.22736921906471252, 0.16466198861598969, 0.4365176856517792, 0.7723504304885864, 0.9365213513374329, 0.9770784378051758, 0.864764928817749, 0.8921084403991699, 0.9721806049346924, 0.9681153297424316, 0.9800270199775696, 0.946811318397522, 0.9198443293571472, 0.9124888777732849, 0.953314483165741, 0.9438197612762451, 0.9330382347106934, 0.9717431664466858, 0.9710280895233154, 0.9014810919761658, 0.9301097989082336, 0.949908971786499, 0.858977198600769, 0.9885941743850708, 0.9468525648117065, 0.9454742670059204, 0.938517689704895, 0.8260622620582581, 0.34234946966171265, 0.46987730264663696, 0.8406581878662109, 0.7917643785476685, 0.8623189926147461, 0.9833436608314514, 0.9845481514930725, 0.9578285813331604, 0.9653351306915283, 0.9441943764686584, 0.9759530425071716, 0.9787940979003906, 0.9881840944290161, 0.9652930498123169, 0.9460227489471436, 0.9442136287689209, 0.9175549149513245, 0.9330667853355408, 0.9704474806785583, 0.9796611070632935, 0.9928804039955139, 0.9337829947471619, 0.8933699727058411, 0.9543415904045105, 0.9769777059555054, 0.8926543593406677, 0.7929296493530273, 0.9450674653053284, 0.8810805678367615, 0.6759002804756165, 0.6227442622184753, 0.8202570676803589, 0.9168799519538879, 0.863892674446106, 0.9792549014091492, 0.995244562625885, 0.9936051964759827, 0.9953963160514832, 0.99595046043396, 0.9959841966629028, 0.992497980594635, 0.9641432166099548, 0.9576826691627502, 0.9864712357521057, 0.9903029799461365, 0.9934351444244385, 0.9829555153846741, 0.9306101202964783, 0.9849822521209717, 0.9624502062797546, 0.9570518136024475, 0.9384588003158569, 0.9902818202972412, 0.9761314392089844, 0.6685076951980591, 0.4310581386089325, 0.41543710231781006, 0.5598909854888916, 0.7178948521614075, 0.26663315296173096, 0.44808998703956604, 0.7649002075195312, 0.27566614747047424, 0.8611135482788086, 0.890235185623169, 0.9660648703575134, 0.9956148862838745, 0.9941225647926331, 0.9791572690010071, 0.9897356033325195, 0.9897601008415222]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.9710965752601624</v>
+        <v>0.9959841966629028</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7823,10 +7823,10 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.6724684999790043</v>
+        <v>0.6789222000079462</v>
       </c>
       <c r="J182" t="n">
-        <v>0.005698885593042409</v>
+        <v>0.005753577966169036</v>
       </c>
     </row>
     <row r="183">
@@ -7845,11 +7845,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[0.994664192199707, 0.9962632060050964, 0.9975071549415588, 0.9976867437362671, 0.9965912103652954, 0.996959924697876, 0.9949701428413391, 0.9866142868995667, 0.9910159111022949, 0.9913368225097656, 0.9934138655662537, 0.9875872731208801, 0.9845854640007019, 0.9933391213417053, 0.996924102306366, 0.9916343688964844, 0.9815466403961182, 0.991710901260376, 0.986713707447052, 0.9936052560806274, 0.9946558475494385, 0.9934245347976685, 0.9911494255065918, 0.9951843619346619, 0.9959548711776733, 0.9952616691589355, 0.9496632218360901, 0.9820852875709534, 0.8712542057037354, 0.8770602941513062, 0.6733801364898682, 0.4415230453014374, 0.5135840177536011, 0.4560105800628662, 0.8314522504806519, 0.7163667678833008, 0.9473203420639038, 0.9936884045600891, 0.989325761795044, 0.9968879818916321, 0.9974284768104553, 0.9979842901229858, 0.9982621073722839, 0.9976592063903809, 0.9973094463348389, 0.9979960918426514, 0.9966360330581665, 0.9937726855278015, 0.9948523640632629, 0.9919813275337219, 0.9946063160896301, 0.9899457097053528, 0.9950573444366455, 0.9943668246269226, 0.994670569896698, 0.9962385892868042, 0.9950987696647644, 0.9942405223846436, 0.9937115907669067, 0.99310702085495, 0.9955387711524963, 0.9965534210205078, 0.9965195655822754, 0.9923457503318787, 0.9974984526634216, 0.9940922856330872, 0.9956371188163757, 0.992241382598877, 0.9936175346374512, 0.9881695508956909, 0.9898757338523865, 0.9890455007553101, 0.8745987415313721, 0.972804844379425, 0.792056143283844, 0.8663119077682495, 0.8951839804649353, 0.9514970183372498, 0.9697872996330261, 0.9699025750160217, 0.9932211637496948, 0.9919568300247192, 0.9917539358139038, 0.9834348559379578, 0.9914223551750183, 0.9842660427093506, 0.9927145838737488, 0.9967572093009949, 0.9919081330299377, 0.9883027672767639, 0.9448426961898804, 0.8252755999565125, 0.6087282299995422, 0.4686433970928192, 0.12280590832233429, 0.18027804791927338, 0.16949260234832764, 0.22149688005447388, 0.13883864879608154, 0.08343224227428436, 0.09063893556594849, 0.08719632029533386, 0.07898788899183273, 0.07235909253358841, 0.10723583400249481, 0.0689764991402626, 0.08816178143024445, 0.09317543357610703, 0.09630211442708969, 0.10584669560194016, 0.06123274192214012, 0.07458195090293884, 0.09146203100681305, 0.10284553468227386, 0.08327610790729523, 0.0697069987654686, 0.06783303618431091, 0.0674286037683487]</t>
+          <t>[0.9972871541976929, 0.9984121322631836, 0.9989701509475708, 0.9990009665489197, 0.9985264539718628, 0.9984523057937622, 0.9976804256439209, 0.9897903800010681, 0.996403694152832, 0.9962494969367981, 0.9978271126747131, 0.9959854483604431, 0.9912612438201904, 0.9976128339767456, 0.9988376498222351, 0.9966742992401123, 0.9901071786880493, 0.9963447451591492, 0.9912885427474976, 0.9971517324447632, 0.9974960684776306, 0.9979400038719177, 0.9933730363845825, 0.9962044358253479, 0.9981306195259094, 0.9978365302085876, 0.9734988212585449, 0.9901779294013977, 0.9304001927375793, 0.9493934512138367, 0.794093668460846, 0.5264339447021484, 0.42719706892967224, 0.4425601661205292, 0.9083960652351379, 0.7559491395950317, 0.969922661781311, 0.9967679977416992, 0.989109992980957, 0.99822598695755, 0.9991783499717712, 0.9992020726203918, 0.9993178844451904, 0.9991368651390076, 0.9987903237342834, 0.9991576671600342, 0.9984413981437683, 0.9972189664840698, 0.9973742961883545, 0.9961785078048706, 0.9973390698432922, 0.9958463311195374, 0.997797966003418, 0.9971485733985901, 0.9969481825828552, 0.9984540939331055, 0.9980536699295044, 0.9979972243309021, 0.9980910420417786, 0.9978609681129456, 0.9987074136734009, 0.9988419413566589, 0.9985675811767578, 0.9961971044540405, 0.9988217949867249, 0.9949182868003845, 0.9955440163612366, 0.9954126477241516, 0.9967380166053772, 0.9919320940971375, 0.9840230941772461, 0.9848726987838745, 0.8265155553817749, 0.9794071912765503, 0.7355104684829712, 0.8980343341827393, 0.9662647247314453, 0.9809290766716003, 0.9874591827392578, 0.9792104363441467, 0.9958584904670715, 0.9942558407783508, 0.994907796382904, 0.9923197627067566, 0.9952412843704224, 0.9898921251296997, 0.9969863295555115, 0.9983710646629333, 0.9968976974487305, 0.9951549768447876, 0.9700906872749329, 0.8200504183769226, 0.5284160375595093, 0.517676055431366, 0.09286782890558243, 0.14334790408611298, 0.22738753259181976, 0.13899467885494232, 0.05975734815001488, 0.05365264043211937, 0.053550440818071365, 0.04990321770310402, 0.047823864966630936, 0.043727464973926544, 0.06102011352777481, 0.042862143367528915, 0.05676889792084694, 0.06243356689810753, 0.05780357867479324, 0.06301316618919373, 0.0408603809773922, 0.04507811740040779, 0.06043526157736778, 0.0553203709423542, 0.043172284960746765, 0.04415176436305046, 0.04499462991952896, 0.044739529490470886]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9982621073722839</v>
+        <v>0.9993178844451904</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.6705300999747124</v>
+        <v>0.6620931999932509</v>
       </c>
       <c r="J183" t="n">
-        <v>0.005682458474361969</v>
+        <v>0.005610959321976703</v>
       </c>
     </row>
     <row r="184">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[0.8697074055671692, 0.9067524671554565, 0.8919536471366882, 0.8994375467300415, 0.9496158361434937, 0.9707886576652527, 0.6899586319923401, 0.961397647857666, 0.9267733097076416, 0.8949660658836365, 0.906237006187439, 0.9740731716156006, 0.9853923916816711, 0.9524839520454407, 0.8703237175941467, 0.8704103827476501, 0.9765772223472595, 0.9699558615684509, 0.9518604278564453, 0.6427086591720581, 0.445356547832489, 0.7468329668045044, 0.7161858677864075, 0.5794233083724976, 0.5252783894538879, 0.817814290523529, 0.9544506072998047, 0.9564215540885925, 0.6175039410591125, 0.4832361340522766, 0.43356457352638245, 0.4129045009613037, 0.49312764406204224, 0.47604718804359436, 0.6522039175033569, 0.9078534841537476, 0.8542351722717285, 0.9090255498886108, 0.9290693402290344, 0.9538880586624146, 0.9789491891860962, 0.9322257041931152, 0.8911616802215576, 0.6829670071601868, 0.7536205649375916, 0.5365456938743591, 0.5461843013763428, 0.5785695314407349, 0.5899634957313538, 0.6042325496673584, 0.9318673014640808, 0.9460564851760864, 0.9716485142707825, 0.5791053175926208, 0.9054843187332153, 0.947411835193634, 0.9639316201210022, 0.9151900410652161, 0.9265213012695312, 0.578046441078186, 0.5085095167160034, 0.6989339590072632, 0.9594688415527344, 0.9728810787200928, 0.9171121120452881, 0.8636801838874817, 0.9507402181625366, 0.9745757579803467, 0.976437509059906, 0.9373160004615784, 0.8362241983413696, 0.6675092577934265, 0.4829117953777313, 0.4329683482646942, 0.49087849259376526, 0.6247346997261047, 0.49348393082618713, 0.6056445837020874, 0.499246746301651, 0.9846742153167725, 0.9823118448257446, 0.981540322303772, 0.910067081451416, 0.9748988747596741, 0.9919811487197876, 0.9935319423675537, 0.990293025970459, 0.9844426512718201, 0.9811968207359314, 0.9619784355163574, 0.9607450366020203, 0.9339524507522583, 0.7686133980751038, 0.9161868691444397, 0.9912294149398804, 0.9863671660423279, 0.9735398292541504, 0.9892954230308533, 0.9875816106796265, 0.9778594970703125, 0.9555321335792542, 0.9552938342094421, 0.9345828294754028, 0.9886592626571655, 0.9909215569496155, 0.9836810827255249, 0.9764038920402527, 0.9659812450408936, 0.9874773025512695, 0.9911298751831055, 0.9906930327415466, 0.9944851994514465, 0.9855603575706482, 0.9432606101036072, 0.9862761497497559, 0.9748619198799133, 0.9832705855369568, 0.988627016544342, 0.9902397394180298, 0.9911621809005737, 0.9807155132293701, 0.9684559106826782, 0.9700201153755188, 0.9700009226799011]</t>
+          <t>[0.9707351922988892, 0.9819276332855225, 0.9727120995521545, 0.9833058714866638, 0.9909588098526001, 0.9954729676246643, 0.8948764204978943, 0.9954961538314819, 0.9859756827354431, 0.9669094085693359, 0.9705725312232971, 0.9940599799156189, 0.9968275427818298, 0.9891316890716553, 0.9718387722969055, 0.9828566908836365, 0.9967808723449707, 0.9947522878646851, 0.994696855545044, 0.8998755812644958, 0.7360193729400635, 0.9414731860160828, 0.9435269832611084, 0.9277358651161194, 0.8930209279060364, 0.9689940810203552, 0.9929815530776978, 0.9943124055862427, 0.9326842427253723, 0.8684630393981934, 0.7262740731239319, 0.7717621326446533, 0.7786661386489868, 0.8466774225234985, 0.8967370986938477, 0.9880945086479187, 0.9815334677696228, 0.9843392372131348, 0.988690972328186, 0.9929037690162659, 0.9960740804672241, 0.9872157573699951, 0.9794390201568604, 0.9025546908378601, 0.9203274250030518, 0.7899317741394043, 0.7405484914779663, 0.7916787266731262, 0.7672701478004456, 0.8335888385772705, 0.9871343970298767, 0.9929757118225098, 0.994838535785675, 0.8116557002067566, 0.9777565002441406, 0.9912787079811096, 0.9956009387969971, 0.9883435964584351, 0.9895434379577637, 0.8856508731842041, 0.7498642802238464, 0.8856027126312256, 0.9923100471496582, 0.9952471852302551, 0.9898381233215332, 0.9803864359855652, 0.9914321899414062, 0.9959730505943298, 0.9952211976051331, 0.9893494844436646, 0.9712759256362915, 0.8738746047019958, 0.6761678457260132, 0.6712232232093811, 0.7561547756195068, 0.8745110034942627, 0.5854936838150024, 0.7864413857460022, 0.7548027038574219, 0.9981423616409302, 0.9980207681655884, 0.9977738261222839, 0.9903979301452637, 0.9958729147911072, 0.9989176988601685, 0.9990304708480835, 0.9984561204910278, 0.9977378845214844, 0.9968569278717041, 0.9943549633026123, 0.9953913688659668, 0.9913961291313171, 0.9405838251113892, 0.9878612160682678, 0.99849534034729, 0.9978777170181274, 0.9966902732849121, 0.9984080195426941, 0.9975594282150269, 0.9966879487037659, 0.9942538142204285, 0.9949156045913696, 0.9946793913841248, 0.9983327984809875, 0.9987633228302002, 0.9983522891998291, 0.9973382353782654, 0.9926962852478027, 0.9979391694068909, 0.9982194304466248, 0.9980810880661011, 0.998761773109436, 0.9981200098991394, 0.9941245913505554, 0.9980618357658386, 0.9973637461662292, 0.9978379607200623, 0.9980213642120361, 0.9981065988540649, 0.9985760450363159, 0.9975605010986328, 0.9955646991729736, 0.9945687055587769, 0.9945600628852844]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.9944851994514465</v>
+        <v>0.9990304708480835</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.718690300011076</v>
+        <v>0.7344191000011051</v>
       </c>
       <c r="J184" t="n">
-        <v>0.005795889516218355</v>
+        <v>0.005922734677428267</v>
       </c>
     </row>
     <row r="185">
@@ -7925,11 +7925,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[0.37397468090057373, 0.8276997804641724, 0.7528509497642517, 0.7200705409049988, 0.40967944264411926, 0.3683038651943207, 0.5299056172370911, 0.664376974105835, 0.6209622621536255, 0.890525221824646, 0.9344050288200378, 0.9335650205612183, 0.944017231464386, 0.9683548212051392, 0.5339983105659485, 0.3239002227783203, 0.2631882429122925, 0.9939107894897461, 0.995090126991272, 0.9913265109062195, 0.98325514793396, 0.9900630116462708, 0.9883183240890503, 0.9875072240829468, 0.9616619348526001, 0.802443265914917, 0.7589631676673889, 0.7081177234649658, 0.7132537961006165, 0.8322506546974182, 0.7539046406745911, 0.8038323521614075, 0.6202061176300049, 0.5765204429626465, 0.8084208369255066, 0.657342255115509, 0.668077290058136, 0.6377065181732178, 0.6944072842597961, 0.7091153264045715, 0.9101368188858032, 0.8808444738388062, 0.9630833268165588, 0.9455472826957703, 0.9240636229515076, 0.9733009934425354, 0.956836462020874, 0.8983334302902222, 0.896397590637207, 0.9316573143005371, 0.6446930766105652, 0.9648820161819458, 0.9946942925453186, 0.9889045357704163, 0.9773638248443604, 0.9309526681900024, 0.8995859026908875, 0.7206591367721558, 0.6947905421257019, 0.8146027326583862, 0.9384337067604065, 0.9440005421638489, 0.9371243715286255, 0.7092512249946594, 0.4419451057910919, 0.7289507985115051, 0.599776566028595, 0.7210123538970947, 0.7574321627616882, 0.8535662889480591, 0.5942038297653198, 0.5507546067237854, 0.6555599570274353, 0.8313835859298706, 0.7346107959747314, 0.9424229264259338, 0.970032274723053, 0.9776434302330017, 0.974373996257782, 0.9089624285697937, 0.9400049448013306, 0.9856413006782532, 0.9693723320960999, 0.9592680335044861, 0.736162543296814, 0.8140057325363159, 0.8120880722999573, 0.9287107586860657, 0.8780528903007507, 0.8072618842124939, 0.838094174861908, 0.5919572114944458, 0.41442498564720154, 0.29919713735580444, 0.2791796028614044, 0.3255418539047241, 0.6684695482254028, 0.8163725137710571, 0.751230001449585, 0.6414031982421875, 0.8534188270568848, 0.7833539247512817, 0.8231528401374817, 0.4047275483608246, 0.8772114515304565, 0.870512843132019, 0.9110392332077026, 0.9969134330749512, 0.9954550266265869, 0.9945942759513855, 0.9970629811286926, 0.9945420622825623, 0.959549605846405, 0.936812698841095, 0.6921973824501038, 0.9392104744911194, 0.9361307621002197, 0.9969294667243958, 0.9907596111297607, 0.9759010076522827, 0.9520541429519653, 0.8992934226989746, 0.8937458395957947, 0.8937256336212158]</t>
+          <t>[0.426550030708313, 0.934872567653656, 0.8773178458213806, 0.8105159401893616, 0.4452250599861145, 0.3343909978866577, 0.4003802537918091, 0.7637515068054199, 0.6021600365638733, 0.9655580520629883, 0.9695921540260315, 0.9795429706573486, 0.9870473146438599, 0.9877826571464539, 0.3993564248085022, 0.2368657886981964, 0.21211832761764526, 0.998551070690155, 0.9989011287689209, 0.9984267950057983, 0.9956949949264526, 0.9972489476203918, 0.9975993037223816, 0.9967595934867859, 0.9871035218238831, 0.9198883175849915, 0.8856698870658875, 0.8720111846923828, 0.8880401849746704, 0.9499619007110596, 0.8921727538108826, 0.9249842166900635, 0.7016881108283997, 0.7483254671096802, 0.9142809510231018, 0.7908145189285278, 0.7769866585731506, 0.7797044515609741, 0.8113959431648254, 0.8643796443939209, 0.9605686664581299, 0.9017436504364014, 0.9836874008178711, 0.9782428741455078, 0.9691883325576782, 0.9851834774017334, 0.9802424311637878, 0.936535120010376, 0.9487484693527222, 0.9799955487251282, 0.84830242395401, 0.993159294128418, 0.9986236095428467, 0.9970322847366333, 0.9931733012199402, 0.9552467465400696, 0.9671733975410461, 0.7738916873931885, 0.8032687902450562, 0.8779067397117615, 0.9687238335609436, 0.9596002101898193, 0.9693573117256165, 0.8328515887260437, 0.4365082085132599, 0.8317780494689941, 0.7372174859046936, 0.8948541283607483, 0.9161866903305054, 0.9457600712776184, 0.6984280347824097, 0.7329339385032654, 0.8509947061538696, 0.9634634256362915, 0.8748950958251953, 0.9869681000709534, 0.986850380897522, 0.9924371838569641, 0.9932388067245483, 0.9746651649475098, 0.9863744974136353, 0.9962747097015381, 0.988852858543396, 0.9875792860984802, 0.8717547059059143, 0.94150310754776, 0.9353234171867371, 0.980475127696991, 0.9701555371284485, 0.9503902196884155, 0.9460290670394897, 0.8449609279632568, 0.623904287815094, 0.49906858801841736, 0.5306786894798279, 0.5545673966407776, 0.8378584980964661, 0.9543678164482117, 0.9531300067901611, 0.8689907193183899, 0.9591351747512817, 0.9417234659194946, 0.9539464116096497, 0.567661464214325, 0.9675540924072266, 0.9501866698265076, 0.9787613153457642, 0.9993801116943359, 0.9992225170135498, 0.9987939596176147, 0.9992305040359497, 0.9988590478897095, 0.9877942800521851, 0.9737238883972168, 0.7444067597389221, 0.9772815704345703, 0.9840703010559082, 0.9991803765296936, 0.9982894062995911, 0.9934013485908508, 0.979752779006958, 0.9538842439651489, 0.950593888759613, 0.9505798816680908]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.9970629811286926</v>
+        <v>0.9993801116943359</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.8213879000104498</v>
+        <v>0.8116427000059048</v>
       </c>
       <c r="J185" t="n">
-        <v>0.006624095967826208</v>
+        <v>0.00654550564520891</v>
       </c>
     </row>
     <row r="186">
@@ -7965,11 +7965,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[0.6406217217445374, 0.780677318572998, 0.854199230670929, 0.8278112411499023, 0.8026098012924194, 0.788832426071167, 0.8702413439750671, 0.7946702837944031, 0.7388456463813782, 0.6866291761398315, 0.8800622224807739, 0.6877685785293579, 0.5836517214775085, 0.5768331289291382, 0.541344940662384, 0.6485951542854309, 0.5274191498756409, 0.4501695930957794, 0.4304709732532501, 0.5480353236198425, 0.840105414390564, 0.6972132921218872, 0.5025929808616638, 0.5168843865394592, 0.8577083349227905, 0.7087963223457336, 0.6736952662467957, 0.6184735894203186, 0.7385585904121399, 0.68092280626297, 0.9084515571594238, 0.8862985372543335, 0.9395342469215393, 0.8941484093666077, 0.9058261513710022, 0.8269680738449097, 0.4788607656955719, 0.728925883769989, 0.7437042593955994, 0.6626808643341064, 0.6827912926673889, 0.788500189781189, 0.8454245924949646, 0.5828385949134827, 0.6913001537322998, 0.6534217596054077, 0.5232527852058411, 0.46883806586265564, 0.3388797342777252, 0.474741667509079, 0.5445013046264648, 0.5320883393287659, 0.6140985488891602, 0.6998581886291504, 0.8134590983390808, 0.737153947353363, 0.6462699174880981, 0.6031625270843506, 0.6429117918014526, 0.6874164938926697, 0.5835317969322205, 0.5328136086463928, 0.6936121582984924, 0.6934912204742432, 0.7239726185798645, 0.6678130626678467, 0.7358239889144897, 0.6875550746917725, 0.6037232875823975, 0.8059848546981812, 0.7152178883552551, 0.7014425992965698, 0.8801203966140747, 0.6384613513946533, 0.6703278422355652, 0.7920014262199402, 0.6497848629951477, 0.678774893283844, 0.6509857177734375, 0.8139890432357788, 0.7886536121368408, 0.7254600524902344, 0.6216481924057007, 0.7261231541633606, 0.7434280514717102, 0.41099050641059875, 0.524169921875, 0.5152357816696167, 0.4673102796077728, 0.7615429162979126, 0.9270540475845337, 0.9760452508926392, 0.9085719585418701, 0.8271433115005493, 0.8879314661026001, 0.8332967758178711, 0.8968193531036377, 0.3922596871852875, 0.35353341698646545, 0.28885123133659363, 0.33835896849632263, 0.5360363721847534, 0.36683720350265503, 0.5385207533836365, 0.7192801237106323, 0.7237094640731812, 0.5200791358947754, 0.6258930563926697, 0.7150354981422424, 0.7340010404586792, 0.747046947479248, 0.9206929802894592, 0.9079605937004089, 0.8495806455612183, 0.6800479888916016, 0.712124228477478, 0.763650119304657, 0.808329701423645, 0.7818421721458435, 0.6636871099472046, 0.6597691774368286, 0.7508136630058289, 0.8479410409927368, 0.8470637798309326]</t>
+          <t>[0.7388965487480164, 0.8926578760147095, 0.9254714250564575, 0.9422285556793213, 0.9316030740737915, 0.8945611715316772, 0.9100329279899597, 0.8098835945129395, 0.8247061371803284, 0.831133246421814, 0.9552673101425171, 0.8338661789894104, 0.7515263557434082, 0.7973459959030151, 0.7425023913383484, 0.7769322395324707, 0.6173940300941467, 0.4984979033470154, 0.5525190830230713, 0.7023202776908875, 0.9289161562919617, 0.8110311627388, 0.7061827778816223, 0.6543818116188049, 0.9502545595169067, 0.8959375619888306, 0.8572697043418884, 0.7931085824966431, 0.8538193106651306, 0.8314878940582275, 0.9556097388267517, 0.9471328854560852, 0.9748975038528442, 0.9499724507331848, 0.9608909487724304, 0.8996174335479736, 0.5822291374206543, 0.8028208613395691, 0.732379674911499, 0.7034916877746582, 0.7733038067817688, 0.8485836386680603, 0.9265626668930054, 0.6059116125106812, 0.7621163129806519, 0.7327796220779419, 0.659988284111023, 0.7202090620994568, 0.5973897576332092, 0.7500503659248352, 0.8281124234199524, 0.8138855695724487, 0.8486392498016357, 0.90006023645401, 0.9421355128288269, 0.8812096118927002, 0.8533581495285034, 0.8165695667266846, 0.7853872179985046, 0.8123784065246582, 0.7746875882148743, 0.6617183685302734, 0.8252348303794861, 0.8042303323745728, 0.8337290287017822, 0.7181046009063721, 0.8068037629127502, 0.7675370573997498, 0.6312357187271118, 0.8511461019515991, 0.7570720911026001, 0.7141001224517822, 0.931060791015625, 0.7400508522987366, 0.8182265162467957, 0.8846147656440735, 0.7904966473579407, 0.7738583087921143, 0.7735255360603333, 0.8902811408042908, 0.8732654452323914, 0.7875232696533203, 0.635138213634491, 0.73797607421875, 0.8681528568267822, 0.4531293511390686, 0.6161797046661377, 0.5772966146469116, 0.5301146507263184, 0.8334982991218567, 0.9520710110664368, 0.9886704683303833, 0.9445344805717468, 0.9074746966362, 0.938738226890564, 0.9473201632499695, 0.9787744283676147, 0.6536600589752197, 0.5761968493461609, 0.4445984363555908, 0.4949686825275421, 0.680199921131134, 0.46086689829826355, 0.612939178943634, 0.8262749910354614, 0.7887453436851501, 0.5204011797904968, 0.6348873972892761, 0.8350189328193665, 0.834926187992096, 0.8097606897354126, 0.9809272289276123, 0.9679016470909119, 0.9207885265350342, 0.7653414607048035, 0.8612382411956787, 0.8746980428695679, 0.9040786027908325, 0.8773311376571655, 0.8266252875328064, 0.8410370945930481, 0.8780777454376221, 0.9477689266204834, 0.9472695589065552]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.9760452508926392</v>
+        <v>0.9886704683303833</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.7052178000158165</v>
+        <v>0.7211383999965619</v>
       </c>
       <c r="J186" t="n">
-        <v>0.005687240322708197</v>
+        <v>0.00581563225803679</v>
       </c>
     </row>
     <row r="187">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[0.9731148481369019, 0.9871625304222107, 0.9945999383926392, 0.9922299981117249, 0.9560630321502686, 0.6482231616973877, 0.6715566515922546, 0.851218044757843, 0.9790852069854736, 0.9851502776145935, 0.9744393229484558, 0.9337252378463745, 0.7947139739990234, 0.4527371823787689, 0.46301281452178955, 0.7729530334472656, 0.8075230121612549, 0.7809225916862488, 0.4097312390804291, 0.34225547313690186, 0.28261712193489075, 0.2946546673774719, 0.3936958312988281, 0.7458802461624146, 0.4978600740432739, 0.2818300127983093, 0.2727697491645813, 0.2857261002063751, 0.41589778661727905, 0.8338523507118225, 0.5331326723098755, 0.9731358289718628, 0.9574772119522095, 0.3265090584754944, 0.7114810943603516, 0.7575405240058899, 0.6931305527687073, 0.45316457748413086, 0.721243679523468, 0.9745336174964905, 0.9126143455505371, 0.8483303785324097, 0.8226362466812134, 0.3418000638484955, 0.21104402840137482, 0.20924215018749237, 0.11644405871629715, 0.19855989515781403, 0.08356212824583054, 0.16812372207641602, 0.8510870337486267, 0.20939260721206665, 0.8263676166534424, 0.9784579873085022, 0.8725778460502625, 0.5242206454277039, 0.4848136007785797, 0.571096658706665, 0.33221301436424255, 0.4241504669189453, 0.5356112718582153, 0.476506769657135, 0.6262393593788147, 0.4491575062274933, 0.1799210160970688, 0.2811870574951172, 0.164895161986351, 0.36221927404403687, 0.3826918303966522, 0.24723710119724274, 0.3757111132144928, 0.9846259951591492, 0.9900906085968018, 0.8691983222961426, 0.9876295328140259, 0.9771960973739624, 0.8401522040367126, 0.6735494136810303, 0.8972147703170776, 0.8596451878547668, 0.9155078530311584, 0.9083497524261475, 0.6280182600021362, 0.5305410027503967, 0.9293846487998962, 0.9903426170349121, 0.9940764904022217, 0.9948121309280396, 0.99745112657547, 0.9985066056251526, 0.9970922470092773, 0.9961060881614685, 0.9898278713226318, 0.9922033548355103, 0.9965344667434692, 0.9965372085571289, 0.9957725405693054, 0.989922821521759, 0.9886350631713867, 0.9939192533493042, 0.9966480135917664, 0.995372474193573, 0.9854009747505188, 0.9911904335021973, 0.9884107112884521, 0.990784764289856, 0.9968985319137573, 0.9962987303733826, 0.9935001730918884, 0.9941073656082153, 0.9968321919441223, 0.997223973274231, 0.9974076151847839, 0.9978734254837036, 0.9975823163986206, 0.9964088797569275, 0.9964087605476379, 0.9970122575759888, 0.9952813982963562, 0.993992269039154, 0.9933962821960449, 0.9913722276687622, 0.9938430786132812, 0.991483747959137, 0.9914684295654297]</t>
+          <t>[0.991142749786377, 0.9952623844146729, 0.99757319688797, 0.9975526928901672, 0.9927691221237183, 0.8981914520263672, 0.8556424379348755, 0.9651378989219666, 0.994907557964325, 0.9947131276130676, 0.9804343581199646, 0.9788990616798401, 0.8691942691802979, 0.515146017074585, 0.6653276681900024, 0.9351962208747864, 0.9379537105560303, 0.9083186388015747, 0.6761509776115417, 0.3263821601867676, 0.21035172045230865, 0.23880183696746826, 0.56183260679245, 0.859268307685852, 0.48981308937072754, 0.13191641867160797, 0.29793158173561096, 0.2761198580265045, 0.4675351679325104, 0.9577847123146057, 0.7869404554367065, 0.9942817687988281, 0.983309805393219, 0.22962333261966705, 0.8613786101341248, 0.8213367462158203, 0.8615538477897644, 0.3938712477684021, 0.8099356293678284, 0.9877966046333313, 0.9695359468460083, 0.9683992266654968, 0.956474781036377, 0.463678240776062, 0.1342075765132904, 0.11258361488580704, 0.0474541001021862, 0.15614528954029083, 0.06533415615558624, 0.1466778963804245, 0.9328178763389587, 0.13371936976909637, 0.8229211568832397, 0.9889791011810303, 0.8550428152084351, 0.38232120871543884, 0.35698238015174866, 0.4669387936592102, 0.2356901317834854, 0.44011905789375305, 0.600121796131134, 0.7198803424835205, 0.8688794374465942, 0.7357475757598877, 0.1261097639799118, 0.3048051595687866, 0.14571484923362732, 0.4957526922225952, 0.38895928859710693, 0.2120915800333023, 0.340589702129364, 0.9908736944198608, 0.9955734014511108, 0.9445514678955078, 0.9947676658630371, 0.9921628832817078, 0.9051120281219482, 0.5284899473190308, 0.9282469153404236, 0.8533958196640015, 0.9245014190673828, 0.9473649859428406, 0.596186637878418, 0.5313991904258728, 0.9679516553878784, 0.9959642887115479, 0.9960665106773376, 0.997022807598114, 0.9987083673477173, 0.9992758631706238, 0.9985678195953369, 0.9981611371040344, 0.9958694577217102, 0.9973092079162598, 0.9986514449119568, 0.998710036277771, 0.997799813747406, 0.9948733448982239, 0.9933485388755798, 0.9970591068267822, 0.9982823133468628, 0.997902512550354, 0.9907742142677307, 0.9953547716140747, 0.9934585690498352, 0.9962617754936218, 0.998618483543396, 0.9983837604522705, 0.9970711469650269, 0.99783855676651, 0.9984129667282104, 0.9987921118736267, 0.9988791346549988, 0.9990930557250977, 0.9989446997642517, 0.9983413219451904, 0.998166024684906, 0.9986454844474792, 0.997641921043396, 0.9969537258148193, 0.9971680045127869, 0.9952918291091919, 0.9968343377113342, 0.9954501986503601, 0.9954426288604736]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.9985066056251526</v>
+        <v>0.9992758631706238</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.7018580999865662</v>
+        <v>0.7008969000016805</v>
       </c>
       <c r="J187" t="n">
-        <v>0.00561486479989253</v>
+        <v>0.005607175200013444</v>
       </c>
     </row>
     <row r="188">
@@ -8045,11 +8045,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.9797190427780151, 0.9826086759567261, 0.9865842461585999, 0.9875302314758301, 0.9905789494514465, 0.9499603509902954, 0.9899683594703674, 0.996217668056488, 0.9931492209434509, 0.9926436543464661, 0.988235592842102, 0.9937344193458557, 0.9934868812561035, 0.9917975664138794, 0.9929980039596558, 0.987789511680603, 0.9776586294174194, 0.9559610486030579, 0.9563984274864197, 0.9782520532608032, 0.9694730639457703, 0.9963399171829224, 0.995306670665741, 0.9949306845664978, 0.9962801337242126, 0.9969173669815063, 0.9972298741340637, 0.9942626357078552, 0.9811744689941406, 0.9849177002906799, 0.9763510227203369, 0.9894894957542419, 0.9645310044288635, 0.9909324645996094, 0.99382084608078, 0.9963337182998657, 0.9971972703933716, 0.9923721551895142, 0.9762418270111084, 0.9752907156944275, 0.9631937146186829, 0.9810017943382263, 0.98440021276474, 0.9932258725166321, 0.9952287673950195, 0.9919593930244446, 0.9954211115837097, 0.9958321452140808, 0.9969606995582581, 0.9953973889350891, 0.9971055388450623, 0.9972032308578491, 0.9955345392227173, 0.9968594312667847, 0.9971253275871277, 0.9938111901283264, 0.9924836754798889, 0.9844180345535278, 0.9890318512916565, 0.9906210899353027, 0.9852761030197144, 0.9937042593955994, 0.9973579049110413, 0.9977966547012329, 0.9976966977119446, 0.9975669384002686, 0.9878097772598267, 0.9671045541763306, 0.9816635847091675, 0.989205002784729, 0.9959478974342346, 0.9963425993919373, 0.9968379735946655, 0.9952340722084045, 0.9968498349189758, 0.9946799874305725, 0.9934612512588501, 0.9943404197692871, 0.982446551322937, 0.9893325567245483, 0.9805666208267212, 0.947508692741394, 0.9961413741111755, 0.983829915523529, 0.9826691150665283, 0.9895367622375488, 0.9903029799461365, 0.990872859954834, 0.9938242435455322, 0.993544340133667, 0.9967904686927795, 0.9898013472557068, 0.9830735921859741, 0.9835130572319031, 0.9818219542503357, 0.9853997826576233, 0.9948556423187256, 0.9941712021827698, 0.9946302175521851, 0.9751009345054626, 0.9834643602371216, 0.9832205772399902, 0.9905913472175598, 0.9898390769958496, 0.9959968328475952, 0.9954537153244019, 0.9946271777153015, 0.9945534467697144, 0.9969016313552856, 0.9932426810264587, 0.9618490934371948, 0.992716908454895, 0.9844704866409302, 0.9822140336036682, 0.9355208873748779, 0.9711368083953857, 0.9595068693161011, 0.9692372679710388, 0.9661152958869934, 0.993337869644165, 0.9964200258255005, 0.9944283962249756, 0.9702853560447693, 0.9744468927383423, 0.9744356870651245]</t>
+          <t>[0.9913251399993896, 0.9940388202667236, 0.995764970779419, 0.996799111366272, 0.9977085590362549, 0.9910696744918823, 0.9984947443008423, 0.9991724491119385, 0.9988969564437866, 0.998781144618988, 0.9967949986457825, 0.9980778694152832, 0.9974797368049622, 0.9973472356796265, 0.9978876709938049, 0.9956219792366028, 0.9919458031654358, 0.9787015914916992, 0.9867621064186096, 0.9944266080856323, 0.9943214654922485, 0.9990805387496948, 0.9987443685531616, 0.9987855553627014, 0.9987253546714783, 0.9990873336791992, 0.9991010427474976, 0.9981822967529297, 0.9936560392379761, 0.9957684278488159, 0.9935594797134399, 0.9968963861465454, 0.9860551953315735, 0.9966598749160767, 0.9978603720664978, 0.9985944628715515, 0.9989619255065918, 0.9976108074188232, 0.9953508377075195, 0.993979811668396, 0.9925875067710876, 0.9960451722145081, 0.996912956237793, 0.9983553290367126, 0.9987439513206482, 0.9979701638221741, 0.9987422823905945, 0.9987961053848267, 0.9989494681358337, 0.9979636669158936, 0.9987605810165405, 0.9990799427032471, 0.9985361099243164, 0.9988507032394409, 0.9990853071212769, 0.9986503720283508, 0.9983030557632446, 0.9964350461959839, 0.9979337453842163, 0.9980581402778625, 0.9973258972167969, 0.9985504746437073, 0.9990498423576355, 0.9992006421089172, 0.9992669224739075, 0.9992825388908386, 0.9974199533462524, 0.9929726123809814, 0.9958068132400513, 0.9977691173553467, 0.9986348748207092, 0.9986985921859741, 0.9990713596343994, 0.9987730383872986, 0.9991156458854675, 0.9984404444694519, 0.9981599450111389, 0.9983885288238525, 0.9955698847770691, 0.9969027638435364, 0.9928592443466187, 0.9737802743911743, 0.9991496801376343, 0.9967873096466064, 0.9955123066902161, 0.9972551465034485, 0.9972007274627686, 0.9975810050964355, 0.9983729124069214, 0.998489260673523, 0.999057948589325, 0.997651994228363, 0.9953542947769165, 0.9950425624847412, 0.9945336580276489, 0.9946308135986328, 0.9977656602859497, 0.9979873895645142, 0.998675525188446, 0.9916566610336304, 0.9951476454734802, 0.9946504235267639, 0.9973702430725098, 0.9976882934570312, 0.9990556836128235, 0.9989708662033081, 0.9989666938781738, 0.9987420439720154, 0.9992676377296448, 0.9982907176017761, 0.987953782081604, 0.9980575442314148, 0.9943954944610596, 0.9947532415390015, 0.973809003829956, 0.9900072813034058, 0.9868608117103577, 0.9888295531272888, 0.9892969727516174, 0.9979544878005981, 0.9989866614341736, 0.9988194108009338, 0.9923800230026245, 0.994158148765564, 0.9941880702972412]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.9977966547012329</v>
+        <v>0.9992825388908386</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.7193557000136934</v>
+        <v>0.7181857999967178</v>
       </c>
       <c r="J188" t="n">
-        <v>0.005754845600109548</v>
+        <v>0.005745486399973743</v>
       </c>
     </row>
     <row r="189">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[0.7124662399291992, 0.6734853386878967, 0.4655463993549347, 0.5418146252632141, 0.4221181869506836, 0.9074247479438782, 0.9021382331848145, 0.9295082092285156, 0.938295304775238, 0.9237372875213623, 0.6738993525505066, 0.40971308946609497, 0.39768967032432556, 0.265951007604599, 0.31863489747047424, 0.424933522939682, 0.304383784532547, 0.6842004656791687, 0.5194250345230103, 0.7048430442810059, 0.7904495000839233, 0.9314975738525391, 0.9756964445114136, 0.9096133708953857, 0.9636251926422119, 0.9758220911026001, 0.9753284454345703, 0.8882174491882324, 0.8907399773597717, 0.9790709018707275, 0.9472927451133728, 0.9484764933586121, 0.971813440322876, 0.9917625188827515, 0.9839606285095215, 0.9886849522590637, 0.9954720735549927, 0.9945605397224426, 0.994598388671875, 0.9928624033927917, 0.9894447922706604, 0.9885743856430054, 0.9656837582588196, 0.9611364006996155, 0.947188138961792, 0.9751405119895935, 0.9195637106895447, 0.9820613265037537, 0.9480850100517273, 0.8925732970237732, 0.8918275833129883, 0.9049099087715149, 0.8572584986686707, 0.9464737176895142, 0.6958473324775696, 0.744788646697998, 0.7871288061141968, 0.8346526622772217, 0.8376017212867737, 0.6096605062484741, 0.6953935623168945, 0.9662674069404602, 0.9951449036598206, 0.9873495697975159, 0.9533405303955078, 0.9238531589508057, 0.8273010849952698, 0.7812377214431763, 0.4008086621761322, 0.5851709246635437, 0.8064204454421997, 0.827605128288269, 0.924961268901825, 0.9577853679656982, 0.8851451277732849, 0.9706381559371948, 0.9406346678733826, 0.7432888150215149, 0.9115886092185974, 0.9468945860862732, 0.9487398862838745, 0.9614625573158264, 0.872735321521759, 0.9170050621032715, 0.7856382131576538, 0.9319548010826111, 0.6080752015113831, 0.6237784624099731, 0.9332758188247681, 0.8726489543914795, 0.8923810124397278, 0.9669519662857056, 0.964144766330719, 0.7260531783103943, 0.9213039875030518, 0.8316048979759216, 0.9413164258003235, 0.9709030389785767, 0.9365839958190918, 0.9283438920974731, 0.46579933166503906, 0.471922904253006, 0.5296445488929749, 0.16633078455924988, 0.27531835436820984, 0.40194809436798096, 0.8708205223083496, 0.7337026000022888, 0.760604977607727, 0.9122201800346375, 0.8555086851119995, 0.970493495464325, 0.9565436840057373, 0.9866114854812622, 0.9723425507545471, 0.9635639786720276, 0.9339162111282349, 0.9348795413970947, 0.9586669206619263, 0.9414846897125244, 0.9181361794471741, 0.9280040264129639, 0.8969229459762573, 0.8970862030982971]</t>
+          <t>[0.6521434783935547, 0.715251088142395, 0.3738331198692322, 0.595988929271698, 0.4438825845718384, 0.925241231918335, 0.9515412449836731, 0.9742324352264404, 0.9851033091545105, 0.9760664701461792, 0.7547292709350586, 0.46743807196617126, 0.5932760834693909, 0.26905357837677, 0.2907555103302002, 0.3776247501373291, 0.2016485631465912, 0.6981713175773621, 0.4073275029659271, 0.6453089118003845, 0.801668643951416, 0.9406112432479858, 0.9855808615684509, 0.9490327835083008, 0.9731396436691284, 0.9802982211112976, 0.9799305200576782, 0.916831374168396, 0.90608811378479, 0.9889330863952637, 0.9834660887718201, 0.9786657691001892, 0.9893513321876526, 0.9967194199562073, 0.9906890392303467, 0.9948863387107849, 0.9982561469078064, 0.9983879327774048, 0.9980269074440002, 0.9970079064369202, 0.99565589427948, 0.9952059388160706, 0.9775559306144714, 0.9636718034744263, 0.9486287236213684, 0.9870359301567078, 0.9377914071083069, 0.9905709028244019, 0.9719488024711609, 0.9014045596122742, 0.9248139262199402, 0.9311627745628357, 0.8980178236961365, 0.9718822240829468, 0.7064187526702881, 0.8131695985794067, 0.8974725008010864, 0.9197973608970642, 0.8265041708946228, 0.48046040534973145, 0.7295640110969543, 0.9841004610061646, 0.997887909412384, 0.9938603639602661, 0.980204164981842, 0.970827043056488, 0.9196918606758118, 0.8805064558982849, 0.3278540074825287, 0.5305054187774658, 0.8341339230537415, 0.8894851207733154, 0.9327720999717712, 0.9675471782684326, 0.8766264915466309, 0.9780634045600891, 0.957112729549408, 0.5389586091041565, 0.8986854553222656, 0.9699944257736206, 0.9802272319793701, 0.9867954254150391, 0.936258852481842, 0.9352698922157288, 0.771704375743866, 0.9074395298957825, 0.30682820081710815, 0.3973367512226105, 0.9233323335647583, 0.9188396334648132, 0.8485385775566101, 0.9727707505226135, 0.9744800925254822, 0.6701704263687134, 0.8682399392127991, 0.7766913771629333, 0.962119996547699, 0.9845651388168335, 0.9388917088508606, 0.9261210560798645, 0.3457006812095642, 0.3282242715358734, 0.4802415370941162, 0.05410267412662506, 0.10733184963464737, 0.14305181801319122, 0.7770810127258301, 0.5019063949584961, 0.7455140948295593, 0.9373692870140076, 0.8388276100158691, 0.9766888618469238, 0.9721213579177856, 0.992158055305481, 0.9853217005729675, 0.9743770360946655, 0.9438117146492004, 0.9626041650772095, 0.9739506840705872, 0.9559998512268066, 0.9367780685424805, 0.9548824429512024, 0.9361507296562195, 0.9361907243728638]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9954720735549927</v>
+        <v>0.9983879327774048</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.7117030000081286</v>
+        <v>0.7205218000017339</v>
       </c>
       <c r="J189" t="n">
-        <v>0.005739540322646198</v>
+        <v>0.005810659677433338</v>
       </c>
     </row>
     <row r="190">
@@ -8125,11 +8125,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[0.5071636438369751, 0.28725674748420715, 0.24496255815029144, 0.29927775263786316, 0.6567747592926025, 0.3359847962856293, 0.12641750276088715, 0.22265511751174927, 0.49866563081741333, 0.4544207751750946, 0.5684348940849304, 0.4750191271305084, 0.6561427712440491, 0.5016271471977234, 0.3311660885810852, 0.6634469032287598, 0.52480548620224, 0.5222194790840149, 0.5376940369606018, 0.7404285073280334, 0.834276020526886, 0.5513197779655457, 0.46218064427375793, 0.34008345007896423, 0.38845646381378174, 0.45397236943244934, 0.2885255515575409, 0.4983597695827484, 0.6186148524284363, 0.7853434085845947, 0.7672162055969238, 0.6394447088241577, 0.506833553314209, 0.6051562428474426, 0.8730161786079407, 0.2424747347831726, 0.34562671184539795, 0.45844775438308716, 0.21284273266792297, 0.30177533626556396, 0.8731539845466614, 0.9696331024169922, 0.9345871806144714, 0.6581183671951294, 0.3790875971317291, 0.7697822451591492, 0.5583695769309998, 0.4562563896179199, 0.849208414554596, 0.9363677501678467, 0.9723281860351562, 0.9212696552276611, 0.5920395255088806, 0.3401103615760803, 0.3354438543319702, 0.5419608950614929, 0.4087478518486023, 0.3083806037902832, 0.41440942883491516, 0.3482797145843506, 0.5032402276992798, 0.9154198169708252, 0.6939783692359924, 0.31659799814224243, 0.2143407016992569, 0.28621983528137207, 0.6995829343795776, 0.6979838609695435, 0.6486743092536926, 0.695762038230896, 0.3286084234714508, 0.3875275254249573, 0.4812146723270416, 0.556792140007019, 0.4597718119621277, 0.38696736097335815, 0.4626498520374298, 0.7833644151687622, 0.903457760810852, 0.480987012386322, 0.4821014702320099, 0.46520838141441345, 0.23104260861873627, 0.4413066506385803, 0.24794110655784607, 0.26974862813949585, 0.3923124372959137, 0.29856202006340027, 0.41685751080513, 0.4929494559764862, 0.4440126121044159, 0.36847633123397827, 0.3972351551055908, 0.35994595289230347, 0.37329432368278503, 0.3233385682106018, 0.20265741646289825, 0.1588626354932785, 0.2646775543689728, 0.24556808173656464, 0.20599931478500366, 0.34446877241134644, 0.90235435962677, 0.772740364074707, 0.44274193048477173, 0.16570788621902466, 0.19384507834911346, 0.18245774507522583, 0.16208820044994354, 0.1937956064939499, 0.07585831731557846, 0.25025245547294617, 0.10029839724302292, 0.6277244091033936, 0.7396231889724731, 0.6600410342216492, 0.7769654989242554, 0.7324153184890747, 0.8603162169456482, 0.936962366104126, 0.7141324281692505, 0.6392868161201477, 0.41447603702545166, 0.41447603702545166]</t>
+          <t>[0.6463664174079895, 0.43287932872772217, 0.3219721019268036, 0.2408735603094101, 0.7151116132736206, 0.36393752694129944, 0.11430111527442932, 0.21695740520954132, 0.538561224937439, 0.6170548796653748, 0.7288603186607361, 0.5242175459861755, 0.8101627230644226, 0.49216556549072266, 0.31766822934150696, 0.7728360295295715, 0.57320237159729, 0.5250738263130188, 0.6292414665222168, 0.8866456747055054, 0.8741135597229004, 0.652113139629364, 0.5779843926429749, 0.3298415541648865, 0.4885227382183075, 0.4290231764316559, 0.31164923310279846, 0.6365258097648621, 0.7335948944091797, 0.8227603435516357, 0.8613976240158081, 0.6644969582557678, 0.6225635409355164, 0.7295429110527039, 0.9426600933074951, 0.2271638810634613, 0.4232143759727478, 0.5194419026374817, 0.15755335986614227, 0.2977737784385681, 0.9470099210739136, 0.9861704111099243, 0.9739546179771423, 0.6261312365531921, 0.25402456521987915, 0.8276489973068237, 0.5827507972717285, 0.3743075132369995, 0.914220929145813, 0.9786298871040344, 0.9875975251197815, 0.9553406238555908, 0.6279767751693726, 0.31839877367019653, 0.3717976212501526, 0.697594165802002, 0.45633408427238464, 0.28802621364593506, 0.35202622413635254, 0.31430739164352417, 0.608973503112793, 0.9641355872154236, 0.8384039402008057, 0.3414961099624634, 0.2465439885854721, 0.3225116729736328, 0.6096116900444031, 0.607933521270752, 0.5953107476234436, 0.6226404309272766, 0.16668513417243958, 0.3307406008243561, 0.42758816480636597, 0.4945280849933624, 0.5372571349143982, 0.2725304365158081, 0.5003261566162109, 0.9082983136177063, 0.9628512859344482, 0.6816626191139221, 0.6543015837669373, 0.6163696050643921, 0.16029077768325806, 0.45823055505752563, 0.24210205674171448, 0.26528576016426086, 0.5598207116127014, 0.3082081079483032, 0.48010990023612976, 0.5898077487945557, 0.5053601264953613, 0.33695724606513977, 0.43710029125213623, 0.3603042960166931, 0.32478436827659607, 0.3688107430934906, 0.12881740927696228, 0.10054599493741989, 0.1901525855064392, 0.1294444054365158, 0.16516605019569397, 0.2650194764137268, 0.9566444754600525, 0.8525903820991516, 0.6522238254547119, 0.24887746572494507, 0.28670722246170044, 0.19247934222221375, 0.19940753281116486, 0.3054736256599426, 0.060288965702056885, 0.37321656942367554, 0.08830711990594864, 0.7338290810585022, 0.7468844056129456, 0.6863241791725159, 0.76284259557724, 0.7472482919692993, 0.911414384841919, 0.9788434505462646, 0.8938686847686768, 0.8848106861114502, 0.7277011275291443, 0.7277011275291443]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.9723281860351562</v>
+        <v>0.9875975251197815</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.7055625999928452</v>
+        <v>0.7157263999979477</v>
       </c>
       <c r="J190" t="n">
-        <v>0.005690020967684235</v>
+        <v>0.005771987096757643</v>
       </c>
     </row>
     <row r="191">
@@ -8165,11 +8165,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[0.8558632731437683, 0.6863516569137573, 0.5059062838554382, 0.5139363408088684, 0.33502712845802307, 0.44593870639801025, 0.27349525690078735, 0.6098212003707886, 0.2312994748353958, 0.5190950632095337, 0.6471127271652222, 0.5421692728996277, 0.557898759841919, 0.52559494972229, 0.3340968191623688, 0.25338253378868103, 0.2633272111415863, 0.22275254130363464, 0.2590005099773407, 0.42467084527015686, 0.6556878685951233, 0.9326921701431274, 0.8444026112556458, 0.5320813059806824, 0.5075231194496155, 0.27257171273231506, 0.17270994186401367, 0.4796335995197296, 0.23717500269412994, 0.24248018860816956, 0.1240527555346489, 0.1387433260679245, 0.1419381946325302, 0.23145997524261475, 0.22989287972450256, 0.8776289820671082, 0.271589070558548, 0.4654179811477661, 0.27146512269973755, 0.31224486231803894, 0.4657236635684967, 0.2881656289100647, 0.3225081264972687, 0.24086543917655945, 0.18777188658714294, 0.23450089991092682, 0.4551381766796112, 0.451250821352005, 0.27262264490127563, 0.29436740279197693, 0.2711873948574066, 0.11399942636489868, 0.11049854010343552, 0.14116574823856354, 0.2963915169239044, 0.2950717508792877, 0.26745402812957764, 0.20391397178173065, 0.2775483727455139, 0.15837737917900085, 0.34814146161079407, 0.2665015161037445, 0.2913385331630707, 0.2753613293170929, 0.2810888886451721, 0.24880582094192505, 0.2080814689397812, 0.4094790518283844, 0.7758976221084595, 0.6499741673469543, 0.6243593692779541, 0.7900862693786621, 0.6651198863983154, 0.41021203994750977, 0.4692608416080475, 0.6010017991065979, 0.7939900159835815, 0.5605300664901733, 0.644656240940094, 0.5607906579971313, 0.5158766508102417, 0.5881010890007019, 0.8970320820808411, 0.7080958485603333, 0.400028795003891, 0.51994389295578, 0.7766395211219788, 0.7534807324409485, 0.8648619055747986, 0.808142364025116, 0.9502628445625305, 0.9403067231178284, 0.8215091824531555, 0.8842333555221558, 0.5074033141136169, 0.21131077408790588, 0.8415660858154297, 0.9195934534072876, 0.9536136984825134, 0.8822912573814392, 0.9088507890701294, 0.9568502902984619, 0.8217825293540955, 0.7854039072990417, 0.7954668998718262, 0.7803157567977905, 0.7800325155258179, 0.37730470299720764, 0.19413404166698456, 0.645301878452301, 0.2330203503370285, 0.1714407205581665, 0.23823869228363037, 0.7598254084587097, 0.5899030566215515, 0.7013724446296692, 0.7625584602355957, 0.15996915102005005, 0.13980050384998322, 0.11464138329029083, 0.21772588789463043, 0.6882012486457825, 0.869947075843811, 0.8503501415252686, 0.8509216904640198]</t>
+          <t>[0.8544881343841553, 0.7589739561080933, 0.5009803175926208, 0.6060324311256409, 0.4777405560016632, 0.4272838830947876, 0.15589022636413574, 0.5432347655296326, 0.07390804588794708, 0.29222366213798523, 0.4549846947193146, 0.3932417035102844, 0.5318793058395386, 0.47116950154304504, 0.2613747715950012, 0.13666656613349915, 0.19546906650066376, 0.11125011742115021, 0.18830952048301697, 0.21165090799331665, 0.6968278884887695, 0.9649465084075928, 0.9136243462562561, 0.6129359006881714, 0.4878149628639221, 0.15145333111286163, 0.06697171181440353, 0.3346296548843384, 0.1413530856370926, 0.15014217793941498, 0.028222408145666122, 0.042943451553583145, 0.04983781278133392, 0.08855341374874115, 0.13994261622428894, 0.9606092572212219, 0.2923373878002167, 0.4733320474624634, 0.10400602221488953, 0.1383453756570816, 0.36016401648521423, 0.1757170855998993, 0.2371748387813568, 0.11755618453025818, 0.0903783068060875, 0.1329231858253479, 0.5120804905891418, 0.6306549906730652, 0.18448108434677124, 0.21439914405345917, 0.1498168706893921, 0.027755532413721085, 0.027635186910629272, 0.06894140690565109, 0.2976646423339844, 0.24758659303188324, 0.1962030678987503, 0.06600624322891235, 0.13654105365276337, 0.0638691633939743, 0.19861984252929688, 0.15648239850997925, 0.17431184649467468, 0.13816693425178528, 0.1554144024848938, 0.09584000706672668, 0.08628181368112564, 0.2639589309692383, 0.8305240273475647, 0.7987155914306641, 0.7696372270584106, 0.9066341519355774, 0.7915722131729126, 0.40808188915252686, 0.4685446321964264, 0.5755308866500854, 0.7804620862007141, 0.3349953591823578, 0.5044746398925781, 0.44606971740722656, 0.46807026863098145, 0.4302937686443329, 0.9231424331665039, 0.8050357103347778, 0.4378916323184967, 0.6394080519676208, 0.8982329368591309, 0.8501725792884827, 0.9044151902198792, 0.874984622001648, 0.9756548404693604, 0.9766210317611694, 0.8307894468307495, 0.9402584433555603, 0.575165867805481, 0.1742420643568039, 0.8254534602165222, 0.9273493885993958, 0.9613738656044006, 0.906521201133728, 0.9152776002883911, 0.9763357043266296, 0.7651835680007935, 0.7131872773170471, 0.8024483323097229, 0.8882493376731873, 0.8805800676345825, 0.2395809441804886, 0.09833026677370071, 0.6498376131057739, 0.1824253350496292, 0.18457798659801483, 0.4267359673976898, 0.945781946182251, 0.7856585383415222, 0.8224821090698242, 0.9118784666061401, 0.136976420879364, 0.07291421294212341, 0.06502996385097504, 0.11707798391580582, 0.7458829879760742, 0.8755674958229065, 0.7659546136856079, 0.767092764377594]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9568502902984619</v>
+        <v>0.9766210317611694</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -8183,10 +8183,10 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.7120851000072435</v>
+        <v>0.7108523000060814</v>
       </c>
       <c r="J191" t="n">
-        <v>0.005696680800057948</v>
+        <v>0.005686818400048651</v>
       </c>
     </row>
     <row r="192">
@@ -8205,11 +8205,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[0.23883740603923798, 0.2729811370372772, 0.28050440549850464, 0.6644357442855835, 0.35836777091026306, 0.42930635809898376, 0.41606858372688293, 0.450270414352417, 0.5086880922317505, 0.6124999523162842, 0.7256520986557007, 0.778687059879303, 0.6347115635871887, 0.4566279351711273, 0.4055291712284088, 0.3999236822128296, 0.414131224155426, 0.5246449708938599, 0.6754308342933655, 0.7710227966308594, 0.4362306296825409, 0.6830726861953735, 0.6915593147277832, 0.542756974697113, 0.5079752802848816, 0.4244992434978485, 0.46526047587394714, 0.6465216279029846, 0.4611804187297821, 0.4958610236644745, 0.291472464799881, 0.4403481185436249, 0.3889439105987549, 0.3052580952644348, 0.1221729964017868, 0.09742940217256546, 0.1543547660112381, 0.1551257073879242, 0.15492144227027893, 0.23363684117794037, 0.1633378565311432, 0.235801100730896, 0.1980878710746765, 0.17426002025604248, 0.28900960087776184, 0.5577203631401062, 0.7312562465667725, 0.7780340909957886, 0.736392617225647, 0.6556949019432068, 0.6935281157493591, 0.9288123846054077, 0.5233671069145203, 0.5856142044067383, 0.32315728068351746, 0.23957951366901398, 0.21989355981349945, 0.31936511397361755, 0.664391815662384, 0.4422053098678589, 0.4636301100254059, 0.5669274926185608, 0.583471417427063, 0.52482670545578, 0.48914578557014465, 0.5379906296730042, 0.5095905065536499, 0.6615046858787537, 0.6584231853485107, 0.6001488566398621, 0.7691771388053894, 0.9381405711174011, 0.614689826965332, 0.5500628352165222, 0.3832125961780548, 0.5914666056632996, 0.5850853323936462, 0.7637712359428406, 0.545081615447998, 0.6454533338546753, 0.5084636807441711, 0.4420420229434967, 0.6819628477096558, 0.608319878578186, 0.695406973361969, 0.650865375995636, 0.6411496996879578, 0.6591962575912476, 0.558282732963562, 0.738446831703186, 0.7412031888961792, 0.6074638366699219, 0.6208246946334839, 0.3681771159172058, 0.39218655228614807, 0.5365831851959229, 0.529717743396759, 0.2785526514053345, 0.4139508903026581, 0.652593731880188, 0.6262649297714233, 0.8309378027915955, 0.5765406489372253, 0.6015815138816833, 0.47080546617507935, 0.9576537013053894, 0.36780714988708496, 0.04554932191967964, 0.04618043079972267, 0.05152482911944389, 0.06361979991197586, 0.05149305984377861, 0.04656928777694702, 0.053902845829725266, 0.045113835483789444, 0.03787750378251076, 0.05428667366504669, 0.04558361694216728, 0.05273090675473213, 0.04794223979115486, 0.04539927840232849, 0.05067557841539383, 0.04437067732214928, 0.04351359233260155, 0.04366785287857056]</t>
+          <t>[0.20280486345291138, 0.2614237070083618, 0.3267555236816406, 0.7865311503410339, 0.48577892780303955, 0.4707070291042328, 0.5144354701042175, 0.5815374255180359, 0.6281751990318298, 0.6806632876396179, 0.750330924987793, 0.7691638469696045, 0.6139318346977234, 0.35637781023979187, 0.25015199184417725, 0.2847232520580292, 0.18530917167663574, 0.23912332952022552, 0.6245321035385132, 0.7018764615058899, 0.27905431389808655, 0.5943980813026428, 0.6453092098236084, 0.3781539499759674, 0.37483587861061096, 0.31451237201690674, 0.4837988317012787, 0.7692837119102478, 0.4926621913909912, 0.5676397681236267, 0.31437233090400696, 0.52760249376297, 0.46169552206993103, 0.283684104681015, 0.08608687669038773, 0.05178521201014519, 0.06754263490438461, 0.07731349021196365, 0.06604994088411331, 0.14551085233688354, 0.056909650564193726, 0.08908969908952713, 0.09654737263917923, 0.08223666995763779, 0.2563740015029907, 0.608313262462616, 0.8266311883926392, 0.8328909873962402, 0.7971721887588501, 0.7281312346458435, 0.7080275416374207, 0.9583584070205688, 0.42084991931915283, 0.5641128420829773, 0.264876127243042, 0.20332086086273193, 0.1251838505268097, 0.3215036690235138, 0.8055893778800964, 0.3734661638736725, 0.3621915578842163, 0.5052383542060852, 0.5124847888946533, 0.44416573643684387, 0.4461604654788971, 0.512832760810852, 0.5072778463363647, 0.6572380661964417, 0.705435037612915, 0.6118939518928528, 0.781231164932251, 0.9622552394866943, 0.7154494524002075, 0.6324892044067383, 0.34371432662010193, 0.7916411757469177, 0.631017804145813, 0.8612738251686096, 0.5268135070800781, 0.6298907399177551, 0.4673348665237427, 0.3191145360469818, 0.7637039422988892, 0.71187824010849, 0.8474338054656982, 0.7223999500274658, 0.6360650658607483, 0.7369304299354553, 0.6060193777084351, 0.8331258296966553, 0.8556357026100159, 0.6222451329231262, 0.5257260203361511, 0.40963733196258545, 0.4682406187057495, 0.5867120623588562, 0.7077435851097107, 0.5089491009712219, 0.4864872694015503, 0.7876986861228943, 0.8062816262245178, 0.8741101622581482, 0.5980368256568909, 0.5932765007019043, 0.40225696563720703, 0.9611881375312805, 0.470417857170105, 0.029042130336165428, 0.030724504962563515, 0.03419223427772522, 0.04552388936281204, 0.03602510318160057, 0.030751902610063553, 0.037045739591121674, 0.029008647426962852, 0.024584325030446053, 0.036554526537656784, 0.028324069455266, 0.03399708494544029, 0.0314459465444088, 0.02911481447517872, 0.03423025831580162, 0.029470879584550858, 0.028437580913305283, 0.0282761063426733]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.9576537013053894</v>
+        <v>0.9622552394866943</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.710388299979968</v>
+        <v>0.7277519000053871</v>
       </c>
       <c r="J192" t="n">
-        <v>0.005683106399839744</v>
+        <v>0.005822015200043097</v>
       </c>
     </row>
     <row r="193">
@@ -8245,11 +8245,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[0.9965211153030396, 0.9959267973899841, 0.9957043528556824, 0.9956209063529968, 0.9959233999252319, 0.9958975315093994, 0.9958155751228333, 0.9944474697113037, 0.9942217469215393, 0.9917222857475281, 0.993287980556488, 0.9939968585968018, 0.9917028546333313, 0.9925512075424194, 0.993634819984436, 0.9940582513809204, 0.9948667287826538, 0.9963239431381226, 0.9962626099586487, 0.9958299994468689, 0.9967233538627625, 0.9970346689224243, 0.9970229268074036, 0.9976735711097717, 0.9967867136001587, 0.996971845626831, 0.9971520900726318, 0.9966141581535339, 0.9966340661048889, 0.9966014623641968, 0.9967638254165649, 0.9957793951034546, 0.9957568049430847, 0.9959959983825684, 0.996044933795929, 0.9949150085449219, 0.9930905699729919, 0.9931939840316772, 0.9948698282241821, 0.9950927495956421, 0.995676577091217, 0.9958763122558594, 0.9950100183486938, 0.9927050471305847, 0.9955111742019653, 0.9953227639198303, 0.9948719143867493, 0.9964912533760071, 0.9954264760017395, 0.9958716034889221, 0.9945825934410095, 0.9953104853630066, 0.9963042736053467, 0.9972302317619324, 0.9967641830444336, 0.9961775541305542, 0.9969335794448853, 0.9970833659172058, 0.996910035610199, 0.9975606203079224, 0.9973879456520081, 0.9972348809242249, 0.9969931840896606, 0.9966341853141785, 0.9959346055984497, 0.9964302182197571, 0.993791401386261, 0.9959346055984497, 0.995215654373169, 0.9947013854980469, 0.9950309991836548, 0.9932914972305298, 0.9908838868141174, 0.9927472472190857, 0.9937940835952759, 0.9931831955909729, 0.9930590391159058, 0.9937385320663452, 0.9938126802444458, 0.9957299828529358, 0.9947203397750854, 0.9948969483375549, 0.9948503375053406, 0.9963120818138123, 0.9955939650535583, 0.9956203103065491, 0.9971285462379456, 0.9969690442085266, 0.9962170720100403, 0.9940458536148071, 0.9931764006614685, 0.9931950569152832, 0.9953330159187317, 0.9950169920921326, 0.9931802749633789, 0.994792640209198, 0.9955471754074097, 0.9968974590301514, 0.993943989276886, 0.9909311532974243, 0.9937134385108948, 0.9963280558586121, 0.9949017763137817, 0.995653510093689, 0.9965170621871948, 0.9962078332901001, 0.9960327744483948, 0.9959624409675598, 0.9967657327651978, 0.9973819851875305, 0.9960899949073792, 0.9956744313240051, 0.9954968690872192, 0.9964337348937988, 0.9952248334884644, 0.9960200190544128, 0.9965960383415222, 0.9949896931648254, 0.994205892086029, 0.9935765862464905, 0.9921900629997253, 0.9939939379692078, 0.9960916638374329, 0.9967365860939026, 0.9966191053390503, 0.9954670667648315, 0.9941260814666748, 0.9937410950660706, 0.9928890466690063, 0.9949945211410522, 0.9949831962585449, 0.9928712248802185, 0.9933981895446777, 0.9936302304267883, 0.995238184928894, 0.9950233697891235, 0.9950823783874512, 0.995872437953949, 0.9959149956703186]</t>
+          <t>[0.9985791444778442, 0.9982954859733582, 0.9981294274330139, 0.9980016350746155, 0.9980928301811218, 0.9983202815055847, 0.9982889294624329, 0.9978249073028564, 0.9975550770759583, 0.9963905215263367, 0.9970557689666748, 0.9973576664924622, 0.9956796765327454, 0.9965536594390869, 0.9971463084220886, 0.9972963929176331, 0.997739315032959, 0.9985988736152649, 0.9985931515693665, 0.9982602000236511, 0.9988011121749878, 0.9989105463027954, 0.998913049697876, 0.9991180300712585, 0.9986514449119568, 0.9987120628356934, 0.998791515827179, 0.9985633492469788, 0.9986547231674194, 0.9986898303031921, 0.9987322688102722, 0.9983657002449036, 0.998391330242157, 0.9984604120254517, 0.9986022114753723, 0.9982031583786011, 0.9976087808609009, 0.9976812601089478, 0.9982417821884155, 0.9979668259620667, 0.998301088809967, 0.9984446167945862, 0.9980350136756897, 0.9968020915985107, 0.9980430603027344, 0.9979192614555359, 0.9976639747619629, 0.9983242154121399, 0.9979211688041687, 0.9982101917266846, 0.9978614449501038, 0.9980598092079163, 0.9984272718429565, 0.9988507032394409, 0.9986403584480286, 0.9984810948371887, 0.9988101720809937, 0.9989124536514282, 0.9988996982574463, 0.9991675615310669, 0.9990739822387695, 0.9990262985229492, 0.9988446235656738, 0.9986153841018677, 0.9983128309249878, 0.998751163482666, 0.9974696636199951, 0.9985479712486267, 0.9983001351356506, 0.9980497360229492, 0.9980243444442749, 0.997221827507019, 0.9959267973899841, 0.9970362186431885, 0.9975347518920898, 0.9972321391105652, 0.9971326589584351, 0.9976097345352173, 0.997886598110199, 0.9984413981437683, 0.9981074333190918, 0.9982701539993286, 0.9981069564819336, 0.9985976815223694, 0.9983221888542175, 0.9984133243560791, 0.9989312291145325, 0.9988164901733398, 0.9985069632530212, 0.9976955056190491, 0.9972566962242126, 0.9973168969154358, 0.9980159997940063, 0.997636079788208, 0.9966132044792175, 0.9976239800453186, 0.9981210827827454, 0.998689591884613, 0.9970301389694214, 0.9955743551254272, 0.997229278087616, 0.998433530330658, 0.9979738593101501, 0.9984443783760071, 0.9987717270851135, 0.9986916184425354, 0.9987309575080872, 0.9987120628356934, 0.998965859413147, 0.9991284012794495, 0.9985706806182861, 0.9983188509941101, 0.9982540011405945, 0.9985104203224182, 0.9978964328765869, 0.9982093572616577, 0.9985836744308472, 0.997994065284729, 0.9978460073471069, 0.9970294237136841, 0.9966069459915161, 0.9973932504653931, 0.998370349407196, 0.9986234903335571, 0.9986094236373901, 0.9983933568000793, 0.9979845285415649, 0.997637152671814, 0.9973644614219666, 0.9980860948562622, 0.9980273842811584, 0.9966014623641968, 0.9970498085021973, 0.9969981908798218, 0.9981992840766907, 0.9978310465812683, 0.9977860450744629, 0.9981550574302673, 0.9981718063354492]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9976735711097717</v>
+        <v>0.9991675615310669</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.7939482000074349</v>
+        <v>0.8047159999987343</v>
       </c>
       <c r="J193" t="n">
-        <v>0.005711857554010324</v>
+        <v>0.005789323740998089</v>
       </c>
     </row>
     <row r="194">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[0.36208319664001465, 0.285965234041214, 0.3459997773170471, 0.2791888117790222, 0.2609656751155853, 0.13218708336353302, 0.19941546022891998, 0.1697322279214859, 0.16135260462760925, 0.1828836053609848, 0.18005485832691193, 0.3224562108516693, 0.44600898027420044, 0.38925519585609436, 0.4410456717014313, 0.5146668553352356, 0.7240104675292969, 0.9673357605934143, 0.9742389917373657, 0.9682305455207825, 0.9918821454048157, 0.9892622828483582, 0.9841655492782593, 0.9718809723854065, 0.9702933430671692, 0.968299388885498, 0.9800688028335571, 0.9786611795425415, 0.9807373881340027, 0.9885361194610596, 0.9883531928062439, 0.988473117351532, 0.8911871910095215, 0.15824739634990692, 0.08260303735733032, 0.16841912269592285, 0.2468387633562088, 0.27627941966056824, 0.28423812985420227, 0.44943639636039734, 0.48360952734947205, 0.2938033640384674, 0.273065984249115, 0.3151538372039795, 0.48080334067344666, 0.41344645619392395, 0.32190921902656555, 0.1535581648349762, 0.24284808337688446, 0.22828854620456696, 0.18425793945789337, 0.18232488632202148, 0.16757787764072418, 0.33638903498649597, 0.5803530812263489, 0.9067554473876953, 0.9408896565437317, 0.9577679634094238, 0.9727137088775635, 0.9835436940193176, 0.9869415163993835, 0.987872838973999, 0.9870039820671082, 0.9857773184776306, 0.98689866065979, 0.9882777333259583, 0.9867886304855347, 0.9865424633026123, 0.9713762402534485, 0.8629055023193359, 0.47688859701156616, 0.3015184998512268, 0.2575186491012573, 0.3067528009414673, 0.3639567792415619, 0.4212838411331177, 0.32132837176322937, 0.21326804161071777, 0.22108212113380432, 0.240059494972229, 0.3951572775840759, 0.3617711067199707, 0.24450169503688812, 0.32517144083976746, 0.30372679233551025, 0.31341350078582764, 0.2732428014278412, 0.2415304332971573, 0.22368623316287994, 0.23649877309799194, 0.23664651811122894, 0.2462855726480484, 0.21871864795684814, 0.7308314442634583, 0.856660783290863, 0.8718447685241699, 0.9218609929084778, 0.9592238068580627, 0.9822390079498291, 0.9861235618591309, 0.9848702549934387, 0.9728108048439026, 0.9713292121887207, 0.9737123847007751, 0.9887608885765076, 0.9905200004577637, 0.9875338077545166, 0.9561185240745544, 0.8306682705879211, 0.7009676098823547, 0.603998601436615, 0.3623819649219513, 0.3644883334636688, 0.25241711735725403, 0.22320227324962616, 0.251803457736969, 0.14978934824466705, 0.2049434334039688, 0.2555539309978485, 0.3294486105442047, 0.37116357684135437, 0.2992212772369385, 0.21967478096485138, 0.22390423715114594, 0.2341676950454712, 0.18355634808540344, 0.2050861269235611, 0.21545173227787018, 0.13788528740406036, 0.16237854957580566, 0.10820643603801727, 0.23132097721099854, 0.3369240164756775, 0.3299335539340973, 0.30809807777404785, 0.35096144676208496, 0.3940179646015167, 0.39486169815063477]</t>
+          <t>[0.49470019340515137, 0.41668254137039185, 0.5454395413398743, 0.43923917412757874, 0.4529516100883484, 0.32860955595970154, 0.37606576085090637, 0.28039175271987915, 0.217751145362854, 0.24743704497814178, 0.2989686131477356, 0.5340696573257446, 0.6124094128608704, 0.5583338737487793, 0.730341374874115, 0.7287029027938843, 0.8657352328300476, 0.9850098490715027, 0.9891214966773987, 0.9880053400993347, 0.9956845045089722, 0.9943388104438782, 0.9929239749908447, 0.9865707755088806, 0.984444260597229, 0.9855006337165833, 0.9898287057876587, 0.9894623160362244, 0.9890768527984619, 0.9940294027328491, 0.9929226636886597, 0.9939354062080383, 0.9690658450126648, 0.299654096364975, 0.1335798054933548, 0.36554738879203796, 0.4783920645713806, 0.4904240667819977, 0.4769371747970581, 0.667547881603241, 0.7254841923713684, 0.5025948286056519, 0.4368354380130768, 0.5653432011604309, 0.6991895437240601, 0.6036960482597351, 0.4927946925163269, 0.2513664960861206, 0.40659648180007935, 0.4541754424571991, 0.355768620967865, 0.2963697016239166, 0.2975761592388153, 0.6055061221122742, 0.8364178538322449, 0.9724903106689453, 0.9714217782020569, 0.9807091951370239, 0.9859391450881958, 0.9898806810379028, 0.9910120964050293, 0.9906772375106812, 0.992497980594635, 0.9920227527618408, 0.9926844835281372, 0.9944555163383484, 0.9946064352989197, 0.9947769641876221, 0.9892066717147827, 0.9511123299598694, 0.7486783862113953, 0.48639973998069763, 0.39708152413368225, 0.5281493067741394, 0.5640712976455688, 0.6454768180847168, 0.5854469537734985, 0.4308824837207794, 0.4745788872241974, 0.4981016516685486, 0.6975370049476624, 0.6867479681968689, 0.4564979374408722, 0.5654494166374207, 0.4671403169631958, 0.4997726082801819, 0.5209037661552429, 0.4482317566871643, 0.3681446611881256, 0.4655795693397522, 0.4683894217014313, 0.48564961552619934, 0.4178817868232727, 0.8991691470146179, 0.9483601450920105, 0.9409085512161255, 0.9600669741630554, 0.9727811217308044, 0.9924128651618958, 0.9936031699180603, 0.992805540561676, 0.9877316355705261, 0.9867109656333923, 0.9900044798851013, 0.9943552017211914, 0.995614767074585, 0.9947362542152405, 0.9766799211502075, 0.9019290208816528, 0.8148667812347412, 0.8091506361961365, 0.6126983761787415, 0.543458104133606, 0.4659460484981537, 0.3855506479740143, 0.4710266888141632, 0.3004647195339203, 0.39616769552230835, 0.5247068405151367, 0.5915878415107727, 0.6129898428916931, 0.5340628027915955, 0.459914892911911, 0.4895048439502716, 0.4742230474948883, 0.40616559982299805, 0.4145360589027405, 0.4150572419166565, 0.24722999334335327, 0.32640156149864197, 0.16879965364933014, 0.4134595990180969, 0.5108754634857178, 0.5815762281417847, 0.5876514315605164, 0.6220161318778992, 0.668031632900238, 0.6678180694580078]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.9918821454048157</v>
+        <v>0.9956845045089722</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.7770411999954376</v>
+        <v>0.8077069999999367</v>
       </c>
       <c r="J194" t="n">
-        <v>0.005630733333300273</v>
+        <v>0.00585294927536186</v>
       </c>
     </row>
     <row r="195">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[0.4028850793838501, 0.46721917390823364, 0.4034298360347748, 0.4654046893119812, 0.4506634771823883, 0.43401217460632324, 0.5384770631790161, 0.6015543341636658, 0.6493141651153564, 0.584351122379303, 0.3337322175502777, 0.25719204545021057, 0.17506851255893707, 0.383925199508667, 0.46748900413513184, 0.7501548528671265, 0.7453036904335022, 0.5838146805763245, 0.5274285674095154, 0.5704773664474487, 0.462573766708374, 0.4021728038787842, 0.44198259711265564, 0.46765005588531494, 0.522968053817749, 0.4614547789096832, 0.6157281994819641, 0.7580903172492981, 0.7462161779403687, 0.7672110199928284, 0.3529380261898041, 0.22172647714614868, 0.3206038773059845, 0.33051636815071106, 0.25333020091056824, 0.2349565625190735, 0.4563359022140503, 0.4592195749282837, 0.45838460326194763, 0.5918572545051575, 0.5068992376327515, 0.6125451922416687, 0.6641473770141602, 0.5256393551826477, 0.32585617899894714, 0.2956545054912567, 0.3313435912132263, 0.2979236841201782, 0.6236536502838135, 0.5515565872192383, 0.547008216381073, 0.3036540150642395, 0.30508100986480713, 0.2756672501564026, 0.4024827182292938, 0.43798184394836426, 0.4520094096660614, 0.5738216042518616, 0.584892213344574, 0.4760626554489136, 0.5561815500259399, 0.3459164500236511, 0.3923112154006958, 0.45576298236846924, 0.38043713569641113, 0.37309572100639343, 0.8160411715507507, 0.7867408990859985, 0.6777164936065674, 0.33097952604293823, 0.3751166760921478, 0.3570394814014435, 0.221738800406456, 0.28402063250541687, 0.419452965259552, 0.5819295644760132, 0.49202385544776917, 0.2826375663280487, 0.3545628488063812, 0.24302014708518982, 0.15395383536815643, 0.1613747626543045, 0.3560086190700531, 0.33429574966430664, 0.27840784192085266, 0.24466563761234283, 0.2830445170402527, 0.2372857928276062, 0.23938827216625214, 0.35125240683555603, 0.32874611020088196, 0.3843914270401001, 0.4235181510448456, 0.4008999466896057, 0.3154332935810089, 0.17704232037067413, 0.24847978353500366, 0.37911415100097656, 0.3741571009159088, 0.18812811374664307, 0.21929994225502014, 0.3029201924800873, 0.2288028597831726, 0.24297836422920227, 0.18607759475708008, 0.17731109261512756, 0.16852176189422607, 0.2193404883146286, 0.15201319754123688, 0.12554530799388885, 0.137462317943573, 0.2783372402191162, 0.31371667981147766, 0.3227292001247406, 0.35255125164985657, 0.4286244511604309, 0.386263906955719, 0.339749813079834, 0.31609323620796204, 0.22198182344436646, 0.26329225301742554, 0.20789699256420135, 0.23415282368659973, 0.23612883687019348]</t>
+          <t>[0.156354621052742, 0.191920205950737, 0.1391255110502243, 0.23797401785850525, 0.19919633865356445, 0.18900780379772186, 0.31839433312416077, 0.3867328464984894, 0.40556100010871887, 0.3268343210220337, 0.09409402310848236, 0.07039820402860641, 0.042916640639305115, 0.1479661613702774, 0.20105479657649994, 0.54557204246521, 0.5275048017501831, 0.26376309990882874, 0.3109234571456909, 0.36077654361724854, 0.2594592571258545, 0.18983244895935059, 0.2198125272989273, 0.25112852454185486, 0.36276915669441223, 0.3094150125980377, 0.47374218702316284, 0.619766891002655, 0.5818459987640381, 0.6495035290718079, 0.1254129707813263, 0.05754844471812248, 0.08762551844120026, 0.10882671922445297, 0.08173571527004242, 0.05738670751452446, 0.1293080896139145, 0.15742787718772888, 0.17342005670070648, 0.2960439622402191, 0.22868803143501282, 0.32473236322402954, 0.380175918340683, 0.268235445022583, 0.10976090282201767, 0.10137809813022614, 0.151581808924675, 0.12189855426549911, 0.41605114936828613, 0.2576763927936554, 0.3017822802066803, 0.11730999499559402, 0.11187194287776947, 0.10216446965932846, 0.19118519127368927, 0.23388223350048065, 0.22675871849060059, 0.2886126637458801, 0.3175406754016876, 0.19763104617595673, 0.26993194222450256, 0.12143208086490631, 0.18186379969120026, 0.22273702919483185, 0.12658219039440155, 0.12430746853351593, 0.7279815077781677, 0.6659854054450989, 0.5034277439117432, 0.1373283863067627, 0.16731971502304077, 0.1351054459810257, 0.061898380517959595, 0.08308834582567215, 0.15864112973213196, 0.33587533235549927, 0.20891520380973816, 0.089277483522892, 0.15775997936725616, 0.09639052301645279, 0.055485546588897705, 0.06533791124820709, 0.15737687051296234, 0.15655842423439026, 0.10134273022413254, 0.08406797796487808, 0.10367819666862488, 0.08101089298725128, 0.08162777870893478, 0.1314854770898819, 0.11000622808933258, 0.14682987332344055, 0.16880501806735992, 0.2004861980676651, 0.17434030771255493, 0.07813110947608948, 0.09364059567451477, 0.2183409035205841, 0.2200949490070343, 0.07030538469552994, 0.09724888950586319, 0.14824648201465607, 0.09464960545301437, 0.0968390479683876, 0.060037434101104736, 0.04915374889969826, 0.05065931752324104, 0.07680755853652954, 0.06078527122735977, 0.04954928904771805, 0.05623333528637886, 0.10933003574609756, 0.12011146545410156, 0.13471482694149017, 0.2153559774160385, 0.2665078639984131, 0.21850410103797913, 0.12528261542320251, 0.11884712427854538, 0.08835654705762863, 0.10609814524650574, 0.0722779706120491, 0.08519431948661804, 0.086362823843956]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.8160411715507507</v>
+        <v>0.7279815077781677</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.7071259999938775</v>
+        <v>0.7088057000073604</v>
       </c>
       <c r="J195" t="n">
-        <v>0.00570262903220869</v>
+        <v>0.005716175000059358</v>
       </c>
     </row>
     <row r="196">
@@ -8365,11 +8365,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[0.17843097448349, 0.08682321012020111, 0.05752721428871155, 0.04848630353808403, 0.06378332525491714, 0.0647282600402832, 0.04418449103832245, 0.23190225660800934, 0.16005419194698334, 0.1534259170293808, 0.23841185867786407, 0.2554347515106201, 0.302733451128006, 0.4016440212726593, 0.5063486695289612, 0.45261701941490173, 0.7309592366218567, 0.9005627632141113, 0.9570835828781128, 0.980830192565918, 0.9841774702072144, 0.976631224155426, 0.9702812433242798, 0.9618443250656128, 0.9781931638717651, 0.9779943823814392, 0.9829981327056885, 0.9861206412315369, 0.9865942001342773, 0.970693826675415, 0.9833095669746399, 0.9717089533805847, 0.9460752606391907, 0.7528952360153198, 0.8142661452293396, 0.8334341645240784, 0.8069887161254883, 0.6203833818435669, 0.3119133412837982, 0.3030175566673279, 0.2885276675224304, 0.41684120893478394, 0.35509535670280457, 0.5263248085975647, 0.5309539437294006, 0.4006028175354004, 0.8114610314369202, 0.7951033115386963, 0.8485296964645386, 0.9073984026908875, 0.9435452818870544, 0.9478120803833008, 0.966008722782135, 0.9727444648742676, 0.9717990159988403, 0.9684913158416748, 0.9269834756851196, 0.8862265944480896, 0.8832435011863708, 0.9227902293205261, 0.9223805069923401, 0.9783496856689453, 0.9771652221679688, 0.9683746099472046, 0.977950930595398, 0.982776403427124, 0.9802069067955017, 0.9853348731994629, 0.981884777545929, 0.9719324707984924, 0.9187185764312744, 0.7208652496337891, 0.6095888614654541, 0.30305376648902893, 0.6585070490837097, 0.5592564344406128, 0.2465486228466034, 0.23011857271194458, 0.34612026810646057, 0.5759668946266174, 0.5952491164207458, 0.533786416053772, 0.389333575963974, 0.3143492639064789, 0.18760325014591217, 0.33577772974967957, 0.36249440908432007, 0.2883869409561157, 0.4270697832107544, 0.5947093367576599, 0.6295156478881836, 0.4393778145313263, 0.5216697454452515, 0.5930273532867432, 0.8601865172386169, 0.9287846088409424, 0.9322963953018188, 0.841139018535614, 0.8723449110984802, 0.8736702799797058, 0.9047505259513855, 0.9255954027175903, 0.9271013736724854, 0.8890125751495361, 0.8790968656539917, 0.8947526216506958, 0.9119703769683838, 0.8962389826774597, 0.9626392722129822, 0.9804348945617676, 0.9809797406196594, 0.9752782583236694, 0.6545053720474243, 0.11811509728431702, 0.07201715558767319, 0.12158000469207764, 0.11104519665241241, 0.09811126440763474, 0.1111881360411644, 0.12055511772632599, 0.14482001960277557, 0.21171703934669495, 0.2536316215991974, 0.2526013255119324]</t>
+          <t>[0.3876533806324005, 0.07842975854873657, 0.044646017253398895, 0.043596602976322174, 0.10186046361923218, 0.09924691915512085, 0.07093289494514465, 0.41625043749809265, 0.20268209278583527, 0.16758409142494202, 0.3691512942314148, 0.3255322575569153, 0.4626125395298004, 0.5531179308891296, 0.7036893963813782, 0.6200154423713684, 0.898694634437561, 0.9624931216239929, 0.9806219339370728, 0.9911956787109375, 0.9931104183197021, 0.9901255369186401, 0.9853132367134094, 0.9820629358291626, 0.9898082613945007, 0.9860417246818542, 0.9897475242614746, 0.9931043982505798, 0.9936840534210205, 0.9820671081542969, 0.9908580183982849, 0.9845004081726074, 0.9721349477767944, 0.8333065509796143, 0.9058660864830017, 0.9117571711540222, 0.8984275460243225, 0.8260384798049927, 0.47874969244003296, 0.5070078372955322, 0.499417245388031, 0.5959060192108154, 0.5553479790687561, 0.7416543960571289, 0.7252243161201477, 0.579506516456604, 0.9014107584953308, 0.901371955871582, 0.9173094630241394, 0.9515031576156616, 0.9716179370880127, 0.9751517176628113, 0.9862717390060425, 0.9875255823135376, 0.9859393835067749, 0.9798470735549927, 0.9549861550331116, 0.9166831970214844, 0.9226120114326477, 0.9537092447280884, 0.9469940662384033, 0.9879751801490784, 0.9847937226295471, 0.9772112369537354, 0.9875546097755432, 0.9912971258163452, 0.9907365441322327, 0.9942412376403809, 0.9923933744430542, 0.9869185090065002, 0.9484250545501709, 0.8270246982574463, 0.7209721803665161, 0.47233736515045166, 0.8227365612983704, 0.7650631666183472, 0.4939616620540619, 0.3561975657939911, 0.48466551303863525, 0.7711827158927917, 0.7313187718391418, 0.7410769462585449, 0.6537575721740723, 0.533302366733551, 0.353249728679657, 0.5668394565582275, 0.6049287915229797, 0.5412060618400574, 0.7413811087608337, 0.836310625076294, 0.8639466762542725, 0.6837123036384583, 0.7182081341743469, 0.7879084944725037, 0.9569997191429138, 0.9784784317016602, 0.9770994782447815, 0.9253385066986084, 0.9220442175865173, 0.9222047924995422, 0.9199733734130859, 0.9459462761878967, 0.9451910853385925, 0.9566892385482788, 0.9494659900665283, 0.9627020359039307, 0.964532196521759, 0.9555519223213196, 0.9826586246490479, 0.9922510981559753, 0.9931623935699463, 0.9918819069862366, 0.8856319189071655, 0.16899530589580536, 0.07320170104503632, 0.22960379719734192, 0.17947380244731903, 0.12020713835954666, 0.15851658582687378, 0.13862638175487518, 0.21142558753490448, 0.3137001395225525, 0.36472034454345703, 0.3639981150627136]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.9865942001342773</v>
+        <v>0.9942412376403809</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.6991677999903914</v>
+        <v>0.6982142999913776</v>
       </c>
       <c r="J196" t="n">
-        <v>0.005638449999922511</v>
+        <v>0.005630760483801432</v>
       </c>
     </row>
     <row r="197">
@@ -8405,11 +8405,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[0.2779058814048767, 0.1825244128704071, 0.2117680013179779, 0.27616918087005615, 0.16716410219669342, 0.19823415577411652, 0.2842753231525421, 0.30652081966400146, 0.2988787591457367, 0.34665942192077637, 0.4176177978515625, 0.33376017212867737, 0.6671298742294312, 0.7664504051208496, 0.7266995906829834, 0.37665095925331116, 0.44382166862487793, 0.6680539846420288, 0.8192060589790344, 0.90639728307724, 0.9335285425186157, 0.9409995079040527, 0.9415360689163208, 0.923578143119812, 0.9360886812210083, 0.9497057795524597, 0.9433931708335876, 0.9449324011802673, 0.9223129749298096, 0.9460535645484924, 0.9303392767906189, 0.8855457305908203, 0.8560514450073242, 0.8194820284843445, 0.7895863652229309, 0.6829286813735962, 0.5916850566864014, 0.2740195393562317, 0.19186025857925415, 0.1720786839723587, 0.22564160823822021, 0.23418579995632172, 0.2725829482078552, 0.24808472394943237, 0.15589390695095062, 0.29446935653686523, 0.34311601519584656, 0.3337474465370178, 0.22481852769851685, 0.2234705537557602, 0.21502716839313507, 0.468782901763916, 0.7338792085647583, 0.6157065629959106, 0.8108539581298828, 0.9257705807685852, 0.8788444399833679, 0.6543204188346863, 0.8252931237220764, 0.8166031241416931, 0.9035051465034485, 0.8779398202896118, 0.8755044937133789, 0.8777315616607666, 0.9030619859695435, 0.916580080986023, 0.9500780701637268, 0.9170652627944946, 0.9320060610771179, 0.7087768316268921, 0.42533913254737854, 0.3406037390232086, 0.21731118857860565, 0.19042669236660004, 0.23545333743095398, 0.2896610200405121, 0.34911206364631653, 0.3245615065097809, 0.27841898798942566, 0.3324996829032898, 0.29111045598983765, 0.1981131136417389, 0.227645605802536, 0.28882238268852234, 0.34465447068214417, 0.39764896035194397, 0.4360942840576172, 0.332295686006546, 0.675983190536499, 0.7486908435821533, 0.93804931640625, 0.9615514874458313, 0.963846743106842, 0.9505679607391357, 0.9574961066246033, 0.9508339762687683, 0.9203634858131409, 0.9174715280532837, 0.9481875896453857, 0.944673478603363, 0.9267332553863525, 0.9276132583618164, 0.9037748575210571, 0.8076362013816833, 0.7484558820724487, 0.8669018745422363, 0.682185173034668, 0.4369468092918396, 0.3186785578727722, 0.18859025835990906, 0.17411106824874878, 0.20353679358959198, 0.2854170799255371, 0.24085703492164612, 0.12930484116077423, 0.1680668741464615, 0.21144543588161469, 0.32289668917655945, 0.2123652845621109, 0.22272032499313354, 0.22166572511196136, 0.16321688890457153, 0.30436739325523376, 0.2992933690547943]</t>
+          <t>[0.25022682547569275, 0.1310661882162094, 0.14951267838478088, 0.2032681554555893, 0.0992986336350441, 0.12039688974618912, 0.22398871183395386, 0.25466299057006836, 0.24334903061389923, 0.32812386751174927, 0.3711465299129486, 0.31003597378730774, 0.7054183483123779, 0.774253785610199, 0.7258735299110413, 0.37507864832878113, 0.3864041566848755, 0.602387011051178, 0.7878383994102478, 0.889184832572937, 0.9250549077987671, 0.9462003111839294, 0.9494820237159729, 0.9281811714172363, 0.9329580068588257, 0.9542450308799744, 0.9497919678688049, 0.9487437009811401, 0.8978806734085083, 0.9477789998054504, 0.9166732430458069, 0.8160980939865112, 0.8040947318077087, 0.7760697603225708, 0.7333125472068787, 0.6162713766098022, 0.5926306247711182, 0.29523560404777527, 0.18021221458911896, 0.09960883855819702, 0.11910580098628998, 0.14320676028728485, 0.18706022202968597, 0.18076851963996887, 0.0976647138595581, 0.24248336255550385, 0.32553520798683167, 0.3049094080924988, 0.20602643489837646, 0.17995662987232208, 0.18192891776561737, 0.4326922297477722, 0.6866859197616577, 0.5358378291130066, 0.8034300208091736, 0.9362181425094604, 0.8899890780448914, 0.5651136636734009, 0.772244393825531, 0.7736976742744446, 0.8677919507026672, 0.8420705199241638, 0.8543145060539246, 0.8732336163520813, 0.8772243857383728, 0.8914092183113098, 0.9573800563812256, 0.9190149903297424, 0.9375168085098267, 0.7187372446060181, 0.42028170824050903, 0.3490392863750458, 0.2062595933675766, 0.14984962344169617, 0.2192334681749344, 0.2938736379146576, 0.3197760283946991, 0.3228890001773834, 0.2538542151451111, 0.27413704991340637, 0.24986182153224945, 0.20896703004837036, 0.20559900999069214, 0.2661803066730499, 0.31065627932548523, 0.3531768023967743, 0.4219491481781006, 0.34500253200531006, 0.7139285802841187, 0.7927074432373047, 0.9574331641197205, 0.9700233936309814, 0.9675677418708801, 0.9567814469337463, 0.9654657244682312, 0.9557636976242065, 0.9223086833953857, 0.9006887674331665, 0.9500239491462708, 0.9387527108192444, 0.8919553160667419, 0.886237382888794, 0.8722474575042725, 0.7560340166091919, 0.7075158357620239, 0.8649964928627014, 0.7189022898674011, 0.5385852456092834, 0.4087620973587036, 0.22716091573238373, 0.145562544465065, 0.15136800706386566, 0.2309039980173111, 0.21199434995651245, 0.10356627404689789, 0.15296170115470886, 0.20801544189453125, 0.34846049547195435, 0.19425959885120392, 0.2217155396938324, 0.21005947887897491, 0.12402471899986267, 0.20783796906471252, 0.20421425998210907]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.963846743106842</v>
+        <v>0.9700233936309814</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.7021843999973498</v>
+        <v>0.7089337999932468</v>
       </c>
       <c r="J197" t="n">
-        <v>0.005662777419333466</v>
+        <v>0.005717208064461667</v>
       </c>
     </row>
     <row r="198">
@@ -8445,11 +8445,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[0.41297703981399536, 0.6019902229309082, 0.7794128060340881, 0.6217432022094727, 0.48685774207115173, 0.3671087622642517, 0.4081728458404541, 0.560761570930481, 0.49900445342063904, 0.5616366863250732, 0.4497233033180237, 0.3554224371910095, 0.5418262481689453, 0.925435483455658, 0.8940236568450928, 0.8791678547859192, 0.7790716290473938, 0.6100530028343201, 0.4960881471633911, 0.3916345238685608, 0.3311362862586975, 0.3003758490085602, 0.22036737203598022, 0.2532379925251007, 0.22829289734363556, 0.17001022398471832, 0.16532282531261444, 0.11120099574327469, 0.11544698476791382, 0.11614100635051727, 0.1620536893606186, 0.14437928795814514, 0.1438894271850586, 0.11195690184831619, 0.20647883415222168, 0.3242872953414917, 0.33976879715919495, 0.26881328225135803, 0.2529565393924713, 0.2147243469953537, 0.16595342755317688, 0.1543428897857666, 0.1672276258468628, 0.13874246180057526, 0.20202775299549103, 0.3264181911945343, 0.3253403306007385, 0.44024932384490967, 0.9036108255386353, 0.9846311211585999, 0.9852067828178406, 0.9860678315162659, 0.985823392868042, 0.9812225699424744, 0.9625991582870483, 0.2824047803878784, 0.3160756528377533, 0.37148547172546387, 0.38071176409721375, 0.41184526681900024, 0.3388766050338745, 0.3444735109806061, 0.3526023328304291, 0.30334749817848206, 0.22827447950839996, 0.26432764530181885, 0.27310630679130554, 0.3791157603263855, 0.4818996489048004, 0.5383535623550415, 0.2415771186351776, 0.22633159160614014, 0.1898125261068344, 0.252105176448822, 0.22039611637592316, 0.20446695387363434, 0.37114065885543823, 0.3754579722881317, 0.2806757986545563, 0.3016149699687958, 0.3884553909301758, 0.39749976992607117, 0.4958283305168152, 0.795073390007019, 0.9758896827697754, 0.9863532781600952, 0.9917600750923157, 0.9902060627937317, 0.9904892444610596, 0.9897776246070862, 0.9900001883506775, 0.9890755414962769, 0.9881334900856018, 0.9857373237609863, 0.9531157612800598, 0.37482431530952454, 0.3535156548023224, 0.27384743094444275, 0.29564404487609863, 0.3205418288707733, 0.29098400473594666, 0.2881421446800232, 0.21327833831310272, 0.20790955424308777, 0.15637147426605225, 0.13875912129878998, 0.08295770734548569, 0.09773232042789459, 0.1093425378203392, 0.26106929779052734, 0.23646683990955353, 0.21295274794101715, 0.33901214599609375, 0.41121044754981995, 0.4002612233161926, 0.2902061939239502, 0.2713099420070648, 0.32530954480171204, 0.3665667772293091, 0.8068444132804871, 0.980193555355072, 0.9912986159324646, 0.9919964671134949, 0.9919245839118958]</t>
+          <t>[0.2915925979614258, 0.6203103065490723, 0.7599117159843445, 0.6020094752311707, 0.467678040266037, 0.281662255525589, 0.3664001524448395, 0.5646133422851562, 0.5255833268165588, 0.6137749552726746, 0.3563588261604309, 0.27284175157546997, 0.43469148874282837, 0.953461766242981, 0.9338070154190063, 0.9018635153770447, 0.7622867226600647, 0.6106798648834229, 0.5124971866607666, 0.38661298155784607, 0.3443763554096222, 0.3182491362094879, 0.15399746596813202, 0.14174878597259521, 0.10956934094429016, 0.06914733350276947, 0.06337885558605194, 0.03953738510608673, 0.05069046840071678, 0.05023888126015663, 0.07479594647884369, 0.056374162435531616, 0.04992546886205673, 0.038454219698905945, 0.15595608949661255, 0.2407696545124054, 0.19545935094356537, 0.13686047494411469, 0.13968273997306824, 0.10884660482406616, 0.08070237934589386, 0.0654226616024971, 0.0782262310385704, 0.07418769598007202, 0.09839816391468048, 0.18365201354026794, 0.23673595488071442, 0.3577274680137634, 0.9112082719802856, 0.9842037558555603, 0.9850814938545227, 0.9856098294258118, 0.9874528050422668, 0.9787085652351379, 0.9498316049575806, 0.16474701464176178, 0.1818789839744568, 0.23275800049304962, 0.21952533721923828, 0.24622339010238647, 0.1788550317287445, 0.226763516664505, 0.20575927197933197, 0.15210483968257904, 0.1050608828663826, 0.13541924953460693, 0.1545172929763794, 0.23580113053321838, 0.36157065629959106, 0.45427650213241577, 0.13799181580543518, 0.11960609257221222, 0.08910731971263885, 0.17275430262088776, 0.10766930133104324, 0.09231051802635193, 0.20011800527572632, 0.22849957644939423, 0.17025604844093323, 0.20736247301101685, 0.34093865752220154, 0.3394124209880829, 0.3877856731414795, 0.759859561920166, 0.9750632047653198, 0.9889695644378662, 0.9946723580360413, 0.9928306937217712, 0.9930989146232605, 0.992237389087677, 0.9929255247116089, 0.9925035238265991, 0.9908429384231567, 0.9866641759872437, 0.917673647403717, 0.22043219208717346, 0.24298131465911865, 0.19943872094154358, 0.25190359354019165, 0.2832489311695099, 0.23586776852607727, 0.23738938570022583, 0.15358974039554596, 0.16508840024471283, 0.09165801107883453, 0.07043097168207169, 0.041871435940265656, 0.04422733932733536, 0.061094317585229874, 0.22484813630580902, 0.15959905087947845, 0.13435259461402893, 0.2423677295446396, 0.31349727511405945, 0.3514986038208008, 0.16272254288196564, 0.15331989526748657, 0.2009732872247696, 0.21601137518882751, 0.7928360104560852, 0.9858352541923523, 0.9942528605461121, 0.9950528740882874, 0.9950156807899475]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.9919964671134949</v>
+        <v>0.9950528740882874</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.698739800020121</v>
+        <v>0.6996679000003496</v>
       </c>
       <c r="J198" t="n">
-        <v>0.00563499838725904</v>
+        <v>0.005642483064518949</v>
       </c>
     </row>
     <row r="199">
@@ -8485,11 +8485,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[0.12346403300762177, 0.18553446233272552, 0.1689675748348236, 0.13541065156459808, 0.1666269153356552, 0.1816171407699585, 0.20838654041290283, 0.1929706335067749, 0.17551204562187195, 0.19830763339996338, 0.16502515971660614, 0.14622485637664795, 0.1352926641702652, 0.23087207973003387, 0.27797070145606995, 0.23774540424346924, 0.1717572957277298, 0.12516196072101593, 0.106044702231884, 0.0793163999915123, 0.07696649432182312, 0.07687965035438538, 0.0731280967593193, 0.08862385898828506, 0.0810231938958168, 0.0902901217341423, 0.09547098726034164, 0.1542721837759018, 0.321973979473114, 0.4004627764225006, 0.3005876839160919, 0.1514109969139099, 0.10614071786403656, 0.10040835291147232, 0.10320571064949036, 0.1257287561893463, 0.15180818736553192, 0.27614107728004456, 0.36038824915885925, 0.15855471789836884, 0.10593932121992111, 0.12352652847766876, 0.10966629534959793, 0.10137415677309036, 0.1199677363038063, 0.09666585177183151, 0.14319203794002533, 0.11867655813694, 0.10793839395046234, 0.05896421894431114, 0.04185905307531357, 0.046325962990522385, 0.055019017308950424, 0.04651395231485367, 0.044777367264032364, 0.06030712276697159, 0.07066928595304489, 0.06931690871715546, 0.06525445729494095, 0.0689578577876091, 0.09164734184741974, 0.17107272148132324, 0.14905132353305817, 0.130925714969635, 0.11930950731039047, 0.12795184552669525, 0.1540251523256302, 0.14546805620193481, 0.1788438856601715, 0.24249529838562012, 0.18083877861499786, 0.1726384311914444, 0.1690950244665146, 0.09274069219827652, 0.10604177415370941, 0.10619135200977325, 0.15145735442638397, 0.20540502667427063, 0.2734171450138092, 0.1273510754108429, 0.171186625957489, 0.18042241036891937, 0.281690388917923, 0.268679141998291, 0.2254789173603058, 0.19954060018062592, 0.20736481249332428, 0.1915241926908493, 0.1341424584388733, 0.17827533185482025, 0.16890226304531097, 0.15971657633781433, 0.14317543804645538, 0.16405659914016724, 0.18827009201049805, 0.21203471720218658, 0.29773300886154175, 0.11653939634561539, 0.09685059636831284, 0.10927854478359222, 0.15009596943855286, 0.16490861773490906, 0.20315265655517578, 0.4048599302768707, 0.27935948967933655, 0.3060808479785919, 0.3073457181453705, 0.3599504232406616, 0.2929125428199768, 0.3791351020336151, 0.25898581743240356, 0.22215959429740906, 0.21029525995254517, 0.1805187314748764, 0.2683701515197754, 0.4361565113067627, 0.4895090162754059, 0.45778414607048035, 0.4421486258506775, 0.4609867036342621, 0.40492725372314453, 0.23517043888568878, 0.2355332374572754]</t>
+          <t>[0.0419917106628418, 0.05678476393222809, 0.04773947224020958, 0.034091200679540634, 0.046756479889154434, 0.0532878041267395, 0.06704968959093094, 0.07445298880338669, 0.06003202125430107, 0.06506192684173584, 0.04652603343129158, 0.038750916719436646, 0.040737174451351166, 0.06683777272701263, 0.10403306782245636, 0.11228608340024948, 0.06904001533985138, 0.03795023635029793, 0.02643572725355625, 0.016824299469590187, 0.01638006791472435, 0.01592947170138359, 0.014539598487317562, 0.016482075676321983, 0.013958283700048923, 0.01859945058822632, 0.019152456894516945, 0.029781201854348183, 0.10778533667325974, 0.19672173261642456, 0.2243749350309372, 0.078632652759552, 0.04946811869740486, 0.04396672919392586, 0.05570095032453537, 0.08795148879289627, 0.10120370239019394, 0.1732100397348404, 0.23896019160747528, 0.08185315877199173, 0.046381328254938126, 0.06161101907491684, 0.04427044466137886, 0.04072972387075424, 0.048103366047143936, 0.033541738986968994, 0.045079510658979416, 0.03493107855319977, 0.03017910197377205, 0.017628256231546402, 0.013060085475444794, 0.013875165954232216, 0.014935287646949291, 0.01204320602118969, 0.011352399364113808, 0.01609269343316555, 0.01902523636817932, 0.016598952934145927, 0.017562134191393852, 0.017863590270280838, 0.027201976627111435, 0.04093535989522934, 0.03467685356736183, 0.03214576467871666, 0.028726181015372276, 0.03260932117700577, 0.043878473341464996, 0.0478396937251091, 0.06581757962703705, 0.10704830288887024, 0.06357694417238235, 0.05642878636717796, 0.05452283099293709, 0.029073374345898628, 0.03263748064637184, 0.03302007541060448, 0.05419144779443741, 0.0931769534945488, 0.14423468708992004, 0.04819168150424957, 0.06749409437179565, 0.06177189201116562, 0.14109885692596436, 0.14009898900985718, 0.08389954268932343, 0.06234573945403099, 0.06440117210149765, 0.057207245379686356, 0.03716475889086723, 0.04908332601189613, 0.04368722438812256, 0.04565751925110817, 0.042080868035554886, 0.05021529644727707, 0.0647628903388977, 0.07722780853509903, 0.1193462535738945, 0.03223162889480591, 0.02531975321471691, 0.026791371405124664, 0.038798246532678604, 0.05244366079568863, 0.06788325309753418, 0.1585227996110916, 0.0936708003282547, 0.12817677855491638, 0.13682672381401062, 0.16006723046302795, 0.13266737759113312, 0.19384127855300903, 0.10291089862585068, 0.07500080019235611, 0.07777315378189087, 0.06826457381248474, 0.11997924745082855, 0.27034425735473633, 0.3208153545856476, 0.2517459988594055, 0.18589776754379272, 0.2404480278491974, 0.18406523764133453, 0.07549601048231125, 0.07553716003894806]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.4895090162754059</v>
+        <v>0.3208153545856476</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -8503,10 +8503,10 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0.6918243000109214</v>
+        <v>0.6954781000094954</v>
       </c>
       <c r="J199" t="n">
-        <v>0.005624587804966841</v>
+        <v>0.005654293496012158</v>
       </c>
     </row>
     <row r="200">
@@ -8525,11 +8525,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[0.9485407471656799, 0.9170398116111755, 0.8256860971450806, 0.8265984654426575, 0.924943208694458, 0.8206092119216919, 0.704510509967804, 0.5535038113594055, 0.641133725643158, 0.6364836096763611, 0.7311136722564697, 0.618474006652832, 0.4648177921772003, 0.22123174369335175, 0.24784263968467712, 0.2589193880558014, 0.3284042179584503, 0.3350909650325775, 0.4214232265949249, 0.6368427276611328, 0.4558386504650116, 0.3169138431549072, 0.42994579672813416, 0.6112653017044067, 0.5989583730697632, 0.4864579439163208, 0.3165660500526428, 0.3440643548965454, 0.282876193523407, 0.774931788444519, 0.8979528546333313, 0.8503866791725159, 0.8089946508407593, 0.6721811294555664, 0.6371685862541199, 0.6830721497535706, 0.787700891494751, 0.7670417428016663, 0.8945468664169312, 0.9013877511024475, 0.8271195888519287, 0.8501764535903931, 0.7976710796356201, 0.7095228433609009, 0.32958275079727173, 0.3697155714035034, 0.3527807593345642, 0.3519345819950104, 0.3202590048313141, 0.3220471739768982, 0.4884825050830841, 0.8765864372253418, 0.9537649750709534, 0.9745002388954163, 0.9126685857772827, 0.7381015419960022, 0.6959666013717651, 0.6508216261863708, 0.6769540905952454, 0.8038908243179321, 0.8028354048728943, 0.727861225605011, 0.6084368824958801, 0.6200450658798218, 0.5791028738021851, 0.6621524691581726, 0.7874008417129517, 0.6963512301445007, 0.4290732741355896, 0.4919586479663849, 0.5508225560188293, 0.8388447761535645, 0.7844743728637695, 0.7962832450866699, 0.8715963959693909, 0.9382738471031189, 0.9034380912780762, 0.8488624095916748, 0.7603728175163269, 0.5923889875411987, 0.48962870240211487, 0.41831812262535095, 0.4628243148326874, 0.782097339630127, 0.8076245188713074, 0.6814936995506287, 0.6109074354171753, 0.6659329533576965, 0.6324649453163147, 0.43205025792121887, 0.09822194278240204, 0.0916176438331604, 0.7557490468025208, 0.6261776685714722, 0.561579167842865, 0.05791504681110382, 0.0834198072552681, 0.07972276210784912, 0.06300690025091171, 0.08456998318433762, 0.10987863689661026, 0.3798954486846924, 0.5630503296852112, 0.7068283557891846, 0.31421950459480286, 0.6200704574584961, 0.8206901550292969, 0.7420662641525269, 0.835756242275238, 0.9392194151878357, 0.9256329536437988, 0.892238974571228, 0.9027635455131531, 0.8939017057418823, 0.8808751106262207, 0.8704531788825989, 0.9310026168823242, 0.9207468628883362, 0.7886894941329956, 0.6475942134857178, 0.6548097729682922, 0.538928747177124, 0.5391760468482971]</t>
+          <t>[0.9878446459770203, 0.9815760850906372, 0.9437255859375, 0.9409526586532593, 0.9753470420837402, 0.9416338205337524, 0.8768713474273682, 0.7641969919204712, 0.8090728521347046, 0.8561360836029053, 0.9066898822784424, 0.8378716707229614, 0.7062945365905762, 0.424691766500473, 0.5018401145935059, 0.44213148951530457, 0.551978588104248, 0.6095138192176819, 0.6876718997955322, 0.843878984451294, 0.7837031483650208, 0.6387519240379333, 0.7487145066261292, 0.8529074788093567, 0.8443784117698669, 0.742765486240387, 0.5405818819999695, 0.603188693523407, 0.4754439890384674, 0.9551736116409302, 0.9861276149749756, 0.9764936566352844, 0.9434751272201538, 0.8568307757377625, 0.8678302764892578, 0.9108026623725891, 0.9317368865013123, 0.9327245950698853, 0.9778990745544434, 0.9769728183746338, 0.9414525032043457, 0.9361540675163269, 0.8952931761741638, 0.820787250995636, 0.49572452902793884, 0.534788966178894, 0.5173242688179016, 0.6061850190162659, 0.6020583510398865, 0.6125810742378235, 0.6953320503234863, 0.9606948494911194, 0.9883849620819092, 0.994792640209198, 0.9858220219612122, 0.9456839561462402, 0.9348187446594238, 0.9071962833404541, 0.9104901552200317, 0.9583719968795776, 0.9580766558647156, 0.9421150088310242, 0.8885994553565979, 0.844791829586029, 0.8685274124145508, 0.875655472278595, 0.9461382031440735, 0.9166311621665955, 0.7371678948402405, 0.7400025129318237, 0.7634919881820679, 0.9564983248710632, 0.95746910572052, 0.962540864944458, 0.9717432856559753, 0.9843419194221497, 0.9765112996101379, 0.9491274952888489, 0.888369619846344, 0.8214318156242371, 0.8081328272819519, 0.7405094504356384, 0.7411501407623291, 0.9420669674873352, 0.9455400109291077, 0.8728365898132324, 0.783635139465332, 0.8157525062561035, 0.7985565066337585, 0.7226635813713074, 0.24458444118499756, 0.1725919097661972, 0.9521039724349976, 0.8641417622566223, 0.8274888396263123, 0.07819488644599915, 0.13455280661582947, 0.13345840573310852, 0.08659970015287399, 0.1256524622440338, 0.188670814037323, 0.5758569836616516, 0.7509586215019226, 0.868452787399292, 0.4651760756969452, 0.8107703924179077, 0.935229480266571, 0.8890225887298584, 0.9231528639793396, 0.9784935116767883, 0.9649553894996643, 0.9536579251289368, 0.9623278379440308, 0.9568235874176025, 0.9547286629676819, 0.9428666234016418, 0.9635864496231079, 0.9559943675994873, 0.8520874381065369, 0.8481045365333557, 0.7922224998474121, 0.6899612545967102, 0.6911925673484802]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.9745002388954163</v>
+        <v>0.994792640209198</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0.6962640999990981</v>
+        <v>0.6995756999967853</v>
       </c>
       <c r="J200" t="n">
-        <v>0.005660683739830066</v>
+        <v>0.005687607317047034</v>
       </c>
     </row>
     <row r="201">
@@ -8565,11 +8565,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[0.9679800271987915, 0.9479560256004333, 0.8990755081176758, 0.5660514831542969, 0.08776991814374924, 0.053991351276636124, 0.06577517092227936, 0.12907589972019196, 0.11019442975521088, 0.09510142356157303, 0.05581964552402496, 0.05466407164931297, 0.05947461351752281, 0.08171644061803818, 0.07099223881959915, 0.09421799331903458, 0.11026711016893387, 0.1050494909286499, 0.10808825492858887, 0.29609525203704834, 0.3434380888938904, 0.778530478477478, 0.9588384032249451, 0.9696755409240723, 0.9545744061470032, 0.9154623746871948, 0.9260218739509583, 0.9292150735855103, 0.8975515365600586, 0.8639171719551086, 0.8347488045692444, 0.8285626769065857, 0.8821622729301453, 0.8357422351837158, 0.9037842154502869, 0.9155408143997192, 0.9037242531776428, 0.9585762619972229, 0.9712429642677307, 0.9702479839324951, 0.9137731790542603, 0.7584369778633118, 0.5372651219367981, 0.38515809178352356, 0.1336178183555603, 0.10485110431909561, 0.11209346354007721, 0.09967880696058273, 0.12304343283176422, 0.08837419003248215, 0.08180540055036545, 0.07968612760305405, 0.068111352622509, 0.07194151729345322, 0.08130986243486404, 0.06150047481060028, 0.05521358549594879, 0.08409623801708221, 0.2403087019920349, 0.3557609021663666, 0.421027809381485, 0.9517602324485779, 0.9741827845573425, 0.9695066809654236, 0.9240453243255615, 0.9285811185836792, 0.9163027405738831, 0.9417043328285217, 0.8850712776184082, 0.7754190564155579, 0.8344849944114685, 0.9025884866714478, 0.9427199959754944, 0.9148952960968018, 0.8693177700042725, 0.8467332124710083, 0.9259535074234009, 0.9231098890304565, 0.9304661154747009, 0.9816296100616455, 0.9804899096488953, 0.9697433710098267, 0.6800419092178345, 0.5947352647781372, 0.18868505954742432, 0.08747018873691559, 0.05882938578724861, 0.041728425770998, 0.061468493193387985, 0.08941219747066498, 0.08314578235149384, 0.05049917846918106, 0.07058364897966385, 0.0588771291077137, 0.07733352482318878, 0.05970952659845352, 0.09097050875425339, 0.07254870980978012, 0.13367433845996857, 0.4213528633117676, 0.8711009621620178, 0.9263522624969482, 0.8439148664474487, 0.9028870463371277, 0.904178261756897, 0.8960101008415222, 0.8750864267349243, 0.827106237411499, 0.7508333921432495, 0.7323143482208252, 0.703771710395813, 0.8402753472328186, 0.791694164276123, 0.7808837890625, 0.875145673751831, 0.9416391849517822, 0.9271537661552429, 0.8695496320724487, 0.22670751810073853, 0.1890825629234314, 0.14367833733558655, 0.2548734247684479, 0.28566884994506836, 0.28320467472076416]</t>
+          <t>[0.989837646484375, 0.9830507636070251, 0.9617917537689209, 0.799103319644928, 0.16563577950000763, 0.0789957270026207, 0.1044606864452362, 0.23425030708312988, 0.19905021786689758, 0.14545021951198578, 0.05864695832133293, 0.0756714940071106, 0.09241819381713867, 0.14531603455543518, 0.09882842004299164, 0.14182895421981812, 0.20329034328460693, 0.1716073900461197, 0.20979847013950348, 0.5013483166694641, 0.5783821940422058, 0.9178518652915955, 0.9876936078071594, 0.9899929165840149, 0.9836702346801758, 0.9777888655662537, 0.9804045557975769, 0.9812613725662231, 0.9756936430931091, 0.9583352208137512, 0.9420984983444214, 0.9254451990127563, 0.9625142216682434, 0.9432570934295654, 0.9750044941902161, 0.9779574275016785, 0.9757621884346008, 0.9888513684272766, 0.9905083179473877, 0.9902215003967285, 0.9746506810188293, 0.8748353123664856, 0.7121903896331787, 0.6339989900588989, 0.22679020464420319, 0.1923019140958786, 0.2453860193490982, 0.18250128626823425, 0.2476046234369278, 0.19464945793151855, 0.16773176193237305, 0.161070317029953, 0.1316523253917694, 0.1269962638616562, 0.16534730792045593, 0.10517775267362595, 0.08610640466213226, 0.11884118616580963, 0.3479686975479126, 0.5223791599273682, 0.6030600666999817, 0.98325514793396, 0.9919890761375427, 0.9899300932884216, 0.9676536917686462, 0.9810718894004822, 0.9691109657287598, 0.9835855960845947, 0.9651776552200317, 0.9278729557991028, 0.9658958911895752, 0.9823883175849915, 0.9903241395950317, 0.9772147536277771, 0.9587960243225098, 0.966335654258728, 0.9845722913742065, 0.9748766422271729, 0.9725779294967651, 0.9945297837257385, 0.994394063949585, 0.9908475875854492, 0.8713651895523071, 0.7890855073928833, 0.26423126459121704, 0.1290641874074936, 0.0793524757027626, 0.055130090564489365, 0.07662959396839142, 0.10775236785411835, 0.1178525760769844, 0.061806246638298035, 0.09588882327079773, 0.0816669911146164, 0.12345775216817856, 0.10354648530483246, 0.1764921396970749, 0.12149596214294434, 0.2603006064891815, 0.6697632670402527, 0.9582983255386353, 0.9827122688293457, 0.95094895362854, 0.9740321040153503, 0.9786946177482605, 0.9819905161857605, 0.9763336777687073, 0.9633119106292725, 0.947795569896698, 0.9364585280418396, 0.9138234853744507, 0.9463282823562622, 0.9353703260421753, 0.9145937561988831, 0.9630852341651917, 0.9848443865776062, 0.9811545014381409, 0.9528840780258179, 0.30370017886161804, 0.27927276492118835, 0.19786715507507324, 0.40390267968177795, 0.4560507535934448, 0.45336878299713135]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.9816296100616455</v>
+        <v>0.9945297837257385</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.7044565999822225</v>
+        <v>0.7097333999990951</v>
       </c>
       <c r="J201" t="n">
-        <v>0.005681101612759859</v>
+        <v>0.005723656451605606</v>
       </c>
     </row>
     <row r="202">
@@ -8605,11 +8605,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[0.7827237844467163, 0.8721637725830078, 0.8716658353805542, 0.806993305683136, 0.9547814726829529, 0.9686095118522644, 0.9326764941215515, 0.8606664538383484, 0.8440961241722107, 0.8014937043190002, 0.5860194563865662, 0.46650230884552, 0.4795459508895874, 0.4689701497554779, 0.4401944577693939, 0.34576064348220825, 0.4234285056591034, 0.47169214487075806, 0.728554368019104, 0.8642175197601318, 0.8718225955963135, 0.84687340259552, 0.8215368986129761, 0.8076781034469604, 0.7662174105644226, 0.9189301133155823, 0.918258786201477, 0.9064460396766663, 0.8873124122619629, 0.8266167640686035, 0.8383722901344299, 0.7333490252494812, 0.6937199831008911, 0.6730405688285828, 0.8804905414581299, 0.9065722227096558, 0.8293727040290833, 0.6797563433647156, 0.7400617599487305, 0.7484147548675537, 0.8733599185943604, 0.9074643850326538, 0.9094935059547424, 0.8350585103034973, 0.554381251335144, 0.26278239488601685, 0.627641499042511, 0.6695052981376648, 0.6333250403404236, 0.44972047209739685, 0.6533344388008118, 0.8044301271438599, 0.636536717414856, 0.3789726197719574, 0.3515576124191284, 0.8339414000511169, 0.9317396879196167, 0.9154641628265381, 0.7647876143455505, 0.7996819615364075, 0.7445558905601501, 0.8555317521095276, 0.7936715483665466, 0.7392320036888123, 0.826558530330658, 0.8300505876541138, 0.8919684290885925, 0.845328152179718, 0.8213530778884888, 0.8734780550003052, 0.7373381853103638, 0.6276552081108093, 0.6435815691947937, 0.8553129434585571, 0.8877357840538025, 0.9307588934898376, 0.9616116881370544, 0.9565362930297852, 0.9557541012763977, 0.9594131708145142, 0.9719664454460144, 0.9725563526153564, 0.8414639234542847, 0.6004199385643005, 0.3313572406768799, 0.43745797872543335, 0.847814679145813, 0.9129415154457092, 0.8615835309028625, 0.7255692481994629, 0.32683005928993225, 0.6373908519744873, 0.7359437942504883, 0.7923976182937622, 0.9218546152114868, 0.9223223924636841, 0.9266762733459473, 0.6895098686218262, 0.5405396819114685, 0.5723788142204285, 0.7554759979248047, 0.825236976146698, 0.7523745894432068, 0.815694272518158, 0.8587424159049988, 0.8114420175552368, 0.5161752700805664, 0.5890361666679382, 0.5917673110961914, 0.5754124522209167, 0.5612888932228088, 0.6569727659225464, 0.9005335569381714, 0.9292961955070496, 0.9006423354148865, 0.8649988770484924, 0.8713706135749817, 0.8976734280586243, 0.7013807892799377, 0.49870264530181885, 0.33458733558654785, 0.6014663577079773, 0.6014175415039062]</t>
+          <t>[0.8470678925514221, 0.9330588579177856, 0.9464428424835205, 0.9239358901977539, 0.9788118004798889, 0.9860732555389404, 0.9715850353240967, 0.9348742365837097, 0.9259695410728455, 0.8926835656166077, 0.6542373299598694, 0.5691666603088379, 0.5725489258766174, 0.6316236853599548, 0.5723211765289307, 0.3913745880126953, 0.452239990234375, 0.4989263415336609, 0.7992942929267883, 0.9172449707984924, 0.9326756596565247, 0.9040423631668091, 0.882231593132019, 0.8730637431144714, 0.8543047308921814, 0.9626855850219727, 0.957184374332428, 0.9583665132522583, 0.9537068605422974, 0.9049434661865234, 0.9232112765312195, 0.8029267191886902, 0.7319079041481018, 0.7622295618057251, 0.9213650822639465, 0.9603106379508972, 0.9007363319396973, 0.6745023727416992, 0.7790640592575073, 0.777047872543335, 0.9268218278884888, 0.9477604627609253, 0.943207859992981, 0.9052372574806213, 0.6265785098075867, 0.24478033185005188, 0.7236593961715698, 0.743025541305542, 0.7311455011367798, 0.5647814869880676, 0.8199319243431091, 0.9223187565803528, 0.7708127498626709, 0.36668190360069275, 0.40463709831237793, 0.8704320788383484, 0.9580952525138855, 0.941931962966919, 0.7658483982086182, 0.793160080909729, 0.6945049166679382, 0.8660549521446228, 0.7734255790710449, 0.7127895355224609, 0.8459420204162598, 0.8248449563980103, 0.8806220889091492, 0.8697900772094727, 0.8632722496986389, 0.911772608757019, 0.7646411657333374, 0.6717228293418884, 0.6253140568733215, 0.8825711011886597, 0.8954871296882629, 0.9527226686477661, 0.981502890586853, 0.9748684167861938, 0.9750645160675049, 0.9821971654891968, 0.9881427884101868, 0.9877803325653076, 0.8714744448661804, 0.6750761270523071, 0.37195274233818054, 0.419173926115036, 0.8997008204460144, 0.9496195912361145, 0.9295668005943298, 0.8443335890769958, 0.43827372789382935, 0.7412090301513672, 0.858276903629303, 0.9007617831230164, 0.9795314073562622, 0.9842423796653748, 0.9841581583023071, 0.9036115407943726, 0.7823815941810608, 0.8211832046508789, 0.8997368216514587, 0.9253371953964233, 0.9068928360939026, 0.9391346573829651, 0.946183443069458, 0.8922728896141052, 0.6704356074333191, 0.7463571429252625, 0.7804040312767029, 0.7928202748298645, 0.7459478378295898, 0.8215839862823486, 0.9514951705932617, 0.9763201475143433, 0.966404914855957, 0.9444975852966309, 0.964108943939209, 0.9711136817932129, 0.8645457029342651, 0.6557191014289856, 0.4252844750881195, 0.8233629465103149, 0.8224819898605347]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.9725563526153564</v>
+        <v>0.9881427884101868</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.6971180000109598</v>
+        <v>0.7035665000003064</v>
       </c>
       <c r="J202" t="n">
-        <v>0.005667626016349267</v>
+        <v>0.005720052845530946</v>
       </c>
     </row>
     <row r="203">
@@ -8645,11 +8645,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[0.6968125104904175, 0.830528199672699, 0.9098833799362183, 0.9075076580047607, 0.8976325988769531, 0.8748546838760376, 0.8391634225845337, 0.8757879734039307, 0.8122785687446594, 0.8460249304771423, 0.9278189539909363, 0.8850806951522827, 0.9181689023971558, 0.9097609519958496, 0.8710716366767883, 0.891094982624054, 0.9480003714561462, 0.9639496803283691, 0.958122730255127, 0.8748794198036194, 0.846547544002533, 0.7957417964935303, 0.6467279195785522, 0.49799832701683044, 0.40462052822113037, 0.5589905381202698, 0.5208490490913391, 0.48272907733917236, 0.6690989136695862, 0.5428979396820068, 0.5141302347183228, 0.4389031231403351, 0.5095860958099365, 0.4782317280769348, 0.8248469233512878, 0.7518316507339478, 0.8496201634407043, 0.9267827272415161, 0.9188599586486816, 0.9394407868385315, 0.914114236831665, 0.8840919137001038, 0.8621373772621155, 0.9603217244148254, 0.968696117401123, 0.9752303957939148, 0.9738983511924744, 0.9625242948532104, 0.9777090549468994, 0.9766845703125, 0.9663913249969482, 0.9636458158493042, 0.8689254522323608, 0.8085455298423767, 0.4407384395599365, 0.14355820417404175, 0.14756494760513306, 0.20544998347759247, 0.2758446931838989, 0.2409357726573944, 0.25030961632728577, 0.2982124090194702, 0.5623089671134949, 0.8149824142456055, 0.9039364457130432, 0.9093921780586243, 0.9133010506629944, 0.8557784557342529, 0.8519673943519592, 0.8720651865005493, 0.8654260039329529, 0.9054485559463501, 0.8929621577262878, 0.91099613904953, 0.910529613494873, 0.9538262486457825, 0.8798100352287292, 0.8593308925628662, 0.9104182124137878, 0.9271673560142517, 0.8905593752861023, 0.8633977770805359, 0.7186285257339478, 0.764773964881897, 0.8022243976593018, 0.5508075952529907, 0.4673324525356293, 0.5124725103378296, 0.33391398191452026, 0.3745207190513611, 0.39108583331108093, 0.3951379060745239, 0.3640221655368805, 0.35864701867103577, 0.4954875409603119, 0.6611469984054565, 0.7797630429267883, 0.6568803191184998, 0.7479434609413147, 0.7007952928543091, 0.8273149728775024, 0.9108632802963257, 0.9306923151016235, 0.9039596319198608, 0.8141540884971619, 0.8344639539718628, 0.929491400718689, 0.9512433409690857, 0.8552235960960388, 0.798675000667572, 0.7680450081825256, 0.7599285244941711, 0.7521290183067322, 0.7870797514915466, 0.702519416809082, 0.6336706280708313, 0.7689875960350037, 0.6706895232200623, 0.5587075352668762, 0.6326301097869873, 0.5567876696586609, 0.38376134634017944, 0.38431626558303833]</t>
+          <t>[0.703487753868103, 0.84207683801651, 0.9116894006729126, 0.8843098282814026, 0.8756058812141418, 0.8298505544662476, 0.7878420352935791, 0.8348172903060913, 0.7908180952072144, 0.8473334312438965, 0.9455065727233887, 0.8882237672805786, 0.9239009022712708, 0.9233840703964233, 0.9063552618026733, 0.9262232780456543, 0.9701843857765198, 0.96722412109375, 0.9565996527671814, 0.7997041940689087, 0.7813553810119629, 0.7334420084953308, 0.5993519425392151, 0.39028406143188477, 0.37353095412254333, 0.5191358923912048, 0.4493124485015869, 0.44089019298553467, 0.5972431302070618, 0.4456027150154114, 0.4932570159435272, 0.320233017206192, 0.39372745156288147, 0.38676580786705017, 0.8621606230735779, 0.7779783606529236, 0.8400446772575378, 0.9373064637184143, 0.9327317476272583, 0.9582749009132385, 0.9061986804008484, 0.8890042901039124, 0.8669460415840149, 0.9783039093017578, 0.9825647473335266, 0.98394775390625, 0.9739147424697876, 0.9547925591468811, 0.98347407579422, 0.989133894443512, 0.9824603199958801, 0.9785833358764648, 0.8722637891769409, 0.7960353493690491, 0.3698875904083252, 0.08793455362319946, 0.09343046694993973, 0.13508743047714233, 0.16604839265346527, 0.13030920922756195, 0.14481285214424133, 0.1927684247493744, 0.5238105058670044, 0.7959004640579224, 0.9143924713134766, 0.9280989170074463, 0.9283530116081238, 0.8339496850967407, 0.8102460503578186, 0.8114482760429382, 0.8411040306091309, 0.9158440828323364, 0.8674607276916504, 0.8707429766654968, 0.8868691325187683, 0.9557011723518372, 0.9043354988098145, 0.8332786560058594, 0.9159119725227356, 0.9082133173942566, 0.8646448850631714, 0.8191372752189636, 0.724229633808136, 0.7434242367744446, 0.7750092148780823, 0.4071531593799591, 0.34915971755981445, 0.3368239104747772, 0.24025045335292816, 0.2510356903076172, 0.3021259009838104, 0.21022659540176392, 0.19451241195201874, 0.18193486332893372, 0.3201691210269928, 0.47095707058906555, 0.6304118633270264, 0.47333580255508423, 0.6192184686660767, 0.5479798316955566, 0.757612407207489, 0.8825482726097107, 0.9101657271385193, 0.8877500891685486, 0.7123593091964722, 0.7667649388313293, 0.9392772316932678, 0.9661228656768799, 0.8612393140792847, 0.6559891104698181, 0.6441332697868347, 0.5873424410820007, 0.5569329857826233, 0.6042503118515015, 0.47736793756484985, 0.4119126796722412, 0.5957015752792358, 0.5092448592185974, 0.42264804244041443, 0.4845830798149109, 0.37641483545303345, 0.20432685315608978, 0.20563340187072754]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.9777090549468994</v>
+        <v>0.989133894443512</v>
       </c>
       <c r="F203" t="n">
         <v>1</v>
@@ -8663,10 +8663,10 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0.7907763000112027</v>
+        <v>0.7981576000020141</v>
       </c>
       <c r="J203" t="n">
-        <v>0.006429075609847176</v>
+        <v>0.006489086178878163</v>
       </c>
     </row>
     <row r="204">
@@ -8685,11 +8685,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[0.1462353616952896, 0.07555568963289261, 0.25667986273765564, 0.14374974370002747, 0.34603944420814514, 0.15329574048519135, 0.3094853162765503, 0.24758796393871307, 0.3269974887371063, 0.13156412541866302, 0.2104557454586029, 0.05573936179280281, 0.04479019716382027, 0.1378343254327774, 0.1891184002161026, 0.27722012996673584, 0.24856576323509216, 0.23402643203735352, 0.48958951234817505, 0.4777771532535553, 0.29259711503982544, 0.08927763253450394, 0.1079724133014679, 0.1632813811302185, 0.1395416259765625, 0.07541729509830475, 0.1005229502916336, 0.16552764177322388, 0.1133965253829956, 0.11857528984546661, 0.07411462813615799, 0.07513052970170975, 0.1051265224814415, 0.1166488379240036, 0.05264333635568619, 0.04108039662241936, 0.06604515761137009, 0.23505450785160065, 0.5604194402694702, 0.22042642533779144, 0.09547136723995209, 0.0841553658246994, 0.17271003127098083, 0.11765406280755997, 0.15382076799869537, 0.18814806640148163, 0.18840934336185455, 0.1511092483997345, 0.1521773487329483, 0.3400018513202667, 0.440268874168396, 0.19293318688869476, 0.38765186071395874, 0.28034481406211853, 0.21876761317253113, 0.0707751214504242, 0.0789523720741272, 0.10256284475326538, 0.09350374341011047, 0.09355234354734421, 0.09153032302856445, 0.05985277146100998, 0.1350850611925125, 0.22930076718330383, 0.1412736028432846, 0.1687222421169281, 0.19579584896564484, 0.25369980931282043, 0.1275871992111206, 0.3053451180458069, 0.2414107322692871, 0.36828553676605225, 0.33718445897102356, 0.4521791636943817, 0.45786914229393005, 0.2019125521183014, 0.20731917023658752, 0.15486666560173035, 0.12566223740577698, 0.21540647745132446, 0.18535053730010986, 0.24079765379428864, 0.18894922733306885, 0.3676774799823761, 0.2921746075153351, 0.2155488133430481, 0.27713754773139954, 0.207122802734375, 0.11631803214550018, 0.15876664221286774, 0.35702604055404663, 0.4238693416118622, 0.274514377117157, 0.22836142778396606, 0.2907532751560211, 0.41448429226875305, 0.24163085222244263, 0.13193514943122864, 0.17227764427661896, 0.056513722985982895, 0.09764961898326874, 0.0672716572880745, 0.1046956479549408, 0.13973726332187653, 0.10225632041692734, 0.1245037093758583, 0.23766200244426727, 0.20060376822948456, 0.1430487036705017, 0.17082753777503967, 0.17678670585155487, 0.126506969332695, 0.08808322250843048, 0.13207049667835236, 0.11205338686704636, 0.0889212116599083, 0.06239461526274681, 0.06674733757972717, 0.04658588767051697, 0.04704824462532997, 0.03159726783633232, 0.04692284017801285, 0.02321423403918743, 0.05095827579498291, 0.05914805084466934, 0.05658763274550438, 0.03468218818306923, 0.03326420485973358, 0.02439807541668415, 0.1063617616891861, 0.11273792386054993, 0.11180297285318375]</t>
+          <t>[0.17948737740516663, 0.09038613736629486, 0.441983163356781, 0.207857146859169, 0.5986495614051819, 0.3513253331184387, 0.6050889492034912, 0.5249399542808533, 0.7453842759132385, 0.4224315285682678, 0.5910868048667908, 0.10907774418592453, 0.0934399962425232, 0.34037333726882935, 0.47550153732299805, 0.5273159146308899, 0.3978140950202942, 0.3250650465488434, 0.7298784852027893, 0.6364691853523254, 0.44777438044548035, 0.13382837176322937, 0.14346617460250854, 0.2185879349708557, 0.17077851295471191, 0.08095473051071167, 0.11935430765151978, 0.15474462509155273, 0.08935964107513428, 0.1117219552397728, 0.05216590687632561, 0.057343702763319016, 0.07909449189901352, 0.09350792318582535, 0.05580125376582146, 0.044738564640283585, 0.07141231000423431, 0.3900753855705261, 0.8216809034347534, 0.4373040199279785, 0.14435304701328278, 0.11666545271873474, 0.30431613326072693, 0.23500169813632965, 0.2920915484428406, 0.3772301971912384, 0.3401632606983185, 0.3006390631198883, 0.17777089774608612, 0.5071530938148499, 0.5896027684211731, 0.4086574912071228, 0.6498783230781555, 0.5176551938056946, 0.5557425618171692, 0.1078696995973587, 0.10040903091430664, 0.2116979956626892, 0.10694003105163574, 0.12175126373767853, 0.14188750088214874, 0.06771636754274368, 0.14680059254169464, 0.35460707545280457, 0.13940662145614624, 0.17321233451366425, 0.1722913235425949, 0.358792781829834, 0.15179122984409332, 0.2496817708015442, 0.22005920112133026, 0.3631744682788849, 0.30530425906181335, 0.5330406427383423, 0.515800416469574, 0.22006043791770935, 0.23986326158046722, 0.12421998381614685, 0.10311959683895111, 0.19223333895206451, 0.1842518001794815, 0.2567965090274811, 0.20463021099567413, 0.42694520950317383, 0.2679637372493744, 0.20168624818325043, 0.29199305176734924, 0.2041817456483841, 0.10582519322633743, 0.11876759678125381, 0.3056589961051941, 0.3613407015800476, 0.22007955610752106, 0.25339725613594055, 0.27029693126678467, 0.46419134736061096, 0.2603694200515747, 0.14298518002033234, 0.1830383539199829, 0.03785919025540352, 0.08675014227628708, 0.053629450500011444, 0.07449404150247574, 0.11133864521980286, 0.10040666908025742, 0.11495046317577362, 0.27721428871154785, 0.26383060216903687, 0.1868266463279724, 0.17676828801631927, 0.17647090554237366, 0.13096825778484344, 0.08135218173265457, 0.09053006768226624, 0.08116697520017624, 0.07097766548395157, 0.03699032589793205, 0.06423374265432358, 0.034904953092336655, 0.03137516230344772, 0.023288561031222343, 0.03909645229578018, 0.016018282622098923, 0.050658125430345535, 0.04460208863019943, 0.047511015087366104, 0.027560006827116013, 0.019776320084929466, 0.015445438213646412, 0.08624953776597977, 0.09145021438598633, 0.09083538502454758]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.5604194402694702</v>
+        <v>0.8216809034347534</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.7545792000018992</v>
+        <v>0.7801043999934336</v>
       </c>
       <c r="J204" t="n">
-        <v>0.005716509090923479</v>
+        <v>0.005909881818132073</v>
       </c>
     </row>
     <row r="205">
@@ -8725,11 +8725,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.5908681154251099, 0.647608757019043, 0.48952174186706543, 0.2766503393650055, 0.2998860478401184, 0.28130975365638733, 0.5937831401824951, 0.5753512382507324, 0.41326960921287537, 0.4666242003440857, 0.40437760949134827, 0.25304102897644043, 0.20696593821048737, 0.22140219807624817, 0.33137670159339905, 0.1513398289680481, 0.15377379953861237, 0.1866784393787384, 0.21217477321624756, 0.146628275513649, 0.14799587428569794, 0.13278965651988983, 0.18473021686077118, 0.2071719765663147, 0.14259348809719086, 0.187378391623497, 0.36730870604515076, 0.443941205739975, 0.39419686794281006, 0.2902911305427551, 0.33255359530448914, 0.23154500126838684, 0.25279751420021057, 0.3642880320549011, 0.3715071976184845, 0.5327516198158264, 0.22245432436466217, 0.2519499659538269, 0.15662722289562225, 0.1290990114212036, 0.1185007244348526, 0.17439989745616913, 0.19864629209041595, 0.28040531277656555, 0.10838284343481064, 0.490826815366745, 0.4026215970516205, 0.3159399628639221, 0.36659300327301025, 0.34801214933395386, 0.1557229608297348, 0.2157870978116989, 0.29727059602737427, 0.2890302538871765, 0.4494653046131134, 0.37327054142951965, 0.4124383330345154, 0.30210745334625244, 0.2557056248188019, 0.28961655497550964, 0.3182978332042694, 0.44100984930992126, 0.28352248668670654, 0.2652275860309601, 0.2585526704788208, 0.12978631258010864, 0.16948390007019043, 0.16080985963344574, 0.12768663465976715, 0.21985329687595367, 0.18452095985412598, 0.33408647775650024, 0.15405063331127167, 0.29369863867759705, 0.29224690794944763, 0.5523152947425842, 0.31070587038993835, 0.5910224914550781, 0.5143523812294006, 0.6368609070777893, 0.7120424509048462, 0.7961494326591492, 0.841846227645874, 0.6702016592025757, 0.6817930936813354, 0.37809401750564575, 0.63665372133255, 0.6655375957489014, 0.6034598350524902, 0.8148396611213684, 0.6239495873451233, 0.7088905572891235, 0.3913646936416626, 0.3812565207481384, 0.5434724688529968, 0.4686822295188904, 0.1937275230884552, 0.14255155622959137, 0.10582569986581802, 0.2367037534713745, 0.36367395520210266, 0.19479729235172272, 0.23658692836761475, 0.23248784244060516, 0.29397818446159363, 0.2739015817642212, 0.3527132570743561, 0.3144272267818451, 0.35097864270210266, 0.16174304485321045, 0.19875071942806244, 0.17967690527439117, 0.1526535153388977, 0.1382581740617752, 0.23189705610275269, 0.49503928422927856, 0.432608962059021, 0.6591877341270447, 0.8864659070968628, 0.949134349822998, 0.9401301145553589, 0.7649926543235779, 0.8781284093856812, 0.48726221919059753, 0.4268927574157715, 0.26835206151008606, 0.20433230698108673, 0.2717033922672272, 0.17141221463680267, 0.07243797928094864, 0.09209278970956802, 0.16718702018260956, 0.2841556668281555, 0.11790216714143753, 0.4283531606197357, 0.35481902956962585, 0.41440778970718384, 0.5780158638954163, 0.34213677048683167, 0.20867040753364563, 0.19817648828029633, 0.12051559239625931, 0.4943714439868927, 0.4516255855560303, 0.20321235060691833, 0.29042941331863403, 0.33776983618736267, 0.3389064073562622]</t>
+          <t>[0.5816072225570679, 0.7496227025985718, 0.41567668318748474, 0.18619222939014435, 0.3665872812271118, 0.20399698615074158, 0.5643373131752014, 0.5321539044380188, 0.44573426246643066, 0.4597548246383667, 0.3549032211303711, 0.1480838805437088, 0.11939454078674316, 0.1657489836215973, 0.2676512598991394, 0.10115378350019455, 0.0874442607164383, 0.2039829045534134, 0.20778615772724152, 0.1147821918129921, 0.09136844426393509, 0.08676089346408844, 0.13120588660240173, 0.1961401104927063, 0.139931783080101, 0.13415436446666718, 0.21237222850322723, 0.29180270433425903, 0.17233003675937653, 0.15167558193206787, 0.21052390336990356, 0.09577147662639618, 0.12071414291858673, 0.23746323585510254, 0.23351901769638062, 0.4354870021343231, 0.14058709144592285, 0.1864536702632904, 0.1328815072774887, 0.09584570676088333, 0.11656991392374039, 0.18212945759296417, 0.37198734283447266, 0.3114144504070282, 0.11128192394971848, 0.568693995475769, 0.368074893951416, 0.18510501086711884, 0.19806517660617828, 0.24016709625720978, 0.052541665732860565, 0.08521927893161774, 0.12034367769956589, 0.1543837934732437, 0.2609867453575134, 0.19138212502002716, 0.362922728061676, 0.2648886442184448, 0.2331077605485916, 0.30113255977630615, 0.3294220268726349, 0.4717446267604828, 0.22475507855415344, 0.24099744856357574, 0.20126427710056305, 0.06949396431446075, 0.14497263729572296, 0.08179084956645966, 0.05837155878543854, 0.12527744472026825, 0.08144127577543259, 0.2343623787164688, 0.11727216839790344, 0.2706342935562134, 0.3160761594772339, 0.6563595533370972, 0.37850749492645264, 0.7549024820327759, 0.6010105013847351, 0.8329657912254333, 0.9277068972587585, 0.9433972239494324, 0.9506710171699524, 0.8216490745544434, 0.847676694393158, 0.6463522911071777, 0.8296167254447937, 0.8819177746772766, 0.7443028092384338, 0.9080223441123962, 0.6210475564002991, 0.7637866735458374, 0.5489097833633423, 0.6465129256248474, 0.8517699837684631, 0.8269859552383423, 0.21835805475711823, 0.08794353902339935, 0.05883026123046875, 0.1279972791671753, 0.2845393717288971, 0.08337157219648361, 0.1451125591993332, 0.13424897193908691, 0.1782451719045639, 0.17315039038658142, 0.2491309493780136, 0.2570803761482239, 0.47004035115242004, 0.2556314468383789, 0.429624080657959, 0.49163541197776794, 0.1803843080997467, 0.24684497714042664, 0.21337731182575226, 0.45712316036224365, 0.5830656290054321, 0.8342255353927612, 0.9711225628852844, 0.983052134513855, 0.9858862161636353, 0.9367716908454895, 0.966981828212738, 0.7074277400970459, 0.5661119818687439, 0.47643280029296875, 0.3587649166584015, 0.43971848487854004, 0.2274545282125473, 0.043795146048069, 0.0727374479174614, 0.13374949991703033, 0.2814426124095917, 0.11660974472761154, 0.5412359833717346, 0.47125324606895447, 0.48347118496894836, 0.6476821303367615, 0.40269172191619873, 0.2221163511276245, 0.2079668492078781, 0.1343056708574295, 0.7720328569412231, 0.6930946707725525, 0.2714424431324005, 0.2588091790676117, 0.35636842250823975, 0.3579932749271393]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.949134349822998</v>
+        <v>0.9858862161636353</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -8743,10 +8743,10 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.8385974000266287</v>
+        <v>0.8301799000037136</v>
       </c>
       <c r="J205" t="n">
-        <v>0.005666198648828572</v>
+        <v>0.00560932364867374</v>
       </c>
     </row>
     <row r="206">
@@ -8765,11 +8765,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[0.2504918575286865, 0.1973598152399063, 0.16110363602638245, 0.190285325050354, 0.1557769626379013, 0.2874417304992676, 0.2553476393222809, 0.20460307598114014, 0.1619807779788971, 0.3011128902435303, 0.34551766514778137, 0.31077930331230164, 0.3624331057071686, 0.24636352062225342, 0.4878174662590027, 0.6224392652511597, 0.80564945936203, 0.5307343602180481, 0.3051513135433197, 0.20286592841148376, 0.361022412776947, 0.16066774725914001, 0.2336108535528183, 0.25776806473731995, 0.24097204208374023, 0.18597599864006042, 0.5911276936531067, 0.3059966564178467, 0.3854658603668213, 0.357309490442276, 0.27207547426223755, 0.39534294605255127, 0.2362794429063797, 0.38231852650642395, 0.41611048579216003, 0.4920457601547241, 0.6226938366889954, 0.17643822729587555, 0.18152475357055664, 0.14928002655506134, 0.30840161442756653, 0.40856483578681946, 0.3909001648426056, 0.5688793063163757, 0.7249922156333923, 0.7084097266197205, 0.7831779718399048, 0.7771748900413513, 0.7234264016151428, 0.7292185425758362, 0.7201454043388367, 0.4754008650779724, 0.6368741393089294, 0.43967294692993164, 0.5215604305267334, 0.49722743034362793, 0.3245680630207062, 0.32927167415618896, 0.4668170213699341, 0.3183498978614807, 0.2123039960861206, 0.2864643633365631, 0.4258735477924347, 0.3001444339752197, 0.3927389085292816, 0.6431629657745361, 0.4250103235244751, 0.48049190640449524, 0.5806857943534851, 0.3480474054813385, 0.38195377588272095, 0.5650882124900818, 0.3725202679634094, 0.3669693171977997, 0.30493295192718506, 0.15069235861301422, 0.2846538722515106, 0.2676800787448883, 0.3101304769515991, 0.24405401945114136, 0.370685875415802, 0.33336693048477173, 0.3685377240180969, 0.40662652254104614, 0.272174209356308, 0.2308414727449417, 0.2734653055667877, 0.17672644555568695, 0.20887310802936554, 0.21006567776203156, 0.17296622693538666, 0.21364545822143555, 0.14543893933296204, 0.1571270227432251, 0.11485782265663147, 0.1348153054714203, 0.15568695962429047, 0.18959787487983704, 0.19743554294109344, 0.2013176530599594, 0.19348427653312683, 0.3151256740093231, 0.2998751401901245, 0.5047174692153931, 0.3159998953342438, 0.4050406813621521, 0.42054086923599243, 0.3270551860332489, 0.43426090478897095, 0.3182370662689209, 0.23976659774780273, 0.2018924355506897, 0.33538639545440674, 0.44896507263183594, 0.30438539385795593, 0.23688018321990967, 0.21408767998218536, 0.2601645886898041, 0.3125477731227875, 0.21296682953834534, 0.2313830554485321, 0.1605297327041626, 0.304904967546463, 0.3359193205833435, 0.2825593650341034, 0.16844990849494934, 0.234330415725708, 0.2128290981054306, 0.24674035608768463, 0.24806879460811615, 0.18519461154937744, 0.20024172961711884, 0.16290400922298431, 0.1583995223045349, 0.23103296756744385, 0.3343411087989807, 0.30733180046081543, 0.2717703580856323, 0.47370481491088867, 0.3243207037448883, 0.375493586063385, 0.3793959319591522, 0.21573027968406677, 0.20461656153202057, 0.2500672936439514, 0.18665394186973572, 0.14952103793621063, 0.1496962457895279]</t>
+          <t>[0.20913495123386383, 0.11937905848026276, 0.09343713521957397, 0.11952396482229233, 0.08852993696928024, 0.1768135130405426, 0.1533069759607315, 0.10513138025999069, 0.06578453630208969, 0.16945886611938477, 0.2888715863227844, 0.273300439119339, 0.3528933823108673, 0.17200754582881927, 0.4233635365962982, 0.609114408493042, 0.856370210647583, 0.5494048595428467, 0.274960458278656, 0.15032356977462769, 0.27192938327789307, 0.11568130552768707, 0.16345946490764618, 0.16623887419700623, 0.12294350564479828, 0.096021369099617, 0.6629976034164429, 0.24533206224441528, 0.28110599517822266, 0.30440235137939453, 0.21786212921142578, 0.32812291383743286, 0.17243777215480804, 0.25522851943969727, 0.3526667058467865, 0.49969902634620667, 0.7099341154098511, 0.15200316905975342, 0.12423105537891388, 0.0923524796962738, 0.30592283606529236, 0.45075950026512146, 0.3802461326122284, 0.5266701579093933, 0.7848628759384155, 0.7607645392417908, 0.865156352519989, 0.8487672805786133, 0.789605975151062, 0.7986459136009216, 0.7867339253425598, 0.5380030870437622, 0.6849823594093323, 0.48217424750328064, 0.5448064208030701, 0.4876610040664673, 0.29672494530677795, 0.2802165448665619, 0.4827025830745697, 0.278043657541275, 0.15885721147060394, 0.3039214611053467, 0.4362894892692566, 0.23525023460388184, 0.3211284577846527, 0.6630206108093262, 0.36824414134025574, 0.44958609342575073, 0.566261887550354, 0.29084843397140503, 0.27889031171798706, 0.5453230142593384, 0.3342244029045105, 0.41517677903175354, 0.3331221342086792, 0.10965941846370697, 0.22951488196849823, 0.2390630543231964, 0.27460500597953796, 0.23301541805267334, 0.3578129708766937, 0.3174464702606201, 0.3733402192592621, 0.4082936942577362, 0.21443916857242584, 0.14463651180267334, 0.16249413788318634, 0.1113484725356102, 0.12700533866882324, 0.1055687963962555, 0.09326820820569992, 0.06459718197584152, 0.05943085625767708, 0.07514038681983948, 0.049024876207113266, 0.061402328312397, 0.08055751770734787, 0.10456794500350952, 0.14127886295318604, 0.15029500424861908, 0.12937532365322113, 0.17944268882274628, 0.20316804945468903, 0.4432384669780731, 0.20199432969093323, 0.2853828966617584, 0.34760427474975586, 0.20925937592983246, 0.36532241106033325, 0.23442979156970978, 0.14221806824207306, 0.10504370182752609, 0.25174829363822937, 0.3886753022670746, 0.22655881941318512, 0.13662883639335632, 0.1086859405040741, 0.1364431083202362, 0.24118933081626892, 0.13278107345104218, 0.17823724448680878, 0.10847494751214981, 0.2949332892894745, 0.2854161560535431, 0.2180289477109909, 0.09488487243652344, 0.16267141699790955, 0.17690609395503998, 0.15813298523426056, 0.19781368970870972, 0.09991913288831711, 0.11371898651123047, 0.08334513753652573, 0.10396906733512878, 0.14276140928268433, 0.27416250109672546, 0.24373069405555725, 0.21967153251171112, 0.4210607409477234, 0.22981992363929749, 0.32847291231155396, 0.3161584138870239, 0.15269647538661957, 0.1220272034406662, 0.13604091107845306, 0.11831466108560562, 0.07555056363344193, 0.07523433864116669]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.80564945936203</v>
+        <v>0.865156352519989</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -8783,10 +8783,10 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.8356205000018235</v>
+        <v>0.829083399992669</v>
       </c>
       <c r="J206" t="n">
-        <v>0.005646084459471781</v>
+        <v>0.005601914864815331</v>
       </c>
     </row>
     <row r="207">
@@ -8805,11 +8805,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[0.14837880432605743, 0.16705523431301117, 0.3138892352581024, 0.19069398939609528, 0.39244556427001953, 0.21967869997024536, 0.18597079813480377, 0.34796416759490967, 0.4180133640766144, 0.20758597552776337, 0.17815060913562775, 0.24773567914962769, 0.29402080178260803, 0.330066442489624, 0.3430808186531067, 0.3678787648677826, 0.19314171373844147, 0.1654054969549179, 0.16602127254009247, 0.1396113634109497, 0.26084744930267334, 0.29561087489128113, 0.19357293844223022, 0.22677840292453766, 0.3407203257083893, 0.4281421899795532, 0.30981069803237915, 0.2663154602050781, 0.25876283645629883, 0.439349889755249, 0.256306916475296, 0.40333130955696106, 0.28228768706321716, 0.2090545892715454, 0.3197385370731354, 0.23421014845371246, 0.26951465010643005, 0.3667254149913788, 0.31704655289649963, 0.22162432968616486, 0.12893174588680267, 0.1309840828180313, 0.13794313371181488, 0.17250940203666687, 0.14809218049049377, 0.2296658456325531, 0.09269515424966812, 0.08322358876466751, 0.15013499557971954, 0.21123188734054565, 0.14574484527111053, 0.11504017561674118, 0.11474040895700455, 0.18354949355125427, 0.3682849705219269, 0.19215723872184753, 0.11797693371772766, 0.09644529223442078, 0.11626492440700531, 0.16490517556667328, 0.17298129200935364, 0.3311551511287689, 0.31730806827545166, 0.37096816301345825, 0.2813572585582733, 0.24688802659511566, 0.24230670928955078, 0.3536737263202667, 0.3903220593929291, 0.24584363400936127, 0.26530319452285767, 0.22115899622440338, 0.37315988540649414, 0.5644610524177551, 0.36648833751678467, 0.34914228320121765, 0.4976436495780945, 0.4496269226074219, 0.4058700501918793, 0.31002482771873474, 0.22594282031059265, 0.39389562606811523, 0.45915618538856506, 0.4112302362918854, 0.35360828042030334, 0.26676592230796814, 0.28814390301704407, 0.2985149025917053, 0.22547174990177155, 0.2598921060562134, 0.2596604824066162, 0.23059269785881042, 0.30190494656562805, 0.20832599699497223, 0.24429726600646973, 0.20559029281139374, 0.20716114342212677, 0.2169354259967804, 0.17096872627735138, 0.1906462162733078, 0.18084119260311127, 0.2350463718175888, 0.18355967104434967, 0.17793969810009003, 0.14151227474212646, 0.11334376782178879, 0.16827121376991272, 0.14835309982299805, 0.1298687905073166, 0.12299121171236038, 0.12211968749761581, 0.13551142811775208, 0.24963775277137756, 0.28559610247612, 0.2963744103908539, 0.34677690267562866, 0.26957598328590393, 0.17289982736110687, 0.14748184382915497, 0.1465221494436264, 0.13576872646808624, 0.1422485113143921, 0.16175226867198944, 0.2735179662704468, 0.25129643082618713, 0.23243948817253113, 0.18517009913921356, 0.2600415050983429, 0.4821649193763733, 0.3962930142879486, 0.5145334005355835, 0.5573652982711792, 0.2900630533695221, 0.39728108048439026, 0.28540873527526855, 0.3431529998779297, 0.3754516541957855, 0.36655765771865845, 0.3207550346851349, 0.19770991802215576, 0.3952185809612274, 0.3557901382446289, 0.21943959593772888, 0.24304209649562836, 0.2762671113014221, 0.26132631301879883, 0.11489406228065491, 0.1152167096734047]</t>
+          <t>[0.09052877128124237, 0.15542113780975342, 0.35387465357780457, 0.1737482100725174, 0.4127814471721649, 0.1710478514432907, 0.1550949364900589, 0.39657747745513916, 0.49002617597579956, 0.2386428713798523, 0.15978266298770905, 0.2622964680194855, 0.3153468370437622, 0.322547048330307, 0.32728666067123413, 0.41316652297973633, 0.12474871426820755, 0.11180950701236725, 0.08096808940172195, 0.06315801292657852, 0.1926235407590866, 0.25903770327568054, 0.12380347400903702, 0.1588660478591919, 0.3545374572277069, 0.5506116151809692, 0.33161717653274536, 0.19166366755962372, 0.18642094731330872, 0.4469781219959259, 0.23860915005207062, 0.40451645851135254, 0.20750409364700317, 0.12105780094861984, 0.3318651020526886, 0.13959628343582153, 0.1670883595943451, 0.33472466468811035, 0.22665320336818695, 0.14091718196868896, 0.057744838297367096, 0.0755375549197197, 0.09391218423843384, 0.10822281986474991, 0.08489128947257996, 0.14141002297401428, 0.04880063608288765, 0.042400773614645004, 0.0767524316906929, 0.10530281811952591, 0.07157927751541138, 0.06461576372385025, 0.05476793274283409, 0.11093876510858536, 0.24138928949832916, 0.08817048370838165, 0.038998741656541824, 0.020804712548851967, 0.04250909015536308, 0.07813789695501328, 0.07064806669950485, 0.2827657163143158, 0.2232038378715515, 0.36105239391326904, 0.21172846853733063, 0.18806228041648865, 0.14827105402946472, 0.3178703188896179, 0.33358192443847656, 0.13081565499305725, 0.1662580668926239, 0.14126650989055634, 0.34579896926879883, 0.5855288505554199, 0.3580942153930664, 0.3411809504032135, 0.5006811618804932, 0.41503995656967163, 0.4031312167644501, 0.276228666305542, 0.20643094182014465, 0.3748515248298645, 0.4456310272216797, 0.3700602948665619, 0.24911703169345856, 0.14231199026107788, 0.1414189487695694, 0.18189416825771332, 0.11022461205720901, 0.1480497419834137, 0.20535053312778473, 0.15322841703891754, 0.1899123191833496, 0.08683601021766663, 0.13554483652114868, 0.11033662408590317, 0.11240507662296295, 0.11420586705207825, 0.06927864998579025, 0.08102044463157654, 0.0774410218000412, 0.08932697772979736, 0.06437577307224274, 0.0724567398428917, 0.052879370748996735, 0.04818238317966461, 0.07124493271112442, 0.06111632287502289, 0.046773649752140045, 0.04112612083554268, 0.03806107118725777, 0.04518165811896324, 0.12515118718147278, 0.17453987896442413, 0.17350412905216217, 0.24709302186965942, 0.15511997044086456, 0.06601851433515549, 0.04656948149204254, 0.048698294907808304, 0.045211173593997955, 0.05142386257648468, 0.058056529611349106, 0.13568700850009918, 0.13642281293869019, 0.11403332650661469, 0.08720584958791733, 0.14879807829856873, 0.43562617897987366, 0.31944894790649414, 0.4574577808380127, 0.5933620929718018, 0.2277413159608841, 0.3536389172077179, 0.16648980975151062, 0.2567006051540375, 0.38140013813972473, 0.42626476287841797, 0.35985949635505676, 0.20136132836341858, 0.458446741104126, 0.3681008815765381, 0.17511945962905884, 0.22296059131622314, 0.21251247823238373, 0.2275221049785614, 0.0653974711894989, 0.06569492816925049]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.5644610524177551</v>
+        <v>0.5933620929718018</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -8823,10 +8823,10 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.8365935999900103</v>
+        <v>0.8262079000123776</v>
       </c>
       <c r="J207" t="n">
-        <v>0.005652659459391961</v>
+        <v>0.005582485810894443</v>
       </c>
     </row>
     <row r="208">
@@ -8845,11 +8845,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[0.3013128638267517, 0.5299627780914307, 0.6396685838699341, 0.535762369632721, 0.5330656170845032, 0.4480879604816437, 0.2402195930480957, 0.19921599328517914, 0.2067246288061142, 0.2791622579097748, 0.4527594745159149, 0.544796884059906, 0.49545207619667053, 0.7750194072723389, 0.6746529936790466, 0.6544206142425537, 0.36734113097190857, 0.469905287027359, 0.3094933331012726, 0.2740533649921417, 0.2662602365016937, 0.17469842731952667, 0.5263754725456238, 0.33600616455078125, 0.44864246249198914, 0.30346110463142395, 0.23085881769657135, 0.09505666792392731, 0.23053264617919922, 0.1446591317653656, 0.19073328375816345, 0.2440902441740036, 0.23532196879386902, 0.16629405319690704, 0.20868492126464844, 0.14308281242847443, 0.15225256979465485, 0.12821277976036072, 0.09586157649755478, 0.24875079095363617, 0.38392701745033264, 0.283807635307312, 0.30685704946517944, 0.5195611715316772, 0.3389248251914978, 0.3852212131023407, 0.16137073934078217, 0.17066162824630737, 0.20746178925037384, 0.18267685174942017, 0.24153365194797516, 0.3891771137714386, 0.38295936584472656, 0.55158531665802, 0.5870204567909241, 0.5551035404205322, 0.6610086560249329, 0.4508329927921295, 0.3302900195121765, 0.4453085660934448, 0.3057681620121002, 0.35323163866996765, 0.3613445460796356, 0.2143070250749588, 0.1744641214609146, 0.1624683141708374, 0.32003507018089294, 0.2755124568939209, 0.3165590167045593, 0.279934823513031, 0.2859887182712555, 0.45761480927467346, 0.4326205849647522, 0.545062780380249, 0.39739665389060974, 0.305345356464386, 0.3916867971420288, 0.44442370533943176, 0.2736644148826599, 0.5699847936630249, 0.3789328634738922, 0.3347585201263428, 0.15647929906845093, 0.20344386994838715, 0.482453852891922, 0.17448483407497406, 0.25955334305763245, 0.19039389491081238, 0.09621845185756683, 0.14185364544391632, 0.2350100874900818, 0.3469379246234894, 0.5047605037689209, 0.6453658938407898, 0.6789795160293579, 0.49214237928390503, 0.5353264808654785, 0.33745506405830383, 0.2136349380016327, 0.18548057973384857, 0.23580887913703918, 0.3345114588737488, 0.3806125223636627, 0.32453253865242004, 0.2826789617538452, 0.2466762512922287, 0.2167331576347351, 0.22401615977287292, 0.19515646994113922, 0.16725443303585052, 0.291754812002182, 0.3009665608406067, 0.2956540584564209, 0.4096304178237915, 0.380510151386261, 0.44166430830955505, 0.5057107210159302, 0.42720136046409607, 0.28555816411972046, 0.3245459198951721, 0.3232666552066803, 0.32197102904319763, 0.22887401282787323, 0.2407669574022293, 0.22429139912128448, 0.3979387879371643, 0.31858596205711365, 0.3478623330593109, 0.3073522448539734, 0.42308053374290466, 0.40037044882774353, 0.36447662115097046, 0.5568510293960571, 0.47433334589004517, 0.3418797254562378, 0.3511432111263275, 0.28932884335517883, 0.2568732798099518, 0.4359623193740845, 0.42249271273612976, 0.4215981364250183, 0.4626222550868988, 0.43345847725868225, 0.4710826277732849, 0.44370749592781067, 0.5213766098022461, 0.43838515877723694, 0.43979576230049133]</t>
+          <t>[0.34807509183883667, 0.6916277408599854, 0.7620121836662292, 0.7286056876182556, 0.6580753326416016, 0.4231231212615967, 0.24307428300380707, 0.15893250703811646, 0.17207123339176178, 0.2952422499656677, 0.5272567272186279, 0.6920378804206848, 0.6874610781669617, 0.9217458367347717, 0.847338855266571, 0.8188285827636719, 0.5787367224693298, 0.6959332227706909, 0.5656763911247253, 0.5904137492179871, 0.5024228096008301, 0.3404328227043152, 0.8629174828529358, 0.5962604284286499, 0.6926687955856323, 0.4482675790786743, 0.34971439838409424, 0.14009331166744232, 0.35277456045150757, 0.18980291485786438, 0.2511953115463257, 0.301024854183197, 0.3131960928440094, 0.21974430978298187, 0.3574807941913605, 0.17435085773468018, 0.19912289083003998, 0.1811840534210205, 0.1302991360425949, 0.40446937084198, 0.7102043628692627, 0.3860974609851837, 0.5021691918373108, 0.776535153388977, 0.4879826605319977, 0.5415614247322083, 0.15605542063713074, 0.1449134647846222, 0.2847989797592163, 0.18549703061580658, 0.29039883613586426, 0.45594194531440735, 0.39357540011405945, 0.6532586216926575, 0.7205157279968262, 0.7344110012054443, 0.8419126272201538, 0.5128860473632812, 0.37977349758148193, 0.5436888337135315, 0.3422081768512726, 0.5119378566741943, 0.5243062973022461, 0.24241268634796143, 0.19299517571926117, 0.15825331211090088, 0.4368232488632202, 0.30673518776893616, 0.34851861000061035, 0.3400924801826477, 0.32013365626335144, 0.5823025703430176, 0.6397455930709839, 0.8044849038124084, 0.5177395939826965, 0.35546180605888367, 0.5386290550231934, 0.6727447509765625, 0.41676515340805054, 0.8317574262619019, 0.5630698204040527, 0.41367435455322266, 0.15492135286331177, 0.3387649655342102, 0.600351095199585, 0.1951184719800949, 0.2533896863460541, 0.12278064340353012, 0.051136646419763565, 0.1051323190331459, 0.2031192183494568, 0.3328331410884857, 0.711894154548645, 0.843727171421051, 0.8478092551231384, 0.6355197429656982, 0.7493801712989807, 0.5308889150619507, 0.2153138518333435, 0.16950787603855133, 0.2345629781484604, 0.3427773416042328, 0.37488463521003723, 0.2729531526565552, 0.2028902918100357, 0.17007148265838623, 0.16039274632930756, 0.16624616086483002, 0.15618732571601868, 0.12043075263500214, 0.25375643372535706, 0.2533271312713623, 0.21599292755126953, 0.3663095533847809, 0.4059128761291504, 0.42126840353012085, 0.4168350398540497, 0.3349349796772003, 0.21019290387630463, 0.25864624977111816, 0.23078453540802002, 0.251832515001297, 0.1746368408203125, 0.16464480757713318, 0.15437175333499908, 0.4138420522212982, 0.36899858713150024, 0.3947423994541168, 0.35674068331718445, 0.4848378598690033, 0.3425942659378052, 0.28339582681655884, 0.5870562195777893, 0.4857160747051239, 0.27514320611953735, 0.3382234573364258, 0.27076131105422974, 0.2600535452365875, 0.4652337431907654, 0.45071515440940857, 0.4302406907081604, 0.467217355966568, 0.4562387764453888, 0.5811294317245483, 0.5149090886116028, 0.548017144203186, 0.39520353078842163, 0.39689478278160095]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.7750194072723389</v>
+        <v>0.9217458367347717</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
@@ -8863,10 +8863,10 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0.8147072999854572</v>
+        <v>0.8041233999974793</v>
       </c>
       <c r="J208" t="n">
-        <v>0.005504779053955792</v>
+        <v>0.005433266216199184</v>
       </c>
     </row>
     <row r="209">
@@ -8885,11 +8885,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.05606105923652649, 0.10512213408946991, 0.13395167887210846, 0.18295182287693024, 0.20955024659633636, 0.24084752798080444, 0.24714475870132446, 0.14954295754432678, 0.19281890988349915, 0.10450625419616699, 0.0873180702328682, 0.10254716873168945, 0.1662268191576004, 0.1752128303050995, 0.12007477134466171, 0.16062559187412262, 0.16176706552505493, 0.3205690383911133, 0.2568187713623047, 0.16011643409729004, 0.1452600210905075, 0.20208735764026642, 0.1707744300365448, 0.13324332237243652, 0.2722060978412628, 0.17478974163532257, 0.17861130833625793, 0.16739538311958313, 0.3044532835483551, 0.3424220085144043, 0.24530906975269318, 0.15670809149742126, 0.17910954356193542, 0.15026643872261047, 0.11701797693967819, 0.1039363294839859, 0.09251920878887177, 0.1718549132347107, 0.1135847270488739, 0.13780152797698975, 0.23448719084262848, 0.1492975801229477, 0.17972828447818756, 0.11041802912950516, 0.07176348567008972, 0.09964210540056229, 0.07182436436414719, 0.14014659821987152, 0.14615732431411743, 0.22487573325634003, 0.21828743815422058, 0.1876935511827469, 0.19113506376743317, 0.13877955079078674, 0.1908911168575287, 0.3491596281528473, 0.5298823118209839, 0.48676982522010803, 0.35541242361068726, 0.31480324268341064, 0.37763750553131104, 0.1710226982831955, 0.13834287226200104, 0.1441153883934021, 0.20018844306468964, 0.15512418746948242, 0.14296041429042816, 0.237765371799469, 0.1876101940870285, 0.16724632680416107, 0.13674938678741455, 0.07866909354925156, 0.11108916252851486, 0.16668841242790222, 0.22491514682769775, 0.1852165311574936, 0.11323406547307968, 0.12861515581607819, 0.1704150140285492, 0.31281229853630066, 0.538480818271637, 0.35147908329963684, 0.2684076726436615, 0.2504102885723114, 0.12563574314117432, 0.22483518719673157, 0.29422727227211, 0.21525172889232635, 0.22718095779418945, 0.21072079241275787, 0.12326531112194061, 0.09826060384511948, 0.21709372103214264, 0.14427605271339417, 0.15924280881881714, 0.1306469589471817, 0.15763424336910248, 0.19651956856250763, 0.1655661165714264, 0.10977651923894882, 0.19556163251399994, 0.21386191248893738, 0.29301968216896057, 0.10602143406867981, 0.1850263625383377, 0.2198670357465744, 0.17590925097465515, 0.16070394217967987, 0.11968031525611877, 0.10806978493928909, 0.29537925124168396, 0.21310734748840332, 0.20130141079425812, 0.11215582489967346, 0.21310776472091675, 0.18361462652683258, 0.19179761409759521, 0.16805492341518402, 0.14217324554920197, 0.21239350736141205, 0.20223046839237213, 0.22854311764240265, 0.15144950151443481, 0.20229649543762207, 0.11985932290554047, 0.1532001793384552, 0.17805279791355133, 0.11919651925563812, 0.15428908169269562, 0.1286485642194748, 0.19783079624176025, 0.10333606600761414, 0.09549260884523392, 0.06651163846254349, 0.08414091169834137, 0.0939258560538292, 0.22949223220348358, 0.20217852294445038, 0.14618633687496185, 0.19711443781852722, 0.32287266850471497, 0.3430672287940979, 0.3739292621612549, 0.45900222659111023, 0.3507545292377472, 0.2769753336906433, 0.2461857795715332, 0.20927026867866516, 0.18105275928974152, 0.22815145552158356, 0.17491675913333893, 0.1637963056564331, 0.1284104287624359, 0.13026979565620422, 0.177071675658226, 0.10067570209503174, 0.21538551151752472, 0.13246306777000427, 0.2117466926574707, 0.20651845633983612, 0.1773708313703537, 0.20752139389514923, 0.19456785917282104, 0.19693154096603394, 0.24102304875850677, 0.22178931534290314, 0.09558837860822678, 0.09586325287818909]</t>
+          <t>[0.027629977092146873, 0.058139339089393616, 0.07308952510356903, 0.13293138146400452, 0.15122635662555695, 0.1764955371618271, 0.17307047545909882, 0.13510048389434814, 0.14957353472709656, 0.06235317513346672, 0.05397899076342583, 0.09580883383750916, 0.13061454892158508, 0.1476425677537918, 0.07739076018333435, 0.18163765966892242, 0.14663368463516235, 0.3311479091644287, 0.19238173961639404, 0.10917284339666367, 0.10710972547531128, 0.15559057891368866, 0.12671591341495514, 0.08165402710437775, 0.19517946243286133, 0.09150820225477219, 0.1315385103225708, 0.1423586905002594, 0.2610286474227905, 0.2447805404663086, 0.12882474064826965, 0.08894640952348709, 0.13536375761032104, 0.16474494338035583, 0.08299848437309265, 0.06661832332611084, 0.0598333477973938, 0.13756687939167023, 0.0637681782245636, 0.07833346724510193, 0.16264767944812775, 0.0802895724773407, 0.08712079375982285, 0.04654528573155403, 0.02760733664035797, 0.05587223172187805, 0.030810272321105003, 0.09127194434404373, 0.06554701179265976, 0.10454840958118439, 0.10027934610843658, 0.10270531475543976, 0.10272330790758133, 0.06793506443500519, 0.11167143285274506, 0.24608096480369568, 0.4545036554336548, 0.39940211176872253, 0.2574627101421356, 0.24943476915359497, 0.35557079315185547, 0.0870266929268837, 0.060654934495687485, 0.07963653653860092, 0.1106274202466011, 0.09145878255367279, 0.10145122557878494, 0.16668514907360077, 0.13843466341495514, 0.09377509355545044, 0.059850212186574936, 0.04330133646726608, 0.0562128871679306, 0.08810453116893768, 0.1248309388756752, 0.10777878761291504, 0.06002463400363922, 0.06570672243833542, 0.08382931351661682, 0.12469848245382309, 0.3042728006839752, 0.19818083941936493, 0.10638721287250519, 0.10562973469495773, 0.048749636858701706, 0.1664900779724121, 0.19457697868347168, 0.14156369864940643, 0.13121794164180756, 0.11756458878517151, 0.06951659917831421, 0.045623280107975006, 0.10828278213739395, 0.05297711864113808, 0.059649672359228134, 0.05494416505098343, 0.07780180871486664, 0.07911072671413422, 0.07326489686965942, 0.031753651797771454, 0.0670735314488411, 0.09580406546592712, 0.16554871201515198, 0.05074554681777954, 0.126347154378891, 0.1381600946187973, 0.08534488826990128, 0.0617237314581871, 0.05342508852481842, 0.03967297822237015, 0.12041407078504562, 0.08419781178236008, 0.08110976964235306, 0.04841511696577072, 0.09802866727113724, 0.08376148343086243, 0.09443122893571854, 0.07690756767988205, 0.052091341465711594, 0.0984717607498169, 0.08170309662818909, 0.11205112934112549, 0.05138621851801872, 0.09643398970365524, 0.060200829058885574, 0.08841624855995178, 0.10622754693031311, 0.0400109700858593, 0.08641061931848526, 0.06930337101221085, 0.10299140214920044, 0.0422208234667778, 0.029828839004039764, 0.024091137573122978, 0.03532638028264046, 0.031102757900953293, 0.0973919928073883, 0.1030333936214447, 0.05921731889247894, 0.09654776751995087, 0.15104912221431732, 0.1831381618976593, 0.20625297725200653, 0.3643236458301544, 0.19240529835224152, 0.1874106377363205, 0.11170701682567596, 0.10409875214099884, 0.08940055221319199, 0.11806467175483704, 0.0638752281665802, 0.06008526310324669, 0.039200007915496826, 0.04233945533633232, 0.07816750556230545, 0.03301086649298668, 0.08717738837003708, 0.03921440243721008, 0.08976827561855316, 0.06348145753145218, 0.05376547574996948, 0.06866637617349625, 0.0739755928516388, 0.08144306391477585, 0.12014375627040863, 0.10980528593063354, 0.028258509933948517, 0.028312833979725838]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.538480818271637</v>
+        <v>0.4545036554336548</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -8903,10 +8903,10 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.9386119000264443</v>
+        <v>0.9250406000064686</v>
       </c>
       <c r="J209" t="n">
-        <v>0.005586975595395502</v>
+        <v>0.005506194047657551</v>
       </c>
     </row>
     <row r="210">
@@ -8925,11 +8925,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[0.09004497528076172, 0.09294134378433228, 0.11868507415056229, 0.2436743527650833, 0.17463333904743195, 0.14884647727012634, 0.17883965373039246, 0.14380981028079987, 0.14682745933532715, 0.15942157804965973, 0.19807219505310059, 0.13609042763710022, 0.22068321704864502, 0.19399432837963104, 0.09413161128759384, 0.13147376477718353, 0.16580212116241455, 0.09752239286899567, 0.09009543806314468, 0.080959752202034, 0.09586527943611145, 0.07738948613405228, 0.07322205603122711, 0.12098564952611923, 0.11599301546812057, 0.11779715120792389, 0.13322508335113525, 0.09764605015516281, 0.14673888683319092, 0.13304182887077332, 0.12360142171382904, 0.0948990061879158, 0.1098131388425827, 0.1416807472705841, 0.08426626026630402, 0.08367834240198135, 0.09684998542070389, 0.12488239258527756, 0.13870899379253387, 0.20702536404132843, 0.14187350869178772, 0.1151445135474205, 0.09512849152088165, 0.0771479606628418, 0.11012402176856995, 0.11702653020620346, 0.10047142207622528, 0.12940479815006256, 0.295772910118103, 0.225858673453331, 0.3787304759025574, 0.3610984981060028, 0.41407081484794617, 0.42439350485801697, 0.40210071206092834, 0.23649950325489044, 0.1383400410413742, 0.1843903362751007, 0.22564858198165894, 0.2004460245370865, 0.4527548849582672, 0.3863336741924286, 0.3527234196662903, 0.36873969435691833, 0.12347779422998428, 0.2556016743183136, 0.14636285603046417, 0.07803668826818466, 0.08481942117214203, 0.10967550426721573, 0.09917095303535461, 0.11649996787309647, 0.18392445147037506, 0.1243768259882927, 0.11415467411279678, 0.11771275848150253, 0.11098310351371765, 0.14075611531734467, 0.1542641669511795, 0.18867874145507812, 0.0911499410867691, 0.08041326701641083, 0.08037012070417404, 0.09194628894329071, 0.1549089252948761, 0.16903506219387054, 0.15431518852710724, 0.15016280114650726, 0.13450199365615845, 0.10723139345645905, 0.085970439016819, 0.21756739914417267, 0.3373119533061981, 0.5244385004043579, 0.20987316966056824, 0.28215450048446655, 0.3179687559604645, 0.22058239579200745, 0.22931569814682007, 0.15183444321155548, 0.28095269203186035, 0.5024531483650208, 0.6370736956596375, 0.36642172932624817, 0.4783777892589569, 0.3075641095638275, 0.2152482569217682, 0.2014663815498352, 0.15717753767967224, 0.18867607414722443, 0.0964295044541359, 0.14354990422725677, 0.1325264275074005, 0.17717859148979187, 0.2426714450120926, 0.30431902408599854, 0.258594274520874, 0.2848203182220459, 0.36198657751083374, 0.5530470609664917, 0.20458060503005981, 0.19817228615283966, 0.1476753205060959, 0.2032519280910492, 0.2089499682188034, 0.18774224817752838, 0.17412011325359344, 0.1393359750509262, 0.17449799180030823, 0.1446935385465622, 0.10943558812141418, 0.2023794800043106, 0.08411596715450287, 0.08888955414295197, 0.1693769097328186, 0.14988580346107483, 0.13222819566726685, 0.14649651944637299, 0.11471324414014816, 0.1159956082701683, 0.10392434149980545, 0.10039181262254715, 0.08364127576351166, 0.0778692215681076, 0.08576710522174835, 0.12506067752838135, 0.12147492170333862, 0.09403228014707565, 0.128188818693161, 0.11930697411298752, 0.13483545184135437, 0.11253545433282852, 0.2374154031276703, 0.16053621470928192, 0.10709183663129807, 0.1407955139875412, 0.3097458481788635, 0.3110506236553192, 0.27531763911247253, 0.11365465074777603, 0.106205515563488, 0.09069699048995972, 0.09795363247394562, 0.1497705727815628, 0.1773103028535843, 0.17056632041931152, 0.18750455975532532, 0.10200721770524979, 0.1018969789147377]</t>
+          <t>[0.03441987559199333, 0.04126860946416855, 0.04569832608103752, 0.10727562010288239, 0.0731654167175293, 0.07960531115531921, 0.10012917220592499, 0.10704675316810608, 0.09312820434570312, 0.08641701936721802, 0.10836677253246307, 0.06207522749900818, 0.152165949344635, 0.11267074197530746, 0.033341143280267715, 0.05252138897776604, 0.056401144713163376, 0.03556440398097038, 0.03953085094690323, 0.030440496280789375, 0.029471157118678093, 0.023840315639972687, 0.01797797530889511, 0.03928350657224655, 0.03339235857129097, 0.04209309071302414, 0.042048439383506775, 0.030267810449004173, 0.044474635273218155, 0.05978180468082428, 0.06579364836215973, 0.03527062013745308, 0.05709518492221832, 0.07957854121923447, 0.027370985597372055, 0.03771059215068817, 0.03904353454709053, 0.049981728196144104, 0.07045867294073105, 0.1452479362487793, 0.12079770863056183, 0.10025416314601898, 0.07064299285411835, 0.04705354571342468, 0.07370539009571075, 0.05220384895801544, 0.050808701664209366, 0.05620967596769333, 0.20186768472194672, 0.1299041360616684, 0.24899421632289886, 0.2517373561859131, 0.33309268951416016, 0.339539110660553, 0.2829693853855133, 0.18958918750286102, 0.0855473205447197, 0.13054005801677704, 0.220498189330101, 0.14139872789382935, 0.439851850271225, 0.31178125739097595, 0.26776647567749023, 0.3021168112754822, 0.08185004442930222, 0.23490457236766815, 0.0890619307756424, 0.03169536963105202, 0.03618874028325081, 0.04786543920636177, 0.042729999870061874, 0.033842120319604874, 0.050593070685863495, 0.027796544134616852, 0.028060855343937874, 0.030932564288377762, 0.028146231546998024, 0.05241234600543976, 0.05635904148221016, 0.05829736590385437, 0.025047242641448975, 0.023646889254450798, 0.02160082757472992, 0.03336760774254799, 0.060330912470817566, 0.08584318310022354, 0.07603734731674194, 0.07812881469726562, 0.0625985786318779, 0.04525844752788544, 0.02844432182610035, 0.12197710573673248, 0.20967532694339752, 0.4416225552558899, 0.13572341203689575, 0.19986990094184875, 0.15421532094478607, 0.06083337590098381, 0.07708659768104553, 0.05643024295568466, 0.11039090901613235, 0.18853849172592163, 0.3424924612045288, 0.1466880589723587, 0.29157909750938416, 0.11581524461507797, 0.06934804469347, 0.08743590861558914, 0.06185339391231537, 0.07913879305124283, 0.03453412279486656, 0.06019693240523338, 0.04913131147623062, 0.08870822936296463, 0.13055847585201263, 0.20998840034008026, 0.14044253528118134, 0.1266203075647354, 0.17964808642864227, 0.42911675572395325, 0.10164722800254822, 0.10412798076868057, 0.06437812000513077, 0.1094530001282692, 0.09713729470968246, 0.0935072973370552, 0.09975896775722504, 0.06278154999017715, 0.08276139199733734, 0.09110911935567856, 0.0574021078646183, 0.1473083645105362, 0.034697674214839935, 0.02970021590590477, 0.08326888084411621, 0.0942353829741478, 0.07648470997810364, 0.07696150988340378, 0.05739843100309372, 0.05666226148605347, 0.04703701287508011, 0.04886472597718239, 0.03473604843020439, 0.029667044058442116, 0.034880246967077255, 0.05442240089178085, 0.0411793515086174, 0.03507617488503456, 0.058316685259342194, 0.05030924826860428, 0.051354940980672836, 0.04752293601632118, 0.1317511796951294, 0.06479888409376144, 0.045157600194215775, 0.061545904725790024, 0.23011848330497742, 0.2495950609445572, 0.16484643518924713, 0.05132400989532471, 0.04236539080739021, 0.0420016273856163, 0.054334498941898346, 0.09981746226549149, 0.10115224868059158, 0.08826420456171036, 0.0822792574763298, 0.041999273002147675, 0.041929423809051514]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.6370736956596375</v>
+        <v>0.4416225552558899</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0.9402086999907624</v>
+        <v>0.9408707999973558</v>
       </c>
       <c r="J210" t="n">
-        <v>0.005563365088702736</v>
+        <v>0.00556728284022104</v>
       </c>
     </row>
     <row r="211">
@@ -8965,11 +8965,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[0.2031424194574356, 0.3862811028957367, 0.14178937673568726, 0.18365629017353058, 0.21971175074577332, 0.1704682558774948, 0.27040600776672363, 0.28737711906433105, 0.12686170637607574, 0.18283027410507202, 0.10516639053821564, 0.23984365165233612, 0.2234838604927063, 0.18095338344573975, 0.27290815114974976, 0.20127959549427032, 0.17724716663360596, 0.18490228056907654, 0.41027703881263733, 0.12774768471717834, 0.10707766562700272, 0.14277946949005127, 0.13773523271083832, 0.1447136402130127, 0.17561110854148865, 0.19084469974040985, 0.1432608813047409, 0.12320974469184875, 0.19292710721492767, 0.11030079424381256, 0.13293100893497467, 0.12201960384845734, 0.1956852823495865, 0.17464858293533325, 0.1535865068435669, 0.17707745730876923, 0.1367855668067932, 0.13729023933410645, 0.16212551295757294, 0.17812585830688477, 0.12581636011600494, 0.1751466542482376, 0.17076565325260162, 0.13922077417373657, 0.13870812952518463, 0.21468085050582886, 0.22657515108585358, 0.15601424872875214, 0.16813893616199493, 0.10083611309528351, 0.07349567860364914, 0.09538039565086365, 0.138945072889328, 0.12791535258293152, 0.15694980323314667, 0.28562483191490173, 0.25174787640571594, 0.1910654604434967, 0.1295413374900818, 0.1866612583398819, 0.21134302020072937, 0.1487714648246765, 0.179472416639328, 0.1706077754497528, 0.16949968039989471, 0.18641214072704315, 0.15363894402980804, 0.19723039865493774, 0.16046127676963806, 0.30078497529029846, 0.28116950392723083, 0.24993818998336792, 0.19569936394691467, 0.3743939697742462, 0.18779321014881134, 0.15872783958911896, 0.13900993764400482, 0.1565530151128769, 0.2119075059890747, 0.31021955609321594, 0.4280269145965576, 0.4679148197174072, 0.36702945828437805, 0.3130989074707031, 0.3549441993236542, 0.4090583920478821, 0.24781359732151031, 0.36247366666793823, 0.1696837693452835, 0.18736447393894196, 0.18171128630638123, 0.18202178180217743, 0.21426042914390564, 0.3193507492542267, 0.3517022430896759, 0.26708829402923584, 0.1704990714788437, 0.1379220336675644, 0.16223353147506714, 0.17901559174060822, 0.16731305420398712, 0.212934210896492, 0.22630277276039124, 0.13078972697257996, 0.11171365529298782, 0.23528069257736206, 0.38199061155319214, 0.2304808348417282, 0.31993746757507324, 0.22817403078079224, 0.1497468799352646, 0.1394522786140442, 0.1374935656785965, 0.28076714277267456, 0.19979803264141083, 0.17237597703933716, 0.1582607477903366, 0.22262638807296753, 0.23176217079162598, 0.23061013221740723, 0.1108144000172615, 0.14320573210716248, 0.1956547349691391, 0.24805229902267456, 0.22290284931659698, 0.3051597774028778, 0.37840282917022705, 0.36020204424858093, 0.17353910207748413, 0.1761319637298584, 0.21361498534679413, 0.2914220988750458, 0.15578864514827728, 0.2367784082889557, 0.26260313391685486, 0.3363850712776184, 0.24610385298728943, 0.28655871748924255, 0.19449619948863983, 0.3489733040332794, 0.504409909248352, 0.44346651434898376, 0.2909550666809082, 0.28076034784317017, 0.2881975769996643, 0.2736731767654419, 0.39911532402038574, 0.46892407536506653, 0.4921906888484955, 0.2160399705171585, 0.2309928685426712, 0.28135964274406433, 0.19815020263195038, 0.11727575957775116, 0.22332368791103363, 0.30983227491378784, 0.16793516278266907, 0.24334509670734406, 0.38264191150665283, 0.3457012474536896, 0.3281199336051941, 0.23922066390514374, 0.26028186082839966, 0.2555341422557831, 0.2281612753868103, 0.22281059622764587, 0.23457832634449005, 0.47043585777282715, 0.4697173237800598]</t>
+          <t>[0.116564080119133, 0.281360387802124, 0.048024747520685196, 0.0634395107626915, 0.10315851122140884, 0.06379733234643936, 0.1301695704460144, 0.18459975719451904, 0.056347575038671494, 0.10640539228916168, 0.036565762013196945, 0.10224035382270813, 0.10203509032726288, 0.09080985933542252, 0.14614349603652954, 0.186259925365448, 0.10330847650766373, 0.10384022444486618, 0.3207384943962097, 0.05758391320705414, 0.053741198033094406, 0.09337169677019119, 0.08683712780475616, 0.08721091598272324, 0.1142813041806221, 0.15535546839237213, 0.06935230642557144, 0.042236197739839554, 0.1129121258854866, 0.041127968579530716, 0.05462667718529701, 0.046178169548511505, 0.10531245172023773, 0.08118673413991928, 0.055586766451597214, 0.10887963324785233, 0.05479995533823967, 0.0578107014298439, 0.06779038161039352, 0.07544537633657455, 0.05989594757556915, 0.11006699502468109, 0.12817278504371643, 0.08722806721925735, 0.07342927157878876, 0.14978837966918945, 0.1281386762857437, 0.08041677623987198, 0.08250828832387924, 0.04647932946681976, 0.028302205726504326, 0.045362140983343124, 0.07570125162601471, 0.06825143843889236, 0.0833374634385109, 0.22255626320838928, 0.191809743642807, 0.12992870807647705, 0.07196392118930817, 0.10667510330677032, 0.15564145147800446, 0.1266479194164276, 0.1657036989927292, 0.1437714397907257, 0.12152690440416336, 0.11139203608036041, 0.1218041181564331, 0.21963517367839813, 0.14169001579284668, 0.44639623165130615, 0.2869992256164551, 0.22110511362552643, 0.1469939947128296, 0.4698905646800995, 0.15364938974380493, 0.10127909481525421, 0.08382109552621841, 0.09913509339094162, 0.12358573824167252, 0.2408468872308731, 0.4252545237541199, 0.4199940264225006, 0.24708765745162964, 0.22479300200939178, 0.2857424020767212, 0.32569068670272827, 0.1471831500530243, 0.29052695631980896, 0.08411280810832977, 0.08685556799173355, 0.08853034675121307, 0.10271080583333969, 0.13631440699100494, 0.24651847779750824, 0.22984065115451813, 0.16095305979251862, 0.10294289886951447, 0.05737859010696411, 0.0710970014333725, 0.07155463099479675, 0.06633443385362625, 0.12599527835845947, 0.16899481415748596, 0.06219553202390671, 0.05847254768013954, 0.12588320672512054, 0.3588509261608124, 0.10386233031749725, 0.18395394086837769, 0.12282796949148178, 0.05749497190117836, 0.045202042907476425, 0.0696815475821495, 0.143045574426651, 0.10987018048763275, 0.07606209069490433, 0.059243880212306976, 0.11748939007520676, 0.11837098747491837, 0.14782166481018066, 0.05219827964901924, 0.06684516370296478, 0.13051143288612366, 0.19853369891643524, 0.19478866457939148, 0.334538072347641, 0.37705186009407043, 0.3795025050640106, 0.11200061440467834, 0.11854621767997742, 0.13975878059864044, 0.2523345947265625, 0.08602324873209, 0.1973077356815338, 0.20416782796382904, 0.21991439163684845, 0.1641615778207779, 0.210963636636734, 0.12677037715911865, 0.32633572816848755, 0.5743656754493713, 0.552105188369751, 0.28787684440612793, 0.3383275866508484, 0.2906844913959503, 0.23795822262763977, 0.2854014039039612, 0.48772647976875305, 0.5169140696525574, 0.18873876333236694, 0.16349951922893524, 0.267709344625473, 0.10752544552087784, 0.09291013330221176, 0.23391388356685638, 0.4016008973121643, 0.14784158766269684, 0.2490144670009613, 0.3709058165550232, 0.286495178937912, 0.23185400664806366, 0.12621630728244781, 0.18269827961921692, 0.2550434172153473, 0.16559919714927673, 0.13013161718845367, 0.1448671519756317, 0.5505419969558716, 0.5503072142601013]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.5044099092483521</v>
+        <v>0.5743656754493713</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.9478679999883752</v>
+        <v>0.9568440000002738</v>
       </c>
       <c r="J211" t="n">
-        <v>0.005608686390463758</v>
+        <v>0.005661798816569668</v>
       </c>
     </row>
     <row r="212">
@@ -9005,11 +9005,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[0.41541844606399536, 0.17032694816589355, 0.19048331677913666, 0.16171248257160187, 0.18125948309898376, 0.15446659922599792, 0.10110141336917877, 0.4688437283039093, 0.4885055422782898, 0.12590089440345764, 0.34952905774116516, 0.13953019678592682, 0.21521501243114471, 0.19761769473552704, 0.2354878932237625, 0.5301635265350342, 0.31314024329185486, 0.2531112730503082, 0.29406702518463135, 0.257289320230484, 0.19570769369602203, 0.21142257750034332, 0.4111737310886383, 0.10084471851587296, 0.0524221733212471, 0.03430181369185448, 0.13523857295513153, 0.24092480540275574, 0.187984436750412, 0.17586630582809448, 0.22203585505485535, 0.0802217572927475, 0.24157795310020447, 0.24554625153541565, 0.19973772764205933, 0.18678288161754608, 0.10187791287899017, 0.11532360315322876, 0.13406196236610413, 0.10759728401899338, 0.23685619235038757, 0.1648711860179901, 0.14869752526283264, 0.152240589261055, 0.273257315158844, 0.19134438037872314, 0.2723313868045807, 0.2636719346046448, 0.2938588857650757, 0.13189920783042908, 0.5817328095436096, 0.15643112361431122, 0.2508274018764496, 0.19113069772720337, 0.17192038893699646, 0.16292065382003784, 0.08570428937673569, 0.11220704764127731, 0.10734446346759796, 0.06983467936515808, 0.09935097396373749, 0.08794539421796799, 0.10121465474367142, 0.07051131129264832, 0.061367154121398926, 0.07264631241559982, 0.09998412430286407, 0.10004092752933502, 0.09483427554368973, 0.08615861088037491, 0.07439278811216354, 0.07950439304113388, 0.07425599545240402, 0.08411635458469391, 0.10810594260692596, 0.08741346001625061, 0.06364946067333221, 0.06920479983091354, 0.0612933412194252, 0.05699984356760979, 0.09338901937007904, 0.06941491365432739, 0.0873350128531456, 0.10294531285762787, 0.08617254346609116, 0.0644463524222374, 0.08459281176328659, 0.08174289762973785, 0.07016898691654205, 0.11363981664180756, 0.08541558682918549, 0.10050486028194427, 0.10005099326372147, 0.10686265677213669, 0.06352152675390244, 0.047159381210803986, 0.049570512026548386, 0.047033607959747314, 0.057039227336645126, 0.061128176748752594, 0.07359182089567184, 0.09634699672460556, 0.04559987410902977, 0.101409412920475, 0.06553256511688232, 0.06584601104259491, 0.0918840542435646, 0.05538509413599968, 0.05480508878827095, 0.05823646858334541, 0.051690444350242615, 0.06666833907365799, 0.049218833446502686, 0.08635416626930237, 0.0636654645204544, 0.05237453803420067, 0.07229521870613098, 0.05393458157777786, 0.04317684471607208, 0.04335086792707443, 0.09663937985897064, 0.0725388377904892, 0.0699082538485527, 0.12237872928380966, 0.12061252444982529, 0.09474724531173706, 0.08532827347517014, 0.13171786069869995, 0.06796585768461227, 0.07163889706134796, 0.0554509162902832, 0.0708157941699028, 0.042060934007167816, 0.06214101240038872, 0.03686317801475525, 0.04035818949341774, 0.05676329508423805, 0.05925656110048294, 0.048262886703014374, 0.052586089819669724, 0.06331287324428558, 0.03828046843409538, 0.039745356887578964, 0.04091294854879379, 0.06158646196126938, 0.07071752846240997, 0.0637311041355133, 0.05312109738588333, 0.08873007446527481, 0.08709204941987991, 0.06367245316505432, 0.07692473381757736, 0.16966207325458527, 0.18520882725715637, 0.2851050794124603, 0.14016178250312805, 0.0856284499168396, 0.06326837837696075, 0.07931526005268097, 0.08879837393760681, 0.06073087453842163, 0.10371008515357971, 0.08236120641231537, 0.09850768744945526, 0.08136862516403198, 0.08277688175439835, 0.06407741457223892, 0.08389932662248611, 0.08390569686889648]</t>
+          <t>[0.2743290662765503, 0.06193441152572632, 0.07388878613710403, 0.056366972625255585, 0.08377299457788467, 0.06501316279172897, 0.03633563593029976, 0.1689435988664627, 0.14455564320087433, 0.03608828783035278, 0.10242780297994614, 0.040954217314720154, 0.06425397098064423, 0.07394663244485855, 0.07840146124362946, 0.20332792401313782, 0.1443699449300766, 0.12389890849590302, 0.108436718583107, 0.10522925108671188, 0.09214098006486893, 0.0663963034749031, 0.19478505849838257, 0.030269071459770203, 0.019485628232359886, 0.008864101022481918, 0.10218420624732971, 0.16029880940914154, 0.1047116219997406, 0.10080663114786148, 0.1286252737045288, 0.029857909306883812, 0.09096058458089828, 0.09402532875537872, 0.10243682563304901, 0.1554029881954193, 0.06580536812543869, 0.06151173263788223, 0.07742811739444733, 0.06593764573335648, 0.14701290428638458, 0.08180038630962372, 0.06732377409934998, 0.05900081619620323, 0.12887877225875854, 0.05740011855959892, 0.07176768034696579, 0.07889439165592194, 0.11338232457637787, 0.05947733297944069, 0.6279153227806091, 0.10974924266338348, 0.19096899032592773, 0.12953853607177734, 0.09528055787086487, 0.10265792906284332, 0.05481094866991043, 0.07359526306390762, 0.06737986207008362, 0.04186169430613518, 0.06250590831041336, 0.05196352303028107, 0.06668970733880997, 0.03601990267634392, 0.03186774253845215, 0.042017512023448944, 0.05264301598072052, 0.04009591042995453, 0.045701850205659866, 0.037477172911167145, 0.038713473826646805, 0.04582270234823227, 0.040953777730464935, 0.03426564484834671, 0.04270036146044731, 0.04485783353447914, 0.03421778604388237, 0.030953576788306236, 0.0287634190171957, 0.027741704136133194, 0.054037801921367645, 0.03518836945295334, 0.04640382528305054, 0.07026806473731995, 0.051551636308431625, 0.03366127610206604, 0.04207932949066162, 0.037923991680145264, 0.03511033207178116, 0.05690768361091614, 0.04418397322297096, 0.07005351036787033, 0.07139226794242859, 0.06310194730758667, 0.04687345400452614, 0.03468018397688866, 0.027573542669415474, 0.027075696736574173, 0.03400580212473869, 0.03678697720170021, 0.04737180098891258, 0.045465126633644104, 0.01847127079963684, 0.053339634090662, 0.03132621571421623, 0.033373862504959106, 0.041597042232751846, 0.025187470018863678, 0.02559771202504635, 0.0298840943723917, 0.02949429675936699, 0.03500507026910782, 0.02159687504172325, 0.05716369301080704, 0.044616762548685074, 0.027951424941420555, 0.03942626714706421, 0.03398411348462105, 0.023606689646840096, 0.025491489097476006, 0.0777164027094841, 0.05004684254527092, 0.043375398963689804, 0.10729201883077621, 0.08366580307483673, 0.05151286721229553, 0.0496261902153492, 0.08862001448869705, 0.03404533863067627, 0.042776670306921005, 0.03034881316125393, 0.039900943636894226, 0.023165332153439522, 0.03665358945727348, 0.02168131247162819, 0.0246201753616333, 0.0377490408718586, 0.03771132230758667, 0.02420702576637268, 0.03185969963669777, 0.04780569672584534, 0.020791564136743546, 0.020878102630376816, 0.018994752317667007, 0.03652545437216759, 0.03837287425994873, 0.02986147254705429, 0.030957842245697975, 0.04340720176696777, 0.030834967270493507, 0.030249327421188354, 0.042781490832567215, 0.0759478434920311, 0.08429257571697235, 0.15122318267822266, 0.07048670202493668, 0.05507700517773628, 0.03535640239715576, 0.044358618557453156, 0.042072564363479614, 0.02785622328519821, 0.04190725460648537, 0.03933187201619148, 0.05016337335109711, 0.04449700936675072, 0.05470336601138115, 0.0407269187271595, 0.05323517322540283, 0.053257230669260025]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.5817328095436096</v>
+        <v>0.6279153227806091</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -9023,10 +9023,10 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.8979118000133894</v>
+        <v>0.8945939999975963</v>
       </c>
       <c r="J212" t="n">
-        <v>0.005313087574043724</v>
+        <v>0.005293455621287552</v>
       </c>
     </row>
     <row r="213">
@@ -9045,11 +9045,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[0.24130210280418396, 0.3783164620399475, 0.12247268855571747, 0.3303413391113281, 0.4198858439922333, 0.37450340390205383, 0.43822208046913147, 0.3437792658805847, 0.4320329427719116, 0.23205561935901642, 0.10228826105594635, 0.15116403996944427, 0.33938756585121155, 0.12927420437335968, 0.07096560299396515, 0.15804176032543182, 0.10402178764343262, 0.20100174844264984, 0.2124238908290863, 0.1633342206478119, 0.1700008362531662, 0.2193814218044281, 0.4402035176753998, 0.2910533845424652, 0.1791449785232544, 0.2092757523059845, 0.2195848524570465, 0.22442935407161713, 0.5021862983703613, 0.6321077346801758, 0.4807537794113159, 0.3307644724845886, 0.2073686122894287, 0.5887877941131592, 0.36870652437210083, 0.34585583209991455, 0.3289951682090759, 0.4026433825492859, 0.3311544954776764, 0.40431299805641174, 0.31597641110420227, 0.2770076096057892, 0.27945592999458313, 0.2632144093513489, 0.3193639814853668, 0.3364529013633728, 0.254943311214447, 0.14526477456092834, 0.4201433062553406, 0.08454591780900955, 0.14284133911132812, 0.06684243679046631, 0.09175163507461548, 0.19479843974113464, 0.12265105545520782, 0.23200632631778717, 0.11010268330574036, 0.07546811550855637, 0.16980327665805817, 0.15878066420555115, 0.19539861381053925, 0.23909245431423187, 0.16249750554561615, 0.1146761104464531, 0.2039521336555481, 0.13524329662322998, 0.1179366335272789, 0.1530163437128067, 0.11135441809892654, 0.11844305694103241, 0.08590710908174515, 0.10136179625988007, 0.1280924528837204, 0.18198919296264648, 0.1554339975118637, 0.17476028203964233, 0.43426936864852905, 0.291812926530838, 0.33129358291625977, 0.2444998323917389, 0.10139099508523941, 0.10774537920951843, 0.09571216255426407, 0.12465622276067734, 0.29487600922584534, 0.14471378922462463, 0.06397663056850433, 0.12225222587585449, 0.34967297315597534, 0.2787856161594391, 0.22386427223682404, 0.13704583048820496, 0.21342572569847107, 0.39776715636253357, 0.511424720287323, 0.5295987725257874, 0.17193977534770966, 0.25819119811058044, 0.3799890875816345, 0.4171409010887146, 0.3224906027317047, 0.19763527810573578, 0.3126329183578491, 0.3240244388580322, 0.35508713126182556, 0.15347760915756226, 0.19085727632045746, 0.15249432623386383, 0.2991289496421814, 0.5032199025154114, 0.805357813835144, 0.2902638018131256, 0.5099522471427917, 0.4026200473308563, 0.6491870284080505, 0.44439390301704407, 0.44104841351509094, 0.6300914883613586, 0.6281401515007019, 0.5259243845939636, 0.30096960067749023, 0.3585924804210663, 0.386764794588089, 0.35841450095176697, 0.3775060772895813, 0.45778632164001465, 0.4405030906200409, 0.39084529876708984, 0.4438808858394623, 0.4917656183242798, 0.7762860059738159, 0.6481430530548096, 0.5989350080490112, 0.8501400351524353, 0.6977340579032898, 0.4411008059978485, 0.4161718189716339, 0.25816354155540466, 0.31852656602859497, 0.602575957775116, 0.5679529309272766, 0.1699943095445633, 0.1679995059967041, 0.11389978975057602, 0.18931591510772705, 0.2039312869310379, 0.09842239320278168, 0.17253746092319489, 0.09641646593809128, 0.1744210422039032, 0.1879936158657074, 0.15328988432884216, 0.17567545175552368, 0.13862018287181854, 0.10960043966770172, 0.18780234456062317, 0.4565525949001312, 0.20517627894878387, 0.3989826440811157, 0.24412024021148682, 0.21707956492900848, 0.2489681839942932, 0.14092279970645905, 0.06404975801706314, 0.11350332945585251, 0.11454596370458603, 0.0904664695262909, 0.17628400027751923, 0.17781400680541992]</t>
+          <t>[0.12603119015693665, 0.2573845088481903, 0.041303329169750214, 0.1831846833229065, 0.2439904808998108, 0.2407967746257782, 0.22994419932365417, 0.17156760394573212, 0.19589929282665253, 0.09771793335676193, 0.035873886197805405, 0.06310833990573883, 0.14568951725959778, 0.04012118652462959, 0.021180788055062294, 0.048952195793390274, 0.03295188024640083, 0.10700307786464691, 0.0730762705206871, 0.055886879563331604, 0.0635894313454628, 0.11105778068304062, 0.35677677392959595, 0.23859860002994537, 0.09642843157052994, 0.09426961839199066, 0.08743340522050858, 0.07025362551212311, 0.2645705044269562, 0.3898056447505951, 0.25813961029052734, 0.16617105901241302, 0.09880601614713669, 0.4052347242832184, 0.18445269763469696, 0.2805604934692383, 0.24096466600894928, 0.2758728265762329, 0.1763381063938141, 0.21571661531925201, 0.1630755215883255, 0.13934972882270813, 0.16249677538871765, 0.1357170194387436, 0.14968696236610413, 0.12063249200582504, 0.062919981777668, 0.02831765078008175, 0.09552247822284698, 0.01651432365179062, 0.02781490795314312, 0.010403256863355637, 0.016576386988162994, 0.05453590676188469, 0.03389903903007507, 0.049187589436769485, 0.020959436893463135, 0.021113697439432144, 0.03402310982346535, 0.06039043515920639, 0.09301993995904922, 0.10760354995727539, 0.05990101769566536, 0.03153952583670616, 0.061654698103666306, 0.0465126633644104, 0.02779586799442768, 0.04403718560934067, 0.036942265927791595, 0.03721172735095024, 0.02288864180445671, 0.03065558895468712, 0.05299440771341324, 0.0883374959230423, 0.07277169823646545, 0.06945188343524933, 0.25106507539749146, 0.16288895905017853, 0.151397705078125, 0.08415581285953522, 0.020699316635727882, 0.023284954950213432, 0.022903190925717354, 0.03774212673306465, 0.11649962514638901, 0.05815346539020538, 0.021657979115843773, 0.03887256607413292, 0.19421805441379547, 0.12646105885505676, 0.11307629942893982, 0.07207319885492325, 0.10384932160377502, 0.22256895899772644, 0.31520673632621765, 0.4619681239128113, 0.07120020687580109, 0.10816173255443573, 0.11310499161481857, 0.1418866515159607, 0.1739519238471985, 0.1038990318775177, 0.16859671473503113, 0.10859090089797974, 0.11853799968957901, 0.046636663377285004, 0.08756870031356812, 0.05445750057697296, 0.13264018297195435, 0.32811686396598816, 0.7304084897041321, 0.1729593127965927, 0.2957490086555481, 0.15644730627536774, 0.46799954771995544, 0.2808140516281128, 0.25814616680145264, 0.468440443277359, 0.4438178539276123, 0.438427597284317, 0.19176816940307617, 0.22418254613876343, 0.1798240691423416, 0.17903102934360504, 0.1942041516304016, 0.24219539761543274, 0.2366447150707245, 0.24469023942947388, 0.2769629657268524, 0.35191255807876587, 0.7007641792297363, 0.44019100069999695, 0.32994237542152405, 0.6737224459648132, 0.51556795835495, 0.2565504312515259, 0.13660667836666107, 0.056978266686201096, 0.10224044322967529, 0.2446407824754715, 0.20246674120426178, 0.04770169034600258, 0.02871858887374401, 0.02113625407218933, 0.04989996179938316, 0.05573516711592674, 0.022303471341729164, 0.03770526498556137, 0.023062502965331078, 0.0322919599711895, 0.032409582287073135, 0.046078167855739594, 0.04602355137467384, 0.03604236990213394, 0.029074229300022125, 0.06585857272148132, 0.28555455803871155, 0.07405272871255875, 0.22729875147342682, 0.0907776728272438, 0.08873654901981354, 0.10377904027700424, 0.0685185119509697, 0.020365767180919647, 0.040548864752054214, 0.03725031763315201, 0.02824992686510086, 0.05224206671118736, 0.05291759595274925]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.8501400351524353</v>
+        <v>0.7304084897041321</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -9063,10 +9063,10 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0.906072799989488</v>
+        <v>0.9142715999914799</v>
       </c>
       <c r="J213" t="n">
-        <v>0.005361377514730698</v>
+        <v>0.00540989112420994</v>
       </c>
     </row>
     <row r="214">
@@ -9085,11 +9085,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[0.2134043574333191, 0.2924172878265381, 0.3004726469516754, 0.2134263515472412, 0.36239194869995117, 0.38539981842041016, 0.20708805322647095, 0.27646464109420776, 0.37964847683906555, 0.28625255823135376, 0.3942655026912689, 0.34986016154289246, 0.39047205448150635, 0.3776385188102722, 0.6120123267173767, 0.5030200481414795, 0.4926645755767822, 0.4953734278678894, 0.2381332665681839, 0.2817833721637726, 0.4749429523944855, 0.3701513707637787, 0.4836675524711609, 0.6598638892173767, 0.4127589464187622, 0.2582224905490875, 0.2160494476556778, 0.3915560245513916, 0.4708468019962311, 0.34738948941230774, 0.5432273745536804, 0.501826822757721, 0.30694934725761414, 0.4353380799293518, 0.6277250051498413, 0.6646029949188232, 0.3692314028739929, 0.35761284828186035, 0.3509293496608734, 0.38180795311927795, 0.3384486734867096, 0.42377904057502747, 0.28066834807395935, 0.31324905157089233, 0.2506006360054016, 0.16989456117153168, 0.4439339339733124, 0.37411433458328247, 0.5704694390296936, 0.7151386737823486, 0.7774521112442017, 0.5308650732040405, 0.46172815561294556, 0.33492952585220337, 0.26089414954185486, 0.3134682774543762, 0.4084993004798889, 0.306242436170578, 0.32919493317604065, 0.1855238527059555, 0.12216256558895111, 0.15830378234386444, 0.20318253338336945, 0.14552848041057587, 0.12297634035348892, 0.1769518107175827, 0.2866460680961609, 0.3215661942958832, 0.23256328701972961, 0.34200039505958557, 0.2945658564567566, 0.15875911712646484, 0.15349586308002472, 0.25618159770965576, 0.28545981645584106, 0.19503474235534668, 0.22613294422626495, 0.19661617279052734, 0.07564975321292877, 0.16505470871925354, 0.1507994383573532, 0.12633539736270905, 0.19506780803203583, 0.372757226228714, 0.39394402503967285, 0.5210954546928406, 0.3733547031879425, 0.48888668417930603, 0.4432089328765869, 0.40669065713882446, 0.38612818717956543, 0.3865841031074524, 0.5295022130012512, 0.307267427444458, 0.19643525779247284, 0.2616019546985626, 0.16631869971752167, 0.19967548549175262, 0.28389304876327515, 0.257874995470047, 0.1676139235496521, 0.24030572175979614, 0.1490873396396637, 0.29652470350265503, 0.37696126103401184, 0.1765379011631012, 0.3001008629798889, 0.27145707607269287, 0.33154335618019104, 0.10043419152498245, 0.1945878267288208, 0.37711793184280396, 0.36083507537841797, 0.2670348286628723, 0.30916863679885864, 0.43083295226097107, 0.5012606382369995, 0.6547815203666687, 0.23478855192661285, 0.37740984559059143, 0.7249468564987183, 0.29960325360298157, 0.4550780951976776, 0.2651956081390381, 0.26727673411369324, 0.30503472685813904, 0.19602707028388977, 0.18917156755924225, 0.13591493666172028, 0.14928355813026428, 0.11857941746711731, 0.07725001871585846, 0.10623518377542496, 0.1571793258190155, 0.12629593908786774, 0.26360559463500977, 0.41859522461891174, 0.2023371011018753, 0.32643094658851624, 0.36380261182785034, 0.16452521085739136, 0.28021252155303955, 0.31950056552886963, 0.3512980043888092, 0.33267074823379517, 0.21620166301727295, 0.2806294858455658, 0.34559202194213867, 0.37235012650489807, 0.34741881489753723, 0.24628089368343353, 0.35497239232063293, 0.35594356060028076, 0.4515973627567291, 0.344393789768219, 0.4449210464954376, 0.31975799798965454, 0.5370391011238098, 0.6733207702636719, 0.6049162149429321, 0.5722357630729675, 0.4192456603050232, 0.25548121333122253, 0.32985395193099976, 0.41572463512420654, 0.3740296959877014, 0.2974799871444702, 0.27592983841896057, 0.27547687292099]</t>
+          <t>[0.06622711569070816, 0.09341144561767578, 0.09224288910627365, 0.06770066916942596, 0.1445460021495819, 0.1157137006521225, 0.05521731451153755, 0.0742936059832573, 0.20220506191253662, 0.10796087235212326, 0.15810267627239227, 0.15633952617645264, 0.2534370422363281, 0.2673075497150421, 0.565422773361206, 0.4253599941730499, 0.37102648615837097, 0.3664785325527191, 0.13701608777046204, 0.16328661143779755, 0.42467328906059265, 0.2819618582725525, 0.3250149190425873, 0.4268169105052948, 0.21708601713180542, 0.13351716101169586, 0.11997663229703903, 0.31048980355262756, 0.4257015585899353, 0.23269078135490417, 0.4434085190296173, 0.5069656372070312, 0.1969565898180008, 0.3349009156227112, 0.5384964942932129, 0.599921703338623, 0.2548639476299286, 0.20168708264827728, 0.15124550461769104, 0.1747385710477829, 0.1769421249628067, 0.2716398239135742, 0.16030634939670563, 0.18582303822040558, 0.12601470947265625, 0.06528347730636597, 0.1975712925195694, 0.18223121762275696, 0.47317010164260864, 0.6956157088279724, 0.7477471828460693, 0.3393239974975586, 0.258360356092453, 0.15078580379486084, 0.07512577623128891, 0.09697061032056808, 0.14299653470516205, 0.10294343531131744, 0.11800152063369751, 0.05639171972870827, 0.031733524054288864, 0.042586565017700195, 0.06534839421510696, 0.0473322756588459, 0.03736716881394386, 0.06928538531064987, 0.11557032912969589, 0.14821693301200867, 0.09925080090761185, 0.14091524481773376, 0.10565686225891113, 0.04863957688212395, 0.04080391675233841, 0.08002589643001556, 0.08009743690490723, 0.05528174713253975, 0.06843627989292145, 0.04614711552858353, 0.016353193670511246, 0.06074265390634537, 0.04553205892443657, 0.04077542945742607, 0.08102920651435852, 0.22377152740955353, 0.2407233864068985, 0.2975163757801056, 0.16408300399780273, 0.16557471454143524, 0.22768087685108185, 0.25730031728744507, 0.1811962127685547, 0.18945902585983276, 0.33907225728034973, 0.12556757032871246, 0.07322176545858383, 0.08855324238538742, 0.05988295376300812, 0.11238481849431992, 0.138674795627594, 0.09449627995491028, 0.06590213626623154, 0.09857726842164993, 0.05239634960889816, 0.0704781785607338, 0.16335351765155792, 0.07292551547288895, 0.13304685056209564, 0.08079354465007782, 0.14897097647190094, 0.0292107742279768, 0.031848300248384476, 0.10462555289268494, 0.14479093253612518, 0.08973322063684464, 0.08403299748897552, 0.1556856483221054, 0.2017858326435089, 0.423333078622818, 0.08477430045604706, 0.14790120720863342, 0.5735144019126892, 0.1265958994626999, 0.2575666308403015, 0.11985398828983307, 0.17238135635852814, 0.1925305873155594, 0.11658395826816559, 0.1267370581626892, 0.06169435381889343, 0.06812875717878342, 0.04063766822218895, 0.026057761162519455, 0.03652162477374077, 0.06640451401472092, 0.05705147981643677, 0.1433996558189392, 0.3917071223258972, 0.12352164089679718, 0.32933008670806885, 0.29441580176353455, 0.08839726448059082, 0.12849710881710052, 0.1572650521993637, 0.1677292287349701, 0.16600929200649261, 0.09377497434616089, 0.12373284250497818, 0.18582408130168915, 0.15690994262695312, 0.15859444439411163, 0.11834641546010971, 0.21307730674743652, 0.24839617311954498, 0.2919864058494568, 0.16702015697956085, 0.35198891162872314, 0.14126740396022797, 0.263808935880661, 0.45911043882369995, 0.4482966959476471, 0.36107364296913147, 0.21595807373523712, 0.09330657124519348, 0.14814192056655884, 0.253376841545105, 0.18351829051971436, 0.12909705936908722, 0.1567772626876831, 0.15653084218502045]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.7774521112442017</v>
+        <v>0.7477471828460693</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -9103,10 +9103,10 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.9166458999970928</v>
+        <v>0.9144345999957295</v>
       </c>
       <c r="J214" t="n">
-        <v>0.005423940236669188</v>
+        <v>0.005410855621276506</v>
       </c>
     </row>
     <row r="215">
@@ -9125,11 +9125,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[0.543928325176239, 0.5840862989425659, 0.4560490846633911, 0.26752999424934387, 0.08909804373979568, 0.11633294075727463, 0.08379515260457993, 0.26791566610336304, 0.33617037534713745, 0.6042706966400146, 0.5748600363731384, 0.7351400852203369, 0.5841007828712463, 0.3127819001674652, 0.3906230628490448, 0.23978091776371002, 0.1946415901184082, 0.2122529298067093, 0.6385188698768616, 0.594325065612793, 0.6439793109893799, 0.5584198236465454, 0.4432511031627655, 0.4002498388290405, 0.42518195509910583, 0.44650036096572876, 0.22306014597415924, 0.41875794529914856, 0.4116952121257782, 0.4932113289833069, 0.2971416413784027, 0.23007282614707947, 0.22592440247535706, 0.12291862815618515, 0.16902248561382294, 0.14153440296649933, 0.09768752753734589, 0.03664572536945343, 0.15950235724449158, 0.1686275154352188, 0.4058993458747864, 0.5739372372627258, 0.27103543281555176, 0.8856327533721924, 0.867636501789093, 0.894161581993103, 0.8289452791213989, 0.5404173135757446, 0.34886714816093445, 0.46770039200782776, 0.4268293082714081, 0.22875313460826874, 0.37526747584342957, 0.2531416714191437, 0.2607863247394562, 0.31954067945480347, 0.5141100883483887, 0.371610164642334, 0.6412985324859619, 0.7007703185081482, 0.675624430179596, 0.4004865884780884, 0.6031622290611267, 0.8550064563751221, 0.8896470069885254, 0.8964807391166687, 0.9327921271324158, 0.9524705410003662, 0.8497111797332764, 0.7273316383361816, 0.32317614555358887, 0.1374925673007965, 0.09053453058004379, 0.14063288271427155, 0.19599615037441254, 0.28521832823753357, 0.6480685472488403, 0.4017643630504608, 0.4451335370540619, 0.1657067835330963, 0.2802780270576477, 0.2096758335828781, 0.1618807017803192, 0.16065235435962677, 0.12040866911411285, 0.19794169068336487, 0.21805912256240845, 0.1559673249721527, 0.09792836010456085, 0.13601544499397278, 0.19386489689350128, 0.1297076791524887, 0.20887519419193268, 0.3029977083206177, 0.3126731812953949, 0.1900220513343811, 0.16935952007770538, 0.12632231414318085, 0.10184881836175919, 0.12688471376895905, 0.07011957466602325, 0.11306807398796082, 0.14214369654655457, 0.14969469606876373, 0.11647719889879227, 0.07627767324447632, 0.09222394227981567, 0.09544101357460022, 0.10563397407531738, 0.17368590831756592, 0.2441776692867279, 0.2736698389053345, 0.2379712164402008, 0.19084113836288452, 0.21791934967041016, 0.39696916937828064, 0.15065118670463562, 0.15889215469360352, 0.3139575123786926, 0.48414117097854614, 0.05236458405852318, 0.06019844859838486, 0.11353696882724762, 0.1303030103445053, 0.07871019840240479, 0.12503103911876678, 0.17148908972740173, 0.06563859432935715, 0.08357897400856018, 0.05762618035078049, 0.06523425877094269, 0.054528895765542984, 0.08123192191123962, 0.06601210683584213, 0.07106537371873856, 0.08386839926242828, 0.13346543908119202, 0.08920943737030029, 0.06589530408382416, 0.05206556245684624, 0.11553406715393066, 0.09842996299266815, 0.13537363708019257, 0.19687913358211517, 0.20964907109737396, 0.12246762961149216, 0.13018327951431274, 0.2174011617898941, 0.25784212350845337, 0.2978369891643524, 0.26014962792396545, 0.16407258808612823, 0.18598628044128418, 0.27254632115364075, 0.3357238173484802, 0.3595760464668274, 0.2266669124364853, 0.1312154084444046, 0.10437190532684326, 0.10373284667730331, 0.13009147346019745, 0.22261087596416473, 0.18530941009521484, 0.23881198465824127, 0.1835447996854782, 0.1162136122584343, 0.07704576104879379, 0.07082246243953705, 0.07095561176538467]</t>
+          <t>[0.4175114035606384, 0.6000491976737976, 0.4805249273777008, 0.23848286271095276, 0.042279213666915894, 0.07968993484973907, 0.05999746546149254, 0.18802593648433685, 0.2723139524459839, 0.6421253085136414, 0.48205408453941345, 0.6842235922813416, 0.4278104305267334, 0.1383446305990219, 0.2914772033691406, 0.13033317029476166, 0.0849156528711319, 0.09649898111820221, 0.5641693472862244, 0.3879128098487854, 0.42354780435562134, 0.42068442702293396, 0.24124827980995178, 0.21560516953468323, 0.27153897285461426, 0.28697189688682556, 0.08961142599582672, 0.2386087328195572, 0.3499870002269745, 0.38447219133377075, 0.20993556082248688, 0.22779326140880585, 0.23664632439613342, 0.08449507504701614, 0.1616515964269638, 0.10350612550973892, 0.04692650958895683, 0.01768576353788376, 0.0487779900431633, 0.11885333806276321, 0.5448949933052063, 0.6641821265220642, 0.21817730367183685, 0.9244455099105835, 0.9287329912185669, 0.9509129524230957, 0.8517392873764038, 0.49025243520736694, 0.37624603509902954, 0.5302507281303406, 0.30053016543388367, 0.13691876828670502, 0.31114569306373596, 0.2626076638698578, 0.23224791884422302, 0.2994958162307739, 0.5448479652404785, 0.25908148288726807, 0.7042544484138489, 0.7783879637718201, 0.7988829612731934, 0.4589974880218506, 0.6659411787986755, 0.897879958152771, 0.9241891503334045, 0.872943103313446, 0.9552730321884155, 0.9724453091621399, 0.8606418371200562, 0.7700017094612122, 0.30728235840797424, 0.10557269304990768, 0.07430028170347214, 0.09628050774335861, 0.11614139378070831, 0.20260140299797058, 0.5381906628608704, 0.22416947782039642, 0.22081606090068817, 0.0937618613243103, 0.17728793621063232, 0.1115918681025505, 0.07888897508382797, 0.10720742493867874, 0.07774826884269714, 0.21135497093200684, 0.2393798828125, 0.13448742032051086, 0.055224791169166565, 0.08866759389638901, 0.149382084608078, 0.07752198725938797, 0.10571819543838501, 0.1707616150379181, 0.1634659469127655, 0.0952766090631485, 0.09235116839408875, 0.06701977550983429, 0.05909880995750427, 0.06769811362028122, 0.045247890055179596, 0.06711945682764053, 0.058695487678050995, 0.05071306973695755, 0.043062809854745865, 0.022823918610811234, 0.035695385187864304, 0.03327665477991104, 0.04636715352535248, 0.09959385544061661, 0.14457888901233673, 0.19641678035259247, 0.15143518149852753, 0.16313882172107697, 0.17130008339881897, 0.2514684796333313, 0.049263134598731995, 0.03745134919881821, 0.06594101339578629, 0.2688741981983185, 0.013097384944558144, 0.012836124747991562, 0.041489627212285995, 0.038261428475379944, 0.029095128178596497, 0.034845903515815735, 0.08410962671041489, 0.0232109222561121, 0.04787854850292206, 0.024333549663424492, 0.022317834198474884, 0.02076331339776516, 0.035820625722408295, 0.023665133863687515, 0.03236132860183716, 0.038971398025751114, 0.07530452311038971, 0.03806253522634506, 0.027839209884405136, 0.02101859450340271, 0.046946920454502106, 0.028979402035474777, 0.04592840373516083, 0.05663125216960907, 0.07622573524713516, 0.02615344524383545, 0.03345674276351929, 0.06299281120300293, 0.0511530376970768, 0.08103086799383163, 0.05719202756881714, 0.03044624999165535, 0.03998890519142151, 0.05508958548307419, 0.09654860943555832, 0.07966934889554977, 0.03756627067923546, 0.01822321116924286, 0.013581900857388973, 0.021240562200546265, 0.029183559119701385, 0.06776028126478195, 0.06406175345182419, 0.05663161724805832, 0.05017836391925812, 0.02495390549302101, 0.015313269570469856, 0.017372839152812958, 0.017418695613741875]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.9524705410003662</v>
+        <v>0.9724453091621399</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -9143,10 +9143,10 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0.9171583999996074</v>
+        <v>0.9149599000083981</v>
       </c>
       <c r="J215" t="n">
-        <v>0.005426972781062765</v>
+        <v>0.005413963905375137</v>
       </c>
     </row>
     <row r="216">
@@ -9165,11 +9165,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[0.5372243523597717, 0.3596101999282837, 0.22909197211265564, 0.47055739164352417, 0.2759033739566803, 0.4619637429714203, 0.3793225586414337, 0.1335417628288269, 0.11474648863077164, 0.20690391957759857, 0.2469174563884735, 0.2828340232372284, 0.20633305609226227, 0.07794369012117386, 0.10027148574590683, 0.1707865595817566, 0.2215617597103119, 0.08198149502277374, 0.045463431626558304, 0.034747421741485596, 0.10324182361364365, 0.10191388428211212, 0.06997695565223694, 0.05249331519007683, 0.04825948178768158, 0.06172127649188042, 0.06184551864862442, 0.18235857784748077, 0.13549518585205078, 0.11479047685861588, 0.10287068039178848, 0.10000137239694595, 0.08236019313335419, 0.07516039162874222, 0.07499793916940689, 0.15822316706180573, 0.08777505904436111, 0.042137373238801956, 0.058263812214136124, 0.04712679237127304, 0.05765058100223541, 0.07501957565546036, 0.05808631703257561, 0.051523786038160324, 0.11717928200960159, 0.0929030254483223, 0.09385097771883011, 0.08747249096632004, 0.06540001183748245, 0.09729845821857452, 0.08701179176568985, 0.12270566076040268, 0.20291279256343842, 0.29328760504722595, 0.16919155418872833, 0.6795239448547363, 0.7392461895942688, 0.5064760446548462, 0.5301333069801331, 0.47711291909217834, 0.31154710054397583, 0.43333756923675537, 0.23469656705856323, 0.20101799070835114, 0.21188609302043915, 0.308122843503952, 0.3798203766345978, 0.39547061920166016, 0.4902687072753906, 0.3438952565193176, 0.35560086369514465, 0.42988646030426025, 0.29599106311798096, 0.20718874037265778, 0.20976461470127106, 0.1504594385623932, 0.151346817612648, 0.1950831562280655, 0.32936301827430725, 0.23615460097789764, 0.2142220437526703, 0.25736457109451294, 0.16894249618053436, 0.05306188389658928, 0.0778467059135437, 0.13039064407348633, 0.5296145081520081, 0.7511526346206665, 0.5557136535644531, 0.6757484078407288, 0.35579726099967957, 0.8322652578353882, 0.7811896204948425, 0.6571147441864014, 0.8259682059288025, 0.3752031624317169, 0.3807128965854645, 0.15324707329273224, 0.11358793079853058, 0.19499656558036804, 0.11065994948148727, 0.09717140346765518, 0.07032918184995651, 0.042551424354314804, 0.07491697371006012, 0.10841265320777893, 0.20909234881401062, 0.2397201955318451, 0.44203755259513855, 0.6859580278396606, 0.4580923616886139, 0.19682468473911285, 0.09076163917779922, 0.16332855820655823, 0.18209758400917053, 0.21199949085712433, 0.1988535374403, 0.23290610313415527, 0.25806674361228943, 0.2040717750787735, 0.06039939448237419, 0.0982799232006073, 0.0674879401922226, 0.16479676961898804, 0.13663819432258606, 0.13072577118873596, 0.1871454119682312, 0.17106319963932037, 0.290665864944458, 0.10105205327272415, 0.16335485875606537, 0.13444089889526367, 0.12217550724744797, 0.0967414528131485, 0.12730936706066132, 0.1208447515964508, 0.18099112808704376, 0.12022662162780762, 0.12672404944896698, 0.1689453423023224, 0.15896636247634888, 0.16389307379722595, 0.09652832895517349, 0.09626166522502899, 0.2441404163837433, 0.31848669052124023, 0.2774145305156708, 0.2247418910264969, 0.2016061693429947, 0.44255900382995605, 0.33237817883491516, 0.2740994095802307, 0.2237398624420166, 0.15826256573200226, 0.284174382686615, 0.19860683381557465, 0.24221107363700867, 0.23088327050209045, 0.16920499503612518, 0.2284761518239975, 0.5503414273262024, 0.23482587933540344, 0.3446107804775238, 0.4155971109867096, 0.652471661567688, 0.6444987654685974, 0.2577553987503052, 0.364414781332016, 0.36564746499061584]</t>
+          <t>[0.5791648626327515, 0.29151034355163574, 0.17784693837165833, 0.3852728307247162, 0.22377075254917145, 0.48925769329071045, 0.24262821674346924, 0.041773781180381775, 0.030553394928574562, 0.049710094928741455, 0.09048578888177872, 0.14515376091003418, 0.1333969682455063, 0.037203166633844376, 0.058799296617507935, 0.09471727162599564, 0.11369457095861435, 0.037125565111637115, 0.01956488937139511, 0.012347783893346786, 0.043758850544691086, 0.07051139324903488, 0.03486935794353485, 0.021683035418391228, 0.01471269316971302, 0.021099481731653214, 0.023241566494107246, 0.06752810627222061, 0.061190903186798096, 0.04845057427883148, 0.03760616108775139, 0.044807352125644684, 0.03742723539471626, 0.030922185629606247, 0.032619886100292206, 0.08910023421049118, 0.037286072969436646, 0.01737603172659874, 0.026857327669858932, 0.022125326097011566, 0.02014593966305256, 0.043251555413007736, 0.028999583795666695, 0.027322813868522644, 0.06011088192462921, 0.05081426724791527, 0.047358881682157516, 0.06294559687376022, 0.032918207347393036, 0.044467419385910034, 0.04665756970643997, 0.06681562215089798, 0.14559584856033325, 0.2201615422964096, 0.15415754914283752, 0.7064659595489502, 0.7888691425323486, 0.5580615401268005, 0.6254261136054993, 0.506193995475769, 0.25296828150749207, 0.4356212615966797, 0.19019021093845367, 0.14385323226451874, 0.13976623117923737, 0.24719934165477753, 0.3061872720718384, 0.30225303769111633, 0.41580766439437866, 0.3082561194896698, 0.37891021370887756, 0.3983038365840912, 0.18108384311199188, 0.12111758440732956, 0.12372256815433502, 0.06401441246271133, 0.07638318836688995, 0.1504060924053192, 0.2739964723587036, 0.34714698791503906, 0.24064597487449646, 0.4007858335971832, 0.17707639932632446, 0.02611217088997364, 0.033300209790468216, 0.061137400567531586, 0.4258166551589966, 0.7793349027633667, 0.5294377207756042, 0.6341806650161743, 0.3210706114768982, 0.6744870543479919, 0.5579510927200317, 0.5529010891914368, 0.8758676052093506, 0.2924779951572418, 0.310031920671463, 0.07385142892599106, 0.054519977420568466, 0.0963044986128807, 0.04705667123198509, 0.03964667767286301, 0.03398744389414787, 0.01866767182946205, 0.05416041612625122, 0.06612806767225266, 0.1533145010471344, 0.12485556304454803, 0.27832645177841187, 0.5159145593643188, 0.3663289248943329, 0.19231000542640686, 0.03942957893013954, 0.09675578773021698, 0.13230791687965393, 0.1768415868282318, 0.15505258738994598, 0.20638051629066467, 0.14457784593105316, 0.1533707082271576, 0.04033345729112625, 0.05897087603807449, 0.05076390132308006, 0.1677444726228714, 0.12355928868055344, 0.09604791551828384, 0.1312132179737091, 0.12386471033096313, 0.25181934237480164, 0.05556590482592583, 0.11682320386171341, 0.07416815310716629, 0.10967275500297546, 0.05319853499531746, 0.044511135667562485, 0.04639814421534538, 0.1429736316204071, 0.05535276234149933, 0.05093063414096832, 0.05982564017176628, 0.06474455446004868, 0.0767616257071495, 0.04059073328971863, 0.043882306665182114, 0.13002508878707886, 0.1680166870355606, 0.18052895367145538, 0.18850241601467133, 0.12906570732593536, 0.399115651845932, 0.3189743161201477, 0.31320708990097046, 0.13711175322532654, 0.11471150815486908, 0.3218781650066376, 0.18651114404201508, 0.09349244832992554, 0.11512629687786102, 0.10452009737491608, 0.1748659312725067, 0.5739613175392151, 0.23697808384895325, 0.33673256635665894, 0.5203244686126709, 0.7026058435440063, 0.8042782545089722, 0.18399667739868164, 0.24045778810977936, 0.24139727652072906]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.8322652578353882</v>
+        <v>0.8758676052093506</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -9183,10 +9183,10 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.9399159000022337</v>
+        <v>0.922322999991593</v>
       </c>
       <c r="J216" t="n">
-        <v>0.005561632544391916</v>
+        <v>0.005457532544328953</v>
       </c>
     </row>
     <row r="217">
@@ -9205,11 +9205,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[0.0633491799235344, 0.09856962412595749, 0.05862300843000412, 0.09658623486757278, 0.0534445196390152, 0.06119832396507263, 0.06253062188625336, 0.057732727378606796, 0.039975084364414215, 0.07499495893716812, 0.19851750135421753, 0.19758880138397217, 0.09911374002695084, 0.09671827405691147, 0.07183390110731125, 0.07998143881559372, 0.0983755812048912, 0.1284000724554062, 0.14545230567455292, 0.10457513481378555, 0.20414721965789795, 0.19104821979999542, 0.22687068581581116, 0.2590622007846832, 0.2311226725578308, 0.24825474619865417, 0.14373132586479187, 0.12446599453687668, 0.07805071026086807, 0.12535114586353302, 0.0654914528131485, 0.07555513083934784, 0.1118183434009552, 0.17694658041000366, 0.15215997397899628, 0.13450928032398224, 0.2106093168258667, 0.1547108292579651, 0.24930642545223236, 0.23115600645542145, 0.11108901351690292, 0.093843474984169, 0.06202142313122749, 0.05882091820240021, 0.09962943196296692, 0.11220701783895493, 0.13801342248916626, 0.04994051530957222, 0.05943584814667702, 0.07624374330043793, 0.07799255102872849, 0.12257217615842819, 0.18091323971748352, 0.11181966215372086, 0.18673866987228394, 0.15866704285144806, 0.1299777776002884, 0.16398504376411438, 0.16864131391048431, 0.10508284717798233, 0.06192535534501076, 0.19741803407669067, 0.12305358052253723, 0.1736176311969757, 0.1719670295715332, 0.21460388600826263, 0.12553299963474274, 0.19210471212863922, 0.15409761667251587, 0.2450120896100998, 0.2615529000759125, 0.17776499688625336, 0.21574540436267853, 0.22603127360343933, 0.1706719994544983, 0.1989285796880722, 0.21862268447875977, 0.24719563126564026, 0.11408401280641556, 0.08920399099588394, 0.10042643547058105, 0.09576211124658585, 0.1450883001089096, 0.1184026226401329, 0.10245536267757416, 0.1587209850549698, 0.12334860861301422, 0.0968821719288826, 0.20137351751327515, 0.22291405498981476, 0.2709890305995941, 0.14222034811973572, 0.1389448642730713, 0.15096011757850647, 0.4365989565849304, 0.5097325444221497, 0.27582672238349915, 0.30989521741867065, 0.2863290309906006, 0.22961901128292084, 0.16802090406417847, 0.08127568662166595, 0.1314949095249176, 0.10830409079790115, 0.15709520876407623, 0.1948532909154892, 0.08046026527881622, 0.14176951348781586, 0.16935448348522186, 0.2414296716451645, 0.40445882081985474, 0.17450639605522156, 0.2739928662776947, 0.1867189258337021, 0.44524085521698, 0.4691998064517975, 0.23844829201698303, 0.16335053741931915, 0.1328698992729187, 0.1553105115890503, 0.17831137776374817, 0.17193131148815155, 0.32019734382629395, 0.3105989098548889, 0.37337201833724976, 0.18918125331401825, 0.12850745022296906, 0.15895268321037292, 0.11446896940469742, 0.09248926490545273, 0.04570614919066429, 0.11673689633607864, 0.06323122978210449, 0.07249154895544052, 0.10148772597312927, 0.07621490955352783, 0.0829285979270935, 0.053434599190950394, 0.04592137038707733, 0.07516901940107346, 0.1098739430308342, 0.15772603452205658, 0.29374033212661743, 0.09889437258243561, 0.07495217025279999, 0.18719382584095, 0.1649744063615799, 0.7764159440994263, 0.6889874935150146, 0.3764343857765198, 0.5602908730506897, 0.7741597294807434, 0.7210972309112549, 0.6089827418327332, 0.39138394594192505, 0.4153272807598114, 0.5895394682884216, 0.420910507440567, 0.5733544826507568, 0.6017354726791382, 0.5587022304534912, 0.33293616771698, 0.15909253060817719, 0.30514875054359436, 0.3816858232021332, 0.20652680099010468, 0.6424304842948914, 0.3582804203033447, 0.36012908816337585]</t>
+          <t>[0.033769771456718445, 0.04628241807222366, 0.022517764940857887, 0.06776014715433121, 0.017171265557408333, 0.01769523322582245, 0.024843888357281685, 0.031524136662483215, 0.012713800184428692, 0.0325055792927742, 0.12541916966438293, 0.21671169996261597, 0.08121590316295624, 0.061858441680669785, 0.05890967324376106, 0.05146223306655884, 0.07800901681184769, 0.121769979596138, 0.14025801420211792, 0.08453977108001709, 0.15571032464504242, 0.15399868786334991, 0.2176215797662735, 0.21833913028240204, 0.14942577481269836, 0.10628622770309448, 0.07528000324964523, 0.11745196580886841, 0.07414238899946213, 0.14936769008636475, 0.046691134572029114, 0.0814770981669426, 0.08124756067991257, 0.1678173542022705, 0.148072749376297, 0.10989369451999664, 0.20586611330509186, 0.07842543721199036, 0.1325593739748001, 0.10552869737148285, 0.04829483851790428, 0.05347282066941261, 0.025197621434926987, 0.023898273706436157, 0.06257807463407516, 0.056361280381679535, 0.08408518135547638, 0.02793758362531662, 0.023325538262724876, 0.03468017280101776, 0.04913104698061943, 0.06284822523593903, 0.07863648980855942, 0.038286492228507996, 0.06158805638551712, 0.06803108006715775, 0.0687892735004425, 0.08960476517677307, 0.12319831550121307, 0.07834307104349136, 0.03612048178911209, 0.1357283592224121, 0.0797569677233696, 0.10537320375442505, 0.10412737727165222, 0.1275508850812912, 0.07194126397371292, 0.10803478211164474, 0.09284942597150803, 0.168578639626503, 0.21665674448013306, 0.12397727370262146, 0.15522527694702148, 0.19606313109397888, 0.08567019551992416, 0.10199736803770065, 0.14291377365589142, 0.2021426260471344, 0.06814075261354446, 0.05610772967338562, 0.05134991183876991, 0.05343487113714218, 0.10409920662641525, 0.06454484909772873, 0.051940176635980606, 0.08872289955615997, 0.05902411416172981, 0.051726266741752625, 0.14356914162635803, 0.12133866548538208, 0.2401016503572464, 0.09662645310163498, 0.07615575194358826, 0.055412374436855316, 0.42819875478744507, 0.44256383180618286, 0.14828558266162872, 0.23275025188922882, 0.15130136907100677, 0.10846292972564697, 0.10811731964349747, 0.03178253769874573, 0.06109239161014557, 0.04138948768377304, 0.06512371450662613, 0.09484856575727463, 0.029702389612793922, 0.08203689754009247, 0.08550798147916794, 0.18896622955799103, 0.32594895362854004, 0.11745157837867737, 0.1392572969198227, 0.11351871490478516, 0.2789994180202484, 0.2710711658000946, 0.0991550013422966, 0.059133585542440414, 0.05411609634757042, 0.0645044595003128, 0.05251406505703926, 0.06768455356359482, 0.1744242161512375, 0.18281210958957672, 0.26309627294540405, 0.09710995852947235, 0.06487496942281723, 0.11076582223176956, 0.06774426251649857, 0.04177989438176155, 0.015445828437805176, 0.042295489460229874, 0.025969143956899643, 0.030568581074476242, 0.05556868016719818, 0.0479494072496891, 0.038024142384529114, 0.02263462170958519, 0.014548898674547672, 0.046626944094896317, 0.06248577684164047, 0.07399208843708038, 0.17379747331142426, 0.04089827835559845, 0.04530959948897362, 0.10285869240760803, 0.07333686947822571, 0.8194358348846436, 0.7063286900520325, 0.2789703607559204, 0.34731125831604004, 0.7225277423858643, 0.6932321786880493, 0.6018329858779907, 0.3245253264904022, 0.3937622904777527, 0.4279288649559021, 0.3529215455055237, 0.458417683839798, 0.5343729257583618, 0.4764545261859894, 0.3263581693172455, 0.09781605005264282, 0.271112859249115, 0.18823187053203583, 0.1058444231748581, 0.4905482232570648, 0.27218177914619446, 0.27253836393356323]</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.7764159440994263</v>
+        <v>0.8194358348846436</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0.9466278999752831</v>
+        <v>0.9345337999984622</v>
       </c>
       <c r="J217" t="n">
-        <v>0.005601348520563806</v>
+        <v>0.005529785798807469</v>
       </c>
     </row>
   </sheetData>
